--- a/pyMaster_loads_tool.xlsx
+++ b/pyMaster_loads_tool.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://atlec-my.sharepoint.com/personal/mwo_woodthilsted_com/Documents/Professional/5_PYTHON/pyARSA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://atlec-my.sharepoint.com/personal/mwo_woodthilsted_com/Documents/Professional/5_PYTHON/pyMasterLoadsTool/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="3" documentId="8_{72F070D9-512B-4F07-9F0A-8944200F0521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6231548A-138A-4300-B4CB-51BBD036004A}"/>
   <bookViews>
-    <workbookView xWindow="-19290" yWindow="-90" windowWidth="19380" windowHeight="11460" tabRatio="858" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="858" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Load case definition" sheetId="22" r:id="rId1"/>
@@ -1797,71 +1797,11 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1876,6 +1816,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1949,6 +1895,60 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2624,9 +2624,9 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>184150</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>371475</xdr:rowOff>
+          <xdr:rowOff>374650</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -2664,7 +2664,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="36576" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -2700,13 +2700,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>133350</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>2524125</xdr:colOff>
+          <xdr:colOff>2527300</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>504825</xdr:rowOff>
+          <xdr:rowOff>508000</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2738,7 +2738,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="36576" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -3063,33 +3063,33 @@
       <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="19" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="19" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="19" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="19" customWidth="1"/>
-    <col min="7" max="7" width="44.28515625" style="19" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="38.26953125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" style="19" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="44.26953125" style="19" customWidth="1"/>
     <col min="8" max="8" width="19" style="19" customWidth="1"/>
-    <col min="9" max="9" width="44.7109375" style="19" customWidth="1"/>
-    <col min="10" max="22" width="12.42578125" style="19" customWidth="1"/>
-    <col min="23" max="23" width="10.42578125" style="19" customWidth="1"/>
-    <col min="24" max="24" width="12.42578125" style="19" customWidth="1"/>
-    <col min="25" max="25" width="8.5703125" style="19" customWidth="1"/>
-    <col min="26" max="26" width="26.28515625" style="19" customWidth="1"/>
-    <col min="27" max="27" width="8.5703125" style="19" customWidth="1"/>
-    <col min="28" max="28" width="16.7109375" style="19" customWidth="1"/>
-    <col min="29" max="29" width="11.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.7265625" style="19" customWidth="1"/>
+    <col min="10" max="22" width="12.453125" style="19" customWidth="1"/>
+    <col min="23" max="23" width="10.453125" style="19" customWidth="1"/>
+    <col min="24" max="24" width="12.453125" style="19" customWidth="1"/>
+    <col min="25" max="25" width="8.54296875" style="19" customWidth="1"/>
+    <col min="26" max="26" width="26.26953125" style="19" customWidth="1"/>
+    <col min="27" max="27" width="8.54296875" style="19" customWidth="1"/>
+    <col min="28" max="28" width="16.7265625" style="19" customWidth="1"/>
+    <col min="29" max="29" width="11.26953125" style="19" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="12" style="19" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="28.28515625" style="19" customWidth="1"/>
-    <col min="32" max="32" width="8.7109375" style="19"/>
-    <col min="33" max="36" width="13.140625" style="19" customWidth="1"/>
-    <col min="37" max="16384" width="8.7109375" style="19"/>
+    <col min="31" max="31" width="28.26953125" style="19" customWidth="1"/>
+    <col min="32" max="32" width="8.7265625" style="19"/>
+    <col min="33" max="36" width="13.1796875" style="19" customWidth="1"/>
+    <col min="37" max="16384" width="8.7265625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="23.1" customHeight="1">
+    <row r="1" spans="1:36" ht="23.15" customHeight="1">
       <c r="A1" s="85" t="s">
         <v>111</v>
       </c>
@@ -3118,52 +3118,52 @@
       <c r="X1" s="17"/>
       <c r="Y1" s="17"/>
       <c r="Z1" s="17"/>
-      <c r="AB1" s="151" t="s">
+      <c r="AB1" s="192" t="s">
         <v>99</v>
       </c>
-      <c r="AC1" s="151"/>
-      <c r="AD1" s="151"/>
-      <c r="AE1" s="151"/>
-      <c r="AG1" s="164" t="s">
+      <c r="AC1" s="192"/>
+      <c r="AD1" s="192"/>
+      <c r="AE1" s="192"/>
+      <c r="AG1" s="189" t="s">
         <v>144</v>
       </c>
-      <c r="AH1" s="165"/>
-      <c r="AI1" s="165"/>
-      <c r="AJ1" s="166"/>
+      <c r="AH1" s="190"/>
+      <c r="AI1" s="190"/>
+      <c r="AJ1" s="191"/>
     </row>
     <row r="2" spans="1:36" ht="12.4" customHeight="1">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="158" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="168" t="s">
+      <c r="B2" s="159" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="168" t="s">
+      <c r="C2" s="159" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="170"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="169" t="s">
+      <c r="D2" s="187"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="175" t="s">
+      <c r="H2" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="167" t="s">
+      <c r="I2" s="158" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="161" t="s">
+      <c r="J2" s="184" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="162"/>
-      <c r="O2" s="162"/>
-      <c r="P2" s="162"/>
-      <c r="Q2" s="162"/>
-      <c r="R2" s="162"/>
+      <c r="K2" s="185"/>
+      <c r="L2" s="185"/>
+      <c r="M2" s="185"/>
+      <c r="N2" s="185"/>
+      <c r="O2" s="185"/>
+      <c r="P2" s="185"/>
+      <c r="Q2" s="185"/>
+      <c r="R2" s="185"/>
       <c r="S2" s="98"/>
       <c r="T2" s="98"/>
       <c r="U2" s="98"/>
@@ -3171,231 +3171,231 @@
       <c r="W2" s="98"/>
       <c r="X2" s="99"/>
       <c r="Y2" s="17"/>
-      <c r="Z2" s="167" t="s">
+      <c r="Z2" s="158" t="s">
         <v>51</v>
       </c>
-      <c r="AB2" s="168" t="s">
+      <c r="AB2" s="159" t="s">
         <v>56</v>
       </c>
-      <c r="AC2" s="168" t="s">
+      <c r="AC2" s="159" t="s">
         <v>52</v>
       </c>
-      <c r="AD2" s="168" t="s">
+      <c r="AD2" s="159" t="s">
         <v>53</v>
       </c>
-      <c r="AE2" s="168" t="s">
+      <c r="AE2" s="159" t="s">
         <v>54</v>
       </c>
-      <c r="AG2" s="167" t="s">
+      <c r="AG2" s="158" t="s">
         <v>142</v>
       </c>
-      <c r="AH2" s="167" t="s">
+      <c r="AH2" s="158" t="s">
         <v>143</v>
       </c>
-      <c r="AI2" s="167" t="s">
+      <c r="AI2" s="158" t="s">
         <v>134</v>
       </c>
-      <c r="AJ2" s="167" t="s">
+      <c r="AJ2" s="158" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="12.6" customHeight="1">
-      <c r="A3" s="167"/>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="176"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="178" t="s">
+    <row r="3" spans="1:36" ht="12.65" customHeight="1">
+      <c r="A3" s="158"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="188"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="160" t="s">
         <v>100</v>
       </c>
-      <c r="K3" s="179"/>
-      <c r="L3" s="180"/>
-      <c r="M3" s="187" t="s">
+      <c r="K3" s="161"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="169" t="s">
         <v>114</v>
       </c>
-      <c r="N3" s="188"/>
-      <c r="O3" s="189"/>
-      <c r="P3" s="175" t="s">
+      <c r="N3" s="170"/>
+      <c r="O3" s="171"/>
+      <c r="P3" s="155" t="s">
         <v>95</v>
       </c>
-      <c r="Q3" s="196"/>
-      <c r="R3" s="197"/>
-      <c r="S3" s="175" t="s">
+      <c r="Q3" s="178"/>
+      <c r="R3" s="179"/>
+      <c r="S3" s="155" t="s">
         <v>96</v>
       </c>
-      <c r="T3" s="196"/>
-      <c r="U3" s="197"/>
-      <c r="V3" s="152" t="s">
+      <c r="T3" s="178"/>
+      <c r="U3" s="179"/>
+      <c r="V3" s="186" t="s">
         <v>97</v>
       </c>
-      <c r="W3" s="155" t="s">
+      <c r="W3" s="195" t="s">
         <v>98</v>
       </c>
-      <c r="X3" s="156"/>
+      <c r="X3" s="196"/>
       <c r="Y3" s="17"/>
-      <c r="Z3" s="167"/>
-      <c r="AB3" s="168"/>
-      <c r="AC3" s="168"/>
-      <c r="AD3" s="168"/>
-      <c r="AE3" s="168"/>
-      <c r="AG3" s="167"/>
-      <c r="AH3" s="167"/>
-      <c r="AI3" s="167"/>
-      <c r="AJ3" s="167"/>
-    </row>
-    <row r="4" spans="1:36" ht="12.6" customHeight="1">
-      <c r="A4" s="167"/>
-      <c r="B4" s="168"/>
-      <c r="C4" s="168"/>
-      <c r="D4" s="170"/>
-      <c r="E4" s="171"/>
-      <c r="F4" s="172"/>
-      <c r="G4" s="173"/>
-      <c r="H4" s="176"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="181"/>
-      <c r="K4" s="182"/>
-      <c r="L4" s="183"/>
-      <c r="M4" s="190"/>
-      <c r="N4" s="191"/>
-      <c r="O4" s="192"/>
-      <c r="P4" s="176"/>
-      <c r="Q4" s="198"/>
-      <c r="R4" s="199"/>
-      <c r="S4" s="176"/>
-      <c r="T4" s="198"/>
-      <c r="U4" s="199"/>
-      <c r="V4" s="153"/>
-      <c r="W4" s="157"/>
-      <c r="X4" s="158"/>
+      <c r="Z3" s="158"/>
+      <c r="AB3" s="159"/>
+      <c r="AC3" s="159"/>
+      <c r="AD3" s="159"/>
+      <c r="AE3" s="159"/>
+      <c r="AG3" s="158"/>
+      <c r="AH3" s="158"/>
+      <c r="AI3" s="158"/>
+      <c r="AJ3" s="158"/>
+    </row>
+    <row r="4" spans="1:36" ht="12.65" customHeight="1">
+      <c r="A4" s="158"/>
+      <c r="B4" s="159"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="187"/>
+      <c r="E4" s="188"/>
+      <c r="F4" s="151"/>
+      <c r="G4" s="153"/>
+      <c r="H4" s="156"/>
+      <c r="I4" s="158"/>
+      <c r="J4" s="163"/>
+      <c r="K4" s="164"/>
+      <c r="L4" s="165"/>
+      <c r="M4" s="172"/>
+      <c r="N4" s="173"/>
+      <c r="O4" s="174"/>
+      <c r="P4" s="156"/>
+      <c r="Q4" s="180"/>
+      <c r="R4" s="181"/>
+      <c r="S4" s="156"/>
+      <c r="T4" s="180"/>
+      <c r="U4" s="181"/>
+      <c r="V4" s="193"/>
+      <c r="W4" s="197"/>
+      <c r="X4" s="198"/>
       <c r="Y4" s="17"/>
-      <c r="Z4" s="167"/>
-      <c r="AB4" s="168"/>
-      <c r="AC4" s="168"/>
-      <c r="AD4" s="168"/>
-      <c r="AE4" s="168"/>
-      <c r="AG4" s="167"/>
-      <c r="AH4" s="167"/>
-      <c r="AI4" s="167"/>
-      <c r="AJ4" s="167"/>
+      <c r="Z4" s="158"/>
+      <c r="AB4" s="159"/>
+      <c r="AC4" s="159"/>
+      <c r="AD4" s="159"/>
+      <c r="AE4" s="159"/>
+      <c r="AG4" s="158"/>
+      <c r="AH4" s="158"/>
+      <c r="AI4" s="158"/>
+      <c r="AJ4" s="158"/>
     </row>
     <row r="5" spans="1:36" ht="25.15" customHeight="1">
-      <c r="A5" s="167"/>
-      <c r="B5" s="168"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="171"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="173"/>
-      <c r="H5" s="176"/>
-      <c r="I5" s="167"/>
-      <c r="J5" s="181"/>
-      <c r="K5" s="182"/>
-      <c r="L5" s="183"/>
-      <c r="M5" s="190"/>
-      <c r="N5" s="191"/>
-      <c r="O5" s="192"/>
-      <c r="P5" s="176"/>
-      <c r="Q5" s="198"/>
-      <c r="R5" s="199"/>
-      <c r="S5" s="176"/>
-      <c r="T5" s="198"/>
-      <c r="U5" s="199"/>
-      <c r="V5" s="153"/>
-      <c r="W5" s="157"/>
-      <c r="X5" s="158"/>
+      <c r="A5" s="158"/>
+      <c r="B5" s="159"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="187"/>
+      <c r="E5" s="188"/>
+      <c r="F5" s="151"/>
+      <c r="G5" s="153"/>
+      <c r="H5" s="156"/>
+      <c r="I5" s="158"/>
+      <c r="J5" s="163"/>
+      <c r="K5" s="164"/>
+      <c r="L5" s="165"/>
+      <c r="M5" s="172"/>
+      <c r="N5" s="173"/>
+      <c r="O5" s="174"/>
+      <c r="P5" s="156"/>
+      <c r="Q5" s="180"/>
+      <c r="R5" s="181"/>
+      <c r="S5" s="156"/>
+      <c r="T5" s="180"/>
+      <c r="U5" s="181"/>
+      <c r="V5" s="193"/>
+      <c r="W5" s="197"/>
+      <c r="X5" s="198"/>
       <c r="Y5" s="17"/>
-      <c r="Z5" s="167"/>
-      <c r="AB5" s="168"/>
-      <c r="AC5" s="168"/>
-      <c r="AD5" s="168"/>
-      <c r="AE5" s="168"/>
-      <c r="AG5" s="167"/>
-      <c r="AH5" s="167"/>
-      <c r="AI5" s="167"/>
-      <c r="AJ5" s="167"/>
-    </row>
-    <row r="6" spans="1:36" ht="12.6" customHeight="1">
-      <c r="A6" s="167"/>
-      <c r="B6" s="168"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="170"/>
-      <c r="E6" s="171"/>
-      <c r="F6" s="172"/>
-      <c r="G6" s="173"/>
-      <c r="H6" s="176"/>
-      <c r="I6" s="167"/>
-      <c r="J6" s="184"/>
-      <c r="K6" s="185"/>
-      <c r="L6" s="186"/>
-      <c r="M6" s="193"/>
-      <c r="N6" s="194"/>
-      <c r="O6" s="195"/>
-      <c r="P6" s="176"/>
-      <c r="Q6" s="198"/>
-      <c r="R6" s="199"/>
-      <c r="S6" s="177"/>
-      <c r="T6" s="200"/>
-      <c r="U6" s="201"/>
-      <c r="V6" s="153"/>
-      <c r="W6" s="157"/>
-      <c r="X6" s="158"/>
+      <c r="Z5" s="158"/>
+      <c r="AB5" s="159"/>
+      <c r="AC5" s="159"/>
+      <c r="AD5" s="159"/>
+      <c r="AE5" s="159"/>
+      <c r="AG5" s="158"/>
+      <c r="AH5" s="158"/>
+      <c r="AI5" s="158"/>
+      <c r="AJ5" s="158"/>
+    </row>
+    <row r="6" spans="1:36" ht="12.65" customHeight="1">
+      <c r="A6" s="158"/>
+      <c r="B6" s="159"/>
+      <c r="C6" s="159"/>
+      <c r="D6" s="187"/>
+      <c r="E6" s="188"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="156"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="166"/>
+      <c r="K6" s="167"/>
+      <c r="L6" s="168"/>
+      <c r="M6" s="175"/>
+      <c r="N6" s="176"/>
+      <c r="O6" s="177"/>
+      <c r="P6" s="156"/>
+      <c r="Q6" s="180"/>
+      <c r="R6" s="181"/>
+      <c r="S6" s="157"/>
+      <c r="T6" s="182"/>
+      <c r="U6" s="183"/>
+      <c r="V6" s="193"/>
+      <c r="W6" s="197"/>
+      <c r="X6" s="198"/>
       <c r="Y6" s="17"/>
-      <c r="Z6" s="167"/>
-      <c r="AB6" s="168"/>
-      <c r="AC6" s="168"/>
-      <c r="AD6" s="168"/>
-      <c r="AE6" s="168"/>
-      <c r="AG6" s="167"/>
-      <c r="AH6" s="167"/>
-      <c r="AI6" s="167"/>
-      <c r="AJ6" s="167"/>
-    </row>
-    <row r="7" spans="1:36">
-      <c r="A7" s="152"/>
-      <c r="B7" s="169"/>
-      <c r="C7" s="169"/>
-      <c r="D7" s="170"/>
-      <c r="E7" s="171"/>
-      <c r="F7" s="172"/>
-      <c r="G7" s="174"/>
-      <c r="H7" s="177"/>
-      <c r="I7" s="167"/>
-      <c r="J7" s="161" t="s">
+      <c r="Z6" s="158"/>
+      <c r="AB6" s="159"/>
+      <c r="AC6" s="159"/>
+      <c r="AD6" s="159"/>
+      <c r="AE6" s="159"/>
+      <c r="AG6" s="158"/>
+      <c r="AH6" s="158"/>
+      <c r="AI6" s="158"/>
+      <c r="AJ6" s="158"/>
+    </row>
+    <row r="7" spans="1:36" ht="13">
+      <c r="A7" s="186"/>
+      <c r="B7" s="152"/>
+      <c r="C7" s="152"/>
+      <c r="D7" s="187"/>
+      <c r="E7" s="188"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="154"/>
+      <c r="H7" s="157"/>
+      <c r="I7" s="158"/>
+      <c r="J7" s="184" t="s">
         <v>112</v>
       </c>
-      <c r="K7" s="162"/>
-      <c r="L7" s="163"/>
-      <c r="M7" s="161" t="s">
+      <c r="K7" s="185"/>
+      <c r="L7" s="201"/>
+      <c r="M7" s="184" t="s">
         <v>101</v>
       </c>
-      <c r="N7" s="162"/>
-      <c r="O7" s="163"/>
-      <c r="P7" s="177"/>
-      <c r="Q7" s="200"/>
-      <c r="R7" s="201"/>
-      <c r="S7" s="161" t="s">
+      <c r="N7" s="185"/>
+      <c r="O7" s="201"/>
+      <c r="P7" s="157"/>
+      <c r="Q7" s="182"/>
+      <c r="R7" s="183"/>
+      <c r="S7" s="184" t="s">
         <v>113</v>
       </c>
-      <c r="T7" s="162"/>
-      <c r="U7" s="163"/>
-      <c r="V7" s="154"/>
-      <c r="W7" s="159"/>
-      <c r="X7" s="160"/>
+      <c r="T7" s="185"/>
+      <c r="U7" s="201"/>
+      <c r="V7" s="194"/>
+      <c r="W7" s="199"/>
+      <c r="X7" s="200"/>
       <c r="Y7" s="17"/>
-      <c r="Z7" s="167"/>
-      <c r="AB7" s="168"/>
-      <c r="AC7" s="168"/>
-      <c r="AD7" s="168"/>
-      <c r="AE7" s="168"/>
-      <c r="AG7" s="167"/>
-      <c r="AH7" s="167"/>
-      <c r="AI7" s="167"/>
-      <c r="AJ7" s="167"/>
+      <c r="Z7" s="158"/>
+      <c r="AB7" s="159"/>
+      <c r="AC7" s="159"/>
+      <c r="AD7" s="159"/>
+      <c r="AE7" s="159"/>
+      <c r="AG7" s="158"/>
+      <c r="AH7" s="158"/>
+      <c r="AI7" s="158"/>
+      <c r="AJ7" s="158"/>
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="100">
@@ -4868,7 +4868,7 @@
       <c r="AI43" s="67"/>
       <c r="AJ43" s="67"/>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:36" ht="13">
       <c r="A44" s="68"/>
       <c r="B44" s="69"/>
       <c r="C44" s="21" t="str">
@@ -10096,6 +10096,22 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="V3:V7"/>
+    <mergeCell ref="W3:X7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AG2:AG7"/>
+    <mergeCell ref="AH2:AH7"/>
+    <mergeCell ref="AI2:AI7"/>
+    <mergeCell ref="AJ2:AJ7"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="E2:E7"/>
     <mergeCell ref="F2:F7"/>
     <mergeCell ref="G2:G7"/>
     <mergeCell ref="H2:H7"/>
@@ -10110,22 +10126,6 @@
     <mergeCell ref="AB2:AB7"/>
     <mergeCell ref="AC2:AC7"/>
     <mergeCell ref="AD2:AD7"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="E2:E7"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AG2:AG7"/>
-    <mergeCell ref="AH2:AH7"/>
-    <mergeCell ref="AI2:AI7"/>
-    <mergeCell ref="AJ2:AJ7"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="V3:V7"/>
-    <mergeCell ref="W3:X7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="S7:U7"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I1:I14">
@@ -10318,13 +10318,13 @@
       <selection pane="bottomRight" activeCell="Y64" sqref="Y64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="5.54296875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
-    <col min="2" max="2" width="38.42578125" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="93" width="8.140625" customWidth="1"/>
-    <col min="94" max="375" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" customWidth="1"/>
+    <col min="2" max="2" width="38.453125" customWidth="1"/>
+    <col min="3" max="3" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="93" width="8.1796875" customWidth="1"/>
+    <col min="94" max="375" width="6.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4605" ht="24" customHeight="1">
@@ -19939,7 +19939,7 @@
       <c r="FUB4" s="73"/>
       <c r="FUC4" s="73"/>
     </row>
-    <row r="5" spans="1:4605" s="4" customFormat="1" ht="15.6" customHeight="1">
+    <row r="5" spans="1:4605" s="4" customFormat="1" ht="15.65" customHeight="1">
       <c r="A5" s="33"/>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
@@ -20316,7 +20316,7 @@
       <c r="NJ5" s="92"/>
       <c r="NK5" s="92"/>
     </row>
-    <row r="6" spans="1:4605" s="16" customFormat="1" ht="14.45" customHeight="1">
+    <row r="6" spans="1:4605" s="16" customFormat="1" ht="14.5" customHeight="1">
       <c r="A6" s="13" t="s">
         <v>10</v>
       </c>
@@ -30835,9 +30835,9 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>184150</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>371475</xdr:rowOff>
+                    <xdr:rowOff>374650</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -30867,23 +30867,23 @@
       <selection activeCell="AN19" sqref="AN19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="35"/>
-    <col min="2" max="2" width="46.5703125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" style="35" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="35"/>
+    <col min="2" max="2" width="46.54296875" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7265625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="21.7265625" style="35" customWidth="1"/>
+    <col min="5" max="5" width="29.453125" style="35" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="26" width="5.7109375" style="35" customWidth="1"/>
-    <col min="27" max="28" width="7.7109375" style="35" customWidth="1"/>
-    <col min="29" max="33" width="5.7109375" style="35" customWidth="1"/>
-    <col min="34" max="49" width="8.7109375" style="35"/>
-    <col min="50" max="50" width="9.42578125" style="35" customWidth="1"/>
-    <col min="51" max="16384" width="8.7109375" style="35"/>
+    <col min="7" max="26" width="5.7265625" style="35" customWidth="1"/>
+    <col min="27" max="28" width="7.7265625" style="35" customWidth="1"/>
+    <col min="29" max="33" width="5.7265625" style="35" customWidth="1"/>
+    <col min="34" max="49" width="8.7265625" style="35"/>
+    <col min="50" max="50" width="9.453125" style="35" customWidth="1"/>
+    <col min="51" max="16384" width="8.7265625" style="35"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:55" ht="62.1" customHeight="1" thickBot="1">
+    <row r="2" spans="1:55" ht="62.15" customHeight="1" thickBot="1">
       <c r="B2" s="52"/>
       <c r="C2" s="53"/>
       <c r="D2" s="53"/>
@@ -32848,7 +32848,7 @@
       <c r="BB24" s="37"/>
       <c r="BC24" s="37"/>
     </row>
-    <row r="25" spans="1:55" ht="15.75" thickBot="1">
+    <row r="25" spans="1:55" ht="15" thickBot="1">
       <c r="A25" s="39"/>
       <c r="B25" s="40"/>
       <c r="C25" s="37"/>
@@ -32905,7 +32905,7 @@
       <c r="BB25" s="37"/>
       <c r="BC25" s="37"/>
     </row>
-    <row r="26" spans="1:55" ht="15.75" thickBot="1">
+    <row r="26" spans="1:55" ht="15" thickBot="1">
       <c r="A26" s="55"/>
       <c r="B26" s="56" t="s">
         <v>93</v>
@@ -35270,13 +35270,13 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>133350</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>104775</xdr:rowOff>
+                    <xdr:rowOff>107950</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>2524125</xdr:colOff>
+                    <xdr:colOff>2527300</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>504825</xdr:rowOff>
+                    <xdr:rowOff>508000</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -35300,26 +35300,26 @@
       <selection activeCell="H3" sqref="H3:H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="39.7109375" style="19" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" style="19" customWidth="1"/>
-    <col min="4" max="4" width="41.42578125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="46.7109375" style="19" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" style="19" customWidth="1"/>
-    <col min="7" max="7" width="31.5703125" style="19" customWidth="1"/>
+    <col min="1" max="1" width="12.26953125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="39.7265625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="40.7265625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="41.453125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="46.7265625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="35.7265625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="31.54296875" style="19" customWidth="1"/>
     <col min="8" max="8" width="36" style="19" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" style="19" customWidth="1"/>
-    <col min="10" max="10" width="32.42578125" style="19" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" style="19" customWidth="1"/>
-    <col min="12" max="18" width="8.7109375" style="19"/>
-    <col min="19" max="19" width="18.42578125" style="19" customWidth="1"/>
-    <col min="20" max="20" width="15.28515625" style="19" customWidth="1"/>
-    <col min="21" max="16384" width="8.7109375" style="19"/>
+    <col min="9" max="9" width="20.7265625" style="19" customWidth="1"/>
+    <col min="10" max="10" width="32.453125" style="19" customWidth="1"/>
+    <col min="11" max="11" width="20.26953125" style="19" customWidth="1"/>
+    <col min="12" max="18" width="8.7265625" style="19"/>
+    <col min="19" max="19" width="18.453125" style="19" customWidth="1"/>
+    <col min="20" max="20" width="15.26953125" style="19" customWidth="1"/>
+    <col min="21" max="16384" width="8.7265625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="13.5" thickBot="1">
+    <row r="1" spans="1:20" ht="13" thickBot="1">
       <c r="A1" s="19" t="s">
         <v>18</v>
       </c>
@@ -35336,7 +35336,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15.75">
+    <row r="2" spans="1:20" ht="15.5">
       <c r="A2" s="19" t="s">
         <v>20</v>
       </c>
@@ -35386,7 +35386,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="39">
+    <row r="3" spans="1:20" ht="38.5">
       <c r="A3" s="19" t="s">
         <v>28</v>
       </c>
@@ -35439,7 +35439,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.75">
+    <row r="4" spans="1:20" ht="15.5">
       <c r="A4" s="19" t="s">
         <v>32</v>
       </c>
@@ -35480,7 +35480,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15.75">
+    <row r="5" spans="1:20" ht="15.5">
       <c r="B5" s="19" t="s">
         <v>34</v>
       </c>
@@ -35518,7 +35518,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15.75">
+    <row r="6" spans="1:20" ht="15.5">
       <c r="B6" s="19" t="e">
         <f>"    \caption{" &amp;PlatformName&amp; " " &amp; B3 &amp;".}"</f>
         <v>#REF!</v>
@@ -35563,7 +35563,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75">
+    <row r="7" spans="1:20" ht="15.5">
       <c r="B7" s="19" t="e">
         <f>"    \label{tabl:" &amp; PlatformName &amp;" "&amp;B3 &amp;"}"</f>
         <v>#REF!</v>
@@ -35611,7 +35611,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75">
+    <row r="8" spans="1:20" ht="15.5">
       <c r="B8" s="19" t="s">
         <v>128</v>
       </c>
@@ -35650,7 +35650,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75">
+    <row r="9" spans="1:20" ht="15.5">
       <c r="B9" s="19" t="s">
         <v>116</v>
       </c>
@@ -35759,7 +35759,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75">
+    <row r="12" spans="1:20" ht="15.5">
       <c r="H12" s="27" t="s">
         <v>41</v>
       </c>
@@ -35914,14 +35914,14 @@
       <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="27" customWidth="1"/>
-    <col min="2" max="2" width="52.42578125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="27" customWidth="1"/>
-    <col min="4" max="24" width="11.5703125" style="27"/>
-    <col min="25" max="25" width="204.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="11.5703125" style="27"/>
+    <col min="1" max="1" width="20.7265625" style="27" customWidth="1"/>
+    <col min="2" max="2" width="52.453125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="22.7265625" style="27" customWidth="1"/>
+    <col min="4" max="24" width="11.54296875" style="27"/>
+    <col min="25" max="25" width="204.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="11.54296875" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">

--- a/pyMaster_loads_tool.xlsx
+++ b/pyMaster_loads_tool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://atlec-my.sharepoint.com/personal/mwo_woodthilsted_com/Documents/Professional/5_PYTHON/pyMasterLoadsTool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{72F070D9-512B-4F07-9F0A-8944200F0521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C1A2817-1E61-42A2-89C6-769EBB03646D}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{72F070D9-512B-4F07-9F0A-8944200F0521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{198C1E53-0401-4562-8159-277834CC66E3}"/>
   <bookViews>
-    <workbookView xWindow="5130" yWindow="7890" windowWidth="18945" windowHeight="11145" tabRatio="858" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="858" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Load case definition" sheetId="22" r:id="rId1"/>
@@ -1793,71 +1793,29 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1872,6 +1830,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1946,6 +1910,63 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1979,27 +2000,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3077,7 +3077,7 @@
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AE13" sqref="AE13"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -3090,7 +3090,7 @@
     <col min="6" max="6" width="8.7109375" style="19" customWidth="1"/>
     <col min="7" max="7" width="44.28515625" style="19" customWidth="1"/>
     <col min="8" max="8" width="19" style="19" customWidth="1"/>
-    <col min="9" max="9" width="44.7109375" style="218" customWidth="1"/>
+    <col min="9" max="9" width="44.7109375" style="155" customWidth="1"/>
     <col min="10" max="22" width="12.42578125" style="19" customWidth="1"/>
     <col min="23" max="23" width="10.42578125" style="19" customWidth="1"/>
     <col min="24" max="24" width="12.42578125" style="19" customWidth="1"/>
@@ -3117,7 +3117,7 @@
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
       <c r="H1" s="18"/>
-      <c r="I1" s="212"/>
+      <c r="I1" s="150"/>
       <c r="J1" s="17"/>
       <c r="K1" s="17"/>
       <c r="L1" s="17"/>
@@ -3135,52 +3135,52 @@
       <c r="X1" s="17"/>
       <c r="Y1" s="17"/>
       <c r="Z1" s="17"/>
-      <c r="AB1" s="150" t="s">
+      <c r="AB1" s="198" t="s">
         <v>99</v>
       </c>
-      <c r="AC1" s="150"/>
-      <c r="AD1" s="150"/>
-      <c r="AE1" s="150"/>
-      <c r="AG1" s="163" t="s">
+      <c r="AC1" s="198"/>
+      <c r="AD1" s="198"/>
+      <c r="AE1" s="198"/>
+      <c r="AG1" s="195" t="s">
         <v>144</v>
       </c>
-      <c r="AH1" s="164"/>
-      <c r="AI1" s="164"/>
-      <c r="AJ1" s="165"/>
+      <c r="AH1" s="196"/>
+      <c r="AI1" s="196"/>
+      <c r="AJ1" s="197"/>
     </row>
     <row r="2" spans="1:36" ht="12.4" customHeight="1">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="191" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="167" t="s">
+      <c r="B2" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="167" t="s">
+      <c r="C2" s="164" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="169"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="168" t="s">
+      <c r="D2" s="193"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="157" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="174" t="s">
+      <c r="H2" s="160" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="213" t="s">
+      <c r="I2" s="163" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="160" t="s">
+      <c r="J2" s="189" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="161"/>
-      <c r="L2" s="161"/>
-      <c r="M2" s="161"/>
-      <c r="N2" s="161"/>
-      <c r="O2" s="161"/>
-      <c r="P2" s="161"/>
-      <c r="Q2" s="161"/>
-      <c r="R2" s="161"/>
+      <c r="K2" s="190"/>
+      <c r="L2" s="190"/>
+      <c r="M2" s="190"/>
+      <c r="N2" s="190"/>
+      <c r="O2" s="190"/>
+      <c r="P2" s="190"/>
+      <c r="Q2" s="190"/>
+      <c r="R2" s="190"/>
       <c r="S2" s="98"/>
       <c r="T2" s="98"/>
       <c r="U2" s="98"/>
@@ -3188,231 +3188,231 @@
       <c r="W2" s="98"/>
       <c r="X2" s="99"/>
       <c r="Y2" s="17"/>
-      <c r="Z2" s="166" t="s">
+      <c r="Z2" s="191" t="s">
         <v>51</v>
       </c>
-      <c r="AB2" s="167" t="s">
+      <c r="AB2" s="164" t="s">
         <v>56</v>
       </c>
-      <c r="AC2" s="167" t="s">
+      <c r="AC2" s="164" t="s">
         <v>52</v>
       </c>
-      <c r="AD2" s="167" t="s">
+      <c r="AD2" s="164" t="s">
         <v>53</v>
       </c>
-      <c r="AE2" s="167" t="s">
+      <c r="AE2" s="164" t="s">
         <v>54</v>
       </c>
-      <c r="AG2" s="166" t="s">
+      <c r="AG2" s="191" t="s">
         <v>142</v>
       </c>
-      <c r="AH2" s="166" t="s">
+      <c r="AH2" s="191" t="s">
         <v>143</v>
       </c>
-      <c r="AI2" s="166" t="s">
+      <c r="AI2" s="191" t="s">
         <v>134</v>
       </c>
-      <c r="AJ2" s="166" t="s">
+      <c r="AJ2" s="191" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:36" ht="12.6" customHeight="1">
-      <c r="A3" s="166"/>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="172"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="213"/>
-      <c r="J3" s="177" t="s">
+      <c r="A3" s="191"/>
+      <c r="B3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="194"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="165" t="s">
         <v>100</v>
       </c>
-      <c r="K3" s="178"/>
-      <c r="L3" s="179"/>
-      <c r="M3" s="186" t="s">
+      <c r="K3" s="166"/>
+      <c r="L3" s="167"/>
+      <c r="M3" s="174" t="s">
         <v>114</v>
       </c>
-      <c r="N3" s="187"/>
-      <c r="O3" s="188"/>
-      <c r="P3" s="174" t="s">
+      <c r="N3" s="175"/>
+      <c r="O3" s="176"/>
+      <c r="P3" s="160" t="s">
         <v>95</v>
       </c>
-      <c r="Q3" s="195"/>
-      <c r="R3" s="196"/>
-      <c r="S3" s="174" t="s">
+      <c r="Q3" s="183"/>
+      <c r="R3" s="184"/>
+      <c r="S3" s="160" t="s">
         <v>96</v>
       </c>
-      <c r="T3" s="195"/>
-      <c r="U3" s="196"/>
-      <c r="V3" s="151" t="s">
+      <c r="T3" s="183"/>
+      <c r="U3" s="184"/>
+      <c r="V3" s="192" t="s">
         <v>97</v>
       </c>
-      <c r="W3" s="154" t="s">
+      <c r="W3" s="201" t="s">
         <v>98</v>
       </c>
-      <c r="X3" s="155"/>
+      <c r="X3" s="202"/>
       <c r="Y3" s="17"/>
-      <c r="Z3" s="166"/>
-      <c r="AB3" s="167"/>
-      <c r="AC3" s="167"/>
-      <c r="AD3" s="167"/>
-      <c r="AE3" s="167"/>
-      <c r="AG3" s="166"/>
-      <c r="AH3" s="166"/>
-      <c r="AI3" s="166"/>
-      <c r="AJ3" s="166"/>
+      <c r="Z3" s="191"/>
+      <c r="AB3" s="164"/>
+      <c r="AC3" s="164"/>
+      <c r="AD3" s="164"/>
+      <c r="AE3" s="164"/>
+      <c r="AG3" s="191"/>
+      <c r="AH3" s="191"/>
+      <c r="AI3" s="191"/>
+      <c r="AJ3" s="191"/>
     </row>
     <row r="4" spans="1:36" ht="12.6" customHeight="1">
-      <c r="A4" s="166"/>
-      <c r="B4" s="167"/>
-      <c r="C4" s="167"/>
-      <c r="D4" s="169"/>
-      <c r="E4" s="170"/>
-      <c r="F4" s="171"/>
-      <c r="G4" s="172"/>
-      <c r="H4" s="175"/>
-      <c r="I4" s="213"/>
-      <c r="J4" s="180"/>
-      <c r="K4" s="181"/>
-      <c r="L4" s="182"/>
-      <c r="M4" s="189"/>
-      <c r="N4" s="190"/>
-      <c r="O4" s="191"/>
-      <c r="P4" s="175"/>
-      <c r="Q4" s="197"/>
-      <c r="R4" s="198"/>
-      <c r="S4" s="175"/>
-      <c r="T4" s="197"/>
-      <c r="U4" s="198"/>
-      <c r="V4" s="152"/>
-      <c r="W4" s="156"/>
-      <c r="X4" s="157"/>
+      <c r="A4" s="191"/>
+      <c r="B4" s="164"/>
+      <c r="C4" s="164"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="194"/>
+      <c r="F4" s="156"/>
+      <c r="G4" s="158"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="168"/>
+      <c r="K4" s="169"/>
+      <c r="L4" s="170"/>
+      <c r="M4" s="177"/>
+      <c r="N4" s="178"/>
+      <c r="O4" s="179"/>
+      <c r="P4" s="161"/>
+      <c r="Q4" s="185"/>
+      <c r="R4" s="186"/>
+      <c r="S4" s="161"/>
+      <c r="T4" s="185"/>
+      <c r="U4" s="186"/>
+      <c r="V4" s="199"/>
+      <c r="W4" s="203"/>
+      <c r="X4" s="204"/>
       <c r="Y4" s="17"/>
-      <c r="Z4" s="166"/>
-      <c r="AB4" s="167"/>
-      <c r="AC4" s="167"/>
-      <c r="AD4" s="167"/>
-      <c r="AE4" s="167"/>
-      <c r="AG4" s="166"/>
-      <c r="AH4" s="166"/>
-      <c r="AI4" s="166"/>
-      <c r="AJ4" s="166"/>
+      <c r="Z4" s="191"/>
+      <c r="AB4" s="164"/>
+      <c r="AC4" s="164"/>
+      <c r="AD4" s="164"/>
+      <c r="AE4" s="164"/>
+      <c r="AG4" s="191"/>
+      <c r="AH4" s="191"/>
+      <c r="AI4" s="191"/>
+      <c r="AJ4" s="191"/>
     </row>
     <row r="5" spans="1:36" ht="25.15" customHeight="1">
-      <c r="A5" s="166"/>
-      <c r="B5" s="167"/>
-      <c r="C5" s="167"/>
-      <c r="D5" s="169"/>
-      <c r="E5" s="170"/>
-      <c r="F5" s="171"/>
-      <c r="G5" s="172"/>
-      <c r="H5" s="175"/>
-      <c r="I5" s="213"/>
-      <c r="J5" s="180"/>
-      <c r="K5" s="181"/>
-      <c r="L5" s="182"/>
-      <c r="M5" s="189"/>
-      <c r="N5" s="190"/>
-      <c r="O5" s="191"/>
-      <c r="P5" s="175"/>
-      <c r="Q5" s="197"/>
-      <c r="R5" s="198"/>
-      <c r="S5" s="175"/>
-      <c r="T5" s="197"/>
-      <c r="U5" s="198"/>
-      <c r="V5" s="152"/>
-      <c r="W5" s="156"/>
-      <c r="X5" s="157"/>
+      <c r="A5" s="191"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="164"/>
+      <c r="D5" s="193"/>
+      <c r="E5" s="194"/>
+      <c r="F5" s="156"/>
+      <c r="G5" s="158"/>
+      <c r="H5" s="161"/>
+      <c r="I5" s="163"/>
+      <c r="J5" s="168"/>
+      <c r="K5" s="169"/>
+      <c r="L5" s="170"/>
+      <c r="M5" s="177"/>
+      <c r="N5" s="178"/>
+      <c r="O5" s="179"/>
+      <c r="P5" s="161"/>
+      <c r="Q5" s="185"/>
+      <c r="R5" s="186"/>
+      <c r="S5" s="161"/>
+      <c r="T5" s="185"/>
+      <c r="U5" s="186"/>
+      <c r="V5" s="199"/>
+      <c r="W5" s="203"/>
+      <c r="X5" s="204"/>
       <c r="Y5" s="17"/>
-      <c r="Z5" s="166"/>
-      <c r="AB5" s="167"/>
-      <c r="AC5" s="167"/>
-      <c r="AD5" s="167"/>
-      <c r="AE5" s="167"/>
-      <c r="AG5" s="166"/>
-      <c r="AH5" s="166"/>
-      <c r="AI5" s="166"/>
-      <c r="AJ5" s="166"/>
+      <c r="Z5" s="191"/>
+      <c r="AB5" s="164"/>
+      <c r="AC5" s="164"/>
+      <c r="AD5" s="164"/>
+      <c r="AE5" s="164"/>
+      <c r="AG5" s="191"/>
+      <c r="AH5" s="191"/>
+      <c r="AI5" s="191"/>
+      <c r="AJ5" s="191"/>
     </row>
     <row r="6" spans="1:36" ht="12.6" customHeight="1">
-      <c r="A6" s="166"/>
-      <c r="B6" s="167"/>
-      <c r="C6" s="167"/>
-      <c r="D6" s="169"/>
-      <c r="E6" s="170"/>
-      <c r="F6" s="171"/>
-      <c r="G6" s="172"/>
-      <c r="H6" s="175"/>
-      <c r="I6" s="213"/>
-      <c r="J6" s="183"/>
-      <c r="K6" s="184"/>
-      <c r="L6" s="185"/>
-      <c r="M6" s="192"/>
-      <c r="N6" s="193"/>
-      <c r="O6" s="194"/>
-      <c r="P6" s="175"/>
-      <c r="Q6" s="197"/>
-      <c r="R6" s="198"/>
-      <c r="S6" s="176"/>
-      <c r="T6" s="199"/>
-      <c r="U6" s="200"/>
-      <c r="V6" s="152"/>
-      <c r="W6" s="156"/>
-      <c r="X6" s="157"/>
+      <c r="A6" s="191"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="164"/>
+      <c r="D6" s="193"/>
+      <c r="E6" s="194"/>
+      <c r="F6" s="156"/>
+      <c r="G6" s="158"/>
+      <c r="H6" s="161"/>
+      <c r="I6" s="163"/>
+      <c r="J6" s="171"/>
+      <c r="K6" s="172"/>
+      <c r="L6" s="173"/>
+      <c r="M6" s="180"/>
+      <c r="N6" s="181"/>
+      <c r="O6" s="182"/>
+      <c r="P6" s="161"/>
+      <c r="Q6" s="185"/>
+      <c r="R6" s="186"/>
+      <c r="S6" s="162"/>
+      <c r="T6" s="187"/>
+      <c r="U6" s="188"/>
+      <c r="V6" s="199"/>
+      <c r="W6" s="203"/>
+      <c r="X6" s="204"/>
       <c r="Y6" s="17"/>
-      <c r="Z6" s="166"/>
-      <c r="AB6" s="167"/>
-      <c r="AC6" s="167"/>
-      <c r="AD6" s="167"/>
-      <c r="AE6" s="167"/>
-      <c r="AG6" s="166"/>
-      <c r="AH6" s="166"/>
-      <c r="AI6" s="166"/>
-      <c r="AJ6" s="166"/>
+      <c r="Z6" s="191"/>
+      <c r="AB6" s="164"/>
+      <c r="AC6" s="164"/>
+      <c r="AD6" s="164"/>
+      <c r="AE6" s="164"/>
+      <c r="AG6" s="191"/>
+      <c r="AH6" s="191"/>
+      <c r="AI6" s="191"/>
+      <c r="AJ6" s="191"/>
     </row>
     <row r="7" spans="1:36">
-      <c r="A7" s="151"/>
-      <c r="B7" s="168"/>
-      <c r="C7" s="168"/>
-      <c r="D7" s="169"/>
-      <c r="E7" s="170"/>
-      <c r="F7" s="171"/>
-      <c r="G7" s="173"/>
-      <c r="H7" s="176"/>
-      <c r="I7" s="213"/>
-      <c r="J7" s="160" t="s">
+      <c r="A7" s="192"/>
+      <c r="B7" s="157"/>
+      <c r="C7" s="157"/>
+      <c r="D7" s="193"/>
+      <c r="E7" s="194"/>
+      <c r="F7" s="156"/>
+      <c r="G7" s="159"/>
+      <c r="H7" s="162"/>
+      <c r="I7" s="163"/>
+      <c r="J7" s="189" t="s">
         <v>112</v>
       </c>
-      <c r="K7" s="161"/>
-      <c r="L7" s="162"/>
-      <c r="M7" s="160" t="s">
+      <c r="K7" s="190"/>
+      <c r="L7" s="207"/>
+      <c r="M7" s="189" t="s">
         <v>101</v>
       </c>
-      <c r="N7" s="161"/>
-      <c r="O7" s="162"/>
-      <c r="P7" s="176"/>
-      <c r="Q7" s="199"/>
-      <c r="R7" s="200"/>
-      <c r="S7" s="160" t="s">
+      <c r="N7" s="190"/>
+      <c r="O7" s="207"/>
+      <c r="P7" s="162"/>
+      <c r="Q7" s="187"/>
+      <c r="R7" s="188"/>
+      <c r="S7" s="189" t="s">
         <v>113</v>
       </c>
-      <c r="T7" s="161"/>
-      <c r="U7" s="162"/>
-      <c r="V7" s="153"/>
-      <c r="W7" s="158"/>
-      <c r="X7" s="159"/>
+      <c r="T7" s="190"/>
+      <c r="U7" s="207"/>
+      <c r="V7" s="200"/>
+      <c r="W7" s="205"/>
+      <c r="X7" s="206"/>
       <c r="Y7" s="17"/>
-      <c r="Z7" s="166"/>
-      <c r="AB7" s="167"/>
-      <c r="AC7" s="167"/>
-      <c r="AD7" s="167"/>
-      <c r="AE7" s="167"/>
-      <c r="AG7" s="166"/>
-      <c r="AH7" s="166"/>
-      <c r="AI7" s="166"/>
-      <c r="AJ7" s="166"/>
+      <c r="Z7" s="191"/>
+      <c r="AB7" s="164"/>
+      <c r="AC7" s="164"/>
+      <c r="AD7" s="164"/>
+      <c r="AE7" s="164"/>
+      <c r="AG7" s="191"/>
+      <c r="AH7" s="191"/>
+      <c r="AI7" s="191"/>
+      <c r="AJ7" s="191"/>
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="100">
@@ -3437,7 +3437,7 @@
       <c r="H8" s="117" t="s">
         <v>145</v>
       </c>
-      <c r="I8" s="214"/>
+      <c r="I8" s="151"/>
       <c r="J8" s="119"/>
       <c r="K8" s="118"/>
       <c r="L8" s="118"/>
@@ -3489,7 +3489,7 @@
       <c r="H9" s="68" t="s">
         <v>221</v>
       </c>
-      <c r="I9" s="215">
+      <c r="I9" s="152">
         <v>1001</v>
       </c>
       <c r="J9" s="125">
@@ -3548,12 +3548,9 @@
         <v>6</v>
       </c>
       <c r="F10" s="17"/>
-      <c r="G10" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="G10" s="21"/>
       <c r="H10" s="68"/>
-      <c r="I10" s="215"/>
+      <c r="I10" s="152"/>
       <c r="J10" s="125"/>
       <c r="K10" s="126"/>
       <c r="L10" s="127"/>
@@ -3594,12 +3591,9 @@
         <v>3</v>
       </c>
       <c r="F11" s="17"/>
-      <c r="G11" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="G11" s="21"/>
       <c r="H11" s="68"/>
-      <c r="I11" s="216"/>
+      <c r="I11" s="153"/>
       <c r="J11" s="125"/>
       <c r="K11" s="126"/>
       <c r="L11" s="127"/>
@@ -3642,7 +3636,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="21"/>
       <c r="H12" s="64"/>
-      <c r="I12" s="216"/>
+      <c r="I12" s="153"/>
       <c r="J12" s="113"/>
       <c r="K12" s="114"/>
       <c r="L12" s="115"/>
@@ -3683,7 +3677,7 @@
       <c r="F13" s="17"/>
       <c r="G13" s="21"/>
       <c r="H13" s="64"/>
-      <c r="I13" s="216"/>
+      <c r="I13" s="153"/>
       <c r="J13" s="113"/>
       <c r="K13" s="114"/>
       <c r="L13" s="115"/>
@@ -3724,7 +3718,7 @@
       <c r="F14" s="17"/>
       <c r="G14" s="21"/>
       <c r="H14" s="64"/>
-      <c r="I14" s="216"/>
+      <c r="I14" s="153"/>
       <c r="J14" s="113"/>
       <c r="K14" s="114"/>
       <c r="L14" s="115"/>
@@ -3763,7 +3757,7 @@
       <c r="F15" s="17"/>
       <c r="G15" s="21"/>
       <c r="H15" s="64"/>
-      <c r="I15" s="216"/>
+      <c r="I15" s="153"/>
       <c r="J15" s="113"/>
       <c r="K15" s="114"/>
       <c r="L15" s="115"/>
@@ -3802,7 +3796,7 @@
       <c r="F16" s="17"/>
       <c r="G16" s="21"/>
       <c r="H16" s="64"/>
-      <c r="I16" s="216"/>
+      <c r="I16" s="153"/>
       <c r="J16" s="113"/>
       <c r="K16" s="114"/>
       <c r="L16" s="115"/>
@@ -3841,7 +3835,7 @@
       <c r="F17" s="17"/>
       <c r="G17" s="21"/>
       <c r="H17" s="64"/>
-      <c r="I17" s="216"/>
+      <c r="I17" s="153"/>
       <c r="J17" s="113"/>
       <c r="K17" s="114"/>
       <c r="L17" s="115"/>
@@ -3880,7 +3874,7 @@
       <c r="F18" s="17"/>
       <c r="G18" s="21"/>
       <c r="H18" s="64"/>
-      <c r="I18" s="216"/>
+      <c r="I18" s="153"/>
       <c r="J18" s="113"/>
       <c r="K18" s="114"/>
       <c r="L18" s="115"/>
@@ -3919,7 +3913,7 @@
       <c r="F19" s="17"/>
       <c r="G19" s="21"/>
       <c r="H19" s="64"/>
-      <c r="I19" s="216"/>
+      <c r="I19" s="153"/>
       <c r="J19" s="113"/>
       <c r="K19" s="114"/>
       <c r="L19" s="115"/>
@@ -3958,7 +3952,7 @@
       <c r="F20" s="17"/>
       <c r="G20" s="21"/>
       <c r="H20" s="64"/>
-      <c r="I20" s="216"/>
+      <c r="I20" s="153"/>
       <c r="J20" s="113"/>
       <c r="K20" s="114"/>
       <c r="L20" s="115"/>
@@ -3997,7 +3991,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="21"/>
       <c r="H21" s="64"/>
-      <c r="I21" s="216"/>
+      <c r="I21" s="153"/>
       <c r="J21" s="113"/>
       <c r="K21" s="114"/>
       <c r="L21" s="115"/>
@@ -4036,7 +4030,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="21"/>
       <c r="H22" s="64"/>
-      <c r="I22" s="216"/>
+      <c r="I22" s="153"/>
       <c r="J22" s="113"/>
       <c r="K22" s="114"/>
       <c r="L22" s="115"/>
@@ -4075,7 +4069,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="21"/>
       <c r="H23" s="64"/>
-      <c r="I23" s="216"/>
+      <c r="I23" s="153"/>
       <c r="J23" s="113"/>
       <c r="K23" s="114"/>
       <c r="L23" s="115"/>
@@ -4112,12 +4106,9 @@
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
-      <c r="G24" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="G24" s="21"/>
       <c r="H24" s="64"/>
-      <c r="I24" s="216"/>
+      <c r="I24" s="153"/>
       <c r="J24" s="113"/>
       <c r="K24" s="114"/>
       <c r="L24" s="115"/>
@@ -4156,7 +4147,7 @@
       <c r="F25" s="17"/>
       <c r="G25" s="21"/>
       <c r="H25" s="64"/>
-      <c r="I25" s="216"/>
+      <c r="I25" s="153"/>
       <c r="J25" s="113"/>
       <c r="K25" s="114"/>
       <c r="L25" s="115"/>
@@ -4195,7 +4186,7 @@
       <c r="F26" s="17"/>
       <c r="G26" s="21"/>
       <c r="H26" s="64"/>
-      <c r="I26" s="216"/>
+      <c r="I26" s="153"/>
       <c r="J26" s="113"/>
       <c r="K26" s="114"/>
       <c r="L26" s="115"/>
@@ -4234,7 +4225,7 @@
       <c r="F27" s="17"/>
       <c r="G27" s="21"/>
       <c r="H27" s="64"/>
-      <c r="I27" s="216"/>
+      <c r="I27" s="153"/>
       <c r="J27" s="113"/>
       <c r="K27" s="114"/>
       <c r="L27" s="115"/>
@@ -4273,7 +4264,7 @@
       <c r="F28" s="17"/>
       <c r="G28" s="21"/>
       <c r="H28" s="64"/>
-      <c r="I28" s="216"/>
+      <c r="I28" s="153"/>
       <c r="J28" s="113"/>
       <c r="K28" s="114"/>
       <c r="L28" s="115"/>
@@ -4312,7 +4303,7 @@
       <c r="F29" s="17"/>
       <c r="G29" s="21"/>
       <c r="H29" s="64"/>
-      <c r="I29" s="216"/>
+      <c r="I29" s="153"/>
       <c r="J29" s="113"/>
       <c r="K29" s="114"/>
       <c r="L29" s="115"/>
@@ -4351,7 +4342,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="21"/>
       <c r="H30" s="64"/>
-      <c r="I30" s="216"/>
+      <c r="I30" s="153"/>
       <c r="J30" s="113"/>
       <c r="K30" s="114"/>
       <c r="L30" s="115"/>
@@ -4390,7 +4381,7 @@
       <c r="F31" s="17"/>
       <c r="G31" s="21"/>
       <c r="H31" s="64"/>
-      <c r="I31" s="216"/>
+      <c r="I31" s="153"/>
       <c r="J31" s="113"/>
       <c r="K31" s="114"/>
       <c r="L31" s="115"/>
@@ -4429,7 +4420,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="21"/>
       <c r="H32" s="64"/>
-      <c r="I32" s="216"/>
+      <c r="I32" s="153"/>
       <c r="J32" s="113"/>
       <c r="K32" s="114"/>
       <c r="L32" s="115"/>
@@ -4468,7 +4459,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="21"/>
       <c r="H33" s="64"/>
-      <c r="I33" s="216"/>
+      <c r="I33" s="153"/>
       <c r="J33" s="113"/>
       <c r="K33" s="114"/>
       <c r="L33" s="115"/>
@@ -4507,7 +4498,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="21"/>
       <c r="H34" s="64"/>
-      <c r="I34" s="216"/>
+      <c r="I34" s="153"/>
       <c r="J34" s="113"/>
       <c r="K34" s="114"/>
       <c r="L34" s="115"/>
@@ -4546,7 +4537,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="21"/>
       <c r="H35" s="64"/>
-      <c r="I35" s="216"/>
+      <c r="I35" s="153"/>
       <c r="J35" s="113"/>
       <c r="K35" s="114"/>
       <c r="L35" s="115"/>
@@ -4585,7 +4576,7 @@
       <c r="F36" s="17"/>
       <c r="G36" s="21"/>
       <c r="H36" s="64"/>
-      <c r="I36" s="216"/>
+      <c r="I36" s="153"/>
       <c r="J36" s="113"/>
       <c r="K36" s="114"/>
       <c r="L36" s="115"/>
@@ -4624,7 +4615,7 @@
       <c r="F37" s="17"/>
       <c r="G37" s="21"/>
       <c r="H37" s="64"/>
-      <c r="I37" s="216"/>
+      <c r="I37" s="153"/>
       <c r="J37" s="113"/>
       <c r="K37" s="114"/>
       <c r="L37" s="115"/>
@@ -4663,7 +4654,7 @@
       <c r="F38" s="17"/>
       <c r="G38" s="21"/>
       <c r="H38" s="64"/>
-      <c r="I38" s="216"/>
+      <c r="I38" s="153"/>
       <c r="J38" s="113"/>
       <c r="K38" s="114"/>
       <c r="L38" s="115"/>
@@ -4702,7 +4693,7 @@
       <c r="F39" s="17"/>
       <c r="G39" s="21"/>
       <c r="H39" s="64"/>
-      <c r="I39" s="216"/>
+      <c r="I39" s="153"/>
       <c r="J39" s="113"/>
       <c r="K39" s="114"/>
       <c r="L39" s="115"/>
@@ -4741,7 +4732,7 @@
       <c r="F40" s="17"/>
       <c r="G40" s="21"/>
       <c r="H40" s="64"/>
-      <c r="I40" s="216"/>
+      <c r="I40" s="153"/>
       <c r="J40" s="113"/>
       <c r="K40" s="114"/>
       <c r="L40" s="115"/>
@@ -4780,7 +4771,7 @@
       <c r="F41" s="17"/>
       <c r="G41" s="21"/>
       <c r="H41" s="64"/>
-      <c r="I41" s="216"/>
+      <c r="I41" s="153"/>
       <c r="J41" s="113"/>
       <c r="K41" s="114"/>
       <c r="L41" s="115"/>
@@ -4819,7 +4810,7 @@
       <c r="F42" s="17"/>
       <c r="G42" s="21"/>
       <c r="H42" s="64"/>
-      <c r="I42" s="216"/>
+      <c r="I42" s="153"/>
       <c r="J42" s="113"/>
       <c r="K42" s="114"/>
       <c r="L42" s="115"/>
@@ -4858,7 +4849,7 @@
       <c r="F43" s="17"/>
       <c r="G43" s="21"/>
       <c r="H43" s="64"/>
-      <c r="I43" s="216"/>
+      <c r="I43" s="153"/>
       <c r="J43" s="113"/>
       <c r="K43" s="114"/>
       <c r="L43" s="115"/>
@@ -4897,7 +4888,7 @@
       <c r="F44" s="17"/>
       <c r="G44" s="21"/>
       <c r="H44" s="64"/>
-      <c r="I44" s="216"/>
+      <c r="I44" s="153"/>
       <c r="J44" s="113"/>
       <c r="K44" s="114"/>
       <c r="L44" s="115"/>
@@ -4936,7 +4927,7 @@
       <c r="F45" s="17"/>
       <c r="G45" s="21"/>
       <c r="H45" s="64"/>
-      <c r="I45" s="216"/>
+      <c r="I45" s="153"/>
       <c r="J45" s="113"/>
       <c r="K45" s="114"/>
       <c r="L45" s="115"/>
@@ -4975,7 +4966,7 @@
       <c r="F46" s="17"/>
       <c r="G46" s="21"/>
       <c r="H46" s="64"/>
-      <c r="I46" s="216"/>
+      <c r="I46" s="153"/>
       <c r="J46" s="104"/>
       <c r="K46" s="103"/>
       <c r="L46" s="105"/>
@@ -5014,7 +5005,7 @@
       <c r="F47" s="17"/>
       <c r="G47" s="21"/>
       <c r="H47" s="64"/>
-      <c r="I47" s="216"/>
+      <c r="I47" s="153"/>
       <c r="J47" s="104"/>
       <c r="K47" s="103"/>
       <c r="L47" s="105"/>
@@ -5053,7 +5044,7 @@
       <c r="F48" s="17"/>
       <c r="G48" s="21"/>
       <c r="H48" s="64"/>
-      <c r="I48" s="216"/>
+      <c r="I48" s="153"/>
       <c r="J48" s="104"/>
       <c r="K48" s="103"/>
       <c r="L48" s="105"/>
@@ -5092,7 +5083,7 @@
       <c r="F49" s="17"/>
       <c r="G49" s="21"/>
       <c r="H49" s="64"/>
-      <c r="I49" s="216"/>
+      <c r="I49" s="153"/>
       <c r="J49" s="104"/>
       <c r="K49" s="103"/>
       <c r="L49" s="105"/>
@@ -5131,7 +5122,7 @@
       <c r="F50" s="17"/>
       <c r="G50" s="21"/>
       <c r="H50" s="64"/>
-      <c r="I50" s="216"/>
+      <c r="I50" s="153"/>
       <c r="J50" s="104"/>
       <c r="K50" s="103"/>
       <c r="L50" s="105"/>
@@ -5170,7 +5161,7 @@
       <c r="F51" s="17"/>
       <c r="G51" s="21"/>
       <c r="H51" s="64"/>
-      <c r="I51" s="216"/>
+      <c r="I51" s="153"/>
       <c r="J51" s="104"/>
       <c r="K51" s="103"/>
       <c r="L51" s="105"/>
@@ -5209,7 +5200,7 @@
       <c r="F52" s="17"/>
       <c r="G52" s="21"/>
       <c r="H52" s="64"/>
-      <c r="I52" s="216"/>
+      <c r="I52" s="153"/>
       <c r="J52" s="104"/>
       <c r="K52" s="103"/>
       <c r="L52" s="105"/>
@@ -5248,7 +5239,7 @@
       <c r="F53" s="17"/>
       <c r="G53" s="21"/>
       <c r="H53" s="64"/>
-      <c r="I53" s="216"/>
+      <c r="I53" s="153"/>
       <c r="J53" s="104"/>
       <c r="K53" s="103"/>
       <c r="L53" s="105"/>
@@ -5287,7 +5278,7 @@
       <c r="F54" s="17"/>
       <c r="G54" s="21"/>
       <c r="H54" s="64"/>
-      <c r="I54" s="216"/>
+      <c r="I54" s="153"/>
       <c r="J54" s="104"/>
       <c r="K54" s="103"/>
       <c r="L54" s="105"/>
@@ -5326,7 +5317,7 @@
       <c r="F55" s="17"/>
       <c r="G55" s="21"/>
       <c r="H55" s="64"/>
-      <c r="I55" s="216"/>
+      <c r="I55" s="153"/>
       <c r="J55" s="104"/>
       <c r="K55" s="103"/>
       <c r="L55" s="105"/>
@@ -5365,7 +5356,7 @@
       <c r="F56" s="17"/>
       <c r="G56" s="21"/>
       <c r="H56" s="64"/>
-      <c r="I56" s="216"/>
+      <c r="I56" s="153"/>
       <c r="J56" s="104"/>
       <c r="K56" s="103"/>
       <c r="L56" s="105"/>
@@ -5404,7 +5395,7 @@
       <c r="F57" s="17"/>
       <c r="G57" s="21"/>
       <c r="H57" s="64"/>
-      <c r="I57" s="216"/>
+      <c r="I57" s="153"/>
       <c r="J57" s="104"/>
       <c r="K57" s="103"/>
       <c r="L57" s="105"/>
@@ -5443,7 +5434,7 @@
       <c r="F58" s="17"/>
       <c r="G58" s="21"/>
       <c r="H58" s="64"/>
-      <c r="I58" s="216"/>
+      <c r="I58" s="153"/>
       <c r="J58" s="104"/>
       <c r="K58" s="103"/>
       <c r="L58" s="105"/>
@@ -5482,7 +5473,7 @@
       <c r="F59" s="17"/>
       <c r="G59" s="21"/>
       <c r="H59" s="64"/>
-      <c r="I59" s="216"/>
+      <c r="I59" s="153"/>
       <c r="J59" s="104"/>
       <c r="K59" s="103"/>
       <c r="L59" s="105"/>
@@ -5521,7 +5512,7 @@
       <c r="F60" s="17"/>
       <c r="G60" s="21"/>
       <c r="H60" s="64"/>
-      <c r="I60" s="216"/>
+      <c r="I60" s="153"/>
       <c r="J60" s="104"/>
       <c r="K60" s="103"/>
       <c r="L60" s="105"/>
@@ -5560,7 +5551,7 @@
       <c r="F61" s="17"/>
       <c r="G61" s="21"/>
       <c r="H61" s="64"/>
-      <c r="I61" s="216"/>
+      <c r="I61" s="153"/>
       <c r="J61" s="104"/>
       <c r="K61" s="103"/>
       <c r="L61" s="105"/>
@@ -5599,7 +5590,7 @@
       <c r="F62" s="17"/>
       <c r="G62" s="21"/>
       <c r="H62" s="64"/>
-      <c r="I62" s="216"/>
+      <c r="I62" s="153"/>
       <c r="J62" s="104"/>
       <c r="K62" s="103"/>
       <c r="L62" s="105"/>
@@ -5638,7 +5629,7 @@
       <c r="F63" s="17"/>
       <c r="G63" s="21"/>
       <c r="H63" s="64"/>
-      <c r="I63" s="216"/>
+      <c r="I63" s="153"/>
       <c r="J63" s="104"/>
       <c r="K63" s="103"/>
       <c r="L63" s="105"/>
@@ -5677,7 +5668,7 @@
       <c r="F64" s="17"/>
       <c r="G64" s="21"/>
       <c r="H64" s="64"/>
-      <c r="I64" s="216"/>
+      <c r="I64" s="153"/>
       <c r="J64" s="104"/>
       <c r="K64" s="103"/>
       <c r="L64" s="105"/>
@@ -5716,7 +5707,7 @@
       <c r="F65" s="17"/>
       <c r="G65" s="21"/>
       <c r="H65" s="64"/>
-      <c r="I65" s="216"/>
+      <c r="I65" s="153"/>
       <c r="J65" s="104"/>
       <c r="K65" s="103"/>
       <c r="L65" s="105"/>
@@ -5755,7 +5746,7 @@
       <c r="F66" s="17"/>
       <c r="G66" s="21"/>
       <c r="H66" s="64"/>
-      <c r="I66" s="216"/>
+      <c r="I66" s="153"/>
       <c r="J66" s="104"/>
       <c r="K66" s="103"/>
       <c r="L66" s="105"/>
@@ -5794,7 +5785,7 @@
       <c r="F67" s="17"/>
       <c r="G67" s="21"/>
       <c r="H67" s="64"/>
-      <c r="I67" s="216"/>
+      <c r="I67" s="153"/>
       <c r="J67" s="104"/>
       <c r="K67" s="103"/>
       <c r="L67" s="105"/>
@@ -5833,7 +5824,7 @@
       <c r="F68" s="17"/>
       <c r="G68" s="21"/>
       <c r="H68" s="64"/>
-      <c r="I68" s="216"/>
+      <c r="I68" s="153"/>
       <c r="J68" s="104"/>
       <c r="K68" s="103"/>
       <c r="L68" s="105"/>
@@ -5872,7 +5863,7 @@
       <c r="F69" s="17"/>
       <c r="G69" s="21"/>
       <c r="H69" s="64"/>
-      <c r="I69" s="216"/>
+      <c r="I69" s="153"/>
       <c r="J69" s="104"/>
       <c r="K69" s="103"/>
       <c r="L69" s="105"/>
@@ -5911,7 +5902,7 @@
       <c r="F70" s="17"/>
       <c r="G70" s="21"/>
       <c r="H70" s="64"/>
-      <c r="I70" s="216"/>
+      <c r="I70" s="153"/>
       <c r="J70" s="104"/>
       <c r="K70" s="103"/>
       <c r="L70" s="105"/>
@@ -5950,7 +5941,7 @@
       <c r="F71" s="17"/>
       <c r="G71" s="21"/>
       <c r="H71" s="64"/>
-      <c r="I71" s="216"/>
+      <c r="I71" s="153"/>
       <c r="J71" s="104"/>
       <c r="K71" s="103"/>
       <c r="L71" s="105"/>
@@ -5989,7 +5980,7 @@
       <c r="F72" s="17"/>
       <c r="G72" s="21"/>
       <c r="H72" s="64"/>
-      <c r="I72" s="216"/>
+      <c r="I72" s="153"/>
       <c r="J72" s="104"/>
       <c r="K72" s="103"/>
       <c r="L72" s="105"/>
@@ -6028,7 +6019,7 @@
       <c r="F73" s="17"/>
       <c r="G73" s="21"/>
       <c r="H73" s="64"/>
-      <c r="I73" s="216"/>
+      <c r="I73" s="153"/>
       <c r="J73" s="104"/>
       <c r="K73" s="103"/>
       <c r="L73" s="105"/>
@@ -6067,7 +6058,7 @@
       <c r="F74" s="17"/>
       <c r="G74" s="21"/>
       <c r="H74" s="64"/>
-      <c r="I74" s="216"/>
+      <c r="I74" s="153"/>
       <c r="J74" s="104"/>
       <c r="K74" s="103"/>
       <c r="L74" s="105"/>
@@ -6106,7 +6097,7 @@
       <c r="F75" s="17"/>
       <c r="G75" s="21"/>
       <c r="H75" s="64"/>
-      <c r="I75" s="216"/>
+      <c r="I75" s="153"/>
       <c r="J75" s="104"/>
       <c r="K75" s="103"/>
       <c r="L75" s="105"/>
@@ -6145,7 +6136,7 @@
       <c r="F76" s="17"/>
       <c r="G76" s="21"/>
       <c r="H76" s="64"/>
-      <c r="I76" s="216"/>
+      <c r="I76" s="153"/>
       <c r="J76" s="104"/>
       <c r="K76" s="103"/>
       <c r="L76" s="105"/>
@@ -6184,7 +6175,7 @@
       <c r="F77" s="17"/>
       <c r="G77" s="21"/>
       <c r="H77" s="64"/>
-      <c r="I77" s="216"/>
+      <c r="I77" s="153"/>
       <c r="J77" s="104"/>
       <c r="K77" s="103"/>
       <c r="L77" s="105"/>
@@ -6223,7 +6214,7 @@
       <c r="F78" s="17"/>
       <c r="G78" s="21"/>
       <c r="H78" s="64"/>
-      <c r="I78" s="216"/>
+      <c r="I78" s="153"/>
       <c r="J78" s="104"/>
       <c r="K78" s="103"/>
       <c r="L78" s="105"/>
@@ -6262,7 +6253,7 @@
       <c r="F79" s="17"/>
       <c r="G79" s="21"/>
       <c r="H79" s="64"/>
-      <c r="I79" s="216"/>
+      <c r="I79" s="153"/>
       <c r="J79" s="104"/>
       <c r="K79" s="103"/>
       <c r="L79" s="105"/>
@@ -6301,7 +6292,7 @@
       <c r="F80" s="17"/>
       <c r="G80" s="21"/>
       <c r="H80" s="64"/>
-      <c r="I80" s="216"/>
+      <c r="I80" s="153"/>
       <c r="J80" s="104"/>
       <c r="K80" s="103"/>
       <c r="L80" s="105"/>
@@ -6340,7 +6331,7 @@
       <c r="F81" s="17"/>
       <c r="G81" s="21"/>
       <c r="H81" s="64"/>
-      <c r="I81" s="216"/>
+      <c r="I81" s="153"/>
       <c r="J81" s="104"/>
       <c r="K81" s="103"/>
       <c r="L81" s="105"/>
@@ -6379,7 +6370,7 @@
       <c r="F82" s="17"/>
       <c r="G82" s="21"/>
       <c r="H82" s="64"/>
-      <c r="I82" s="216"/>
+      <c r="I82" s="153"/>
       <c r="J82" s="104"/>
       <c r="K82" s="103"/>
       <c r="L82" s="105"/>
@@ -6418,7 +6409,7 @@
       <c r="F83" s="17"/>
       <c r="G83" s="21"/>
       <c r="H83" s="64"/>
-      <c r="I83" s="216"/>
+      <c r="I83" s="153"/>
       <c r="J83" s="104"/>
       <c r="K83" s="103"/>
       <c r="L83" s="105"/>
@@ -6457,7 +6448,7 @@
       <c r="F84" s="17"/>
       <c r="G84" s="21"/>
       <c r="H84" s="64"/>
-      <c r="I84" s="216"/>
+      <c r="I84" s="153"/>
       <c r="J84" s="104"/>
       <c r="K84" s="103"/>
       <c r="L84" s="105"/>
@@ -6496,7 +6487,7 @@
       <c r="F85" s="17"/>
       <c r="G85" s="21"/>
       <c r="H85" s="64"/>
-      <c r="I85" s="216"/>
+      <c r="I85" s="153"/>
       <c r="J85" s="104"/>
       <c r="K85" s="103"/>
       <c r="L85" s="105"/>
@@ -6535,7 +6526,7 @@
       <c r="F86" s="17"/>
       <c r="G86" s="21"/>
       <c r="H86" s="64"/>
-      <c r="I86" s="216"/>
+      <c r="I86" s="153"/>
       <c r="J86" s="104"/>
       <c r="K86" s="103"/>
       <c r="L86" s="105"/>
@@ -6574,7 +6565,7 @@
       <c r="F87" s="17"/>
       <c r="G87" s="21"/>
       <c r="H87" s="64"/>
-      <c r="I87" s="216"/>
+      <c r="I87" s="153"/>
       <c r="J87" s="104"/>
       <c r="K87" s="103"/>
       <c r="L87" s="105"/>
@@ -6613,7 +6604,7 @@
       <c r="F88" s="17"/>
       <c r="G88" s="21"/>
       <c r="H88" s="64"/>
-      <c r="I88" s="216"/>
+      <c r="I88" s="153"/>
       <c r="J88" s="104"/>
       <c r="K88" s="103"/>
       <c r="L88" s="105"/>
@@ -6652,7 +6643,7 @@
       <c r="F89" s="17"/>
       <c r="G89" s="21"/>
       <c r="H89" s="64"/>
-      <c r="I89" s="216"/>
+      <c r="I89" s="153"/>
       <c r="J89" s="104"/>
       <c r="K89" s="103"/>
       <c r="L89" s="105"/>
@@ -6691,7 +6682,7 @@
       <c r="F90" s="17"/>
       <c r="G90" s="21"/>
       <c r="H90" s="64"/>
-      <c r="I90" s="216"/>
+      <c r="I90" s="153"/>
       <c r="J90" s="104"/>
       <c r="K90" s="103"/>
       <c r="L90" s="105"/>
@@ -6730,7 +6721,7 @@
       <c r="F91" s="17"/>
       <c r="G91" s="21"/>
       <c r="H91" s="64"/>
-      <c r="I91" s="216"/>
+      <c r="I91" s="153"/>
       <c r="J91" s="104"/>
       <c r="K91" s="103"/>
       <c r="L91" s="105"/>
@@ -6769,7 +6760,7 @@
       <c r="F92" s="17"/>
       <c r="G92" s="21"/>
       <c r="H92" s="64"/>
-      <c r="I92" s="216"/>
+      <c r="I92" s="153"/>
       <c r="J92" s="104"/>
       <c r="K92" s="103"/>
       <c r="L92" s="105"/>
@@ -6808,7 +6799,7 @@
       <c r="F93" s="17"/>
       <c r="G93" s="21"/>
       <c r="H93" s="64"/>
-      <c r="I93" s="216"/>
+      <c r="I93" s="153"/>
       <c r="J93" s="104"/>
       <c r="K93" s="103"/>
       <c r="L93" s="105"/>
@@ -6847,7 +6838,7 @@
       <c r="F94" s="17"/>
       <c r="G94" s="21"/>
       <c r="H94" s="64"/>
-      <c r="I94" s="216"/>
+      <c r="I94" s="153"/>
       <c r="J94" s="104"/>
       <c r="K94" s="103"/>
       <c r="L94" s="105"/>
@@ -6886,7 +6877,7 @@
       <c r="F95" s="17"/>
       <c r="G95" s="21"/>
       <c r="H95" s="64"/>
-      <c r="I95" s="216"/>
+      <c r="I95" s="153"/>
       <c r="J95" s="104"/>
       <c r="K95" s="103"/>
       <c r="L95" s="105"/>
@@ -6925,7 +6916,7 @@
       <c r="F96" s="17"/>
       <c r="G96" s="21"/>
       <c r="H96" s="64"/>
-      <c r="I96" s="216"/>
+      <c r="I96" s="153"/>
       <c r="J96" s="104"/>
       <c r="K96" s="103"/>
       <c r="L96" s="105"/>
@@ -6964,7 +6955,7 @@
       <c r="F97" s="17"/>
       <c r="G97" s="21"/>
       <c r="H97" s="64"/>
-      <c r="I97" s="216"/>
+      <c r="I97" s="153"/>
       <c r="J97" s="104"/>
       <c r="K97" s="103"/>
       <c r="L97" s="105"/>
@@ -7003,7 +6994,7 @@
       <c r="F98" s="17"/>
       <c r="G98" s="21"/>
       <c r="H98" s="64"/>
-      <c r="I98" s="216"/>
+      <c r="I98" s="153"/>
       <c r="J98" s="104"/>
       <c r="K98" s="103"/>
       <c r="L98" s="105"/>
@@ -7042,7 +7033,7 @@
       <c r="F99" s="17"/>
       <c r="G99" s="21"/>
       <c r="H99" s="64"/>
-      <c r="I99" s="216"/>
+      <c r="I99" s="153"/>
       <c r="J99" s="104"/>
       <c r="K99" s="103"/>
       <c r="L99" s="105"/>
@@ -7081,7 +7072,7 @@
       <c r="F100" s="17"/>
       <c r="G100" s="21"/>
       <c r="H100" s="64"/>
-      <c r="I100" s="216"/>
+      <c r="I100" s="153"/>
       <c r="J100" s="104"/>
       <c r="K100" s="103"/>
       <c r="L100" s="105"/>
@@ -7120,7 +7111,7 @@
       <c r="F101" s="17"/>
       <c r="G101" s="21"/>
       <c r="H101" s="64"/>
-      <c r="I101" s="216"/>
+      <c r="I101" s="153"/>
       <c r="J101" s="104"/>
       <c r="K101" s="103"/>
       <c r="L101" s="105"/>
@@ -7159,7 +7150,7 @@
       <c r="F102" s="17"/>
       <c r="G102" s="21"/>
       <c r="H102" s="64"/>
-      <c r="I102" s="216"/>
+      <c r="I102" s="153"/>
       <c r="J102" s="104"/>
       <c r="K102" s="103"/>
       <c r="L102" s="105"/>
@@ -7198,7 +7189,7 @@
       <c r="F103" s="17"/>
       <c r="G103" s="21"/>
       <c r="H103" s="64"/>
-      <c r="I103" s="216"/>
+      <c r="I103" s="153"/>
       <c r="J103" s="104"/>
       <c r="K103" s="103"/>
       <c r="L103" s="105"/>
@@ -7237,7 +7228,7 @@
       <c r="F104" s="17"/>
       <c r="G104" s="21"/>
       <c r="H104" s="64"/>
-      <c r="I104" s="216"/>
+      <c r="I104" s="153"/>
       <c r="J104" s="104"/>
       <c r="K104" s="103"/>
       <c r="L104" s="105"/>
@@ -7276,7 +7267,7 @@
       <c r="F105" s="17"/>
       <c r="G105" s="21"/>
       <c r="H105" s="64"/>
-      <c r="I105" s="216"/>
+      <c r="I105" s="153"/>
       <c r="J105" s="104"/>
       <c r="K105" s="103"/>
       <c r="L105" s="105"/>
@@ -7315,7 +7306,7 @@
       <c r="F106" s="17"/>
       <c r="G106" s="21"/>
       <c r="H106" s="64"/>
-      <c r="I106" s="216"/>
+      <c r="I106" s="153"/>
       <c r="J106" s="104"/>
       <c r="K106" s="103"/>
       <c r="L106" s="105"/>
@@ -7354,7 +7345,7 @@
       <c r="F107" s="17"/>
       <c r="G107" s="21"/>
       <c r="H107" s="64"/>
-      <c r="I107" s="216"/>
+      <c r="I107" s="153"/>
       <c r="J107" s="104"/>
       <c r="K107" s="103"/>
       <c r="L107" s="105"/>
@@ -7393,7 +7384,7 @@
       <c r="F108" s="17"/>
       <c r="G108" s="21"/>
       <c r="H108" s="64"/>
-      <c r="I108" s="216"/>
+      <c r="I108" s="153"/>
       <c r="J108" s="104"/>
       <c r="K108" s="103"/>
       <c r="L108" s="105"/>
@@ -7432,7 +7423,7 @@
       <c r="F109" s="17"/>
       <c r="G109" s="21"/>
       <c r="H109" s="64"/>
-      <c r="I109" s="216"/>
+      <c r="I109" s="153"/>
       <c r="J109" s="104"/>
       <c r="K109" s="103"/>
       <c r="L109" s="105"/>
@@ -7471,7 +7462,7 @@
       <c r="F110" s="17"/>
       <c r="G110" s="21"/>
       <c r="H110" s="64"/>
-      <c r="I110" s="216"/>
+      <c r="I110" s="153"/>
       <c r="J110" s="104"/>
       <c r="K110" s="103"/>
       <c r="L110" s="105"/>
@@ -7510,7 +7501,7 @@
       <c r="F111" s="17"/>
       <c r="G111" s="21"/>
       <c r="H111" s="64"/>
-      <c r="I111" s="216"/>
+      <c r="I111" s="153"/>
       <c r="J111" s="104"/>
       <c r="K111" s="103"/>
       <c r="L111" s="105"/>
@@ -7549,7 +7540,7 @@
       <c r="F112" s="17"/>
       <c r="G112" s="21"/>
       <c r="H112" s="64"/>
-      <c r="I112" s="216"/>
+      <c r="I112" s="153"/>
       <c r="J112" s="104"/>
       <c r="K112" s="103"/>
       <c r="L112" s="105"/>
@@ -7588,7 +7579,7 @@
       <c r="F113" s="17"/>
       <c r="G113" s="21"/>
       <c r="H113" s="64"/>
-      <c r="I113" s="216"/>
+      <c r="I113" s="153"/>
       <c r="J113" s="104"/>
       <c r="K113" s="103"/>
       <c r="L113" s="105"/>
@@ -7627,7 +7618,7 @@
       <c r="F114" s="17"/>
       <c r="G114" s="21"/>
       <c r="H114" s="64"/>
-      <c r="I114" s="216"/>
+      <c r="I114" s="153"/>
       <c r="J114" s="104"/>
       <c r="K114" s="103"/>
       <c r="L114" s="105"/>
@@ -7666,7 +7657,7 @@
       <c r="F115" s="17"/>
       <c r="G115" s="21"/>
       <c r="H115" s="64"/>
-      <c r="I115" s="216"/>
+      <c r="I115" s="153"/>
       <c r="J115" s="104"/>
       <c r="K115" s="103"/>
       <c r="L115" s="105"/>
@@ -7705,7 +7696,7 @@
       <c r="F116" s="17"/>
       <c r="G116" s="21"/>
       <c r="H116" s="64"/>
-      <c r="I116" s="216"/>
+      <c r="I116" s="153"/>
       <c r="J116" s="104"/>
       <c r="K116" s="103"/>
       <c r="L116" s="105"/>
@@ -7744,7 +7735,7 @@
       <c r="F117" s="17"/>
       <c r="G117" s="21"/>
       <c r="H117" s="64"/>
-      <c r="I117" s="216"/>
+      <c r="I117" s="153"/>
       <c r="J117" s="104"/>
       <c r="K117" s="103"/>
       <c r="L117" s="105"/>
@@ -7783,7 +7774,7 @@
       <c r="F118" s="17"/>
       <c r="G118" s="21"/>
       <c r="H118" s="64"/>
-      <c r="I118" s="216"/>
+      <c r="I118" s="153"/>
       <c r="J118" s="104"/>
       <c r="K118" s="103"/>
       <c r="L118" s="105"/>
@@ -7822,7 +7813,7 @@
       <c r="F119" s="17"/>
       <c r="G119" s="21"/>
       <c r="H119" s="64"/>
-      <c r="I119" s="216"/>
+      <c r="I119" s="153"/>
       <c r="J119" s="104"/>
       <c r="K119" s="103"/>
       <c r="L119" s="105"/>
@@ -7861,7 +7852,7 @@
       <c r="F120" s="17"/>
       <c r="G120" s="21"/>
       <c r="H120" s="64"/>
-      <c r="I120" s="216"/>
+      <c r="I120" s="153"/>
       <c r="J120" s="104"/>
       <c r="K120" s="103"/>
       <c r="L120" s="105"/>
@@ -7900,7 +7891,7 @@
       <c r="F121" s="17"/>
       <c r="G121" s="21"/>
       <c r="H121" s="64"/>
-      <c r="I121" s="216"/>
+      <c r="I121" s="153"/>
       <c r="J121" s="104"/>
       <c r="K121" s="103"/>
       <c r="L121" s="105"/>
@@ -7939,7 +7930,7 @@
       <c r="F122" s="17"/>
       <c r="G122" s="21"/>
       <c r="H122" s="64"/>
-      <c r="I122" s="216"/>
+      <c r="I122" s="153"/>
       <c r="J122" s="104"/>
       <c r="K122" s="103"/>
       <c r="L122" s="105"/>
@@ -7978,7 +7969,7 @@
       <c r="F123" s="17"/>
       <c r="G123" s="21"/>
       <c r="H123" s="64"/>
-      <c r="I123" s="216"/>
+      <c r="I123" s="153"/>
       <c r="J123" s="104"/>
       <c r="K123" s="103"/>
       <c r="L123" s="105"/>
@@ -8017,7 +8008,7 @@
       <c r="F124" s="17"/>
       <c r="G124" s="21"/>
       <c r="H124" s="64"/>
-      <c r="I124" s="216"/>
+      <c r="I124" s="153"/>
       <c r="J124" s="104"/>
       <c r="K124" s="103"/>
       <c r="L124" s="105"/>
@@ -8056,7 +8047,7 @@
       <c r="F125" s="17"/>
       <c r="G125" s="21"/>
       <c r="H125" s="64"/>
-      <c r="I125" s="216"/>
+      <c r="I125" s="153"/>
       <c r="J125" s="104"/>
       <c r="K125" s="103"/>
       <c r="L125" s="105"/>
@@ -8095,7 +8086,7 @@
       <c r="F126" s="17"/>
       <c r="G126" s="21"/>
       <c r="H126" s="64"/>
-      <c r="I126" s="216"/>
+      <c r="I126" s="153"/>
       <c r="J126" s="104"/>
       <c r="K126" s="103"/>
       <c r="L126" s="105"/>
@@ -8134,7 +8125,7 @@
       <c r="F127" s="17"/>
       <c r="G127" s="21"/>
       <c r="H127" s="64"/>
-      <c r="I127" s="216"/>
+      <c r="I127" s="153"/>
       <c r="J127" s="104"/>
       <c r="K127" s="103"/>
       <c r="L127" s="105"/>
@@ -8173,7 +8164,7 @@
       <c r="F128" s="17"/>
       <c r="G128" s="21"/>
       <c r="H128" s="64"/>
-      <c r="I128" s="216"/>
+      <c r="I128" s="153"/>
       <c r="J128" s="104"/>
       <c r="K128" s="103"/>
       <c r="L128" s="105"/>
@@ -8212,7 +8203,7 @@
       <c r="F129" s="17"/>
       <c r="G129" s="21"/>
       <c r="H129" s="64"/>
-      <c r="I129" s="216"/>
+      <c r="I129" s="153"/>
       <c r="J129" s="104"/>
       <c r="K129" s="103"/>
       <c r="L129" s="105"/>
@@ -8251,7 +8242,7 @@
       <c r="F130" s="17"/>
       <c r="G130" s="21"/>
       <c r="H130" s="64"/>
-      <c r="I130" s="216"/>
+      <c r="I130" s="153"/>
       <c r="J130" s="104"/>
       <c r="K130" s="103"/>
       <c r="L130" s="105"/>
@@ -8290,7 +8281,7 @@
       <c r="F131" s="17"/>
       <c r="G131" s="21"/>
       <c r="H131" s="64"/>
-      <c r="I131" s="216"/>
+      <c r="I131" s="153"/>
       <c r="J131" s="104"/>
       <c r="K131" s="103"/>
       <c r="L131" s="105"/>
@@ -8329,7 +8320,7 @@
       <c r="F132" s="17"/>
       <c r="G132" s="21"/>
       <c r="H132" s="64"/>
-      <c r="I132" s="216"/>
+      <c r="I132" s="153"/>
       <c r="J132" s="104"/>
       <c r="K132" s="103"/>
       <c r="L132" s="105"/>
@@ -8368,7 +8359,7 @@
       <c r="F133" s="17"/>
       <c r="G133" s="21"/>
       <c r="H133" s="64"/>
-      <c r="I133" s="216"/>
+      <c r="I133" s="153"/>
       <c r="J133" s="104"/>
       <c r="K133" s="103"/>
       <c r="L133" s="105"/>
@@ -8407,7 +8398,7 @@
       <c r="F134" s="17"/>
       <c r="G134" s="21"/>
       <c r="H134" s="64"/>
-      <c r="I134" s="216"/>
+      <c r="I134" s="153"/>
       <c r="J134" s="104"/>
       <c r="K134" s="103"/>
       <c r="L134" s="105"/>
@@ -8446,7 +8437,7 @@
       <c r="F135" s="17"/>
       <c r="G135" s="21"/>
       <c r="H135" s="64"/>
-      <c r="I135" s="216"/>
+      <c r="I135" s="153"/>
       <c r="J135" s="104"/>
       <c r="K135" s="103"/>
       <c r="L135" s="105"/>
@@ -8485,7 +8476,7 @@
       <c r="F136" s="17"/>
       <c r="G136" s="21"/>
       <c r="H136" s="64"/>
-      <c r="I136" s="216"/>
+      <c r="I136" s="153"/>
       <c r="J136" s="104"/>
       <c r="K136" s="103"/>
       <c r="L136" s="105"/>
@@ -8524,7 +8515,7 @@
       <c r="F137" s="17"/>
       <c r="G137" s="21"/>
       <c r="H137" s="64"/>
-      <c r="I137" s="216"/>
+      <c r="I137" s="153"/>
       <c r="J137" s="104"/>
       <c r="K137" s="103"/>
       <c r="L137" s="105"/>
@@ -8563,7 +8554,7 @@
       <c r="F138" s="17"/>
       <c r="G138" s="21"/>
       <c r="H138" s="64"/>
-      <c r="I138" s="216"/>
+      <c r="I138" s="153"/>
       <c r="J138" s="104"/>
       <c r="K138" s="103"/>
       <c r="L138" s="105"/>
@@ -8602,7 +8593,7 @@
       <c r="F139" s="17"/>
       <c r="G139" s="21"/>
       <c r="H139" s="64"/>
-      <c r="I139" s="216"/>
+      <c r="I139" s="153"/>
       <c r="J139" s="104"/>
       <c r="K139" s="103"/>
       <c r="L139" s="105"/>
@@ -8641,7 +8632,7 @@
       <c r="F140" s="17"/>
       <c r="G140" s="21"/>
       <c r="H140" s="64"/>
-      <c r="I140" s="216"/>
+      <c r="I140" s="153"/>
       <c r="J140" s="104"/>
       <c r="K140" s="103"/>
       <c r="L140" s="105"/>
@@ -8680,7 +8671,7 @@
       <c r="F141" s="17"/>
       <c r="G141" s="21"/>
       <c r="H141" s="64"/>
-      <c r="I141" s="216"/>
+      <c r="I141" s="153"/>
       <c r="J141" s="104"/>
       <c r="K141" s="103"/>
       <c r="L141" s="105"/>
@@ -8719,7 +8710,7 @@
       <c r="F142" s="17"/>
       <c r="G142" s="21"/>
       <c r="H142" s="64"/>
-      <c r="I142" s="216"/>
+      <c r="I142" s="153"/>
       <c r="J142" s="104"/>
       <c r="K142" s="103"/>
       <c r="L142" s="105"/>
@@ -8758,7 +8749,7 @@
       <c r="F143" s="17"/>
       <c r="G143" s="21"/>
       <c r="H143" s="64"/>
-      <c r="I143" s="216"/>
+      <c r="I143" s="153"/>
       <c r="J143" s="104"/>
       <c r="K143" s="103"/>
       <c r="L143" s="105"/>
@@ -8797,7 +8788,7 @@
       <c r="F144" s="17"/>
       <c r="G144" s="21"/>
       <c r="H144" s="64"/>
-      <c r="I144" s="216"/>
+      <c r="I144" s="153"/>
       <c r="J144" s="104"/>
       <c r="K144" s="103"/>
       <c r="L144" s="105"/>
@@ -8836,7 +8827,7 @@
       <c r="F145" s="17"/>
       <c r="G145" s="21"/>
       <c r="H145" s="64"/>
-      <c r="I145" s="216"/>
+      <c r="I145" s="153"/>
       <c r="J145" s="104"/>
       <c r="K145" s="103"/>
       <c r="L145" s="105"/>
@@ -8875,7 +8866,7 @@
       <c r="F146" s="17"/>
       <c r="G146" s="21"/>
       <c r="H146" s="64"/>
-      <c r="I146" s="216"/>
+      <c r="I146" s="153"/>
       <c r="J146" s="104"/>
       <c r="K146" s="103"/>
       <c r="L146" s="105"/>
@@ -8914,7 +8905,7 @@
       <c r="F147" s="17"/>
       <c r="G147" s="21"/>
       <c r="H147" s="64"/>
-      <c r="I147" s="216"/>
+      <c r="I147" s="153"/>
       <c r="J147" s="104"/>
       <c r="K147" s="103"/>
       <c r="L147" s="105"/>
@@ -8953,7 +8944,7 @@
       <c r="F148" s="17"/>
       <c r="G148" s="21"/>
       <c r="H148" s="64"/>
-      <c r="I148" s="216"/>
+      <c r="I148" s="153"/>
       <c r="J148" s="104"/>
       <c r="K148" s="103"/>
       <c r="L148" s="105"/>
@@ -8992,7 +8983,7 @@
       <c r="F149" s="17"/>
       <c r="G149" s="21"/>
       <c r="H149" s="64"/>
-      <c r="I149" s="216"/>
+      <c r="I149" s="153"/>
       <c r="J149" s="104"/>
       <c r="K149" s="103"/>
       <c r="L149" s="105"/>
@@ -9031,7 +9022,7 @@
       <c r="F150" s="17"/>
       <c r="G150" s="21"/>
       <c r="H150" s="64"/>
-      <c r="I150" s="216"/>
+      <c r="I150" s="153"/>
       <c r="J150" s="104"/>
       <c r="K150" s="103"/>
       <c r="L150" s="105"/>
@@ -9070,7 +9061,7 @@
       <c r="F151" s="17"/>
       <c r="G151" s="21"/>
       <c r="H151" s="64"/>
-      <c r="I151" s="216"/>
+      <c r="I151" s="153"/>
       <c r="J151" s="104"/>
       <c r="K151" s="103"/>
       <c r="L151" s="105"/>
@@ -9109,7 +9100,7 @@
       <c r="F152" s="17"/>
       <c r="G152" s="21"/>
       <c r="H152" s="64"/>
-      <c r="I152" s="216"/>
+      <c r="I152" s="153"/>
       <c r="J152" s="104"/>
       <c r="K152" s="103"/>
       <c r="L152" s="105"/>
@@ -9148,7 +9139,7 @@
       <c r="F153" s="17"/>
       <c r="G153" s="21"/>
       <c r="H153" s="64"/>
-      <c r="I153" s="216"/>
+      <c r="I153" s="153"/>
       <c r="J153" s="104"/>
       <c r="K153" s="103"/>
       <c r="L153" s="105"/>
@@ -9187,7 +9178,7 @@
       <c r="F154" s="17"/>
       <c r="G154" s="21"/>
       <c r="H154" s="64"/>
-      <c r="I154" s="216"/>
+      <c r="I154" s="153"/>
       <c r="J154" s="104"/>
       <c r="K154" s="103"/>
       <c r="L154" s="105"/>
@@ -9226,7 +9217,7 @@
       <c r="F155" s="17"/>
       <c r="G155" s="21"/>
       <c r="H155" s="64"/>
-      <c r="I155" s="216"/>
+      <c r="I155" s="153"/>
       <c r="J155" s="104"/>
       <c r="K155" s="103"/>
       <c r="L155" s="105"/>
@@ -9265,7 +9256,7 @@
       <c r="F156" s="17"/>
       <c r="G156" s="21"/>
       <c r="H156" s="64"/>
-      <c r="I156" s="216"/>
+      <c r="I156" s="153"/>
       <c r="J156" s="104"/>
       <c r="K156" s="103"/>
       <c r="L156" s="105"/>
@@ -9304,7 +9295,7 @@
       <c r="F157" s="17"/>
       <c r="G157" s="21"/>
       <c r="H157" s="64"/>
-      <c r="I157" s="216"/>
+      <c r="I157" s="153"/>
       <c r="J157" s="104"/>
       <c r="K157" s="103"/>
       <c r="L157" s="105"/>
@@ -9343,7 +9334,7 @@
       <c r="F158" s="17"/>
       <c r="G158" s="21"/>
       <c r="H158" s="64"/>
-      <c r="I158" s="216"/>
+      <c r="I158" s="153"/>
       <c r="J158" s="104"/>
       <c r="K158" s="103"/>
       <c r="L158" s="105"/>
@@ -9382,7 +9373,7 @@
       <c r="F159" s="17"/>
       <c r="G159" s="21"/>
       <c r="H159" s="64"/>
-      <c r="I159" s="216"/>
+      <c r="I159" s="153"/>
       <c r="J159" s="104"/>
       <c r="K159" s="103"/>
       <c r="L159" s="105"/>
@@ -9421,7 +9412,7 @@
       <c r="F160" s="17"/>
       <c r="G160" s="21"/>
       <c r="H160" s="64"/>
-      <c r="I160" s="216"/>
+      <c r="I160" s="153"/>
       <c r="J160" s="104"/>
       <c r="K160" s="103"/>
       <c r="L160" s="105"/>
@@ -9460,7 +9451,7 @@
       <c r="F161" s="17"/>
       <c r="G161" s="21"/>
       <c r="H161" s="64"/>
-      <c r="I161" s="216"/>
+      <c r="I161" s="153"/>
       <c r="J161" s="104"/>
       <c r="K161" s="103"/>
       <c r="L161" s="105"/>
@@ -9499,7 +9490,7 @@
       <c r="F162" s="17"/>
       <c r="G162" s="21"/>
       <c r="H162" s="64"/>
-      <c r="I162" s="216"/>
+      <c r="I162" s="153"/>
       <c r="J162" s="104"/>
       <c r="K162" s="103"/>
       <c r="L162" s="105"/>
@@ -9538,7 +9529,7 @@
       <c r="F163" s="17"/>
       <c r="G163" s="21"/>
       <c r="H163" s="64"/>
-      <c r="I163" s="216"/>
+      <c r="I163" s="153"/>
       <c r="J163" s="104"/>
       <c r="K163" s="103"/>
       <c r="L163" s="105"/>
@@ -9577,7 +9568,7 @@
       <c r="F164" s="17"/>
       <c r="G164" s="21"/>
       <c r="H164" s="64"/>
-      <c r="I164" s="216"/>
+      <c r="I164" s="153"/>
       <c r="J164" s="104"/>
       <c r="K164" s="103"/>
       <c r="L164" s="105"/>
@@ -9616,7 +9607,7 @@
       <c r="F165" s="17"/>
       <c r="G165" s="21"/>
       <c r="H165" s="64"/>
-      <c r="I165" s="216"/>
+      <c r="I165" s="153"/>
       <c r="J165" s="104"/>
       <c r="K165" s="103"/>
       <c r="L165" s="105"/>
@@ -9655,7 +9646,7 @@
       <c r="F166" s="17"/>
       <c r="G166" s="21"/>
       <c r="H166" s="64"/>
-      <c r="I166" s="216"/>
+      <c r="I166" s="153"/>
       <c r="J166" s="104"/>
       <c r="K166" s="103"/>
       <c r="L166" s="105"/>
@@ -9694,7 +9685,7 @@
       <c r="F167" s="17"/>
       <c r="G167" s="21"/>
       <c r="H167" s="64"/>
-      <c r="I167" s="216"/>
+      <c r="I167" s="153"/>
       <c r="J167" s="104"/>
       <c r="K167" s="103"/>
       <c r="L167" s="105"/>
@@ -9733,7 +9724,7 @@
       <c r="F168" s="17"/>
       <c r="G168" s="21"/>
       <c r="H168" s="64"/>
-      <c r="I168" s="216"/>
+      <c r="I168" s="153"/>
       <c r="J168" s="104"/>
       <c r="K168" s="103"/>
       <c r="L168" s="105"/>
@@ -9772,7 +9763,7 @@
       <c r="F169" s="17"/>
       <c r="G169" s="21"/>
       <c r="H169" s="64"/>
-      <c r="I169" s="216"/>
+      <c r="I169" s="153"/>
       <c r="J169" s="104"/>
       <c r="K169" s="103"/>
       <c r="L169" s="105"/>
@@ -9811,7 +9802,7 @@
       <c r="F170" s="17"/>
       <c r="G170" s="21"/>
       <c r="H170" s="64"/>
-      <c r="I170" s="216"/>
+      <c r="I170" s="153"/>
       <c r="J170" s="104"/>
       <c r="K170" s="103"/>
       <c r="L170" s="105"/>
@@ -9850,7 +9841,7 @@
       <c r="F171" s="17"/>
       <c r="G171" s="21"/>
       <c r="H171" s="64"/>
-      <c r="I171" s="216"/>
+      <c r="I171" s="153"/>
       <c r="J171" s="104"/>
       <c r="K171" s="103"/>
       <c r="L171" s="105"/>
@@ -9889,7 +9880,7 @@
       <c r="F172" s="17"/>
       <c r="G172" s="21"/>
       <c r="H172" s="64"/>
-      <c r="I172" s="216"/>
+      <c r="I172" s="153"/>
       <c r="J172" s="104"/>
       <c r="K172" s="103"/>
       <c r="L172" s="105"/>
@@ -9928,7 +9919,7 @@
       <c r="F173" s="17"/>
       <c r="G173" s="21"/>
       <c r="H173" s="64"/>
-      <c r="I173" s="216"/>
+      <c r="I173" s="153"/>
       <c r="J173" s="104"/>
       <c r="K173" s="103"/>
       <c r="L173" s="105"/>
@@ -9967,7 +9958,7 @@
       <c r="F174" s="17"/>
       <c r="G174" s="21"/>
       <c r="H174" s="64"/>
-      <c r="I174" s="216"/>
+      <c r="I174" s="153"/>
       <c r="J174" s="104"/>
       <c r="K174" s="103"/>
       <c r="L174" s="105"/>
@@ -10006,7 +9997,7 @@
       <c r="F175" s="17"/>
       <c r="G175" s="21"/>
       <c r="H175" s="64"/>
-      <c r="I175" s="216"/>
+      <c r="I175" s="153"/>
       <c r="J175" s="104"/>
       <c r="K175" s="103"/>
       <c r="L175" s="105"/>
@@ -10045,7 +10036,7 @@
       <c r="F176" s="17"/>
       <c r="G176" s="21"/>
       <c r="H176" s="64"/>
-      <c r="I176" s="216"/>
+      <c r="I176" s="153"/>
       <c r="J176" s="104"/>
       <c r="K176" s="103"/>
       <c r="L176" s="105"/>
@@ -10084,7 +10075,7 @@
       <c r="F177" s="22"/>
       <c r="G177" s="71"/>
       <c r="H177" s="66"/>
-      <c r="I177" s="217"/>
+      <c r="I177" s="154"/>
       <c r="J177" s="110"/>
       <c r="K177" s="109"/>
       <c r="L177" s="111"/>
@@ -10113,6 +10104,22 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="V3:V7"/>
+    <mergeCell ref="W3:X7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AG2:AG7"/>
+    <mergeCell ref="AH2:AH7"/>
+    <mergeCell ref="AI2:AI7"/>
+    <mergeCell ref="AJ2:AJ7"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="E2:E7"/>
     <mergeCell ref="F2:F7"/>
     <mergeCell ref="G2:G7"/>
     <mergeCell ref="H2:H7"/>
@@ -10127,22 +10134,6 @@
     <mergeCell ref="AB2:AB7"/>
     <mergeCell ref="AC2:AC7"/>
     <mergeCell ref="AD2:AD7"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="E2:E7"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AG2:AG7"/>
-    <mergeCell ref="AH2:AH7"/>
-    <mergeCell ref="AI2:AI7"/>
-    <mergeCell ref="AJ2:AJ7"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="V3:V7"/>
-    <mergeCell ref="W3:X7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="S7:U7"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I1:I14">
@@ -15347,12 +15338,12 @@
       <c r="A4" s="3"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="201" t="s">
+      <c r="D4" s="208" t="s">
         <v>144</v>
       </c>
-      <c r="E4" s="202"/>
-      <c r="F4" s="202"/>
-      <c r="G4" s="202"/>
+      <c r="E4" s="209"/>
+      <c r="F4" s="209"/>
+      <c r="G4" s="209"/>
       <c r="H4" s="132">
         <v>1</v>
       </c>
@@ -19960,10 +19951,10 @@
       <c r="A5" s="33"/>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
-      <c r="D5" s="203"/>
-      <c r="E5" s="204"/>
-      <c r="F5" s="204"/>
-      <c r="G5" s="204"/>
+      <c r="D5" s="210"/>
+      <c r="E5" s="211"/>
+      <c r="F5" s="211"/>
+      <c r="G5" s="211"/>
       <c r="H5" s="132"/>
       <c r="I5" s="132"/>
       <c r="J5" s="132"/>
@@ -30962,75 +30953,75 @@
       <c r="D3" s="46"/>
       <c r="E3" s="51"/>
       <c r="F3" s="75"/>
-      <c r="G3" s="206" t="s">
+      <c r="G3" s="213" t="s">
         <v>90</v>
       </c>
-      <c r="H3" s="206"/>
-      <c r="I3" s="206"/>
-      <c r="J3" s="206"/>
-      <c r="K3" s="206"/>
-      <c r="L3" s="206"/>
-      <c r="M3" s="206"/>
-      <c r="N3" s="206"/>
-      <c r="O3" s="207"/>
-      <c r="P3" s="208" t="s">
+      <c r="H3" s="213"/>
+      <c r="I3" s="213"/>
+      <c r="J3" s="213"/>
+      <c r="K3" s="213"/>
+      <c r="L3" s="213"/>
+      <c r="M3" s="213"/>
+      <c r="N3" s="213"/>
+      <c r="O3" s="214"/>
+      <c r="P3" s="215" t="s">
         <v>89</v>
       </c>
-      <c r="Q3" s="206"/>
-      <c r="R3" s="206"/>
-      <c r="S3" s="206"/>
-      <c r="T3" s="206"/>
-      <c r="U3" s="206"/>
-      <c r="V3" s="206"/>
-      <c r="W3" s="207"/>
-      <c r="X3" s="208" t="s">
+      <c r="Q3" s="213"/>
+      <c r="R3" s="213"/>
+      <c r="S3" s="213"/>
+      <c r="T3" s="213"/>
+      <c r="U3" s="213"/>
+      <c r="V3" s="213"/>
+      <c r="W3" s="214"/>
+      <c r="X3" s="215" t="s">
         <v>88</v>
       </c>
-      <c r="Y3" s="206"/>
-      <c r="Z3" s="207"/>
-      <c r="AA3" s="206" t="s">
+      <c r="Y3" s="213"/>
+      <c r="Z3" s="214"/>
+      <c r="AA3" s="213" t="s">
         <v>87</v>
       </c>
-      <c r="AB3" s="206"/>
-      <c r="AC3" s="209" t="s">
+      <c r="AB3" s="213"/>
+      <c r="AC3" s="216" t="s">
         <v>86</v>
       </c>
-      <c r="AD3" s="210"/>
-      <c r="AE3" s="211"/>
+      <c r="AD3" s="217"/>
+      <c r="AE3" s="218"/>
       <c r="AF3" s="144" t="s">
         <v>85</v>
       </c>
-      <c r="AG3" s="208" t="s">
+      <c r="AG3" s="215" t="s">
         <v>189</v>
       </c>
-      <c r="AH3" s="206"/>
-      <c r="AI3" s="206"/>
-      <c r="AJ3" s="206"/>
-      <c r="AK3" s="206"/>
-      <c r="AL3" s="206"/>
-      <c r="AM3" s="206"/>
-      <c r="AN3" s="207"/>
-      <c r="AO3" s="208" t="s">
+      <c r="AH3" s="213"/>
+      <c r="AI3" s="213"/>
+      <c r="AJ3" s="213"/>
+      <c r="AK3" s="213"/>
+      <c r="AL3" s="213"/>
+      <c r="AM3" s="213"/>
+      <c r="AN3" s="214"/>
+      <c r="AO3" s="215" t="s">
         <v>202</v>
       </c>
-      <c r="AP3" s="206"/>
-      <c r="AQ3" s="206"/>
-      <c r="AR3" s="206"/>
-      <c r="AS3" s="206"/>
-      <c r="AT3" s="206"/>
-      <c r="AU3" s="206"/>
-      <c r="AV3" s="208" t="s">
+      <c r="AP3" s="213"/>
+      <c r="AQ3" s="213"/>
+      <c r="AR3" s="213"/>
+      <c r="AS3" s="213"/>
+      <c r="AT3" s="213"/>
+      <c r="AU3" s="213"/>
+      <c r="AV3" s="215" t="s">
         <v>196</v>
       </c>
-      <c r="AW3" s="206"/>
-      <c r="AX3" s="206"/>
-      <c r="AY3" s="206"/>
-      <c r="AZ3" s="206"/>
-      <c r="BA3" s="205" t="s">
+      <c r="AW3" s="213"/>
+      <c r="AX3" s="213"/>
+      <c r="AY3" s="213"/>
+      <c r="AZ3" s="213"/>
+      <c r="BA3" s="212" t="s">
         <v>204</v>
       </c>
-      <c r="BB3" s="205"/>
-      <c r="BC3" s="205"/>
+      <c r="BB3" s="212"/>
+      <c r="BC3" s="212"/>
     </row>
     <row r="4" spans="1:55" ht="111" customHeight="1">
       <c r="A4" s="42" t="s">

--- a/pyMaster_loads_tool.xlsx
+++ b/pyMaster_loads_tool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://atlec-my.sharepoint.com/personal/mwo_woodthilsted_com/Documents/Professional/5_PYTHON/pyMasterLoadsTool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{72F070D9-512B-4F07-9F0A-8944200F0521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{198C1E53-0401-4562-8159-277834CC66E3}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{72F070D9-512B-4F07-9F0A-8944200F0521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28894B4F-8BA6-4A3E-9867-1DA5158D6F6B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="858" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1811,11 +1811,71 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1834,9 +1894,6 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1909,63 +1966,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2502,15 +2502,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>351558</xdr:colOff>
+      <xdr:colOff>297130</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>3230</xdr:rowOff>
+      <xdr:rowOff>57659</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>307916</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>149976</xdr:rowOff>
+      <xdr:colOff>253488</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>41120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2533,8 +2533,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4634922" y="1411775"/>
-          <a:ext cx="1665085" cy="12431110"/>
+          <a:off x="4392880" y="1418373"/>
+          <a:ext cx="1589215" cy="12556461"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2780,6 +2780,10 @@
     <mc:Fallback/>
   </mc:AlternateContent>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3077,7 +3081,7 @@
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AE13" sqref="AE13"/>
-      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -3135,52 +3139,52 @@
       <c r="X1" s="17"/>
       <c r="Y1" s="17"/>
       <c r="Z1" s="17"/>
-      <c r="AB1" s="198" t="s">
+      <c r="AB1" s="156" t="s">
         <v>99</v>
       </c>
-      <c r="AC1" s="198"/>
-      <c r="AD1" s="198"/>
-      <c r="AE1" s="198"/>
-      <c r="AG1" s="195" t="s">
+      <c r="AC1" s="156"/>
+      <c r="AD1" s="156"/>
+      <c r="AE1" s="156"/>
+      <c r="AG1" s="169" t="s">
         <v>144</v>
       </c>
-      <c r="AH1" s="196"/>
-      <c r="AI1" s="196"/>
-      <c r="AJ1" s="197"/>
+      <c r="AH1" s="170"/>
+      <c r="AI1" s="170"/>
+      <c r="AJ1" s="171"/>
     </row>
     <row r="2" spans="1:36" ht="12.4" customHeight="1">
-      <c r="A2" s="191" t="s">
+      <c r="A2" s="172" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="164" t="s">
+      <c r="C2" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="193"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="157" t="s">
+      <c r="D2" s="175"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="174" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="160" t="s">
+      <c r="H2" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="163" t="s">
+      <c r="I2" s="183" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="189" t="s">
+      <c r="J2" s="166" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="190"/>
-      <c r="L2" s="190"/>
-      <c r="M2" s="190"/>
-      <c r="N2" s="190"/>
-      <c r="O2" s="190"/>
-      <c r="P2" s="190"/>
-      <c r="Q2" s="190"/>
-      <c r="R2" s="190"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="167"/>
+      <c r="O2" s="167"/>
+      <c r="P2" s="167"/>
+      <c r="Q2" s="167"/>
+      <c r="R2" s="167"/>
       <c r="S2" s="98"/>
       <c r="T2" s="98"/>
       <c r="U2" s="98"/>
@@ -3188,231 +3192,231 @@
       <c r="W2" s="98"/>
       <c r="X2" s="99"/>
       <c r="Y2" s="17"/>
-      <c r="Z2" s="191" t="s">
+      <c r="Z2" s="172" t="s">
         <v>51</v>
       </c>
-      <c r="AB2" s="164" t="s">
+      <c r="AB2" s="173" t="s">
         <v>56</v>
       </c>
-      <c r="AC2" s="164" t="s">
+      <c r="AC2" s="173" t="s">
         <v>52</v>
       </c>
-      <c r="AD2" s="164" t="s">
+      <c r="AD2" s="173" t="s">
         <v>53</v>
       </c>
-      <c r="AE2" s="164" t="s">
+      <c r="AE2" s="173" t="s">
         <v>54</v>
       </c>
-      <c r="AG2" s="191" t="s">
+      <c r="AG2" s="172" t="s">
         <v>142</v>
       </c>
-      <c r="AH2" s="191" t="s">
+      <c r="AH2" s="172" t="s">
         <v>143</v>
       </c>
-      <c r="AI2" s="191" t="s">
+      <c r="AI2" s="172" t="s">
         <v>134</v>
       </c>
-      <c r="AJ2" s="191" t="s">
+      <c r="AJ2" s="172" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:36" ht="12.6" customHeight="1">
-      <c r="A3" s="191"/>
-      <c r="B3" s="164"/>
-      <c r="C3" s="164"/>
-      <c r="D3" s="193"/>
-      <c r="E3" s="194"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="165" t="s">
+      <c r="A3" s="172"/>
+      <c r="B3" s="173"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="177"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="181"/>
+      <c r="I3" s="183"/>
+      <c r="J3" s="184" t="s">
         <v>100</v>
       </c>
-      <c r="K3" s="166"/>
-      <c r="L3" s="167"/>
-      <c r="M3" s="174" t="s">
+      <c r="K3" s="185"/>
+      <c r="L3" s="186"/>
+      <c r="M3" s="193" t="s">
         <v>114</v>
       </c>
-      <c r="N3" s="175"/>
-      <c r="O3" s="176"/>
-      <c r="P3" s="160" t="s">
+      <c r="N3" s="194"/>
+      <c r="O3" s="195"/>
+      <c r="P3" s="180" t="s">
         <v>95</v>
       </c>
-      <c r="Q3" s="183"/>
-      <c r="R3" s="184"/>
-      <c r="S3" s="160" t="s">
+      <c r="Q3" s="202"/>
+      <c r="R3" s="203"/>
+      <c r="S3" s="180" t="s">
         <v>96</v>
       </c>
-      <c r="T3" s="183"/>
-      <c r="U3" s="184"/>
-      <c r="V3" s="192" t="s">
+      <c r="T3" s="202"/>
+      <c r="U3" s="203"/>
+      <c r="V3" s="157" t="s">
         <v>97</v>
       </c>
-      <c r="W3" s="201" t="s">
+      <c r="W3" s="160" t="s">
         <v>98</v>
       </c>
-      <c r="X3" s="202"/>
+      <c r="X3" s="161"/>
       <c r="Y3" s="17"/>
-      <c r="Z3" s="191"/>
-      <c r="AB3" s="164"/>
-      <c r="AC3" s="164"/>
-      <c r="AD3" s="164"/>
-      <c r="AE3" s="164"/>
-      <c r="AG3" s="191"/>
-      <c r="AH3" s="191"/>
-      <c r="AI3" s="191"/>
-      <c r="AJ3" s="191"/>
+      <c r="Z3" s="172"/>
+      <c r="AB3" s="173"/>
+      <c r="AC3" s="173"/>
+      <c r="AD3" s="173"/>
+      <c r="AE3" s="173"/>
+      <c r="AG3" s="172"/>
+      <c r="AH3" s="172"/>
+      <c r="AI3" s="172"/>
+      <c r="AJ3" s="172"/>
     </row>
     <row r="4" spans="1:36" ht="12.6" customHeight="1">
-      <c r="A4" s="191"/>
-      <c r="B4" s="164"/>
-      <c r="C4" s="164"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="194"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="158"/>
-      <c r="H4" s="161"/>
-      <c r="I4" s="163"/>
-      <c r="J4" s="168"/>
-      <c r="K4" s="169"/>
-      <c r="L4" s="170"/>
-      <c r="M4" s="177"/>
-      <c r="N4" s="178"/>
-      <c r="O4" s="179"/>
-      <c r="P4" s="161"/>
-      <c r="Q4" s="185"/>
-      <c r="R4" s="186"/>
-      <c r="S4" s="161"/>
-      <c r="T4" s="185"/>
-      <c r="U4" s="186"/>
-      <c r="V4" s="199"/>
-      <c r="W4" s="203"/>
-      <c r="X4" s="204"/>
+      <c r="A4" s="172"/>
+      <c r="B4" s="173"/>
+      <c r="C4" s="173"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="176"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="178"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="183"/>
+      <c r="J4" s="187"/>
+      <c r="K4" s="188"/>
+      <c r="L4" s="189"/>
+      <c r="M4" s="196"/>
+      <c r="N4" s="197"/>
+      <c r="O4" s="198"/>
+      <c r="P4" s="181"/>
+      <c r="Q4" s="204"/>
+      <c r="R4" s="205"/>
+      <c r="S4" s="181"/>
+      <c r="T4" s="204"/>
+      <c r="U4" s="205"/>
+      <c r="V4" s="158"/>
+      <c r="W4" s="162"/>
+      <c r="X4" s="163"/>
       <c r="Y4" s="17"/>
-      <c r="Z4" s="191"/>
-      <c r="AB4" s="164"/>
-      <c r="AC4" s="164"/>
-      <c r="AD4" s="164"/>
-      <c r="AE4" s="164"/>
-      <c r="AG4" s="191"/>
-      <c r="AH4" s="191"/>
-      <c r="AI4" s="191"/>
-      <c r="AJ4" s="191"/>
+      <c r="Z4" s="172"/>
+      <c r="AB4" s="173"/>
+      <c r="AC4" s="173"/>
+      <c r="AD4" s="173"/>
+      <c r="AE4" s="173"/>
+      <c r="AG4" s="172"/>
+      <c r="AH4" s="172"/>
+      <c r="AI4" s="172"/>
+      <c r="AJ4" s="172"/>
     </row>
     <row r="5" spans="1:36" ht="25.15" customHeight="1">
-      <c r="A5" s="191"/>
-      <c r="B5" s="164"/>
-      <c r="C5" s="164"/>
-      <c r="D5" s="193"/>
-      <c r="E5" s="194"/>
-      <c r="F5" s="156"/>
-      <c r="G5" s="158"/>
-      <c r="H5" s="161"/>
-      <c r="I5" s="163"/>
-      <c r="J5" s="168"/>
-      <c r="K5" s="169"/>
-      <c r="L5" s="170"/>
-      <c r="M5" s="177"/>
-      <c r="N5" s="178"/>
-      <c r="O5" s="179"/>
-      <c r="P5" s="161"/>
-      <c r="Q5" s="185"/>
-      <c r="R5" s="186"/>
-      <c r="S5" s="161"/>
-      <c r="T5" s="185"/>
-      <c r="U5" s="186"/>
-      <c r="V5" s="199"/>
-      <c r="W5" s="203"/>
-      <c r="X5" s="204"/>
+      <c r="A5" s="172"/>
+      <c r="B5" s="173"/>
+      <c r="C5" s="173"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="176"/>
+      <c r="F5" s="177"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="181"/>
+      <c r="I5" s="183"/>
+      <c r="J5" s="187"/>
+      <c r="K5" s="188"/>
+      <c r="L5" s="189"/>
+      <c r="M5" s="196"/>
+      <c r="N5" s="197"/>
+      <c r="O5" s="198"/>
+      <c r="P5" s="181"/>
+      <c r="Q5" s="204"/>
+      <c r="R5" s="205"/>
+      <c r="S5" s="181"/>
+      <c r="T5" s="204"/>
+      <c r="U5" s="205"/>
+      <c r="V5" s="158"/>
+      <c r="W5" s="162"/>
+      <c r="X5" s="163"/>
       <c r="Y5" s="17"/>
-      <c r="Z5" s="191"/>
-      <c r="AB5" s="164"/>
-      <c r="AC5" s="164"/>
-      <c r="AD5" s="164"/>
-      <c r="AE5" s="164"/>
-      <c r="AG5" s="191"/>
-      <c r="AH5" s="191"/>
-      <c r="AI5" s="191"/>
-      <c r="AJ5" s="191"/>
+      <c r="Z5" s="172"/>
+      <c r="AB5" s="173"/>
+      <c r="AC5" s="173"/>
+      <c r="AD5" s="173"/>
+      <c r="AE5" s="173"/>
+      <c r="AG5" s="172"/>
+      <c r="AH5" s="172"/>
+      <c r="AI5" s="172"/>
+      <c r="AJ5" s="172"/>
     </row>
     <row r="6" spans="1:36" ht="12.6" customHeight="1">
-      <c r="A6" s="191"/>
-      <c r="B6" s="164"/>
-      <c r="C6" s="164"/>
-      <c r="D6" s="193"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="156"/>
-      <c r="G6" s="158"/>
-      <c r="H6" s="161"/>
-      <c r="I6" s="163"/>
-      <c r="J6" s="171"/>
-      <c r="K6" s="172"/>
-      <c r="L6" s="173"/>
-      <c r="M6" s="180"/>
-      <c r="N6" s="181"/>
-      <c r="O6" s="182"/>
-      <c r="P6" s="161"/>
-      <c r="Q6" s="185"/>
-      <c r="R6" s="186"/>
-      <c r="S6" s="162"/>
-      <c r="T6" s="187"/>
-      <c r="U6" s="188"/>
-      <c r="V6" s="199"/>
-      <c r="W6" s="203"/>
-      <c r="X6" s="204"/>
+      <c r="A6" s="172"/>
+      <c r="B6" s="173"/>
+      <c r="C6" s="173"/>
+      <c r="D6" s="175"/>
+      <c r="E6" s="176"/>
+      <c r="F6" s="177"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="181"/>
+      <c r="I6" s="183"/>
+      <c r="J6" s="190"/>
+      <c r="K6" s="191"/>
+      <c r="L6" s="192"/>
+      <c r="M6" s="199"/>
+      <c r="N6" s="200"/>
+      <c r="O6" s="201"/>
+      <c r="P6" s="181"/>
+      <c r="Q6" s="204"/>
+      <c r="R6" s="205"/>
+      <c r="S6" s="182"/>
+      <c r="T6" s="206"/>
+      <c r="U6" s="207"/>
+      <c r="V6" s="158"/>
+      <c r="W6" s="162"/>
+      <c r="X6" s="163"/>
       <c r="Y6" s="17"/>
-      <c r="Z6" s="191"/>
-      <c r="AB6" s="164"/>
-      <c r="AC6" s="164"/>
-      <c r="AD6" s="164"/>
-      <c r="AE6" s="164"/>
-      <c r="AG6" s="191"/>
-      <c r="AH6" s="191"/>
-      <c r="AI6" s="191"/>
-      <c r="AJ6" s="191"/>
+      <c r="Z6" s="172"/>
+      <c r="AB6" s="173"/>
+      <c r="AC6" s="173"/>
+      <c r="AD6" s="173"/>
+      <c r="AE6" s="173"/>
+      <c r="AG6" s="172"/>
+      <c r="AH6" s="172"/>
+      <c r="AI6" s="172"/>
+      <c r="AJ6" s="172"/>
     </row>
     <row r="7" spans="1:36">
-      <c r="A7" s="192"/>
-      <c r="B7" s="157"/>
-      <c r="C7" s="157"/>
-      <c r="D7" s="193"/>
-      <c r="E7" s="194"/>
-      <c r="F7" s="156"/>
-      <c r="G7" s="159"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="163"/>
-      <c r="J7" s="189" t="s">
+      <c r="A7" s="157"/>
+      <c r="B7" s="174"/>
+      <c r="C7" s="174"/>
+      <c r="D7" s="175"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="177"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="182"/>
+      <c r="I7" s="183"/>
+      <c r="J7" s="166" t="s">
         <v>112</v>
       </c>
-      <c r="K7" s="190"/>
-      <c r="L7" s="207"/>
-      <c r="M7" s="189" t="s">
+      <c r="K7" s="167"/>
+      <c r="L7" s="168"/>
+      <c r="M7" s="166" t="s">
         <v>101</v>
       </c>
-      <c r="N7" s="190"/>
-      <c r="O7" s="207"/>
-      <c r="P7" s="162"/>
-      <c r="Q7" s="187"/>
-      <c r="R7" s="188"/>
-      <c r="S7" s="189" t="s">
+      <c r="N7" s="167"/>
+      <c r="O7" s="168"/>
+      <c r="P7" s="182"/>
+      <c r="Q7" s="206"/>
+      <c r="R7" s="207"/>
+      <c r="S7" s="166" t="s">
         <v>113</v>
       </c>
-      <c r="T7" s="190"/>
-      <c r="U7" s="207"/>
-      <c r="V7" s="200"/>
-      <c r="W7" s="205"/>
-      <c r="X7" s="206"/>
+      <c r="T7" s="167"/>
+      <c r="U7" s="168"/>
+      <c r="V7" s="159"/>
+      <c r="W7" s="164"/>
+      <c r="X7" s="165"/>
       <c r="Y7" s="17"/>
-      <c r="Z7" s="191"/>
-      <c r="AB7" s="164"/>
-      <c r="AC7" s="164"/>
-      <c r="AD7" s="164"/>
-      <c r="AE7" s="164"/>
-      <c r="AG7" s="191"/>
-      <c r="AH7" s="191"/>
-      <c r="AI7" s="191"/>
-      <c r="AJ7" s="191"/>
+      <c r="Z7" s="172"/>
+      <c r="AB7" s="173"/>
+      <c r="AC7" s="173"/>
+      <c r="AD7" s="173"/>
+      <c r="AE7" s="173"/>
+      <c r="AG7" s="172"/>
+      <c r="AH7" s="172"/>
+      <c r="AI7" s="172"/>
+      <c r="AJ7" s="172"/>
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="100">
@@ -3431,7 +3435,7 @@
       </c>
       <c r="F8" s="17"/>
       <c r="G8" s="20" t="str">
-        <f t="shared" ref="G8:G24" si="1">IF(ISBLANK(B8),"",TEXT(A8,0)&amp;":"&amp;B8)</f>
+        <f t="shared" ref="G8:G9" si="1">IF(ISBLANK(B8),"",TEXT(A8,0)&amp;":"&amp;B8)</f>
         <v>1:Self-weight</v>
       </c>
       <c r="H8" s="117" t="s">
@@ -10104,22 +10108,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="V3:V7"/>
-    <mergeCell ref="W3:X7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AG2:AG7"/>
-    <mergeCell ref="AH2:AH7"/>
-    <mergeCell ref="AI2:AI7"/>
-    <mergeCell ref="AJ2:AJ7"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="E2:E7"/>
     <mergeCell ref="F2:F7"/>
     <mergeCell ref="G2:G7"/>
     <mergeCell ref="H2:H7"/>
@@ -10134,6 +10122,22 @@
     <mergeCell ref="AB2:AB7"/>
     <mergeCell ref="AC2:AC7"/>
     <mergeCell ref="AD2:AD7"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="E2:E7"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AG2:AG7"/>
+    <mergeCell ref="AH2:AH7"/>
+    <mergeCell ref="AI2:AI7"/>
+    <mergeCell ref="AJ2:AJ7"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="V3:V7"/>
+    <mergeCell ref="W3:X7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="S7:U7"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I1:I14">

--- a/pyMaster_loads_tool.xlsx
+++ b/pyMaster_loads_tool.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://atlec-my.sharepoint.com/personal/mwo_woodthilsted_com/Documents/Professional/5_PYTHON/pyMasterLoadsTool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{72F070D9-512B-4F07-9F0A-8944200F0521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28894B4F-8BA6-4A3E-9867-1DA5158D6F6B}"/>
+  <xr:revisionPtr revIDLastSave="243" documentId="8_{72F070D9-512B-4F07-9F0A-8944200F0521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{808E4986-9671-4F24-ADAF-EEBC027701CA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="858" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12690" yWindow="1485" windowWidth="23130" windowHeight="18465" tabRatio="858" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Load case definition" sheetId="22" r:id="rId1"/>
-    <sheet name="Load combination" sheetId="3" r:id="rId2"/>
-    <sheet name="Screen capture" sheetId="21" r:id="rId3"/>
-    <sheet name="LaTeX code" sheetId="12" state="hidden" r:id="rId4"/>
-    <sheet name="LaTeX load combs apndx" sheetId="15" state="hidden" r:id="rId5"/>
+    <sheet name="Load case definition" sheetId="23" r:id="rId1"/>
+    <sheet name="Load definition" sheetId="22" r:id="rId2"/>
+    <sheet name="Load combination" sheetId="3" r:id="rId3"/>
+    <sheet name="Screen capture" sheetId="21" r:id="rId4"/>
+    <sheet name="LaTeX code" sheetId="12" state="hidden" r:id="rId5"/>
+    <sheet name="LaTeX load combs apndx" sheetId="15" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Load case definition'!$G$1:$X$177</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Load definition'!$G$1:$X$177</definedName>
     <definedName name="BargePhoto">INDIRECT(#REF!)</definedName>
     <definedName name="FilePath">#REF!</definedName>
     <definedName name="LaTeXAppendicesFolder">#REF!</definedName>
@@ -48,9 +49,10 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Kasper Bech Skiveren</author>
+    <author>Marcin Woliński</author>
   </authors>
   <commentList>
-    <comment ref="AG2" authorId="0" shapeId="0" xr:uid="{62527B1E-8E00-4E9D-8440-CAAD01C8F248}">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{62527B1E-8E00-4E9D-8440-CAAD01C8F248}">
       <text>
         <r>
           <rPr>
@@ -59,31 +61,20 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Toggle for non-linear solver parameters. If true, the column to the right is enabled.</t>
+          <t>Toggle for non-linear solver parameters. If 1-true, the column to the right is enabled.</t>
         </r>
       </text>
     </comment>
-    <comment ref="AH2" authorId="0" shapeId="0" xr:uid="{6D0F0907-C01C-4C49-9ED6-AD6F9F3A15CA}">
+    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{355A9B12-2A94-4D7F-8E0F-C5DAFC988115}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Kasper Bech Skiveren:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">
-1 = Static linear
+          <t>1 = Static linear
 2 = Static non-linear
 4 = Static buckling
 5 = Auxiliary linear case (tells Robot to skip this load case and only use it in a load combation)
@@ -91,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI2" authorId="0" shapeId="0" xr:uid="{9E7ADC61-5A53-4E99-86A4-CB317FCEC513}">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{9E7ADC61-5A53-4E99-86A4-CB317FCEC513}">
       <text>
         <r>
           <rPr>
@@ -100,11 +91,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Toggle True/False, for K-matrix update for every iteration of the non-linear solver. This has to be applied if tension only members are use or if up-lift supports are used.</t>
+          <t>Toggle 1-True/0-False, for K-matrix update for every iteration of the non-linear solver. This has to be applied if tension only members are use or if up-lift supports are used.</t>
         </r>
       </text>
     </comment>
-    <comment ref="AJ2" authorId="0" shapeId="0" xr:uid="{2BC03EB2-DEC5-46D5-8633-AC8E6ACA428C}">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{2BC03EB2-DEC5-46D5-8633-AC8E6ACA428C}">
       <text>
         <r>
           <rPr>
@@ -237,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="249">
   <si>
     <t>Combinations</t>
   </si>
@@ -915,6 +906,84 @@
   <si>
     <t>Grating self-weight</t>
   </si>
+  <si>
+    <t>I_CN_EXPLOATATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I_CN_PERMANENT   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I_CN_WIND        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I_CN_SNOW        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I_CN_TEMPERATURE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I_CN_ACCIDENTAL  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I_CN_SEISMIC     </t>
+  </si>
+  <si>
+    <t>cases_nature</t>
+  </si>
+  <si>
+    <t>dead</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>snow</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>accidental</t>
+  </si>
+  <si>
+    <t>seismic</t>
+  </si>
+  <si>
+    <t>buckling</t>
+  </si>
+  <si>
+    <t>static linear</t>
+  </si>
+  <si>
+    <t>static non-linear</t>
+  </si>
+  <si>
+    <t>auxillary linear</t>
+  </si>
+  <si>
+    <t>Stale</t>
+  </si>
+  <si>
+    <t>Zmienne</t>
+  </si>
+  <si>
+    <t>Snieg</t>
+  </si>
+  <si>
+    <t>Wiatr</t>
+  </si>
+  <si>
+    <t>Temperatura</t>
+  </si>
+  <si>
+    <t>Wyjatkowe</t>
+  </si>
+  <si>
+    <t>Sejsmika</t>
+  </si>
 </sst>
 </file>
 
@@ -924,7 +993,7 @@
     <numFmt numFmtId="164" formatCode="0.0##"/>
     <numFmt numFmtId="165" formatCode="0.0#"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1060,6 +1129,12 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1426,7 +1501,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="219">
+  <cellXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1811,17 +1886,42 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1849,24 +1949,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2008,27 +2090,7 @@
     <cellStyle name="Normal 4" xfId="2" xr:uid="{2CB16C5A-DE81-42D5-8739-3682DB154D1A}"/>
     <cellStyle name="Normal 5" xfId="4" xr:uid="{CCBAA879-375D-4F13-BE91-6FA748BD1E7E}"/>
   </cellStyles>
-  <dxfs count="34">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="25">
     <dxf>
       <fill>
         <patternFill>
@@ -2053,15 +2115,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC6E0B4"/>
-          <bgColor rgb="FFC6E0B4"/>
+          <bgColor rgb="FFFFCC66"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2076,6 +2130,26 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2146,35 +2220,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFCBE0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCBE0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCBE0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6E0B4"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2209,34 +2255,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCBE0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFCBE0B4"/>
         </patternFill>
       </fill>
@@ -2259,6 +2277,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCC66"/>
       <color rgb="FFCBE0B4"/>
       <color rgb="FF000000"/>
       <color rgb="FFC6E0B4"/>
@@ -2308,7 +2327,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1025"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2361,7 +2380,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1027"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2414,7 +2433,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1025"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2467,7 +2486,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1027"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2517,7 +2536,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2561,7 +2580,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2610,7 +2629,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2659,7 +2678,7 @@
                   <a14:compatExt spid="_x0000_s3083"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B0C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B0C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2733,7 +2752,7 @@
                   <a14:compatExt spid="_x0000_s4120"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018100000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000018100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2780,10 +2799,6 @@
     <mc:Fallback/>
   </mc:AlternateContent>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3072,16 +3087,2744 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{602E5390-AAE4-4001-BACC-7A736AFD927C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40664C05-F2E7-46CC-82FA-2ED0037371BD}">
+  <sheetPr>
+    <tabColor rgb="FFFFE699"/>
+  </sheetPr>
+  <dimension ref="A1:M177"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="8" width="13.140625" style="19" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75">
+      <c r="A1" s="159" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="161" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="161" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="163" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="165"/>
+      <c r="L1" s="156" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="12.95" customHeight="1">
+      <c r="A2" s="159"/>
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="E2" s="160" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="160" t="s">
+        <v>143</v>
+      </c>
+      <c r="G2" s="160" t="s">
+        <v>134</v>
+      </c>
+      <c r="H2" s="160" t="s">
+        <v>135</v>
+      </c>
+      <c r="K2" s="156" t="s">
+        <v>231</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="159"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="K3" s="156" t="s">
+        <v>232</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="159"/>
+      <c r="B4" s="161"/>
+      <c r="C4" s="161"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
+      <c r="H4" s="166"/>
+      <c r="K4" s="156" t="s">
+        <v>234</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="159"/>
+      <c r="B5" s="161"/>
+      <c r="C5" s="161"/>
+      <c r="E5" s="166"/>
+      <c r="F5" s="166"/>
+      <c r="G5" s="166"/>
+      <c r="H5" s="166"/>
+      <c r="K5" s="156" t="s">
+        <v>233</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="160"/>
+      <c r="B6" s="162"/>
+      <c r="C6" s="162"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="167"/>
+      <c r="K6" s="156" t="s">
+        <v>235</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D7">
+        <f>VLOOKUP(C7,$K$2:$L$8,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="67">
+        <v>0</v>
+      </c>
+      <c r="F7" s="157">
+        <v>1</v>
+      </c>
+      <c r="G7" s="67">
+        <v>0</v>
+      </c>
+      <c r="H7" s="158">
+        <v>0</v>
+      </c>
+      <c r="K7" s="156" t="s">
+        <v>236</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:D13" si="0">VLOOKUP(C8,$K$2:$L$8,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E8" s="67">
+        <v>1</v>
+      </c>
+      <c r="F8" s="158">
+        <v>2</v>
+      </c>
+      <c r="G8" s="67">
+        <v>0</v>
+      </c>
+      <c r="H8" s="158">
+        <v>0</v>
+      </c>
+      <c r="K8" s="156" t="s">
+        <v>237</v>
+      </c>
+      <c r="L8">
+        <v>6</v>
+      </c>
+      <c r="M8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C9" t="s">
+        <v>233</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E9" s="67">
+        <v>0</v>
+      </c>
+      <c r="F9" s="158">
+        <v>1</v>
+      </c>
+      <c r="G9" s="67">
+        <v>0</v>
+      </c>
+      <c r="H9" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E10" s="67">
+        <v>1</v>
+      </c>
+      <c r="F10" s="158">
+        <v>2</v>
+      </c>
+      <c r="G10" s="67">
+        <v>0</v>
+      </c>
+      <c r="H10" s="158">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>239</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>246</v>
+      </c>
+      <c r="C11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E11" s="67">
+        <v>0</v>
+      </c>
+      <c r="F11" s="158">
+        <v>1</v>
+      </c>
+      <c r="G11" s="67">
+        <v>0</v>
+      </c>
+      <c r="H11" s="158">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>238</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C12" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E12" s="67">
+        <v>0</v>
+      </c>
+      <c r="F12" s="158">
+        <v>1</v>
+      </c>
+      <c r="G12" s="67">
+        <v>0</v>
+      </c>
+      <c r="H12" s="158">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>241</v>
+      </c>
+      <c r="L12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>248</v>
+      </c>
+      <c r="C13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E13" s="67">
+        <v>0</v>
+      </c>
+      <c r="F13" s="158">
+        <v>1</v>
+      </c>
+      <c r="G13" s="67">
+        <v>0</v>
+      </c>
+      <c r="H13" s="158">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>240</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="E14" s="67">
+        <v>0</v>
+      </c>
+      <c r="F14" s="158">
+        <v>1</v>
+      </c>
+      <c r="G14" s="67">
+        <v>0</v>
+      </c>
+      <c r="H14" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="E15" s="67">
+        <v>0</v>
+      </c>
+      <c r="F15" s="158">
+        <v>1</v>
+      </c>
+      <c r="G15" s="67">
+        <v>0</v>
+      </c>
+      <c r="H15" s="158">
+        <v>0</v>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="E16" s="67">
+        <v>0</v>
+      </c>
+      <c r="F16" s="158">
+        <v>1</v>
+      </c>
+      <c r="G16" s="67">
+        <v>0</v>
+      </c>
+      <c r="H16" s="158">
+        <v>0</v>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8">
+      <c r="E17" s="67">
+        <v>0</v>
+      </c>
+      <c r="F17" s="158">
+        <v>1</v>
+      </c>
+      <c r="G17" s="67">
+        <v>0</v>
+      </c>
+      <c r="H17" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="5:8">
+      <c r="E18" s="67">
+        <v>0</v>
+      </c>
+      <c r="F18" s="158">
+        <v>1</v>
+      </c>
+      <c r="G18" s="67">
+        <v>0</v>
+      </c>
+      <c r="H18" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="5:8">
+      <c r="E19" s="67">
+        <v>0</v>
+      </c>
+      <c r="F19" s="158">
+        <v>1</v>
+      </c>
+      <c r="G19" s="67">
+        <v>0</v>
+      </c>
+      <c r="H19" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8">
+      <c r="E20" s="67">
+        <v>0</v>
+      </c>
+      <c r="F20" s="158">
+        <v>1</v>
+      </c>
+      <c r="G20" s="67">
+        <v>0</v>
+      </c>
+      <c r="H20" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="5:8">
+      <c r="E21" s="67">
+        <v>0</v>
+      </c>
+      <c r="F21" s="158">
+        <v>1</v>
+      </c>
+      <c r="G21" s="67">
+        <v>0</v>
+      </c>
+      <c r="H21" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="5:8">
+      <c r="E22" s="67">
+        <v>0</v>
+      </c>
+      <c r="F22" s="158">
+        <v>1</v>
+      </c>
+      <c r="G22" s="67">
+        <v>0</v>
+      </c>
+      <c r="H22" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="5:8">
+      <c r="E23" s="67">
+        <v>0</v>
+      </c>
+      <c r="F23" s="158">
+        <v>1</v>
+      </c>
+      <c r="G23" s="67">
+        <v>0</v>
+      </c>
+      <c r="H23" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="5:8">
+      <c r="E24" s="67">
+        <v>0</v>
+      </c>
+      <c r="F24" s="158">
+        <v>1</v>
+      </c>
+      <c r="G24" s="67">
+        <v>0</v>
+      </c>
+      <c r="H24" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="5:8">
+      <c r="E25" s="67">
+        <v>0</v>
+      </c>
+      <c r="F25" s="158">
+        <v>1</v>
+      </c>
+      <c r="G25" s="67">
+        <v>0</v>
+      </c>
+      <c r="H25" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="5:8">
+      <c r="E26" s="67">
+        <v>0</v>
+      </c>
+      <c r="F26" s="158">
+        <v>1</v>
+      </c>
+      <c r="G26" s="67">
+        <v>0</v>
+      </c>
+      <c r="H26" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="5:8">
+      <c r="E27" s="67">
+        <v>0</v>
+      </c>
+      <c r="F27" s="158">
+        <v>1</v>
+      </c>
+      <c r="G27" s="67">
+        <v>0</v>
+      </c>
+      <c r="H27" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="5:8">
+      <c r="E28" s="67">
+        <v>0</v>
+      </c>
+      <c r="F28" s="158">
+        <v>1</v>
+      </c>
+      <c r="G28" s="67">
+        <v>0</v>
+      </c>
+      <c r="H28" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="5:8">
+      <c r="E29" s="67">
+        <v>0</v>
+      </c>
+      <c r="F29" s="158">
+        <v>1</v>
+      </c>
+      <c r="G29" s="67">
+        <v>0</v>
+      </c>
+      <c r="H29" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="5:8">
+      <c r="E30" s="67">
+        <v>0</v>
+      </c>
+      <c r="F30" s="158">
+        <v>1</v>
+      </c>
+      <c r="G30" s="67">
+        <v>0</v>
+      </c>
+      <c r="H30" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="5:8">
+      <c r="E31" s="67">
+        <v>0</v>
+      </c>
+      <c r="F31" s="158">
+        <v>1</v>
+      </c>
+      <c r="G31" s="67">
+        <v>0</v>
+      </c>
+      <c r="H31" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="5:8">
+      <c r="E32" s="67">
+        <v>0</v>
+      </c>
+      <c r="F32" s="158">
+        <v>1</v>
+      </c>
+      <c r="G32" s="67">
+        <v>0</v>
+      </c>
+      <c r="H32" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="5:8">
+      <c r="E33" s="67">
+        <v>0</v>
+      </c>
+      <c r="F33" s="158">
+        <v>1</v>
+      </c>
+      <c r="G33" s="67">
+        <v>0</v>
+      </c>
+      <c r="H33" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="5:8">
+      <c r="E34" s="67">
+        <v>0</v>
+      </c>
+      <c r="F34" s="158">
+        <v>1</v>
+      </c>
+      <c r="G34" s="67">
+        <v>0</v>
+      </c>
+      <c r="H34" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="5:8">
+      <c r="E35" s="67">
+        <v>0</v>
+      </c>
+      <c r="F35" s="158">
+        <v>1</v>
+      </c>
+      <c r="G35" s="67">
+        <v>0</v>
+      </c>
+      <c r="H35" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="5:8">
+      <c r="E36" s="67">
+        <v>0</v>
+      </c>
+      <c r="F36" s="158">
+        <v>1</v>
+      </c>
+      <c r="G36" s="67">
+        <v>0</v>
+      </c>
+      <c r="H36" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="5:8">
+      <c r="E37" s="67">
+        <v>0</v>
+      </c>
+      <c r="F37" s="158">
+        <v>1</v>
+      </c>
+      <c r="G37" s="67">
+        <v>0</v>
+      </c>
+      <c r="H37" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="5:8">
+      <c r="E38" s="67">
+        <v>0</v>
+      </c>
+      <c r="F38" s="158">
+        <v>1</v>
+      </c>
+      <c r="G38" s="67">
+        <v>0</v>
+      </c>
+      <c r="H38" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="5:8">
+      <c r="E39" s="67">
+        <v>0</v>
+      </c>
+      <c r="F39" s="158">
+        <v>1</v>
+      </c>
+      <c r="G39" s="67">
+        <v>0</v>
+      </c>
+      <c r="H39" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="5:8">
+      <c r="E40" s="67">
+        <v>0</v>
+      </c>
+      <c r="F40" s="158">
+        <v>1</v>
+      </c>
+      <c r="G40" s="67">
+        <v>0</v>
+      </c>
+      <c r="H40" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="5:8">
+      <c r="E41" s="67">
+        <v>0</v>
+      </c>
+      <c r="F41" s="158">
+        <v>1</v>
+      </c>
+      <c r="G41" s="67">
+        <v>0</v>
+      </c>
+      <c r="H41" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="5:8">
+      <c r="E42" s="67">
+        <v>0</v>
+      </c>
+      <c r="F42" s="158">
+        <v>1</v>
+      </c>
+      <c r="G42" s="67">
+        <v>0</v>
+      </c>
+      <c r="H42" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="5:8">
+      <c r="E43" s="67">
+        <v>0</v>
+      </c>
+      <c r="F43" s="158">
+        <v>1</v>
+      </c>
+      <c r="G43" s="67">
+        <v>0</v>
+      </c>
+      <c r="H43" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="5:8">
+      <c r="E44" s="67">
+        <v>0</v>
+      </c>
+      <c r="F44" s="158">
+        <v>1</v>
+      </c>
+      <c r="G44" s="67">
+        <v>0</v>
+      </c>
+      <c r="H44" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="5:8">
+      <c r="E45" s="67">
+        <v>0</v>
+      </c>
+      <c r="F45" s="158">
+        <v>1</v>
+      </c>
+      <c r="G45" s="67">
+        <v>0</v>
+      </c>
+      <c r="H45" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="5:8">
+      <c r="E46" s="67">
+        <v>0</v>
+      </c>
+      <c r="F46" s="158">
+        <v>1</v>
+      </c>
+      <c r="G46" s="67">
+        <v>0</v>
+      </c>
+      <c r="H46" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="5:8">
+      <c r="E47" s="67">
+        <v>0</v>
+      </c>
+      <c r="F47" s="158">
+        <v>1</v>
+      </c>
+      <c r="G47" s="67">
+        <v>0</v>
+      </c>
+      <c r="H47" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="5:8">
+      <c r="E48" s="67">
+        <v>0</v>
+      </c>
+      <c r="F48" s="158">
+        <v>1</v>
+      </c>
+      <c r="G48" s="67">
+        <v>0</v>
+      </c>
+      <c r="H48" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="5:8">
+      <c r="E49" s="67">
+        <v>0</v>
+      </c>
+      <c r="F49" s="158">
+        <v>1</v>
+      </c>
+      <c r="G49" s="67">
+        <v>0</v>
+      </c>
+      <c r="H49" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="5:8">
+      <c r="E50" s="67">
+        <v>0</v>
+      </c>
+      <c r="F50" s="158">
+        <v>1</v>
+      </c>
+      <c r="G50" s="67">
+        <v>0</v>
+      </c>
+      <c r="H50" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="5:8">
+      <c r="E51" s="67">
+        <v>0</v>
+      </c>
+      <c r="F51" s="158">
+        <v>1</v>
+      </c>
+      <c r="G51" s="67">
+        <v>0</v>
+      </c>
+      <c r="H51" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="5:8">
+      <c r="E52" s="67">
+        <v>0</v>
+      </c>
+      <c r="F52" s="158">
+        <v>1</v>
+      </c>
+      <c r="G52" s="67">
+        <v>0</v>
+      </c>
+      <c r="H52" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="5:8">
+      <c r="E53" s="67">
+        <v>0</v>
+      </c>
+      <c r="F53" s="158">
+        <v>1</v>
+      </c>
+      <c r="G53" s="67">
+        <v>0</v>
+      </c>
+      <c r="H53" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="5:8">
+      <c r="E54" s="67">
+        <v>0</v>
+      </c>
+      <c r="F54" s="158">
+        <v>1</v>
+      </c>
+      <c r="G54" s="67">
+        <v>0</v>
+      </c>
+      <c r="H54" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="5:8">
+      <c r="E55" s="67">
+        <v>0</v>
+      </c>
+      <c r="F55" s="158">
+        <v>1</v>
+      </c>
+      <c r="G55" s="67">
+        <v>0</v>
+      </c>
+      <c r="H55" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="5:8">
+      <c r="E56" s="67">
+        <v>0</v>
+      </c>
+      <c r="F56" s="158">
+        <v>1</v>
+      </c>
+      <c r="G56" s="67">
+        <v>0</v>
+      </c>
+      <c r="H56" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="5:8">
+      <c r="E57" s="67">
+        <v>0</v>
+      </c>
+      <c r="F57" s="158">
+        <v>1</v>
+      </c>
+      <c r="G57" s="67">
+        <v>0</v>
+      </c>
+      <c r="H57" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="5:8">
+      <c r="E58" s="67">
+        <v>0</v>
+      </c>
+      <c r="F58" s="158">
+        <v>1</v>
+      </c>
+      <c r="G58" s="67">
+        <v>0</v>
+      </c>
+      <c r="H58" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="5:8">
+      <c r="E59" s="67">
+        <v>0</v>
+      </c>
+      <c r="F59" s="158">
+        <v>1</v>
+      </c>
+      <c r="G59" s="67">
+        <v>0</v>
+      </c>
+      <c r="H59" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="5:8">
+      <c r="E60" s="67">
+        <v>0</v>
+      </c>
+      <c r="F60" s="158">
+        <v>1</v>
+      </c>
+      <c r="G60" s="67">
+        <v>0</v>
+      </c>
+      <c r="H60" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="5:8">
+      <c r="E61" s="67">
+        <v>0</v>
+      </c>
+      <c r="F61" s="158">
+        <v>1</v>
+      </c>
+      <c r="G61" s="67">
+        <v>0</v>
+      </c>
+      <c r="H61" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="5:8">
+      <c r="E62" s="67">
+        <v>0</v>
+      </c>
+      <c r="F62" s="158">
+        <v>1</v>
+      </c>
+      <c r="G62" s="67">
+        <v>0</v>
+      </c>
+      <c r="H62" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="5:8">
+      <c r="E63" s="67">
+        <v>0</v>
+      </c>
+      <c r="F63" s="158">
+        <v>1</v>
+      </c>
+      <c r="G63" s="67">
+        <v>0</v>
+      </c>
+      <c r="H63" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="5:8">
+      <c r="E64" s="67">
+        <v>0</v>
+      </c>
+      <c r="F64" s="158">
+        <v>1</v>
+      </c>
+      <c r="G64" s="67">
+        <v>0</v>
+      </c>
+      <c r="H64" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="5:8">
+      <c r="E65" s="67">
+        <v>0</v>
+      </c>
+      <c r="F65" s="158">
+        <v>1</v>
+      </c>
+      <c r="G65" s="67">
+        <v>0</v>
+      </c>
+      <c r="H65" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="5:8">
+      <c r="E66" s="67">
+        <v>0</v>
+      </c>
+      <c r="F66" s="158">
+        <v>1</v>
+      </c>
+      <c r="G66" s="67">
+        <v>0</v>
+      </c>
+      <c r="H66" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="5:8">
+      <c r="E67" s="67">
+        <v>0</v>
+      </c>
+      <c r="F67" s="158">
+        <v>1</v>
+      </c>
+      <c r="G67" s="67">
+        <v>0</v>
+      </c>
+      <c r="H67" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="5:8">
+      <c r="E68" s="67">
+        <v>0</v>
+      </c>
+      <c r="F68" s="158">
+        <v>1</v>
+      </c>
+      <c r="G68" s="67">
+        <v>0</v>
+      </c>
+      <c r="H68" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="5:8">
+      <c r="E69" s="67">
+        <v>0</v>
+      </c>
+      <c r="F69" s="158">
+        <v>1</v>
+      </c>
+      <c r="G69" s="67">
+        <v>0</v>
+      </c>
+      <c r="H69" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="5:8">
+      <c r="E70" s="67">
+        <v>0</v>
+      </c>
+      <c r="F70" s="158">
+        <v>1</v>
+      </c>
+      <c r="G70" s="67">
+        <v>0</v>
+      </c>
+      <c r="H70" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="5:8">
+      <c r="E71" s="67">
+        <v>0</v>
+      </c>
+      <c r="F71" s="158">
+        <v>1</v>
+      </c>
+      <c r="G71" s="67">
+        <v>0</v>
+      </c>
+      <c r="H71" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="5:8">
+      <c r="E72" s="67">
+        <v>0</v>
+      </c>
+      <c r="F72" s="158">
+        <v>1</v>
+      </c>
+      <c r="G72" s="67">
+        <v>0</v>
+      </c>
+      <c r="H72" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="5:8">
+      <c r="E73" s="67">
+        <v>0</v>
+      </c>
+      <c r="F73" s="158">
+        <v>1</v>
+      </c>
+      <c r="G73" s="67">
+        <v>0</v>
+      </c>
+      <c r="H73" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="5:8">
+      <c r="E74" s="67">
+        <v>0</v>
+      </c>
+      <c r="F74" s="158">
+        <v>1</v>
+      </c>
+      <c r="G74" s="67">
+        <v>0</v>
+      </c>
+      <c r="H74" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="5:8">
+      <c r="E75" s="67">
+        <v>0</v>
+      </c>
+      <c r="F75" s="158">
+        <v>1</v>
+      </c>
+      <c r="G75" s="67">
+        <v>0</v>
+      </c>
+      <c r="H75" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="5:8">
+      <c r="E76" s="67">
+        <v>0</v>
+      </c>
+      <c r="F76" s="158">
+        <v>1</v>
+      </c>
+      <c r="G76" s="67">
+        <v>0</v>
+      </c>
+      <c r="H76" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="5:8">
+      <c r="E77" s="67">
+        <v>0</v>
+      </c>
+      <c r="F77" s="158">
+        <v>1</v>
+      </c>
+      <c r="G77" s="67">
+        <v>0</v>
+      </c>
+      <c r="H77" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="5:8">
+      <c r="E78" s="67">
+        <v>0</v>
+      </c>
+      <c r="F78" s="158">
+        <v>1</v>
+      </c>
+      <c r="G78" s="67">
+        <v>0</v>
+      </c>
+      <c r="H78" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="5:8">
+      <c r="E79" s="67">
+        <v>0</v>
+      </c>
+      <c r="F79" s="158">
+        <v>1</v>
+      </c>
+      <c r="G79" s="67">
+        <v>0</v>
+      </c>
+      <c r="H79" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="5:8">
+      <c r="E80" s="67">
+        <v>0</v>
+      </c>
+      <c r="F80" s="158">
+        <v>1</v>
+      </c>
+      <c r="G80" s="67">
+        <v>0</v>
+      </c>
+      <c r="H80" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="5:8">
+      <c r="E81" s="67">
+        <v>0</v>
+      </c>
+      <c r="F81" s="158">
+        <v>1</v>
+      </c>
+      <c r="G81" s="67">
+        <v>0</v>
+      </c>
+      <c r="H81" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="5:8">
+      <c r="E82" s="67">
+        <v>0</v>
+      </c>
+      <c r="F82" s="158">
+        <v>1</v>
+      </c>
+      <c r="G82" s="67">
+        <v>0</v>
+      </c>
+      <c r="H82" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="5:8">
+      <c r="E83" s="67">
+        <v>0</v>
+      </c>
+      <c r="F83" s="158">
+        <v>1</v>
+      </c>
+      <c r="G83" s="67">
+        <v>0</v>
+      </c>
+      <c r="H83" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="5:8">
+      <c r="E84" s="67">
+        <v>0</v>
+      </c>
+      <c r="F84" s="158">
+        <v>1</v>
+      </c>
+      <c r="G84" s="67">
+        <v>0</v>
+      </c>
+      <c r="H84" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="5:8">
+      <c r="E85" s="67">
+        <v>0</v>
+      </c>
+      <c r="F85" s="158">
+        <v>1</v>
+      </c>
+      <c r="G85" s="67">
+        <v>0</v>
+      </c>
+      <c r="H85" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="5:8">
+      <c r="E86" s="67">
+        <v>0</v>
+      </c>
+      <c r="F86" s="158">
+        <v>1</v>
+      </c>
+      <c r="G86" s="67">
+        <v>0</v>
+      </c>
+      <c r="H86" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="5:8">
+      <c r="E87" s="67">
+        <v>0</v>
+      </c>
+      <c r="F87" s="158">
+        <v>1</v>
+      </c>
+      <c r="G87" s="67">
+        <v>0</v>
+      </c>
+      <c r="H87" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="5:8">
+      <c r="E88" s="67">
+        <v>0</v>
+      </c>
+      <c r="F88" s="158">
+        <v>1</v>
+      </c>
+      <c r="G88" s="67">
+        <v>0</v>
+      </c>
+      <c r="H88" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="5:8">
+      <c r="E89" s="67">
+        <v>0</v>
+      </c>
+      <c r="F89" s="158">
+        <v>1</v>
+      </c>
+      <c r="G89" s="67">
+        <v>0</v>
+      </c>
+      <c r="H89" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="5:8">
+      <c r="E90" s="67">
+        <v>0</v>
+      </c>
+      <c r="F90" s="158">
+        <v>1</v>
+      </c>
+      <c r="G90" s="67">
+        <v>0</v>
+      </c>
+      <c r="H90" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="5:8">
+      <c r="E91" s="67">
+        <v>0</v>
+      </c>
+      <c r="F91" s="158">
+        <v>1</v>
+      </c>
+      <c r="G91" s="67">
+        <v>0</v>
+      </c>
+      <c r="H91" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="5:8">
+      <c r="E92" s="67">
+        <v>0</v>
+      </c>
+      <c r="F92" s="158">
+        <v>1</v>
+      </c>
+      <c r="G92" s="67">
+        <v>0</v>
+      </c>
+      <c r="H92" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="5:8">
+      <c r="E93" s="67">
+        <v>0</v>
+      </c>
+      <c r="F93" s="158">
+        <v>1</v>
+      </c>
+      <c r="G93" s="67">
+        <v>0</v>
+      </c>
+      <c r="H93" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="5:8">
+      <c r="E94" s="67">
+        <v>0</v>
+      </c>
+      <c r="F94" s="158">
+        <v>1</v>
+      </c>
+      <c r="G94" s="67">
+        <v>0</v>
+      </c>
+      <c r="H94" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="5:8">
+      <c r="E95" s="67">
+        <v>0</v>
+      </c>
+      <c r="F95" s="158">
+        <v>1</v>
+      </c>
+      <c r="G95" s="67">
+        <v>0</v>
+      </c>
+      <c r="H95" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="5:8">
+      <c r="E96" s="67">
+        <v>0</v>
+      </c>
+      <c r="F96" s="158">
+        <v>1</v>
+      </c>
+      <c r="G96" s="67">
+        <v>0</v>
+      </c>
+      <c r="H96" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="5:8">
+      <c r="E97" s="67">
+        <v>0</v>
+      </c>
+      <c r="F97" s="158">
+        <v>1</v>
+      </c>
+      <c r="G97" s="67">
+        <v>0</v>
+      </c>
+      <c r="H97" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="5:8">
+      <c r="E98" s="67">
+        <v>0</v>
+      </c>
+      <c r="F98" s="158">
+        <v>1</v>
+      </c>
+      <c r="G98" s="67">
+        <v>0</v>
+      </c>
+      <c r="H98" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="5:8">
+      <c r="E99" s="67">
+        <v>0</v>
+      </c>
+      <c r="F99" s="158">
+        <v>1</v>
+      </c>
+      <c r="G99" s="67">
+        <v>0</v>
+      </c>
+      <c r="H99" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="5:8">
+      <c r="E100" s="67">
+        <v>0</v>
+      </c>
+      <c r="F100" s="158">
+        <v>1</v>
+      </c>
+      <c r="G100" s="67">
+        <v>0</v>
+      </c>
+      <c r="H100" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="5:8">
+      <c r="E101" s="67">
+        <v>0</v>
+      </c>
+      <c r="F101" s="158">
+        <v>1</v>
+      </c>
+      <c r="G101" s="67">
+        <v>0</v>
+      </c>
+      <c r="H101" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="5:8">
+      <c r="E102" s="67">
+        <v>0</v>
+      </c>
+      <c r="F102" s="158">
+        <v>1</v>
+      </c>
+      <c r="G102" s="67">
+        <v>0</v>
+      </c>
+      <c r="H102" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="5:8">
+      <c r="E103" s="67">
+        <v>0</v>
+      </c>
+      <c r="F103" s="158">
+        <v>1</v>
+      </c>
+      <c r="G103" s="67">
+        <v>0</v>
+      </c>
+      <c r="H103" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="5:8">
+      <c r="E104" s="67">
+        <v>0</v>
+      </c>
+      <c r="F104" s="158">
+        <v>1</v>
+      </c>
+      <c r="G104" s="67">
+        <v>0</v>
+      </c>
+      <c r="H104" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="5:8">
+      <c r="E105" s="67">
+        <v>0</v>
+      </c>
+      <c r="F105" s="158">
+        <v>1</v>
+      </c>
+      <c r="G105" s="67">
+        <v>0</v>
+      </c>
+      <c r="H105" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="5:8">
+      <c r="E106" s="67">
+        <v>0</v>
+      </c>
+      <c r="F106" s="158">
+        <v>1</v>
+      </c>
+      <c r="G106" s="67">
+        <v>0</v>
+      </c>
+      <c r="H106" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="5:8">
+      <c r="E107" s="67">
+        <v>0</v>
+      </c>
+      <c r="F107" s="158">
+        <v>1</v>
+      </c>
+      <c r="G107" s="67">
+        <v>0</v>
+      </c>
+      <c r="H107" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="5:8">
+      <c r="E108" s="67">
+        <v>0</v>
+      </c>
+      <c r="F108" s="158">
+        <v>1</v>
+      </c>
+      <c r="G108" s="67">
+        <v>0</v>
+      </c>
+      <c r="H108" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="5:8">
+      <c r="E109" s="67">
+        <v>0</v>
+      </c>
+      <c r="F109" s="158">
+        <v>1</v>
+      </c>
+      <c r="G109" s="67">
+        <v>0</v>
+      </c>
+      <c r="H109" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="5:8">
+      <c r="E110" s="67">
+        <v>0</v>
+      </c>
+      <c r="F110" s="158">
+        <v>1</v>
+      </c>
+      <c r="G110" s="67">
+        <v>0</v>
+      </c>
+      <c r="H110" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="5:8">
+      <c r="E111" s="67">
+        <v>0</v>
+      </c>
+      <c r="F111" s="158">
+        <v>1</v>
+      </c>
+      <c r="G111" s="67">
+        <v>0</v>
+      </c>
+      <c r="H111" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="5:8">
+      <c r="E112" s="67">
+        <v>0</v>
+      </c>
+      <c r="F112" s="158">
+        <v>1</v>
+      </c>
+      <c r="G112" s="67">
+        <v>0</v>
+      </c>
+      <c r="H112" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="5:8">
+      <c r="E113" s="67">
+        <v>0</v>
+      </c>
+      <c r="F113" s="158">
+        <v>1</v>
+      </c>
+      <c r="G113" s="67">
+        <v>0</v>
+      </c>
+      <c r="H113" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="5:8">
+      <c r="E114" s="67">
+        <v>0</v>
+      </c>
+      <c r="F114" s="158">
+        <v>1</v>
+      </c>
+      <c r="G114" s="67">
+        <v>0</v>
+      </c>
+      <c r="H114" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="5:8">
+      <c r="E115" s="67">
+        <v>0</v>
+      </c>
+      <c r="F115" s="158">
+        <v>1</v>
+      </c>
+      <c r="G115" s="67">
+        <v>0</v>
+      </c>
+      <c r="H115" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="5:8">
+      <c r="E116" s="67">
+        <v>0</v>
+      </c>
+      <c r="F116" s="158">
+        <v>1</v>
+      </c>
+      <c r="G116" s="67">
+        <v>0</v>
+      </c>
+      <c r="H116" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="5:8">
+      <c r="E117" s="67">
+        <v>0</v>
+      </c>
+      <c r="F117" s="158">
+        <v>1</v>
+      </c>
+      <c r="G117" s="67">
+        <v>0</v>
+      </c>
+      <c r="H117" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="5:8">
+      <c r="E118" s="67">
+        <v>0</v>
+      </c>
+      <c r="F118" s="158">
+        <v>1</v>
+      </c>
+      <c r="G118" s="67">
+        <v>0</v>
+      </c>
+      <c r="H118" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="5:8">
+      <c r="E119" s="67">
+        <v>0</v>
+      </c>
+      <c r="F119" s="158">
+        <v>1</v>
+      </c>
+      <c r="G119" s="67">
+        <v>0</v>
+      </c>
+      <c r="H119" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="5:8">
+      <c r="E120" s="67">
+        <v>0</v>
+      </c>
+      <c r="F120" s="158">
+        <v>1</v>
+      </c>
+      <c r="G120" s="67">
+        <v>0</v>
+      </c>
+      <c r="H120" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="5:8">
+      <c r="E121" s="67">
+        <v>0</v>
+      </c>
+      <c r="F121" s="158">
+        <v>1</v>
+      </c>
+      <c r="G121" s="67">
+        <v>0</v>
+      </c>
+      <c r="H121" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="5:8">
+      <c r="E122" s="67">
+        <v>0</v>
+      </c>
+      <c r="F122" s="158">
+        <v>1</v>
+      </c>
+      <c r="G122" s="67">
+        <v>0</v>
+      </c>
+      <c r="H122" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="5:8">
+      <c r="E123" s="67">
+        <v>0</v>
+      </c>
+      <c r="F123" s="158">
+        <v>1</v>
+      </c>
+      <c r="G123" s="67">
+        <v>0</v>
+      </c>
+      <c r="H123" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="5:8">
+      <c r="E124" s="67">
+        <v>0</v>
+      </c>
+      <c r="F124" s="158">
+        <v>1</v>
+      </c>
+      <c r="G124" s="67">
+        <v>0</v>
+      </c>
+      <c r="H124" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="5:8">
+      <c r="E125" s="67">
+        <v>0</v>
+      </c>
+      <c r="F125" s="158">
+        <v>1</v>
+      </c>
+      <c r="G125" s="67">
+        <v>0</v>
+      </c>
+      <c r="H125" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="5:8">
+      <c r="E126" s="67">
+        <v>0</v>
+      </c>
+      <c r="F126" s="158">
+        <v>1</v>
+      </c>
+      <c r="G126" s="67">
+        <v>0</v>
+      </c>
+      <c r="H126" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="5:8">
+      <c r="E127" s="67">
+        <v>0</v>
+      </c>
+      <c r="F127" s="158">
+        <v>1</v>
+      </c>
+      <c r="G127" s="67">
+        <v>0</v>
+      </c>
+      <c r="H127" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="5:8">
+      <c r="E128" s="67">
+        <v>0</v>
+      </c>
+      <c r="F128" s="158">
+        <v>1</v>
+      </c>
+      <c r="G128" s="67">
+        <v>0</v>
+      </c>
+      <c r="H128" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="5:8">
+      <c r="E129" s="67">
+        <v>0</v>
+      </c>
+      <c r="F129" s="158">
+        <v>1</v>
+      </c>
+      <c r="G129" s="67">
+        <v>0</v>
+      </c>
+      <c r="H129" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="5:8">
+      <c r="E130" s="67">
+        <v>0</v>
+      </c>
+      <c r="F130" s="158">
+        <v>1</v>
+      </c>
+      <c r="G130" s="67">
+        <v>0</v>
+      </c>
+      <c r="H130" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="5:8">
+      <c r="E131" s="67">
+        <v>0</v>
+      </c>
+      <c r="F131" s="158">
+        <v>1</v>
+      </c>
+      <c r="G131" s="67">
+        <v>0</v>
+      </c>
+      <c r="H131" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="5:8">
+      <c r="E132" s="67">
+        <v>0</v>
+      </c>
+      <c r="F132" s="158">
+        <v>1</v>
+      </c>
+      <c r="G132" s="67">
+        <v>0</v>
+      </c>
+      <c r="H132" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="5:8">
+      <c r="E133" s="67">
+        <v>0</v>
+      </c>
+      <c r="F133" s="158">
+        <v>1</v>
+      </c>
+      <c r="G133" s="67">
+        <v>0</v>
+      </c>
+      <c r="H133" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="5:8">
+      <c r="E134" s="67">
+        <v>0</v>
+      </c>
+      <c r="F134" s="158">
+        <v>1</v>
+      </c>
+      <c r="G134" s="67">
+        <v>0</v>
+      </c>
+      <c r="H134" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="5:8">
+      <c r="E135" s="67">
+        <v>0</v>
+      </c>
+      <c r="F135" s="158">
+        <v>1</v>
+      </c>
+      <c r="G135" s="67">
+        <v>0</v>
+      </c>
+      <c r="H135" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="5:8">
+      <c r="E136" s="67">
+        <v>0</v>
+      </c>
+      <c r="F136" s="158">
+        <v>1</v>
+      </c>
+      <c r="G136" s="67">
+        <v>0</v>
+      </c>
+      <c r="H136" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="5:8">
+      <c r="E137" s="67">
+        <v>0</v>
+      </c>
+      <c r="F137" s="158">
+        <v>1</v>
+      </c>
+      <c r="G137" s="67">
+        <v>0</v>
+      </c>
+      <c r="H137" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="5:8">
+      <c r="E138" s="67">
+        <v>0</v>
+      </c>
+      <c r="F138" s="158">
+        <v>1</v>
+      </c>
+      <c r="G138" s="67">
+        <v>0</v>
+      </c>
+      <c r="H138" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="5:8">
+      <c r="E139" s="67">
+        <v>0</v>
+      </c>
+      <c r="F139" s="158">
+        <v>1</v>
+      </c>
+      <c r="G139" s="67">
+        <v>0</v>
+      </c>
+      <c r="H139" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="5:8">
+      <c r="E140" s="67">
+        <v>0</v>
+      </c>
+      <c r="F140" s="158">
+        <v>1</v>
+      </c>
+      <c r="G140" s="67">
+        <v>0</v>
+      </c>
+      <c r="H140" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="5:8">
+      <c r="E141" s="67">
+        <v>0</v>
+      </c>
+      <c r="F141" s="158">
+        <v>1</v>
+      </c>
+      <c r="G141" s="67">
+        <v>0</v>
+      </c>
+      <c r="H141" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="5:8">
+      <c r="E142" s="67">
+        <v>0</v>
+      </c>
+      <c r="F142" s="158">
+        <v>1</v>
+      </c>
+      <c r="G142" s="67">
+        <v>0</v>
+      </c>
+      <c r="H142" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="5:8">
+      <c r="E143" s="67">
+        <v>0</v>
+      </c>
+      <c r="F143" s="158">
+        <v>1</v>
+      </c>
+      <c r="G143" s="67">
+        <v>0</v>
+      </c>
+      <c r="H143" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="5:8">
+      <c r="E144" s="67">
+        <v>0</v>
+      </c>
+      <c r="F144" s="158">
+        <v>1</v>
+      </c>
+      <c r="G144" s="67">
+        <v>0</v>
+      </c>
+      <c r="H144" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="5:8">
+      <c r="E145" s="67">
+        <v>0</v>
+      </c>
+      <c r="F145" s="158">
+        <v>1</v>
+      </c>
+      <c r="G145" s="67">
+        <v>0</v>
+      </c>
+      <c r="H145" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="5:8">
+      <c r="E146" s="67">
+        <v>0</v>
+      </c>
+      <c r="F146" s="158">
+        <v>1</v>
+      </c>
+      <c r="G146" s="67">
+        <v>0</v>
+      </c>
+      <c r="H146" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="5:8">
+      <c r="E147" s="67">
+        <v>0</v>
+      </c>
+      <c r="F147" s="158">
+        <v>1</v>
+      </c>
+      <c r="G147" s="67">
+        <v>0</v>
+      </c>
+      <c r="H147" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="5:8">
+      <c r="E148" s="67">
+        <v>0</v>
+      </c>
+      <c r="F148" s="158">
+        <v>1</v>
+      </c>
+      <c r="G148" s="67">
+        <v>0</v>
+      </c>
+      <c r="H148" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="5:8">
+      <c r="E149" s="67">
+        <v>0</v>
+      </c>
+      <c r="F149" s="158">
+        <v>1</v>
+      </c>
+      <c r="G149" s="67">
+        <v>0</v>
+      </c>
+      <c r="H149" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="5:8">
+      <c r="E150" s="67">
+        <v>0</v>
+      </c>
+      <c r="F150" s="158">
+        <v>1</v>
+      </c>
+      <c r="G150" s="67">
+        <v>0</v>
+      </c>
+      <c r="H150" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="5:8">
+      <c r="E151" s="67">
+        <v>0</v>
+      </c>
+      <c r="F151" s="158">
+        <v>1</v>
+      </c>
+      <c r="G151" s="67">
+        <v>0</v>
+      </c>
+      <c r="H151" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="5:8">
+      <c r="E152" s="67">
+        <v>0</v>
+      </c>
+      <c r="F152" s="158">
+        <v>1</v>
+      </c>
+      <c r="G152" s="67">
+        <v>0</v>
+      </c>
+      <c r="H152" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="5:8">
+      <c r="E153" s="67">
+        <v>0</v>
+      </c>
+      <c r="F153" s="158">
+        <v>1</v>
+      </c>
+      <c r="G153" s="67">
+        <v>0</v>
+      </c>
+      <c r="H153" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="5:8">
+      <c r="E154" s="67">
+        <v>0</v>
+      </c>
+      <c r="F154" s="158">
+        <v>1</v>
+      </c>
+      <c r="G154" s="67">
+        <v>0</v>
+      </c>
+      <c r="H154" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="5:8">
+      <c r="E155" s="67">
+        <v>0</v>
+      </c>
+      <c r="F155" s="158">
+        <v>1</v>
+      </c>
+      <c r="G155" s="67">
+        <v>0</v>
+      </c>
+      <c r="H155" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="5:8">
+      <c r="E156" s="67">
+        <v>0</v>
+      </c>
+      <c r="F156" s="158">
+        <v>1</v>
+      </c>
+      <c r="G156" s="67">
+        <v>0</v>
+      </c>
+      <c r="H156" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="5:8">
+      <c r="E157" s="67">
+        <v>0</v>
+      </c>
+      <c r="F157" s="158">
+        <v>1</v>
+      </c>
+      <c r="G157" s="67">
+        <v>0</v>
+      </c>
+      <c r="H157" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="5:8">
+      <c r="E158" s="67">
+        <v>0</v>
+      </c>
+      <c r="F158" s="158">
+        <v>1</v>
+      </c>
+      <c r="G158" s="67">
+        <v>0</v>
+      </c>
+      <c r="H158" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="5:8">
+      <c r="E159" s="67">
+        <v>0</v>
+      </c>
+      <c r="F159" s="158">
+        <v>1</v>
+      </c>
+      <c r="G159" s="67">
+        <v>0</v>
+      </c>
+      <c r="H159" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="5:8">
+      <c r="E160" s="67">
+        <v>0</v>
+      </c>
+      <c r="F160" s="158">
+        <v>1</v>
+      </c>
+      <c r="G160" s="67">
+        <v>0</v>
+      </c>
+      <c r="H160" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="5:8">
+      <c r="E161" s="67">
+        <v>0</v>
+      </c>
+      <c r="F161" s="158">
+        <v>1</v>
+      </c>
+      <c r="G161" s="67">
+        <v>0</v>
+      </c>
+      <c r="H161" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="5:8">
+      <c r="E162" s="67">
+        <v>0</v>
+      </c>
+      <c r="F162" s="158">
+        <v>1</v>
+      </c>
+      <c r="G162" s="67">
+        <v>0</v>
+      </c>
+      <c r="H162" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="5:8">
+      <c r="E163" s="67">
+        <v>0</v>
+      </c>
+      <c r="F163" s="158">
+        <v>1</v>
+      </c>
+      <c r="G163" s="67">
+        <v>0</v>
+      </c>
+      <c r="H163" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="5:8">
+      <c r="E164" s="67">
+        <v>0</v>
+      </c>
+      <c r="F164" s="158">
+        <v>1</v>
+      </c>
+      <c r="G164" s="67">
+        <v>0</v>
+      </c>
+      <c r="H164" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="5:8">
+      <c r="E165" s="67">
+        <v>0</v>
+      </c>
+      <c r="F165" s="158">
+        <v>1</v>
+      </c>
+      <c r="G165" s="67">
+        <v>0</v>
+      </c>
+      <c r="H165" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="5:8">
+      <c r="E166" s="67">
+        <v>0</v>
+      </c>
+      <c r="F166" s="158">
+        <v>1</v>
+      </c>
+      <c r="G166" s="67">
+        <v>0</v>
+      </c>
+      <c r="H166" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="5:8">
+      <c r="E167" s="67">
+        <v>0</v>
+      </c>
+      <c r="F167" s="158">
+        <v>1</v>
+      </c>
+      <c r="G167" s="67">
+        <v>0</v>
+      </c>
+      <c r="H167" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="5:8">
+      <c r="E168" s="67">
+        <v>0</v>
+      </c>
+      <c r="F168" s="158">
+        <v>1</v>
+      </c>
+      <c r="G168" s="67">
+        <v>0</v>
+      </c>
+      <c r="H168" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="5:8">
+      <c r="E169" s="67">
+        <v>0</v>
+      </c>
+      <c r="F169" s="158">
+        <v>1</v>
+      </c>
+      <c r="G169" s="67">
+        <v>0</v>
+      </c>
+      <c r="H169" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="5:8">
+      <c r="E170" s="67">
+        <v>0</v>
+      </c>
+      <c r="F170" s="158">
+        <v>1</v>
+      </c>
+      <c r="G170" s="67">
+        <v>0</v>
+      </c>
+      <c r="H170" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="5:8">
+      <c r="E171" s="67">
+        <v>0</v>
+      </c>
+      <c r="F171" s="158">
+        <v>1</v>
+      </c>
+      <c r="G171" s="67">
+        <v>0</v>
+      </c>
+      <c r="H171" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="5:8">
+      <c r="E172" s="67">
+        <v>0</v>
+      </c>
+      <c r="F172" s="158">
+        <v>1</v>
+      </c>
+      <c r="G172" s="67">
+        <v>0</v>
+      </c>
+      <c r="H172" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="5:8">
+      <c r="E173" s="67">
+        <v>0</v>
+      </c>
+      <c r="F173" s="158">
+        <v>1</v>
+      </c>
+      <c r="G173" s="67">
+        <v>0</v>
+      </c>
+      <c r="H173" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="5:8">
+      <c r="E174" s="67">
+        <v>0</v>
+      </c>
+      <c r="F174" s="158">
+        <v>1</v>
+      </c>
+      <c r="G174" s="67">
+        <v>0</v>
+      </c>
+      <c r="H174" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="5:8">
+      <c r="E175" s="67">
+        <v>0</v>
+      </c>
+      <c r="F175" s="158">
+        <v>1</v>
+      </c>
+      <c r="G175" s="67">
+        <v>0</v>
+      </c>
+      <c r="H175" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="5:8">
+      <c r="E176" s="67">
+        <v>0</v>
+      </c>
+      <c r="F176" s="158">
+        <v>1</v>
+      </c>
+      <c r="G176" s="67">
+        <v>0</v>
+      </c>
+      <c r="H176" s="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="5:8">
+      <c r="E177" s="67">
+        <v>0</v>
+      </c>
+      <c r="F177" s="158">
+        <v>1</v>
+      </c>
+      <c r="G177" s="67">
+        <v>0</v>
+      </c>
+      <c r="H177" s="158">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:A6"/>
+    <mergeCell ref="B1:B6"/>
+    <mergeCell ref="C1:C6"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="H2:H6"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G7:G177">
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>E7=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>F7=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>F7=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="9">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the load case number_x000a__x000a_Try to stick to a consistent naming convention and leave 100 possibilities for each load type. For example: _x000a_200-299 are live loads,_x000a_300-399 could be padeye loads,_x000a_400-499 could be HOP loads etc._x000a_ " sqref="A1:A6" xr:uid="{F63CAAC8-EF9F-4B23-909A-EDE967780929}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the load case_x000a__x000a_Please keep naming of similar loads as consistent as possible" sqref="B1:B6" xr:uid="{88B5F561-A1C5-4B28-9BC1-942C22895B6C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Filled in automatically" sqref="C1:C6" xr:uid="{9CC036D9-EFD9-4DBA-BED5-8D69CE2106B8}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C22" xr:uid="{857A34BD-5752-4DA7-AFC5-4AF36D5C8A98}">
+      <formula1>$K$2:$K$8</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G6 G178:G1048576 E1:E1048576" xr:uid="{6BB32C6D-38AF-477E-8DD5-2B52CA420BFD}">
+      <formula1>"1,0"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F177" xr:uid="{C15A9A43-972B-4515-A40D-D626AE221B53}">
+      <formula1>IF(E8=1,$L$12:$L$13,$L$10:$L$12)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G177" xr:uid="{84D65063-2C2A-4229-BF3E-D9EC8FAC4F36}">
+      <formula1>IF(E7=1,$L$15:$L$16,$L$16)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7" xr:uid="{3BBFD36F-951D-4ED6-9E0A-522D6E080DDF}">
+      <formula1>IF(E7=1,$L$11:$L$13,$L$10:$L$12)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H177" xr:uid="{BD675402-7D85-42BA-B16A-53D87BA07C47}">
+      <formula1>IF(E7=1,$L$15:$L$16,$L$16)</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{602E5390-AAE4-4001-BACC-7A736AFD927C}">
   <sheetPr codeName="Loadcases">
     <tabColor rgb="FFFFE699"/>
   </sheetPr>
   <dimension ref="A1:AJ177"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="W1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AE13" sqref="AE13"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomLeft" activeCell="AF10" sqref="AF10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -3106,11 +5849,10 @@
     <col min="30" max="30" width="12" style="19" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="28.28515625" style="19" customWidth="1"/>
     <col min="32" max="32" width="8.7109375" style="19"/>
-    <col min="33" max="36" width="13.140625" style="19" customWidth="1"/>
     <col min="37" max="16384" width="8.7109375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="23.1" customHeight="1">
+    <row r="1" spans="1:31" ht="23.1" customHeight="1">
       <c r="A1" s="85" t="s">
         <v>111</v>
       </c>
@@ -3139,52 +5881,46 @@
       <c r="X1" s="17"/>
       <c r="Y1" s="17"/>
       <c r="Z1" s="17"/>
-      <c r="AB1" s="156" t="s">
+      <c r="AB1" s="168" t="s">
         <v>99</v>
       </c>
-      <c r="AC1" s="156"/>
-      <c r="AD1" s="156"/>
-      <c r="AE1" s="156"/>
-      <c r="AG1" s="169" t="s">
-        <v>144</v>
-      </c>
-      <c r="AH1" s="170"/>
-      <c r="AI1" s="170"/>
-      <c r="AJ1" s="171"/>
-    </row>
-    <row r="2" spans="1:36" ht="12.4" customHeight="1">
-      <c r="A2" s="172" t="s">
+      <c r="AC1" s="168"/>
+      <c r="AD1" s="168"/>
+      <c r="AE1" s="168"/>
+    </row>
+    <row r="2" spans="1:31" ht="12.4" customHeight="1">
+      <c r="A2" s="159" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="173" t="s">
+      <c r="B2" s="161" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="173" t="s">
+      <c r="C2" s="161" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="175"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="174" t="s">
+      <c r="D2" s="178"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="180" t="s">
+      <c r="H2" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="183" t="s">
+      <c r="I2" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="166" t="s">
+      <c r="J2" s="175" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="167"/>
-      <c r="O2" s="167"/>
-      <c r="P2" s="167"/>
-      <c r="Q2" s="167"/>
-      <c r="R2" s="167"/>
+      <c r="K2" s="176"/>
+      <c r="L2" s="176"/>
+      <c r="M2" s="176"/>
+      <c r="N2" s="176"/>
+      <c r="O2" s="176"/>
+      <c r="P2" s="176"/>
+      <c r="Q2" s="176"/>
+      <c r="R2" s="176"/>
       <c r="S2" s="98"/>
       <c r="T2" s="98"/>
       <c r="U2" s="98"/>
@@ -3192,233 +5928,201 @@
       <c r="W2" s="98"/>
       <c r="X2" s="99"/>
       <c r="Y2" s="17"/>
-      <c r="Z2" s="172" t="s">
+      <c r="Z2" s="159" t="s">
         <v>51</v>
       </c>
-      <c r="AB2" s="173" t="s">
+      <c r="AB2" s="161" t="s">
         <v>56</v>
       </c>
-      <c r="AC2" s="173" t="s">
+      <c r="AC2" s="161" t="s">
         <v>52</v>
       </c>
-      <c r="AD2" s="173" t="s">
+      <c r="AD2" s="161" t="s">
         <v>53</v>
       </c>
-      <c r="AE2" s="173" t="s">
+      <c r="AE2" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="AG2" s="172" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH2" s="172" t="s">
-        <v>143</v>
-      </c>
-      <c r="AI2" s="172" t="s">
-        <v>134</v>
-      </c>
-      <c r="AJ2" s="172" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" ht="12.6" customHeight="1">
-      <c r="A3" s="172"/>
-      <c r="B3" s="173"/>
-      <c r="C3" s="173"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="177"/>
-      <c r="G3" s="178"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="183"/>
-      <c r="J3" s="184" t="s">
+    </row>
+    <row r="3" spans="1:31" ht="12.6" customHeight="1">
+      <c r="A3" s="159"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="179"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="181"/>
+      <c r="H3" s="184"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="187" t="s">
         <v>100</v>
       </c>
-      <c r="K3" s="185"/>
-      <c r="L3" s="186"/>
-      <c r="M3" s="193" t="s">
+      <c r="K3" s="188"/>
+      <c r="L3" s="189"/>
+      <c r="M3" s="196" t="s">
         <v>114</v>
       </c>
-      <c r="N3" s="194"/>
-      <c r="O3" s="195"/>
-      <c r="P3" s="180" t="s">
+      <c r="N3" s="197"/>
+      <c r="O3" s="198"/>
+      <c r="P3" s="183" t="s">
         <v>95</v>
       </c>
-      <c r="Q3" s="202"/>
-      <c r="R3" s="203"/>
-      <c r="S3" s="180" t="s">
+      <c r="Q3" s="205"/>
+      <c r="R3" s="206"/>
+      <c r="S3" s="183" t="s">
         <v>96</v>
       </c>
-      <c r="T3" s="202"/>
-      <c r="U3" s="203"/>
-      <c r="V3" s="157" t="s">
+      <c r="T3" s="205"/>
+      <c r="U3" s="206"/>
+      <c r="V3" s="160" t="s">
         <v>97</v>
       </c>
-      <c r="W3" s="160" t="s">
+      <c r="W3" s="169" t="s">
         <v>98</v>
       </c>
-      <c r="X3" s="161"/>
+      <c r="X3" s="170"/>
       <c r="Y3" s="17"/>
-      <c r="Z3" s="172"/>
-      <c r="AB3" s="173"/>
-      <c r="AC3" s="173"/>
-      <c r="AD3" s="173"/>
-      <c r="AE3" s="173"/>
-      <c r="AG3" s="172"/>
-      <c r="AH3" s="172"/>
-      <c r="AI3" s="172"/>
-      <c r="AJ3" s="172"/>
-    </row>
-    <row r="4" spans="1:36" ht="12.6" customHeight="1">
-      <c r="A4" s="172"/>
-      <c r="B4" s="173"/>
-      <c r="C4" s="173"/>
-      <c r="D4" s="175"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="178"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="183"/>
-      <c r="J4" s="187"/>
-      <c r="K4" s="188"/>
-      <c r="L4" s="189"/>
-      <c r="M4" s="196"/>
-      <c r="N4" s="197"/>
-      <c r="O4" s="198"/>
-      <c r="P4" s="181"/>
-      <c r="Q4" s="204"/>
-      <c r="R4" s="205"/>
-      <c r="S4" s="181"/>
-      <c r="T4" s="204"/>
-      <c r="U4" s="205"/>
-      <c r="V4" s="158"/>
-      <c r="W4" s="162"/>
-      <c r="X4" s="163"/>
+      <c r="Z3" s="159"/>
+      <c r="AB3" s="161"/>
+      <c r="AC3" s="161"/>
+      <c r="AD3" s="161"/>
+      <c r="AE3" s="161"/>
+    </row>
+    <row r="4" spans="1:31" ht="12.6" customHeight="1">
+      <c r="A4" s="159"/>
+      <c r="B4" s="161"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="180"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="184"/>
+      <c r="I4" s="186"/>
+      <c r="J4" s="190"/>
+      <c r="K4" s="191"/>
+      <c r="L4" s="192"/>
+      <c r="M4" s="199"/>
+      <c r="N4" s="200"/>
+      <c r="O4" s="201"/>
+      <c r="P4" s="184"/>
+      <c r="Q4" s="207"/>
+      <c r="R4" s="208"/>
+      <c r="S4" s="184"/>
+      <c r="T4" s="207"/>
+      <c r="U4" s="208"/>
+      <c r="V4" s="166"/>
+      <c r="W4" s="171"/>
+      <c r="X4" s="172"/>
       <c r="Y4" s="17"/>
-      <c r="Z4" s="172"/>
-      <c r="AB4" s="173"/>
-      <c r="AC4" s="173"/>
-      <c r="AD4" s="173"/>
-      <c r="AE4" s="173"/>
-      <c r="AG4" s="172"/>
-      <c r="AH4" s="172"/>
-      <c r="AI4" s="172"/>
-      <c r="AJ4" s="172"/>
-    </row>
-    <row r="5" spans="1:36" ht="25.15" customHeight="1">
-      <c r="A5" s="172"/>
-      <c r="B5" s="173"/>
-      <c r="C5" s="173"/>
-      <c r="D5" s="175"/>
-      <c r="E5" s="176"/>
-      <c r="F5" s="177"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="181"/>
-      <c r="I5" s="183"/>
-      <c r="J5" s="187"/>
-      <c r="K5" s="188"/>
-      <c r="L5" s="189"/>
-      <c r="M5" s="196"/>
-      <c r="N5" s="197"/>
-      <c r="O5" s="198"/>
-      <c r="P5" s="181"/>
-      <c r="Q5" s="204"/>
-      <c r="R5" s="205"/>
-      <c r="S5" s="181"/>
-      <c r="T5" s="204"/>
-      <c r="U5" s="205"/>
-      <c r="V5" s="158"/>
-      <c r="W5" s="162"/>
-      <c r="X5" s="163"/>
+      <c r="Z4" s="159"/>
+      <c r="AB4" s="161"/>
+      <c r="AC4" s="161"/>
+      <c r="AD4" s="161"/>
+      <c r="AE4" s="161"/>
+    </row>
+    <row r="5" spans="1:31" ht="25.15" customHeight="1">
+      <c r="A5" s="159"/>
+      <c r="B5" s="161"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="179"/>
+      <c r="F5" s="180"/>
+      <c r="G5" s="181"/>
+      <c r="H5" s="184"/>
+      <c r="I5" s="186"/>
+      <c r="J5" s="190"/>
+      <c r="K5" s="191"/>
+      <c r="L5" s="192"/>
+      <c r="M5" s="199"/>
+      <c r="N5" s="200"/>
+      <c r="O5" s="201"/>
+      <c r="P5" s="184"/>
+      <c r="Q5" s="207"/>
+      <c r="R5" s="208"/>
+      <c r="S5" s="184"/>
+      <c r="T5" s="207"/>
+      <c r="U5" s="208"/>
+      <c r="V5" s="166"/>
+      <c r="W5" s="171"/>
+      <c r="X5" s="172"/>
       <c r="Y5" s="17"/>
-      <c r="Z5" s="172"/>
-      <c r="AB5" s="173"/>
-      <c r="AC5" s="173"/>
-      <c r="AD5" s="173"/>
-      <c r="AE5" s="173"/>
-      <c r="AG5" s="172"/>
-      <c r="AH5" s="172"/>
-      <c r="AI5" s="172"/>
-      <c r="AJ5" s="172"/>
-    </row>
-    <row r="6" spans="1:36" ht="12.6" customHeight="1">
-      <c r="A6" s="172"/>
-      <c r="B6" s="173"/>
-      <c r="C6" s="173"/>
-      <c r="D6" s="175"/>
-      <c r="E6" s="176"/>
-      <c r="F6" s="177"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="181"/>
-      <c r="I6" s="183"/>
-      <c r="J6" s="190"/>
-      <c r="K6" s="191"/>
-      <c r="L6" s="192"/>
-      <c r="M6" s="199"/>
-      <c r="N6" s="200"/>
-      <c r="O6" s="201"/>
-      <c r="P6" s="181"/>
-      <c r="Q6" s="204"/>
-      <c r="R6" s="205"/>
-      <c r="S6" s="182"/>
-      <c r="T6" s="206"/>
-      <c r="U6" s="207"/>
-      <c r="V6" s="158"/>
-      <c r="W6" s="162"/>
-      <c r="X6" s="163"/>
+      <c r="Z5" s="159"/>
+      <c r="AB5" s="161"/>
+      <c r="AC5" s="161"/>
+      <c r="AD5" s="161"/>
+      <c r="AE5" s="161"/>
+    </row>
+    <row r="6" spans="1:31" ht="12.6" customHeight="1">
+      <c r="A6" s="159"/>
+      <c r="B6" s="161"/>
+      <c r="C6" s="161"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="179"/>
+      <c r="F6" s="180"/>
+      <c r="G6" s="181"/>
+      <c r="H6" s="184"/>
+      <c r="I6" s="186"/>
+      <c r="J6" s="193"/>
+      <c r="K6" s="194"/>
+      <c r="L6" s="195"/>
+      <c r="M6" s="202"/>
+      <c r="N6" s="203"/>
+      <c r="O6" s="204"/>
+      <c r="P6" s="184"/>
+      <c r="Q6" s="207"/>
+      <c r="R6" s="208"/>
+      <c r="S6" s="185"/>
+      <c r="T6" s="209"/>
+      <c r="U6" s="210"/>
+      <c r="V6" s="166"/>
+      <c r="W6" s="171"/>
+      <c r="X6" s="172"/>
       <c r="Y6" s="17"/>
-      <c r="Z6" s="172"/>
-      <c r="AB6" s="173"/>
-      <c r="AC6" s="173"/>
-      <c r="AD6" s="173"/>
-      <c r="AE6" s="173"/>
-      <c r="AG6" s="172"/>
-      <c r="AH6" s="172"/>
-      <c r="AI6" s="172"/>
-      <c r="AJ6" s="172"/>
-    </row>
-    <row r="7" spans="1:36">
-      <c r="A7" s="157"/>
-      <c r="B7" s="174"/>
-      <c r="C7" s="174"/>
-      <c r="D7" s="175"/>
-      <c r="E7" s="176"/>
-      <c r="F7" s="177"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="182"/>
-      <c r="I7" s="183"/>
-      <c r="J7" s="166" t="s">
+      <c r="Z6" s="159"/>
+      <c r="AB6" s="161"/>
+      <c r="AC6" s="161"/>
+      <c r="AD6" s="161"/>
+      <c r="AE6" s="161"/>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="A7" s="160"/>
+      <c r="B7" s="162"/>
+      <c r="C7" s="162"/>
+      <c r="D7" s="178"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="180"/>
+      <c r="G7" s="182"/>
+      <c r="H7" s="185"/>
+      <c r="I7" s="186"/>
+      <c r="J7" s="175" t="s">
         <v>112</v>
       </c>
-      <c r="K7" s="167"/>
-      <c r="L7" s="168"/>
-      <c r="M7" s="166" t="s">
+      <c r="K7" s="176"/>
+      <c r="L7" s="177"/>
+      <c r="M7" s="175" t="s">
         <v>101</v>
       </c>
-      <c r="N7" s="167"/>
-      <c r="O7" s="168"/>
-      <c r="P7" s="182"/>
-      <c r="Q7" s="206"/>
-      <c r="R7" s="207"/>
-      <c r="S7" s="166" t="s">
+      <c r="N7" s="176"/>
+      <c r="O7" s="177"/>
+      <c r="P7" s="185"/>
+      <c r="Q7" s="209"/>
+      <c r="R7" s="210"/>
+      <c r="S7" s="175" t="s">
         <v>113</v>
       </c>
-      <c r="T7" s="167"/>
-      <c r="U7" s="168"/>
-      <c r="V7" s="159"/>
-      <c r="W7" s="164"/>
-      <c r="X7" s="165"/>
+      <c r="T7" s="176"/>
+      <c r="U7" s="177"/>
+      <c r="V7" s="167"/>
+      <c r="W7" s="173"/>
+      <c r="X7" s="174"/>
       <c r="Y7" s="17"/>
-      <c r="Z7" s="172"/>
-      <c r="AB7" s="173"/>
-      <c r="AC7" s="173"/>
-      <c r="AD7" s="173"/>
-      <c r="AE7" s="173"/>
-      <c r="AG7" s="172"/>
-      <c r="AH7" s="172"/>
-      <c r="AI7" s="172"/>
-      <c r="AJ7" s="172"/>
-    </row>
-    <row r="8" spans="1:36">
+      <c r="Z7" s="159"/>
+      <c r="AB7" s="161"/>
+      <c r="AC7" s="161"/>
+      <c r="AD7" s="161"/>
+      <c r="AE7" s="161"/>
+    </row>
+    <row r="8" spans="1:31">
       <c r="A8" s="100">
         <v>1</v>
       </c>
@@ -3435,7 +6139,7 @@
       </c>
       <c r="F8" s="17"/>
       <c r="G8" s="20" t="str">
-        <f t="shared" ref="G8:G9" si="1">IF(ISBLANK(B8),"",TEXT(A8,0)&amp;":"&amp;B8)</f>
+        <f>IF(ISBLANK(B8),"",TEXT(A8,0)&amp;":"&amp;B8)</f>
         <v>1:Self-weight</v>
       </c>
       <c r="H8" s="117" t="s">
@@ -3465,12 +6169,8 @@
       <c r="AE8" s="106" t="s">
         <v>149</v>
       </c>
-      <c r="AG8" s="67"/>
-      <c r="AH8" s="67"/>
-      <c r="AI8" s="67"/>
-      <c r="AJ8" s="67"/>
-    </row>
-    <row r="9" spans="1:36">
+    </row>
+    <row r="9" spans="1:31">
       <c r="A9" s="68">
         <v>100</v>
       </c>
@@ -3487,7 +6187,7 @@
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(B9),"",TEXT(A9,0)&amp;":"&amp;B9)</f>
         <v>100:Grating self-weight</v>
       </c>
       <c r="H9" s="68" t="s">
@@ -3535,12 +6235,8 @@
       <c r="AE9" s="108" t="s">
         <v>149</v>
       </c>
-      <c r="AG9" s="67"/>
-      <c r="AH9" s="67"/>
-      <c r="AI9" s="67"/>
-      <c r="AJ9" s="67"/>
-    </row>
-    <row r="10" spans="1:36">
+    </row>
+    <row r="10" spans="1:31">
       <c r="A10" s="68"/>
       <c r="B10" s="69"/>
       <c r="C10" s="21" t="str">
@@ -3578,12 +6274,8 @@
       <c r="AE10" s="108" t="s">
         <v>149</v>
       </c>
-      <c r="AG10" s="67"/>
-      <c r="AH10" s="67"/>
-      <c r="AI10" s="67"/>
-      <c r="AJ10" s="67"/>
-    </row>
-    <row r="11" spans="1:36">
+    </row>
+    <row r="11" spans="1:31">
       <c r="A11" s="68"/>
       <c r="B11" s="69"/>
       <c r="C11" s="21" t="str">
@@ -3621,12 +6313,8 @@
       <c r="AE11" s="108" t="s">
         <v>149</v>
       </c>
-      <c r="AG11" s="67"/>
-      <c r="AH11" s="67"/>
-      <c r="AI11" s="67"/>
-      <c r="AJ11" s="67"/>
-    </row>
-    <row r="12" spans="1:36">
+    </row>
+    <row r="12" spans="1:31">
       <c r="A12" s="68"/>
       <c r="B12" s="69"/>
       <c r="C12" s="21" t="str">
@@ -3662,12 +6350,8 @@
       <c r="AC12" s="108"/>
       <c r="AD12" s="108"/>
       <c r="AE12" s="108"/>
-      <c r="AG12" s="67"/>
-      <c r="AH12" s="67"/>
-      <c r="AI12" s="67"/>
-      <c r="AJ12" s="67"/>
-    </row>
-    <row r="13" spans="1:36">
+    </row>
+    <row r="13" spans="1:31">
       <c r="A13" s="68"/>
       <c r="B13" s="69"/>
       <c r="C13" s="21" t="str">
@@ -3703,12 +6387,8 @@
       <c r="AC13" s="108"/>
       <c r="AD13" s="108"/>
       <c r="AE13" s="108"/>
-      <c r="AG13" s="67"/>
-      <c r="AH13" s="67"/>
-      <c r="AI13" s="67"/>
-      <c r="AJ13" s="67"/>
-    </row>
-    <row r="14" spans="1:36">
+    </row>
+    <row r="14" spans="1:31">
       <c r="A14" s="68"/>
       <c r="B14" s="69"/>
       <c r="C14" s="21" t="str">
@@ -3744,12 +6424,8 @@
       <c r="AC14" s="108"/>
       <c r="AD14" s="108"/>
       <c r="AE14" s="108"/>
-      <c r="AG14" s="67"/>
-      <c r="AH14" s="67"/>
-      <c r="AI14" s="67"/>
-      <c r="AJ14" s="67"/>
-    </row>
-    <row r="15" spans="1:36">
+    </row>
+    <row r="15" spans="1:31">
       <c r="A15" s="68"/>
       <c r="B15" s="69"/>
       <c r="C15" s="21" t="str">
@@ -3783,12 +6459,8 @@
       <c r="AC15" s="108"/>
       <c r="AD15" s="108"/>
       <c r="AE15" s="108"/>
-      <c r="AG15" s="67"/>
-      <c r="AH15" s="67"/>
-      <c r="AI15" s="67"/>
-      <c r="AJ15" s="67"/>
-    </row>
-    <row r="16" spans="1:36">
+    </row>
+    <row r="16" spans="1:31">
       <c r="A16" s="68"/>
       <c r="B16" s="69"/>
       <c r="C16" s="21" t="str">
@@ -3822,12 +6494,8 @@
       <c r="AC16" s="108"/>
       <c r="AD16" s="108"/>
       <c r="AE16" s="108"/>
-      <c r="AG16" s="67"/>
-      <c r="AH16" s="67"/>
-      <c r="AI16" s="67"/>
-      <c r="AJ16" s="67"/>
-    </row>
-    <row r="17" spans="1:36">
+    </row>
+    <row r="17" spans="1:31">
       <c r="A17" s="68"/>
       <c r="B17" s="69"/>
       <c r="C17" s="21" t="str">
@@ -3861,12 +6529,8 @@
       <c r="AC17" s="108"/>
       <c r="AD17" s="108"/>
       <c r="AE17" s="108"/>
-      <c r="AG17" s="67"/>
-      <c r="AH17" s="67"/>
-      <c r="AI17" s="67"/>
-      <c r="AJ17" s="67"/>
-    </row>
-    <row r="18" spans="1:36">
+    </row>
+    <row r="18" spans="1:31">
       <c r="A18" s="68"/>
       <c r="B18" s="69"/>
       <c r="C18" s="21" t="str">
@@ -3900,12 +6564,8 @@
       <c r="AC18" s="108"/>
       <c r="AD18" s="108"/>
       <c r="AE18" s="108"/>
-      <c r="AG18" s="67"/>
-      <c r="AH18" s="67"/>
-      <c r="AI18" s="67"/>
-      <c r="AJ18" s="67"/>
-    </row>
-    <row r="19" spans="1:36">
+    </row>
+    <row r="19" spans="1:31">
       <c r="A19" s="68"/>
       <c r="B19" s="69"/>
       <c r="C19" s="21" t="str">
@@ -3939,12 +6599,8 @@
       <c r="AC19" s="108"/>
       <c r="AD19" s="108"/>
       <c r="AE19" s="108"/>
-      <c r="AG19" s="67"/>
-      <c r="AH19" s="67"/>
-      <c r="AI19" s="67"/>
-      <c r="AJ19" s="67"/>
-    </row>
-    <row r="20" spans="1:36">
+    </row>
+    <row r="20" spans="1:31">
       <c r="A20" s="68"/>
       <c r="B20" s="69"/>
       <c r="C20" s="21" t="str">
@@ -3978,12 +6634,8 @@
       <c r="AC20" s="108"/>
       <c r="AD20" s="108"/>
       <c r="AE20" s="108"/>
-      <c r="AG20" s="67"/>
-      <c r="AH20" s="67"/>
-      <c r="AI20" s="67"/>
-      <c r="AJ20" s="67"/>
-    </row>
-    <row r="21" spans="1:36">
+    </row>
+    <row r="21" spans="1:31">
       <c r="A21" s="68"/>
       <c r="B21" s="69"/>
       <c r="C21" s="21" t="str">
@@ -4017,12 +6669,8 @@
       <c r="AC21" s="108"/>
       <c r="AD21" s="108"/>
       <c r="AE21" s="108"/>
-      <c r="AG21" s="67"/>
-      <c r="AH21" s="67"/>
-      <c r="AI21" s="67"/>
-      <c r="AJ21" s="67"/>
-    </row>
-    <row r="22" spans="1:36">
+    </row>
+    <row r="22" spans="1:31">
       <c r="A22" s="68"/>
       <c r="B22" s="69"/>
       <c r="C22" s="21" t="str">
@@ -4056,12 +6704,8 @@
       <c r="AC22" s="108"/>
       <c r="AD22" s="108"/>
       <c r="AE22" s="108"/>
-      <c r="AG22" s="67"/>
-      <c r="AH22" s="67"/>
-      <c r="AI22" s="67"/>
-      <c r="AJ22" s="67"/>
-    </row>
-    <row r="23" spans="1:36">
+    </row>
+    <row r="23" spans="1:31">
       <c r="A23" s="68"/>
       <c r="B23" s="69"/>
       <c r="C23" s="21" t="str">
@@ -4095,12 +6739,8 @@
       <c r="AC23" s="108"/>
       <c r="AD23" s="108"/>
       <c r="AE23" s="108"/>
-      <c r="AG23" s="67"/>
-      <c r="AH23" s="67"/>
-      <c r="AI23" s="67"/>
-      <c r="AJ23" s="67"/>
-    </row>
-    <row r="24" spans="1:36">
+    </row>
+    <row r="24" spans="1:31">
       <c r="A24" s="68"/>
       <c r="B24" s="69"/>
       <c r="C24" s="21" t="str">
@@ -4134,12 +6774,8 @@
       <c r="AC24" s="108"/>
       <c r="AD24" s="108"/>
       <c r="AE24" s="108"/>
-      <c r="AG24" s="67"/>
-      <c r="AH24" s="67"/>
-      <c r="AI24" s="67"/>
-      <c r="AJ24" s="67"/>
-    </row>
-    <row r="25" spans="1:36">
+    </row>
+    <row r="25" spans="1:31">
       <c r="A25" s="68"/>
       <c r="B25" s="69"/>
       <c r="C25" s="21" t="str">
@@ -4173,12 +6809,8 @@
       <c r="AC25" s="108"/>
       <c r="AD25" s="108"/>
       <c r="AE25" s="108"/>
-      <c r="AG25" s="67"/>
-      <c r="AH25" s="67"/>
-      <c r="AI25" s="67"/>
-      <c r="AJ25" s="67"/>
-    </row>
-    <row r="26" spans="1:36">
+    </row>
+    <row r="26" spans="1:31">
       <c r="A26" s="68"/>
       <c r="B26" s="70"/>
       <c r="C26" s="21" t="str">
@@ -4212,12 +6844,8 @@
       <c r="AC26" s="108"/>
       <c r="AD26" s="108"/>
       <c r="AE26" s="108"/>
-      <c r="AG26" s="67"/>
-      <c r="AH26" s="67"/>
-      <c r="AI26" s="67"/>
-      <c r="AJ26" s="67"/>
-    </row>
-    <row r="27" spans="1:36">
+    </row>
+    <row r="27" spans="1:31">
       <c r="A27" s="68"/>
       <c r="B27" s="69"/>
       <c r="C27" s="21" t="str">
@@ -4251,12 +6879,8 @@
       <c r="AC27" s="108"/>
       <c r="AD27" s="108"/>
       <c r="AE27" s="108"/>
-      <c r="AG27" s="67"/>
-      <c r="AH27" s="67"/>
-      <c r="AI27" s="67"/>
-      <c r="AJ27" s="67"/>
-    </row>
-    <row r="28" spans="1:36">
+    </row>
+    <row r="28" spans="1:31">
       <c r="A28" s="68"/>
       <c r="B28" s="69"/>
       <c r="C28" s="21" t="str">
@@ -4290,12 +6914,8 @@
       <c r="AC28" s="103"/>
       <c r="AD28" s="108"/>
       <c r="AE28" s="108"/>
-      <c r="AG28" s="67"/>
-      <c r="AH28" s="67"/>
-      <c r="AI28" s="67"/>
-      <c r="AJ28" s="67"/>
-    </row>
-    <row r="29" spans="1:36">
+    </row>
+    <row r="29" spans="1:31">
       <c r="A29" s="68"/>
       <c r="B29" s="70"/>
       <c r="C29" s="21" t="str">
@@ -4329,12 +6949,8 @@
       <c r="AC29" s="103"/>
       <c r="AD29" s="108"/>
       <c r="AE29" s="108"/>
-      <c r="AG29" s="67"/>
-      <c r="AH29" s="67"/>
-      <c r="AI29" s="67"/>
-      <c r="AJ29" s="67"/>
-    </row>
-    <row r="30" spans="1:36">
+    </row>
+    <row r="30" spans="1:31">
       <c r="A30" s="68"/>
       <c r="B30" s="70"/>
       <c r="C30" s="21" t="str">
@@ -4368,12 +6984,8 @@
       <c r="AC30" s="103"/>
       <c r="AD30" s="108"/>
       <c r="AE30" s="108"/>
-      <c r="AG30" s="67"/>
-      <c r="AH30" s="67"/>
-      <c r="AI30" s="67"/>
-      <c r="AJ30" s="67"/>
-    </row>
-    <row r="31" spans="1:36">
+    </row>
+    <row r="31" spans="1:31">
       <c r="A31" s="68"/>
       <c r="B31" s="69"/>
       <c r="C31" s="21" t="str">
@@ -4407,12 +7019,8 @@
       <c r="AC31" s="103"/>
       <c r="AD31" s="108"/>
       <c r="AE31" s="108"/>
-      <c r="AG31" s="67"/>
-      <c r="AH31" s="67"/>
-      <c r="AI31" s="67"/>
-      <c r="AJ31" s="67"/>
-    </row>
-    <row r="32" spans="1:36">
+    </row>
+    <row r="32" spans="1:31">
       <c r="A32" s="68"/>
       <c r="B32" s="69"/>
       <c r="C32" s="21" t="str">
@@ -4446,12 +7054,8 @@
       <c r="AC32" s="103"/>
       <c r="AD32" s="108"/>
       <c r="AE32" s="108"/>
-      <c r="AG32" s="67"/>
-      <c r="AH32" s="67"/>
-      <c r="AI32" s="67"/>
-      <c r="AJ32" s="67"/>
-    </row>
-    <row r="33" spans="1:36">
+    </row>
+    <row r="33" spans="1:31">
       <c r="A33" s="68"/>
       <c r="B33" s="69"/>
       <c r="C33" s="21" t="str">
@@ -4485,12 +7089,8 @@
       <c r="AC33" s="103"/>
       <c r="AD33" s="108"/>
       <c r="AE33" s="108"/>
-      <c r="AG33" s="67"/>
-      <c r="AH33" s="67"/>
-      <c r="AI33" s="67"/>
-      <c r="AJ33" s="67"/>
-    </row>
-    <row r="34" spans="1:36">
+    </row>
+    <row r="34" spans="1:31">
       <c r="A34" s="68"/>
       <c r="B34" s="69"/>
       <c r="C34" s="21" t="str">
@@ -4524,12 +7124,8 @@
       <c r="AC34" s="103"/>
       <c r="AD34" s="108"/>
       <c r="AE34" s="108"/>
-      <c r="AG34" s="67"/>
-      <c r="AH34" s="67"/>
-      <c r="AI34" s="67"/>
-      <c r="AJ34" s="67"/>
-    </row>
-    <row r="35" spans="1:36">
+    </row>
+    <row r="35" spans="1:31">
       <c r="A35" s="68"/>
       <c r="B35" s="69"/>
       <c r="C35" s="21" t="str">
@@ -4563,12 +7159,8 @@
       <c r="AC35" s="103"/>
       <c r="AD35" s="108"/>
       <c r="AE35" s="108"/>
-      <c r="AG35" s="67"/>
-      <c r="AH35" s="67"/>
-      <c r="AI35" s="67"/>
-      <c r="AJ35" s="67"/>
-    </row>
-    <row r="36" spans="1:36">
+    </row>
+    <row r="36" spans="1:31">
       <c r="A36" s="68"/>
       <c r="B36" s="69"/>
       <c r="C36" s="21" t="str">
@@ -4602,12 +7194,8 @@
       <c r="AC36" s="103"/>
       <c r="AD36" s="108"/>
       <c r="AE36" s="108"/>
-      <c r="AG36" s="67"/>
-      <c r="AH36" s="67"/>
-      <c r="AI36" s="67"/>
-      <c r="AJ36" s="67"/>
-    </row>
-    <row r="37" spans="1:36">
+    </row>
+    <row r="37" spans="1:31">
       <c r="A37" s="68"/>
       <c r="B37" s="69"/>
       <c r="C37" s="21" t="str">
@@ -4641,12 +7229,8 @@
       <c r="AC37" s="103"/>
       <c r="AD37" s="108"/>
       <c r="AE37" s="108"/>
-      <c r="AG37" s="67"/>
-      <c r="AH37" s="67"/>
-      <c r="AI37" s="67"/>
-      <c r="AJ37" s="67"/>
-    </row>
-    <row r="38" spans="1:36">
+    </row>
+    <row r="38" spans="1:31">
       <c r="A38" s="68"/>
       <c r="B38" s="69"/>
       <c r="C38" s="21" t="str">
@@ -4680,12 +7264,8 @@
       <c r="AC38" s="103"/>
       <c r="AD38" s="108"/>
       <c r="AE38" s="108"/>
-      <c r="AG38" s="67"/>
-      <c r="AH38" s="67"/>
-      <c r="AI38" s="67"/>
-      <c r="AJ38" s="67"/>
-    </row>
-    <row r="39" spans="1:36">
+    </row>
+    <row r="39" spans="1:31">
       <c r="A39" s="68"/>
       <c r="B39" s="69"/>
       <c r="C39" s="21" t="str">
@@ -4719,12 +7299,8 @@
       <c r="AC39" s="103"/>
       <c r="AD39" s="108"/>
       <c r="AE39" s="108"/>
-      <c r="AG39" s="67"/>
-      <c r="AH39" s="67"/>
-      <c r="AI39" s="67"/>
-      <c r="AJ39" s="67"/>
-    </row>
-    <row r="40" spans="1:36">
+    </row>
+    <row r="40" spans="1:31">
       <c r="A40" s="68"/>
       <c r="B40" s="69"/>
       <c r="C40" s="21" t="str">
@@ -4758,12 +7334,8 @@
       <c r="AC40" s="103"/>
       <c r="AD40" s="108"/>
       <c r="AE40" s="108"/>
-      <c r="AG40" s="67"/>
-      <c r="AH40" s="67"/>
-      <c r="AI40" s="67"/>
-      <c r="AJ40" s="67"/>
-    </row>
-    <row r="41" spans="1:36">
+    </row>
+    <row r="41" spans="1:31">
       <c r="A41" s="68"/>
       <c r="B41" s="69"/>
       <c r="C41" s="21" t="str">
@@ -4797,12 +7369,8 @@
       <c r="AC41" s="103"/>
       <c r="AD41" s="108"/>
       <c r="AE41" s="108"/>
-      <c r="AG41" s="67"/>
-      <c r="AH41" s="67"/>
-      <c r="AI41" s="67"/>
-      <c r="AJ41" s="67"/>
-    </row>
-    <row r="42" spans="1:36">
+    </row>
+    <row r="42" spans="1:31">
       <c r="A42" s="68"/>
       <c r="B42" s="69"/>
       <c r="C42" s="21" t="str">
@@ -4836,12 +7404,8 @@
       <c r="AC42" s="103"/>
       <c r="AD42" s="108"/>
       <c r="AE42" s="108"/>
-      <c r="AG42" s="67"/>
-      <c r="AH42" s="67"/>
-      <c r="AI42" s="67"/>
-      <c r="AJ42" s="67"/>
-    </row>
-    <row r="43" spans="1:36">
+    </row>
+    <row r="43" spans="1:31">
       <c r="A43" s="68"/>
       <c r="B43" s="69"/>
       <c r="C43" s="21" t="str">
@@ -4875,12 +7439,8 @@
       <c r="AC43" s="103"/>
       <c r="AD43" s="108"/>
       <c r="AE43" s="108"/>
-      <c r="AG43" s="67"/>
-      <c r="AH43" s="67"/>
-      <c r="AI43" s="67"/>
-      <c r="AJ43" s="67"/>
-    </row>
-    <row r="44" spans="1:36">
+    </row>
+    <row r="44" spans="1:31">
       <c r="A44" s="68"/>
       <c r="B44" s="69"/>
       <c r="C44" s="21" t="str">
@@ -4914,12 +7474,8 @@
       <c r="AC44" s="103"/>
       <c r="AD44" s="108"/>
       <c r="AE44" s="108"/>
-      <c r="AG44" s="67"/>
-      <c r="AH44" s="67"/>
-      <c r="AI44" s="67"/>
-      <c r="AJ44" s="67"/>
-    </row>
-    <row r="45" spans="1:36">
+    </row>
+    <row r="45" spans="1:31">
       <c r="A45" s="64"/>
       <c r="B45" s="107"/>
       <c r="C45" s="21" t="str">
@@ -4953,12 +7509,8 @@
       <c r="AC45" s="103"/>
       <c r="AD45" s="108"/>
       <c r="AE45" s="108"/>
-      <c r="AG45" s="67"/>
-      <c r="AH45" s="67"/>
-      <c r="AI45" s="67"/>
-      <c r="AJ45" s="67"/>
-    </row>
-    <row r="46" spans="1:36">
+    </row>
+    <row r="46" spans="1:31">
       <c r="A46" s="64"/>
       <c r="B46" s="107"/>
       <c r="C46" s="21" t="str">
@@ -4992,12 +7544,8 @@
       <c r="AC46" s="103"/>
       <c r="AD46" s="108"/>
       <c r="AE46" s="108"/>
-      <c r="AG46" s="67"/>
-      <c r="AH46" s="67"/>
-      <c r="AI46" s="67"/>
-      <c r="AJ46" s="67"/>
-    </row>
-    <row r="47" spans="1:36">
+    </row>
+    <row r="47" spans="1:31">
       <c r="A47" s="64"/>
       <c r="B47" s="107"/>
       <c r="C47" s="21" t="str">
@@ -5031,12 +7579,8 @@
       <c r="AC47" s="103"/>
       <c r="AD47" s="108"/>
       <c r="AE47" s="108"/>
-      <c r="AG47" s="67"/>
-      <c r="AH47" s="67"/>
-      <c r="AI47" s="67"/>
-      <c r="AJ47" s="67"/>
-    </row>
-    <row r="48" spans="1:36">
+    </row>
+    <row r="48" spans="1:31">
       <c r="A48" s="64"/>
       <c r="B48" s="107"/>
       <c r="C48" s="21" t="str">
@@ -5070,12 +7614,8 @@
       <c r="AC48" s="103"/>
       <c r="AD48" s="108"/>
       <c r="AE48" s="108"/>
-      <c r="AG48" s="67"/>
-      <c r="AH48" s="67"/>
-      <c r="AI48" s="67"/>
-      <c r="AJ48" s="67"/>
-    </row>
-    <row r="49" spans="1:36">
+    </row>
+    <row r="49" spans="1:31">
       <c r="A49" s="64"/>
       <c r="B49" s="107"/>
       <c r="C49" s="21" t="str">
@@ -5109,12 +7649,8 @@
       <c r="AC49" s="103"/>
       <c r="AD49" s="108"/>
       <c r="AE49" s="108"/>
-      <c r="AG49" s="67"/>
-      <c r="AH49" s="67"/>
-      <c r="AI49" s="67"/>
-      <c r="AJ49" s="67"/>
-    </row>
-    <row r="50" spans="1:36">
+    </row>
+    <row r="50" spans="1:31">
       <c r="A50" s="64"/>
       <c r="B50" s="107"/>
       <c r="C50" s="21" t="str">
@@ -5148,12 +7684,8 @@
       <c r="AC50" s="103"/>
       <c r="AD50" s="108"/>
       <c r="AE50" s="108"/>
-      <c r="AG50" s="67"/>
-      <c r="AH50" s="67"/>
-      <c r="AI50" s="67"/>
-      <c r="AJ50" s="67"/>
-    </row>
-    <row r="51" spans="1:36">
+    </row>
+    <row r="51" spans="1:31">
       <c r="A51" s="64"/>
       <c r="B51" s="107"/>
       <c r="C51" s="21" t="str">
@@ -5187,12 +7719,8 @@
       <c r="AC51" s="103"/>
       <c r="AD51" s="108"/>
       <c r="AE51" s="108"/>
-      <c r="AG51" s="67"/>
-      <c r="AH51" s="67"/>
-      <c r="AI51" s="67"/>
-      <c r="AJ51" s="67"/>
-    </row>
-    <row r="52" spans="1:36">
+    </row>
+    <row r="52" spans="1:31">
       <c r="A52" s="64"/>
       <c r="B52" s="107"/>
       <c r="C52" s="21" t="str">
@@ -5226,12 +7754,8 @@
       <c r="AC52" s="103"/>
       <c r="AD52" s="108"/>
       <c r="AE52" s="108"/>
-      <c r="AG52" s="67"/>
-      <c r="AH52" s="67"/>
-      <c r="AI52" s="67"/>
-      <c r="AJ52" s="67"/>
-    </row>
-    <row r="53" spans="1:36">
+    </row>
+    <row r="53" spans="1:31">
       <c r="A53" s="64"/>
       <c r="B53" s="107"/>
       <c r="C53" s="21" t="str">
@@ -5265,12 +7789,8 @@
       <c r="AC53" s="103"/>
       <c r="AD53" s="108"/>
       <c r="AE53" s="108"/>
-      <c r="AG53" s="67"/>
-      <c r="AH53" s="67"/>
-      <c r="AI53" s="67"/>
-      <c r="AJ53" s="67"/>
-    </row>
-    <row r="54" spans="1:36" ht="13.15" customHeight="1">
+    </row>
+    <row r="54" spans="1:31" ht="13.15" customHeight="1">
       <c r="A54" s="64"/>
       <c r="B54" s="107"/>
       <c r="C54" s="21" t="str">
@@ -5304,12 +7824,8 @@
       <c r="AC54" s="103"/>
       <c r="AD54" s="108"/>
       <c r="AE54" s="108"/>
-      <c r="AG54" s="67"/>
-      <c r="AH54" s="67"/>
-      <c r="AI54" s="67"/>
-      <c r="AJ54" s="67"/>
-    </row>
-    <row r="55" spans="1:36">
+    </row>
+    <row r="55" spans="1:31">
       <c r="A55" s="64"/>
       <c r="B55" s="107"/>
       <c r="C55" s="21" t="str">
@@ -5343,12 +7859,8 @@
       <c r="AC55" s="103"/>
       <c r="AD55" s="108"/>
       <c r="AE55" s="108"/>
-      <c r="AG55" s="67"/>
-      <c r="AH55" s="67"/>
-      <c r="AI55" s="67"/>
-      <c r="AJ55" s="67"/>
-    </row>
-    <row r="56" spans="1:36">
+    </row>
+    <row r="56" spans="1:31">
       <c r="A56" s="64"/>
       <c r="B56" s="107"/>
       <c r="C56" s="21" t="str">
@@ -5382,12 +7894,8 @@
       <c r="AC56" s="103"/>
       <c r="AD56" s="108"/>
       <c r="AE56" s="108"/>
-      <c r="AG56" s="67"/>
-      <c r="AH56" s="67"/>
-      <c r="AI56" s="67"/>
-      <c r="AJ56" s="67"/>
-    </row>
-    <row r="57" spans="1:36">
+    </row>
+    <row r="57" spans="1:31">
       <c r="A57" s="64"/>
       <c r="B57" s="107"/>
       <c r="C57" s="21" t="str">
@@ -5421,12 +7929,8 @@
       <c r="AC57" s="108"/>
       <c r="AD57" s="108"/>
       <c r="AE57" s="105"/>
-      <c r="AG57" s="67"/>
-      <c r="AH57" s="67"/>
-      <c r="AI57" s="67"/>
-      <c r="AJ57" s="67"/>
-    </row>
-    <row r="58" spans="1:36">
+    </row>
+    <row r="58" spans="1:31">
       <c r="A58" s="64"/>
       <c r="B58" s="107"/>
       <c r="C58" s="21" t="str">
@@ -5460,12 +7964,8 @@
       <c r="AC58" s="108"/>
       <c r="AD58" s="108"/>
       <c r="AE58" s="108"/>
-      <c r="AG58" s="67"/>
-      <c r="AH58" s="67"/>
-      <c r="AI58" s="67"/>
-      <c r="AJ58" s="67"/>
-    </row>
-    <row r="59" spans="1:36">
+    </row>
+    <row r="59" spans="1:31">
       <c r="A59" s="64"/>
       <c r="B59" s="107"/>
       <c r="C59" s="21" t="str">
@@ -5499,12 +7999,8 @@
       <c r="AC59" s="108"/>
       <c r="AD59" s="108"/>
       <c r="AE59" s="108"/>
-      <c r="AG59" s="67"/>
-      <c r="AH59" s="67"/>
-      <c r="AI59" s="67"/>
-      <c r="AJ59" s="67"/>
-    </row>
-    <row r="60" spans="1:36">
+    </row>
+    <row r="60" spans="1:31">
       <c r="A60" s="64"/>
       <c r="B60" s="107"/>
       <c r="C60" s="21" t="str">
@@ -5538,12 +8034,8 @@
       <c r="AC60" s="108"/>
       <c r="AD60" s="108"/>
       <c r="AE60" s="108"/>
-      <c r="AG60" s="67"/>
-      <c r="AH60" s="67"/>
-      <c r="AI60" s="67"/>
-      <c r="AJ60" s="67"/>
-    </row>
-    <row r="61" spans="1:36">
+    </row>
+    <row r="61" spans="1:31">
       <c r="A61" s="64"/>
       <c r="B61" s="107"/>
       <c r="C61" s="21" t="str">
@@ -5577,12 +8069,8 @@
       <c r="AC61" s="108"/>
       <c r="AD61" s="108"/>
       <c r="AE61" s="108"/>
-      <c r="AG61" s="67"/>
-      <c r="AH61" s="67"/>
-      <c r="AI61" s="67"/>
-      <c r="AJ61" s="67"/>
-    </row>
-    <row r="62" spans="1:36">
+    </row>
+    <row r="62" spans="1:31">
       <c r="A62" s="64"/>
       <c r="B62" s="107"/>
       <c r="C62" s="21" t="str">
@@ -5616,12 +8104,8 @@
       <c r="AC62" s="108"/>
       <c r="AD62" s="108"/>
       <c r="AE62" s="108"/>
-      <c r="AG62" s="67"/>
-      <c r="AH62" s="67"/>
-      <c r="AI62" s="67"/>
-      <c r="AJ62" s="67"/>
-    </row>
-    <row r="63" spans="1:36">
+    </row>
+    <row r="63" spans="1:31">
       <c r="A63" s="64"/>
       <c r="B63" s="107"/>
       <c r="C63" s="21" t="str">
@@ -5655,12 +8139,8 @@
       <c r="AC63" s="108"/>
       <c r="AD63" s="108"/>
       <c r="AE63" s="108"/>
-      <c r="AG63" s="67"/>
-      <c r="AH63" s="67"/>
-      <c r="AI63" s="67"/>
-      <c r="AJ63" s="67"/>
-    </row>
-    <row r="64" spans="1:36">
+    </row>
+    <row r="64" spans="1:31">
       <c r="A64" s="64"/>
       <c r="B64" s="107"/>
       <c r="C64" s="21" t="str">
@@ -5694,12 +8174,8 @@
       <c r="AC64" s="108"/>
       <c r="AD64" s="108"/>
       <c r="AE64" s="108"/>
-      <c r="AG64" s="67"/>
-      <c r="AH64" s="67"/>
-      <c r="AI64" s="67"/>
-      <c r="AJ64" s="67"/>
-    </row>
-    <row r="65" spans="1:36">
+    </row>
+    <row r="65" spans="1:31">
       <c r="A65" s="64"/>
       <c r="B65" s="107"/>
       <c r="C65" s="21" t="str">
@@ -5733,12 +8209,8 @@
       <c r="AC65" s="108"/>
       <c r="AD65" s="108"/>
       <c r="AE65" s="108"/>
-      <c r="AG65" s="67"/>
-      <c r="AH65" s="67"/>
-      <c r="AI65" s="67"/>
-      <c r="AJ65" s="67"/>
-    </row>
-    <row r="66" spans="1:36">
+    </row>
+    <row r="66" spans="1:31">
       <c r="A66" s="64"/>
       <c r="B66" s="107"/>
       <c r="C66" s="21" t="str">
@@ -5772,12 +8244,8 @@
       <c r="AC66" s="108"/>
       <c r="AD66" s="108"/>
       <c r="AE66" s="108"/>
-      <c r="AG66" s="67"/>
-      <c r="AH66" s="67"/>
-      <c r="AI66" s="67"/>
-      <c r="AJ66" s="67"/>
-    </row>
-    <row r="67" spans="1:36">
+    </row>
+    <row r="67" spans="1:31">
       <c r="A67" s="64"/>
       <c r="B67" s="107"/>
       <c r="C67" s="21" t="str">
@@ -5811,12 +8279,8 @@
       <c r="AC67" s="108"/>
       <c r="AD67" s="108"/>
       <c r="AE67" s="108"/>
-      <c r="AG67" s="67"/>
-      <c r="AH67" s="67"/>
-      <c r="AI67" s="67"/>
-      <c r="AJ67" s="67"/>
-    </row>
-    <row r="68" spans="1:36">
+    </row>
+    <row r="68" spans="1:31">
       <c r="A68" s="64"/>
       <c r="B68" s="107"/>
       <c r="C68" s="21" t="str">
@@ -5850,12 +8314,8 @@
       <c r="AC68" s="108"/>
       <c r="AD68" s="108"/>
       <c r="AE68" s="108"/>
-      <c r="AG68" s="67"/>
-      <c r="AH68" s="67"/>
-      <c r="AI68" s="67"/>
-      <c r="AJ68" s="67"/>
-    </row>
-    <row r="69" spans="1:36">
+    </row>
+    <row r="69" spans="1:31">
       <c r="A69" s="64"/>
       <c r="B69" s="107"/>
       <c r="C69" s="21" t="str">
@@ -5889,12 +8349,8 @@
       <c r="AC69" s="108"/>
       <c r="AD69" s="108"/>
       <c r="AE69" s="108"/>
-      <c r="AG69" s="67"/>
-      <c r="AH69" s="67"/>
-      <c r="AI69" s="67"/>
-      <c r="AJ69" s="67"/>
-    </row>
-    <row r="70" spans="1:36">
+    </row>
+    <row r="70" spans="1:31">
       <c r="A70" s="64"/>
       <c r="B70" s="107"/>
       <c r="C70" s="21" t="str">
@@ -5928,12 +8384,8 @@
       <c r="AC70" s="108"/>
       <c r="AD70" s="108"/>
       <c r="AE70" s="108"/>
-      <c r="AG70" s="67"/>
-      <c r="AH70" s="67"/>
-      <c r="AI70" s="67"/>
-      <c r="AJ70" s="67"/>
-    </row>
-    <row r="71" spans="1:36">
+    </row>
+    <row r="71" spans="1:31">
       <c r="A71" s="64"/>
       <c r="B71" s="107"/>
       <c r="C71" s="21" t="str">
@@ -5967,16 +8419,12 @@
       <c r="AC71" s="108"/>
       <c r="AD71" s="108"/>
       <c r="AE71" s="108"/>
-      <c r="AG71" s="67"/>
-      <c r="AH71" s="67"/>
-      <c r="AI71" s="67"/>
-      <c r="AJ71" s="67"/>
-    </row>
-    <row r="72" spans="1:36">
+    </row>
+    <row r="72" spans="1:31">
       <c r="A72" s="64"/>
       <c r="B72" s="107"/>
       <c r="C72" s="21" t="str">
-        <f t="shared" ref="C72:C135" si="2">IF(ISBLANK(A72),"","STRC")</f>
+        <f t="shared" ref="C72:C135" si="1">IF(ISBLANK(A72),"","STRC")</f>
         <v/>
       </c>
       <c r="D72" s="17"/>
@@ -6006,16 +8454,12 @@
       <c r="AC72" s="108"/>
       <c r="AD72" s="108"/>
       <c r="AE72" s="108"/>
-      <c r="AG72" s="67"/>
-      <c r="AH72" s="67"/>
-      <c r="AI72" s="67"/>
-      <c r="AJ72" s="67"/>
-    </row>
-    <row r="73" spans="1:36">
+    </row>
+    <row r="73" spans="1:31">
       <c r="A73" s="64"/>
       <c r="B73" s="107"/>
       <c r="C73" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D73" s="17"/>
@@ -6045,16 +8489,12 @@
       <c r="AC73" s="108"/>
       <c r="AD73" s="108"/>
       <c r="AE73" s="108"/>
-      <c r="AG73" s="67"/>
-      <c r="AH73" s="67"/>
-      <c r="AI73" s="67"/>
-      <c r="AJ73" s="67"/>
-    </row>
-    <row r="74" spans="1:36">
+    </row>
+    <row r="74" spans="1:31">
       <c r="A74" s="64"/>
       <c r="B74" s="107"/>
       <c r="C74" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D74" s="17"/>
@@ -6084,16 +8524,12 @@
       <c r="AC74" s="108"/>
       <c r="AD74" s="108"/>
       <c r="AE74" s="108"/>
-      <c r="AG74" s="67"/>
-      <c r="AH74" s="67"/>
-      <c r="AI74" s="67"/>
-      <c r="AJ74" s="67"/>
-    </row>
-    <row r="75" spans="1:36">
+    </row>
+    <row r="75" spans="1:31">
       <c r="A75" s="64"/>
       <c r="B75" s="107"/>
       <c r="C75" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D75" s="17"/>
@@ -6123,16 +8559,12 @@
       <c r="AC75" s="108"/>
       <c r="AD75" s="108"/>
       <c r="AE75" s="108"/>
-      <c r="AG75" s="67"/>
-      <c r="AH75" s="67"/>
-      <c r="AI75" s="67"/>
-      <c r="AJ75" s="67"/>
-    </row>
-    <row r="76" spans="1:36">
+    </row>
+    <row r="76" spans="1:31">
       <c r="A76" s="64"/>
       <c r="B76" s="107"/>
       <c r="C76" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D76" s="17"/>
@@ -6162,16 +8594,12 @@
       <c r="AC76" s="108"/>
       <c r="AD76" s="108"/>
       <c r="AE76" s="108"/>
-      <c r="AG76" s="67"/>
-      <c r="AH76" s="67"/>
-      <c r="AI76" s="67"/>
-      <c r="AJ76" s="67"/>
-    </row>
-    <row r="77" spans="1:36">
+    </row>
+    <row r="77" spans="1:31">
       <c r="A77" s="64"/>
       <c r="B77" s="107"/>
       <c r="C77" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D77" s="17"/>
@@ -6201,16 +8629,12 @@
       <c r="AC77" s="108"/>
       <c r="AD77" s="108"/>
       <c r="AE77" s="108"/>
-      <c r="AG77" s="67"/>
-      <c r="AH77" s="67"/>
-      <c r="AI77" s="67"/>
-      <c r="AJ77" s="67"/>
-    </row>
-    <row r="78" spans="1:36">
+    </row>
+    <row r="78" spans="1:31">
       <c r="A78" s="64"/>
       <c r="B78" s="107"/>
       <c r="C78" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D78" s="17"/>
@@ -6240,16 +8664,12 @@
       <c r="AC78" s="108"/>
       <c r="AD78" s="108"/>
       <c r="AE78" s="108"/>
-      <c r="AG78" s="67"/>
-      <c r="AH78" s="67"/>
-      <c r="AI78" s="67"/>
-      <c r="AJ78" s="67"/>
-    </row>
-    <row r="79" spans="1:36">
+    </row>
+    <row r="79" spans="1:31">
       <c r="A79" s="64"/>
       <c r="B79" s="107"/>
       <c r="C79" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D79" s="17"/>
@@ -6279,16 +8699,12 @@
       <c r="AC79" s="108"/>
       <c r="AD79" s="108"/>
       <c r="AE79" s="108"/>
-      <c r="AG79" s="67"/>
-      <c r="AH79" s="67"/>
-      <c r="AI79" s="67"/>
-      <c r="AJ79" s="67"/>
-    </row>
-    <row r="80" spans="1:36">
+    </row>
+    <row r="80" spans="1:31">
       <c r="A80" s="64"/>
       <c r="B80" s="107"/>
       <c r="C80" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D80" s="17"/>
@@ -6318,16 +8734,12 @@
       <c r="AC80" s="108"/>
       <c r="AD80" s="108"/>
       <c r="AE80" s="108"/>
-      <c r="AG80" s="67"/>
-      <c r="AH80" s="67"/>
-      <c r="AI80" s="67"/>
-      <c r="AJ80" s="67"/>
-    </row>
-    <row r="81" spans="1:36">
+    </row>
+    <row r="81" spans="1:31">
       <c r="A81" s="64"/>
       <c r="B81" s="107"/>
       <c r="C81" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D81" s="17"/>
@@ -6357,16 +8769,12 @@
       <c r="AC81" s="108"/>
       <c r="AD81" s="108"/>
       <c r="AE81" s="108"/>
-      <c r="AG81" s="67"/>
-      <c r="AH81" s="67"/>
-      <c r="AI81" s="67"/>
-      <c r="AJ81" s="67"/>
-    </row>
-    <row r="82" spans="1:36">
+    </row>
+    <row r="82" spans="1:31">
       <c r="A82" s="64"/>
       <c r="B82" s="64"/>
       <c r="C82" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D82" s="17"/>
@@ -6396,16 +8804,12 @@
       <c r="AC82" s="108"/>
       <c r="AD82" s="108"/>
       <c r="AE82" s="108"/>
-      <c r="AG82" s="67"/>
-      <c r="AH82" s="67"/>
-      <c r="AI82" s="67"/>
-      <c r="AJ82" s="67"/>
-    </row>
-    <row r="83" spans="1:36">
+    </row>
+    <row r="83" spans="1:31">
       <c r="A83" s="64"/>
       <c r="B83" s="64"/>
       <c r="C83" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D83" s="17"/>
@@ -6435,16 +8839,12 @@
       <c r="AC83" s="108"/>
       <c r="AD83" s="108"/>
       <c r="AE83" s="108"/>
-      <c r="AG83" s="67"/>
-      <c r="AH83" s="67"/>
-      <c r="AI83" s="67"/>
-      <c r="AJ83" s="67"/>
-    </row>
-    <row r="84" spans="1:36">
+    </row>
+    <row r="84" spans="1:31">
       <c r="A84" s="64"/>
       <c r="B84" s="64"/>
       <c r="C84" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D84" s="17"/>
@@ -6474,16 +8874,12 @@
       <c r="AC84" s="108"/>
       <c r="AD84" s="108"/>
       <c r="AE84" s="108"/>
-      <c r="AG84" s="67"/>
-      <c r="AH84" s="67"/>
-      <c r="AI84" s="67"/>
-      <c r="AJ84" s="67"/>
-    </row>
-    <row r="85" spans="1:36">
+    </row>
+    <row r="85" spans="1:31">
       <c r="A85" s="64"/>
       <c r="B85" s="64"/>
       <c r="C85" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D85" s="17"/>
@@ -6513,16 +8909,12 @@
       <c r="AC85" s="108"/>
       <c r="AD85" s="108"/>
       <c r="AE85" s="108"/>
-      <c r="AG85" s="67"/>
-      <c r="AH85" s="67"/>
-      <c r="AI85" s="67"/>
-      <c r="AJ85" s="67"/>
-    </row>
-    <row r="86" spans="1:36">
+    </row>
+    <row r="86" spans="1:31">
       <c r="A86" s="64"/>
       <c r="B86" s="64"/>
       <c r="C86" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D86" s="17"/>
@@ -6552,16 +8944,12 @@
       <c r="AC86" s="108"/>
       <c r="AD86" s="108"/>
       <c r="AE86" s="108"/>
-      <c r="AG86" s="67"/>
-      <c r="AH86" s="67"/>
-      <c r="AI86" s="67"/>
-      <c r="AJ86" s="67"/>
-    </row>
-    <row r="87" spans="1:36">
+    </row>
+    <row r="87" spans="1:31">
       <c r="A87" s="64"/>
       <c r="B87" s="64"/>
       <c r="C87" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D87" s="17"/>
@@ -6591,16 +8979,12 @@
       <c r="AC87" s="108"/>
       <c r="AD87" s="108"/>
       <c r="AE87" s="108"/>
-      <c r="AG87" s="67"/>
-      <c r="AH87" s="67"/>
-      <c r="AI87" s="67"/>
-      <c r="AJ87" s="67"/>
-    </row>
-    <row r="88" spans="1:36">
+    </row>
+    <row r="88" spans="1:31">
       <c r="A88" s="64"/>
       <c r="B88" s="64"/>
       <c r="C88" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D88" s="17"/>
@@ -6630,16 +9014,12 @@
       <c r="AC88" s="108"/>
       <c r="AD88" s="108"/>
       <c r="AE88" s="108"/>
-      <c r="AG88" s="67"/>
-      <c r="AH88" s="67"/>
-      <c r="AI88" s="67"/>
-      <c r="AJ88" s="67"/>
-    </row>
-    <row r="89" spans="1:36">
+    </row>
+    <row r="89" spans="1:31">
       <c r="A89" s="64"/>
       <c r="B89" s="64"/>
       <c r="C89" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D89" s="17"/>
@@ -6669,16 +9049,12 @@
       <c r="AC89" s="108"/>
       <c r="AD89" s="108"/>
       <c r="AE89" s="108"/>
-      <c r="AG89" s="67"/>
-      <c r="AH89" s="67"/>
-      <c r="AI89" s="67"/>
-      <c r="AJ89" s="67"/>
-    </row>
-    <row r="90" spans="1:36">
+    </row>
+    <row r="90" spans="1:31">
       <c r="A90" s="64"/>
       <c r="B90" s="64"/>
       <c r="C90" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D90" s="17"/>
@@ -6708,16 +9084,12 @@
       <c r="AC90" s="108"/>
       <c r="AD90" s="108"/>
       <c r="AE90" s="108"/>
-      <c r="AG90" s="67"/>
-      <c r="AH90" s="67"/>
-      <c r="AI90" s="67"/>
-      <c r="AJ90" s="67"/>
-    </row>
-    <row r="91" spans="1:36">
+    </row>
+    <row r="91" spans="1:31">
       <c r="A91" s="64"/>
       <c r="B91" s="64"/>
       <c r="C91" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D91" s="17"/>
@@ -6747,16 +9119,12 @@
       <c r="AC91" s="108"/>
       <c r="AD91" s="108"/>
       <c r="AE91" s="108"/>
-      <c r="AG91" s="67"/>
-      <c r="AH91" s="67"/>
-      <c r="AI91" s="67"/>
-      <c r="AJ91" s="67"/>
-    </row>
-    <row r="92" spans="1:36">
+    </row>
+    <row r="92" spans="1:31">
       <c r="A92" s="64"/>
       <c r="B92" s="64"/>
       <c r="C92" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D92" s="17"/>
@@ -6786,16 +9154,12 @@
       <c r="AC92" s="108"/>
       <c r="AD92" s="108"/>
       <c r="AE92" s="108"/>
-      <c r="AG92" s="67"/>
-      <c r="AH92" s="67"/>
-      <c r="AI92" s="67"/>
-      <c r="AJ92" s="67"/>
-    </row>
-    <row r="93" spans="1:36">
+    </row>
+    <row r="93" spans="1:31">
       <c r="A93" s="64"/>
       <c r="B93" s="64"/>
       <c r="C93" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D93" s="17"/>
@@ -6825,16 +9189,12 @@
       <c r="AC93" s="108"/>
       <c r="AD93" s="108"/>
       <c r="AE93" s="108"/>
-      <c r="AG93" s="67"/>
-      <c r="AH93" s="67"/>
-      <c r="AI93" s="67"/>
-      <c r="AJ93" s="67"/>
-    </row>
-    <row r="94" spans="1:36">
+    </row>
+    <row r="94" spans="1:31">
       <c r="A94" s="64"/>
       <c r="B94" s="64"/>
       <c r="C94" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D94" s="17"/>
@@ -6864,16 +9224,12 @@
       <c r="AC94" s="108"/>
       <c r="AD94" s="108"/>
       <c r="AE94" s="108"/>
-      <c r="AG94" s="67"/>
-      <c r="AH94" s="67"/>
-      <c r="AI94" s="67"/>
-      <c r="AJ94" s="67"/>
-    </row>
-    <row r="95" spans="1:36">
+    </row>
+    <row r="95" spans="1:31">
       <c r="A95" s="64"/>
       <c r="B95" s="64"/>
       <c r="C95" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D95" s="17"/>
@@ -6903,16 +9259,12 @@
       <c r="AC95" s="108"/>
       <c r="AD95" s="108"/>
       <c r="AE95" s="108"/>
-      <c r="AG95" s="67"/>
-      <c r="AH95" s="67"/>
-      <c r="AI95" s="67"/>
-      <c r="AJ95" s="67"/>
-    </row>
-    <row r="96" spans="1:36">
+    </row>
+    <row r="96" spans="1:31">
       <c r="A96" s="64"/>
       <c r="B96" s="64"/>
       <c r="C96" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D96" s="17"/>
@@ -6942,16 +9294,12 @@
       <c r="AC96" s="108"/>
       <c r="AD96" s="108"/>
       <c r="AE96" s="108"/>
-      <c r="AG96" s="67"/>
-      <c r="AH96" s="67"/>
-      <c r="AI96" s="67"/>
-      <c r="AJ96" s="67"/>
-    </row>
-    <row r="97" spans="1:36">
+    </row>
+    <row r="97" spans="1:31">
       <c r="A97" s="64"/>
       <c r="B97" s="64"/>
       <c r="C97" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D97" s="17"/>
@@ -6981,16 +9329,12 @@
       <c r="AC97" s="108"/>
       <c r="AD97" s="108"/>
       <c r="AE97" s="108"/>
-      <c r="AG97" s="67"/>
-      <c r="AH97" s="67"/>
-      <c r="AI97" s="67"/>
-      <c r="AJ97" s="67"/>
-    </row>
-    <row r="98" spans="1:36">
+    </row>
+    <row r="98" spans="1:31">
       <c r="A98" s="64"/>
       <c r="B98" s="64"/>
       <c r="C98" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D98" s="17"/>
@@ -7020,16 +9364,12 @@
       <c r="AC98" s="108"/>
       <c r="AD98" s="108"/>
       <c r="AE98" s="108"/>
-      <c r="AG98" s="67"/>
-      <c r="AH98" s="67"/>
-      <c r="AI98" s="67"/>
-      <c r="AJ98" s="67"/>
-    </row>
-    <row r="99" spans="1:36">
+    </row>
+    <row r="99" spans="1:31">
       <c r="A99" s="64"/>
       <c r="B99" s="64"/>
       <c r="C99" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D99" s="17"/>
@@ -7059,16 +9399,12 @@
       <c r="AC99" s="108"/>
       <c r="AD99" s="108"/>
       <c r="AE99" s="108"/>
-      <c r="AG99" s="67"/>
-      <c r="AH99" s="67"/>
-      <c r="AI99" s="67"/>
-      <c r="AJ99" s="67"/>
-    </row>
-    <row r="100" spans="1:36">
+    </row>
+    <row r="100" spans="1:31">
       <c r="A100" s="64"/>
       <c r="B100" s="64"/>
       <c r="C100" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D100" s="17"/>
@@ -7098,16 +9434,12 @@
       <c r="AC100" s="108"/>
       <c r="AD100" s="108"/>
       <c r="AE100" s="108"/>
-      <c r="AG100" s="67"/>
-      <c r="AH100" s="67"/>
-      <c r="AI100" s="67"/>
-      <c r="AJ100" s="67"/>
-    </row>
-    <row r="101" spans="1:36">
+    </row>
+    <row r="101" spans="1:31">
       <c r="A101" s="64"/>
       <c r="B101" s="64"/>
       <c r="C101" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D101" s="17"/>
@@ -7137,16 +9469,12 @@
       <c r="AC101" s="108"/>
       <c r="AD101" s="108"/>
       <c r="AE101" s="108"/>
-      <c r="AG101" s="67"/>
-      <c r="AH101" s="67"/>
-      <c r="AI101" s="67"/>
-      <c r="AJ101" s="67"/>
-    </row>
-    <row r="102" spans="1:36">
+    </row>
+    <row r="102" spans="1:31">
       <c r="A102" s="64"/>
       <c r="B102" s="64"/>
       <c r="C102" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D102" s="17"/>
@@ -7176,16 +9504,12 @@
       <c r="AC102" s="108"/>
       <c r="AD102" s="108"/>
       <c r="AE102" s="108"/>
-      <c r="AG102" s="67"/>
-      <c r="AH102" s="67"/>
-      <c r="AI102" s="67"/>
-      <c r="AJ102" s="67"/>
-    </row>
-    <row r="103" spans="1:36">
+    </row>
+    <row r="103" spans="1:31">
       <c r="A103" s="64"/>
       <c r="B103" s="64"/>
       <c r="C103" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D103" s="17"/>
@@ -7215,16 +9539,12 @@
       <c r="AC103" s="108"/>
       <c r="AD103" s="108"/>
       <c r="AE103" s="108"/>
-      <c r="AG103" s="67"/>
-      <c r="AH103" s="67"/>
-      <c r="AI103" s="67"/>
-      <c r="AJ103" s="67"/>
-    </row>
-    <row r="104" spans="1:36">
+    </row>
+    <row r="104" spans="1:31">
       <c r="A104" s="64"/>
       <c r="B104" s="64"/>
       <c r="C104" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D104" s="17"/>
@@ -7254,16 +9574,12 @@
       <c r="AC104" s="108"/>
       <c r="AD104" s="108"/>
       <c r="AE104" s="108"/>
-      <c r="AG104" s="67"/>
-      <c r="AH104" s="67"/>
-      <c r="AI104" s="67"/>
-      <c r="AJ104" s="67"/>
-    </row>
-    <row r="105" spans="1:36">
+    </row>
+    <row r="105" spans="1:31">
       <c r="A105" s="64"/>
       <c r="B105" s="64"/>
       <c r="C105" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D105" s="17"/>
@@ -7293,16 +9609,12 @@
       <c r="AC105" s="108"/>
       <c r="AD105" s="108"/>
       <c r="AE105" s="108"/>
-      <c r="AG105" s="67"/>
-      <c r="AH105" s="67"/>
-      <c r="AI105" s="67"/>
-      <c r="AJ105" s="67"/>
-    </row>
-    <row r="106" spans="1:36">
+    </row>
+    <row r="106" spans="1:31">
       <c r="A106" s="64"/>
       <c r="B106" s="64"/>
       <c r="C106" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D106" s="17"/>
@@ -7332,16 +9644,12 @@
       <c r="AC106" s="108"/>
       <c r="AD106" s="108"/>
       <c r="AE106" s="108"/>
-      <c r="AG106" s="67"/>
-      <c r="AH106" s="67"/>
-      <c r="AI106" s="67"/>
-      <c r="AJ106" s="67"/>
-    </row>
-    <row r="107" spans="1:36">
+    </row>
+    <row r="107" spans="1:31">
       <c r="A107" s="64"/>
       <c r="B107" s="64"/>
       <c r="C107" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D107" s="17"/>
@@ -7371,16 +9679,12 @@
       <c r="AC107" s="108"/>
       <c r="AD107" s="108"/>
       <c r="AE107" s="108"/>
-      <c r="AG107" s="67"/>
-      <c r="AH107" s="67"/>
-      <c r="AI107" s="67"/>
-      <c r="AJ107" s="67"/>
-    </row>
-    <row r="108" spans="1:36">
+    </row>
+    <row r="108" spans="1:31">
       <c r="A108" s="64"/>
       <c r="B108" s="64"/>
       <c r="C108" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D108" s="17"/>
@@ -7410,16 +9714,12 @@
       <c r="AC108" s="108"/>
       <c r="AD108" s="108"/>
       <c r="AE108" s="108"/>
-      <c r="AG108" s="67"/>
-      <c r="AH108" s="67"/>
-      <c r="AI108" s="67"/>
-      <c r="AJ108" s="67"/>
-    </row>
-    <row r="109" spans="1:36">
+    </row>
+    <row r="109" spans="1:31">
       <c r="A109" s="64"/>
       <c r="B109" s="64"/>
       <c r="C109" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D109" s="17"/>
@@ -7449,16 +9749,12 @@
       <c r="AC109" s="108"/>
       <c r="AD109" s="108"/>
       <c r="AE109" s="108"/>
-      <c r="AG109" s="67"/>
-      <c r="AH109" s="67"/>
-      <c r="AI109" s="67"/>
-      <c r="AJ109" s="67"/>
-    </row>
-    <row r="110" spans="1:36">
+    </row>
+    <row r="110" spans="1:31">
       <c r="A110" s="64"/>
       <c r="B110" s="64"/>
       <c r="C110" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D110" s="17"/>
@@ -7488,16 +9784,12 @@
       <c r="AC110" s="108"/>
       <c r="AD110" s="108"/>
       <c r="AE110" s="108"/>
-      <c r="AG110" s="67"/>
-      <c r="AH110" s="67"/>
-      <c r="AI110" s="67"/>
-      <c r="AJ110" s="67"/>
-    </row>
-    <row r="111" spans="1:36">
+    </row>
+    <row r="111" spans="1:31">
       <c r="A111" s="64"/>
       <c r="B111" s="64"/>
       <c r="C111" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D111" s="17"/>
@@ -7527,16 +9819,12 @@
       <c r="AC111" s="108"/>
       <c r="AD111" s="108"/>
       <c r="AE111" s="108"/>
-      <c r="AG111" s="67"/>
-      <c r="AH111" s="67"/>
-      <c r="AI111" s="67"/>
-      <c r="AJ111" s="67"/>
-    </row>
-    <row r="112" spans="1:36">
+    </row>
+    <row r="112" spans="1:31">
       <c r="A112" s="64"/>
       <c r="B112" s="64"/>
       <c r="C112" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D112" s="17"/>
@@ -7566,16 +9854,12 @@
       <c r="AC112" s="108"/>
       <c r="AD112" s="108"/>
       <c r="AE112" s="108"/>
-      <c r="AG112" s="67"/>
-      <c r="AH112" s="67"/>
-      <c r="AI112" s="67"/>
-      <c r="AJ112" s="67"/>
-    </row>
-    <row r="113" spans="1:36">
+    </row>
+    <row r="113" spans="1:31">
       <c r="A113" s="64"/>
       <c r="B113" s="64"/>
       <c r="C113" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D113" s="17"/>
@@ -7605,16 +9889,12 @@
       <c r="AC113" s="108"/>
       <c r="AD113" s="108"/>
       <c r="AE113" s="108"/>
-      <c r="AG113" s="67"/>
-      <c r="AH113" s="67"/>
-      <c r="AI113" s="67"/>
-      <c r="AJ113" s="67"/>
-    </row>
-    <row r="114" spans="1:36">
+    </row>
+    <row r="114" spans="1:31">
       <c r="A114" s="64"/>
       <c r="B114" s="64"/>
       <c r="C114" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D114" s="17"/>
@@ -7644,16 +9924,12 @@
       <c r="AC114" s="108"/>
       <c r="AD114" s="108"/>
       <c r="AE114" s="108"/>
-      <c r="AG114" s="67"/>
-      <c r="AH114" s="67"/>
-      <c r="AI114" s="67"/>
-      <c r="AJ114" s="67"/>
-    </row>
-    <row r="115" spans="1:36">
+    </row>
+    <row r="115" spans="1:31">
       <c r="A115" s="64"/>
       <c r="B115" s="64"/>
       <c r="C115" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D115" s="17"/>
@@ -7683,16 +9959,12 @@
       <c r="AC115" s="108"/>
       <c r="AD115" s="108"/>
       <c r="AE115" s="108"/>
-      <c r="AG115" s="67"/>
-      <c r="AH115" s="67"/>
-      <c r="AI115" s="67"/>
-      <c r="AJ115" s="67"/>
-    </row>
-    <row r="116" spans="1:36">
+    </row>
+    <row r="116" spans="1:31">
       <c r="A116" s="64"/>
       <c r="B116" s="64"/>
       <c r="C116" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D116" s="17"/>
@@ -7722,16 +9994,12 @@
       <c r="AC116" s="108"/>
       <c r="AD116" s="108"/>
       <c r="AE116" s="108"/>
-      <c r="AG116" s="67"/>
-      <c r="AH116" s="67"/>
-      <c r="AI116" s="67"/>
-      <c r="AJ116" s="67"/>
-    </row>
-    <row r="117" spans="1:36">
+    </row>
+    <row r="117" spans="1:31">
       <c r="A117" s="64"/>
       <c r="B117" s="64"/>
       <c r="C117" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D117" s="17"/>
@@ -7761,16 +10029,12 @@
       <c r="AC117" s="108"/>
       <c r="AD117" s="108"/>
       <c r="AE117" s="108"/>
-      <c r="AG117" s="67"/>
-      <c r="AH117" s="67"/>
-      <c r="AI117" s="67"/>
-      <c r="AJ117" s="67"/>
-    </row>
-    <row r="118" spans="1:36">
+    </row>
+    <row r="118" spans="1:31">
       <c r="A118" s="64"/>
       <c r="B118" s="64"/>
       <c r="C118" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D118" s="17"/>
@@ -7800,16 +10064,12 @@
       <c r="AC118" s="108"/>
       <c r="AD118" s="108"/>
       <c r="AE118" s="108"/>
-      <c r="AG118" s="67"/>
-      <c r="AH118" s="67"/>
-      <c r="AI118" s="67"/>
-      <c r="AJ118" s="67"/>
-    </row>
-    <row r="119" spans="1:36">
+    </row>
+    <row r="119" spans="1:31">
       <c r="A119" s="64"/>
       <c r="B119" s="64"/>
       <c r="C119" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D119" s="17"/>
@@ -7839,16 +10099,12 @@
       <c r="AC119" s="108"/>
       <c r="AD119" s="108"/>
       <c r="AE119" s="108"/>
-      <c r="AG119" s="67"/>
-      <c r="AH119" s="67"/>
-      <c r="AI119" s="67"/>
-      <c r="AJ119" s="67"/>
-    </row>
-    <row r="120" spans="1:36">
+    </row>
+    <row r="120" spans="1:31">
       <c r="A120" s="64"/>
       <c r="B120" s="64"/>
       <c r="C120" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D120" s="17"/>
@@ -7878,16 +10134,12 @@
       <c r="AC120" s="108"/>
       <c r="AD120" s="108"/>
       <c r="AE120" s="108"/>
-      <c r="AG120" s="67"/>
-      <c r="AH120" s="67"/>
-      <c r="AI120" s="67"/>
-      <c r="AJ120" s="67"/>
-    </row>
-    <row r="121" spans="1:36">
+    </row>
+    <row r="121" spans="1:31">
       <c r="A121" s="64"/>
       <c r="B121" s="64"/>
       <c r="C121" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D121" s="17"/>
@@ -7917,16 +10169,12 @@
       <c r="AC121" s="108"/>
       <c r="AD121" s="108"/>
       <c r="AE121" s="108"/>
-      <c r="AG121" s="67"/>
-      <c r="AH121" s="67"/>
-      <c r="AI121" s="67"/>
-      <c r="AJ121" s="67"/>
-    </row>
-    <row r="122" spans="1:36">
+    </row>
+    <row r="122" spans="1:31">
       <c r="A122" s="64"/>
       <c r="B122" s="64"/>
       <c r="C122" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D122" s="17"/>
@@ -7956,16 +10204,12 @@
       <c r="AC122" s="108"/>
       <c r="AD122" s="108"/>
       <c r="AE122" s="108"/>
-      <c r="AG122" s="67"/>
-      <c r="AH122" s="67"/>
-      <c r="AI122" s="67"/>
-      <c r="AJ122" s="67"/>
-    </row>
-    <row r="123" spans="1:36">
+    </row>
+    <row r="123" spans="1:31">
       <c r="A123" s="64"/>
       <c r="B123" s="64"/>
       <c r="C123" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D123" s="17"/>
@@ -7995,16 +10239,12 @@
       <c r="AC123" s="108"/>
       <c r="AD123" s="108"/>
       <c r="AE123" s="108"/>
-      <c r="AG123" s="67"/>
-      <c r="AH123" s="67"/>
-      <c r="AI123" s="67"/>
-      <c r="AJ123" s="67"/>
-    </row>
-    <row r="124" spans="1:36">
+    </row>
+    <row r="124" spans="1:31">
       <c r="A124" s="64"/>
       <c r="B124" s="64"/>
       <c r="C124" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D124" s="17"/>
@@ -8034,16 +10274,12 @@
       <c r="AC124" s="108"/>
       <c r="AD124" s="108"/>
       <c r="AE124" s="108"/>
-      <c r="AG124" s="67"/>
-      <c r="AH124" s="67"/>
-      <c r="AI124" s="67"/>
-      <c r="AJ124" s="67"/>
-    </row>
-    <row r="125" spans="1:36">
+    </row>
+    <row r="125" spans="1:31">
       <c r="A125" s="64"/>
       <c r="B125" s="64"/>
       <c r="C125" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D125" s="17"/>
@@ -8073,16 +10309,12 @@
       <c r="AC125" s="108"/>
       <c r="AD125" s="108"/>
       <c r="AE125" s="108"/>
-      <c r="AG125" s="67"/>
-      <c r="AH125" s="67"/>
-      <c r="AI125" s="67"/>
-      <c r="AJ125" s="67"/>
-    </row>
-    <row r="126" spans="1:36">
+    </row>
+    <row r="126" spans="1:31">
       <c r="A126" s="64"/>
       <c r="B126" s="64"/>
       <c r="C126" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D126" s="17"/>
@@ -8112,16 +10344,12 @@
       <c r="AC126" s="108"/>
       <c r="AD126" s="108"/>
       <c r="AE126" s="108"/>
-      <c r="AG126" s="67"/>
-      <c r="AH126" s="67"/>
-      <c r="AI126" s="67"/>
-      <c r="AJ126" s="67"/>
-    </row>
-    <row r="127" spans="1:36">
+    </row>
+    <row r="127" spans="1:31">
       <c r="A127" s="64"/>
       <c r="B127" s="64"/>
       <c r="C127" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D127" s="17"/>
@@ -8151,16 +10379,12 @@
       <c r="AC127" s="108"/>
       <c r="AD127" s="108"/>
       <c r="AE127" s="108"/>
-      <c r="AG127" s="67"/>
-      <c r="AH127" s="67"/>
-      <c r="AI127" s="67"/>
-      <c r="AJ127" s="67"/>
-    </row>
-    <row r="128" spans="1:36">
+    </row>
+    <row r="128" spans="1:31">
       <c r="A128" s="64"/>
       <c r="B128" s="64"/>
       <c r="C128" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D128" s="17"/>
@@ -8190,16 +10414,12 @@
       <c r="AC128" s="108"/>
       <c r="AD128" s="108"/>
       <c r="AE128" s="108"/>
-      <c r="AG128" s="67"/>
-      <c r="AH128" s="67"/>
-      <c r="AI128" s="67"/>
-      <c r="AJ128" s="67"/>
-    </row>
-    <row r="129" spans="1:36">
+    </row>
+    <row r="129" spans="1:31">
       <c r="A129" s="64"/>
       <c r="B129" s="64"/>
       <c r="C129" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D129" s="17"/>
@@ -8229,16 +10449,12 @@
       <c r="AC129" s="108"/>
       <c r="AD129" s="108"/>
       <c r="AE129" s="108"/>
-      <c r="AG129" s="67"/>
-      <c r="AH129" s="67"/>
-      <c r="AI129" s="67"/>
-      <c r="AJ129" s="67"/>
-    </row>
-    <row r="130" spans="1:36">
+    </row>
+    <row r="130" spans="1:31">
       <c r="A130" s="64"/>
       <c r="B130" s="64"/>
       <c r="C130" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D130" s="17"/>
@@ -8268,16 +10484,12 @@
       <c r="AC130" s="108"/>
       <c r="AD130" s="108"/>
       <c r="AE130" s="108"/>
-      <c r="AG130" s="67"/>
-      <c r="AH130" s="67"/>
-      <c r="AI130" s="67"/>
-      <c r="AJ130" s="67"/>
-    </row>
-    <row r="131" spans="1:36">
+    </row>
+    <row r="131" spans="1:31">
       <c r="A131" s="64"/>
       <c r="B131" s="64"/>
       <c r="C131" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D131" s="17"/>
@@ -8307,16 +10519,12 @@
       <c r="AC131" s="108"/>
       <c r="AD131" s="108"/>
       <c r="AE131" s="108"/>
-      <c r="AG131" s="67"/>
-      <c r="AH131" s="67"/>
-      <c r="AI131" s="67"/>
-      <c r="AJ131" s="67"/>
-    </row>
-    <row r="132" spans="1:36">
+    </row>
+    <row r="132" spans="1:31">
       <c r="A132" s="64"/>
       <c r="B132" s="64"/>
       <c r="C132" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D132" s="17"/>
@@ -8346,16 +10554,12 @@
       <c r="AC132" s="108"/>
       <c r="AD132" s="108"/>
       <c r="AE132" s="108"/>
-      <c r="AG132" s="67"/>
-      <c r="AH132" s="67"/>
-      <c r="AI132" s="67"/>
-      <c r="AJ132" s="67"/>
-    </row>
-    <row r="133" spans="1:36">
+    </row>
+    <row r="133" spans="1:31">
       <c r="A133" s="64"/>
       <c r="B133" s="64"/>
       <c r="C133" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D133" s="17"/>
@@ -8385,16 +10589,12 @@
       <c r="AC133" s="108"/>
       <c r="AD133" s="108"/>
       <c r="AE133" s="108"/>
-      <c r="AG133" s="67"/>
-      <c r="AH133" s="67"/>
-      <c r="AI133" s="67"/>
-      <c r="AJ133" s="67"/>
-    </row>
-    <row r="134" spans="1:36">
+    </row>
+    <row r="134" spans="1:31">
       <c r="A134" s="64"/>
       <c r="B134" s="64"/>
       <c r="C134" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D134" s="17"/>
@@ -8424,16 +10624,12 @@
       <c r="AC134" s="108"/>
       <c r="AD134" s="108"/>
       <c r="AE134" s="108"/>
-      <c r="AG134" s="67"/>
-      <c r="AH134" s="67"/>
-      <c r="AI134" s="67"/>
-      <c r="AJ134" s="67"/>
-    </row>
-    <row r="135" spans="1:36">
+    </row>
+    <row r="135" spans="1:31">
       <c r="A135" s="64"/>
       <c r="B135" s="64"/>
       <c r="C135" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D135" s="17"/>
@@ -8463,16 +10659,12 @@
       <c r="AC135" s="108"/>
       <c r="AD135" s="108"/>
       <c r="AE135" s="108"/>
-      <c r="AG135" s="67"/>
-      <c r="AH135" s="67"/>
-      <c r="AI135" s="67"/>
-      <c r="AJ135" s="67"/>
-    </row>
-    <row r="136" spans="1:36">
+    </row>
+    <row r="136" spans="1:31">
       <c r="A136" s="64"/>
       <c r="B136" s="64"/>
       <c r="C136" s="21" t="str">
-        <f t="shared" ref="C136:C177" si="3">IF(ISBLANK(A136),"","STRC")</f>
+        <f t="shared" ref="C136:C177" si="2">IF(ISBLANK(A136),"","STRC")</f>
         <v/>
       </c>
       <c r="D136" s="17"/>
@@ -8502,16 +10694,12 @@
       <c r="AC136" s="108"/>
       <c r="AD136" s="108"/>
       <c r="AE136" s="108"/>
-      <c r="AG136" s="67"/>
-      <c r="AH136" s="67"/>
-      <c r="AI136" s="67"/>
-      <c r="AJ136" s="67"/>
-    </row>
-    <row r="137" spans="1:36">
+    </row>
+    <row r="137" spans="1:31">
       <c r="A137" s="64"/>
       <c r="B137" s="64"/>
       <c r="C137" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D137" s="17"/>
@@ -8541,16 +10729,12 @@
       <c r="AC137" s="108"/>
       <c r="AD137" s="108"/>
       <c r="AE137" s="108"/>
-      <c r="AG137" s="67"/>
-      <c r="AH137" s="67"/>
-      <c r="AI137" s="67"/>
-      <c r="AJ137" s="67"/>
-    </row>
-    <row r="138" spans="1:36">
+    </row>
+    <row r="138" spans="1:31">
       <c r="A138" s="64"/>
       <c r="B138" s="64"/>
       <c r="C138" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D138" s="17"/>
@@ -8580,16 +10764,12 @@
       <c r="AC138" s="108"/>
       <c r="AD138" s="108"/>
       <c r="AE138" s="108"/>
-      <c r="AG138" s="67"/>
-      <c r="AH138" s="67"/>
-      <c r="AI138" s="67"/>
-      <c r="AJ138" s="67"/>
-    </row>
-    <row r="139" spans="1:36">
+    </row>
+    <row r="139" spans="1:31">
       <c r="A139" s="64"/>
       <c r="B139" s="64"/>
       <c r="C139" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D139" s="17"/>
@@ -8619,16 +10799,12 @@
       <c r="AC139" s="108"/>
       <c r="AD139" s="108"/>
       <c r="AE139" s="108"/>
-      <c r="AG139" s="67"/>
-      <c r="AH139" s="67"/>
-      <c r="AI139" s="67"/>
-      <c r="AJ139" s="67"/>
-    </row>
-    <row r="140" spans="1:36">
+    </row>
+    <row r="140" spans="1:31">
       <c r="A140" s="64"/>
       <c r="B140" s="64"/>
       <c r="C140" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D140" s="17"/>
@@ -8658,16 +10834,12 @@
       <c r="AC140" s="108"/>
       <c r="AD140" s="108"/>
       <c r="AE140" s="108"/>
-      <c r="AG140" s="67"/>
-      <c r="AH140" s="67"/>
-      <c r="AI140" s="67"/>
-      <c r="AJ140" s="67"/>
-    </row>
-    <row r="141" spans="1:36">
+    </row>
+    <row r="141" spans="1:31">
       <c r="A141" s="64"/>
       <c r="B141" s="64"/>
       <c r="C141" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D141" s="17"/>
@@ -8697,16 +10869,12 @@
       <c r="AC141" s="108"/>
       <c r="AD141" s="108"/>
       <c r="AE141" s="108"/>
-      <c r="AG141" s="67"/>
-      <c r="AH141" s="67"/>
-      <c r="AI141" s="67"/>
-      <c r="AJ141" s="67"/>
-    </row>
-    <row r="142" spans="1:36">
+    </row>
+    <row r="142" spans="1:31">
       <c r="A142" s="64"/>
       <c r="B142" s="64"/>
       <c r="C142" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D142" s="17"/>
@@ -8736,16 +10904,12 @@
       <c r="AC142" s="108"/>
       <c r="AD142" s="108"/>
       <c r="AE142" s="108"/>
-      <c r="AG142" s="67"/>
-      <c r="AH142" s="67"/>
-      <c r="AI142" s="67"/>
-      <c r="AJ142" s="67"/>
-    </row>
-    <row r="143" spans="1:36">
+    </row>
+    <row r="143" spans="1:31">
       <c r="A143" s="64"/>
       <c r="B143" s="64"/>
       <c r="C143" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D143" s="17"/>
@@ -8775,16 +10939,12 @@
       <c r="AC143" s="108"/>
       <c r="AD143" s="108"/>
       <c r="AE143" s="108"/>
-      <c r="AG143" s="67"/>
-      <c r="AH143" s="67"/>
-      <c r="AI143" s="67"/>
-      <c r="AJ143" s="67"/>
-    </row>
-    <row r="144" spans="1:36">
+    </row>
+    <row r="144" spans="1:31">
       <c r="A144" s="64"/>
       <c r="B144" s="64"/>
       <c r="C144" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D144" s="17"/>
@@ -8814,16 +10974,12 @@
       <c r="AC144" s="108"/>
       <c r="AD144" s="108"/>
       <c r="AE144" s="108"/>
-      <c r="AG144" s="67"/>
-      <c r="AH144" s="67"/>
-      <c r="AI144" s="67"/>
-      <c r="AJ144" s="67"/>
-    </row>
-    <row r="145" spans="1:36">
+    </row>
+    <row r="145" spans="1:31">
       <c r="A145" s="64"/>
       <c r="B145" s="64"/>
       <c r="C145" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D145" s="17"/>
@@ -8853,16 +11009,12 @@
       <c r="AC145" s="108"/>
       <c r="AD145" s="108"/>
       <c r="AE145" s="108"/>
-      <c r="AG145" s="67"/>
-      <c r="AH145" s="67"/>
-      <c r="AI145" s="67"/>
-      <c r="AJ145" s="67"/>
-    </row>
-    <row r="146" spans="1:36">
+    </row>
+    <row r="146" spans="1:31">
       <c r="A146" s="64"/>
       <c r="B146" s="64"/>
       <c r="C146" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D146" s="17"/>
@@ -8892,16 +11044,12 @@
       <c r="AC146" s="108"/>
       <c r="AD146" s="108"/>
       <c r="AE146" s="108"/>
-      <c r="AG146" s="67"/>
-      <c r="AH146" s="67"/>
-      <c r="AI146" s="67"/>
-      <c r="AJ146" s="67"/>
-    </row>
-    <row r="147" spans="1:36">
+    </row>
+    <row r="147" spans="1:31">
       <c r="A147" s="64"/>
       <c r="B147" s="64"/>
       <c r="C147" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D147" s="17"/>
@@ -8931,16 +11079,12 @@
       <c r="AC147" s="108"/>
       <c r="AD147" s="108"/>
       <c r="AE147" s="108"/>
-      <c r="AG147" s="67"/>
-      <c r="AH147" s="67"/>
-      <c r="AI147" s="67"/>
-      <c r="AJ147" s="67"/>
-    </row>
-    <row r="148" spans="1:36">
+    </row>
+    <row r="148" spans="1:31">
       <c r="A148" s="64"/>
       <c r="B148" s="64"/>
       <c r="C148" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D148" s="17"/>
@@ -8970,16 +11114,12 @@
       <c r="AC148" s="108"/>
       <c r="AD148" s="108"/>
       <c r="AE148" s="108"/>
-      <c r="AG148" s="67"/>
-      <c r="AH148" s="67"/>
-      <c r="AI148" s="67"/>
-      <c r="AJ148" s="67"/>
-    </row>
-    <row r="149" spans="1:36">
+    </row>
+    <row r="149" spans="1:31">
       <c r="A149" s="64"/>
       <c r="B149" s="64"/>
       <c r="C149" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D149" s="17"/>
@@ -9009,16 +11149,12 @@
       <c r="AC149" s="108"/>
       <c r="AD149" s="108"/>
       <c r="AE149" s="108"/>
-      <c r="AG149" s="67"/>
-      <c r="AH149" s="67"/>
-      <c r="AI149" s="67"/>
-      <c r="AJ149" s="67"/>
-    </row>
-    <row r="150" spans="1:36">
+    </row>
+    <row r="150" spans="1:31">
       <c r="A150" s="64"/>
       <c r="B150" s="64"/>
       <c r="C150" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D150" s="17"/>
@@ -9048,16 +11184,12 @@
       <c r="AC150" s="108"/>
       <c r="AD150" s="108"/>
       <c r="AE150" s="108"/>
-      <c r="AG150" s="67"/>
-      <c r="AH150" s="67"/>
-      <c r="AI150" s="67"/>
-      <c r="AJ150" s="67"/>
-    </row>
-    <row r="151" spans="1:36">
+    </row>
+    <row r="151" spans="1:31">
       <c r="A151" s="64"/>
       <c r="B151" s="64"/>
       <c r="C151" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D151" s="17"/>
@@ -9087,16 +11219,12 @@
       <c r="AC151" s="108"/>
       <c r="AD151" s="108"/>
       <c r="AE151" s="108"/>
-      <c r="AG151" s="67"/>
-      <c r="AH151" s="67"/>
-      <c r="AI151" s="67"/>
-      <c r="AJ151" s="67"/>
-    </row>
-    <row r="152" spans="1:36">
+    </row>
+    <row r="152" spans="1:31">
       <c r="A152" s="64"/>
       <c r="B152" s="64"/>
       <c r="C152" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D152" s="17"/>
@@ -9126,16 +11254,12 @@
       <c r="AC152" s="108"/>
       <c r="AD152" s="108"/>
       <c r="AE152" s="108"/>
-      <c r="AG152" s="67"/>
-      <c r="AH152" s="67"/>
-      <c r="AI152" s="67"/>
-      <c r="AJ152" s="67"/>
-    </row>
-    <row r="153" spans="1:36">
+    </row>
+    <row r="153" spans="1:31">
       <c r="A153" s="64"/>
       <c r="B153" s="64"/>
       <c r="C153" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D153" s="17"/>
@@ -9165,16 +11289,12 @@
       <c r="AC153" s="108"/>
       <c r="AD153" s="108"/>
       <c r="AE153" s="108"/>
-      <c r="AG153" s="67"/>
-      <c r="AH153" s="67"/>
-      <c r="AI153" s="67"/>
-      <c r="AJ153" s="67"/>
-    </row>
-    <row r="154" spans="1:36">
+    </row>
+    <row r="154" spans="1:31">
       <c r="A154" s="64"/>
       <c r="B154" s="64"/>
       <c r="C154" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D154" s="17"/>
@@ -9204,16 +11324,12 @@
       <c r="AC154" s="108"/>
       <c r="AD154" s="108"/>
       <c r="AE154" s="108"/>
-      <c r="AG154" s="67"/>
-      <c r="AH154" s="67"/>
-      <c r="AI154" s="67"/>
-      <c r="AJ154" s="67"/>
-    </row>
-    <row r="155" spans="1:36">
+    </row>
+    <row r="155" spans="1:31">
       <c r="A155" s="64"/>
       <c r="B155" s="64"/>
       <c r="C155" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D155" s="17"/>
@@ -9243,16 +11359,12 @@
       <c r="AC155" s="108"/>
       <c r="AD155" s="108"/>
       <c r="AE155" s="108"/>
-      <c r="AG155" s="67"/>
-      <c r="AH155" s="67"/>
-      <c r="AI155" s="67"/>
-      <c r="AJ155" s="67"/>
-    </row>
-    <row r="156" spans="1:36">
+    </row>
+    <row r="156" spans="1:31">
       <c r="A156" s="64"/>
       <c r="B156" s="64"/>
       <c r="C156" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D156" s="17"/>
@@ -9282,16 +11394,12 @@
       <c r="AC156" s="108"/>
       <c r="AD156" s="108"/>
       <c r="AE156" s="108"/>
-      <c r="AG156" s="67"/>
-      <c r="AH156" s="67"/>
-      <c r="AI156" s="67"/>
-      <c r="AJ156" s="67"/>
-    </row>
-    <row r="157" spans="1:36">
+    </row>
+    <row r="157" spans="1:31">
       <c r="A157" s="64"/>
       <c r="B157" s="64"/>
       <c r="C157" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D157" s="17"/>
@@ -9321,16 +11429,12 @@
       <c r="AC157" s="108"/>
       <c r="AD157" s="108"/>
       <c r="AE157" s="108"/>
-      <c r="AG157" s="67"/>
-      <c r="AH157" s="67"/>
-      <c r="AI157" s="67"/>
-      <c r="AJ157" s="67"/>
-    </row>
-    <row r="158" spans="1:36">
+    </row>
+    <row r="158" spans="1:31">
       <c r="A158" s="64"/>
       <c r="B158" s="64"/>
       <c r="C158" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D158" s="17"/>
@@ -9360,16 +11464,12 @@
       <c r="AC158" s="108"/>
       <c r="AD158" s="108"/>
       <c r="AE158" s="108"/>
-      <c r="AG158" s="67"/>
-      <c r="AH158" s="67"/>
-      <c r="AI158" s="67"/>
-      <c r="AJ158" s="67"/>
-    </row>
-    <row r="159" spans="1:36">
+    </row>
+    <row r="159" spans="1:31">
       <c r="A159" s="64"/>
       <c r="B159" s="64"/>
       <c r="C159" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D159" s="17"/>
@@ -9399,16 +11499,12 @@
       <c r="AC159" s="108"/>
       <c r="AD159" s="108"/>
       <c r="AE159" s="108"/>
-      <c r="AG159" s="67"/>
-      <c r="AH159" s="67"/>
-      <c r="AI159" s="67"/>
-      <c r="AJ159" s="67"/>
-    </row>
-    <row r="160" spans="1:36">
+    </row>
+    <row r="160" spans="1:31">
       <c r="A160" s="64"/>
       <c r="B160" s="64"/>
       <c r="C160" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D160" s="17"/>
@@ -9438,16 +11534,12 @@
       <c r="AC160" s="108"/>
       <c r="AD160" s="108"/>
       <c r="AE160" s="108"/>
-      <c r="AG160" s="67"/>
-      <c r="AH160" s="67"/>
-      <c r="AI160" s="67"/>
-      <c r="AJ160" s="67"/>
-    </row>
-    <row r="161" spans="1:36">
+    </row>
+    <row r="161" spans="1:31">
       <c r="A161" s="64"/>
       <c r="B161" s="64"/>
       <c r="C161" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D161" s="17"/>
@@ -9477,16 +11569,12 @@
       <c r="AC161" s="108"/>
       <c r="AD161" s="108"/>
       <c r="AE161" s="108"/>
-      <c r="AG161" s="67"/>
-      <c r="AH161" s="67"/>
-      <c r="AI161" s="67"/>
-      <c r="AJ161" s="67"/>
-    </row>
-    <row r="162" spans="1:36">
+    </row>
+    <row r="162" spans="1:31">
       <c r="A162" s="64"/>
       <c r="B162" s="64"/>
       <c r="C162" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D162" s="17"/>
@@ -9516,16 +11604,12 @@
       <c r="AC162" s="108"/>
       <c r="AD162" s="108"/>
       <c r="AE162" s="108"/>
-      <c r="AG162" s="67"/>
-      <c r="AH162" s="67"/>
-      <c r="AI162" s="67"/>
-      <c r="AJ162" s="67"/>
-    </row>
-    <row r="163" spans="1:36">
+    </row>
+    <row r="163" spans="1:31">
       <c r="A163" s="64"/>
       <c r="B163" s="64"/>
       <c r="C163" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D163" s="17"/>
@@ -9555,16 +11639,12 @@
       <c r="AC163" s="108"/>
       <c r="AD163" s="108"/>
       <c r="AE163" s="108"/>
-      <c r="AG163" s="67"/>
-      <c r="AH163" s="67"/>
-      <c r="AI163" s="67"/>
-      <c r="AJ163" s="67"/>
-    </row>
-    <row r="164" spans="1:36">
+    </row>
+    <row r="164" spans="1:31">
       <c r="A164" s="64"/>
       <c r="B164" s="64"/>
       <c r="C164" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D164" s="17"/>
@@ -9594,16 +11674,12 @@
       <c r="AC164" s="108"/>
       <c r="AD164" s="108"/>
       <c r="AE164" s="108"/>
-      <c r="AG164" s="67"/>
-      <c r="AH164" s="67"/>
-      <c r="AI164" s="67"/>
-      <c r="AJ164" s="67"/>
-    </row>
-    <row r="165" spans="1:36">
+    </row>
+    <row r="165" spans="1:31">
       <c r="A165" s="64"/>
       <c r="B165" s="64"/>
       <c r="C165" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D165" s="17"/>
@@ -9633,16 +11709,12 @@
       <c r="AC165" s="108"/>
       <c r="AD165" s="108"/>
       <c r="AE165" s="108"/>
-      <c r="AG165" s="67"/>
-      <c r="AH165" s="67"/>
-      <c r="AI165" s="67"/>
-      <c r="AJ165" s="67"/>
-    </row>
-    <row r="166" spans="1:36">
+    </row>
+    <row r="166" spans="1:31">
       <c r="A166" s="64"/>
       <c r="B166" s="64"/>
       <c r="C166" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D166" s="17"/>
@@ -9672,16 +11744,12 @@
       <c r="AC166" s="108"/>
       <c r="AD166" s="108"/>
       <c r="AE166" s="108"/>
-      <c r="AG166" s="67"/>
-      <c r="AH166" s="67"/>
-      <c r="AI166" s="67"/>
-      <c r="AJ166" s="67"/>
-    </row>
-    <row r="167" spans="1:36">
+    </row>
+    <row r="167" spans="1:31">
       <c r="A167" s="64"/>
       <c r="B167" s="64"/>
       <c r="C167" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D167" s="17"/>
@@ -9711,16 +11779,12 @@
       <c r="AC167" s="108"/>
       <c r="AD167" s="108"/>
       <c r="AE167" s="108"/>
-      <c r="AG167" s="67"/>
-      <c r="AH167" s="67"/>
-      <c r="AI167" s="67"/>
-      <c r="AJ167" s="67"/>
-    </row>
-    <row r="168" spans="1:36">
+    </row>
+    <row r="168" spans="1:31">
       <c r="A168" s="64"/>
       <c r="B168" s="64"/>
       <c r="C168" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D168" s="17"/>
@@ -9750,16 +11814,12 @@
       <c r="AC168" s="108"/>
       <c r="AD168" s="108"/>
       <c r="AE168" s="108"/>
-      <c r="AG168" s="67"/>
-      <c r="AH168" s="67"/>
-      <c r="AI168" s="67"/>
-      <c r="AJ168" s="67"/>
-    </row>
-    <row r="169" spans="1:36">
+    </row>
+    <row r="169" spans="1:31">
       <c r="A169" s="64"/>
       <c r="B169" s="64"/>
       <c r="C169" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D169" s="17"/>
@@ -9789,16 +11849,12 @@
       <c r="AC169" s="108"/>
       <c r="AD169" s="108"/>
       <c r="AE169" s="108"/>
-      <c r="AG169" s="67"/>
-      <c r="AH169" s="67"/>
-      <c r="AI169" s="67"/>
-      <c r="AJ169" s="67"/>
-    </row>
-    <row r="170" spans="1:36">
+    </row>
+    <row r="170" spans="1:31">
       <c r="A170" s="64"/>
       <c r="B170" s="64"/>
       <c r="C170" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D170" s="17"/>
@@ -9828,16 +11884,12 @@
       <c r="AC170" s="108"/>
       <c r="AD170" s="108"/>
       <c r="AE170" s="108"/>
-      <c r="AG170" s="67"/>
-      <c r="AH170" s="67"/>
-      <c r="AI170" s="67"/>
-      <c r="AJ170" s="67"/>
-    </row>
-    <row r="171" spans="1:36">
+    </row>
+    <row r="171" spans="1:31">
       <c r="A171" s="64"/>
       <c r="B171" s="64"/>
       <c r="C171" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D171" s="17"/>
@@ -9867,16 +11919,12 @@
       <c r="AC171" s="108"/>
       <c r="AD171" s="108"/>
       <c r="AE171" s="108"/>
-      <c r="AG171" s="67"/>
-      <c r="AH171" s="67"/>
-      <c r="AI171" s="67"/>
-      <c r="AJ171" s="67"/>
-    </row>
-    <row r="172" spans="1:36">
+    </row>
+    <row r="172" spans="1:31">
       <c r="A172" s="64"/>
       <c r="B172" s="64"/>
       <c r="C172" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D172" s="17"/>
@@ -9906,16 +11954,12 @@
       <c r="AC172" s="108"/>
       <c r="AD172" s="108"/>
       <c r="AE172" s="108"/>
-      <c r="AG172" s="67"/>
-      <c r="AH172" s="67"/>
-      <c r="AI172" s="67"/>
-      <c r="AJ172" s="67"/>
-    </row>
-    <row r="173" spans="1:36">
+    </row>
+    <row r="173" spans="1:31">
       <c r="A173" s="64"/>
       <c r="B173" s="64"/>
       <c r="C173" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D173" s="17"/>
@@ -9945,16 +11989,12 @@
       <c r="AC173" s="108"/>
       <c r="AD173" s="108"/>
       <c r="AE173" s="108"/>
-      <c r="AG173" s="67"/>
-      <c r="AH173" s="67"/>
-      <c r="AI173" s="67"/>
-      <c r="AJ173" s="67"/>
-    </row>
-    <row r="174" spans="1:36">
+    </row>
+    <row r="174" spans="1:31">
       <c r="A174" s="64"/>
       <c r="B174" s="64"/>
       <c r="C174" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D174" s="17"/>
@@ -9984,16 +12024,12 @@
       <c r="AC174" s="108"/>
       <c r="AD174" s="108"/>
       <c r="AE174" s="108"/>
-      <c r="AG174" s="67"/>
-      <c r="AH174" s="67"/>
-      <c r="AI174" s="67"/>
-      <c r="AJ174" s="67"/>
-    </row>
-    <row r="175" spans="1:36">
+    </row>
+    <row r="175" spans="1:31">
       <c r="A175" s="64"/>
       <c r="B175" s="64"/>
       <c r="C175" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D175" s="17"/>
@@ -10023,16 +12059,12 @@
       <c r="AC175" s="108"/>
       <c r="AD175" s="108"/>
       <c r="AE175" s="108"/>
-      <c r="AG175" s="67"/>
-      <c r="AH175" s="67"/>
-      <c r="AI175" s="67"/>
-      <c r="AJ175" s="67"/>
-    </row>
-    <row r="176" spans="1:36">
+    </row>
+    <row r="176" spans="1:31">
       <c r="A176" s="64"/>
       <c r="B176" s="64"/>
       <c r="C176" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D176" s="17"/>
@@ -10062,16 +12094,12 @@
       <c r="AC176" s="108"/>
       <c r="AD176" s="108"/>
       <c r="AE176" s="108"/>
-      <c r="AG176" s="67"/>
-      <c r="AH176" s="67"/>
-      <c r="AI176" s="67"/>
-      <c r="AJ176" s="67"/>
-    </row>
-    <row r="177" spans="1:36">
+    </row>
+    <row r="177" spans="1:31">
       <c r="A177" s="66"/>
       <c r="B177" s="66"/>
       <c r="C177" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D177" s="22"/>
@@ -10101,13 +12129,9 @@
       <c r="AC177" s="112"/>
       <c r="AD177" s="112"/>
       <c r="AE177" s="112"/>
-      <c r="AG177" s="67"/>
-      <c r="AH177" s="67"/>
-      <c r="AI177" s="67"/>
-      <c r="AJ177" s="67"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="25">
     <mergeCell ref="F2:F7"/>
     <mergeCell ref="G2:G7"/>
     <mergeCell ref="H2:H7"/>
@@ -10127,11 +12151,6 @@
     <mergeCell ref="C2:C7"/>
     <mergeCell ref="D2:D7"/>
     <mergeCell ref="E2:E7"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AG2:AG7"/>
-    <mergeCell ref="AH2:AH7"/>
-    <mergeCell ref="AI2:AI7"/>
-    <mergeCell ref="AJ2:AJ7"/>
     <mergeCell ref="AB1:AE1"/>
     <mergeCell ref="V3:V7"/>
     <mergeCell ref="W3:X7"/>
@@ -10140,134 +12159,67 @@
     <mergeCell ref="S7:U7"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="I1:I14">
-    <cfRule type="expression" dxfId="33" priority="30">
+  <conditionalFormatting sqref="I1:I14 I17:I1048576">
+    <cfRule type="expression" dxfId="24" priority="30">
       <formula>$M1="masses"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="32" priority="70">
+    <cfRule type="expression" dxfId="23" priority="70">
       <formula>$M16="masses"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="31" priority="71">
+    <cfRule type="expression" dxfId="22" priority="71">
       <formula>#REF!="masses"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17:I1048576">
-    <cfRule type="expression" dxfId="30" priority="50">
-      <formula>$M17="masses"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I9:K11">
-    <cfRule type="expression" dxfId="29" priority="33">
-      <formula>$H9="self-weight"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1:X7 I12:X1048576">
-    <cfRule type="expression" dxfId="28" priority="54">
+  <conditionalFormatting sqref="I1:X1048576">
+    <cfRule type="expression" dxfId="21" priority="33">
       <formula>$H1="self-weight"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:X8">
-    <cfRule type="expression" dxfId="27" priority="31">
-      <formula>$H8="self-weight"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L9:X11">
-    <cfRule type="expression" dxfId="26" priority="6">
-      <formula>$H9="self-weight"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:O1048576">
-    <cfRule type="expression" dxfId="25" priority="4">
+  <conditionalFormatting sqref="M1:O1048576 S1:S1048576 V1:V1048576">
+    <cfRule type="expression" dxfId="20" priority="4">
       <formula>$H1="uniform load"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:V1048576">
-    <cfRule type="expression" dxfId="24" priority="5">
+    <cfRule type="expression" dxfId="19" priority="5">
       <formula>$H1="(FE) uniform"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:W7 N12:W1048576">
-    <cfRule type="expression" dxfId="23" priority="56">
+  <conditionalFormatting sqref="N1:W1048576">
+    <cfRule type="expression" dxfId="18" priority="56">
       <formula>$H1="Body forces"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N8:W11">
-    <cfRule type="expression" dxfId="22" priority="7">
-      <formula>$H8="Body forces"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P8:Q177">
-    <cfRule type="expression" dxfId="21" priority="3">
+  <conditionalFormatting sqref="P8:Q177 S8:V177">
+    <cfRule type="expression" dxfId="17" priority="3">
       <formula>IF($H8="(FE) linear load on edges",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1048576 V1:V1048576">
-    <cfRule type="expression" dxfId="20" priority="51">
-      <formula>$H1="uniform load"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S8:V177">
-    <cfRule type="expression" dxfId="19" priority="2">
-      <formula>IF($H8="(FE) linear load on edges",TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:X7 S9:X1048576">
-    <cfRule type="expression" dxfId="18" priority="55">
+  <conditionalFormatting sqref="S1:X1048576">
+    <cfRule type="expression" dxfId="16" priority="55">
       <formula>$H1 ="nodal force"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S8:X8">
-    <cfRule type="expression" dxfId="17" priority="38">
-      <formula>$H8 ="nodal force"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U8:V1048576 U1:V6 V7">
-    <cfRule type="expression" dxfId="16" priority="53">
+  <conditionalFormatting sqref="U1:V6 V7 U8:V1048576">
+    <cfRule type="expression" dxfId="15" priority="53">
       <formula>$H1="trapezoidal load (2p)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X8:X177">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="14" priority="1">
       <formula>$H8="(FE) linear load on edges"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB8:AB1527">
-    <cfRule type="expression" dxfId="14" priority="40">
+    <cfRule type="expression" dxfId="13" priority="40">
       <formula xml:space="preserve"> $H8 &lt;&gt; "(FE) uniform"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH8:AH177">
-    <cfRule type="expression" dxfId="13" priority="49">
-      <formula>AG8=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI8:AI177">
-    <cfRule type="expression" dxfId="12" priority="44">
-      <formula>AG8=FALSE</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="47">
-      <formula>AH8=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="48">
-      <formula>AH8=5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ8:AJ177">
-    <cfRule type="expression" dxfId="9" priority="43">
-      <formula>AG8=FALSE</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="45">
-      <formula>AH8=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="46">
-      <formula>AH8=5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations xWindow="2971" yWindow="996" count="25">
+  <dataValidations disablePrompts="1" xWindow="888" yWindow="1027" count="23">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="(FOR TRAPEZOIDAL LOADS ONLY)_x000a_PX1 - Enter your starting load in the X direction (kN/m)_x000a__x000a_PY1 - Enter your starting load in the Y direction (kN/m)_x000a__x000a_PZ1 - Enter your starting load in the Z direction (kN/m)" sqref="M7:O7" xr:uid="{0812F047-2D89-4B55-9889-103C5F04B3A9}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="(FOR TRAPEZOIDAL LOADS ONLY)_x000a_x2 - Absolute or relative distance of end of load along a member (m or m/L)_x000a__x000a_x1 - Absolute or relative distance of start of load along a member (m or m/L)" sqref="S7:U7" xr:uid="{F09F2104-A059-46D6-BCC5-FCC343EEBF80}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="(FOR TRAPEZOIDAL LOADS ONLY)_x000a_PX2 - Enter your finishing load in the X direction (kN/m)_x000a__x000a_PY2 - Enter your finishing load in the Y direction (kN/m)_x000a__x000a_PZ2 - Enter your finishing load in the Z direction (kN/m)" sqref="J7:L7" xr:uid="{BD3B4E6D-A98B-4332-AA30-12D0CE35A55E}"/>
@@ -10287,9 +12239,6 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the node(s), member(s) or object(s) number which each load case is applied to" sqref="I2:I7" xr:uid="{4DEF82D8-86F0-40DA-812E-504953DDD9A4}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the load type from the drop down menu_x000a__x000a_Currently, the options are:_x000a_(FE) uniform, nodal force, Body forces, member force,  self-weight, trapezoidal (2p), uniform load " sqref="H2:H7" xr:uid="{7796F7F3-8842-4F79-90DB-178EE68FD422}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Please enter the total value of the load that you are applying and a reference for the value._x000a__x000a_This column is just for checking purposes and is not used by any macros." sqref="Z2:Z7" xr:uid="{3052CEC6-9F29-45E3-BABA-3495579514F3}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="AG8" xr:uid="{9BFAEAC5-FB9C-4739-BD8E-4A715AC354FB}">
-      <formula1>"TRUE, FALSE"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X8:X177" xr:uid="{FB2255D8-0987-4095-B267-FB40860E6190}">
       <formula1>"absolute, relative"</formula1>
     </dataValidation>
@@ -10300,9 +12249,6 @@
       <formula1>1</formula1>
       <formula2>150</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI8:AJ177 AG9:AG178" xr:uid="{F3254B08-0E4F-403B-B6B2-3EEA3E54E9AC}">
-      <formula1>"TRUE, FALSE"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H177" xr:uid="{9D4DCB0A-DA72-4061-95F8-D7B3B32E6E79}">
       <formula1>"(FE) uniform, nodal force, Body forces, member force, self-weight, trapezoidal load (2p), uniform load, (FE) linear load on edges"</formula1>
     </dataValidation>
@@ -10311,11 +12257,10 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Lcomb">
     <tabColor rgb="FFFFE699"/>
@@ -10323,7 +12268,7 @@
   <dimension ref="A2:FUC476"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="G39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="AE13" sqref="AE13"/>
       <selection pane="topRight" activeCell="AE13" sqref="AE13"/>
       <selection pane="bottomLeft" activeCell="AE13" sqref="AE13"/>
@@ -15342,12 +17287,12 @@
       <c r="A4" s="3"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="208" t="s">
+      <c r="D4" s="211" t="s">
         <v>144</v>
       </c>
-      <c r="E4" s="209"/>
-      <c r="F4" s="209"/>
-      <c r="G4" s="209"/>
+      <c r="E4" s="212"/>
+      <c r="F4" s="212"/>
+      <c r="G4" s="212"/>
       <c r="H4" s="132">
         <v>1</v>
       </c>
@@ -19955,10 +21900,10 @@
       <c r="A5" s="33"/>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
-      <c r="D5" s="210"/>
-      <c r="E5" s="211"/>
-      <c r="F5" s="211"/>
-      <c r="G5" s="211"/>
+      <c r="D5" s="213"/>
+      <c r="E5" s="214"/>
+      <c r="F5" s="214"/>
+      <c r="G5" s="214"/>
       <c r="H5" s="132"/>
       <c r="I5" s="132"/>
       <c r="J5" s="132"/>
@@ -30797,23 +32742,23 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="E7:E476">
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="12" priority="5">
       <formula>D7=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F476">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="11" priority="3">
       <formula>E7=-4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="10" priority="4">
       <formula>E7=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G476">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>E7=-4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>E7=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30868,7 +32813,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9717C71B-B72B-41C1-A0B7-D1D2582CE7B0}">
   <sheetPr codeName="ScreenCapture">
     <tabColor rgb="FFFFE699"/>
@@ -30957,75 +32902,75 @@
       <c r="D3" s="46"/>
       <c r="E3" s="51"/>
       <c r="F3" s="75"/>
-      <c r="G3" s="213" t="s">
+      <c r="G3" s="216" t="s">
         <v>90</v>
       </c>
-      <c r="H3" s="213"/>
-      <c r="I3" s="213"/>
-      <c r="J3" s="213"/>
-      <c r="K3" s="213"/>
-      <c r="L3" s="213"/>
-      <c r="M3" s="213"/>
-      <c r="N3" s="213"/>
-      <c r="O3" s="214"/>
-      <c r="P3" s="215" t="s">
+      <c r="H3" s="216"/>
+      <c r="I3" s="216"/>
+      <c r="J3" s="216"/>
+      <c r="K3" s="216"/>
+      <c r="L3" s="216"/>
+      <c r="M3" s="216"/>
+      <c r="N3" s="216"/>
+      <c r="O3" s="217"/>
+      <c r="P3" s="218" t="s">
         <v>89</v>
       </c>
-      <c r="Q3" s="213"/>
-      <c r="R3" s="213"/>
-      <c r="S3" s="213"/>
-      <c r="T3" s="213"/>
-      <c r="U3" s="213"/>
-      <c r="V3" s="213"/>
-      <c r="W3" s="214"/>
-      <c r="X3" s="215" t="s">
+      <c r="Q3" s="216"/>
+      <c r="R3" s="216"/>
+      <c r="S3" s="216"/>
+      <c r="T3" s="216"/>
+      <c r="U3" s="216"/>
+      <c r="V3" s="216"/>
+      <c r="W3" s="217"/>
+      <c r="X3" s="218" t="s">
         <v>88</v>
       </c>
-      <c r="Y3" s="213"/>
-      <c r="Z3" s="214"/>
-      <c r="AA3" s="213" t="s">
+      <c r="Y3" s="216"/>
+      <c r="Z3" s="217"/>
+      <c r="AA3" s="216" t="s">
         <v>87</v>
       </c>
-      <c r="AB3" s="213"/>
-      <c r="AC3" s="216" t="s">
+      <c r="AB3" s="216"/>
+      <c r="AC3" s="219" t="s">
         <v>86</v>
       </c>
-      <c r="AD3" s="217"/>
-      <c r="AE3" s="218"/>
+      <c r="AD3" s="220"/>
+      <c r="AE3" s="221"/>
       <c r="AF3" s="144" t="s">
         <v>85</v>
       </c>
-      <c r="AG3" s="215" t="s">
+      <c r="AG3" s="218" t="s">
         <v>189</v>
       </c>
-      <c r="AH3" s="213"/>
-      <c r="AI3" s="213"/>
-      <c r="AJ3" s="213"/>
-      <c r="AK3" s="213"/>
-      <c r="AL3" s="213"/>
-      <c r="AM3" s="213"/>
-      <c r="AN3" s="214"/>
-      <c r="AO3" s="215" t="s">
+      <c r="AH3" s="216"/>
+      <c r="AI3" s="216"/>
+      <c r="AJ3" s="216"/>
+      <c r="AK3" s="216"/>
+      <c r="AL3" s="216"/>
+      <c r="AM3" s="216"/>
+      <c r="AN3" s="217"/>
+      <c r="AO3" s="218" t="s">
         <v>202</v>
       </c>
-      <c r="AP3" s="213"/>
-      <c r="AQ3" s="213"/>
-      <c r="AR3" s="213"/>
-      <c r="AS3" s="213"/>
-      <c r="AT3" s="213"/>
-      <c r="AU3" s="213"/>
-      <c r="AV3" s="215" t="s">
+      <c r="AP3" s="216"/>
+      <c r="AQ3" s="216"/>
+      <c r="AR3" s="216"/>
+      <c r="AS3" s="216"/>
+      <c r="AT3" s="216"/>
+      <c r="AU3" s="216"/>
+      <c r="AV3" s="218" t="s">
         <v>196</v>
       </c>
-      <c r="AW3" s="213"/>
-      <c r="AX3" s="213"/>
-      <c r="AY3" s="213"/>
-      <c r="AZ3" s="213"/>
-      <c r="BA3" s="212" t="s">
+      <c r="AW3" s="216"/>
+      <c r="AX3" s="216"/>
+      <c r="AY3" s="216"/>
+      <c r="AZ3" s="216"/>
+      <c r="BA3" s="215" t="s">
         <v>204</v>
       </c>
-      <c r="BB3" s="212"/>
-      <c r="BC3" s="212"/>
+      <c r="BB3" s="215"/>
+      <c r="BC3" s="215"/>
     </row>
     <row r="4" spans="1:55" ht="111" customHeight="1">
       <c r="A4" s="42" t="s">
@@ -35301,7 +37246,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7978FCCC-122F-42B2-9CF7-42C0A8BFC66E}">
   <sheetPr codeName="LaTeXCode">
     <tabColor theme="1" tint="0.499984740745262"/>
@@ -35915,7 +37860,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C437AE8D-88C1-45DF-92A0-9BEE619D6FB2}">
   <sheetPr codeName="LaTeXLcombApp">
     <tabColor theme="1" tint="0.499984740745262"/>
@@ -40694,12 +42639,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:C1 B72:C1048576">
-    <cfRule type="containsText" dxfId="1" priority="9" operator="containsText" text="&amp;">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="&amp;">
       <formula>NOT(ISERROR(SEARCH("&amp;",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:D71">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&amp;">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="&amp;">
       <formula>NOT(ISERROR(SEARCH("&amp;",B2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/pyMaster_loads_tool.xlsx
+++ b/pyMaster_loads_tool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://atlec-my.sharepoint.com/personal/mwo_woodthilsted_com/Documents/Professional/5_PYTHON/pyMasterLoadsTool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="243" documentId="8_{72F070D9-512B-4F07-9F0A-8944200F0521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{808E4986-9671-4F24-ADAF-EEBC027701CA}"/>
+  <xr:revisionPtr revIDLastSave="264" documentId="8_{72F070D9-512B-4F07-9F0A-8944200F0521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC89B06E-8569-4181-B555-D530EBB610D5}"/>
   <bookViews>
-    <workbookView xWindow="12690" yWindow="1485" windowWidth="23130" windowHeight="18465" tabRatio="858" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="858" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Load case definition" sheetId="23" r:id="rId1"/>
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="245">
   <si>
     <t>Combinations</t>
   </si>
@@ -901,9 +901,6 @@
     <t>e</t>
   </si>
   <si>
-    <t>(FE) linear load on edges</t>
-  </si>
-  <si>
     <t>Grating self-weight</t>
   </si>
   <si>
@@ -967,22 +964,13 @@
     <t>Stale</t>
   </si>
   <si>
-    <t>Zmienne</t>
+    <t>uniform load</t>
   </si>
   <si>
-    <t>Snieg</t>
+    <t>1</t>
   </si>
   <si>
-    <t>Wiatr</t>
-  </si>
-  <si>
-    <t>Temperatura</t>
-  </si>
-  <si>
-    <t>Wyjatkowe</t>
-  </si>
-  <si>
-    <t>Sejsmika</t>
+    <t>absolute</t>
   </si>
 </sst>
 </file>
@@ -1501,7 +1489,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="222">
+  <cellXfs count="221">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1869,10 +1857,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2090,49 +2074,7 @@
     <cellStyle name="Normal 4" xfId="2" xr:uid="{2CB16C5A-DE81-42D5-8739-3682DB154D1A}"/>
     <cellStyle name="Normal 5" xfId="4" xr:uid="{CCBAA879-375D-4F13-BE91-6FA748BD1E7E}"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2270,6 +2212,27 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFCBE0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6E0B4"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3093,8 +3056,8 @@
   </sheetPr>
   <dimension ref="A1:M177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3102,127 +3065,127 @@
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" hidden="1" customWidth="1"/>
     <col min="5" max="8" width="13.140625" style="19" customWidth="1"/>
     <col min="12" max="12" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="158" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="161" t="s">
+      <c r="B1" s="160" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="161" t="s">
+      <c r="C1" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="163" t="s">
+      <c r="E1" s="162" t="s">
         <v>144</v>
       </c>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="165"/>
-      <c r="L1" s="156" t="s">
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="164"/>
+      <c r="L1" s="155" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="12.95" customHeight="1">
+      <c r="A2" s="158"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="E2" s="159" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="159" t="s">
+        <v>143</v>
+      </c>
+      <c r="G2" s="159" t="s">
+        <v>134</v>
+      </c>
+      <c r="H2" s="159" t="s">
+        <v>135</v>
+      </c>
+      <c r="K2" s="155" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="12.95" customHeight="1">
-      <c r="A2" s="159"/>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="E2" s="160" t="s">
-        <v>142</v>
-      </c>
-      <c r="F2" s="160" t="s">
-        <v>143</v>
-      </c>
-      <c r="G2" s="160" t="s">
-        <v>134</v>
-      </c>
-      <c r="H2" s="160" t="s">
-        <v>135</v>
-      </c>
-      <c r="K2" s="156" t="s">
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="158"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="K3" s="155" t="s">
         <v>231</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="159"/>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166"/>
-      <c r="K3" s="156" t="s">
-        <v>232</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="159"/>
-      <c r="B4" s="161"/>
-      <c r="C4" s="161"/>
-      <c r="E4" s="166"/>
-      <c r="F4" s="166"/>
-      <c r="G4" s="166"/>
-      <c r="H4" s="166"/>
-      <c r="K4" s="156" t="s">
-        <v>234</v>
+      <c r="A4" s="158"/>
+      <c r="B4" s="160"/>
+      <c r="C4" s="160"/>
+      <c r="E4" s="165"/>
+      <c r="F4" s="165"/>
+      <c r="G4" s="165"/>
+      <c r="H4" s="165"/>
+      <c r="K4" s="155" t="s">
+        <v>233</v>
       </c>
       <c r="L4">
         <v>2</v>
       </c>
       <c r="M4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="159"/>
-      <c r="B5" s="161"/>
-      <c r="C5" s="161"/>
-      <c r="E5" s="166"/>
-      <c r="F5" s="166"/>
-      <c r="G5" s="166"/>
-      <c r="H5" s="166"/>
-      <c r="K5" s="156" t="s">
-        <v>233</v>
+      <c r="A5" s="158"/>
+      <c r="B5" s="160"/>
+      <c r="C5" s="160"/>
+      <c r="E5" s="165"/>
+      <c r="F5" s="165"/>
+      <c r="G5" s="165"/>
+      <c r="H5" s="165"/>
+      <c r="K5" s="155" t="s">
+        <v>232</v>
       </c>
       <c r="L5">
         <v>3</v>
       </c>
       <c r="M5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="160"/>
-      <c r="B6" s="162"/>
-      <c r="C6" s="162"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
-      <c r="G6" s="167"/>
-      <c r="H6" s="167"/>
-      <c r="K6" s="156" t="s">
-        <v>235</v>
+      <c r="A6" s="159"/>
+      <c r="B6" s="161"/>
+      <c r="C6" s="161"/>
+      <c r="E6" s="166"/>
+      <c r="F6" s="166"/>
+      <c r="G6" s="166"/>
+      <c r="H6" s="166"/>
+      <c r="K6" s="155" t="s">
+        <v>234</v>
       </c>
       <c r="L6">
         <v>4</v>
       </c>
       <c r="M6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -3230,10 +3193,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D7">
         <f>VLOOKUP(C7,$K$2:$L$8,2,FALSE)</f>
@@ -3242,215 +3205,161 @@
       <c r="E7" s="67">
         <v>0</v>
       </c>
-      <c r="F7" s="157">
+      <c r="F7" s="156">
         <v>1</v>
       </c>
       <c r="G7" s="67">
         <v>0</v>
       </c>
-      <c r="H7" s="158">
-        <v>0</v>
-      </c>
-      <c r="K7" s="156" t="s">
-        <v>236</v>
+      <c r="H7" s="157">
+        <v>0</v>
+      </c>
+      <c r="K7" s="155" t="s">
+        <v>235</v>
       </c>
       <c r="L7">
         <v>5</v>
       </c>
       <c r="M7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C8" t="s">
-        <v>232</v>
-      </c>
-      <c r="D8">
+      <c r="D8" t="e">
         <f t="shared" ref="D8:D13" si="0">VLOOKUP(C8,$K$2:$L$8,2,FALSE)</f>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="E8" s="67">
         <v>1</v>
       </c>
-      <c r="F8" s="158">
+      <c r="F8" s="157">
         <v>2</v>
       </c>
       <c r="G8" s="67">
         <v>0</v>
       </c>
-      <c r="H8" s="158">
-        <v>0</v>
-      </c>
-      <c r="K8" s="156" t="s">
-        <v>237</v>
+      <c r="H8" s="157">
+        <v>0</v>
+      </c>
+      <c r="K8" s="155" t="s">
+        <v>236</v>
       </c>
       <c r="L8">
         <v>6</v>
       </c>
       <c r="M8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>244</v>
-      </c>
-      <c r="C9" t="s">
-        <v>233</v>
-      </c>
-      <c r="D9">
+      <c r="D9" t="e">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E9" s="67">
         <v>0</v>
       </c>
-      <c r="F9" s="158">
+      <c r="F9" s="157">
         <v>1</v>
       </c>
       <c r="G9" s="67">
         <v>0</v>
       </c>
-      <c r="H9" s="158">
+      <c r="H9" s="157">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>245</v>
-      </c>
-      <c r="C10" t="s">
-        <v>234</v>
-      </c>
-      <c r="D10">
+      <c r="D10" t="e">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>#N/A</v>
       </c>
       <c r="E10" s="67">
         <v>1</v>
       </c>
-      <c r="F10" s="158">
+      <c r="F10" s="157">
         <v>2</v>
       </c>
       <c r="G10" s="67">
         <v>0</v>
       </c>
-      <c r="H10" s="158">
+      <c r="H10" s="157">
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>246</v>
-      </c>
-      <c r="C11" t="s">
-        <v>235</v>
-      </c>
-      <c r="D11">
+      <c r="D11" t="e">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>#N/A</v>
       </c>
       <c r="E11" s="67">
         <v>0</v>
       </c>
-      <c r="F11" s="158">
+      <c r="F11" s="157">
         <v>1</v>
       </c>
       <c r="G11" s="67">
         <v>0</v>
       </c>
-      <c r="H11" s="158">
+      <c r="H11" s="157">
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L11">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>247</v>
-      </c>
-      <c r="C12" t="s">
-        <v>236</v>
-      </c>
-      <c r="D12">
+      <c r="D12" t="e">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E12" s="67">
         <v>0</v>
       </c>
-      <c r="F12" s="158">
+      <c r="F12" s="157">
         <v>1</v>
       </c>
       <c r="G12" s="67">
         <v>0</v>
       </c>
-      <c r="H12" s="158">
+      <c r="H12" s="157">
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L12">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>248</v>
-      </c>
-      <c r="C13" t="s">
-        <v>237</v>
-      </c>
-      <c r="D13">
+      <c r="D13" t="e">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>#N/A</v>
       </c>
       <c r="E13" s="67">
         <v>0</v>
       </c>
-      <c r="F13" s="158">
+      <c r="F13" s="157">
         <v>1</v>
       </c>
       <c r="G13" s="67">
         <v>0</v>
       </c>
-      <c r="H13" s="158">
+      <c r="H13" s="157">
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L13">
         <v>2</v>
@@ -3460,13 +3369,13 @@
       <c r="E14" s="67">
         <v>0</v>
       </c>
-      <c r="F14" s="158">
+      <c r="F14" s="157">
         <v>1</v>
       </c>
       <c r="G14" s="67">
         <v>0</v>
       </c>
-      <c r="H14" s="158">
+      <c r="H14" s="157">
         <v>0</v>
       </c>
     </row>
@@ -3474,13 +3383,13 @@
       <c r="E15" s="67">
         <v>0</v>
       </c>
-      <c r="F15" s="158">
+      <c r="F15" s="157">
         <v>1</v>
       </c>
       <c r="G15" s="67">
         <v>0</v>
       </c>
-      <c r="H15" s="158">
+      <c r="H15" s="157">
         <v>0</v>
       </c>
       <c r="K15" t="b">
@@ -3494,13 +3403,13 @@
       <c r="E16" s="67">
         <v>0</v>
       </c>
-      <c r="F16" s="158">
+      <c r="F16" s="157">
         <v>1</v>
       </c>
       <c r="G16" s="67">
         <v>0</v>
       </c>
-      <c r="H16" s="158">
+      <c r="H16" s="157">
         <v>0</v>
       </c>
       <c r="K16" t="b">
@@ -3514,13 +3423,13 @@
       <c r="E17" s="67">
         <v>0</v>
       </c>
-      <c r="F17" s="158">
+      <c r="F17" s="157">
         <v>1</v>
       </c>
       <c r="G17" s="67">
         <v>0</v>
       </c>
-      <c r="H17" s="158">
+      <c r="H17" s="157">
         <v>0</v>
       </c>
     </row>
@@ -3528,13 +3437,13 @@
       <c r="E18" s="67">
         <v>0</v>
       </c>
-      <c r="F18" s="158">
+      <c r="F18" s="157">
         <v>1</v>
       </c>
       <c r="G18" s="67">
         <v>0</v>
       </c>
-      <c r="H18" s="158">
+      <c r="H18" s="157">
         <v>0</v>
       </c>
     </row>
@@ -3542,13 +3451,13 @@
       <c r="E19" s="67">
         <v>0</v>
       </c>
-      <c r="F19" s="158">
+      <c r="F19" s="157">
         <v>1</v>
       </c>
       <c r="G19" s="67">
         <v>0</v>
       </c>
-      <c r="H19" s="158">
+      <c r="H19" s="157">
         <v>0</v>
       </c>
     </row>
@@ -3556,13 +3465,13 @@
       <c r="E20" s="67">
         <v>0</v>
       </c>
-      <c r="F20" s="158">
+      <c r="F20" s="157">
         <v>1</v>
       </c>
       <c r="G20" s="67">
         <v>0</v>
       </c>
-      <c r="H20" s="158">
+      <c r="H20" s="157">
         <v>0</v>
       </c>
     </row>
@@ -3570,13 +3479,13 @@
       <c r="E21" s="67">
         <v>0</v>
       </c>
-      <c r="F21" s="158">
+      <c r="F21" s="157">
         <v>1</v>
       </c>
       <c r="G21" s="67">
         <v>0</v>
       </c>
-      <c r="H21" s="158">
+      <c r="H21" s="157">
         <v>0</v>
       </c>
     </row>
@@ -3584,13 +3493,13 @@
       <c r="E22" s="67">
         <v>0</v>
       </c>
-      <c r="F22" s="158">
+      <c r="F22" s="157">
         <v>1</v>
       </c>
       <c r="G22" s="67">
         <v>0</v>
       </c>
-      <c r="H22" s="158">
+      <c r="H22" s="157">
         <v>0</v>
       </c>
     </row>
@@ -3598,13 +3507,13 @@
       <c r="E23" s="67">
         <v>0</v>
       </c>
-      <c r="F23" s="158">
+      <c r="F23" s="157">
         <v>1</v>
       </c>
       <c r="G23" s="67">
         <v>0</v>
       </c>
-      <c r="H23" s="158">
+      <c r="H23" s="157">
         <v>0</v>
       </c>
     </row>
@@ -3612,13 +3521,13 @@
       <c r="E24" s="67">
         <v>0</v>
       </c>
-      <c r="F24" s="158">
+      <c r="F24" s="157">
         <v>1</v>
       </c>
       <c r="G24" s="67">
         <v>0</v>
       </c>
-      <c r="H24" s="158">
+      <c r="H24" s="157">
         <v>0</v>
       </c>
     </row>
@@ -3626,13 +3535,13 @@
       <c r="E25" s="67">
         <v>0</v>
       </c>
-      <c r="F25" s="158">
+      <c r="F25" s="157">
         <v>1</v>
       </c>
       <c r="G25" s="67">
         <v>0</v>
       </c>
-      <c r="H25" s="158">
+      <c r="H25" s="157">
         <v>0</v>
       </c>
     </row>
@@ -3640,13 +3549,13 @@
       <c r="E26" s="67">
         <v>0</v>
       </c>
-      <c r="F26" s="158">
+      <c r="F26" s="157">
         <v>1</v>
       </c>
       <c r="G26" s="67">
         <v>0</v>
       </c>
-      <c r="H26" s="158">
+      <c r="H26" s="157">
         <v>0</v>
       </c>
     </row>
@@ -3654,13 +3563,13 @@
       <c r="E27" s="67">
         <v>0</v>
       </c>
-      <c r="F27" s="158">
+      <c r="F27" s="157">
         <v>1</v>
       </c>
       <c r="G27" s="67">
         <v>0</v>
       </c>
-      <c r="H27" s="158">
+      <c r="H27" s="157">
         <v>0</v>
       </c>
     </row>
@@ -3668,13 +3577,13 @@
       <c r="E28" s="67">
         <v>0</v>
       </c>
-      <c r="F28" s="158">
+      <c r="F28" s="157">
         <v>1</v>
       </c>
       <c r="G28" s="67">
         <v>0</v>
       </c>
-      <c r="H28" s="158">
+      <c r="H28" s="157">
         <v>0</v>
       </c>
     </row>
@@ -3682,13 +3591,13 @@
       <c r="E29" s="67">
         <v>0</v>
       </c>
-      <c r="F29" s="158">
+      <c r="F29" s="157">
         <v>1</v>
       </c>
       <c r="G29" s="67">
         <v>0</v>
       </c>
-      <c r="H29" s="158">
+      <c r="H29" s="157">
         <v>0</v>
       </c>
     </row>
@@ -3696,13 +3605,13 @@
       <c r="E30" s="67">
         <v>0</v>
       </c>
-      <c r="F30" s="158">
+      <c r="F30" s="157">
         <v>1</v>
       </c>
       <c r="G30" s="67">
         <v>0</v>
       </c>
-      <c r="H30" s="158">
+      <c r="H30" s="157">
         <v>0</v>
       </c>
     </row>
@@ -3710,13 +3619,13 @@
       <c r="E31" s="67">
         <v>0</v>
       </c>
-      <c r="F31" s="158">
+      <c r="F31" s="157">
         <v>1</v>
       </c>
       <c r="G31" s="67">
         <v>0</v>
       </c>
-      <c r="H31" s="158">
+      <c r="H31" s="157">
         <v>0</v>
       </c>
     </row>
@@ -3724,13 +3633,13 @@
       <c r="E32" s="67">
         <v>0</v>
       </c>
-      <c r="F32" s="158">
+      <c r="F32" s="157">
         <v>1</v>
       </c>
       <c r="G32" s="67">
         <v>0</v>
       </c>
-      <c r="H32" s="158">
+      <c r="H32" s="157">
         <v>0</v>
       </c>
     </row>
@@ -3738,13 +3647,13 @@
       <c r="E33" s="67">
         <v>0</v>
       </c>
-      <c r="F33" s="158">
+      <c r="F33" s="157">
         <v>1</v>
       </c>
       <c r="G33" s="67">
         <v>0</v>
       </c>
-      <c r="H33" s="158">
+      <c r="H33" s="157">
         <v>0</v>
       </c>
     </row>
@@ -3752,13 +3661,13 @@
       <c r="E34" s="67">
         <v>0</v>
       </c>
-      <c r="F34" s="158">
+      <c r="F34" s="157">
         <v>1</v>
       </c>
       <c r="G34" s="67">
         <v>0</v>
       </c>
-      <c r="H34" s="158">
+      <c r="H34" s="157">
         <v>0</v>
       </c>
     </row>
@@ -3766,13 +3675,13 @@
       <c r="E35" s="67">
         <v>0</v>
       </c>
-      <c r="F35" s="158">
+      <c r="F35" s="157">
         <v>1</v>
       </c>
       <c r="G35" s="67">
         <v>0</v>
       </c>
-      <c r="H35" s="158">
+      <c r="H35" s="157">
         <v>0</v>
       </c>
     </row>
@@ -3780,13 +3689,13 @@
       <c r="E36" s="67">
         <v>0</v>
       </c>
-      <c r="F36" s="158">
+      <c r="F36" s="157">
         <v>1</v>
       </c>
       <c r="G36" s="67">
         <v>0</v>
       </c>
-      <c r="H36" s="158">
+      <c r="H36" s="157">
         <v>0</v>
       </c>
     </row>
@@ -3794,13 +3703,13 @@
       <c r="E37" s="67">
         <v>0</v>
       </c>
-      <c r="F37" s="158">
+      <c r="F37" s="157">
         <v>1</v>
       </c>
       <c r="G37" s="67">
         <v>0</v>
       </c>
-      <c r="H37" s="158">
+      <c r="H37" s="157">
         <v>0</v>
       </c>
     </row>
@@ -3808,13 +3717,13 @@
       <c r="E38" s="67">
         <v>0</v>
       </c>
-      <c r="F38" s="158">
+      <c r="F38" s="157">
         <v>1</v>
       </c>
       <c r="G38" s="67">
         <v>0</v>
       </c>
-      <c r="H38" s="158">
+      <c r="H38" s="157">
         <v>0</v>
       </c>
     </row>
@@ -3822,13 +3731,13 @@
       <c r="E39" s="67">
         <v>0</v>
       </c>
-      <c r="F39" s="158">
+      <c r="F39" s="157">
         <v>1</v>
       </c>
       <c r="G39" s="67">
         <v>0</v>
       </c>
-      <c r="H39" s="158">
+      <c r="H39" s="157">
         <v>0</v>
       </c>
     </row>
@@ -3836,13 +3745,13 @@
       <c r="E40" s="67">
         <v>0</v>
       </c>
-      <c r="F40" s="158">
+      <c r="F40" s="157">
         <v>1</v>
       </c>
       <c r="G40" s="67">
         <v>0</v>
       </c>
-      <c r="H40" s="158">
+      <c r="H40" s="157">
         <v>0</v>
       </c>
     </row>
@@ -3850,13 +3759,13 @@
       <c r="E41" s="67">
         <v>0</v>
       </c>
-      <c r="F41" s="158">
+      <c r="F41" s="157">
         <v>1</v>
       </c>
       <c r="G41" s="67">
         <v>0</v>
       </c>
-      <c r="H41" s="158">
+      <c r="H41" s="157">
         <v>0</v>
       </c>
     </row>
@@ -3864,13 +3773,13 @@
       <c r="E42" s="67">
         <v>0</v>
       </c>
-      <c r="F42" s="158">
+      <c r="F42" s="157">
         <v>1</v>
       </c>
       <c r="G42" s="67">
         <v>0</v>
       </c>
-      <c r="H42" s="158">
+      <c r="H42" s="157">
         <v>0</v>
       </c>
     </row>
@@ -3878,13 +3787,13 @@
       <c r="E43" s="67">
         <v>0</v>
       </c>
-      <c r="F43" s="158">
+      <c r="F43" s="157">
         <v>1</v>
       </c>
       <c r="G43" s="67">
         <v>0</v>
       </c>
-      <c r="H43" s="158">
+      <c r="H43" s="157">
         <v>0</v>
       </c>
     </row>
@@ -3892,13 +3801,13 @@
       <c r="E44" s="67">
         <v>0</v>
       </c>
-      <c r="F44" s="158">
+      <c r="F44" s="157">
         <v>1</v>
       </c>
       <c r="G44" s="67">
         <v>0</v>
       </c>
-      <c r="H44" s="158">
+      <c r="H44" s="157">
         <v>0</v>
       </c>
     </row>
@@ -3906,13 +3815,13 @@
       <c r="E45" s="67">
         <v>0</v>
       </c>
-      <c r="F45" s="158">
+      <c r="F45" s="157">
         <v>1</v>
       </c>
       <c r="G45" s="67">
         <v>0</v>
       </c>
-      <c r="H45" s="158">
+      <c r="H45" s="157">
         <v>0</v>
       </c>
     </row>
@@ -3920,13 +3829,13 @@
       <c r="E46" s="67">
         <v>0</v>
       </c>
-      <c r="F46" s="158">
+      <c r="F46" s="157">
         <v>1</v>
       </c>
       <c r="G46" s="67">
         <v>0</v>
       </c>
-      <c r="H46" s="158">
+      <c r="H46" s="157">
         <v>0</v>
       </c>
     </row>
@@ -3934,13 +3843,13 @@
       <c r="E47" s="67">
         <v>0</v>
       </c>
-      <c r="F47" s="158">
+      <c r="F47" s="157">
         <v>1</v>
       </c>
       <c r="G47" s="67">
         <v>0</v>
       </c>
-      <c r="H47" s="158">
+      <c r="H47" s="157">
         <v>0</v>
       </c>
     </row>
@@ -3948,13 +3857,13 @@
       <c r="E48" s="67">
         <v>0</v>
       </c>
-      <c r="F48" s="158">
+      <c r="F48" s="157">
         <v>1</v>
       </c>
       <c r="G48" s="67">
         <v>0</v>
       </c>
-      <c r="H48" s="158">
+      <c r="H48" s="157">
         <v>0</v>
       </c>
     </row>
@@ -3962,13 +3871,13 @@
       <c r="E49" s="67">
         <v>0</v>
       </c>
-      <c r="F49" s="158">
+      <c r="F49" s="157">
         <v>1</v>
       </c>
       <c r="G49" s="67">
         <v>0</v>
       </c>
-      <c r="H49" s="158">
+      <c r="H49" s="157">
         <v>0</v>
       </c>
     </row>
@@ -3976,13 +3885,13 @@
       <c r="E50" s="67">
         <v>0</v>
       </c>
-      <c r="F50" s="158">
+      <c r="F50" s="157">
         <v>1</v>
       </c>
       <c r="G50" s="67">
         <v>0</v>
       </c>
-      <c r="H50" s="158">
+      <c r="H50" s="157">
         <v>0</v>
       </c>
     </row>
@@ -3990,13 +3899,13 @@
       <c r="E51" s="67">
         <v>0</v>
       </c>
-      <c r="F51" s="158">
+      <c r="F51" s="157">
         <v>1</v>
       </c>
       <c r="G51" s="67">
         <v>0</v>
       </c>
-      <c r="H51" s="158">
+      <c r="H51" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4004,13 +3913,13 @@
       <c r="E52" s="67">
         <v>0</v>
       </c>
-      <c r="F52" s="158">
+      <c r="F52" s="157">
         <v>1</v>
       </c>
       <c r="G52" s="67">
         <v>0</v>
       </c>
-      <c r="H52" s="158">
+      <c r="H52" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4018,13 +3927,13 @@
       <c r="E53" s="67">
         <v>0</v>
       </c>
-      <c r="F53" s="158">
+      <c r="F53" s="157">
         <v>1</v>
       </c>
       <c r="G53" s="67">
         <v>0</v>
       </c>
-      <c r="H53" s="158">
+      <c r="H53" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4032,13 +3941,13 @@
       <c r="E54" s="67">
         <v>0</v>
       </c>
-      <c r="F54" s="158">
+      <c r="F54" s="157">
         <v>1</v>
       </c>
       <c r="G54" s="67">
         <v>0</v>
       </c>
-      <c r="H54" s="158">
+      <c r="H54" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4046,13 +3955,13 @@
       <c r="E55" s="67">
         <v>0</v>
       </c>
-      <c r="F55" s="158">
+      <c r="F55" s="157">
         <v>1</v>
       </c>
       <c r="G55" s="67">
         <v>0</v>
       </c>
-      <c r="H55" s="158">
+      <c r="H55" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4060,13 +3969,13 @@
       <c r="E56" s="67">
         <v>0</v>
       </c>
-      <c r="F56" s="158">
+      <c r="F56" s="157">
         <v>1</v>
       </c>
       <c r="G56" s="67">
         <v>0</v>
       </c>
-      <c r="H56" s="158">
+      <c r="H56" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4074,13 +3983,13 @@
       <c r="E57" s="67">
         <v>0</v>
       </c>
-      <c r="F57" s="158">
+      <c r="F57" s="157">
         <v>1</v>
       </c>
       <c r="G57" s="67">
         <v>0</v>
       </c>
-      <c r="H57" s="158">
+      <c r="H57" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4088,13 +3997,13 @@
       <c r="E58" s="67">
         <v>0</v>
       </c>
-      <c r="F58" s="158">
+      <c r="F58" s="157">
         <v>1</v>
       </c>
       <c r="G58" s="67">
         <v>0</v>
       </c>
-      <c r="H58" s="158">
+      <c r="H58" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4102,13 +4011,13 @@
       <c r="E59" s="67">
         <v>0</v>
       </c>
-      <c r="F59" s="158">
+      <c r="F59" s="157">
         <v>1</v>
       </c>
       <c r="G59" s="67">
         <v>0</v>
       </c>
-      <c r="H59" s="158">
+      <c r="H59" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4116,13 +4025,13 @@
       <c r="E60" s="67">
         <v>0</v>
       </c>
-      <c r="F60" s="158">
+      <c r="F60" s="157">
         <v>1</v>
       </c>
       <c r="G60" s="67">
         <v>0</v>
       </c>
-      <c r="H60" s="158">
+      <c r="H60" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4130,13 +4039,13 @@
       <c r="E61" s="67">
         <v>0</v>
       </c>
-      <c r="F61" s="158">
+      <c r="F61" s="157">
         <v>1</v>
       </c>
       <c r="G61" s="67">
         <v>0</v>
       </c>
-      <c r="H61" s="158">
+      <c r="H61" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4144,13 +4053,13 @@
       <c r="E62" s="67">
         <v>0</v>
       </c>
-      <c r="F62" s="158">
+      <c r="F62" s="157">
         <v>1</v>
       </c>
       <c r="G62" s="67">
         <v>0</v>
       </c>
-      <c r="H62" s="158">
+      <c r="H62" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4158,13 +4067,13 @@
       <c r="E63" s="67">
         <v>0</v>
       </c>
-      <c r="F63" s="158">
+      <c r="F63" s="157">
         <v>1</v>
       </c>
       <c r="G63" s="67">
         <v>0</v>
       </c>
-      <c r="H63" s="158">
+      <c r="H63" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4172,13 +4081,13 @@
       <c r="E64" s="67">
         <v>0</v>
       </c>
-      <c r="F64" s="158">
+      <c r="F64" s="157">
         <v>1</v>
       </c>
       <c r="G64" s="67">
         <v>0</v>
       </c>
-      <c r="H64" s="158">
+      <c r="H64" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4186,13 +4095,13 @@
       <c r="E65" s="67">
         <v>0</v>
       </c>
-      <c r="F65" s="158">
+      <c r="F65" s="157">
         <v>1</v>
       </c>
       <c r="G65" s="67">
         <v>0</v>
       </c>
-      <c r="H65" s="158">
+      <c r="H65" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4200,13 +4109,13 @@
       <c r="E66" s="67">
         <v>0</v>
       </c>
-      <c r="F66" s="158">
+      <c r="F66" s="157">
         <v>1</v>
       </c>
       <c r="G66" s="67">
         <v>0</v>
       </c>
-      <c r="H66" s="158">
+      <c r="H66" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4214,13 +4123,13 @@
       <c r="E67" s="67">
         <v>0</v>
       </c>
-      <c r="F67" s="158">
+      <c r="F67" s="157">
         <v>1</v>
       </c>
       <c r="G67" s="67">
         <v>0</v>
       </c>
-      <c r="H67" s="158">
+      <c r="H67" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4228,13 +4137,13 @@
       <c r="E68" s="67">
         <v>0</v>
       </c>
-      <c r="F68" s="158">
+      <c r="F68" s="157">
         <v>1</v>
       </c>
       <c r="G68" s="67">
         <v>0</v>
       </c>
-      <c r="H68" s="158">
+      <c r="H68" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4242,13 +4151,13 @@
       <c r="E69" s="67">
         <v>0</v>
       </c>
-      <c r="F69" s="158">
+      <c r="F69" s="157">
         <v>1</v>
       </c>
       <c r="G69" s="67">
         <v>0</v>
       </c>
-      <c r="H69" s="158">
+      <c r="H69" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4256,13 +4165,13 @@
       <c r="E70" s="67">
         <v>0</v>
       </c>
-      <c r="F70" s="158">
+      <c r="F70" s="157">
         <v>1</v>
       </c>
       <c r="G70" s="67">
         <v>0</v>
       </c>
-      <c r="H70" s="158">
+      <c r="H70" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4270,13 +4179,13 @@
       <c r="E71" s="67">
         <v>0</v>
       </c>
-      <c r="F71" s="158">
+      <c r="F71" s="157">
         <v>1</v>
       </c>
       <c r="G71" s="67">
         <v>0</v>
       </c>
-      <c r="H71" s="158">
+      <c r="H71" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4284,13 +4193,13 @@
       <c r="E72" s="67">
         <v>0</v>
       </c>
-      <c r="F72" s="158">
+      <c r="F72" s="157">
         <v>1</v>
       </c>
       <c r="G72" s="67">
         <v>0</v>
       </c>
-      <c r="H72" s="158">
+      <c r="H72" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4298,13 +4207,13 @@
       <c r="E73" s="67">
         <v>0</v>
       </c>
-      <c r="F73" s="158">
+      <c r="F73" s="157">
         <v>1</v>
       </c>
       <c r="G73" s="67">
         <v>0</v>
       </c>
-      <c r="H73" s="158">
+      <c r="H73" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4312,13 +4221,13 @@
       <c r="E74" s="67">
         <v>0</v>
       </c>
-      <c r="F74" s="158">
+      <c r="F74" s="157">
         <v>1</v>
       </c>
       <c r="G74" s="67">
         <v>0</v>
       </c>
-      <c r="H74" s="158">
+      <c r="H74" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4326,13 +4235,13 @@
       <c r="E75" s="67">
         <v>0</v>
       </c>
-      <c r="F75" s="158">
+      <c r="F75" s="157">
         <v>1</v>
       </c>
       <c r="G75" s="67">
         <v>0</v>
       </c>
-      <c r="H75" s="158">
+      <c r="H75" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4340,13 +4249,13 @@
       <c r="E76" s="67">
         <v>0</v>
       </c>
-      <c r="F76" s="158">
+      <c r="F76" s="157">
         <v>1</v>
       </c>
       <c r="G76" s="67">
         <v>0</v>
       </c>
-      <c r="H76" s="158">
+      <c r="H76" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4354,13 +4263,13 @@
       <c r="E77" s="67">
         <v>0</v>
       </c>
-      <c r="F77" s="158">
+      <c r="F77" s="157">
         <v>1</v>
       </c>
       <c r="G77" s="67">
         <v>0</v>
       </c>
-      <c r="H77" s="158">
+      <c r="H77" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4368,13 +4277,13 @@
       <c r="E78" s="67">
         <v>0</v>
       </c>
-      <c r="F78" s="158">
+      <c r="F78" s="157">
         <v>1</v>
       </c>
       <c r="G78" s="67">
         <v>0</v>
       </c>
-      <c r="H78" s="158">
+      <c r="H78" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4382,13 +4291,13 @@
       <c r="E79" s="67">
         <v>0</v>
       </c>
-      <c r="F79" s="158">
+      <c r="F79" s="157">
         <v>1</v>
       </c>
       <c r="G79" s="67">
         <v>0</v>
       </c>
-      <c r="H79" s="158">
+      <c r="H79" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4396,13 +4305,13 @@
       <c r="E80" s="67">
         <v>0</v>
       </c>
-      <c r="F80" s="158">
+      <c r="F80" s="157">
         <v>1</v>
       </c>
       <c r="G80" s="67">
         <v>0</v>
       </c>
-      <c r="H80" s="158">
+      <c r="H80" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4410,13 +4319,13 @@
       <c r="E81" s="67">
         <v>0</v>
       </c>
-      <c r="F81" s="158">
+      <c r="F81" s="157">
         <v>1</v>
       </c>
       <c r="G81" s="67">
         <v>0</v>
       </c>
-      <c r="H81" s="158">
+      <c r="H81" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4424,13 +4333,13 @@
       <c r="E82" s="67">
         <v>0</v>
       </c>
-      <c r="F82" s="158">
+      <c r="F82" s="157">
         <v>1</v>
       </c>
       <c r="G82" s="67">
         <v>0</v>
       </c>
-      <c r="H82" s="158">
+      <c r="H82" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4438,13 +4347,13 @@
       <c r="E83" s="67">
         <v>0</v>
       </c>
-      <c r="F83" s="158">
+      <c r="F83" s="157">
         <v>1</v>
       </c>
       <c r="G83" s="67">
         <v>0</v>
       </c>
-      <c r="H83" s="158">
+      <c r="H83" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4452,13 +4361,13 @@
       <c r="E84" s="67">
         <v>0</v>
       </c>
-      <c r="F84" s="158">
+      <c r="F84" s="157">
         <v>1</v>
       </c>
       <c r="G84" s="67">
         <v>0</v>
       </c>
-      <c r="H84" s="158">
+      <c r="H84" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4466,13 +4375,13 @@
       <c r="E85" s="67">
         <v>0</v>
       </c>
-      <c r="F85" s="158">
+      <c r="F85" s="157">
         <v>1</v>
       </c>
       <c r="G85" s="67">
         <v>0</v>
       </c>
-      <c r="H85" s="158">
+      <c r="H85" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4480,13 +4389,13 @@
       <c r="E86" s="67">
         <v>0</v>
       </c>
-      <c r="F86" s="158">
+      <c r="F86" s="157">
         <v>1</v>
       </c>
       <c r="G86" s="67">
         <v>0</v>
       </c>
-      <c r="H86" s="158">
+      <c r="H86" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4494,13 +4403,13 @@
       <c r="E87" s="67">
         <v>0</v>
       </c>
-      <c r="F87" s="158">
+      <c r="F87" s="157">
         <v>1</v>
       </c>
       <c r="G87" s="67">
         <v>0</v>
       </c>
-      <c r="H87" s="158">
+      <c r="H87" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4508,13 +4417,13 @@
       <c r="E88" s="67">
         <v>0</v>
       </c>
-      <c r="F88" s="158">
+      <c r="F88" s="157">
         <v>1</v>
       </c>
       <c r="G88" s="67">
         <v>0</v>
       </c>
-      <c r="H88" s="158">
+      <c r="H88" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4522,13 +4431,13 @@
       <c r="E89" s="67">
         <v>0</v>
       </c>
-      <c r="F89" s="158">
+      <c r="F89" s="157">
         <v>1</v>
       </c>
       <c r="G89" s="67">
         <v>0</v>
       </c>
-      <c r="H89" s="158">
+      <c r="H89" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4536,13 +4445,13 @@
       <c r="E90" s="67">
         <v>0</v>
       </c>
-      <c r="F90" s="158">
+      <c r="F90" s="157">
         <v>1</v>
       </c>
       <c r="G90" s="67">
         <v>0</v>
       </c>
-      <c r="H90" s="158">
+      <c r="H90" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4550,13 +4459,13 @@
       <c r="E91" s="67">
         <v>0</v>
       </c>
-      <c r="F91" s="158">
+      <c r="F91" s="157">
         <v>1</v>
       </c>
       <c r="G91" s="67">
         <v>0</v>
       </c>
-      <c r="H91" s="158">
+      <c r="H91" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4564,13 +4473,13 @@
       <c r="E92" s="67">
         <v>0</v>
       </c>
-      <c r="F92" s="158">
+      <c r="F92" s="157">
         <v>1</v>
       </c>
       <c r="G92" s="67">
         <v>0</v>
       </c>
-      <c r="H92" s="158">
+      <c r="H92" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4578,13 +4487,13 @@
       <c r="E93" s="67">
         <v>0</v>
       </c>
-      <c r="F93" s="158">
+      <c r="F93" s="157">
         <v>1</v>
       </c>
       <c r="G93" s="67">
         <v>0</v>
       </c>
-      <c r="H93" s="158">
+      <c r="H93" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4592,13 +4501,13 @@
       <c r="E94" s="67">
         <v>0</v>
       </c>
-      <c r="F94" s="158">
+      <c r="F94" s="157">
         <v>1</v>
       </c>
       <c r="G94" s="67">
         <v>0</v>
       </c>
-      <c r="H94" s="158">
+      <c r="H94" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4606,13 +4515,13 @@
       <c r="E95" s="67">
         <v>0</v>
       </c>
-      <c r="F95" s="158">
+      <c r="F95" s="157">
         <v>1</v>
       </c>
       <c r="G95" s="67">
         <v>0</v>
       </c>
-      <c r="H95" s="158">
+      <c r="H95" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4620,13 +4529,13 @@
       <c r="E96" s="67">
         <v>0</v>
       </c>
-      <c r="F96" s="158">
+      <c r="F96" s="157">
         <v>1</v>
       </c>
       <c r="G96" s="67">
         <v>0</v>
       </c>
-      <c r="H96" s="158">
+      <c r="H96" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4634,13 +4543,13 @@
       <c r="E97" s="67">
         <v>0</v>
       </c>
-      <c r="F97" s="158">
+      <c r="F97" s="157">
         <v>1</v>
       </c>
       <c r="G97" s="67">
         <v>0</v>
       </c>
-      <c r="H97" s="158">
+      <c r="H97" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4648,13 +4557,13 @@
       <c r="E98" s="67">
         <v>0</v>
       </c>
-      <c r="F98" s="158">
+      <c r="F98" s="157">
         <v>1</v>
       </c>
       <c r="G98" s="67">
         <v>0</v>
       </c>
-      <c r="H98" s="158">
+      <c r="H98" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4662,13 +4571,13 @@
       <c r="E99" s="67">
         <v>0</v>
       </c>
-      <c r="F99" s="158">
+      <c r="F99" s="157">
         <v>1</v>
       </c>
       <c r="G99" s="67">
         <v>0</v>
       </c>
-      <c r="H99" s="158">
+      <c r="H99" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4676,13 +4585,13 @@
       <c r="E100" s="67">
         <v>0</v>
       </c>
-      <c r="F100" s="158">
+      <c r="F100" s="157">
         <v>1</v>
       </c>
       <c r="G100" s="67">
         <v>0</v>
       </c>
-      <c r="H100" s="158">
+      <c r="H100" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4690,13 +4599,13 @@
       <c r="E101" s="67">
         <v>0</v>
       </c>
-      <c r="F101" s="158">
+      <c r="F101" s="157">
         <v>1</v>
       </c>
       <c r="G101" s="67">
         <v>0</v>
       </c>
-      <c r="H101" s="158">
+      <c r="H101" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4704,13 +4613,13 @@
       <c r="E102" s="67">
         <v>0</v>
       </c>
-      <c r="F102" s="158">
+      <c r="F102" s="157">
         <v>1</v>
       </c>
       <c r="G102" s="67">
         <v>0</v>
       </c>
-      <c r="H102" s="158">
+      <c r="H102" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4718,13 +4627,13 @@
       <c r="E103" s="67">
         <v>0</v>
       </c>
-      <c r="F103" s="158">
+      <c r="F103" s="157">
         <v>1</v>
       </c>
       <c r="G103" s="67">
         <v>0</v>
       </c>
-      <c r="H103" s="158">
+      <c r="H103" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4732,13 +4641,13 @@
       <c r="E104" s="67">
         <v>0</v>
       </c>
-      <c r="F104" s="158">
+      <c r="F104" s="157">
         <v>1</v>
       </c>
       <c r="G104" s="67">
         <v>0</v>
       </c>
-      <c r="H104" s="158">
+      <c r="H104" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4746,13 +4655,13 @@
       <c r="E105" s="67">
         <v>0</v>
       </c>
-      <c r="F105" s="158">
+      <c r="F105" s="157">
         <v>1</v>
       </c>
       <c r="G105" s="67">
         <v>0</v>
       </c>
-      <c r="H105" s="158">
+      <c r="H105" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4760,13 +4669,13 @@
       <c r="E106" s="67">
         <v>0</v>
       </c>
-      <c r="F106" s="158">
+      <c r="F106" s="157">
         <v>1</v>
       </c>
       <c r="G106" s="67">
         <v>0</v>
       </c>
-      <c r="H106" s="158">
+      <c r="H106" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4774,13 +4683,13 @@
       <c r="E107" s="67">
         <v>0</v>
       </c>
-      <c r="F107" s="158">
+      <c r="F107" s="157">
         <v>1</v>
       </c>
       <c r="G107" s="67">
         <v>0</v>
       </c>
-      <c r="H107" s="158">
+      <c r="H107" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4788,13 +4697,13 @@
       <c r="E108" s="67">
         <v>0</v>
       </c>
-      <c r="F108" s="158">
+      <c r="F108" s="157">
         <v>1</v>
       </c>
       <c r="G108" s="67">
         <v>0</v>
       </c>
-      <c r="H108" s="158">
+      <c r="H108" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4802,13 +4711,13 @@
       <c r="E109" s="67">
         <v>0</v>
       </c>
-      <c r="F109" s="158">
+      <c r="F109" s="157">
         <v>1</v>
       </c>
       <c r="G109" s="67">
         <v>0</v>
       </c>
-      <c r="H109" s="158">
+      <c r="H109" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4816,13 +4725,13 @@
       <c r="E110" s="67">
         <v>0</v>
       </c>
-      <c r="F110" s="158">
+      <c r="F110" s="157">
         <v>1</v>
       </c>
       <c r="G110" s="67">
         <v>0</v>
       </c>
-      <c r="H110" s="158">
+      <c r="H110" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4830,13 +4739,13 @@
       <c r="E111" s="67">
         <v>0</v>
       </c>
-      <c r="F111" s="158">
+      <c r="F111" s="157">
         <v>1</v>
       </c>
       <c r="G111" s="67">
         <v>0</v>
       </c>
-      <c r="H111" s="158">
+      <c r="H111" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4844,13 +4753,13 @@
       <c r="E112" s="67">
         <v>0</v>
       </c>
-      <c r="F112" s="158">
+      <c r="F112" s="157">
         <v>1</v>
       </c>
       <c r="G112" s="67">
         <v>0</v>
       </c>
-      <c r="H112" s="158">
+      <c r="H112" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4858,13 +4767,13 @@
       <c r="E113" s="67">
         <v>0</v>
       </c>
-      <c r="F113" s="158">
+      <c r="F113" s="157">
         <v>1</v>
       </c>
       <c r="G113" s="67">
         <v>0</v>
       </c>
-      <c r="H113" s="158">
+      <c r="H113" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4872,13 +4781,13 @@
       <c r="E114" s="67">
         <v>0</v>
       </c>
-      <c r="F114" s="158">
+      <c r="F114" s="157">
         <v>1</v>
       </c>
       <c r="G114" s="67">
         <v>0</v>
       </c>
-      <c r="H114" s="158">
+      <c r="H114" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4886,13 +4795,13 @@
       <c r="E115" s="67">
         <v>0</v>
       </c>
-      <c r="F115" s="158">
+      <c r="F115" s="157">
         <v>1</v>
       </c>
       <c r="G115" s="67">
         <v>0</v>
       </c>
-      <c r="H115" s="158">
+      <c r="H115" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4900,13 +4809,13 @@
       <c r="E116" s="67">
         <v>0</v>
       </c>
-      <c r="F116" s="158">
+      <c r="F116" s="157">
         <v>1</v>
       </c>
       <c r="G116" s="67">
         <v>0</v>
       </c>
-      <c r="H116" s="158">
+      <c r="H116" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4914,13 +4823,13 @@
       <c r="E117" s="67">
         <v>0</v>
       </c>
-      <c r="F117" s="158">
+      <c r="F117" s="157">
         <v>1</v>
       </c>
       <c r="G117" s="67">
         <v>0</v>
       </c>
-      <c r="H117" s="158">
+      <c r="H117" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4928,13 +4837,13 @@
       <c r="E118" s="67">
         <v>0</v>
       </c>
-      <c r="F118" s="158">
+      <c r="F118" s="157">
         <v>1</v>
       </c>
       <c r="G118" s="67">
         <v>0</v>
       </c>
-      <c r="H118" s="158">
+      <c r="H118" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4942,13 +4851,13 @@
       <c r="E119" s="67">
         <v>0</v>
       </c>
-      <c r="F119" s="158">
+      <c r="F119" s="157">
         <v>1</v>
       </c>
       <c r="G119" s="67">
         <v>0</v>
       </c>
-      <c r="H119" s="158">
+      <c r="H119" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4956,13 +4865,13 @@
       <c r="E120" s="67">
         <v>0</v>
       </c>
-      <c r="F120" s="158">
+      <c r="F120" s="157">
         <v>1</v>
       </c>
       <c r="G120" s="67">
         <v>0</v>
       </c>
-      <c r="H120" s="158">
+      <c r="H120" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4970,13 +4879,13 @@
       <c r="E121" s="67">
         <v>0</v>
       </c>
-      <c r="F121" s="158">
+      <c r="F121" s="157">
         <v>1</v>
       </c>
       <c r="G121" s="67">
         <v>0</v>
       </c>
-      <c r="H121" s="158">
+      <c r="H121" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4984,13 +4893,13 @@
       <c r="E122" s="67">
         <v>0</v>
       </c>
-      <c r="F122" s="158">
+      <c r="F122" s="157">
         <v>1</v>
       </c>
       <c r="G122" s="67">
         <v>0</v>
       </c>
-      <c r="H122" s="158">
+      <c r="H122" s="157">
         <v>0</v>
       </c>
     </row>
@@ -4998,13 +4907,13 @@
       <c r="E123" s="67">
         <v>0</v>
       </c>
-      <c r="F123" s="158">
+      <c r="F123" s="157">
         <v>1</v>
       </c>
       <c r="G123" s="67">
         <v>0</v>
       </c>
-      <c r="H123" s="158">
+      <c r="H123" s="157">
         <v>0</v>
       </c>
     </row>
@@ -5012,13 +4921,13 @@
       <c r="E124" s="67">
         <v>0</v>
       </c>
-      <c r="F124" s="158">
+      <c r="F124" s="157">
         <v>1</v>
       </c>
       <c r="G124" s="67">
         <v>0</v>
       </c>
-      <c r="H124" s="158">
+      <c r="H124" s="157">
         <v>0</v>
       </c>
     </row>
@@ -5026,13 +4935,13 @@
       <c r="E125" s="67">
         <v>0</v>
       </c>
-      <c r="F125" s="158">
+      <c r="F125" s="157">
         <v>1</v>
       </c>
       <c r="G125" s="67">
         <v>0</v>
       </c>
-      <c r="H125" s="158">
+      <c r="H125" s="157">
         <v>0</v>
       </c>
     </row>
@@ -5040,13 +4949,13 @@
       <c r="E126" s="67">
         <v>0</v>
       </c>
-      <c r="F126" s="158">
+      <c r="F126" s="157">
         <v>1</v>
       </c>
       <c r="G126" s="67">
         <v>0</v>
       </c>
-      <c r="H126" s="158">
+      <c r="H126" s="157">
         <v>0</v>
       </c>
     </row>
@@ -5054,13 +4963,13 @@
       <c r="E127" s="67">
         <v>0</v>
       </c>
-      <c r="F127" s="158">
+      <c r="F127" s="157">
         <v>1</v>
       </c>
       <c r="G127" s="67">
         <v>0</v>
       </c>
-      <c r="H127" s="158">
+      <c r="H127" s="157">
         <v>0</v>
       </c>
     </row>
@@ -5068,13 +4977,13 @@
       <c r="E128" s="67">
         <v>0</v>
       </c>
-      <c r="F128" s="158">
+      <c r="F128" s="157">
         <v>1</v>
       </c>
       <c r="G128" s="67">
         <v>0</v>
       </c>
-      <c r="H128" s="158">
+      <c r="H128" s="157">
         <v>0</v>
       </c>
     </row>
@@ -5082,13 +4991,13 @@
       <c r="E129" s="67">
         <v>0</v>
       </c>
-      <c r="F129" s="158">
+      <c r="F129" s="157">
         <v>1</v>
       </c>
       <c r="G129" s="67">
         <v>0</v>
       </c>
-      <c r="H129" s="158">
+      <c r="H129" s="157">
         <v>0</v>
       </c>
     </row>
@@ -5096,13 +5005,13 @@
       <c r="E130" s="67">
         <v>0</v>
       </c>
-      <c r="F130" s="158">
+      <c r="F130" s="157">
         <v>1</v>
       </c>
       <c r="G130" s="67">
         <v>0</v>
       </c>
-      <c r="H130" s="158">
+      <c r="H130" s="157">
         <v>0</v>
       </c>
     </row>
@@ -5110,13 +5019,13 @@
       <c r="E131" s="67">
         <v>0</v>
       </c>
-      <c r="F131" s="158">
+      <c r="F131" s="157">
         <v>1</v>
       </c>
       <c r="G131" s="67">
         <v>0</v>
       </c>
-      <c r="H131" s="158">
+      <c r="H131" s="157">
         <v>0</v>
       </c>
     </row>
@@ -5124,13 +5033,13 @@
       <c r="E132" s="67">
         <v>0</v>
       </c>
-      <c r="F132" s="158">
+      <c r="F132" s="157">
         <v>1</v>
       </c>
       <c r="G132" s="67">
         <v>0</v>
       </c>
-      <c r="H132" s="158">
+      <c r="H132" s="157">
         <v>0</v>
       </c>
     </row>
@@ -5138,13 +5047,13 @@
       <c r="E133" s="67">
         <v>0</v>
       </c>
-      <c r="F133" s="158">
+      <c r="F133" s="157">
         <v>1</v>
       </c>
       <c r="G133" s="67">
         <v>0</v>
       </c>
-      <c r="H133" s="158">
+      <c r="H133" s="157">
         <v>0</v>
       </c>
     </row>
@@ -5152,13 +5061,13 @@
       <c r="E134" s="67">
         <v>0</v>
       </c>
-      <c r="F134" s="158">
+      <c r="F134" s="157">
         <v>1</v>
       </c>
       <c r="G134" s="67">
         <v>0</v>
       </c>
-      <c r="H134" s="158">
+      <c r="H134" s="157">
         <v>0</v>
       </c>
     </row>
@@ -5166,13 +5075,13 @@
       <c r="E135" s="67">
         <v>0</v>
       </c>
-      <c r="F135" s="158">
+      <c r="F135" s="157">
         <v>1</v>
       </c>
       <c r="G135" s="67">
         <v>0</v>
       </c>
-      <c r="H135" s="158">
+      <c r="H135" s="157">
         <v>0</v>
       </c>
     </row>
@@ -5180,13 +5089,13 @@
       <c r="E136" s="67">
         <v>0</v>
       </c>
-      <c r="F136" s="158">
+      <c r="F136" s="157">
         <v>1</v>
       </c>
       <c r="G136" s="67">
         <v>0</v>
       </c>
-      <c r="H136" s="158">
+      <c r="H136" s="157">
         <v>0</v>
       </c>
     </row>
@@ -5194,13 +5103,13 @@
       <c r="E137" s="67">
         <v>0</v>
       </c>
-      <c r="F137" s="158">
+      <c r="F137" s="157">
         <v>1</v>
       </c>
       <c r="G137" s="67">
         <v>0</v>
       </c>
-      <c r="H137" s="158">
+      <c r="H137" s="157">
         <v>0</v>
       </c>
     </row>
@@ -5208,13 +5117,13 @@
       <c r="E138" s="67">
         <v>0</v>
       </c>
-      <c r="F138" s="158">
+      <c r="F138" s="157">
         <v>1</v>
       </c>
       <c r="G138" s="67">
         <v>0</v>
       </c>
-      <c r="H138" s="158">
+      <c r="H138" s="157">
         <v>0</v>
       </c>
     </row>
@@ -5222,13 +5131,13 @@
       <c r="E139" s="67">
         <v>0</v>
       </c>
-      <c r="F139" s="158">
+      <c r="F139" s="157">
         <v>1</v>
       </c>
       <c r="G139" s="67">
         <v>0</v>
       </c>
-      <c r="H139" s="158">
+      <c r="H139" s="157">
         <v>0</v>
       </c>
     </row>
@@ -5236,13 +5145,13 @@
       <c r="E140" s="67">
         <v>0</v>
       </c>
-      <c r="F140" s="158">
+      <c r="F140" s="157">
         <v>1</v>
       </c>
       <c r="G140" s="67">
         <v>0</v>
       </c>
-      <c r="H140" s="158">
+      <c r="H140" s="157">
         <v>0</v>
       </c>
     </row>
@@ -5250,13 +5159,13 @@
       <c r="E141" s="67">
         <v>0</v>
       </c>
-      <c r="F141" s="158">
+      <c r="F141" s="157">
         <v>1</v>
       </c>
       <c r="G141" s="67">
         <v>0</v>
       </c>
-      <c r="H141" s="158">
+      <c r="H141" s="157">
         <v>0</v>
       </c>
     </row>
@@ -5264,13 +5173,13 @@
       <c r="E142" s="67">
         <v>0</v>
       </c>
-      <c r="F142" s="158">
+      <c r="F142" s="157">
         <v>1</v>
       </c>
       <c r="G142" s="67">
         <v>0</v>
       </c>
-      <c r="H142" s="158">
+      <c r="H142" s="157">
         <v>0</v>
       </c>
     </row>
@@ -5278,13 +5187,13 @@
       <c r="E143" s="67">
         <v>0</v>
       </c>
-      <c r="F143" s="158">
+      <c r="F143" s="157">
         <v>1</v>
       </c>
       <c r="G143" s="67">
         <v>0</v>
       </c>
-      <c r="H143" s="158">
+      <c r="H143" s="157">
         <v>0</v>
       </c>
     </row>
@@ -5292,13 +5201,13 @@
       <c r="E144" s="67">
         <v>0</v>
       </c>
-      <c r="F144" s="158">
+      <c r="F144" s="157">
         <v>1</v>
       </c>
       <c r="G144" s="67">
         <v>0</v>
       </c>
-      <c r="H144" s="158">
+      <c r="H144" s="157">
         <v>0</v>
       </c>
     </row>
@@ -5306,13 +5215,13 @@
       <c r="E145" s="67">
         <v>0</v>
       </c>
-      <c r="F145" s="158">
+      <c r="F145" s="157">
         <v>1</v>
       </c>
       <c r="G145" s="67">
         <v>0</v>
       </c>
-      <c r="H145" s="158">
+      <c r="H145" s="157">
         <v>0</v>
       </c>
     </row>
@@ -5320,13 +5229,13 @@
       <c r="E146" s="67">
         <v>0</v>
       </c>
-      <c r="F146" s="158">
+      <c r="F146" s="157">
         <v>1</v>
       </c>
       <c r="G146" s="67">
         <v>0</v>
       </c>
-      <c r="H146" s="158">
+      <c r="H146" s="157">
         <v>0</v>
       </c>
     </row>
@@ -5334,13 +5243,13 @@
       <c r="E147" s="67">
         <v>0</v>
       </c>
-      <c r="F147" s="158">
+      <c r="F147" s="157">
         <v>1</v>
       </c>
       <c r="G147" s="67">
         <v>0</v>
       </c>
-      <c r="H147" s="158">
+      <c r="H147" s="157">
         <v>0</v>
       </c>
     </row>
@@ -5348,13 +5257,13 @@
       <c r="E148" s="67">
         <v>0</v>
       </c>
-      <c r="F148" s="158">
+      <c r="F148" s="157">
         <v>1</v>
       </c>
       <c r="G148" s="67">
         <v>0</v>
       </c>
-      <c r="H148" s="158">
+      <c r="H148" s="157">
         <v>0</v>
       </c>
     </row>
@@ -5362,13 +5271,13 @@
       <c r="E149" s="67">
         <v>0</v>
       </c>
-      <c r="F149" s="158">
+      <c r="F149" s="157">
         <v>1</v>
       </c>
       <c r="G149" s="67">
         <v>0</v>
       </c>
-      <c r="H149" s="158">
+      <c r="H149" s="157">
         <v>0</v>
       </c>
     </row>
@@ -5376,13 +5285,13 @@
       <c r="E150" s="67">
         <v>0</v>
       </c>
-      <c r="F150" s="158">
+      <c r="F150" s="157">
         <v>1</v>
       </c>
       <c r="G150" s="67">
         <v>0</v>
       </c>
-      <c r="H150" s="158">
+      <c r="H150" s="157">
         <v>0</v>
       </c>
     </row>
@@ -5390,13 +5299,13 @@
       <c r="E151" s="67">
         <v>0</v>
       </c>
-      <c r="F151" s="158">
+      <c r="F151" s="157">
         <v>1</v>
       </c>
       <c r="G151" s="67">
         <v>0</v>
       </c>
-      <c r="H151" s="158">
+      <c r="H151" s="157">
         <v>0</v>
       </c>
     </row>
@@ -5404,13 +5313,13 @@
       <c r="E152" s="67">
         <v>0</v>
       </c>
-      <c r="F152" s="158">
+      <c r="F152" s="157">
         <v>1</v>
       </c>
       <c r="G152" s="67">
         <v>0</v>
       </c>
-      <c r="H152" s="158">
+      <c r="H152" s="157">
         <v>0</v>
       </c>
     </row>
@@ -5418,13 +5327,13 @@
       <c r="E153" s="67">
         <v>0</v>
       </c>
-      <c r="F153" s="158">
+      <c r="F153" s="157">
         <v>1</v>
       </c>
       <c r="G153" s="67">
         <v>0</v>
       </c>
-      <c r="H153" s="158">
+      <c r="H153" s="157">
         <v>0</v>
       </c>
     </row>
@@ -5432,13 +5341,13 @@
       <c r="E154" s="67">
         <v>0</v>
       </c>
-      <c r="F154" s="158">
+      <c r="F154" s="157">
         <v>1</v>
       </c>
       <c r="G154" s="67">
         <v>0</v>
       </c>
-      <c r="H154" s="158">
+      <c r="H154" s="157">
         <v>0</v>
       </c>
     </row>
@@ -5446,13 +5355,13 @@
       <c r="E155" s="67">
         <v>0</v>
       </c>
-      <c r="F155" s="158">
+      <c r="F155" s="157">
         <v>1</v>
       </c>
       <c r="G155" s="67">
         <v>0</v>
       </c>
-      <c r="H155" s="158">
+      <c r="H155" s="157">
         <v>0</v>
       </c>
     </row>
@@ -5460,13 +5369,13 @@
       <c r="E156" s="67">
         <v>0</v>
       </c>
-      <c r="F156" s="158">
+      <c r="F156" s="157">
         <v>1</v>
       </c>
       <c r="G156" s="67">
         <v>0</v>
       </c>
-      <c r="H156" s="158">
+      <c r="H156" s="157">
         <v>0</v>
       </c>
     </row>
@@ -5474,13 +5383,13 @@
       <c r="E157" s="67">
         <v>0</v>
       </c>
-      <c r="F157" s="158">
+      <c r="F157" s="157">
         <v>1</v>
       </c>
       <c r="G157" s="67">
         <v>0</v>
       </c>
-      <c r="H157" s="158">
+      <c r="H157" s="157">
         <v>0</v>
       </c>
     </row>
@@ -5488,13 +5397,13 @@
       <c r="E158" s="67">
         <v>0</v>
       </c>
-      <c r="F158" s="158">
+      <c r="F158" s="157">
         <v>1</v>
       </c>
       <c r="G158" s="67">
         <v>0</v>
       </c>
-      <c r="H158" s="158">
+      <c r="H158" s="157">
         <v>0</v>
       </c>
     </row>
@@ -5502,13 +5411,13 @@
       <c r="E159" s="67">
         <v>0</v>
       </c>
-      <c r="F159" s="158">
+      <c r="F159" s="157">
         <v>1</v>
       </c>
       <c r="G159" s="67">
         <v>0</v>
       </c>
-      <c r="H159" s="158">
+      <c r="H159" s="157">
         <v>0</v>
       </c>
     </row>
@@ -5516,13 +5425,13 @@
       <c r="E160" s="67">
         <v>0</v>
       </c>
-      <c r="F160" s="158">
+      <c r="F160" s="157">
         <v>1</v>
       </c>
       <c r="G160" s="67">
         <v>0</v>
       </c>
-      <c r="H160" s="158">
+      <c r="H160" s="157">
         <v>0</v>
       </c>
     </row>
@@ -5530,13 +5439,13 @@
       <c r="E161" s="67">
         <v>0</v>
       </c>
-      <c r="F161" s="158">
+      <c r="F161" s="157">
         <v>1</v>
       </c>
       <c r="G161" s="67">
         <v>0</v>
       </c>
-      <c r="H161" s="158">
+      <c r="H161" s="157">
         <v>0</v>
       </c>
     </row>
@@ -5544,13 +5453,13 @@
       <c r="E162" s="67">
         <v>0</v>
       </c>
-      <c r="F162" s="158">
+      <c r="F162" s="157">
         <v>1</v>
       </c>
       <c r="G162" s="67">
         <v>0</v>
       </c>
-      <c r="H162" s="158">
+      <c r="H162" s="157">
         <v>0</v>
       </c>
     </row>
@@ -5558,13 +5467,13 @@
       <c r="E163" s="67">
         <v>0</v>
       </c>
-      <c r="F163" s="158">
+      <c r="F163" s="157">
         <v>1</v>
       </c>
       <c r="G163" s="67">
         <v>0</v>
       </c>
-      <c r="H163" s="158">
+      <c r="H163" s="157">
         <v>0</v>
       </c>
     </row>
@@ -5572,13 +5481,13 @@
       <c r="E164" s="67">
         <v>0</v>
       </c>
-      <c r="F164" s="158">
+      <c r="F164" s="157">
         <v>1</v>
       </c>
       <c r="G164" s="67">
         <v>0</v>
       </c>
-      <c r="H164" s="158">
+      <c r="H164" s="157">
         <v>0</v>
       </c>
     </row>
@@ -5586,13 +5495,13 @@
       <c r="E165" s="67">
         <v>0</v>
       </c>
-      <c r="F165" s="158">
+      <c r="F165" s="157">
         <v>1</v>
       </c>
       <c r="G165" s="67">
         <v>0</v>
       </c>
-      <c r="H165" s="158">
+      <c r="H165" s="157">
         <v>0</v>
       </c>
     </row>
@@ -5600,13 +5509,13 @@
       <c r="E166" s="67">
         <v>0</v>
       </c>
-      <c r="F166" s="158">
+      <c r="F166" s="157">
         <v>1</v>
       </c>
       <c r="G166" s="67">
         <v>0</v>
       </c>
-      <c r="H166" s="158">
+      <c r="H166" s="157">
         <v>0</v>
       </c>
     </row>
@@ -5614,13 +5523,13 @@
       <c r="E167" s="67">
         <v>0</v>
       </c>
-      <c r="F167" s="158">
+      <c r="F167" s="157">
         <v>1</v>
       </c>
       <c r="G167" s="67">
         <v>0</v>
       </c>
-      <c r="H167" s="158">
+      <c r="H167" s="157">
         <v>0</v>
       </c>
     </row>
@@ -5628,13 +5537,13 @@
       <c r="E168" s="67">
         <v>0</v>
       </c>
-      <c r="F168" s="158">
+      <c r="F168" s="157">
         <v>1</v>
       </c>
       <c r="G168" s="67">
         <v>0</v>
       </c>
-      <c r="H168" s="158">
+      <c r="H168" s="157">
         <v>0</v>
       </c>
     </row>
@@ -5642,13 +5551,13 @@
       <c r="E169" s="67">
         <v>0</v>
       </c>
-      <c r="F169" s="158">
+      <c r="F169" s="157">
         <v>1</v>
       </c>
       <c r="G169" s="67">
         <v>0</v>
       </c>
-      <c r="H169" s="158">
+      <c r="H169" s="157">
         <v>0</v>
       </c>
     </row>
@@ -5656,13 +5565,13 @@
       <c r="E170" s="67">
         <v>0</v>
       </c>
-      <c r="F170" s="158">
+      <c r="F170" s="157">
         <v>1</v>
       </c>
       <c r="G170" s="67">
         <v>0</v>
       </c>
-      <c r="H170" s="158">
+      <c r="H170" s="157">
         <v>0</v>
       </c>
     </row>
@@ -5670,13 +5579,13 @@
       <c r="E171" s="67">
         <v>0</v>
       </c>
-      <c r="F171" s="158">
+      <c r="F171" s="157">
         <v>1</v>
       </c>
       <c r="G171" s="67">
         <v>0</v>
       </c>
-      <c r="H171" s="158">
+      <c r="H171" s="157">
         <v>0</v>
       </c>
     </row>
@@ -5684,13 +5593,13 @@
       <c r="E172" s="67">
         <v>0</v>
       </c>
-      <c r="F172" s="158">
+      <c r="F172" s="157">
         <v>1</v>
       </c>
       <c r="G172" s="67">
         <v>0</v>
       </c>
-      <c r="H172" s="158">
+      <c r="H172" s="157">
         <v>0</v>
       </c>
     </row>
@@ -5698,13 +5607,13 @@
       <c r="E173" s="67">
         <v>0</v>
       </c>
-      <c r="F173" s="158">
+      <c r="F173" s="157">
         <v>1</v>
       </c>
       <c r="G173" s="67">
         <v>0</v>
       </c>
-      <c r="H173" s="158">
+      <c r="H173" s="157">
         <v>0</v>
       </c>
     </row>
@@ -5712,13 +5621,13 @@
       <c r="E174" s="67">
         <v>0</v>
       </c>
-      <c r="F174" s="158">
+      <c r="F174" s="157">
         <v>1</v>
       </c>
       <c r="G174" s="67">
         <v>0</v>
       </c>
-      <c r="H174" s="158">
+      <c r="H174" s="157">
         <v>0</v>
       </c>
     </row>
@@ -5726,13 +5635,13 @@
       <c r="E175" s="67">
         <v>0</v>
       </c>
-      <c r="F175" s="158">
+      <c r="F175" s="157">
         <v>1</v>
       </c>
       <c r="G175" s="67">
         <v>0</v>
       </c>
-      <c r="H175" s="158">
+      <c r="H175" s="157">
         <v>0</v>
       </c>
     </row>
@@ -5740,13 +5649,13 @@
       <c r="E176" s="67">
         <v>0</v>
       </c>
-      <c r="F176" s="158">
+      <c r="F176" s="157">
         <v>1</v>
       </c>
       <c r="G176" s="67">
         <v>0</v>
       </c>
-      <c r="H176" s="158">
+      <c r="H176" s="157">
         <v>0</v>
       </c>
     </row>
@@ -5754,13 +5663,13 @@
       <c r="E177" s="67">
         <v>0</v>
       </c>
-      <c r="F177" s="158">
+      <c r="F177" s="157">
         <v>1</v>
       </c>
       <c r="G177" s="67">
         <v>0</v>
       </c>
-      <c r="H177" s="158">
+      <c r="H177" s="157">
         <v>0</v>
       </c>
     </row>
@@ -5776,13 +5685,13 @@
     <mergeCell ref="H2:H6"/>
   </mergeCells>
   <conditionalFormatting sqref="G7:G177">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="21" priority="2">
       <formula>E7=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="20" priority="5">
       <formula>F7=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="19" priority="6">
       <formula>F7=5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5821,10 +5730,10 @@
   </sheetPr>
   <dimension ref="A1:AJ177"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AE13" sqref="AE13"/>
-      <selection pane="bottomLeft" activeCell="AF10" sqref="AF10"/>
+      <selection pane="bottomLeft" activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -5837,7 +5746,7 @@
     <col min="6" max="6" width="8.7109375" style="19" customWidth="1"/>
     <col min="7" max="7" width="44.28515625" style="19" customWidth="1"/>
     <col min="8" max="8" width="19" style="19" customWidth="1"/>
-    <col min="9" max="9" width="44.7109375" style="155" customWidth="1"/>
+    <col min="9" max="9" width="44.7109375" style="154" customWidth="1"/>
     <col min="10" max="22" width="12.42578125" style="19" customWidth="1"/>
     <col min="23" max="23" width="10.42578125" style="19" customWidth="1"/>
     <col min="24" max="24" width="12.42578125" style="19" customWidth="1"/>
@@ -5881,46 +5790,46 @@
       <c r="X1" s="17"/>
       <c r="Y1" s="17"/>
       <c r="Z1" s="17"/>
-      <c r="AB1" s="168" t="s">
+      <c r="AB1" s="167" t="s">
         <v>99</v>
       </c>
-      <c r="AC1" s="168"/>
-      <c r="AD1" s="168"/>
-      <c r="AE1" s="168"/>
+      <c r="AC1" s="167"/>
+      <c r="AD1" s="167"/>
+      <c r="AE1" s="167"/>
     </row>
     <row r="2" spans="1:31" ht="12.4" customHeight="1">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="158" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="161" t="s">
+      <c r="B2" s="160" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="161" t="s">
+      <c r="C2" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="178"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="162" t="s">
+      <c r="D2" s="177"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="179"/>
+      <c r="G2" s="161" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="183" t="s">
+      <c r="H2" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="186" t="s">
+      <c r="I2" s="185" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="175" t="s">
+      <c r="J2" s="174" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="176"/>
-      <c r="L2" s="176"/>
-      <c r="M2" s="176"/>
-      <c r="N2" s="176"/>
-      <c r="O2" s="176"/>
-      <c r="P2" s="176"/>
-      <c r="Q2" s="176"/>
-      <c r="R2" s="176"/>
+      <c r="K2" s="175"/>
+      <c r="L2" s="175"/>
+      <c r="M2" s="175"/>
+      <c r="N2" s="175"/>
+      <c r="O2" s="175"/>
+      <c r="P2" s="175"/>
+      <c r="Q2" s="175"/>
+      <c r="R2" s="175"/>
       <c r="S2" s="98"/>
       <c r="T2" s="98"/>
       <c r="U2" s="98"/>
@@ -5928,206 +5837,207 @@
       <c r="W2" s="98"/>
       <c r="X2" s="99"/>
       <c r="Y2" s="17"/>
-      <c r="Z2" s="159" t="s">
+      <c r="Z2" s="158" t="s">
         <v>51</v>
       </c>
-      <c r="AB2" s="161" t="s">
+      <c r="AB2" s="160" t="s">
         <v>56</v>
       </c>
-      <c r="AC2" s="161" t="s">
+      <c r="AC2" s="160" t="s">
         <v>52</v>
       </c>
-      <c r="AD2" s="161" t="s">
+      <c r="AD2" s="160" t="s">
         <v>53</v>
       </c>
-      <c r="AE2" s="161" t="s">
+      <c r="AE2" s="160" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="12.6" customHeight="1">
-      <c r="A3" s="159"/>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="179"/>
-      <c r="F3" s="180"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="184"/>
-      <c r="I3" s="186"/>
-      <c r="J3" s="187" t="s">
+      <c r="A3" s="158"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="179"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="183"/>
+      <c r="I3" s="185"/>
+      <c r="J3" s="186" t="s">
         <v>100</v>
       </c>
-      <c r="K3" s="188"/>
-      <c r="L3" s="189"/>
-      <c r="M3" s="196" t="s">
+      <c r="K3" s="187"/>
+      <c r="L3" s="188"/>
+      <c r="M3" s="195" t="s">
         <v>114</v>
       </c>
-      <c r="N3" s="197"/>
-      <c r="O3" s="198"/>
-      <c r="P3" s="183" t="s">
+      <c r="N3" s="196"/>
+      <c r="O3" s="197"/>
+      <c r="P3" s="182" t="s">
         <v>95</v>
       </c>
-      <c r="Q3" s="205"/>
-      <c r="R3" s="206"/>
-      <c r="S3" s="183" t="s">
+      <c r="Q3" s="204"/>
+      <c r="R3" s="205"/>
+      <c r="S3" s="182" t="s">
         <v>96</v>
       </c>
-      <c r="T3" s="205"/>
-      <c r="U3" s="206"/>
-      <c r="V3" s="160" t="s">
+      <c r="T3" s="204"/>
+      <c r="U3" s="205"/>
+      <c r="V3" s="159" t="s">
         <v>97</v>
       </c>
-      <c r="W3" s="169" t="s">
+      <c r="W3" s="168" t="s">
         <v>98</v>
       </c>
-      <c r="X3" s="170"/>
+      <c r="X3" s="169"/>
       <c r="Y3" s="17"/>
-      <c r="Z3" s="159"/>
-      <c r="AB3" s="161"/>
-      <c r="AC3" s="161"/>
-      <c r="AD3" s="161"/>
-      <c r="AE3" s="161"/>
+      <c r="Z3" s="158"/>
+      <c r="AB3" s="160"/>
+      <c r="AC3" s="160"/>
+      <c r="AD3" s="160"/>
+      <c r="AE3" s="160"/>
     </row>
     <row r="4" spans="1:31" ht="12.6" customHeight="1">
-      <c r="A4" s="159"/>
-      <c r="B4" s="161"/>
-      <c r="C4" s="161"/>
-      <c r="D4" s="178"/>
-      <c r="E4" s="179"/>
-      <c r="F4" s="180"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="184"/>
-      <c r="I4" s="186"/>
-      <c r="J4" s="190"/>
-      <c r="K4" s="191"/>
-      <c r="L4" s="192"/>
-      <c r="M4" s="199"/>
-      <c r="N4" s="200"/>
-      <c r="O4" s="201"/>
-      <c r="P4" s="184"/>
-      <c r="Q4" s="207"/>
-      <c r="R4" s="208"/>
-      <c r="S4" s="184"/>
-      <c r="T4" s="207"/>
-      <c r="U4" s="208"/>
-      <c r="V4" s="166"/>
-      <c r="W4" s="171"/>
-      <c r="X4" s="172"/>
+      <c r="A4" s="158"/>
+      <c r="B4" s="160"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="178"/>
+      <c r="F4" s="179"/>
+      <c r="G4" s="180"/>
+      <c r="H4" s="183"/>
+      <c r="I4" s="185"/>
+      <c r="J4" s="189"/>
+      <c r="K4" s="190"/>
+      <c r="L4" s="191"/>
+      <c r="M4" s="198"/>
+      <c r="N4" s="199"/>
+      <c r="O4" s="200"/>
+      <c r="P4" s="183"/>
+      <c r="Q4" s="206"/>
+      <c r="R4" s="207"/>
+      <c r="S4" s="183"/>
+      <c r="T4" s="206"/>
+      <c r="U4" s="207"/>
+      <c r="V4" s="165"/>
+      <c r="W4" s="170"/>
+      <c r="X4" s="171"/>
       <c r="Y4" s="17"/>
-      <c r="Z4" s="159"/>
-      <c r="AB4" s="161"/>
-      <c r="AC4" s="161"/>
-      <c r="AD4" s="161"/>
-      <c r="AE4" s="161"/>
+      <c r="Z4" s="158"/>
+      <c r="AB4" s="160"/>
+      <c r="AC4" s="160"/>
+      <c r="AD4" s="160"/>
+      <c r="AE4" s="160"/>
     </row>
     <row r="5" spans="1:31" ht="25.15" customHeight="1">
-      <c r="A5" s="159"/>
-      <c r="B5" s="161"/>
-      <c r="C5" s="161"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="179"/>
-      <c r="F5" s="180"/>
-      <c r="G5" s="181"/>
-      <c r="H5" s="184"/>
-      <c r="I5" s="186"/>
-      <c r="J5" s="190"/>
-      <c r="K5" s="191"/>
-      <c r="L5" s="192"/>
-      <c r="M5" s="199"/>
-      <c r="N5" s="200"/>
-      <c r="O5" s="201"/>
-      <c r="P5" s="184"/>
-      <c r="Q5" s="207"/>
-      <c r="R5" s="208"/>
-      <c r="S5" s="184"/>
-      <c r="T5" s="207"/>
-      <c r="U5" s="208"/>
-      <c r="V5" s="166"/>
-      <c r="W5" s="171"/>
-      <c r="X5" s="172"/>
+      <c r="A5" s="158"/>
+      <c r="B5" s="160"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="179"/>
+      <c r="G5" s="180"/>
+      <c r="H5" s="183"/>
+      <c r="I5" s="185"/>
+      <c r="J5" s="189"/>
+      <c r="K5" s="190"/>
+      <c r="L5" s="191"/>
+      <c r="M5" s="198"/>
+      <c r="N5" s="199"/>
+      <c r="O5" s="200"/>
+      <c r="P5" s="183"/>
+      <c r="Q5" s="206"/>
+      <c r="R5" s="207"/>
+      <c r="S5" s="183"/>
+      <c r="T5" s="206"/>
+      <c r="U5" s="207"/>
+      <c r="V5" s="165"/>
+      <c r="W5" s="170"/>
+      <c r="X5" s="171"/>
       <c r="Y5" s="17"/>
-      <c r="Z5" s="159"/>
-      <c r="AB5" s="161"/>
-      <c r="AC5" s="161"/>
-      <c r="AD5" s="161"/>
-      <c r="AE5" s="161"/>
+      <c r="Z5" s="158"/>
+      <c r="AB5" s="160"/>
+      <c r="AC5" s="160"/>
+      <c r="AD5" s="160"/>
+      <c r="AE5" s="160"/>
     </row>
     <row r="6" spans="1:31" ht="12.6" customHeight="1">
-      <c r="A6" s="159"/>
-      <c r="B6" s="161"/>
-      <c r="C6" s="161"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="179"/>
-      <c r="F6" s="180"/>
-      <c r="G6" s="181"/>
-      <c r="H6" s="184"/>
-      <c r="I6" s="186"/>
-      <c r="J6" s="193"/>
-      <c r="K6" s="194"/>
-      <c r="L6" s="195"/>
-      <c r="M6" s="202"/>
-      <c r="N6" s="203"/>
-      <c r="O6" s="204"/>
-      <c r="P6" s="184"/>
-      <c r="Q6" s="207"/>
-      <c r="R6" s="208"/>
-      <c r="S6" s="185"/>
-      <c r="T6" s="209"/>
-      <c r="U6" s="210"/>
-      <c r="V6" s="166"/>
-      <c r="W6" s="171"/>
-      <c r="X6" s="172"/>
+      <c r="A6" s="158"/>
+      <c r="B6" s="160"/>
+      <c r="C6" s="160"/>
+      <c r="D6" s="177"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="179"/>
+      <c r="G6" s="180"/>
+      <c r="H6" s="183"/>
+      <c r="I6" s="185"/>
+      <c r="J6" s="192"/>
+      <c r="K6" s="193"/>
+      <c r="L6" s="194"/>
+      <c r="M6" s="201"/>
+      <c r="N6" s="202"/>
+      <c r="O6" s="203"/>
+      <c r="P6" s="183"/>
+      <c r="Q6" s="206"/>
+      <c r="R6" s="207"/>
+      <c r="S6" s="184"/>
+      <c r="T6" s="208"/>
+      <c r="U6" s="209"/>
+      <c r="V6" s="165"/>
+      <c r="W6" s="170"/>
+      <c r="X6" s="171"/>
       <c r="Y6" s="17"/>
-      <c r="Z6" s="159"/>
-      <c r="AB6" s="161"/>
-      <c r="AC6" s="161"/>
-      <c r="AD6" s="161"/>
-      <c r="AE6" s="161"/>
+      <c r="Z6" s="158"/>
+      <c r="AB6" s="160"/>
+      <c r="AC6" s="160"/>
+      <c r="AD6" s="160"/>
+      <c r="AE6" s="160"/>
     </row>
     <row r="7" spans="1:31">
-      <c r="A7" s="160"/>
-      <c r="B7" s="162"/>
-      <c r="C7" s="162"/>
-      <c r="D7" s="178"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="180"/>
-      <c r="G7" s="182"/>
-      <c r="H7" s="185"/>
-      <c r="I7" s="186"/>
-      <c r="J7" s="175" t="s">
+      <c r="A7" s="159"/>
+      <c r="B7" s="161"/>
+      <c r="C7" s="161"/>
+      <c r="D7" s="177"/>
+      <c r="E7" s="178"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="181"/>
+      <c r="H7" s="184"/>
+      <c r="I7" s="185"/>
+      <c r="J7" s="174" t="s">
         <v>112</v>
       </c>
-      <c r="K7" s="176"/>
-      <c r="L7" s="177"/>
-      <c r="M7" s="175" t="s">
+      <c r="K7" s="175"/>
+      <c r="L7" s="176"/>
+      <c r="M7" s="174" t="s">
         <v>101</v>
       </c>
-      <c r="N7" s="176"/>
-      <c r="O7" s="177"/>
-      <c r="P7" s="185"/>
-      <c r="Q7" s="209"/>
-      <c r="R7" s="210"/>
-      <c r="S7" s="175" t="s">
+      <c r="N7" s="175"/>
+      <c r="O7" s="176"/>
+      <c r="P7" s="184"/>
+      <c r="Q7" s="208"/>
+      <c r="R7" s="209"/>
+      <c r="S7" s="174" t="s">
         <v>113</v>
       </c>
-      <c r="T7" s="176"/>
-      <c r="U7" s="177"/>
-      <c r="V7" s="167"/>
-      <c r="W7" s="173"/>
-      <c r="X7" s="174"/>
+      <c r="T7" s="175"/>
+      <c r="U7" s="176"/>
+      <c r="V7" s="166"/>
+      <c r="W7" s="172"/>
+      <c r="X7" s="173"/>
       <c r="Y7" s="17"/>
-      <c r="Z7" s="159"/>
-      <c r="AB7" s="161"/>
-      <c r="AC7" s="161"/>
-      <c r="AD7" s="161"/>
-      <c r="AE7" s="161"/>
+      <c r="Z7" s="158"/>
+      <c r="AB7" s="160"/>
+      <c r="AC7" s="160"/>
+      <c r="AD7" s="160"/>
+      <c r="AE7" s="160"/>
     </row>
     <row r="8" spans="1:31">
       <c r="A8" s="100">
         <v>1</v>
       </c>
-      <c r="B8" s="101" t="s">
-        <v>21</v>
+      <c r="B8" s="101" t="str">
+        <f>VLOOKUP(A8,'Load case definition'!$A$7:$B$177,2,FALSE)</f>
+        <v>Stale</v>
       </c>
       <c r="C8" s="21" t="str">
         <f t="shared" ref="C8:C71" si="0">IF(ISBLANK(A8),"","STRC")</f>
@@ -6140,12 +6050,14 @@
       <c r="F8" s="17"/>
       <c r="G8" s="20" t="str">
         <f>IF(ISBLANK(B8),"",TEXT(A8,0)&amp;":"&amp;B8)</f>
-        <v>1:Self-weight</v>
+        <v>1:Stale</v>
       </c>
       <c r="H8" s="117" t="s">
         <v>145</v>
       </c>
-      <c r="I8" s="151"/>
+      <c r="I8" s="151" t="s">
+        <v>147</v>
+      </c>
       <c r="J8" s="119"/>
       <c r="K8" s="118"/>
       <c r="L8" s="118"/>
@@ -6172,10 +6084,11 @@
     </row>
     <row r="9" spans="1:31">
       <c r="A9" s="68">
-        <v>100</v>
-      </c>
-      <c r="B9" s="69" t="s">
-        <v>222</v>
+        <v>1</v>
+      </c>
+      <c r="B9" s="101" t="str">
+        <f>VLOOKUP(A9,'Load case definition'!$A$7:$B$177,2,FALSE)</f>
+        <v>Stale</v>
       </c>
       <c r="C9" s="21" t="str">
         <f t="shared" si="0"/>
@@ -6188,22 +6101,22 @@
       <c r="F9" s="17"/>
       <c r="G9" s="21" t="str">
         <f>IF(ISBLANK(B9),"",TEXT(A9,0)&amp;":"&amp;B9)</f>
-        <v>100:Grating self-weight</v>
+        <v>1:Stale</v>
       </c>
       <c r="H9" s="68" t="s">
-        <v>221</v>
-      </c>
-      <c r="I9" s="152">
-        <v>1001</v>
+        <v>242</v>
+      </c>
+      <c r="I9" s="151" t="s">
+        <v>243</v>
       </c>
       <c r="J9" s="125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="126">
         <v>0</v>
       </c>
       <c r="L9" s="127">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M9" s="119">
         <v>0</v>
@@ -6214,19 +6127,31 @@
       <c r="O9" s="120">
         <v>0</v>
       </c>
-      <c r="P9" s="118"/>
-      <c r="Q9" s="118"/>
+      <c r="P9" s="118">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="118">
+        <v>0</v>
+      </c>
       <c r="R9" s="120">
         <v>45.000000000000014</v>
       </c>
-      <c r="S9" s="118"/>
-      <c r="T9" s="118"/>
-      <c r="U9" s="118"/>
+      <c r="S9" s="118">
+        <v>0</v>
+      </c>
+      <c r="T9" s="118">
+        <v>0</v>
+      </c>
+      <c r="U9" s="118">
+        <v>0</v>
+      </c>
       <c r="V9" s="128"/>
       <c r="W9" s="129" t="s">
         <v>146</v>
       </c>
-      <c r="X9" s="120"/>
+      <c r="X9" s="120" t="s">
+        <v>244</v>
+      </c>
       <c r="Y9" s="17"/>
       <c r="Z9" s="63"/>
       <c r="AB9" s="67"/>
@@ -6250,7 +6175,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="21"/>
       <c r="H10" s="68"/>
-      <c r="I10" s="152"/>
+      <c r="I10" s="151"/>
       <c r="J10" s="125"/>
       <c r="K10" s="126"/>
       <c r="L10" s="127"/>
@@ -6289,7 +6214,7 @@
       <c r="F11" s="17"/>
       <c r="G11" s="21"/>
       <c r="H11" s="68"/>
-      <c r="I11" s="153"/>
+      <c r="I11" s="152"/>
       <c r="J11" s="125"/>
       <c r="K11" s="126"/>
       <c r="L11" s="127"/>
@@ -6328,7 +6253,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="21"/>
       <c r="H12" s="64"/>
-      <c r="I12" s="153"/>
+      <c r="I12" s="152"/>
       <c r="J12" s="113"/>
       <c r="K12" s="114"/>
       <c r="L12" s="115"/>
@@ -6365,7 +6290,7 @@
       <c r="F13" s="17"/>
       <c r="G13" s="21"/>
       <c r="H13" s="64"/>
-      <c r="I13" s="153"/>
+      <c r="I13" s="152"/>
       <c r="J13" s="113"/>
       <c r="K13" s="114"/>
       <c r="L13" s="115"/>
@@ -6402,7 +6327,7 @@
       <c r="F14" s="17"/>
       <c r="G14" s="21"/>
       <c r="H14" s="64"/>
-      <c r="I14" s="153"/>
+      <c r="I14" s="152"/>
       <c r="J14" s="113"/>
       <c r="K14" s="114"/>
       <c r="L14" s="115"/>
@@ -6437,7 +6362,7 @@
       <c r="F15" s="17"/>
       <c r="G15" s="21"/>
       <c r="H15" s="64"/>
-      <c r="I15" s="153"/>
+      <c r="I15" s="152"/>
       <c r="J15" s="113"/>
       <c r="K15" s="114"/>
       <c r="L15" s="115"/>
@@ -6472,7 +6397,7 @@
       <c r="F16" s="17"/>
       <c r="G16" s="21"/>
       <c r="H16" s="64"/>
-      <c r="I16" s="153"/>
+      <c r="I16" s="152"/>
       <c r="J16" s="113"/>
       <c r="K16" s="114"/>
       <c r="L16" s="115"/>
@@ -6507,7 +6432,7 @@
       <c r="F17" s="17"/>
       <c r="G17" s="21"/>
       <c r="H17" s="64"/>
-      <c r="I17" s="153"/>
+      <c r="I17" s="152"/>
       <c r="J17" s="113"/>
       <c r="K17" s="114"/>
       <c r="L17" s="115"/>
@@ -6542,7 +6467,7 @@
       <c r="F18" s="17"/>
       <c r="G18" s="21"/>
       <c r="H18" s="64"/>
-      <c r="I18" s="153"/>
+      <c r="I18" s="152"/>
       <c r="J18" s="113"/>
       <c r="K18" s="114"/>
       <c r="L18" s="115"/>
@@ -6577,7 +6502,7 @@
       <c r="F19" s="17"/>
       <c r="G19" s="21"/>
       <c r="H19" s="64"/>
-      <c r="I19" s="153"/>
+      <c r="I19" s="152"/>
       <c r="J19" s="113"/>
       <c r="K19" s="114"/>
       <c r="L19" s="115"/>
@@ -6612,7 +6537,7 @@
       <c r="F20" s="17"/>
       <c r="G20" s="21"/>
       <c r="H20" s="64"/>
-      <c r="I20" s="153"/>
+      <c r="I20" s="152"/>
       <c r="J20" s="113"/>
       <c r="K20" s="114"/>
       <c r="L20" s="115"/>
@@ -6647,7 +6572,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="21"/>
       <c r="H21" s="64"/>
-      <c r="I21" s="153"/>
+      <c r="I21" s="152"/>
       <c r="J21" s="113"/>
       <c r="K21" s="114"/>
       <c r="L21" s="115"/>
@@ -6682,7 +6607,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="21"/>
       <c r="H22" s="64"/>
-      <c r="I22" s="153"/>
+      <c r="I22" s="152"/>
       <c r="J22" s="113"/>
       <c r="K22" s="114"/>
       <c r="L22" s="115"/>
@@ -6717,7 +6642,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="21"/>
       <c r="H23" s="64"/>
-      <c r="I23" s="153"/>
+      <c r="I23" s="152"/>
       <c r="J23" s="113"/>
       <c r="K23" s="114"/>
       <c r="L23" s="115"/>
@@ -6752,7 +6677,7 @@
       <c r="F24" s="17"/>
       <c r="G24" s="21"/>
       <c r="H24" s="64"/>
-      <c r="I24" s="153"/>
+      <c r="I24" s="152"/>
       <c r="J24" s="113"/>
       <c r="K24" s="114"/>
       <c r="L24" s="115"/>
@@ -6787,7 +6712,7 @@
       <c r="F25" s="17"/>
       <c r="G25" s="21"/>
       <c r="H25" s="64"/>
-      <c r="I25" s="153"/>
+      <c r="I25" s="152"/>
       <c r="J25" s="113"/>
       <c r="K25" s="114"/>
       <c r="L25" s="115"/>
@@ -6822,7 +6747,7 @@
       <c r="F26" s="17"/>
       <c r="G26" s="21"/>
       <c r="H26" s="64"/>
-      <c r="I26" s="153"/>
+      <c r="I26" s="152"/>
       <c r="J26" s="113"/>
       <c r="K26" s="114"/>
       <c r="L26" s="115"/>
@@ -6857,7 +6782,7 @@
       <c r="F27" s="17"/>
       <c r="G27" s="21"/>
       <c r="H27" s="64"/>
-      <c r="I27" s="153"/>
+      <c r="I27" s="152"/>
       <c r="J27" s="113"/>
       <c r="K27" s="114"/>
       <c r="L27" s="115"/>
@@ -6892,7 +6817,7 @@
       <c r="F28" s="17"/>
       <c r="G28" s="21"/>
       <c r="H28" s="64"/>
-      <c r="I28" s="153"/>
+      <c r="I28" s="152"/>
       <c r="J28" s="113"/>
       <c r="K28" s="114"/>
       <c r="L28" s="115"/>
@@ -6927,7 +6852,7 @@
       <c r="F29" s="17"/>
       <c r="G29" s="21"/>
       <c r="H29" s="64"/>
-      <c r="I29" s="153"/>
+      <c r="I29" s="152"/>
       <c r="J29" s="113"/>
       <c r="K29" s="114"/>
       <c r="L29" s="115"/>
@@ -6962,7 +6887,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="21"/>
       <c r="H30" s="64"/>
-      <c r="I30" s="153"/>
+      <c r="I30" s="152"/>
       <c r="J30" s="113"/>
       <c r="K30" s="114"/>
       <c r="L30" s="115"/>
@@ -6997,7 +6922,7 @@
       <c r="F31" s="17"/>
       <c r="G31" s="21"/>
       <c r="H31" s="64"/>
-      <c r="I31" s="153"/>
+      <c r="I31" s="152"/>
       <c r="J31" s="113"/>
       <c r="K31" s="114"/>
       <c r="L31" s="115"/>
@@ -7032,7 +6957,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="21"/>
       <c r="H32" s="64"/>
-      <c r="I32" s="153"/>
+      <c r="I32" s="152"/>
       <c r="J32" s="113"/>
       <c r="K32" s="114"/>
       <c r="L32" s="115"/>
@@ -7067,7 +6992,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="21"/>
       <c r="H33" s="64"/>
-      <c r="I33" s="153"/>
+      <c r="I33" s="152"/>
       <c r="J33" s="113"/>
       <c r="K33" s="114"/>
       <c r="L33" s="115"/>
@@ -7102,7 +7027,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="21"/>
       <c r="H34" s="64"/>
-      <c r="I34" s="153"/>
+      <c r="I34" s="152"/>
       <c r="J34" s="113"/>
       <c r="K34" s="114"/>
       <c r="L34" s="115"/>
@@ -7137,7 +7062,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="21"/>
       <c r="H35" s="64"/>
-      <c r="I35" s="153"/>
+      <c r="I35" s="152"/>
       <c r="J35" s="113"/>
       <c r="K35" s="114"/>
       <c r="L35" s="115"/>
@@ -7172,7 +7097,7 @@
       <c r="F36" s="17"/>
       <c r="G36" s="21"/>
       <c r="H36" s="64"/>
-      <c r="I36" s="153"/>
+      <c r="I36" s="152"/>
       <c r="J36" s="113"/>
       <c r="K36" s="114"/>
       <c r="L36" s="115"/>
@@ -7207,7 +7132,7 @@
       <c r="F37" s="17"/>
       <c r="G37" s="21"/>
       <c r="H37" s="64"/>
-      <c r="I37" s="153"/>
+      <c r="I37" s="152"/>
       <c r="J37" s="113"/>
       <c r="K37" s="114"/>
       <c r="L37" s="115"/>
@@ -7242,7 +7167,7 @@
       <c r="F38" s="17"/>
       <c r="G38" s="21"/>
       <c r="H38" s="64"/>
-      <c r="I38" s="153"/>
+      <c r="I38" s="152"/>
       <c r="J38" s="113"/>
       <c r="K38" s="114"/>
       <c r="L38" s="115"/>
@@ -7277,7 +7202,7 @@
       <c r="F39" s="17"/>
       <c r="G39" s="21"/>
       <c r="H39" s="64"/>
-      <c r="I39" s="153"/>
+      <c r="I39" s="152"/>
       <c r="J39" s="113"/>
       <c r="K39" s="114"/>
       <c r="L39" s="115"/>
@@ -7312,7 +7237,7 @@
       <c r="F40" s="17"/>
       <c r="G40" s="21"/>
       <c r="H40" s="64"/>
-      <c r="I40" s="153"/>
+      <c r="I40" s="152"/>
       <c r="J40" s="113"/>
       <c r="K40" s="114"/>
       <c r="L40" s="115"/>
@@ -7347,7 +7272,7 @@
       <c r="F41" s="17"/>
       <c r="G41" s="21"/>
       <c r="H41" s="64"/>
-      <c r="I41" s="153"/>
+      <c r="I41" s="152"/>
       <c r="J41" s="113"/>
       <c r="K41" s="114"/>
       <c r="L41" s="115"/>
@@ -7382,7 +7307,7 @@
       <c r="F42" s="17"/>
       <c r="G42" s="21"/>
       <c r="H42" s="64"/>
-      <c r="I42" s="153"/>
+      <c r="I42" s="152"/>
       <c r="J42" s="113"/>
       <c r="K42" s="114"/>
       <c r="L42" s="115"/>
@@ -7417,7 +7342,7 @@
       <c r="F43" s="17"/>
       <c r="G43" s="21"/>
       <c r="H43" s="64"/>
-      <c r="I43" s="153"/>
+      <c r="I43" s="152"/>
       <c r="J43" s="113"/>
       <c r="K43" s="114"/>
       <c r="L43" s="115"/>
@@ -7452,7 +7377,7 @@
       <c r="F44" s="17"/>
       <c r="G44" s="21"/>
       <c r="H44" s="64"/>
-      <c r="I44" s="153"/>
+      <c r="I44" s="152"/>
       <c r="J44" s="113"/>
       <c r="K44" s="114"/>
       <c r="L44" s="115"/>
@@ -7487,7 +7412,7 @@
       <c r="F45" s="17"/>
       <c r="G45" s="21"/>
       <c r="H45" s="64"/>
-      <c r="I45" s="153"/>
+      <c r="I45" s="152"/>
       <c r="J45" s="113"/>
       <c r="K45" s="114"/>
       <c r="L45" s="115"/>
@@ -7522,7 +7447,7 @@
       <c r="F46" s="17"/>
       <c r="G46" s="21"/>
       <c r="H46" s="64"/>
-      <c r="I46" s="153"/>
+      <c r="I46" s="152"/>
       <c r="J46" s="104"/>
       <c r="K46" s="103"/>
       <c r="L46" s="105"/>
@@ -7557,7 +7482,7 @@
       <c r="F47" s="17"/>
       <c r="G47" s="21"/>
       <c r="H47" s="64"/>
-      <c r="I47" s="153"/>
+      <c r="I47" s="152"/>
       <c r="J47" s="104"/>
       <c r="K47" s="103"/>
       <c r="L47" s="105"/>
@@ -7592,7 +7517,7 @@
       <c r="F48" s="17"/>
       <c r="G48" s="21"/>
       <c r="H48" s="64"/>
-      <c r="I48" s="153"/>
+      <c r="I48" s="152"/>
       <c r="J48" s="104"/>
       <c r="K48" s="103"/>
       <c r="L48" s="105"/>
@@ -7627,7 +7552,7 @@
       <c r="F49" s="17"/>
       <c r="G49" s="21"/>
       <c r="H49" s="64"/>
-      <c r="I49" s="153"/>
+      <c r="I49" s="152"/>
       <c r="J49" s="104"/>
       <c r="K49" s="103"/>
       <c r="L49" s="105"/>
@@ -7662,7 +7587,7 @@
       <c r="F50" s="17"/>
       <c r="G50" s="21"/>
       <c r="H50" s="64"/>
-      <c r="I50" s="153"/>
+      <c r="I50" s="152"/>
       <c r="J50" s="104"/>
       <c r="K50" s="103"/>
       <c r="L50" s="105"/>
@@ -7697,7 +7622,7 @@
       <c r="F51" s="17"/>
       <c r="G51" s="21"/>
       <c r="H51" s="64"/>
-      <c r="I51" s="153"/>
+      <c r="I51" s="152"/>
       <c r="J51" s="104"/>
       <c r="K51" s="103"/>
       <c r="L51" s="105"/>
@@ -7732,7 +7657,7 @@
       <c r="F52" s="17"/>
       <c r="G52" s="21"/>
       <c r="H52" s="64"/>
-      <c r="I52" s="153"/>
+      <c r="I52" s="152"/>
       <c r="J52" s="104"/>
       <c r="K52" s="103"/>
       <c r="L52" s="105"/>
@@ -7767,7 +7692,7 @@
       <c r="F53" s="17"/>
       <c r="G53" s="21"/>
       <c r="H53" s="64"/>
-      <c r="I53" s="153"/>
+      <c r="I53" s="152"/>
       <c r="J53" s="104"/>
       <c r="K53" s="103"/>
       <c r="L53" s="105"/>
@@ -7802,7 +7727,7 @@
       <c r="F54" s="17"/>
       <c r="G54" s="21"/>
       <c r="H54" s="64"/>
-      <c r="I54" s="153"/>
+      <c r="I54" s="152"/>
       <c r="J54" s="104"/>
       <c r="K54" s="103"/>
       <c r="L54" s="105"/>
@@ -7837,7 +7762,7 @@
       <c r="F55" s="17"/>
       <c r="G55" s="21"/>
       <c r="H55" s="64"/>
-      <c r="I55" s="153"/>
+      <c r="I55" s="152"/>
       <c r="J55" s="104"/>
       <c r="K55" s="103"/>
       <c r="L55" s="105"/>
@@ -7872,7 +7797,7 @@
       <c r="F56" s="17"/>
       <c r="G56" s="21"/>
       <c r="H56" s="64"/>
-      <c r="I56" s="153"/>
+      <c r="I56" s="152"/>
       <c r="J56" s="104"/>
       <c r="K56" s="103"/>
       <c r="L56" s="105"/>
@@ -7907,7 +7832,7 @@
       <c r="F57" s="17"/>
       <c r="G57" s="21"/>
       <c r="H57" s="64"/>
-      <c r="I57" s="153"/>
+      <c r="I57" s="152"/>
       <c r="J57" s="104"/>
       <c r="K57" s="103"/>
       <c r="L57" s="105"/>
@@ -7942,7 +7867,7 @@
       <c r="F58" s="17"/>
       <c r="G58" s="21"/>
       <c r="H58" s="64"/>
-      <c r="I58" s="153"/>
+      <c r="I58" s="152"/>
       <c r="J58" s="104"/>
       <c r="K58" s="103"/>
       <c r="L58" s="105"/>
@@ -7977,7 +7902,7 @@
       <c r="F59" s="17"/>
       <c r="G59" s="21"/>
       <c r="H59" s="64"/>
-      <c r="I59" s="153"/>
+      <c r="I59" s="152"/>
       <c r="J59" s="104"/>
       <c r="K59" s="103"/>
       <c r="L59" s="105"/>
@@ -8012,7 +7937,7 @@
       <c r="F60" s="17"/>
       <c r="G60" s="21"/>
       <c r="H60" s="64"/>
-      <c r="I60" s="153"/>
+      <c r="I60" s="152"/>
       <c r="J60" s="104"/>
       <c r="K60" s="103"/>
       <c r="L60" s="105"/>
@@ -8047,7 +7972,7 @@
       <c r="F61" s="17"/>
       <c r="G61" s="21"/>
       <c r="H61" s="64"/>
-      <c r="I61" s="153"/>
+      <c r="I61" s="152"/>
       <c r="J61" s="104"/>
       <c r="K61" s="103"/>
       <c r="L61" s="105"/>
@@ -8082,7 +8007,7 @@
       <c r="F62" s="17"/>
       <c r="G62" s="21"/>
       <c r="H62" s="64"/>
-      <c r="I62" s="153"/>
+      <c r="I62" s="152"/>
       <c r="J62" s="104"/>
       <c r="K62" s="103"/>
       <c r="L62" s="105"/>
@@ -8117,7 +8042,7 @@
       <c r="F63" s="17"/>
       <c r="G63" s="21"/>
       <c r="H63" s="64"/>
-      <c r="I63" s="153"/>
+      <c r="I63" s="152"/>
       <c r="J63" s="104"/>
       <c r="K63" s="103"/>
       <c r="L63" s="105"/>
@@ -8152,7 +8077,7 @@
       <c r="F64" s="17"/>
       <c r="G64" s="21"/>
       <c r="H64" s="64"/>
-      <c r="I64" s="153"/>
+      <c r="I64" s="152"/>
       <c r="J64" s="104"/>
       <c r="K64" s="103"/>
       <c r="L64" s="105"/>
@@ -8187,7 +8112,7 @@
       <c r="F65" s="17"/>
       <c r="G65" s="21"/>
       <c r="H65" s="64"/>
-      <c r="I65" s="153"/>
+      <c r="I65" s="152"/>
       <c r="J65" s="104"/>
       <c r="K65" s="103"/>
       <c r="L65" s="105"/>
@@ -8222,7 +8147,7 @@
       <c r="F66" s="17"/>
       <c r="G66" s="21"/>
       <c r="H66" s="64"/>
-      <c r="I66" s="153"/>
+      <c r="I66" s="152"/>
       <c r="J66" s="104"/>
       <c r="K66" s="103"/>
       <c r="L66" s="105"/>
@@ -8257,7 +8182,7 @@
       <c r="F67" s="17"/>
       <c r="G67" s="21"/>
       <c r="H67" s="64"/>
-      <c r="I67" s="153"/>
+      <c r="I67" s="152"/>
       <c r="J67" s="104"/>
       <c r="K67" s="103"/>
       <c r="L67" s="105"/>
@@ -8292,7 +8217,7 @@
       <c r="F68" s="17"/>
       <c r="G68" s="21"/>
       <c r="H68" s="64"/>
-      <c r="I68" s="153"/>
+      <c r="I68" s="152"/>
       <c r="J68" s="104"/>
       <c r="K68" s="103"/>
       <c r="L68" s="105"/>
@@ -8327,7 +8252,7 @@
       <c r="F69" s="17"/>
       <c r="G69" s="21"/>
       <c r="H69" s="64"/>
-      <c r="I69" s="153"/>
+      <c r="I69" s="152"/>
       <c r="J69" s="104"/>
       <c r="K69" s="103"/>
       <c r="L69" s="105"/>
@@ -8362,7 +8287,7 @@
       <c r="F70" s="17"/>
       <c r="G70" s="21"/>
       <c r="H70" s="64"/>
-      <c r="I70" s="153"/>
+      <c r="I70" s="152"/>
       <c r="J70" s="104"/>
       <c r="K70" s="103"/>
       <c r="L70" s="105"/>
@@ -8397,7 +8322,7 @@
       <c r="F71" s="17"/>
       <c r="G71" s="21"/>
       <c r="H71" s="64"/>
-      <c r="I71" s="153"/>
+      <c r="I71" s="152"/>
       <c r="J71" s="104"/>
       <c r="K71" s="103"/>
       <c r="L71" s="105"/>
@@ -8432,7 +8357,7 @@
       <c r="F72" s="17"/>
       <c r="G72" s="21"/>
       <c r="H72" s="64"/>
-      <c r="I72" s="153"/>
+      <c r="I72" s="152"/>
       <c r="J72" s="104"/>
       <c r="K72" s="103"/>
       <c r="L72" s="105"/>
@@ -8467,7 +8392,7 @@
       <c r="F73" s="17"/>
       <c r="G73" s="21"/>
       <c r="H73" s="64"/>
-      <c r="I73" s="153"/>
+      <c r="I73" s="152"/>
       <c r="J73" s="104"/>
       <c r="K73" s="103"/>
       <c r="L73" s="105"/>
@@ -8502,7 +8427,7 @@
       <c r="F74" s="17"/>
       <c r="G74" s="21"/>
       <c r="H74" s="64"/>
-      <c r="I74" s="153"/>
+      <c r="I74" s="152"/>
       <c r="J74" s="104"/>
       <c r="K74" s="103"/>
       <c r="L74" s="105"/>
@@ -8537,7 +8462,7 @@
       <c r="F75" s="17"/>
       <c r="G75" s="21"/>
       <c r="H75" s="64"/>
-      <c r="I75" s="153"/>
+      <c r="I75" s="152"/>
       <c r="J75" s="104"/>
       <c r="K75" s="103"/>
       <c r="L75" s="105"/>
@@ -8572,7 +8497,7 @@
       <c r="F76" s="17"/>
       <c r="G76" s="21"/>
       <c r="H76" s="64"/>
-      <c r="I76" s="153"/>
+      <c r="I76" s="152"/>
       <c r="J76" s="104"/>
       <c r="K76" s="103"/>
       <c r="L76" s="105"/>
@@ -8607,7 +8532,7 @@
       <c r="F77" s="17"/>
       <c r="G77" s="21"/>
       <c r="H77" s="64"/>
-      <c r="I77" s="153"/>
+      <c r="I77" s="152"/>
       <c r="J77" s="104"/>
       <c r="K77" s="103"/>
       <c r="L77" s="105"/>
@@ -8642,7 +8567,7 @@
       <c r="F78" s="17"/>
       <c r="G78" s="21"/>
       <c r="H78" s="64"/>
-      <c r="I78" s="153"/>
+      <c r="I78" s="152"/>
       <c r="J78" s="104"/>
       <c r="K78" s="103"/>
       <c r="L78" s="105"/>
@@ -8677,7 +8602,7 @@
       <c r="F79" s="17"/>
       <c r="G79" s="21"/>
       <c r="H79" s="64"/>
-      <c r="I79" s="153"/>
+      <c r="I79" s="152"/>
       <c r="J79" s="104"/>
       <c r="K79" s="103"/>
       <c r="L79" s="105"/>
@@ -8712,7 +8637,7 @@
       <c r="F80" s="17"/>
       <c r="G80" s="21"/>
       <c r="H80" s="64"/>
-      <c r="I80" s="153"/>
+      <c r="I80" s="152"/>
       <c r="J80" s="104"/>
       <c r="K80" s="103"/>
       <c r="L80" s="105"/>
@@ -8747,7 +8672,7 @@
       <c r="F81" s="17"/>
       <c r="G81" s="21"/>
       <c r="H81" s="64"/>
-      <c r="I81" s="153"/>
+      <c r="I81" s="152"/>
       <c r="J81" s="104"/>
       <c r="K81" s="103"/>
       <c r="L81" s="105"/>
@@ -8782,7 +8707,7 @@
       <c r="F82" s="17"/>
       <c r="G82" s="21"/>
       <c r="H82" s="64"/>
-      <c r="I82" s="153"/>
+      <c r="I82" s="152"/>
       <c r="J82" s="104"/>
       <c r="K82" s="103"/>
       <c r="L82" s="105"/>
@@ -8817,7 +8742,7 @@
       <c r="F83" s="17"/>
       <c r="G83" s="21"/>
       <c r="H83" s="64"/>
-      <c r="I83" s="153"/>
+      <c r="I83" s="152"/>
       <c r="J83" s="104"/>
       <c r="K83" s="103"/>
       <c r="L83" s="105"/>
@@ -8852,7 +8777,7 @@
       <c r="F84" s="17"/>
       <c r="G84" s="21"/>
       <c r="H84" s="64"/>
-      <c r="I84" s="153"/>
+      <c r="I84" s="152"/>
       <c r="J84" s="104"/>
       <c r="K84" s="103"/>
       <c r="L84" s="105"/>
@@ -8887,7 +8812,7 @@
       <c r="F85" s="17"/>
       <c r="G85" s="21"/>
       <c r="H85" s="64"/>
-      <c r="I85" s="153"/>
+      <c r="I85" s="152"/>
       <c r="J85" s="104"/>
       <c r="K85" s="103"/>
       <c r="L85" s="105"/>
@@ -8922,7 +8847,7 @@
       <c r="F86" s="17"/>
       <c r="G86" s="21"/>
       <c r="H86" s="64"/>
-      <c r="I86" s="153"/>
+      <c r="I86" s="152"/>
       <c r="J86" s="104"/>
       <c r="K86" s="103"/>
       <c r="L86" s="105"/>
@@ -8957,7 +8882,7 @@
       <c r="F87" s="17"/>
       <c r="G87" s="21"/>
       <c r="H87" s="64"/>
-      <c r="I87" s="153"/>
+      <c r="I87" s="152"/>
       <c r="J87" s="104"/>
       <c r="K87" s="103"/>
       <c r="L87" s="105"/>
@@ -8992,7 +8917,7 @@
       <c r="F88" s="17"/>
       <c r="G88" s="21"/>
       <c r="H88" s="64"/>
-      <c r="I88" s="153"/>
+      <c r="I88" s="152"/>
       <c r="J88" s="104"/>
       <c r="K88" s="103"/>
       <c r="L88" s="105"/>
@@ -9027,7 +8952,7 @@
       <c r="F89" s="17"/>
       <c r="G89" s="21"/>
       <c r="H89" s="64"/>
-      <c r="I89" s="153"/>
+      <c r="I89" s="152"/>
       <c r="J89" s="104"/>
       <c r="K89" s="103"/>
       <c r="L89" s="105"/>
@@ -9062,7 +8987,7 @@
       <c r="F90" s="17"/>
       <c r="G90" s="21"/>
       <c r="H90" s="64"/>
-      <c r="I90" s="153"/>
+      <c r="I90" s="152"/>
       <c r="J90" s="104"/>
       <c r="K90" s="103"/>
       <c r="L90" s="105"/>
@@ -9097,7 +9022,7 @@
       <c r="F91" s="17"/>
       <c r="G91" s="21"/>
       <c r="H91" s="64"/>
-      <c r="I91" s="153"/>
+      <c r="I91" s="152"/>
       <c r="J91" s="104"/>
       <c r="K91" s="103"/>
       <c r="L91" s="105"/>
@@ -9132,7 +9057,7 @@
       <c r="F92" s="17"/>
       <c r="G92" s="21"/>
       <c r="H92" s="64"/>
-      <c r="I92" s="153"/>
+      <c r="I92" s="152"/>
       <c r="J92" s="104"/>
       <c r="K92" s="103"/>
       <c r="L92" s="105"/>
@@ -9167,7 +9092,7 @@
       <c r="F93" s="17"/>
       <c r="G93" s="21"/>
       <c r="H93" s="64"/>
-      <c r="I93" s="153"/>
+      <c r="I93" s="152"/>
       <c r="J93" s="104"/>
       <c r="K93" s="103"/>
       <c r="L93" s="105"/>
@@ -9202,7 +9127,7 @@
       <c r="F94" s="17"/>
       <c r="G94" s="21"/>
       <c r="H94" s="64"/>
-      <c r="I94" s="153"/>
+      <c r="I94" s="152"/>
       <c r="J94" s="104"/>
       <c r="K94" s="103"/>
       <c r="L94" s="105"/>
@@ -9237,7 +9162,7 @@
       <c r="F95" s="17"/>
       <c r="G95" s="21"/>
       <c r="H95" s="64"/>
-      <c r="I95" s="153"/>
+      <c r="I95" s="152"/>
       <c r="J95" s="104"/>
       <c r="K95" s="103"/>
       <c r="L95" s="105"/>
@@ -9272,7 +9197,7 @@
       <c r="F96" s="17"/>
       <c r="G96" s="21"/>
       <c r="H96" s="64"/>
-      <c r="I96" s="153"/>
+      <c r="I96" s="152"/>
       <c r="J96" s="104"/>
       <c r="K96" s="103"/>
       <c r="L96" s="105"/>
@@ -9307,7 +9232,7 @@
       <c r="F97" s="17"/>
       <c r="G97" s="21"/>
       <c r="H97" s="64"/>
-      <c r="I97" s="153"/>
+      <c r="I97" s="152"/>
       <c r="J97" s="104"/>
       <c r="K97" s="103"/>
       <c r="L97" s="105"/>
@@ -9342,7 +9267,7 @@
       <c r="F98" s="17"/>
       <c r="G98" s="21"/>
       <c r="H98" s="64"/>
-      <c r="I98" s="153"/>
+      <c r="I98" s="152"/>
       <c r="J98" s="104"/>
       <c r="K98" s="103"/>
       <c r="L98" s="105"/>
@@ -9377,7 +9302,7 @@
       <c r="F99" s="17"/>
       <c r="G99" s="21"/>
       <c r="H99" s="64"/>
-      <c r="I99" s="153"/>
+      <c r="I99" s="152"/>
       <c r="J99" s="104"/>
       <c r="K99" s="103"/>
       <c r="L99" s="105"/>
@@ -9412,7 +9337,7 @@
       <c r="F100" s="17"/>
       <c r="G100" s="21"/>
       <c r="H100" s="64"/>
-      <c r="I100" s="153"/>
+      <c r="I100" s="152"/>
       <c r="J100" s="104"/>
       <c r="K100" s="103"/>
       <c r="L100" s="105"/>
@@ -9447,7 +9372,7 @@
       <c r="F101" s="17"/>
       <c r="G101" s="21"/>
       <c r="H101" s="64"/>
-      <c r="I101" s="153"/>
+      <c r="I101" s="152"/>
       <c r="J101" s="104"/>
       <c r="K101" s="103"/>
       <c r="L101" s="105"/>
@@ -9482,7 +9407,7 @@
       <c r="F102" s="17"/>
       <c r="G102" s="21"/>
       <c r="H102" s="64"/>
-      <c r="I102" s="153"/>
+      <c r="I102" s="152"/>
       <c r="J102" s="104"/>
       <c r="K102" s="103"/>
       <c r="L102" s="105"/>
@@ -9517,7 +9442,7 @@
       <c r="F103" s="17"/>
       <c r="G103" s="21"/>
       <c r="H103" s="64"/>
-      <c r="I103" s="153"/>
+      <c r="I103" s="152"/>
       <c r="J103" s="104"/>
       <c r="K103" s="103"/>
       <c r="L103" s="105"/>
@@ -9552,7 +9477,7 @@
       <c r="F104" s="17"/>
       <c r="G104" s="21"/>
       <c r="H104" s="64"/>
-      <c r="I104" s="153"/>
+      <c r="I104" s="152"/>
       <c r="J104" s="104"/>
       <c r="K104" s="103"/>
       <c r="L104" s="105"/>
@@ -9587,7 +9512,7 @@
       <c r="F105" s="17"/>
       <c r="G105" s="21"/>
       <c r="H105" s="64"/>
-      <c r="I105" s="153"/>
+      <c r="I105" s="152"/>
       <c r="J105" s="104"/>
       <c r="K105" s="103"/>
       <c r="L105" s="105"/>
@@ -9622,7 +9547,7 @@
       <c r="F106" s="17"/>
       <c r="G106" s="21"/>
       <c r="H106" s="64"/>
-      <c r="I106" s="153"/>
+      <c r="I106" s="152"/>
       <c r="J106" s="104"/>
       <c r="K106" s="103"/>
       <c r="L106" s="105"/>
@@ -9657,7 +9582,7 @@
       <c r="F107" s="17"/>
       <c r="G107" s="21"/>
       <c r="H107" s="64"/>
-      <c r="I107" s="153"/>
+      <c r="I107" s="152"/>
       <c r="J107" s="104"/>
       <c r="K107" s="103"/>
       <c r="L107" s="105"/>
@@ -9692,7 +9617,7 @@
       <c r="F108" s="17"/>
       <c r="G108" s="21"/>
       <c r="H108" s="64"/>
-      <c r="I108" s="153"/>
+      <c r="I108" s="152"/>
       <c r="J108" s="104"/>
       <c r="K108" s="103"/>
       <c r="L108" s="105"/>
@@ -9727,7 +9652,7 @@
       <c r="F109" s="17"/>
       <c r="G109" s="21"/>
       <c r="H109" s="64"/>
-      <c r="I109" s="153"/>
+      <c r="I109" s="152"/>
       <c r="J109" s="104"/>
       <c r="K109" s="103"/>
       <c r="L109" s="105"/>
@@ -9762,7 +9687,7 @@
       <c r="F110" s="17"/>
       <c r="G110" s="21"/>
       <c r="H110" s="64"/>
-      <c r="I110" s="153"/>
+      <c r="I110" s="152"/>
       <c r="J110" s="104"/>
       <c r="K110" s="103"/>
       <c r="L110" s="105"/>
@@ -9797,7 +9722,7 @@
       <c r="F111" s="17"/>
       <c r="G111" s="21"/>
       <c r="H111" s="64"/>
-      <c r="I111" s="153"/>
+      <c r="I111" s="152"/>
       <c r="J111" s="104"/>
       <c r="K111" s="103"/>
       <c r="L111" s="105"/>
@@ -9832,7 +9757,7 @@
       <c r="F112" s="17"/>
       <c r="G112" s="21"/>
       <c r="H112" s="64"/>
-      <c r="I112" s="153"/>
+      <c r="I112" s="152"/>
       <c r="J112" s="104"/>
       <c r="K112" s="103"/>
       <c r="L112" s="105"/>
@@ -9867,7 +9792,7 @@
       <c r="F113" s="17"/>
       <c r="G113" s="21"/>
       <c r="H113" s="64"/>
-      <c r="I113" s="153"/>
+      <c r="I113" s="152"/>
       <c r="J113" s="104"/>
       <c r="K113" s="103"/>
       <c r="L113" s="105"/>
@@ -9902,7 +9827,7 @@
       <c r="F114" s="17"/>
       <c r="G114" s="21"/>
       <c r="H114" s="64"/>
-      <c r="I114" s="153"/>
+      <c r="I114" s="152"/>
       <c r="J114" s="104"/>
       <c r="K114" s="103"/>
       <c r="L114" s="105"/>
@@ -9937,7 +9862,7 @@
       <c r="F115" s="17"/>
       <c r="G115" s="21"/>
       <c r="H115" s="64"/>
-      <c r="I115" s="153"/>
+      <c r="I115" s="152"/>
       <c r="J115" s="104"/>
       <c r="K115" s="103"/>
       <c r="L115" s="105"/>
@@ -9972,7 +9897,7 @@
       <c r="F116" s="17"/>
       <c r="G116" s="21"/>
       <c r="H116" s="64"/>
-      <c r="I116" s="153"/>
+      <c r="I116" s="152"/>
       <c r="J116" s="104"/>
       <c r="K116" s="103"/>
       <c r="L116" s="105"/>
@@ -10007,7 +9932,7 @@
       <c r="F117" s="17"/>
       <c r="G117" s="21"/>
       <c r="H117" s="64"/>
-      <c r="I117" s="153"/>
+      <c r="I117" s="152"/>
       <c r="J117" s="104"/>
       <c r="K117" s="103"/>
       <c r="L117" s="105"/>
@@ -10042,7 +9967,7 @@
       <c r="F118" s="17"/>
       <c r="G118" s="21"/>
       <c r="H118" s="64"/>
-      <c r="I118" s="153"/>
+      <c r="I118" s="152"/>
       <c r="J118" s="104"/>
       <c r="K118" s="103"/>
       <c r="L118" s="105"/>
@@ -10077,7 +10002,7 @@
       <c r="F119" s="17"/>
       <c r="G119" s="21"/>
       <c r="H119" s="64"/>
-      <c r="I119" s="153"/>
+      <c r="I119" s="152"/>
       <c r="J119" s="104"/>
       <c r="K119" s="103"/>
       <c r="L119" s="105"/>
@@ -10112,7 +10037,7 @@
       <c r="F120" s="17"/>
       <c r="G120" s="21"/>
       <c r="H120" s="64"/>
-      <c r="I120" s="153"/>
+      <c r="I120" s="152"/>
       <c r="J120" s="104"/>
       <c r="K120" s="103"/>
       <c r="L120" s="105"/>
@@ -10147,7 +10072,7 @@
       <c r="F121" s="17"/>
       <c r="G121" s="21"/>
       <c r="H121" s="64"/>
-      <c r="I121" s="153"/>
+      <c r="I121" s="152"/>
       <c r="J121" s="104"/>
       <c r="K121" s="103"/>
       <c r="L121" s="105"/>
@@ -10182,7 +10107,7 @@
       <c r="F122" s="17"/>
       <c r="G122" s="21"/>
       <c r="H122" s="64"/>
-      <c r="I122" s="153"/>
+      <c r="I122" s="152"/>
       <c r="J122" s="104"/>
       <c r="K122" s="103"/>
       <c r="L122" s="105"/>
@@ -10217,7 +10142,7 @@
       <c r="F123" s="17"/>
       <c r="G123" s="21"/>
       <c r="H123" s="64"/>
-      <c r="I123" s="153"/>
+      <c r="I123" s="152"/>
       <c r="J123" s="104"/>
       <c r="K123" s="103"/>
       <c r="L123" s="105"/>
@@ -10252,7 +10177,7 @@
       <c r="F124" s="17"/>
       <c r="G124" s="21"/>
       <c r="H124" s="64"/>
-      <c r="I124" s="153"/>
+      <c r="I124" s="152"/>
       <c r="J124" s="104"/>
       <c r="K124" s="103"/>
       <c r="L124" s="105"/>
@@ -10287,7 +10212,7 @@
       <c r="F125" s="17"/>
       <c r="G125" s="21"/>
       <c r="H125" s="64"/>
-      <c r="I125" s="153"/>
+      <c r="I125" s="152"/>
       <c r="J125" s="104"/>
       <c r="K125" s="103"/>
       <c r="L125" s="105"/>
@@ -10322,7 +10247,7 @@
       <c r="F126" s="17"/>
       <c r="G126" s="21"/>
       <c r="H126" s="64"/>
-      <c r="I126" s="153"/>
+      <c r="I126" s="152"/>
       <c r="J126" s="104"/>
       <c r="K126" s="103"/>
       <c r="L126" s="105"/>
@@ -10357,7 +10282,7 @@
       <c r="F127" s="17"/>
       <c r="G127" s="21"/>
       <c r="H127" s="64"/>
-      <c r="I127" s="153"/>
+      <c r="I127" s="152"/>
       <c r="J127" s="104"/>
       <c r="K127" s="103"/>
       <c r="L127" s="105"/>
@@ -10392,7 +10317,7 @@
       <c r="F128" s="17"/>
       <c r="G128" s="21"/>
       <c r="H128" s="64"/>
-      <c r="I128" s="153"/>
+      <c r="I128" s="152"/>
       <c r="J128" s="104"/>
       <c r="K128" s="103"/>
       <c r="L128" s="105"/>
@@ -10427,7 +10352,7 @@
       <c r="F129" s="17"/>
       <c r="G129" s="21"/>
       <c r="H129" s="64"/>
-      <c r="I129" s="153"/>
+      <c r="I129" s="152"/>
       <c r="J129" s="104"/>
       <c r="K129" s="103"/>
       <c r="L129" s="105"/>
@@ -10462,7 +10387,7 @@
       <c r="F130" s="17"/>
       <c r="G130" s="21"/>
       <c r="H130" s="64"/>
-      <c r="I130" s="153"/>
+      <c r="I130" s="152"/>
       <c r="J130" s="104"/>
       <c r="K130" s="103"/>
       <c r="L130" s="105"/>
@@ -10497,7 +10422,7 @@
       <c r="F131" s="17"/>
       <c r="G131" s="21"/>
       <c r="H131" s="64"/>
-      <c r="I131" s="153"/>
+      <c r="I131" s="152"/>
       <c r="J131" s="104"/>
       <c r="K131" s="103"/>
       <c r="L131" s="105"/>
@@ -10532,7 +10457,7 @@
       <c r="F132" s="17"/>
       <c r="G132" s="21"/>
       <c r="H132" s="64"/>
-      <c r="I132" s="153"/>
+      <c r="I132" s="152"/>
       <c r="J132" s="104"/>
       <c r="K132" s="103"/>
       <c r="L132" s="105"/>
@@ -10567,7 +10492,7 @@
       <c r="F133" s="17"/>
       <c r="G133" s="21"/>
       <c r="H133" s="64"/>
-      <c r="I133" s="153"/>
+      <c r="I133" s="152"/>
       <c r="J133" s="104"/>
       <c r="K133" s="103"/>
       <c r="L133" s="105"/>
@@ -10602,7 +10527,7 @@
       <c r="F134" s="17"/>
       <c r="G134" s="21"/>
       <c r="H134" s="64"/>
-      <c r="I134" s="153"/>
+      <c r="I134" s="152"/>
       <c r="J134" s="104"/>
       <c r="K134" s="103"/>
       <c r="L134" s="105"/>
@@ -10637,7 +10562,7 @@
       <c r="F135" s="17"/>
       <c r="G135" s="21"/>
       <c r="H135" s="64"/>
-      <c r="I135" s="153"/>
+      <c r="I135" s="152"/>
       <c r="J135" s="104"/>
       <c r="K135" s="103"/>
       <c r="L135" s="105"/>
@@ -10672,7 +10597,7 @@
       <c r="F136" s="17"/>
       <c r="G136" s="21"/>
       <c r="H136" s="64"/>
-      <c r="I136" s="153"/>
+      <c r="I136" s="152"/>
       <c r="J136" s="104"/>
       <c r="K136" s="103"/>
       <c r="L136" s="105"/>
@@ -10707,7 +10632,7 @@
       <c r="F137" s="17"/>
       <c r="G137" s="21"/>
       <c r="H137" s="64"/>
-      <c r="I137" s="153"/>
+      <c r="I137" s="152"/>
       <c r="J137" s="104"/>
       <c r="K137" s="103"/>
       <c r="L137" s="105"/>
@@ -10742,7 +10667,7 @@
       <c r="F138" s="17"/>
       <c r="G138" s="21"/>
       <c r="H138" s="64"/>
-      <c r="I138" s="153"/>
+      <c r="I138" s="152"/>
       <c r="J138" s="104"/>
       <c r="K138" s="103"/>
       <c r="L138" s="105"/>
@@ -10777,7 +10702,7 @@
       <c r="F139" s="17"/>
       <c r="G139" s="21"/>
       <c r="H139" s="64"/>
-      <c r="I139" s="153"/>
+      <c r="I139" s="152"/>
       <c r="J139" s="104"/>
       <c r="K139" s="103"/>
       <c r="L139" s="105"/>
@@ -10812,7 +10737,7 @@
       <c r="F140" s="17"/>
       <c r="G140" s="21"/>
       <c r="H140" s="64"/>
-      <c r="I140" s="153"/>
+      <c r="I140" s="152"/>
       <c r="J140" s="104"/>
       <c r="K140" s="103"/>
       <c r="L140" s="105"/>
@@ -10847,7 +10772,7 @@
       <c r="F141" s="17"/>
       <c r="G141" s="21"/>
       <c r="H141" s="64"/>
-      <c r="I141" s="153"/>
+      <c r="I141" s="152"/>
       <c r="J141" s="104"/>
       <c r="K141" s="103"/>
       <c r="L141" s="105"/>
@@ -10882,7 +10807,7 @@
       <c r="F142" s="17"/>
       <c r="G142" s="21"/>
       <c r="H142" s="64"/>
-      <c r="I142" s="153"/>
+      <c r="I142" s="152"/>
       <c r="J142" s="104"/>
       <c r="K142" s="103"/>
       <c r="L142" s="105"/>
@@ -10917,7 +10842,7 @@
       <c r="F143" s="17"/>
       <c r="G143" s="21"/>
       <c r="H143" s="64"/>
-      <c r="I143" s="153"/>
+      <c r="I143" s="152"/>
       <c r="J143" s="104"/>
       <c r="K143" s="103"/>
       <c r="L143" s="105"/>
@@ -10952,7 +10877,7 @@
       <c r="F144" s="17"/>
       <c r="G144" s="21"/>
       <c r="H144" s="64"/>
-      <c r="I144" s="153"/>
+      <c r="I144" s="152"/>
       <c r="J144" s="104"/>
       <c r="K144" s="103"/>
       <c r="L144" s="105"/>
@@ -10987,7 +10912,7 @@
       <c r="F145" s="17"/>
       <c r="G145" s="21"/>
       <c r="H145" s="64"/>
-      <c r="I145" s="153"/>
+      <c r="I145" s="152"/>
       <c r="J145" s="104"/>
       <c r="K145" s="103"/>
       <c r="L145" s="105"/>
@@ -11022,7 +10947,7 @@
       <c r="F146" s="17"/>
       <c r="G146" s="21"/>
       <c r="H146" s="64"/>
-      <c r="I146" s="153"/>
+      <c r="I146" s="152"/>
       <c r="J146" s="104"/>
       <c r="K146" s="103"/>
       <c r="L146" s="105"/>
@@ -11057,7 +10982,7 @@
       <c r="F147" s="17"/>
       <c r="G147" s="21"/>
       <c r="H147" s="64"/>
-      <c r="I147" s="153"/>
+      <c r="I147" s="152"/>
       <c r="J147" s="104"/>
       <c r="K147" s="103"/>
       <c r="L147" s="105"/>
@@ -11092,7 +11017,7 @@
       <c r="F148" s="17"/>
       <c r="G148" s="21"/>
       <c r="H148" s="64"/>
-      <c r="I148" s="153"/>
+      <c r="I148" s="152"/>
       <c r="J148" s="104"/>
       <c r="K148" s="103"/>
       <c r="L148" s="105"/>
@@ -11127,7 +11052,7 @@
       <c r="F149" s="17"/>
       <c r="G149" s="21"/>
       <c r="H149" s="64"/>
-      <c r="I149" s="153"/>
+      <c r="I149" s="152"/>
       <c r="J149" s="104"/>
       <c r="K149" s="103"/>
       <c r="L149" s="105"/>
@@ -11162,7 +11087,7 @@
       <c r="F150" s="17"/>
       <c r="G150" s="21"/>
       <c r="H150" s="64"/>
-      <c r="I150" s="153"/>
+      <c r="I150" s="152"/>
       <c r="J150" s="104"/>
       <c r="K150" s="103"/>
       <c r="L150" s="105"/>
@@ -11197,7 +11122,7 @@
       <c r="F151" s="17"/>
       <c r="G151" s="21"/>
       <c r="H151" s="64"/>
-      <c r="I151" s="153"/>
+      <c r="I151" s="152"/>
       <c r="J151" s="104"/>
       <c r="K151" s="103"/>
       <c r="L151" s="105"/>
@@ -11232,7 +11157,7 @@
       <c r="F152" s="17"/>
       <c r="G152" s="21"/>
       <c r="H152" s="64"/>
-      <c r="I152" s="153"/>
+      <c r="I152" s="152"/>
       <c r="J152" s="104"/>
       <c r="K152" s="103"/>
       <c r="L152" s="105"/>
@@ -11267,7 +11192,7 @@
       <c r="F153" s="17"/>
       <c r="G153" s="21"/>
       <c r="H153" s="64"/>
-      <c r="I153" s="153"/>
+      <c r="I153" s="152"/>
       <c r="J153" s="104"/>
       <c r="K153" s="103"/>
       <c r="L153" s="105"/>
@@ -11302,7 +11227,7 @@
       <c r="F154" s="17"/>
       <c r="G154" s="21"/>
       <c r="H154" s="64"/>
-      <c r="I154" s="153"/>
+      <c r="I154" s="152"/>
       <c r="J154" s="104"/>
       <c r="K154" s="103"/>
       <c r="L154" s="105"/>
@@ -11337,7 +11262,7 @@
       <c r="F155" s="17"/>
       <c r="G155" s="21"/>
       <c r="H155" s="64"/>
-      <c r="I155" s="153"/>
+      <c r="I155" s="152"/>
       <c r="J155" s="104"/>
       <c r="K155" s="103"/>
       <c r="L155" s="105"/>
@@ -11372,7 +11297,7 @@
       <c r="F156" s="17"/>
       <c r="G156" s="21"/>
       <c r="H156" s="64"/>
-      <c r="I156" s="153"/>
+      <c r="I156" s="152"/>
       <c r="J156" s="104"/>
       <c r="K156" s="103"/>
       <c r="L156" s="105"/>
@@ -11407,7 +11332,7 @@
       <c r="F157" s="17"/>
       <c r="G157" s="21"/>
       <c r="H157" s="64"/>
-      <c r="I157" s="153"/>
+      <c r="I157" s="152"/>
       <c r="J157" s="104"/>
       <c r="K157" s="103"/>
       <c r="L157" s="105"/>
@@ -11442,7 +11367,7 @@
       <c r="F158" s="17"/>
       <c r="G158" s="21"/>
       <c r="H158" s="64"/>
-      <c r="I158" s="153"/>
+      <c r="I158" s="152"/>
       <c r="J158" s="104"/>
       <c r="K158" s="103"/>
       <c r="L158" s="105"/>
@@ -11477,7 +11402,7 @@
       <c r="F159" s="17"/>
       <c r="G159" s="21"/>
       <c r="H159" s="64"/>
-      <c r="I159" s="153"/>
+      <c r="I159" s="152"/>
       <c r="J159" s="104"/>
       <c r="K159" s="103"/>
       <c r="L159" s="105"/>
@@ -11512,7 +11437,7 @@
       <c r="F160" s="17"/>
       <c r="G160" s="21"/>
       <c r="H160" s="64"/>
-      <c r="I160" s="153"/>
+      <c r="I160" s="152"/>
       <c r="J160" s="104"/>
       <c r="K160" s="103"/>
       <c r="L160" s="105"/>
@@ -11547,7 +11472,7 @@
       <c r="F161" s="17"/>
       <c r="G161" s="21"/>
       <c r="H161" s="64"/>
-      <c r="I161" s="153"/>
+      <c r="I161" s="152"/>
       <c r="J161" s="104"/>
       <c r="K161" s="103"/>
       <c r="L161" s="105"/>
@@ -11582,7 +11507,7 @@
       <c r="F162" s="17"/>
       <c r="G162" s="21"/>
       <c r="H162" s="64"/>
-      <c r="I162" s="153"/>
+      <c r="I162" s="152"/>
       <c r="J162" s="104"/>
       <c r="K162" s="103"/>
       <c r="L162" s="105"/>
@@ -11617,7 +11542,7 @@
       <c r="F163" s="17"/>
       <c r="G163" s="21"/>
       <c r="H163" s="64"/>
-      <c r="I163" s="153"/>
+      <c r="I163" s="152"/>
       <c r="J163" s="104"/>
       <c r="K163" s="103"/>
       <c r="L163" s="105"/>
@@ -11652,7 +11577,7 @@
       <c r="F164" s="17"/>
       <c r="G164" s="21"/>
       <c r="H164" s="64"/>
-      <c r="I164" s="153"/>
+      <c r="I164" s="152"/>
       <c r="J164" s="104"/>
       <c r="K164" s="103"/>
       <c r="L164" s="105"/>
@@ -11687,7 +11612,7 @@
       <c r="F165" s="17"/>
       <c r="G165" s="21"/>
       <c r="H165" s="64"/>
-      <c r="I165" s="153"/>
+      <c r="I165" s="152"/>
       <c r="J165" s="104"/>
       <c r="K165" s="103"/>
       <c r="L165" s="105"/>
@@ -11722,7 +11647,7 @@
       <c r="F166" s="17"/>
       <c r="G166" s="21"/>
       <c r="H166" s="64"/>
-      <c r="I166" s="153"/>
+      <c r="I166" s="152"/>
       <c r="J166" s="104"/>
       <c r="K166" s="103"/>
       <c r="L166" s="105"/>
@@ -11757,7 +11682,7 @@
       <c r="F167" s="17"/>
       <c r="G167" s="21"/>
       <c r="H167" s="64"/>
-      <c r="I167" s="153"/>
+      <c r="I167" s="152"/>
       <c r="J167" s="104"/>
       <c r="K167" s="103"/>
       <c r="L167" s="105"/>
@@ -11792,7 +11717,7 @@
       <c r="F168" s="17"/>
       <c r="G168" s="21"/>
       <c r="H168" s="64"/>
-      <c r="I168" s="153"/>
+      <c r="I168" s="152"/>
       <c r="J168" s="104"/>
       <c r="K168" s="103"/>
       <c r="L168" s="105"/>
@@ -11827,7 +11752,7 @@
       <c r="F169" s="17"/>
       <c r="G169" s="21"/>
       <c r="H169" s="64"/>
-      <c r="I169" s="153"/>
+      <c r="I169" s="152"/>
       <c r="J169" s="104"/>
       <c r="K169" s="103"/>
       <c r="L169" s="105"/>
@@ -11862,7 +11787,7 @@
       <c r="F170" s="17"/>
       <c r="G170" s="21"/>
       <c r="H170" s="64"/>
-      <c r="I170" s="153"/>
+      <c r="I170" s="152"/>
       <c r="J170" s="104"/>
       <c r="K170" s="103"/>
       <c r="L170" s="105"/>
@@ -11897,7 +11822,7 @@
       <c r="F171" s="17"/>
       <c r="G171" s="21"/>
       <c r="H171" s="64"/>
-      <c r="I171" s="153"/>
+      <c r="I171" s="152"/>
       <c r="J171" s="104"/>
       <c r="K171" s="103"/>
       <c r="L171" s="105"/>
@@ -11932,7 +11857,7 @@
       <c r="F172" s="17"/>
       <c r="G172" s="21"/>
       <c r="H172" s="64"/>
-      <c r="I172" s="153"/>
+      <c r="I172" s="152"/>
       <c r="J172" s="104"/>
       <c r="K172" s="103"/>
       <c r="L172" s="105"/>
@@ -11967,7 +11892,7 @@
       <c r="F173" s="17"/>
       <c r="G173" s="21"/>
       <c r="H173" s="64"/>
-      <c r="I173" s="153"/>
+      <c r="I173" s="152"/>
       <c r="J173" s="104"/>
       <c r="K173" s="103"/>
       <c r="L173" s="105"/>
@@ -12002,7 +11927,7 @@
       <c r="F174" s="17"/>
       <c r="G174" s="21"/>
       <c r="H174" s="64"/>
-      <c r="I174" s="153"/>
+      <c r="I174" s="152"/>
       <c r="J174" s="104"/>
       <c r="K174" s="103"/>
       <c r="L174" s="105"/>
@@ -12037,7 +11962,7 @@
       <c r="F175" s="17"/>
       <c r="G175" s="21"/>
       <c r="H175" s="64"/>
-      <c r="I175" s="153"/>
+      <c r="I175" s="152"/>
       <c r="J175" s="104"/>
       <c r="K175" s="103"/>
       <c r="L175" s="105"/>
@@ -12072,7 +11997,7 @@
       <c r="F176" s="17"/>
       <c r="G176" s="21"/>
       <c r="H176" s="64"/>
-      <c r="I176" s="153"/>
+      <c r="I176" s="152"/>
       <c r="J176" s="104"/>
       <c r="K176" s="103"/>
       <c r="L176" s="105"/>
@@ -12107,7 +12032,7 @@
       <c r="F177" s="22"/>
       <c r="G177" s="71"/>
       <c r="H177" s="66"/>
-      <c r="I177" s="154"/>
+      <c r="I177" s="153"/>
       <c r="J177" s="110"/>
       <c r="K177" s="109"/>
       <c r="L177" s="111"/>
@@ -12160,66 +12085,66 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I1:I14 I17:I1048576">
-    <cfRule type="expression" dxfId="24" priority="30">
+    <cfRule type="expression" dxfId="18" priority="30">
       <formula>$M1="masses"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="23" priority="70">
+    <cfRule type="expression" dxfId="17" priority="70">
       <formula>$M16="masses"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="22" priority="71">
+    <cfRule type="expression" dxfId="16" priority="71">
       <formula>#REF!="masses"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:X1048576">
-    <cfRule type="expression" dxfId="21" priority="33">
+    <cfRule type="expression" dxfId="15" priority="33">
       <formula>$H1="self-weight"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:O1048576 S1:S1048576 V1:V1048576">
-    <cfRule type="expression" dxfId="20" priority="4">
+    <cfRule type="expression" dxfId="14" priority="4">
       <formula>$H1="uniform load"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:V1048576">
-    <cfRule type="expression" dxfId="19" priority="5">
+    <cfRule type="expression" dxfId="13" priority="5">
       <formula>$H1="(FE) uniform"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:W1048576">
-    <cfRule type="expression" dxfId="18" priority="56">
+    <cfRule type="expression" dxfId="12" priority="56">
       <formula>$H1="Body forces"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8:Q177 S8:V177">
-    <cfRule type="expression" dxfId="17" priority="3">
+    <cfRule type="expression" dxfId="11" priority="3">
       <formula>IF($H8="(FE) linear load on edges",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:X1048576">
-    <cfRule type="expression" dxfId="16" priority="55">
+    <cfRule type="expression" dxfId="10" priority="55">
       <formula>$H1 ="nodal force"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:V6 V7 U8:V1048576">
-    <cfRule type="expression" dxfId="15" priority="53">
+    <cfRule type="expression" dxfId="9" priority="53">
       <formula>$H1="trapezoidal load (2p)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X8:X177">
-    <cfRule type="expression" dxfId="14" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>$H8="(FE) linear load on edges"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB8:AB1527">
-    <cfRule type="expression" dxfId="13" priority="40">
+    <cfRule type="expression" dxfId="7" priority="40">
       <formula xml:space="preserve"> $H8 &lt;&gt; "(FE) uniform"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" xWindow="888" yWindow="1027" count="23">
+  <dataValidations xWindow="888" yWindow="1027" count="23">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="(FOR TRAPEZOIDAL LOADS ONLY)_x000a_PX1 - Enter your starting load in the X direction (kN/m)_x000a__x000a_PY1 - Enter your starting load in the Y direction (kN/m)_x000a__x000a_PZ1 - Enter your starting load in the Z direction (kN/m)" sqref="M7:O7" xr:uid="{0812F047-2D89-4B55-9889-103C5F04B3A9}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="(FOR TRAPEZOIDAL LOADS ONLY)_x000a_x2 - Absolute or relative distance of end of load along a member (m or m/L)_x000a__x000a_x1 - Absolute or relative distance of start of load along a member (m or m/L)" sqref="S7:U7" xr:uid="{F09F2104-A059-46D6-BCC5-FCC343EEBF80}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="(FOR TRAPEZOIDAL LOADS ONLY)_x000a_PX2 - Enter your finishing load in the X direction (kN/m)_x000a__x000a_PY2 - Enter your finishing load in the Y direction (kN/m)_x000a__x000a_PZ2 - Enter your finishing load in the Z direction (kN/m)" sqref="J7:L7" xr:uid="{BD3B4E6D-A98B-4332-AA30-12D0CE35A55E}"/>
@@ -12684,7 +12609,7 @@
         <v>21</v>
       </c>
       <c r="I3" s="97" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J3" s="97"/>
       <c r="K3" s="97"/>
@@ -17287,12 +17212,12 @@
       <c r="A4" s="3"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="211" t="s">
+      <c r="D4" s="210" t="s">
         <v>144</v>
       </c>
-      <c r="E4" s="212"/>
-      <c r="F4" s="212"/>
-      <c r="G4" s="212"/>
+      <c r="E4" s="211"/>
+      <c r="F4" s="211"/>
+      <c r="G4" s="211"/>
       <c r="H4" s="132">
         <v>1</v>
       </c>
@@ -21900,10 +21825,10 @@
       <c r="A5" s="33"/>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
-      <c r="D5" s="213"/>
-      <c r="E5" s="214"/>
-      <c r="F5" s="214"/>
-      <c r="G5" s="214"/>
+      <c r="D5" s="212"/>
+      <c r="E5" s="213"/>
+      <c r="F5" s="213"/>
+      <c r="G5" s="213"/>
       <c r="H5" s="132"/>
       <c r="I5" s="132"/>
       <c r="J5" s="132"/>
@@ -32742,23 +32667,23 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="E7:E476">
-    <cfRule type="expression" dxfId="12" priority="5">
+    <cfRule type="expression" dxfId="6" priority="5">
       <formula>D7=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F476">
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>E7=-4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>E7=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G476">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>E7=-4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>E7=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32902,75 +32827,75 @@
       <c r="D3" s="46"/>
       <c r="E3" s="51"/>
       <c r="F3" s="75"/>
-      <c r="G3" s="216" t="s">
+      <c r="G3" s="215" t="s">
         <v>90</v>
       </c>
-      <c r="H3" s="216"/>
-      <c r="I3" s="216"/>
-      <c r="J3" s="216"/>
-      <c r="K3" s="216"/>
-      <c r="L3" s="216"/>
-      <c r="M3" s="216"/>
-      <c r="N3" s="216"/>
-      <c r="O3" s="217"/>
-      <c r="P3" s="218" t="s">
+      <c r="H3" s="215"/>
+      <c r="I3" s="215"/>
+      <c r="J3" s="215"/>
+      <c r="K3" s="215"/>
+      <c r="L3" s="215"/>
+      <c r="M3" s="215"/>
+      <c r="N3" s="215"/>
+      <c r="O3" s="216"/>
+      <c r="P3" s="217" t="s">
         <v>89</v>
       </c>
-      <c r="Q3" s="216"/>
-      <c r="R3" s="216"/>
-      <c r="S3" s="216"/>
-      <c r="T3" s="216"/>
-      <c r="U3" s="216"/>
-      <c r="V3" s="216"/>
-      <c r="W3" s="217"/>
-      <c r="X3" s="218" t="s">
+      <c r="Q3" s="215"/>
+      <c r="R3" s="215"/>
+      <c r="S3" s="215"/>
+      <c r="T3" s="215"/>
+      <c r="U3" s="215"/>
+      <c r="V3" s="215"/>
+      <c r="W3" s="216"/>
+      <c r="X3" s="217" t="s">
         <v>88</v>
       </c>
-      <c r="Y3" s="216"/>
-      <c r="Z3" s="217"/>
-      <c r="AA3" s="216" t="s">
+      <c r="Y3" s="215"/>
+      <c r="Z3" s="216"/>
+      <c r="AA3" s="215" t="s">
         <v>87</v>
       </c>
-      <c r="AB3" s="216"/>
-      <c r="AC3" s="219" t="s">
+      <c r="AB3" s="215"/>
+      <c r="AC3" s="218" t="s">
         <v>86</v>
       </c>
-      <c r="AD3" s="220"/>
-      <c r="AE3" s="221"/>
+      <c r="AD3" s="219"/>
+      <c r="AE3" s="220"/>
       <c r="AF3" s="144" t="s">
         <v>85</v>
       </c>
-      <c r="AG3" s="218" t="s">
+      <c r="AG3" s="217" t="s">
         <v>189</v>
       </c>
-      <c r="AH3" s="216"/>
-      <c r="AI3" s="216"/>
-      <c r="AJ3" s="216"/>
-      <c r="AK3" s="216"/>
-      <c r="AL3" s="216"/>
-      <c r="AM3" s="216"/>
-      <c r="AN3" s="217"/>
-      <c r="AO3" s="218" t="s">
+      <c r="AH3" s="215"/>
+      <c r="AI3" s="215"/>
+      <c r="AJ3" s="215"/>
+      <c r="AK3" s="215"/>
+      <c r="AL3" s="215"/>
+      <c r="AM3" s="215"/>
+      <c r="AN3" s="216"/>
+      <c r="AO3" s="217" t="s">
         <v>202</v>
       </c>
-      <c r="AP3" s="216"/>
-      <c r="AQ3" s="216"/>
-      <c r="AR3" s="216"/>
-      <c r="AS3" s="216"/>
-      <c r="AT3" s="216"/>
-      <c r="AU3" s="216"/>
-      <c r="AV3" s="218" t="s">
+      <c r="AP3" s="215"/>
+      <c r="AQ3" s="215"/>
+      <c r="AR3" s="215"/>
+      <c r="AS3" s="215"/>
+      <c r="AT3" s="215"/>
+      <c r="AU3" s="215"/>
+      <c r="AV3" s="217" t="s">
         <v>196</v>
       </c>
-      <c r="AW3" s="216"/>
-      <c r="AX3" s="216"/>
-      <c r="AY3" s="216"/>
-      <c r="AZ3" s="216"/>
-      <c r="BA3" s="215" t="s">
+      <c r="AW3" s="215"/>
+      <c r="AX3" s="215"/>
+      <c r="AY3" s="215"/>
+      <c r="AZ3" s="215"/>
+      <c r="BA3" s="214" t="s">
         <v>204</v>
       </c>
-      <c r="BB3" s="215"/>
-      <c r="BC3" s="215"/>
+      <c r="BB3" s="214"/>
+      <c r="BC3" s="214"/>
     </row>
     <row r="4" spans="1:55" ht="111" customHeight="1">
       <c r="A4" s="42" t="s">
@@ -42639,12 +42564,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:C1 B72:C1048576">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="&amp;">
+    <cfRule type="containsText" dxfId="1" priority="9" operator="containsText" text="&amp;">
       <formula>NOT(ISERROR(SEARCH("&amp;",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:D71">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="&amp;">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&amp;">
       <formula>NOT(ISERROR(SEARCH("&amp;",B2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/pyMaster_loads_tool.xlsx
+++ b/pyMaster_loads_tool.xlsx
@@ -1,9 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28019"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_B14DCE746897BB59528FA27DCAAFE3E33C809601" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://atlec-my.sharepoint.com/personal/mwo_woodthilsted_com/Documents/Professional/5_PYTHON/pyMasterLoadsTool/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_63C044A934FA1E3C64BD361040959C1020566A08" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBED3B3D-0CB1-4490-B121-CB7CD6948239}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="858" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +30,18 @@
     <definedName name="SheetVersion">#REF!</definedName>
     <definedName name="VersionStatus">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -179,7 +192,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="418">
   <si>
     <t>Basic case no.</t>
   </si>
@@ -741,22 +754,7 @@
     <t>Combinations</t>
   </si>
   <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>ULS:Dead load</t>
-  </si>
-  <si>
-    <t>ULS</t>
   </si>
   <si>
     <t>ULS:Live load A + Stored anodes</t>
@@ -808,9 +806,6 @@
   </si>
   <si>
     <t>ALS:Snagging 1 x-</t>
-  </si>
-  <si>
-    <t>ALS</t>
   </si>
   <si>
     <t>ALS:Snagging 1 45-</t>
@@ -879,9 +874,6 @@
     <t>SLS:Live load A + Stored anodes</t>
   </si>
   <si>
-    <t>SLS</t>
-  </si>
-  <si>
     <t>SLS:Live load A + Deployed anodes</t>
   </si>
   <si>
@@ -916,6 +908,27 @@
   </si>
   <si>
     <t>SLS:JibFlex 90 + Live load B</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>ULS</t>
+  </si>
+  <si>
+    <t>ALS</t>
+  </si>
+  <si>
+    <t>SLS</t>
   </si>
   <si>
     <t>Display settings</t>
@@ -2345,6 +2358,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -2354,15 +2369,25 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2402,18 +2427,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2954,7 +2967,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFFE699"/>
   </sheetPr>
   <dimension ref="A1:N177"/>
@@ -2976,30 +2989,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A1" s="164" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="167" t="s">
+      <c r="A1" s="166" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="165" t="s">
+      <c r="C1" s="167" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="166" t="s">
+      <c r="E1" s="168" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
       <c r="L1" s="146" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="12.95" customHeight="1">
-      <c r="A2" s="184"/>
-      <c r="B2" s="184"/>
-      <c r="C2" s="184"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
       <c r="E2" s="163" t="s">
         <v>5</v>
       </c>
@@ -3026,14 +3039,14 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="184"/>
-      <c r="B3" s="184"/>
-      <c r="C3" s="184"/>
-      <c r="E3" s="184"/>
-      <c r="F3" s="184"/>
-      <c r="G3" s="184"/>
-      <c r="H3" s="184"/>
-      <c r="I3" s="184"/>
+      <c r="A3" s="164"/>
+      <c r="B3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
       <c r="K3" s="146" t="s">
         <v>12</v>
       </c>
@@ -3045,14 +3058,14 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="184"/>
-      <c r="B4" s="184"/>
-      <c r="C4" s="184"/>
-      <c r="E4" s="184"/>
-      <c r="F4" s="184"/>
-      <c r="G4" s="184"/>
-      <c r="H4" s="184"/>
-      <c r="I4" s="184"/>
+      <c r="A4" s="164"/>
+      <c r="B4" s="164"/>
+      <c r="C4" s="164"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="164"/>
+      <c r="G4" s="164"/>
+      <c r="H4" s="164"/>
+      <c r="I4" s="164"/>
       <c r="K4" s="146" t="s">
         <v>14</v>
       </c>
@@ -3064,14 +3077,14 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="184"/>
-      <c r="B5" s="184"/>
-      <c r="C5" s="184"/>
-      <c r="E5" s="184"/>
-      <c r="F5" s="184"/>
-      <c r="G5" s="184"/>
-      <c r="H5" s="184"/>
-      <c r="I5" s="184"/>
+      <c r="A5" s="164"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="164"/>
+      <c r="E5" s="164"/>
+      <c r="F5" s="164"/>
+      <c r="G5" s="164"/>
+      <c r="H5" s="164"/>
+      <c r="I5" s="164"/>
       <c r="K5" s="146" t="s">
         <v>16</v>
       </c>
@@ -3083,14 +3096,14 @@
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="185"/>
-      <c r="B6" s="185"/>
-      <c r="C6" s="185"/>
-      <c r="E6" s="185"/>
-      <c r="F6" s="185"/>
-      <c r="G6" s="185"/>
-      <c r="H6" s="185"/>
-      <c r="I6" s="185"/>
+      <c r="A6" s="165"/>
+      <c r="B6" s="165"/>
+      <c r="C6" s="165"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
+      <c r="I6" s="165"/>
       <c r="K6" s="146" t="s">
         <v>18</v>
       </c>
@@ -6219,8 +6232,8 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="AE13" sqref="AE13"/>
       <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
-      <selection activeCell="AE13" sqref="AE13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -6246,8 +6259,8 @@
     <col min="31" max="31" width="28.28515625" style="19" customWidth="1"/>
     <col min="32" max="32" width="8.7109375" style="19" customWidth="1"/>
     <col min="33" max="36" width="8.7109375" customWidth="1"/>
-    <col min="37" max="41" width="8.7109375" style="19" customWidth="1"/>
-    <col min="42" max="16384" width="8.7109375" style="19"/>
+    <col min="37" max="42" width="8.7109375" style="19" customWidth="1"/>
+    <col min="43" max="16384" width="8.7109375" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="23.1" customHeight="1">
@@ -6279,248 +6292,248 @@
       <c r="X1" s="17"/>
       <c r="Y1" s="17"/>
       <c r="Z1" s="17"/>
-      <c r="AB1" s="175" t="s">
+      <c r="AB1" s="187" t="s">
         <v>131</v>
       </c>
-      <c r="AC1" s="186"/>
-      <c r="AD1" s="186"/>
-      <c r="AE1" s="187"/>
+      <c r="AC1" s="172"/>
+      <c r="AD1" s="172"/>
+      <c r="AE1" s="173"/>
     </row>
     <row r="2" spans="1:31" ht="12.4" customHeight="1">
-      <c r="A2" s="164" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="167" t="s">
+      <c r="A2" s="166" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="165" t="s">
+      <c r="C2" s="167" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="171"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="165" t="s">
+      <c r="D2" s="183"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="173" t="s">
+      <c r="H2" s="185" t="s">
         <v>132</v>
       </c>
-      <c r="I2" s="170" t="s">
+      <c r="I2" s="182" t="s">
         <v>133</v>
       </c>
-      <c r="J2" s="168" t="s">
+      <c r="J2" s="171" t="s">
         <v>134</v>
       </c>
-      <c r="K2" s="186"/>
-      <c r="L2" s="186"/>
-      <c r="M2" s="186"/>
-      <c r="N2" s="186"/>
-      <c r="O2" s="186"/>
-      <c r="P2" s="186"/>
-      <c r="Q2" s="186"/>
-      <c r="R2" s="186"/>
-      <c r="S2" s="186"/>
-      <c r="T2" s="186"/>
-      <c r="U2" s="186"/>
-      <c r="V2" s="186"/>
-      <c r="W2" s="186"/>
-      <c r="X2" s="186"/>
-      <c r="Y2" s="187"/>
+      <c r="K2" s="172"/>
+      <c r="L2" s="172"/>
+      <c r="M2" s="172"/>
+      <c r="N2" s="172"/>
+      <c r="O2" s="172"/>
+      <c r="P2" s="172"/>
+      <c r="Q2" s="172"/>
+      <c r="R2" s="172"/>
+      <c r="S2" s="172"/>
+      <c r="T2" s="172"/>
+      <c r="U2" s="172"/>
+      <c r="V2" s="172"/>
+      <c r="W2" s="172"/>
+      <c r="X2" s="172"/>
+      <c r="Y2" s="173"/>
       <c r="Z2" s="163" t="s">
         <v>135</v>
       </c>
-      <c r="AB2" s="165" t="s">
+      <c r="AB2" s="167" t="s">
         <v>136</v>
       </c>
-      <c r="AC2" s="165" t="s">
+      <c r="AC2" s="167" t="s">
         <v>137</v>
       </c>
-      <c r="AD2" s="165" t="s">
+      <c r="AD2" s="167" t="s">
         <v>138</v>
       </c>
-      <c r="AE2" s="165" t="s">
+      <c r="AE2" s="167" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="12.6" customHeight="1">
-      <c r="A3" s="184"/>
-      <c r="B3" s="184"/>
-      <c r="C3" s="184"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="190"/>
-      <c r="G3" s="184"/>
-      <c r="H3" s="188"/>
-      <c r="I3" s="184"/>
-      <c r="J3" s="169" t="s">
+      <c r="A3" s="164"/>
+      <c r="B3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="179"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="177"/>
+      <c r="I3" s="164"/>
+      <c r="J3" s="174" t="s">
         <v>140</v>
       </c>
-      <c r="K3" s="191"/>
-      <c r="L3" s="192"/>
-      <c r="M3" s="176" t="s">
+      <c r="K3" s="175"/>
+      <c r="L3" s="176"/>
+      <c r="M3" s="188" t="s">
         <v>141</v>
       </c>
-      <c r="N3" s="191"/>
-      <c r="O3" s="192"/>
-      <c r="P3" s="165" t="s">
+      <c r="N3" s="175"/>
+      <c r="O3" s="176"/>
+      <c r="P3" s="167" t="s">
         <v>142</v>
       </c>
-      <c r="Q3" s="191"/>
-      <c r="R3" s="192"/>
-      <c r="S3" s="165" t="s">
+      <c r="Q3" s="175"/>
+      <c r="R3" s="176"/>
+      <c r="S3" s="167" t="s">
         <v>143</v>
       </c>
-      <c r="T3" s="191"/>
-      <c r="U3" s="192"/>
+      <c r="T3" s="175"/>
+      <c r="U3" s="176"/>
       <c r="V3" s="163" t="s">
         <v>144</v>
       </c>
       <c r="W3" s="163" t="s">
         <v>145</v>
       </c>
-      <c r="X3" s="192"/>
+      <c r="X3" s="176"/>
       <c r="Y3" s="163" t="s">
         <v>146</v>
       </c>
-      <c r="Z3" s="184"/>
-      <c r="AB3" s="184"/>
-      <c r="AC3" s="184"/>
-      <c r="AD3" s="184"/>
-      <c r="AE3" s="184"/>
+      <c r="Z3" s="164"/>
+      <c r="AB3" s="164"/>
+      <c r="AC3" s="164"/>
+      <c r="AD3" s="164"/>
+      <c r="AE3" s="164"/>
     </row>
     <row r="4" spans="1:31" ht="12.6" customHeight="1">
-      <c r="A4" s="184"/>
-      <c r="B4" s="184"/>
-      <c r="C4" s="184"/>
-      <c r="D4" s="188"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="190"/>
-      <c r="G4" s="184"/>
-      <c r="H4" s="188"/>
-      <c r="I4" s="184"/>
-      <c r="J4" s="188"/>
-      <c r="K4" s="189"/>
-      <c r="L4" s="190"/>
-      <c r="M4" s="188"/>
-      <c r="N4" s="189"/>
-      <c r="O4" s="190"/>
-      <c r="P4" s="188"/>
-      <c r="Q4" s="189"/>
-      <c r="R4" s="190"/>
-      <c r="S4" s="188"/>
-      <c r="T4" s="189"/>
-      <c r="U4" s="190"/>
-      <c r="V4" s="184"/>
-      <c r="W4" s="188"/>
-      <c r="X4" s="190"/>
-      <c r="Y4" s="184"/>
-      <c r="Z4" s="184"/>
-      <c r="AB4" s="184"/>
-      <c r="AC4" s="184"/>
-      <c r="AD4" s="184"/>
-      <c r="AE4" s="184"/>
+      <c r="A4" s="164"/>
+      <c r="B4" s="164"/>
+      <c r="C4" s="164"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="178"/>
+      <c r="F4" s="179"/>
+      <c r="G4" s="164"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="164"/>
+      <c r="J4" s="177"/>
+      <c r="K4" s="178"/>
+      <c r="L4" s="179"/>
+      <c r="M4" s="177"/>
+      <c r="N4" s="178"/>
+      <c r="O4" s="179"/>
+      <c r="P4" s="177"/>
+      <c r="Q4" s="178"/>
+      <c r="R4" s="179"/>
+      <c r="S4" s="177"/>
+      <c r="T4" s="178"/>
+      <c r="U4" s="179"/>
+      <c r="V4" s="164"/>
+      <c r="W4" s="177"/>
+      <c r="X4" s="179"/>
+      <c r="Y4" s="164"/>
+      <c r="Z4" s="164"/>
+      <c r="AB4" s="164"/>
+      <c r="AC4" s="164"/>
+      <c r="AD4" s="164"/>
+      <c r="AE4" s="164"/>
     </row>
     <row r="5" spans="1:31" ht="25.15" customHeight="1">
-      <c r="A5" s="184"/>
-      <c r="B5" s="184"/>
-      <c r="C5" s="184"/>
-      <c r="D5" s="188"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="190"/>
-      <c r="G5" s="184"/>
-      <c r="H5" s="188"/>
-      <c r="I5" s="184"/>
-      <c r="J5" s="188"/>
-      <c r="K5" s="189"/>
-      <c r="L5" s="190"/>
-      <c r="M5" s="188"/>
-      <c r="N5" s="189"/>
-      <c r="O5" s="190"/>
-      <c r="P5" s="188"/>
-      <c r="Q5" s="189"/>
-      <c r="R5" s="190"/>
-      <c r="S5" s="188"/>
-      <c r="T5" s="189"/>
-      <c r="U5" s="190"/>
-      <c r="V5" s="184"/>
-      <c r="W5" s="188"/>
-      <c r="X5" s="190"/>
-      <c r="Y5" s="184"/>
-      <c r="Z5" s="184"/>
-      <c r="AB5" s="184"/>
-      <c r="AC5" s="184"/>
-      <c r="AD5" s="184"/>
-      <c r="AE5" s="184"/>
+      <c r="A5" s="164"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="164"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="179"/>
+      <c r="G5" s="164"/>
+      <c r="H5" s="177"/>
+      <c r="I5" s="164"/>
+      <c r="J5" s="177"/>
+      <c r="K5" s="178"/>
+      <c r="L5" s="179"/>
+      <c r="M5" s="177"/>
+      <c r="N5" s="178"/>
+      <c r="O5" s="179"/>
+      <c r="P5" s="177"/>
+      <c r="Q5" s="178"/>
+      <c r="R5" s="179"/>
+      <c r="S5" s="177"/>
+      <c r="T5" s="178"/>
+      <c r="U5" s="179"/>
+      <c r="V5" s="164"/>
+      <c r="W5" s="177"/>
+      <c r="X5" s="179"/>
+      <c r="Y5" s="164"/>
+      <c r="Z5" s="164"/>
+      <c r="AB5" s="164"/>
+      <c r="AC5" s="164"/>
+      <c r="AD5" s="164"/>
+      <c r="AE5" s="164"/>
     </row>
     <row r="6" spans="1:31" ht="12.6" customHeight="1">
-      <c r="A6" s="184"/>
-      <c r="B6" s="184"/>
-      <c r="C6" s="184"/>
-      <c r="D6" s="188"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="190"/>
-      <c r="G6" s="184"/>
-      <c r="H6" s="188"/>
-      <c r="I6" s="184"/>
-      <c r="J6" s="193"/>
-      <c r="K6" s="183"/>
-      <c r="L6" s="194"/>
-      <c r="M6" s="193"/>
-      <c r="N6" s="183"/>
-      <c r="O6" s="194"/>
-      <c r="P6" s="188"/>
-      <c r="Q6" s="189"/>
-      <c r="R6" s="190"/>
-      <c r="S6" s="193"/>
-      <c r="T6" s="183"/>
-      <c r="U6" s="194"/>
-      <c r="V6" s="184"/>
-      <c r="W6" s="188"/>
-      <c r="X6" s="190"/>
-      <c r="Y6" s="184"/>
-      <c r="Z6" s="184"/>
-      <c r="AB6" s="184"/>
-      <c r="AC6" s="184"/>
-      <c r="AD6" s="184"/>
-      <c r="AE6" s="184"/>
+      <c r="A6" s="164"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="164"/>
+      <c r="D6" s="177"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="179"/>
+      <c r="G6" s="164"/>
+      <c r="H6" s="177"/>
+      <c r="I6" s="164"/>
+      <c r="J6" s="180"/>
+      <c r="K6" s="169"/>
+      <c r="L6" s="181"/>
+      <c r="M6" s="180"/>
+      <c r="N6" s="169"/>
+      <c r="O6" s="181"/>
+      <c r="P6" s="177"/>
+      <c r="Q6" s="178"/>
+      <c r="R6" s="179"/>
+      <c r="S6" s="180"/>
+      <c r="T6" s="169"/>
+      <c r="U6" s="181"/>
+      <c r="V6" s="164"/>
+      <c r="W6" s="177"/>
+      <c r="X6" s="179"/>
+      <c r="Y6" s="164"/>
+      <c r="Z6" s="164"/>
+      <c r="AB6" s="164"/>
+      <c r="AC6" s="164"/>
+      <c r="AD6" s="164"/>
+      <c r="AE6" s="164"/>
     </row>
     <row r="7" spans="1:31">
-      <c r="A7" s="185"/>
-      <c r="B7" s="185"/>
-      <c r="C7" s="185"/>
-      <c r="D7" s="188"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="190"/>
-      <c r="G7" s="185"/>
-      <c r="H7" s="193"/>
-      <c r="I7" s="185"/>
-      <c r="J7" s="168" t="s">
+      <c r="A7" s="165"/>
+      <c r="B7" s="165"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="177"/>
+      <c r="E7" s="178"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="165"/>
+      <c r="H7" s="180"/>
+      <c r="I7" s="165"/>
+      <c r="J7" s="171" t="s">
         <v>147</v>
       </c>
-      <c r="K7" s="186"/>
-      <c r="L7" s="187"/>
-      <c r="M7" s="168" t="s">
+      <c r="K7" s="172"/>
+      <c r="L7" s="173"/>
+      <c r="M7" s="171" t="s">
         <v>148</v>
       </c>
-      <c r="N7" s="186"/>
-      <c r="O7" s="187"/>
-      <c r="P7" s="193"/>
-      <c r="Q7" s="183"/>
-      <c r="R7" s="194"/>
-      <c r="S7" s="168" t="s">
+      <c r="N7" s="172"/>
+      <c r="O7" s="173"/>
+      <c r="P7" s="180"/>
+      <c r="Q7" s="169"/>
+      <c r="R7" s="181"/>
+      <c r="S7" s="171" t="s">
         <v>149</v>
       </c>
-      <c r="T7" s="186"/>
-      <c r="U7" s="187"/>
-      <c r="V7" s="185"/>
-      <c r="W7" s="193"/>
-      <c r="X7" s="194"/>
-      <c r="Y7" s="185"/>
-      <c r="Z7" s="185"/>
-      <c r="AB7" s="185"/>
-      <c r="AC7" s="185"/>
-      <c r="AD7" s="185"/>
-      <c r="AE7" s="185"/>
+      <c r="T7" s="172"/>
+      <c r="U7" s="173"/>
+      <c r="V7" s="165"/>
+      <c r="W7" s="180"/>
+      <c r="X7" s="181"/>
+      <c r="Y7" s="165"/>
+      <c r="Z7" s="165"/>
+      <c r="AB7" s="165"/>
+      <c r="AC7" s="165"/>
+      <c r="AD7" s="165"/>
+      <c r="AE7" s="165"/>
     </row>
     <row r="8" spans="1:31">
       <c r="A8" s="154">
@@ -6531,7 +6544,7 @@
       </c>
       <c r="C8" s="94" t="str">
         <f>VLOOKUP(A8,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="95" t="s">
@@ -6539,8 +6552,8 @@
       </c>
       <c r="F8" s="17"/>
       <c r="G8" s="20" t="str">
-        <f>IF(ISBLANK(B8),"",TEXT(A8,0)&amp;":"&amp;B8)</f>
-        <v/>
+        <f t="shared" ref="G8:G39" si="0">IF(ISBLANK(B8),"",TEXT(A8,0)&amp;":"&amp;B8)</f>
+        <v>1:Selfweight</v>
       </c>
       <c r="H8" s="109" t="s">
         <v>151</v>
@@ -6581,7 +6594,7 @@
       </c>
       <c r="C9" s="94" t="str">
         <f>VLOOKUP(A9,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="95" t="s">
@@ -6589,8 +6602,8 @@
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="21" t="str">
-        <f>IF(ISBLANK(B9),"",TEXT(A9,0)&amp;":"&amp;B9)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>100:Cable dead load</v>
       </c>
       <c r="H9" s="67" t="s">
         <v>153</v>
@@ -6641,14 +6654,14 @@
       </c>
       <c r="C10" s="94" t="str">
         <f>VLOOKUP(A10,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
       <c r="G10" s="21" t="str">
-        <f>IF(ISBLANK(B10),"",TEXT(A10,0)&amp;":"&amp;B10)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>101:Anode pallets</v>
       </c>
       <c r="H10" s="67" t="s">
         <v>153</v>
@@ -6699,7 +6712,7 @@
       </c>
       <c r="C11" s="94" t="str">
         <f>VLOOKUP(A11,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="95" t="s">
@@ -6707,8 +6720,8 @@
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="21" t="str">
-        <f>IF(ISBLANK(B11),"",TEXT(A11,0)&amp;":"&amp;B11)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>102:Deployed anodes</v>
       </c>
       <c r="H11" s="67" t="s">
         <v>157</v>
@@ -6767,7 +6780,7 @@
       </c>
       <c r="C12" s="94" t="str">
         <f>VLOOKUP(A12,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="95" t="s">
@@ -6775,8 +6788,8 @@
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="21" t="str">
-        <f>IF(ISBLANK(B12),"",TEXT(A12,0)&amp;":"&amp;B12)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>104:HV cable support structure</v>
       </c>
       <c r="H12" s="63" t="s">
         <v>157</v>
@@ -6833,7 +6846,7 @@
       </c>
       <c r="C13" s="94" t="str">
         <f>VLOOKUP(A13,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="95" t="s">
@@ -6841,8 +6854,8 @@
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="21" t="str">
-        <f>IF(ISBLANK(B13),"",TEXT(A13,0)&amp;":"&amp;B13)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>200:Distributed live load A</v>
       </c>
       <c r="H13" s="63" t="s">
         <v>153</v>
@@ -6891,7 +6904,7 @@
       </c>
       <c r="C14" s="94" t="str">
         <f>VLOOKUP(A14,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="95" t="s">
@@ -6899,8 +6912,8 @@
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="21" t="str">
-        <f>IF(ISBLANK(B14),"",TEXT(A14,0)&amp;":"&amp;B14)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>201:Distributed live load B</v>
       </c>
       <c r="H14" s="63" t="s">
         <v>153</v>
@@ -6949,14 +6962,14 @@
       </c>
       <c r="C15" s="94" t="str">
         <f>VLOOKUP(A15,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="95"/>
       <c r="F15" s="17"/>
       <c r="G15" s="21" t="str">
-        <f>IF(ISBLANK(B15),"",TEXT(A15,0)&amp;":"&amp;B15)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>202:Distributed live load A+B</v>
       </c>
       <c r="H15" s="63" t="s">
         <v>153</v>
@@ -7005,14 +7018,14 @@
       </c>
       <c r="C16" s="94" t="str">
         <f>VLOOKUP(A16,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="95"/>
       <c r="F16" s="17"/>
       <c r="G16" s="21" t="str">
-        <f>IF(ISBLANK(B16),"",TEXT(A16,0)&amp;":"&amp;B16)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>205:Live point load pos 3</v>
       </c>
       <c r="H16" s="63" t="s">
         <v>153</v>
@@ -7061,7 +7074,7 @@
       </c>
       <c r="C17" s="94" t="str">
         <f>VLOOKUP(A17,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="95" t="s">
@@ -7069,8 +7082,8 @@
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="21" t="str">
-        <f>IF(ISBLANK(B17),"",TEXT(A17,0)&amp;":"&amp;B17)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>206:Live point load pos 4</v>
       </c>
       <c r="H17" s="63" t="s">
         <v>153</v>
@@ -7119,14 +7132,14 @@
       </c>
       <c r="C18" s="94" t="str">
         <f>VLOOKUP(A18,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="95"/>
       <c r="F18" s="17"/>
       <c r="G18" s="21" t="str">
-        <f>IF(ISBLANK(B18),"",TEXT(A18,0)&amp;":"&amp;B18)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>220:Cable lashing point x</v>
       </c>
       <c r="H18" s="63" t="s">
         <v>157</v>
@@ -7183,14 +7196,14 @@
       </c>
       <c r="C19" s="94" t="str">
         <f>VLOOKUP(A19,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="95"/>
       <c r="F19" s="17"/>
       <c r="G19" s="21" t="str">
-        <f>IF(ISBLANK(B19),"",TEXT(A19,0)&amp;":"&amp;B19)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>221:Cable lashing point 45-</v>
       </c>
       <c r="H19" s="63" t="s">
         <v>157</v>
@@ -7247,7 +7260,7 @@
       </c>
       <c r="C20" s="94" t="str">
         <f>VLOOKUP(A20,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="95" t="s">
@@ -7255,8 +7268,8 @@
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="21" t="str">
-        <f>IF(ISBLANK(B20),"",TEXT(A20,0)&amp;":"&amp;B20)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>222:Cable lashing point 45+</v>
       </c>
       <c r="H20" s="63" t="s">
         <v>157</v>
@@ -7313,14 +7326,14 @@
       </c>
       <c r="C21" s="94" t="str">
         <f>VLOOKUP(A21,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>accidental</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="95"/>
       <c r="F21" s="17"/>
       <c r="G21" s="21" t="str">
-        <f>IF(ISBLANK(B21),"",TEXT(A21,0)&amp;":"&amp;B21)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>300:Snagging load 1 x-</v>
       </c>
       <c r="H21" s="63" t="s">
         <v>153</v>
@@ -7369,14 +7382,14 @@
       </c>
       <c r="C22" s="94" t="str">
         <f>VLOOKUP(A22,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>accidental</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="95"/>
       <c r="F22" s="17"/>
       <c r="G22" s="21" t="str">
-        <f>IF(ISBLANK(B22),"",TEXT(A22,0)&amp;":"&amp;B22)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>301:Snagging load 1 45-</v>
       </c>
       <c r="H22" s="63" t="s">
         <v>153</v>
@@ -7425,7 +7438,7 @@
       </c>
       <c r="C23" s="94" t="str">
         <f>VLOOKUP(A23,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>accidental</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="95" t="s">
@@ -7433,8 +7446,8 @@
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="21" t="str">
-        <f>IF(ISBLANK(B23),"",TEXT(A23,0)&amp;":"&amp;B23)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>302:Snagging load 1 y+</v>
       </c>
       <c r="H23" s="63" t="s">
         <v>153</v>
@@ -7483,14 +7496,14 @@
       </c>
       <c r="C24" s="94" t="str">
         <f>VLOOKUP(A24,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>accidental</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="95"/>
       <c r="F24" s="17"/>
       <c r="G24" s="21" t="str">
-        <f>IF(ISBLANK(B24),"",TEXT(A24,0)&amp;":"&amp;B24)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>303:Snagging load 1 45+</v>
       </c>
       <c r="H24" s="63" t="s">
         <v>153</v>
@@ -7539,14 +7552,14 @@
       </c>
       <c r="C25" s="94" t="str">
         <f>VLOOKUP(A25,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>accidental</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="95"/>
       <c r="F25" s="17"/>
       <c r="G25" s="21" t="str">
-        <f>IF(ISBLANK(B25),"",TEXT(A25,0)&amp;":"&amp;B25)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>304:Snagging load 1 x+</v>
       </c>
       <c r="H25" s="63" t="s">
         <v>153</v>
@@ -7595,7 +7608,7 @@
       </c>
       <c r="C26" s="94" t="str">
         <f>VLOOKUP(A26,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>accidental</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="95" t="s">
@@ -7603,8 +7616,8 @@
       </c>
       <c r="F26" s="17"/>
       <c r="G26" s="21" t="str">
-        <f>IF(ISBLANK(B26),"",TEXT(A26,0)&amp;":"&amp;B26)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>305:Snagging load 2 x-</v>
       </c>
       <c r="H26" s="63" t="s">
         <v>153</v>
@@ -7653,14 +7666,14 @@
       </c>
       <c r="C27" s="94" t="str">
         <f>VLOOKUP(A27,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>accidental</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="95"/>
       <c r="F27" s="17"/>
       <c r="G27" s="21" t="str">
-        <f>IF(ISBLANK(B27),"",TEXT(A27,0)&amp;":"&amp;B27)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>306:Snagging load 2 45-</v>
       </c>
       <c r="H27" s="63" t="s">
         <v>153</v>
@@ -7709,14 +7722,14 @@
       </c>
       <c r="C28" s="94" t="str">
         <f>VLOOKUP(A28,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>accidental</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="95"/>
       <c r="F28" s="17"/>
       <c r="G28" s="21" t="str">
-        <f>IF(ISBLANK(B28),"",TEXT(A28,0)&amp;":"&amp;B28)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>307:Snagging load 2 y+</v>
       </c>
       <c r="H28" s="63" t="s">
         <v>153</v>
@@ -7765,7 +7778,7 @@
       </c>
       <c r="C29" s="94" t="str">
         <f>VLOOKUP(A29,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>accidental</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="95" t="s">
@@ -7773,8 +7786,8 @@
       </c>
       <c r="F29" s="17"/>
       <c r="G29" s="21" t="str">
-        <f>IF(ISBLANK(B29),"",TEXT(A29,0)&amp;":"&amp;B29)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>308:Snagging load 2 45+</v>
       </c>
       <c r="H29" s="63" t="s">
         <v>153</v>
@@ -7823,14 +7836,14 @@
       </c>
       <c r="C30" s="94" t="str">
         <f>VLOOKUP(A30,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>accidental</v>
       </c>
       <c r="D30" s="17"/>
       <c r="E30" s="95"/>
       <c r="F30" s="17"/>
       <c r="G30" s="21" t="str">
-        <f>IF(ISBLANK(B30),"",TEXT(A30,0)&amp;":"&amp;B30)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>309:Snagging load 2 x+</v>
       </c>
       <c r="H30" s="63" t="s">
         <v>153</v>
@@ -7879,14 +7892,14 @@
       </c>
       <c r="C31" s="94" t="str">
         <f>VLOOKUP(A31,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>accidental</v>
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="95"/>
       <c r="F31" s="17"/>
       <c r="G31" s="21" t="str">
-        <f>IF(ISBLANK(B31),"",TEXT(A31,0)&amp;":"&amp;B31)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>310:Dogleg HOP fall z</v>
       </c>
       <c r="H31" s="63" t="s">
         <v>157</v>
@@ -7943,7 +7956,7 @@
       </c>
       <c r="C32" s="94" t="str">
         <f>VLOOKUP(A32,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>accidental</v>
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="95" t="s">
@@ -7951,8 +7964,8 @@
       </c>
       <c r="F32" s="17"/>
       <c r="G32" s="21" t="str">
-        <f>IF(ISBLANK(B32),"",TEXT(A32,0)&amp;":"&amp;B32)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>311:Dogleg HOP fall x</v>
       </c>
       <c r="H32" s="63" t="s">
         <v>157</v>
@@ -8009,14 +8022,14 @@
       </c>
       <c r="C33" s="94" t="str">
         <f>VLOOKUP(A33,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>accidental</v>
       </c>
       <c r="D33" s="17"/>
       <c r="E33" s="95"/>
       <c r="F33" s="17"/>
       <c r="G33" s="21" t="str">
-        <f>IF(ISBLANK(B33),"",TEXT(A33,0)&amp;":"&amp;B33)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>312:Dogleg HOP fall y</v>
       </c>
       <c r="H33" s="63" t="s">
         <v>157</v>
@@ -8073,14 +8086,14 @@
       </c>
       <c r="C34" s="94" t="str">
         <f>VLOOKUP(A34,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D34" s="17"/>
       <c r="E34" s="95"/>
       <c r="F34" s="17"/>
       <c r="G34" s="21" t="str">
-        <f>IF(ISBLANK(B34),"",TEXT(A34,0)&amp;":"&amp;B34)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>400:Transport z- objects</v>
       </c>
       <c r="H34" s="63" t="s">
         <v>170</v>
@@ -8127,7 +8140,7 @@
       </c>
       <c r="C35" s="94" t="str">
         <f>VLOOKUP(A35,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="95" t="s">
@@ -8135,8 +8148,8 @@
       </c>
       <c r="F35" s="17"/>
       <c r="G35" s="21" t="str">
-        <f>IF(ISBLANK(B35),"",TEXT(A35,0)&amp;":"&amp;B35)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>400:Transport z- objects</v>
       </c>
       <c r="H35" s="63" t="s">
         <v>170</v>
@@ -8183,14 +8196,14 @@
       </c>
       <c r="C36" s="94" t="str">
         <f>VLOOKUP(A36,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="95"/>
       <c r="F36" s="17"/>
       <c r="G36" s="21" t="str">
-        <f>IF(ISBLANK(B36),"",TEXT(A36,0)&amp;":"&amp;B36)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>401:Transport z- lifting cage</v>
       </c>
       <c r="H36" s="63" t="s">
         <v>153</v>
@@ -8239,14 +8252,14 @@
       </c>
       <c r="C37" s="94" t="str">
         <f>VLOOKUP(A37,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="95"/>
       <c r="F37" s="17"/>
       <c r="G37" s="21" t="str">
-        <f>IF(ISBLANK(B37),"",TEXT(A37,0)&amp;":"&amp;B37)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>402:Transport z- misc storage</v>
       </c>
       <c r="H37" s="63" t="s">
         <v>153</v>
@@ -8295,14 +8308,14 @@
       </c>
       <c r="C38" s="94" t="str">
         <f>VLOOKUP(A38,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D38" s="17"/>
       <c r="E38" s="17"/>
       <c r="F38" s="17"/>
       <c r="G38" s="21" t="str">
-        <f>IF(ISBLANK(B38),"",TEXT(A38,0)&amp;":"&amp;B38)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>403:Transport z- pins and jacks</v>
       </c>
       <c r="H38" s="63" t="s">
         <v>153</v>
@@ -8351,14 +8364,14 @@
       </c>
       <c r="C39" s="94" t="str">
         <f>VLOOKUP(A39,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
       <c r="F39" s="17"/>
       <c r="G39" s="21" t="str">
-        <f>IF(ISBLANK(B39),"",TEXT(A39,0)&amp;":"&amp;B39)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>404:Transport z- anode boxes</v>
       </c>
       <c r="H39" s="63" t="s">
         <v>153</v>
@@ -8407,14 +8420,14 @@
       </c>
       <c r="C40" s="94" t="str">
         <f>VLOOKUP(A40,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D40" s="17"/>
       <c r="E40" s="17"/>
       <c r="F40" s="17"/>
       <c r="G40" s="21" t="str">
-        <f>IF(ISBLANK(B40),"",TEXT(A40,0)&amp;":"&amp;B40)</f>
-        <v/>
+        <f t="shared" ref="G40:G71" si="1">IF(ISBLANK(B40),"",TEXT(A40,0)&amp;":"&amp;B40)</f>
+        <v>406:Transport z- jacks pins plugs</v>
       </c>
       <c r="H40" s="63" t="s">
         <v>153</v>
@@ -8463,14 +8476,14 @@
       </c>
       <c r="C41" s="94" t="str">
         <f>VLOOKUP(A41,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D41" s="17"/>
       <c r="E41" s="17"/>
       <c r="F41" s="17"/>
       <c r="G41" s="21" t="str">
-        <f>IF(ISBLANK(B41),"",TEXT(A41,0)&amp;":"&amp;B41)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>407:Transport z- hang offs</v>
       </c>
       <c r="H41" s="63" t="s">
         <v>153</v>
@@ -8519,14 +8532,14 @@
       </c>
       <c r="C42" s="94" t="str">
         <f>VLOOKUP(A42,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D42" s="17"/>
       <c r="E42" s="17"/>
       <c r="F42" s="17"/>
       <c r="G42" s="21" t="str">
-        <f>IF(ISBLANK(B42),"",TEXT(A42,0)&amp;":"&amp;B42)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>408:Transport z- jibflex top</v>
       </c>
       <c r="H42" s="63" t="s">
         <v>157</v>
@@ -8583,14 +8596,14 @@
       </c>
       <c r="C43" s="94" t="str">
         <f>VLOOKUP(A43,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D43" s="17"/>
       <c r="E43" s="17"/>
       <c r="F43" s="17"/>
       <c r="G43" s="21" t="str">
-        <f>IF(ISBLANK(B43),"",TEXT(A43,0)&amp;":"&amp;B43)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>409:Transport z- jibflex bot</v>
       </c>
       <c r="H43" s="63" t="s">
         <v>157</v>
@@ -8647,14 +8660,14 @@
       </c>
       <c r="C44" s="94" t="str">
         <f>VLOOKUP(A44,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D44" s="17"/>
       <c r="E44" s="17"/>
       <c r="F44" s="17"/>
       <c r="G44" s="21" t="str">
-        <f>IF(ISBLANK(B44),"",TEXT(A44,0)&amp;":"&amp;B44)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>410:Transport z- tensioner tool</v>
       </c>
       <c r="H44" s="63" t="s">
         <v>153</v>
@@ -8703,14 +8716,14 @@
       </c>
       <c r="C45" s="94" t="str">
         <f>VLOOKUP(A45,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D45" s="17"/>
       <c r="E45" s="17"/>
       <c r="F45" s="17"/>
       <c r="G45" s="21" t="str">
-        <f>IF(ISBLANK(B45),"",TEXT(A45,0)&amp;":"&amp;B45)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>411:Transport z- tensioner power pack</v>
       </c>
       <c r="H45" s="63" t="s">
         <v>153</v>
@@ -8759,14 +8772,14 @@
       </c>
       <c r="C46" s="94" t="str">
         <f>VLOOKUP(A46,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D46" s="17"/>
       <c r="E46" s="17"/>
       <c r="F46" s="17"/>
       <c r="G46" s="21" t="str">
-        <f>IF(ISBLANK(B46),"",TEXT(A46,0)&amp;":"&amp;B46)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>412:Transport x+ objects</v>
       </c>
       <c r="H46" s="63" t="s">
         <v>170</v>
@@ -8813,14 +8826,14 @@
       </c>
       <c r="C47" s="94" t="str">
         <f>VLOOKUP(A47,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D47" s="17"/>
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="21" t="str">
-        <f>IF(ISBLANK(B47),"",TEXT(A47,0)&amp;":"&amp;B47)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>413:Transport x+ objects</v>
       </c>
       <c r="H47" s="63" t="s">
         <v>170</v>
@@ -8867,14 +8880,14 @@
       </c>
       <c r="C48" s="94" t="str">
         <f>VLOOKUP(A48,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
       <c r="F48" s="17"/>
       <c r="G48" s="21" t="str">
-        <f>IF(ISBLANK(B48),"",TEXT(A48,0)&amp;":"&amp;B48)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>414:Transport x+ lifting cage</v>
       </c>
       <c r="H48" s="63" t="s">
         <v>153</v>
@@ -8923,14 +8936,14 @@
       </c>
       <c r="C49" s="94" t="str">
         <f>VLOOKUP(A49,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D49" s="17"/>
       <c r="E49" s="17"/>
       <c r="F49" s="17"/>
       <c r="G49" s="21" t="str">
-        <f>IF(ISBLANK(B49),"",TEXT(A49,0)&amp;":"&amp;B49)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>415:Transport x+ misc storage</v>
       </c>
       <c r="H49" s="63" t="s">
         <v>153</v>
@@ -8979,14 +8992,14 @@
       </c>
       <c r="C50" s="94" t="str">
         <f>VLOOKUP(A50,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D50" s="17"/>
       <c r="E50" s="17"/>
       <c r="F50" s="17"/>
       <c r="G50" s="21" t="str">
-        <f>IF(ISBLANK(B50),"",TEXT(A50,0)&amp;":"&amp;B50)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>416:Transport x+ pins and jacks</v>
       </c>
       <c r="H50" s="63" t="s">
         <v>153</v>
@@ -9035,14 +9048,14 @@
       </c>
       <c r="C51" s="94" t="str">
         <f>VLOOKUP(A51,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="17"/>
       <c r="F51" s="17"/>
       <c r="G51" s="21" t="str">
-        <f>IF(ISBLANK(B51),"",TEXT(A51,0)&amp;":"&amp;B51)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>417:Transport x+ anode boxes</v>
       </c>
       <c r="H51" s="63" t="s">
         <v>153</v>
@@ -9091,14 +9104,14 @@
       </c>
       <c r="C52" s="94" t="str">
         <f>VLOOKUP(A52,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D52" s="17"/>
       <c r="E52" s="17"/>
       <c r="F52" s="17"/>
       <c r="G52" s="21" t="str">
-        <f>IF(ISBLANK(B52),"",TEXT(A52,0)&amp;":"&amp;B52)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>419:Transport x+ jacks pins plugs</v>
       </c>
       <c r="H52" s="63" t="s">
         <v>153</v>
@@ -9147,14 +9160,14 @@
       </c>
       <c r="C53" s="94" t="str">
         <f>VLOOKUP(A53,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="17"/>
       <c r="F53" s="17"/>
       <c r="G53" s="21" t="str">
-        <f>IF(ISBLANK(B53),"",TEXT(A53,0)&amp;":"&amp;B53)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>420:Transport x+ hang offs</v>
       </c>
       <c r="H53" s="63" t="s">
         <v>153</v>
@@ -9203,14 +9216,14 @@
       </c>
       <c r="C54" s="94" t="str">
         <f>VLOOKUP(A54,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D54" s="17"/>
       <c r="E54" s="17"/>
       <c r="F54" s="17"/>
       <c r="G54" s="21" t="str">
-        <f>IF(ISBLANK(B54),"",TEXT(A54,0)&amp;":"&amp;B54)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>421:Transport x+ jibflex top</v>
       </c>
       <c r="H54" s="63" t="s">
         <v>157</v>
@@ -9267,14 +9280,14 @@
       </c>
       <c r="C55" s="94" t="str">
         <f>VLOOKUP(A55,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D55" s="17"/>
       <c r="E55" s="17"/>
       <c r="F55" s="17"/>
       <c r="G55" s="21" t="str">
-        <f>IF(ISBLANK(B55),"",TEXT(A55,0)&amp;":"&amp;B55)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>422:Transport x+ jibflex bot</v>
       </c>
       <c r="H55" s="63" t="s">
         <v>157</v>
@@ -9331,14 +9344,14 @@
       </c>
       <c r="C56" s="94" t="str">
         <f>VLOOKUP(A56,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D56" s="17"/>
       <c r="E56" s="17"/>
       <c r="F56" s="17"/>
       <c r="G56" s="21" t="str">
-        <f>IF(ISBLANK(B56),"",TEXT(A56,0)&amp;":"&amp;B56)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>423:Transport x+ tensioner tool</v>
       </c>
       <c r="H56" s="63" t="s">
         <v>153</v>
@@ -9387,14 +9400,14 @@
       </c>
       <c r="C57" s="94" t="str">
         <f>VLOOKUP(A57,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D57" s="17"/>
       <c r="E57" s="17"/>
       <c r="F57" s="17"/>
       <c r="G57" s="21" t="str">
-        <f>IF(ISBLANK(B57),"",TEXT(A57,0)&amp;":"&amp;B57)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>424:Transport x+ tensioner power pack</v>
       </c>
       <c r="H57" s="63" t="s">
         <v>153</v>
@@ -9443,14 +9456,14 @@
       </c>
       <c r="C58" s="94" t="str">
         <f>VLOOKUP(A58,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D58" s="17"/>
       <c r="E58" s="17"/>
       <c r="F58" s="17"/>
       <c r="G58" s="21" t="str">
-        <f>IF(ISBLANK(B58),"",TEXT(A58,0)&amp;":"&amp;B58)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>425:Transport x- objects</v>
       </c>
       <c r="H58" s="63" t="s">
         <v>170</v>
@@ -9497,14 +9510,14 @@
       </c>
       <c r="C59" s="94" t="str">
         <f>VLOOKUP(A59,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D59" s="17"/>
       <c r="E59" s="17"/>
       <c r="F59" s="17"/>
       <c r="G59" s="21" t="str">
-        <f>IF(ISBLANK(B59),"",TEXT(A59,0)&amp;":"&amp;B59)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>426:Transport x- objects</v>
       </c>
       <c r="H59" s="63" t="s">
         <v>170</v>
@@ -9551,14 +9564,14 @@
       </c>
       <c r="C60" s="94" t="str">
         <f>VLOOKUP(A60,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D60" s="17"/>
       <c r="E60" s="17"/>
       <c r="F60" s="17"/>
       <c r="G60" s="21" t="str">
-        <f>IF(ISBLANK(B60),"",TEXT(A60,0)&amp;":"&amp;B60)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>427:Transport x- lifting cage</v>
       </c>
       <c r="H60" s="63" t="s">
         <v>153</v>
@@ -9607,14 +9620,14 @@
       </c>
       <c r="C61" s="94" t="str">
         <f>VLOOKUP(A61,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D61" s="17"/>
       <c r="E61" s="17"/>
       <c r="F61" s="17"/>
       <c r="G61" s="21" t="str">
-        <f>IF(ISBLANK(B61),"",TEXT(A61,0)&amp;":"&amp;B61)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>428:Transport x- misc storage</v>
       </c>
       <c r="H61" s="63" t="s">
         <v>153</v>
@@ -9663,14 +9676,14 @@
       </c>
       <c r="C62" s="94" t="str">
         <f>VLOOKUP(A62,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D62" s="17"/>
       <c r="E62" s="17"/>
       <c r="F62" s="17"/>
       <c r="G62" s="21" t="str">
-        <f>IF(ISBLANK(B62),"",TEXT(A62,0)&amp;":"&amp;B62)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>429:Transport x- pins and jacks</v>
       </c>
       <c r="H62" s="63" t="s">
         <v>153</v>
@@ -9719,14 +9732,14 @@
       </c>
       <c r="C63" s="94" t="str">
         <f>VLOOKUP(A63,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D63" s="17"/>
       <c r="E63" s="17"/>
       <c r="F63" s="17"/>
       <c r="G63" s="21" t="str">
-        <f>IF(ISBLANK(B63),"",TEXT(A63,0)&amp;":"&amp;B63)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>430:Transport x- anode boxes</v>
       </c>
       <c r="H63" s="63" t="s">
         <v>153</v>
@@ -9775,14 +9788,14 @@
       </c>
       <c r="C64" s="94" t="str">
         <f>VLOOKUP(A64,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D64" s="17"/>
       <c r="E64" s="17"/>
       <c r="F64" s="17"/>
       <c r="G64" s="21" t="str">
-        <f>IF(ISBLANK(B64),"",TEXT(A64,0)&amp;":"&amp;B64)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>432:Transport x- jacks pins plugs</v>
       </c>
       <c r="H64" s="63" t="s">
         <v>153</v>
@@ -9831,14 +9844,14 @@
       </c>
       <c r="C65" s="94" t="str">
         <f>VLOOKUP(A65,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D65" s="17"/>
       <c r="E65" s="17"/>
       <c r="F65" s="17"/>
       <c r="G65" s="21" t="str">
-        <f>IF(ISBLANK(B65),"",TEXT(A65,0)&amp;":"&amp;B65)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>433:Transport x- hang offs</v>
       </c>
       <c r="H65" s="63" t="s">
         <v>153</v>
@@ -9887,14 +9900,14 @@
       </c>
       <c r="C66" s="94" t="str">
         <f>VLOOKUP(A66,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D66" s="17"/>
       <c r="E66" s="17"/>
       <c r="F66" s="17"/>
       <c r="G66" s="21" t="str">
-        <f>IF(ISBLANK(B66),"",TEXT(A66,0)&amp;":"&amp;B66)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>434:Transport x- jibflex top</v>
       </c>
       <c r="H66" s="63" t="s">
         <v>157</v>
@@ -9951,14 +9964,14 @@
       </c>
       <c r="C67" s="94" t="str">
         <f>VLOOKUP(A67,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D67" s="17"/>
       <c r="E67" s="17"/>
       <c r="F67" s="17"/>
       <c r="G67" s="21" t="str">
-        <f>IF(ISBLANK(B67),"",TEXT(A67,0)&amp;":"&amp;B67)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>435:Transport x- jibflex bot</v>
       </c>
       <c r="H67" s="63" t="s">
         <v>157</v>
@@ -10015,14 +10028,14 @@
       </c>
       <c r="C68" s="94" t="str">
         <f>VLOOKUP(A68,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D68" s="17"/>
       <c r="E68" s="17"/>
       <c r="F68" s="17"/>
       <c r="G68" s="21" t="str">
-        <f>IF(ISBLANK(B68),"",TEXT(A68,0)&amp;":"&amp;B68)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>436:Transport x- tensioner tool</v>
       </c>
       <c r="H68" s="63" t="s">
         <v>153</v>
@@ -10071,14 +10084,14 @@
       </c>
       <c r="C69" s="94" t="str">
         <f>VLOOKUP(A69,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D69" s="17"/>
       <c r="E69" s="17"/>
       <c r="F69" s="17"/>
       <c r="G69" s="21" t="str">
-        <f>IF(ISBLANK(B69),"",TEXT(A69,0)&amp;":"&amp;B69)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>437:Transport x- tensioner power pack</v>
       </c>
       <c r="H69" s="63" t="s">
         <v>153</v>
@@ -10127,14 +10140,14 @@
       </c>
       <c r="C70" s="94" t="str">
         <f>VLOOKUP(A70,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D70" s="17"/>
       <c r="E70" s="17"/>
       <c r="F70" s="17"/>
       <c r="G70" s="21" t="str">
-        <f>IF(ISBLANK(B70),"",TEXT(A70,0)&amp;":"&amp;B70)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>438:Transport y+ objects</v>
       </c>
       <c r="H70" s="63" t="s">
         <v>170</v>
@@ -10181,14 +10194,14 @@
       </c>
       <c r="C71" s="94" t="str">
         <f>VLOOKUP(A71,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D71" s="17"/>
       <c r="E71" s="17"/>
       <c r="F71" s="17"/>
       <c r="G71" s="21" t="str">
-        <f>IF(ISBLANK(B71),"",TEXT(A71,0)&amp;":"&amp;B71)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>439:Transport y+ objects</v>
       </c>
       <c r="H71" s="63" t="s">
         <v>170</v>
@@ -10235,14 +10248,14 @@
       </c>
       <c r="C72" s="94" t="str">
         <f>VLOOKUP(A72,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D72" s="17"/>
       <c r="E72" s="17"/>
       <c r="F72" s="17"/>
       <c r="G72" s="21" t="str">
-        <f>IF(ISBLANK(B72),"",TEXT(A72,0)&amp;":"&amp;B72)</f>
-        <v/>
+        <f t="shared" ref="G72:G103" si="2">IF(ISBLANK(B72),"",TEXT(A72,0)&amp;":"&amp;B72)</f>
+        <v>440:Transport y+ lifting cage</v>
       </c>
       <c r="H72" s="63" t="s">
         <v>153</v>
@@ -10291,14 +10304,14 @@
       </c>
       <c r="C73" s="94" t="str">
         <f>VLOOKUP(A73,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D73" s="17"/>
       <c r="E73" s="17"/>
       <c r="F73" s="17"/>
       <c r="G73" s="21" t="str">
-        <f>IF(ISBLANK(B73),"",TEXT(A73,0)&amp;":"&amp;B73)</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>441:Transport y+ misc storage</v>
       </c>
       <c r="H73" s="63" t="s">
         <v>153</v>
@@ -10347,14 +10360,14 @@
       </c>
       <c r="C74" s="94" t="str">
         <f>VLOOKUP(A74,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D74" s="17"/>
       <c r="E74" s="17"/>
       <c r="F74" s="17"/>
       <c r="G74" s="21" t="str">
-        <f>IF(ISBLANK(B74),"",TEXT(A74,0)&amp;":"&amp;B74)</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>442:Transport y+ pins and jacks</v>
       </c>
       <c r="H74" s="63" t="s">
         <v>153</v>
@@ -10403,14 +10416,14 @@
       </c>
       <c r="C75" s="94" t="str">
         <f>VLOOKUP(A75,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D75" s="17"/>
       <c r="E75" s="17"/>
       <c r="F75" s="17"/>
       <c r="G75" s="21" t="str">
-        <f>IF(ISBLANK(B75),"",TEXT(A75,0)&amp;":"&amp;B75)</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>443:Transport y+ anode boxes</v>
       </c>
       <c r="H75" s="63" t="s">
         <v>153</v>
@@ -10459,14 +10472,14 @@
       </c>
       <c r="C76" s="94" t="str">
         <f>VLOOKUP(A76,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D76" s="17"/>
       <c r="E76" s="17"/>
       <c r="F76" s="17"/>
       <c r="G76" s="21" t="str">
-        <f>IF(ISBLANK(B76),"",TEXT(A76,0)&amp;":"&amp;B76)</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>445:Transport y+ jacks pins plugs</v>
       </c>
       <c r="H76" s="63" t="s">
         <v>153</v>
@@ -10515,14 +10528,14 @@
       </c>
       <c r="C77" s="94" t="str">
         <f>VLOOKUP(A77,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D77" s="17"/>
       <c r="E77" s="17"/>
       <c r="F77" s="17"/>
       <c r="G77" s="21" t="str">
-        <f>IF(ISBLANK(B77),"",TEXT(A77,0)&amp;":"&amp;B77)</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>446:Transport y+ hang offs</v>
       </c>
       <c r="H77" s="63" t="s">
         <v>153</v>
@@ -10571,14 +10584,14 @@
       </c>
       <c r="C78" s="94" t="str">
         <f>VLOOKUP(A78,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D78" s="17"/>
       <c r="E78" s="17"/>
       <c r="F78" s="17"/>
       <c r="G78" s="21" t="str">
-        <f>IF(ISBLANK(B78),"",TEXT(A78,0)&amp;":"&amp;B78)</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>447:Transport y+ jibflex top</v>
       </c>
       <c r="H78" s="63" t="s">
         <v>157</v>
@@ -10635,14 +10648,14 @@
       </c>
       <c r="C79" s="94" t="str">
         <f>VLOOKUP(A79,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D79" s="17"/>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="21" t="str">
-        <f>IF(ISBLANK(B79),"",TEXT(A79,0)&amp;":"&amp;B79)</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>448:Transport y+ jibflex bot</v>
       </c>
       <c r="H79" s="63" t="s">
         <v>157</v>
@@ -10699,14 +10712,14 @@
       </c>
       <c r="C80" s="94" t="str">
         <f>VLOOKUP(A80,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D80" s="17"/>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="21" t="str">
-        <f>IF(ISBLANK(B80),"",TEXT(A80,0)&amp;":"&amp;B80)</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>449:Transport y+ tensioner tool</v>
       </c>
       <c r="H80" s="63" t="s">
         <v>153</v>
@@ -10755,14 +10768,14 @@
       </c>
       <c r="C81" s="94" t="str">
         <f>VLOOKUP(A81,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D81" s="17"/>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="21" t="str">
-        <f>IF(ISBLANK(B81),"",TEXT(A81,0)&amp;":"&amp;B81)</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>450:Transport y+ tensioner power pack</v>
       </c>
       <c r="H81" s="63" t="s">
         <v>153</v>
@@ -10811,14 +10824,14 @@
       </c>
       <c r="C82" s="94" t="str">
         <f>VLOOKUP(A82,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D82" s="17"/>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="21" t="str">
-        <f>IF(ISBLANK(B82),"",TEXT(A82,0)&amp;":"&amp;B82)</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>451:Transport y- objects</v>
       </c>
       <c r="H82" s="63" t="s">
         <v>170</v>
@@ -10865,14 +10878,14 @@
       </c>
       <c r="C83" s="94" t="str">
         <f>VLOOKUP(A83,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D83" s="17"/>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="21" t="str">
-        <f>IF(ISBLANK(B83),"",TEXT(A83,0)&amp;":"&amp;B83)</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>452:Transport y- objects</v>
       </c>
       <c r="H83" s="63" t="s">
         <v>170</v>
@@ -10919,14 +10932,14 @@
       </c>
       <c r="C84" s="94" t="str">
         <f>VLOOKUP(A84,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D84" s="17"/>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
       <c r="G84" s="21" t="str">
-        <f>IF(ISBLANK(B84),"",TEXT(A84,0)&amp;":"&amp;B84)</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>453:Transport y- lifting cage</v>
       </c>
       <c r="H84" s="63" t="s">
         <v>153</v>
@@ -10975,14 +10988,14 @@
       </c>
       <c r="C85" s="94" t="str">
         <f>VLOOKUP(A85,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D85" s="17"/>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="21" t="str">
-        <f>IF(ISBLANK(B85),"",TEXT(A85,0)&amp;":"&amp;B85)</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>454:Transport y- misc storage</v>
       </c>
       <c r="H85" s="63" t="s">
         <v>153</v>
@@ -11031,14 +11044,14 @@
       </c>
       <c r="C86" s="94" t="str">
         <f>VLOOKUP(A86,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D86" s="17"/>
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
       <c r="G86" s="21" t="str">
-        <f>IF(ISBLANK(B86),"",TEXT(A86,0)&amp;":"&amp;B86)</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>455:Transport y- pins and jacks</v>
       </c>
       <c r="H86" s="63" t="s">
         <v>153</v>
@@ -11087,14 +11100,14 @@
       </c>
       <c r="C87" s="94" t="str">
         <f>VLOOKUP(A87,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D87" s="17"/>
       <c r="E87" s="17"/>
       <c r="F87" s="17"/>
       <c r="G87" s="21" t="str">
-        <f>IF(ISBLANK(B87),"",TEXT(A87,0)&amp;":"&amp;B87)</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>456:Transport y- anode boxes</v>
       </c>
       <c r="H87" s="63" t="s">
         <v>153</v>
@@ -11143,14 +11156,14 @@
       </c>
       <c r="C88" s="94" t="str">
         <f>VLOOKUP(A88,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D88" s="17"/>
       <c r="E88" s="17"/>
       <c r="F88" s="17"/>
       <c r="G88" s="21" t="str">
-        <f>IF(ISBLANK(B88),"",TEXT(A88,0)&amp;":"&amp;B88)</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>458:Transport y- jacks pins plugs</v>
       </c>
       <c r="H88" s="63" t="s">
         <v>153</v>
@@ -11199,14 +11212,14 @@
       </c>
       <c r="C89" s="94" t="str">
         <f>VLOOKUP(A89,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D89" s="17"/>
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
       <c r="G89" s="21" t="str">
-        <f>IF(ISBLANK(B89),"",TEXT(A89,0)&amp;":"&amp;B89)</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>459:Transport y- hang offs</v>
       </c>
       <c r="H89" s="63" t="s">
         <v>153</v>
@@ -11255,14 +11268,14 @@
       </c>
       <c r="C90" s="94" t="str">
         <f>VLOOKUP(A90,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D90" s="17"/>
       <c r="E90" s="17"/>
       <c r="F90" s="17"/>
       <c r="G90" s="21" t="str">
-        <f>IF(ISBLANK(B90),"",TEXT(A90,0)&amp;":"&amp;B90)</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>460:Transport y- jibflex top</v>
       </c>
       <c r="H90" s="63" t="s">
         <v>157</v>
@@ -11319,14 +11332,14 @@
       </c>
       <c r="C91" s="94" t="str">
         <f>VLOOKUP(A91,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D91" s="17"/>
       <c r="E91" s="17"/>
       <c r="F91" s="17"/>
       <c r="G91" s="21" t="str">
-        <f>IF(ISBLANK(B91),"",TEXT(A91,0)&amp;":"&amp;B91)</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>461:Transport y- jibflex bot</v>
       </c>
       <c r="H91" s="63" t="s">
         <v>157</v>
@@ -11383,14 +11396,14 @@
       </c>
       <c r="C92" s="94" t="str">
         <f>VLOOKUP(A92,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D92" s="17"/>
       <c r="E92" s="17"/>
       <c r="F92" s="17"/>
       <c r="G92" s="21" t="str">
-        <f>IF(ISBLANK(B92),"",TEXT(A92,0)&amp;":"&amp;B92)</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>462:Transport y- tensioner tool</v>
       </c>
       <c r="H92" s="63" t="s">
         <v>153</v>
@@ -11439,14 +11452,14 @@
       </c>
       <c r="C93" s="94" t="str">
         <f>VLOOKUP(A93,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D93" s="17"/>
       <c r="E93" s="17"/>
       <c r="F93" s="17"/>
       <c r="G93" s="21" t="str">
-        <f>IF(ISBLANK(B93),"",TEXT(A93,0)&amp;":"&amp;B93)</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>463:Transport y- tensioner power pack</v>
       </c>
       <c r="H93" s="63" t="s">
         <v>153</v>
@@ -11495,14 +11508,14 @@
       </c>
       <c r="C94" s="94" t="str">
         <f>VLOOKUP(A94,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D94" s="17"/>
       <c r="E94" s="17"/>
       <c r="F94" s="17"/>
       <c r="G94" s="21" t="str">
-        <f>IF(ISBLANK(B94),"",TEXT(A94,0)&amp;":"&amp;B94)</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>464:Set down accelerations z- objects</v>
       </c>
       <c r="H94" s="63" t="s">
         <v>170</v>
@@ -11549,14 +11562,14 @@
       </c>
       <c r="C95" s="94" t="str">
         <f>VLOOKUP(A95,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D95" s="17"/>
       <c r="E95" s="17"/>
       <c r="F95" s="17"/>
       <c r="G95" s="21" t="str">
-        <f>IF(ISBLANK(B95),"",TEXT(A95,0)&amp;":"&amp;B95)</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>465:Set down accelerations z- objects</v>
       </c>
       <c r="H95" s="63" t="s">
         <v>170</v>
@@ -11603,14 +11616,14 @@
       </c>
       <c r="C96" s="94" t="str">
         <f>VLOOKUP(A96,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D96" s="17"/>
       <c r="E96" s="17"/>
       <c r="F96" s="17"/>
       <c r="G96" s="21" t="str">
-        <f>IF(ISBLANK(B96),"",TEXT(A96,0)&amp;":"&amp;B96)</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>466:Set down accelerations z- lifting cage</v>
       </c>
       <c r="H96" s="63" t="s">
         <v>153</v>
@@ -11659,14 +11672,14 @@
       </c>
       <c r="C97" s="94" t="str">
         <f>VLOOKUP(A97,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D97" s="17"/>
       <c r="E97" s="17"/>
       <c r="F97" s="17"/>
       <c r="G97" s="21" t="str">
-        <f>IF(ISBLANK(B97),"",TEXT(A97,0)&amp;":"&amp;B97)</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>467:Set down accelerations z- misc storage</v>
       </c>
       <c r="H97" s="63" t="s">
         <v>153</v>
@@ -11715,14 +11728,14 @@
       </c>
       <c r="C98" s="94" t="str">
         <f>VLOOKUP(A98,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D98" s="17"/>
       <c r="E98" s="17"/>
       <c r="F98" s="17"/>
       <c r="G98" s="21" t="str">
-        <f>IF(ISBLANK(B98),"",TEXT(A98,0)&amp;":"&amp;B98)</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>468:Set down accelerations z- pins and jacks</v>
       </c>
       <c r="H98" s="63" t="s">
         <v>153</v>
@@ -11771,14 +11784,14 @@
       </c>
       <c r="C99" s="94" t="str">
         <f>VLOOKUP(A99,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D99" s="17"/>
       <c r="E99" s="17"/>
       <c r="F99" s="17"/>
       <c r="G99" s="21" t="str">
-        <f>IF(ISBLANK(B99),"",TEXT(A99,0)&amp;":"&amp;B99)</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>469:Set down accelerations z- anode boxes</v>
       </c>
       <c r="H99" s="63" t="s">
         <v>153</v>
@@ -11827,14 +11840,14 @@
       </c>
       <c r="C100" s="94" t="str">
         <f>VLOOKUP(A100,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D100" s="17"/>
       <c r="E100" s="17"/>
       <c r="F100" s="17"/>
       <c r="G100" s="21" t="str">
-        <f>IF(ISBLANK(B100),"",TEXT(A100,0)&amp;":"&amp;B100)</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>471:Set down accelerations z- jacks pins plugs</v>
       </c>
       <c r="H100" s="63" t="s">
         <v>153</v>
@@ -11883,14 +11896,14 @@
       </c>
       <c r="C101" s="94" t="str">
         <f>VLOOKUP(A101,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D101" s="17"/>
       <c r="E101" s="17"/>
       <c r="F101" s="17"/>
       <c r="G101" s="21" t="str">
-        <f>IF(ISBLANK(B101),"",TEXT(A101,0)&amp;":"&amp;B101)</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>472:Set down accelerations z- hang offs</v>
       </c>
       <c r="H101" s="63" t="s">
         <v>153</v>
@@ -11939,14 +11952,14 @@
       </c>
       <c r="C102" s="94" t="str">
         <f>VLOOKUP(A102,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D102" s="17"/>
       <c r="E102" s="17"/>
       <c r="F102" s="17"/>
       <c r="G102" s="21" t="str">
-        <f>IF(ISBLANK(B102),"",TEXT(A102,0)&amp;":"&amp;B102)</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>473:Set down accelerations z- jibflex top</v>
       </c>
       <c r="H102" s="63" t="s">
         <v>157</v>
@@ -12003,14 +12016,14 @@
       </c>
       <c r="C103" s="94" t="str">
         <f>VLOOKUP(A103,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D103" s="17"/>
       <c r="E103" s="17"/>
       <c r="F103" s="17"/>
       <c r="G103" s="21" t="str">
-        <f>IF(ISBLANK(B103),"",TEXT(A103,0)&amp;":"&amp;B103)</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>474:Set down accelerations z- jibflex bot</v>
       </c>
       <c r="H103" s="63" t="s">
         <v>157</v>
@@ -12067,14 +12080,14 @@
       </c>
       <c r="C104" s="94" t="str">
         <f>VLOOKUP(A104,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D104" s="17"/>
       <c r="E104" s="17"/>
       <c r="F104" s="17"/>
       <c r="G104" s="21" t="str">
-        <f>IF(ISBLANK(B104),"",TEXT(A104,0)&amp;":"&amp;B104)</f>
-        <v/>
+        <f t="shared" ref="G104:G135" si="3">IF(ISBLANK(B104),"",TEXT(A104,0)&amp;":"&amp;B104)</f>
+        <v>475:Set down accelerations z- tensioner tool</v>
       </c>
       <c r="H104" s="63" t="s">
         <v>153</v>
@@ -12123,14 +12136,14 @@
       </c>
       <c r="C105" s="94" t="str">
         <f>VLOOKUP(A105,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D105" s="17"/>
       <c r="E105" s="17"/>
       <c r="F105" s="17"/>
       <c r="G105" s="21" t="str">
-        <f>IF(ISBLANK(B105),"",TEXT(A105,0)&amp;":"&amp;B105)</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>476:Set down accelerations z- tensioner power pack</v>
       </c>
       <c r="H105" s="63" t="s">
         <v>153</v>
@@ -12179,14 +12192,14 @@
       </c>
       <c r="C106" s="94" t="str">
         <f>VLOOKUP(A106,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D106" s="17"/>
       <c r="E106" s="17"/>
       <c r="F106" s="17"/>
       <c r="G106" s="21" t="str">
-        <f>IF(ISBLANK(B106),"",TEXT(A106,0)&amp;":"&amp;B106)</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>501:Horizontal position gravity x+ objects</v>
       </c>
       <c r="H106" s="63" t="s">
         <v>170</v>
@@ -12233,14 +12246,14 @@
       </c>
       <c r="C107" s="94" t="str">
         <f>VLOOKUP(A107,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D107" s="17"/>
       <c r="E107" s="17"/>
       <c r="F107" s="17"/>
       <c r="G107" s="21" t="str">
-        <f>IF(ISBLANK(B107),"",TEXT(A107,0)&amp;":"&amp;B107)</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>501:Horizontal position gravity x+ objects</v>
       </c>
       <c r="H107" s="63" t="s">
         <v>170</v>
@@ -12287,14 +12300,14 @@
       </c>
       <c r="C108" s="94" t="str">
         <f>VLOOKUP(A108,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D108" s="17"/>
       <c r="E108" s="17"/>
       <c r="F108" s="17"/>
       <c r="G108" s="21" t="str">
-        <f>IF(ISBLANK(B108),"",TEXT(A108,0)&amp;":"&amp;B108)</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>502:Horizontal position gravity x- objects</v>
       </c>
       <c r="H108" s="63" t="s">
         <v>170</v>
@@ -12341,14 +12354,14 @@
       </c>
       <c r="C109" s="94" t="str">
         <f>VLOOKUP(A109,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D109" s="17"/>
       <c r="E109" s="17"/>
       <c r="F109" s="17"/>
       <c r="G109" s="21" t="str">
-        <f>IF(ISBLANK(B109),"",TEXT(A109,0)&amp;":"&amp;B109)</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>502:Horizontal position gravity x- objects</v>
       </c>
       <c r="H109" s="63" t="s">
         <v>170</v>
@@ -12395,14 +12408,14 @@
       </c>
       <c r="C110" s="94" t="str">
         <f>VLOOKUP(A110,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D110" s="17"/>
       <c r="E110" s="17"/>
       <c r="F110" s="17"/>
       <c r="G110" s="21" t="str">
-        <f>IF(ISBLANK(B110),"",TEXT(A110,0)&amp;":"&amp;B110)</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>503:Horizontal position gravity y+ objects</v>
       </c>
       <c r="H110" s="63" t="s">
         <v>170</v>
@@ -12449,14 +12462,14 @@
       </c>
       <c r="C111" s="94" t="str">
         <f>VLOOKUP(A111,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D111" s="17"/>
       <c r="E111" s="17"/>
       <c r="F111" s="17"/>
       <c r="G111" s="21" t="str">
-        <f>IF(ISBLANK(B111),"",TEXT(A111,0)&amp;":"&amp;B111)</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>503:Horizontal position gravity y+ objects</v>
       </c>
       <c r="H111" s="63" t="s">
         <v>170</v>
@@ -12503,14 +12516,14 @@
       </c>
       <c r="C112" s="94" t="str">
         <f>VLOOKUP(A112,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D112" s="17"/>
       <c r="E112" s="17"/>
       <c r="F112" s="17"/>
       <c r="G112" s="21" t="str">
-        <f>IF(ISBLANK(B112),"",TEXT(A112,0)&amp;":"&amp;B112)</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>504:Horizontal position gravity y- objects</v>
       </c>
       <c r="H112" s="63" t="s">
         <v>170</v>
@@ -12557,14 +12570,14 @@
       </c>
       <c r="C113" s="94" t="str">
         <f>VLOOKUP(A113,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D113" s="17"/>
       <c r="E113" s="17"/>
       <c r="F113" s="17"/>
       <c r="G113" s="21" t="str">
-        <f>IF(ISBLANK(B113),"",TEXT(A113,0)&amp;":"&amp;B113)</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>504:Horizontal position gravity y- objects</v>
       </c>
       <c r="H113" s="63" t="s">
         <v>170</v>
@@ -12611,14 +12624,14 @@
       </c>
       <c r="C114" s="94" t="str">
         <f>VLOOKUP(A114,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D114" s="17"/>
       <c r="E114" s="17"/>
       <c r="F114" s="17"/>
       <c r="G114" s="21" t="str">
-        <f>IF(ISBLANK(B114),"",TEXT(A114,0)&amp;":"&amp;B114)</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>520:JibFlex 0 deg top</v>
       </c>
       <c r="H114" s="63" t="s">
         <v>157</v>
@@ -12675,14 +12688,14 @@
       </c>
       <c r="C115" s="94" t="str">
         <f>VLOOKUP(A115,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D115" s="17"/>
       <c r="E115" s="17"/>
       <c r="F115" s="17"/>
       <c r="G115" s="21" t="str">
-        <f>IF(ISBLANK(B115),"",TEXT(A115,0)&amp;":"&amp;B115)</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>521:JibFlex 0 deg bot</v>
       </c>
       <c r="H115" s="63" t="s">
         <v>157</v>
@@ -12739,14 +12752,14 @@
       </c>
       <c r="C116" s="94" t="str">
         <f>VLOOKUP(A116,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D116" s="17"/>
       <c r="E116" s="17"/>
       <c r="F116" s="17"/>
       <c r="G116" s="21" t="str">
-        <f>IF(ISBLANK(B116),"",TEXT(A116,0)&amp;":"&amp;B116)</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>522:JibFlex 45 deg top</v>
       </c>
       <c r="H116" s="63" t="s">
         <v>157</v>
@@ -12803,14 +12816,14 @@
       </c>
       <c r="C117" s="94" t="str">
         <f>VLOOKUP(A117,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D117" s="17"/>
       <c r="E117" s="17"/>
       <c r="F117" s="17"/>
       <c r="G117" s="21" t="str">
-        <f>IF(ISBLANK(B117),"",TEXT(A117,0)&amp;":"&amp;B117)</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>523:JibFLex 45 deg bot</v>
       </c>
       <c r="H117" s="63" t="s">
         <v>157</v>
@@ -12867,14 +12880,14 @@
       </c>
       <c r="C118" s="94" t="str">
         <f>VLOOKUP(A118,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D118" s="17"/>
       <c r="E118" s="17"/>
       <c r="F118" s="17"/>
       <c r="G118" s="21" t="str">
-        <f>IF(ISBLANK(B118),"",TEXT(A118,0)&amp;":"&amp;B118)</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>524:JibFlex 90 deg top</v>
       </c>
       <c r="H118" s="63" t="s">
         <v>157</v>
@@ -12931,14 +12944,14 @@
       </c>
       <c r="C119" s="94" t="str">
         <f>VLOOKUP(A119,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>dead</v>
       </c>
       <c r="D119" s="17"/>
       <c r="E119" s="17"/>
       <c r="F119" s="17"/>
       <c r="G119" s="21" t="str">
-        <f>IF(ISBLANK(B119),"",TEXT(A119,0)&amp;":"&amp;B119)</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>525:JibFlex 90 deg bot</v>
       </c>
       <c r="H119" s="63" t="s">
         <v>157</v>
@@ -12989,15 +13002,15 @@
     <row r="120" spans="1:31">
       <c r="A120" s="156"/>
       <c r="B120" s="160"/>
-      <c r="C120" s="94" t="str">
+      <c r="C120" s="94" t="e">
         <f>VLOOKUP(A120,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D120" s="17"/>
       <c r="E120" s="17"/>
       <c r="F120" s="17"/>
       <c r="G120" s="21" t="str">
-        <f>IF(ISBLANK(B120),"",TEXT(A120,0)&amp;":"&amp;B120)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H120" s="63"/>
@@ -13027,15 +13040,15 @@
     <row r="121" spans="1:31">
       <c r="A121" s="156"/>
       <c r="B121" s="160"/>
-      <c r="C121" s="94" t="str">
+      <c r="C121" s="94" t="e">
         <f>VLOOKUP(A121,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D121" s="17"/>
       <c r="E121" s="17"/>
       <c r="F121" s="17"/>
       <c r="G121" s="21" t="str">
-        <f>IF(ISBLANK(B121),"",TEXT(A121,0)&amp;":"&amp;B121)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H121" s="63"/>
@@ -13065,15 +13078,15 @@
     <row r="122" spans="1:31">
       <c r="A122" s="156"/>
       <c r="B122" s="160"/>
-      <c r="C122" s="94" t="str">
+      <c r="C122" s="94" t="e">
         <f>VLOOKUP(A122,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D122" s="17"/>
       <c r="E122" s="17"/>
       <c r="F122" s="17"/>
       <c r="G122" s="21" t="str">
-        <f>IF(ISBLANK(B122),"",TEXT(A122,0)&amp;":"&amp;B122)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H122" s="63"/>
@@ -13103,15 +13116,15 @@
     <row r="123" spans="1:31">
       <c r="A123" s="156"/>
       <c r="B123" s="160"/>
-      <c r="C123" s="94" t="str">
+      <c r="C123" s="94" t="e">
         <f>VLOOKUP(A123,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D123" s="17"/>
       <c r="E123" s="17"/>
       <c r="F123" s="17"/>
       <c r="G123" s="21" t="str">
-        <f>IF(ISBLANK(B123),"",TEXT(A123,0)&amp;":"&amp;B123)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H123" s="63"/>
@@ -13141,15 +13154,15 @@
     <row r="124" spans="1:31">
       <c r="A124" s="156"/>
       <c r="B124" s="160"/>
-      <c r="C124" s="94" t="str">
+      <c r="C124" s="94" t="e">
         <f>VLOOKUP(A124,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D124" s="17"/>
       <c r="E124" s="17"/>
       <c r="F124" s="17"/>
       <c r="G124" s="21" t="str">
-        <f>IF(ISBLANK(B124),"",TEXT(A124,0)&amp;":"&amp;B124)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H124" s="63"/>
@@ -13179,15 +13192,15 @@
     <row r="125" spans="1:31">
       <c r="A125" s="156"/>
       <c r="B125" s="160"/>
-      <c r="C125" s="94" t="str">
+      <c r="C125" s="94" t="e">
         <f>VLOOKUP(A125,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D125" s="17"/>
       <c r="E125" s="17"/>
       <c r="F125" s="17"/>
       <c r="G125" s="21" t="str">
-        <f>IF(ISBLANK(B125),"",TEXT(A125,0)&amp;":"&amp;B125)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H125" s="63"/>
@@ -13217,15 +13230,15 @@
     <row r="126" spans="1:31">
       <c r="A126" s="156"/>
       <c r="B126" s="160"/>
-      <c r="C126" s="94" t="str">
+      <c r="C126" s="94" t="e">
         <f>VLOOKUP(A126,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D126" s="17"/>
       <c r="E126" s="17"/>
       <c r="F126" s="17"/>
       <c r="G126" s="21" t="str">
-        <f>IF(ISBLANK(B126),"",TEXT(A126,0)&amp;":"&amp;B126)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H126" s="63"/>
@@ -13255,15 +13268,15 @@
     <row r="127" spans="1:31">
       <c r="A127" s="156"/>
       <c r="B127" s="160"/>
-      <c r="C127" s="94" t="str">
+      <c r="C127" s="94" t="e">
         <f>VLOOKUP(A127,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D127" s="17"/>
       <c r="E127" s="17"/>
       <c r="F127" s="17"/>
       <c r="G127" s="21" t="str">
-        <f>IF(ISBLANK(B127),"",TEXT(A127,0)&amp;":"&amp;B127)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H127" s="63"/>
@@ -13293,15 +13306,15 @@
     <row r="128" spans="1:31">
       <c r="A128" s="156"/>
       <c r="B128" s="160"/>
-      <c r="C128" s="94" t="str">
+      <c r="C128" s="94" t="e">
         <f>VLOOKUP(A128,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D128" s="17"/>
       <c r="E128" s="17"/>
       <c r="F128" s="17"/>
       <c r="G128" s="21" t="str">
-        <f>IF(ISBLANK(B128),"",TEXT(A128,0)&amp;":"&amp;B128)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H128" s="63"/>
@@ -13331,15 +13344,15 @@
     <row r="129" spans="1:31">
       <c r="A129" s="156"/>
       <c r="B129" s="160"/>
-      <c r="C129" s="94" t="str">
+      <c r="C129" s="94" t="e">
         <f>VLOOKUP(A129,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D129" s="17"/>
       <c r="E129" s="17"/>
       <c r="F129" s="17"/>
       <c r="G129" s="21" t="str">
-        <f>IF(ISBLANK(B129),"",TEXT(A129,0)&amp;":"&amp;B129)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H129" s="63"/>
@@ -13369,15 +13382,15 @@
     <row r="130" spans="1:31">
       <c r="A130" s="156"/>
       <c r="B130" s="160"/>
-      <c r="C130" s="94" t="str">
+      <c r="C130" s="94" t="e">
         <f>VLOOKUP(A130,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D130" s="17"/>
       <c r="E130" s="17"/>
       <c r="F130" s="17"/>
       <c r="G130" s="21" t="str">
-        <f>IF(ISBLANK(B130),"",TEXT(A130,0)&amp;":"&amp;B130)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H130" s="63"/>
@@ -13407,15 +13420,15 @@
     <row r="131" spans="1:31">
       <c r="A131" s="156"/>
       <c r="B131" s="160"/>
-      <c r="C131" s="94" t="str">
+      <c r="C131" s="94" t="e">
         <f>VLOOKUP(A131,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D131" s="17"/>
       <c r="E131" s="17"/>
       <c r="F131" s="17"/>
       <c r="G131" s="21" t="str">
-        <f>IF(ISBLANK(B131),"",TEXT(A131,0)&amp;":"&amp;B131)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H131" s="63"/>
@@ -13445,15 +13458,15 @@
     <row r="132" spans="1:31">
       <c r="A132" s="156"/>
       <c r="B132" s="160"/>
-      <c r="C132" s="94" t="str">
+      <c r="C132" s="94" t="e">
         <f>VLOOKUP(A132,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D132" s="17"/>
       <c r="E132" s="17"/>
       <c r="F132" s="17"/>
       <c r="G132" s="21" t="str">
-        <f>IF(ISBLANK(B132),"",TEXT(A132,0)&amp;":"&amp;B132)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H132" s="63"/>
@@ -13483,15 +13496,15 @@
     <row r="133" spans="1:31">
       <c r="A133" s="156"/>
       <c r="B133" s="160"/>
-      <c r="C133" s="94" t="str">
+      <c r="C133" s="94" t="e">
         <f>VLOOKUP(A133,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D133" s="17"/>
       <c r="E133" s="17"/>
       <c r="F133" s="17"/>
       <c r="G133" s="21" t="str">
-        <f>IF(ISBLANK(B133),"",TEXT(A133,0)&amp;":"&amp;B133)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H133" s="63"/>
@@ -13521,15 +13534,15 @@
     <row r="134" spans="1:31">
       <c r="A134" s="156"/>
       <c r="B134" s="160"/>
-      <c r="C134" s="94" t="str">
+      <c r="C134" s="94" t="e">
         <f>VLOOKUP(A134,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D134" s="17"/>
       <c r="E134" s="17"/>
       <c r="F134" s="17"/>
       <c r="G134" s="21" t="str">
-        <f>IF(ISBLANK(B134),"",TEXT(A134,0)&amp;":"&amp;B134)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H134" s="63"/>
@@ -13559,15 +13572,15 @@
     <row r="135" spans="1:31">
       <c r="A135" s="156"/>
       <c r="B135" s="160"/>
-      <c r="C135" s="94" t="str">
+      <c r="C135" s="94" t="e">
         <f>VLOOKUP(A135,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D135" s="17"/>
       <c r="E135" s="17"/>
       <c r="F135" s="17"/>
       <c r="G135" s="21" t="str">
-        <f>IF(ISBLANK(B135),"",TEXT(A135,0)&amp;":"&amp;B135)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H135" s="63"/>
@@ -13597,15 +13610,15 @@
     <row r="136" spans="1:31">
       <c r="A136" s="156"/>
       <c r="B136" s="160"/>
-      <c r="C136" s="94" t="str">
+      <c r="C136" s="94" t="e">
         <f>VLOOKUP(A136,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D136" s="17"/>
       <c r="E136" s="17"/>
       <c r="F136" s="17"/>
       <c r="G136" s="21" t="str">
-        <f>IF(ISBLANK(B136),"",TEXT(A136,0)&amp;":"&amp;B136)</f>
+        <f t="shared" ref="G136:G167" si="4">IF(ISBLANK(B136),"",TEXT(A136,0)&amp;":"&amp;B136)</f>
         <v/>
       </c>
       <c r="H136" s="63"/>
@@ -13635,15 +13648,15 @@
     <row r="137" spans="1:31">
       <c r="A137" s="156"/>
       <c r="B137" s="160"/>
-      <c r="C137" s="94" t="str">
+      <c r="C137" s="94" t="e">
         <f>VLOOKUP(A137,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D137" s="17"/>
       <c r="E137" s="17"/>
       <c r="F137" s="17"/>
       <c r="G137" s="21" t="str">
-        <f>IF(ISBLANK(B137),"",TEXT(A137,0)&amp;":"&amp;B137)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H137" s="63"/>
@@ -13673,15 +13686,15 @@
     <row r="138" spans="1:31">
       <c r="A138" s="156"/>
       <c r="B138" s="160"/>
-      <c r="C138" s="94" t="str">
+      <c r="C138" s="94" t="e">
         <f>VLOOKUP(A138,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D138" s="17"/>
       <c r="E138" s="17"/>
       <c r="F138" s="17"/>
       <c r="G138" s="21" t="str">
-        <f>IF(ISBLANK(B138),"",TEXT(A138,0)&amp;":"&amp;B138)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H138" s="63"/>
@@ -13711,15 +13724,15 @@
     <row r="139" spans="1:31">
       <c r="A139" s="156"/>
       <c r="B139" s="160"/>
-      <c r="C139" s="94" t="str">
+      <c r="C139" s="94" t="e">
         <f>VLOOKUP(A139,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D139" s="17"/>
       <c r="E139" s="17"/>
       <c r="F139" s="17"/>
       <c r="G139" s="21" t="str">
-        <f>IF(ISBLANK(B139),"",TEXT(A139,0)&amp;":"&amp;B139)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H139" s="63"/>
@@ -13749,15 +13762,15 @@
     <row r="140" spans="1:31">
       <c r="A140" s="156"/>
       <c r="B140" s="160"/>
-      <c r="C140" s="94" t="str">
+      <c r="C140" s="94" t="e">
         <f>VLOOKUP(A140,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D140" s="17"/>
       <c r="E140" s="17"/>
       <c r="F140" s="17"/>
       <c r="G140" s="21" t="str">
-        <f>IF(ISBLANK(B140),"",TEXT(A140,0)&amp;":"&amp;B140)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H140" s="63"/>
@@ -13787,15 +13800,15 @@
     <row r="141" spans="1:31">
       <c r="A141" s="156"/>
       <c r="B141" s="160"/>
-      <c r="C141" s="94" t="str">
+      <c r="C141" s="94" t="e">
         <f>VLOOKUP(A141,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D141" s="17"/>
       <c r="E141" s="17"/>
       <c r="F141" s="17"/>
       <c r="G141" s="21" t="str">
-        <f>IF(ISBLANK(B141),"",TEXT(A141,0)&amp;":"&amp;B141)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H141" s="63"/>
@@ -13825,15 +13838,15 @@
     <row r="142" spans="1:31">
       <c r="A142" s="156"/>
       <c r="B142" s="160"/>
-      <c r="C142" s="94" t="str">
+      <c r="C142" s="94" t="e">
         <f>VLOOKUP(A142,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D142" s="17"/>
       <c r="E142" s="17"/>
       <c r="F142" s="17"/>
       <c r="G142" s="21" t="str">
-        <f>IF(ISBLANK(B142),"",TEXT(A142,0)&amp;":"&amp;B142)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H142" s="63"/>
@@ -13863,15 +13876,15 @@
     <row r="143" spans="1:31">
       <c r="A143" s="156"/>
       <c r="B143" s="160"/>
-      <c r="C143" s="94" t="str">
+      <c r="C143" s="94" t="e">
         <f>VLOOKUP(A143,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D143" s="17"/>
       <c r="E143" s="17"/>
       <c r="F143" s="17"/>
       <c r="G143" s="21" t="str">
-        <f>IF(ISBLANK(B143),"",TEXT(A143,0)&amp;":"&amp;B143)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H143" s="63"/>
@@ -13901,15 +13914,15 @@
     <row r="144" spans="1:31">
       <c r="A144" s="156"/>
       <c r="B144" s="160"/>
-      <c r="C144" s="94" t="str">
+      <c r="C144" s="94" t="e">
         <f>VLOOKUP(A144,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D144" s="17"/>
       <c r="E144" s="17"/>
       <c r="F144" s="17"/>
       <c r="G144" s="21" t="str">
-        <f>IF(ISBLANK(B144),"",TEXT(A144,0)&amp;":"&amp;B144)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H144" s="63"/>
@@ -13939,15 +13952,15 @@
     <row r="145" spans="1:31">
       <c r="A145" s="156"/>
       <c r="B145" s="160"/>
-      <c r="C145" s="94" t="str">
+      <c r="C145" s="94" t="e">
         <f>VLOOKUP(A145,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D145" s="17"/>
       <c r="E145" s="17"/>
       <c r="F145" s="17"/>
       <c r="G145" s="21" t="str">
-        <f>IF(ISBLANK(B145),"",TEXT(A145,0)&amp;":"&amp;B145)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H145" s="63"/>
@@ -13977,15 +13990,15 @@
     <row r="146" spans="1:31">
       <c r="A146" s="156"/>
       <c r="B146" s="160"/>
-      <c r="C146" s="94" t="str">
+      <c r="C146" s="94" t="e">
         <f>VLOOKUP(A146,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D146" s="17"/>
       <c r="E146" s="17"/>
       <c r="F146" s="17"/>
       <c r="G146" s="21" t="str">
-        <f>IF(ISBLANK(B146),"",TEXT(A146,0)&amp;":"&amp;B146)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H146" s="63"/>
@@ -14015,15 +14028,15 @@
     <row r="147" spans="1:31">
       <c r="A147" s="156"/>
       <c r="B147" s="160"/>
-      <c r="C147" s="94" t="str">
+      <c r="C147" s="94" t="e">
         <f>VLOOKUP(A147,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D147" s="17"/>
       <c r="E147" s="17"/>
       <c r="F147" s="17"/>
       <c r="G147" s="21" t="str">
-        <f>IF(ISBLANK(B147),"",TEXT(A147,0)&amp;":"&amp;B147)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H147" s="63"/>
@@ -14053,15 +14066,15 @@
     <row r="148" spans="1:31">
       <c r="A148" s="156"/>
       <c r="B148" s="160"/>
-      <c r="C148" s="94" t="str">
+      <c r="C148" s="94" t="e">
         <f>VLOOKUP(A148,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D148" s="17"/>
       <c r="E148" s="17"/>
       <c r="F148" s="17"/>
       <c r="G148" s="21" t="str">
-        <f>IF(ISBLANK(B148),"",TEXT(A148,0)&amp;":"&amp;B148)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H148" s="63"/>
@@ -14091,15 +14104,15 @@
     <row r="149" spans="1:31">
       <c r="A149" s="156"/>
       <c r="B149" s="160"/>
-      <c r="C149" s="94" t="str">
+      <c r="C149" s="94" t="e">
         <f>VLOOKUP(A149,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D149" s="17"/>
       <c r="E149" s="17"/>
       <c r="F149" s="17"/>
       <c r="G149" s="21" t="str">
-        <f>IF(ISBLANK(B149),"",TEXT(A149,0)&amp;":"&amp;B149)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H149" s="63"/>
@@ -14129,15 +14142,15 @@
     <row r="150" spans="1:31">
       <c r="A150" s="156"/>
       <c r="B150" s="160"/>
-      <c r="C150" s="94" t="str">
+      <c r="C150" s="94" t="e">
         <f>VLOOKUP(A150,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D150" s="17"/>
       <c r="E150" s="17"/>
       <c r="F150" s="17"/>
       <c r="G150" s="21" t="str">
-        <f>IF(ISBLANK(B150),"",TEXT(A150,0)&amp;":"&amp;B150)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H150" s="63"/>
@@ -14167,15 +14180,15 @@
     <row r="151" spans="1:31">
       <c r="A151" s="156"/>
       <c r="B151" s="160"/>
-      <c r="C151" s="94" t="str">
+      <c r="C151" s="94" t="e">
         <f>VLOOKUP(A151,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D151" s="17"/>
       <c r="E151" s="17"/>
       <c r="F151" s="17"/>
       <c r="G151" s="21" t="str">
-        <f>IF(ISBLANK(B151),"",TEXT(A151,0)&amp;":"&amp;B151)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H151" s="63"/>
@@ -14205,15 +14218,15 @@
     <row r="152" spans="1:31">
       <c r="A152" s="156"/>
       <c r="B152" s="160"/>
-      <c r="C152" s="94" t="str">
+      <c r="C152" s="94" t="e">
         <f>VLOOKUP(A152,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D152" s="17"/>
       <c r="E152" s="17"/>
       <c r="F152" s="17"/>
       <c r="G152" s="21" t="str">
-        <f>IF(ISBLANK(B152),"",TEXT(A152,0)&amp;":"&amp;B152)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H152" s="63"/>
@@ -14243,15 +14256,15 @@
     <row r="153" spans="1:31">
       <c r="A153" s="156"/>
       <c r="B153" s="160"/>
-      <c r="C153" s="94" t="str">
+      <c r="C153" s="94" t="e">
         <f>VLOOKUP(A153,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D153" s="17"/>
       <c r="E153" s="17"/>
       <c r="F153" s="17"/>
       <c r="G153" s="21" t="str">
-        <f>IF(ISBLANK(B153),"",TEXT(A153,0)&amp;":"&amp;B153)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H153" s="63"/>
@@ -14281,15 +14294,15 @@
     <row r="154" spans="1:31">
       <c r="A154" s="156"/>
       <c r="B154" s="160"/>
-      <c r="C154" s="94" t="str">
+      <c r="C154" s="94" t="e">
         <f>VLOOKUP(A154,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D154" s="17"/>
       <c r="E154" s="17"/>
       <c r="F154" s="17"/>
       <c r="G154" s="21" t="str">
-        <f>IF(ISBLANK(B154),"",TEXT(A154,0)&amp;":"&amp;B154)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H154" s="63"/>
@@ -14319,15 +14332,15 @@
     <row r="155" spans="1:31">
       <c r="A155" s="156"/>
       <c r="B155" s="160"/>
-      <c r="C155" s="94" t="str">
+      <c r="C155" s="94" t="e">
         <f>VLOOKUP(A155,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D155" s="17"/>
       <c r="E155" s="17"/>
       <c r="F155" s="17"/>
       <c r="G155" s="21" t="str">
-        <f>IF(ISBLANK(B155),"",TEXT(A155,0)&amp;":"&amp;B155)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H155" s="63"/>
@@ -14357,15 +14370,15 @@
     <row r="156" spans="1:31">
       <c r="A156" s="156"/>
       <c r="B156" s="160"/>
-      <c r="C156" s="94" t="str">
+      <c r="C156" s="94" t="e">
         <f>VLOOKUP(A156,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D156" s="17"/>
       <c r="E156" s="17"/>
       <c r="F156" s="17"/>
       <c r="G156" s="21" t="str">
-        <f>IF(ISBLANK(B156),"",TEXT(A156,0)&amp;":"&amp;B156)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H156" s="63"/>
@@ -14395,15 +14408,15 @@
     <row r="157" spans="1:31">
       <c r="A157" s="156"/>
       <c r="B157" s="160"/>
-      <c r="C157" s="94" t="str">
+      <c r="C157" s="94" t="e">
         <f>VLOOKUP(A157,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D157" s="17"/>
       <c r="E157" s="17"/>
       <c r="F157" s="17"/>
       <c r="G157" s="21" t="str">
-        <f>IF(ISBLANK(B157),"",TEXT(A157,0)&amp;":"&amp;B157)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H157" s="63"/>
@@ -14433,15 +14446,15 @@
     <row r="158" spans="1:31">
       <c r="A158" s="156"/>
       <c r="B158" s="160"/>
-      <c r="C158" s="94" t="str">
+      <c r="C158" s="94" t="e">
         <f>VLOOKUP(A158,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D158" s="17"/>
       <c r="E158" s="17"/>
       <c r="F158" s="17"/>
       <c r="G158" s="21" t="str">
-        <f>IF(ISBLANK(B158),"",TEXT(A158,0)&amp;":"&amp;B158)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H158" s="63"/>
@@ -14471,15 +14484,15 @@
     <row r="159" spans="1:31">
       <c r="A159" s="156"/>
       <c r="B159" s="160"/>
-      <c r="C159" s="94" t="str">
+      <c r="C159" s="94" t="e">
         <f>VLOOKUP(A159,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D159" s="17"/>
       <c r="E159" s="17"/>
       <c r="F159" s="17"/>
       <c r="G159" s="21" t="str">
-        <f>IF(ISBLANK(B159),"",TEXT(A159,0)&amp;":"&amp;B159)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H159" s="63"/>
@@ -14509,15 +14522,15 @@
     <row r="160" spans="1:31">
       <c r="A160" s="156"/>
       <c r="B160" s="160"/>
-      <c r="C160" s="94" t="str">
+      <c r="C160" s="94" t="e">
         <f>VLOOKUP(A160,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D160" s="17"/>
       <c r="E160" s="17"/>
       <c r="F160" s="17"/>
       <c r="G160" s="21" t="str">
-        <f>IF(ISBLANK(B160),"",TEXT(A160,0)&amp;":"&amp;B160)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H160" s="63"/>
@@ -14547,15 +14560,15 @@
     <row r="161" spans="1:31">
       <c r="A161" s="156"/>
       <c r="B161" s="160"/>
-      <c r="C161" s="94" t="str">
+      <c r="C161" s="94" t="e">
         <f>VLOOKUP(A161,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D161" s="17"/>
       <c r="E161" s="17"/>
       <c r="F161" s="17"/>
       <c r="G161" s="21" t="str">
-        <f>IF(ISBLANK(B161),"",TEXT(A161,0)&amp;":"&amp;B161)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H161" s="63"/>
@@ -14585,15 +14598,15 @@
     <row r="162" spans="1:31">
       <c r="A162" s="156"/>
       <c r="B162" s="160"/>
-      <c r="C162" s="94" t="str">
+      <c r="C162" s="94" t="e">
         <f>VLOOKUP(A162,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D162" s="17"/>
       <c r="E162" s="17"/>
       <c r="F162" s="17"/>
       <c r="G162" s="21" t="str">
-        <f>IF(ISBLANK(B162),"",TEXT(A162,0)&amp;":"&amp;B162)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H162" s="63"/>
@@ -14623,15 +14636,15 @@
     <row r="163" spans="1:31">
       <c r="A163" s="156"/>
       <c r="B163" s="160"/>
-      <c r="C163" s="94" t="str">
+      <c r="C163" s="94" t="e">
         <f>VLOOKUP(A163,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D163" s="17"/>
       <c r="E163" s="17"/>
       <c r="F163" s="17"/>
       <c r="G163" s="21" t="str">
-        <f>IF(ISBLANK(B163),"",TEXT(A163,0)&amp;":"&amp;B163)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H163" s="63"/>
@@ -14661,15 +14674,15 @@
     <row r="164" spans="1:31">
       <c r="A164" s="156"/>
       <c r="B164" s="160"/>
-      <c r="C164" s="94" t="str">
+      <c r="C164" s="94" t="e">
         <f>VLOOKUP(A164,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D164" s="17"/>
       <c r="E164" s="17"/>
       <c r="F164" s="17"/>
       <c r="G164" s="21" t="str">
-        <f>IF(ISBLANK(B164),"",TEXT(A164,0)&amp;":"&amp;B164)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H164" s="63"/>
@@ -14699,15 +14712,15 @@
     <row r="165" spans="1:31">
       <c r="A165" s="156"/>
       <c r="B165" s="160"/>
-      <c r="C165" s="94" t="str">
+      <c r="C165" s="94" t="e">
         <f>VLOOKUP(A165,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D165" s="17"/>
       <c r="E165" s="17"/>
       <c r="F165" s="17"/>
       <c r="G165" s="21" t="str">
-        <f>IF(ISBLANK(B165),"",TEXT(A165,0)&amp;":"&amp;B165)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H165" s="63"/>
@@ -14737,15 +14750,15 @@
     <row r="166" spans="1:31">
       <c r="A166" s="156"/>
       <c r="B166" s="160"/>
-      <c r="C166" s="94" t="str">
+      <c r="C166" s="94" t="e">
         <f>VLOOKUP(A166,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D166" s="17"/>
       <c r="E166" s="17"/>
       <c r="F166" s="17"/>
       <c r="G166" s="21" t="str">
-        <f>IF(ISBLANK(B166),"",TEXT(A166,0)&amp;":"&amp;B166)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H166" s="63"/>
@@ -14775,15 +14788,15 @@
     <row r="167" spans="1:31">
       <c r="A167" s="156"/>
       <c r="B167" s="160"/>
-      <c r="C167" s="94" t="str">
+      <c r="C167" s="94" t="e">
         <f>VLOOKUP(A167,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D167" s="17"/>
       <c r="E167" s="17"/>
       <c r="F167" s="17"/>
       <c r="G167" s="21" t="str">
-        <f>IF(ISBLANK(B167),"",TEXT(A167,0)&amp;":"&amp;B167)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H167" s="63"/>
@@ -14813,15 +14826,15 @@
     <row r="168" spans="1:31">
       <c r="A168" s="156"/>
       <c r="B168" s="160"/>
-      <c r="C168" s="94" t="str">
+      <c r="C168" s="94" t="e">
         <f>VLOOKUP(A168,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D168" s="17"/>
       <c r="E168" s="17"/>
       <c r="F168" s="17"/>
       <c r="G168" s="21" t="str">
-        <f>IF(ISBLANK(B168),"",TEXT(A168,0)&amp;":"&amp;B168)</f>
+        <f t="shared" ref="G168:G177" si="5">IF(ISBLANK(B168),"",TEXT(A168,0)&amp;":"&amp;B168)</f>
         <v/>
       </c>
       <c r="H168" s="63"/>
@@ -14851,15 +14864,15 @@
     <row r="169" spans="1:31">
       <c r="A169" s="156"/>
       <c r="B169" s="160"/>
-      <c r="C169" s="94" t="str">
+      <c r="C169" s="94" t="e">
         <f>VLOOKUP(A169,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D169" s="17"/>
       <c r="E169" s="17"/>
       <c r="F169" s="17"/>
       <c r="G169" s="21" t="str">
-        <f>IF(ISBLANK(B169),"",TEXT(A169,0)&amp;":"&amp;B169)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H169" s="63"/>
@@ -14889,15 +14902,15 @@
     <row r="170" spans="1:31">
       <c r="A170" s="156"/>
       <c r="B170" s="160"/>
-      <c r="C170" s="94" t="str">
+      <c r="C170" s="94" t="e">
         <f>VLOOKUP(A170,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D170" s="17"/>
       <c r="E170" s="17"/>
       <c r="F170" s="17"/>
       <c r="G170" s="21" t="str">
-        <f>IF(ISBLANK(B170),"",TEXT(A170,0)&amp;":"&amp;B170)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H170" s="63"/>
@@ -14927,15 +14940,15 @@
     <row r="171" spans="1:31">
       <c r="A171" s="156"/>
       <c r="B171" s="160"/>
-      <c r="C171" s="94" t="str">
+      <c r="C171" s="94" t="e">
         <f>VLOOKUP(A171,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D171" s="17"/>
       <c r="E171" s="17"/>
       <c r="F171" s="17"/>
       <c r="G171" s="21" t="str">
-        <f>IF(ISBLANK(B171),"",TEXT(A171,0)&amp;":"&amp;B171)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H171" s="63"/>
@@ -14965,15 +14978,15 @@
     <row r="172" spans="1:31">
       <c r="A172" s="156"/>
       <c r="B172" s="160"/>
-      <c r="C172" s="94" t="str">
+      <c r="C172" s="94" t="e">
         <f>VLOOKUP(A172,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D172" s="17"/>
       <c r="E172" s="17"/>
       <c r="F172" s="17"/>
       <c r="G172" s="21" t="str">
-        <f>IF(ISBLANK(B172),"",TEXT(A172,0)&amp;":"&amp;B172)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H172" s="63"/>
@@ -15003,15 +15016,15 @@
     <row r="173" spans="1:31">
       <c r="A173" s="156"/>
       <c r="B173" s="160"/>
-      <c r="C173" s="94" t="str">
+      <c r="C173" s="94" t="e">
         <f>VLOOKUP(A173,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D173" s="17"/>
       <c r="E173" s="17"/>
       <c r="F173" s="17"/>
       <c r="G173" s="21" t="str">
-        <f>IF(ISBLANK(B173),"",TEXT(A173,0)&amp;":"&amp;B173)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H173" s="63"/>
@@ -15041,15 +15054,15 @@
     <row r="174" spans="1:31">
       <c r="A174" s="156"/>
       <c r="B174" s="160"/>
-      <c r="C174" s="94" t="str">
+      <c r="C174" s="94" t="e">
         <f>VLOOKUP(A174,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D174" s="17"/>
       <c r="E174" s="17"/>
       <c r="F174" s="17"/>
       <c r="G174" s="21" t="str">
-        <f>IF(ISBLANK(B174),"",TEXT(A174,0)&amp;":"&amp;B174)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H174" s="63"/>
@@ -15079,15 +15092,15 @@
     <row r="175" spans="1:31">
       <c r="A175" s="156"/>
       <c r="B175" s="160"/>
-      <c r="C175" s="94" t="str">
+      <c r="C175" s="94" t="e">
         <f>VLOOKUP(A175,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D175" s="17"/>
       <c r="E175" s="17"/>
       <c r="F175" s="17"/>
       <c r="G175" s="21" t="str">
-        <f>IF(ISBLANK(B175),"",TEXT(A175,0)&amp;":"&amp;B175)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H175" s="63"/>
@@ -15117,15 +15130,15 @@
     <row r="176" spans="1:31">
       <c r="A176" s="156"/>
       <c r="B176" s="160"/>
-      <c r="C176" s="94" t="str">
+      <c r="C176" s="94" t="e">
         <f>VLOOKUP(A176,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D176" s="17"/>
       <c r="E176" s="17"/>
       <c r="F176" s="17"/>
       <c r="G176" s="21" t="str">
-        <f>IF(ISBLANK(B176),"",TEXT(A176,0)&amp;":"&amp;B176)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H176" s="63"/>
@@ -15155,15 +15168,15 @@
     <row r="177" spans="1:31">
       <c r="A177" s="157"/>
       <c r="B177" s="160"/>
-      <c r="C177" s="94" t="str">
+      <c r="C177" s="94" t="e">
         <f>VLOOKUP(A177,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D177" s="22"/>
       <c r="E177" s="22"/>
       <c r="F177" s="22"/>
       <c r="G177" s="21" t="str">
-        <f>IF(ISBLANK(B177),"",TEXT(A177,0)&amp;":"&amp;B177)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H177" s="65"/>
@@ -15192,15 +15205,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="AD2:AD7"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="E2:E7"/>
     <mergeCell ref="AB1:AE1"/>
     <mergeCell ref="W3:X7"/>
     <mergeCell ref="AC2:AC7"/>
     <mergeCell ref="M3:O6"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="AB2:AB7"/>
-    <mergeCell ref="AD2:AD7"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="E2:E7"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="AE2:AE7"/>
     <mergeCell ref="D2:D7"/>
@@ -15210,6 +15222,7 @@
     <mergeCell ref="S3:U6"/>
     <mergeCell ref="P3:R7"/>
     <mergeCell ref="Z2:Z7"/>
+    <mergeCell ref="AB2:AB7"/>
     <mergeCell ref="S7:U7"/>
     <mergeCell ref="M7:O7"/>
     <mergeCell ref="J3:L6"/>
@@ -15259,7 +15272,7 @@
       <formula>$H1="self-weight"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:O1 M3:O1048576 S1 S3:S1048576 V1 V3:V1048576">
+  <conditionalFormatting sqref="M1:O1 S1 V1 M3:O1048576 S3:S1048576 V3:V1048576">
     <cfRule type="expression" dxfId="20" priority="15">
       <formula>$H1="uniform load"</formula>
     </cfRule>
@@ -15284,7 +15297,7 @@
       <formula>$H1 ="nodal force"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U1:V1 U3:V6 U8:V1048576 V7">
+  <conditionalFormatting sqref="U1:V1 U3:V6 V7 U8:V1048576">
     <cfRule type="expression" dxfId="15" priority="64">
       <formula>$H1="trapezoidal load (2p)"</formula>
     </cfRule>
@@ -15368,9 +15381,9 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="I3" sqref="I3"/>
+      <selection pane="topRight" activeCell="AE13" sqref="AE13"/>
       <selection pane="bottomLeft" activeCell="AE13" sqref="AE13"/>
-      <selection pane="topRight" activeCell="AE13" sqref="AE13"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="12.75"/>
@@ -15779,165 +15792,483 @@
       <c r="G3" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="93"/>
-      <c r="R3" s="93"/>
-      <c r="S3" s="93"/>
-      <c r="T3" s="93"/>
-      <c r="U3" s="93"/>
-      <c r="V3" s="93"/>
-      <c r="W3" s="93"/>
-      <c r="X3" s="93"/>
-      <c r="Y3" s="93"/>
-      <c r="Z3" s="93"/>
-      <c r="AA3" s="93"/>
-      <c r="AB3" s="93"/>
-      <c r="AC3" s="93"/>
-      <c r="AD3" s="93"/>
-      <c r="AE3" s="93"/>
-      <c r="AF3" s="93"/>
-      <c r="AG3" s="93"/>
-      <c r="AH3" s="93"/>
-      <c r="AI3" s="93"/>
-      <c r="AJ3" s="93"/>
-      <c r="AK3" s="93"/>
-      <c r="AL3" s="93"/>
-      <c r="AM3" s="93"/>
-      <c r="AN3" s="93"/>
-      <c r="AO3" s="93"/>
-      <c r="AP3" s="93"/>
-      <c r="AQ3" s="93"/>
-      <c r="AR3" s="93"/>
-      <c r="AS3" s="93"/>
-      <c r="AT3" s="93"/>
-      <c r="AU3" s="93"/>
-      <c r="AV3" s="93"/>
-      <c r="AW3" s="93"/>
-      <c r="AX3" s="93"/>
-      <c r="AY3" s="93"/>
-      <c r="AZ3" s="93"/>
-      <c r="BA3" s="93"/>
-      <c r="BB3" s="93"/>
-      <c r="BC3" s="93"/>
-      <c r="BD3" s="93"/>
-      <c r="BE3" s="93"/>
-      <c r="BF3" s="93"/>
-      <c r="BG3" s="93"/>
-      <c r="BH3" s="93"/>
-      <c r="BI3" s="93"/>
-      <c r="BJ3" s="93"/>
-      <c r="BK3" s="93"/>
-      <c r="BL3" s="93"/>
-      <c r="BM3" s="93"/>
-      <c r="BN3" s="93"/>
-      <c r="BO3" s="93"/>
-      <c r="BP3" s="93"/>
-      <c r="BQ3" s="93"/>
-      <c r="BR3" s="93"/>
-      <c r="BS3" s="93"/>
-      <c r="BT3" s="93"/>
-      <c r="BU3" s="93"/>
-      <c r="BV3" s="93"/>
-      <c r="BW3" s="93"/>
-      <c r="BX3" s="93"/>
-      <c r="BY3" s="93"/>
-      <c r="BZ3" s="93"/>
-      <c r="CA3" s="93"/>
-      <c r="CB3" s="93"/>
-      <c r="CC3" s="93"/>
-      <c r="CD3" s="93"/>
-      <c r="CE3" s="93"/>
-      <c r="CF3" s="93"/>
-      <c r="CG3" s="93"/>
-      <c r="CH3" s="93"/>
-      <c r="CI3" s="93"/>
-      <c r="CJ3" s="93"/>
-      <c r="CK3" s="93"/>
-      <c r="CL3" s="93"/>
-      <c r="CM3" s="93"/>
-      <c r="CN3" s="93"/>
-      <c r="CO3" s="93"/>
-      <c r="CP3" s="93"/>
-      <c r="CQ3" s="93"/>
-      <c r="CR3" s="93"/>
-      <c r="CS3" s="93"/>
-      <c r="CT3" s="93"/>
-      <c r="CU3" s="93"/>
-      <c r="CV3" s="93"/>
-      <c r="CW3" s="93"/>
-      <c r="CX3" s="93"/>
-      <c r="CY3" s="93"/>
-      <c r="CZ3" s="93"/>
-      <c r="DA3" s="93"/>
-      <c r="DB3" s="93"/>
-      <c r="DC3" s="93"/>
-      <c r="DD3" s="93"/>
-      <c r="DE3" s="93"/>
-      <c r="DF3" s="93"/>
-      <c r="DG3" s="93"/>
-      <c r="DH3" s="93"/>
-      <c r="DI3" s="93"/>
-      <c r="DJ3" s="93"/>
-      <c r="DK3" s="93"/>
-      <c r="DL3" s="93"/>
-      <c r="DM3" s="93"/>
-      <c r="DN3" s="93"/>
-      <c r="DO3" s="93"/>
-      <c r="DP3" s="93"/>
-      <c r="DQ3" s="93"/>
-      <c r="DR3" s="93"/>
-      <c r="DS3" s="93"/>
-      <c r="DT3" s="93"/>
-      <c r="DU3" s="93"/>
-      <c r="DV3" s="93"/>
-      <c r="DW3" s="93"/>
-      <c r="DX3" s="93"/>
-      <c r="DY3" s="93"/>
-      <c r="DZ3" s="93"/>
-      <c r="EA3" s="93"/>
-      <c r="EB3" s="93"/>
-      <c r="EC3" s="93"/>
-      <c r="ED3" s="93"/>
-      <c r="EE3" s="93"/>
-      <c r="EF3" s="93"/>
-      <c r="EG3" s="93"/>
-      <c r="EH3" s="93"/>
-      <c r="EI3" s="93"/>
-      <c r="EJ3" s="93"/>
-      <c r="EK3" s="93"/>
-      <c r="EL3" s="93"/>
-      <c r="EM3" s="93"/>
-      <c r="EN3" s="93"/>
-      <c r="EO3" s="93"/>
-      <c r="EP3" s="93"/>
-      <c r="EQ3" s="93"/>
-      <c r="ER3" s="93"/>
-      <c r="ES3" s="93"/>
-      <c r="ET3" s="93"/>
-      <c r="EU3" s="93"/>
-      <c r="EV3" s="93"/>
-      <c r="EW3" s="93"/>
-      <c r="EX3" s="93"/>
-      <c r="EY3" s="93"/>
-      <c r="EZ3" s="93"/>
-      <c r="FA3" s="93"/>
-      <c r="FB3" s="93"/>
-      <c r="FC3" s="93"/>
-      <c r="FD3" s="93"/>
-      <c r="FE3" s="93"/>
-      <c r="FF3" s="93"/>
-      <c r="FG3" s="93"/>
-      <c r="FH3" s="93"/>
-      <c r="FI3" s="93"/>
-      <c r="FJ3" s="93"/>
+      <c r="H3" s="93" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="93" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="93" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="93" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="93" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="93" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="93" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" s="93" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" s="93" t="s">
+        <v>38</v>
+      </c>
+      <c r="S3" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" s="93" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="V3" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="W3" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="X3" s="93" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y3" s="93" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z3" s="93" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA3" s="93" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB3" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC3" s="93" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD3" s="93" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE3" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF3" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG3" s="93" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH3" s="93" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI3" s="93" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ3" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK3" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL3" s="93" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM3" s="93" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN3" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO3" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP3" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ3" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="AR3" s="93" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS3" s="93" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT3" s="93" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU3" s="93" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV3" s="93" t="s">
+        <v>67</v>
+      </c>
+      <c r="AW3" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX3" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY3" s="93" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ3" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA3" s="93" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB3" s="93" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC3" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD3" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE3" s="93" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF3" s="93" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG3" s="93" t="s">
+        <v>77</v>
+      </c>
+      <c r="BH3" s="93" t="s">
+        <v>78</v>
+      </c>
+      <c r="BI3" s="93" t="s">
+        <v>79</v>
+      </c>
+      <c r="BJ3" s="93" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK3" s="93" t="s">
+        <v>81</v>
+      </c>
+      <c r="BL3" s="93" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM3" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="BN3" s="93" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO3" s="93" t="s">
+        <v>85</v>
+      </c>
+      <c r="BP3" s="93" t="s">
+        <v>86</v>
+      </c>
+      <c r="BQ3" s="93" t="s">
+        <v>87</v>
+      </c>
+      <c r="BR3" s="93" t="s">
+        <v>87</v>
+      </c>
+      <c r="BS3" s="93" t="s">
+        <v>88</v>
+      </c>
+      <c r="BT3" s="93" t="s">
+        <v>89</v>
+      </c>
+      <c r="BU3" s="93" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV3" s="93" t="s">
+        <v>91</v>
+      </c>
+      <c r="BW3" s="93" t="s">
+        <v>92</v>
+      </c>
+      <c r="BX3" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="BY3" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="BZ3" s="93" t="s">
+        <v>95</v>
+      </c>
+      <c r="CA3" s="93" t="s">
+        <v>96</v>
+      </c>
+      <c r="CB3" s="93" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC3" s="93" t="s">
+        <v>98</v>
+      </c>
+      <c r="CD3" s="93" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE3" s="93" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF3" s="93" t="s">
+        <v>100</v>
+      </c>
+      <c r="CG3" s="93" t="s">
+        <v>101</v>
+      </c>
+      <c r="CH3" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="CI3" s="93" t="s">
+        <v>103</v>
+      </c>
+      <c r="CJ3" s="93" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK3" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="CL3" s="93" t="s">
+        <v>106</v>
+      </c>
+      <c r="CM3" s="93" t="s">
+        <v>107</v>
+      </c>
+      <c r="CN3" s="93" t="s">
+        <v>108</v>
+      </c>
+      <c r="CO3" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="CP3" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="CQ3" s="93" t="s">
+        <v>110</v>
+      </c>
+      <c r="CR3" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="CS3" s="93" t="s">
+        <v>112</v>
+      </c>
+      <c r="CT3" s="93" t="s">
+        <v>113</v>
+      </c>
+      <c r="CU3" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="CV3" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="CW3" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="CX3" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="CY3" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="CZ3" s="93" t="s">
+        <v>119</v>
+      </c>
+      <c r="DA3" s="93" t="s">
+        <v>120</v>
+      </c>
+      <c r="DB3" s="93" t="s">
+        <v>121</v>
+      </c>
+      <c r="DC3" s="93" t="s">
+        <v>122</v>
+      </c>
+      <c r="DD3" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="DE3" s="93" t="s">
+        <v>124</v>
+      </c>
+      <c r="DF3" s="93" t="s">
+        <v>125</v>
+      </c>
+      <c r="DG3" s="93" t="s">
+        <v>126</v>
+      </c>
+      <c r="DH3" s="93" t="s">
+        <v>127</v>
+      </c>
+      <c r="DI3" s="93" t="s">
+        <v>128</v>
+      </c>
+      <c r="DJ3" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="DK3" s="93" t="s">
+        <v>185</v>
+      </c>
+      <c r="DL3" s="93" t="s">
+        <v>186</v>
+      </c>
+      <c r="DM3" s="93" t="s">
+        <v>187</v>
+      </c>
+      <c r="DN3" s="93" t="s">
+        <v>188</v>
+      </c>
+      <c r="DO3" s="93" t="s">
+        <v>189</v>
+      </c>
+      <c r="DP3" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="DQ3" s="93" t="s">
+        <v>191</v>
+      </c>
+      <c r="DR3" s="93" t="s">
+        <v>192</v>
+      </c>
+      <c r="DS3" s="93" t="s">
+        <v>193</v>
+      </c>
+      <c r="DT3" s="93" t="s">
+        <v>194</v>
+      </c>
+      <c r="DU3" s="93" t="s">
+        <v>195</v>
+      </c>
+      <c r="DV3" s="93" t="s">
+        <v>196</v>
+      </c>
+      <c r="DW3" s="93" t="s">
+        <v>197</v>
+      </c>
+      <c r="DX3" s="93" t="s">
+        <v>198</v>
+      </c>
+      <c r="DY3" s="93" t="s">
+        <v>199</v>
+      </c>
+      <c r="DZ3" s="93" t="s">
+        <v>200</v>
+      </c>
+      <c r="EA3" s="93" t="s">
+        <v>201</v>
+      </c>
+      <c r="EB3" s="93" t="s">
+        <v>202</v>
+      </c>
+      <c r="EC3" s="93" t="s">
+        <v>203</v>
+      </c>
+      <c r="ED3" s="93" t="s">
+        <v>204</v>
+      </c>
+      <c r="EE3" s="93" t="s">
+        <v>205</v>
+      </c>
+      <c r="EF3" s="93" t="s">
+        <v>206</v>
+      </c>
+      <c r="EG3" s="93" t="s">
+        <v>207</v>
+      </c>
+      <c r="EH3" s="93" t="s">
+        <v>208</v>
+      </c>
+      <c r="EI3" s="93" t="s">
+        <v>209</v>
+      </c>
+      <c r="EJ3" s="93" t="s">
+        <v>210</v>
+      </c>
+      <c r="EK3" s="93" t="s">
+        <v>211</v>
+      </c>
+      <c r="EL3" s="93" t="s">
+        <v>212</v>
+      </c>
+      <c r="EM3" s="93" t="s">
+        <v>213</v>
+      </c>
+      <c r="EN3" s="93" t="s">
+        <v>214</v>
+      </c>
+      <c r="EO3" s="93" t="s">
+        <v>215</v>
+      </c>
+      <c r="EP3" s="93" t="s">
+        <v>216</v>
+      </c>
+      <c r="EQ3" s="93" t="s">
+        <v>217</v>
+      </c>
+      <c r="ER3" s="93" t="s">
+        <v>218</v>
+      </c>
+      <c r="ES3" s="93" t="s">
+        <v>219</v>
+      </c>
+      <c r="ET3" s="93" t="s">
+        <v>220</v>
+      </c>
+      <c r="EU3" s="93" t="s">
+        <v>221</v>
+      </c>
+      <c r="EV3" s="93" t="s">
+        <v>222</v>
+      </c>
+      <c r="EW3" s="93" t="s">
+        <v>223</v>
+      </c>
+      <c r="EX3" s="93" t="s">
+        <v>224</v>
+      </c>
+      <c r="EY3" s="93" t="s">
+        <v>225</v>
+      </c>
+      <c r="EZ3" s="93" t="s">
+        <v>226</v>
+      </c>
+      <c r="FA3" s="93" t="s">
+        <v>227</v>
+      </c>
+      <c r="FB3" s="93" t="s">
+        <v>228</v>
+      </c>
+      <c r="FC3" s="93" t="s">
+        <v>229</v>
+      </c>
+      <c r="FD3" s="93" t="s">
+        <v>230</v>
+      </c>
+      <c r="FE3" s="93" t="s">
+        <v>231</v>
+      </c>
+      <c r="FF3" s="93" t="s">
+        <v>232</v>
+      </c>
+      <c r="FG3" s="93" t="s">
+        <v>233</v>
+      </c>
+      <c r="FH3" s="93" t="s">
+        <v>234</v>
+      </c>
+      <c r="FI3" s="93" t="s">
+        <v>235</v>
+      </c>
+      <c r="FJ3" s="93" t="s">
+        <v>236</v>
+      </c>
       <c r="FK3" s="93"/>
       <c r="FL3" s="93"/>
       <c r="FM3" s="93"/>
@@ -20382,171 +20713,489 @@
       <c r="A4" s="3"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="177" t="s">
+      <c r="D4" s="189" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="191"/>
-      <c r="F4" s="191"/>
-      <c r="G4" s="191"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="124"/>
-      <c r="K4" s="124"/>
-      <c r="L4" s="124"/>
-      <c r="M4" s="124"/>
-      <c r="N4" s="124"/>
-      <c r="O4" s="124"/>
-      <c r="P4" s="124"/>
-      <c r="Q4" s="124"/>
-      <c r="R4" s="124"/>
-      <c r="S4" s="124"/>
-      <c r="T4" s="124"/>
-      <c r="U4" s="124"/>
-      <c r="V4" s="124"/>
-      <c r="W4" s="124"/>
-      <c r="X4" s="124"/>
-      <c r="Y4" s="124"/>
-      <c r="Z4" s="124"/>
-      <c r="AA4" s="124"/>
-      <c r="AB4" s="124"/>
-      <c r="AC4" s="124"/>
-      <c r="AD4" s="124"/>
-      <c r="AE4" s="124"/>
-      <c r="AF4" s="124"/>
-      <c r="AG4" s="124"/>
-      <c r="AH4" s="124"/>
-      <c r="AI4" s="124"/>
-      <c r="AJ4" s="124"/>
-      <c r="AK4" s="124"/>
-      <c r="AL4" s="124"/>
-      <c r="AM4" s="124"/>
-      <c r="AN4" s="124"/>
-      <c r="AO4" s="124"/>
-      <c r="AP4" s="124"/>
-      <c r="AQ4" s="124"/>
-      <c r="AR4" s="124"/>
-      <c r="AS4" s="124"/>
-      <c r="AT4" s="124"/>
-      <c r="AU4" s="124"/>
-      <c r="AV4" s="124"/>
-      <c r="AW4" s="124"/>
-      <c r="AX4" s="124"/>
-      <c r="AY4" s="124"/>
-      <c r="AZ4" s="124"/>
-      <c r="BA4" s="124"/>
-      <c r="BB4" s="124"/>
-      <c r="BC4" s="124"/>
-      <c r="BD4" s="124"/>
-      <c r="BE4" s="124"/>
-      <c r="BF4" s="124"/>
-      <c r="BG4" s="124"/>
-      <c r="BH4" s="124"/>
-      <c r="BI4" s="124"/>
-      <c r="BJ4" s="124"/>
-      <c r="BK4" s="124"/>
-      <c r="BL4" s="124"/>
-      <c r="BM4" s="124"/>
-      <c r="BN4" s="124"/>
-      <c r="BO4" s="124"/>
-      <c r="BP4" s="124"/>
-      <c r="BQ4" s="124"/>
-      <c r="BR4" s="124"/>
-      <c r="BS4" s="124"/>
-      <c r="BT4" s="124"/>
-      <c r="BU4" s="124"/>
-      <c r="BV4" s="124"/>
-      <c r="BW4" s="124"/>
-      <c r="BX4" s="124"/>
-      <c r="BY4" s="124"/>
-      <c r="BZ4" s="124"/>
-      <c r="CA4" s="124"/>
-      <c r="CB4" s="124"/>
-      <c r="CC4" s="124"/>
-      <c r="CD4" s="124"/>
-      <c r="CE4" s="124"/>
-      <c r="CF4" s="124"/>
-      <c r="CG4" s="124"/>
-      <c r="CH4" s="124"/>
-      <c r="CI4" s="124"/>
-      <c r="CJ4" s="124"/>
-      <c r="CK4" s="124"/>
-      <c r="CL4" s="124"/>
-      <c r="CM4" s="124"/>
-      <c r="CN4" s="124"/>
-      <c r="CO4" s="124"/>
-      <c r="CP4" s="88"/>
-      <c r="CQ4" s="88"/>
-      <c r="CR4" s="88"/>
-      <c r="CS4" s="88"/>
-      <c r="CT4" s="88"/>
-      <c r="CU4" s="88"/>
-      <c r="CV4" s="88"/>
-      <c r="CW4" s="88"/>
-      <c r="CX4" s="88"/>
-      <c r="CY4" s="88"/>
-      <c r="CZ4" s="88"/>
-      <c r="DA4" s="88"/>
-      <c r="DB4" s="88"/>
-      <c r="DC4" s="88"/>
-      <c r="DD4" s="88"/>
-      <c r="DE4" s="88"/>
-      <c r="DF4" s="88"/>
-      <c r="DG4" s="88"/>
-      <c r="DH4" s="88"/>
-      <c r="DI4" s="88"/>
-      <c r="DJ4" s="88"/>
-      <c r="DK4" s="88"/>
-      <c r="DL4" s="88"/>
-      <c r="DM4" s="88"/>
-      <c r="DN4" s="88"/>
-      <c r="DO4" s="88"/>
-      <c r="DP4" s="88"/>
-      <c r="DQ4" s="88"/>
-      <c r="DR4" s="88"/>
-      <c r="DS4" s="88"/>
-      <c r="DT4" s="88"/>
-      <c r="DU4" s="88"/>
-      <c r="DV4" s="88"/>
-      <c r="DW4" s="88"/>
-      <c r="DX4" s="88"/>
-      <c r="DY4" s="88"/>
-      <c r="DZ4" s="88"/>
-      <c r="EA4" s="88"/>
-      <c r="EB4" s="88"/>
-      <c r="EC4" s="88"/>
-      <c r="ED4" s="88"/>
-      <c r="EE4" s="88"/>
-      <c r="EF4" s="88"/>
-      <c r="EG4" s="88"/>
-      <c r="EH4" s="88"/>
-      <c r="EI4" s="88"/>
-      <c r="EJ4" s="88"/>
-      <c r="EK4" s="88"/>
-      <c r="EL4" s="88"/>
-      <c r="EM4" s="88"/>
-      <c r="EN4" s="88"/>
-      <c r="EO4" s="88"/>
-      <c r="EP4" s="88"/>
-      <c r="EQ4" s="88"/>
-      <c r="ER4" s="88"/>
-      <c r="ES4" s="88"/>
-      <c r="ET4" s="88"/>
-      <c r="EU4" s="88"/>
-      <c r="EV4" s="88"/>
-      <c r="EW4" s="88"/>
-      <c r="EX4" s="88"/>
-      <c r="EY4" s="88"/>
-      <c r="EZ4" s="88"/>
-      <c r="FA4" s="88"/>
-      <c r="FB4" s="88"/>
-      <c r="FC4" s="88"/>
-      <c r="FD4" s="88"/>
-      <c r="FE4" s="88"/>
-      <c r="FF4" s="88"/>
-      <c r="FG4" s="88"/>
-      <c r="FH4" s="88"/>
-      <c r="FI4" s="88"/>
-      <c r="FJ4" s="88"/>
+      <c r="E4" s="175"/>
+      <c r="F4" s="175"/>
+      <c r="G4" s="175"/>
+      <c r="H4" s="124">
+        <v>1</v>
+      </c>
+      <c r="I4" s="124">
+        <v>100</v>
+      </c>
+      <c r="J4" s="124">
+        <v>101</v>
+      </c>
+      <c r="K4" s="124">
+        <v>102</v>
+      </c>
+      <c r="L4" s="124">
+        <v>104</v>
+      </c>
+      <c r="M4" s="124">
+        <v>200</v>
+      </c>
+      <c r="N4" s="124">
+        <v>201</v>
+      </c>
+      <c r="O4" s="124">
+        <v>202</v>
+      </c>
+      <c r="P4" s="124">
+        <v>205</v>
+      </c>
+      <c r="Q4" s="124">
+        <v>206</v>
+      </c>
+      <c r="R4" s="124">
+        <v>220</v>
+      </c>
+      <c r="S4" s="124">
+        <v>221</v>
+      </c>
+      <c r="T4" s="124">
+        <v>222</v>
+      </c>
+      <c r="U4" s="124">
+        <v>300</v>
+      </c>
+      <c r="V4" s="124">
+        <v>301</v>
+      </c>
+      <c r="W4" s="124">
+        <v>302</v>
+      </c>
+      <c r="X4" s="124">
+        <v>303</v>
+      </c>
+      <c r="Y4" s="124">
+        <v>304</v>
+      </c>
+      <c r="Z4" s="124">
+        <v>305</v>
+      </c>
+      <c r="AA4" s="124">
+        <v>306</v>
+      </c>
+      <c r="AB4" s="124">
+        <v>307</v>
+      </c>
+      <c r="AC4" s="124">
+        <v>308</v>
+      </c>
+      <c r="AD4" s="124">
+        <v>309</v>
+      </c>
+      <c r="AE4" s="124">
+        <v>310</v>
+      </c>
+      <c r="AF4" s="124">
+        <v>311</v>
+      </c>
+      <c r="AG4" s="124">
+        <v>312</v>
+      </c>
+      <c r="AH4" s="124">
+        <v>400</v>
+      </c>
+      <c r="AI4" s="124">
+        <v>401</v>
+      </c>
+      <c r="AJ4" s="124">
+        <v>402</v>
+      </c>
+      <c r="AK4" s="124">
+        <v>403</v>
+      </c>
+      <c r="AL4" s="124">
+        <v>404</v>
+      </c>
+      <c r="AM4" s="124">
+        <v>406</v>
+      </c>
+      <c r="AN4" s="124">
+        <v>407</v>
+      </c>
+      <c r="AO4" s="124">
+        <v>408</v>
+      </c>
+      <c r="AP4" s="124">
+        <v>409</v>
+      </c>
+      <c r="AQ4" s="124">
+        <v>410</v>
+      </c>
+      <c r="AR4" s="124">
+        <v>411</v>
+      </c>
+      <c r="AS4" s="124">
+        <v>412</v>
+      </c>
+      <c r="AT4" s="124">
+        <v>413</v>
+      </c>
+      <c r="AU4" s="124">
+        <v>414</v>
+      </c>
+      <c r="AV4" s="124">
+        <v>415</v>
+      </c>
+      <c r="AW4" s="124">
+        <v>416</v>
+      </c>
+      <c r="AX4" s="124">
+        <v>417</v>
+      </c>
+      <c r="AY4" s="124">
+        <v>419</v>
+      </c>
+      <c r="AZ4" s="124">
+        <v>420</v>
+      </c>
+      <c r="BA4" s="124">
+        <v>421</v>
+      </c>
+      <c r="BB4" s="124">
+        <v>422</v>
+      </c>
+      <c r="BC4" s="124">
+        <v>423</v>
+      </c>
+      <c r="BD4" s="124">
+        <v>424</v>
+      </c>
+      <c r="BE4" s="124">
+        <v>425</v>
+      </c>
+      <c r="BF4" s="124">
+        <v>426</v>
+      </c>
+      <c r="BG4" s="124">
+        <v>427</v>
+      </c>
+      <c r="BH4" s="124">
+        <v>428</v>
+      </c>
+      <c r="BI4" s="124">
+        <v>429</v>
+      </c>
+      <c r="BJ4" s="124">
+        <v>430</v>
+      </c>
+      <c r="BK4" s="124">
+        <v>432</v>
+      </c>
+      <c r="BL4" s="124">
+        <v>433</v>
+      </c>
+      <c r="BM4" s="124">
+        <v>434</v>
+      </c>
+      <c r="BN4" s="124">
+        <v>435</v>
+      </c>
+      <c r="BO4" s="124">
+        <v>436</v>
+      </c>
+      <c r="BP4" s="124">
+        <v>437</v>
+      </c>
+      <c r="BQ4" s="124">
+        <v>438</v>
+      </c>
+      <c r="BR4" s="124">
+        <v>439</v>
+      </c>
+      <c r="BS4" s="124">
+        <v>440</v>
+      </c>
+      <c r="BT4" s="124">
+        <v>441</v>
+      </c>
+      <c r="BU4" s="124">
+        <v>442</v>
+      </c>
+      <c r="BV4" s="124">
+        <v>443</v>
+      </c>
+      <c r="BW4" s="124">
+        <v>445</v>
+      </c>
+      <c r="BX4" s="124">
+        <v>446</v>
+      </c>
+      <c r="BY4" s="124">
+        <v>447</v>
+      </c>
+      <c r="BZ4" s="124">
+        <v>448</v>
+      </c>
+      <c r="CA4" s="124">
+        <v>449</v>
+      </c>
+      <c r="CB4" s="124">
+        <v>450</v>
+      </c>
+      <c r="CC4" s="124">
+        <v>451</v>
+      </c>
+      <c r="CD4" s="124">
+        <v>452</v>
+      </c>
+      <c r="CE4" s="124">
+        <v>453</v>
+      </c>
+      <c r="CF4" s="124">
+        <v>454</v>
+      </c>
+      <c r="CG4" s="124">
+        <v>455</v>
+      </c>
+      <c r="CH4" s="124">
+        <v>456</v>
+      </c>
+      <c r="CI4" s="124">
+        <v>458</v>
+      </c>
+      <c r="CJ4" s="124">
+        <v>459</v>
+      </c>
+      <c r="CK4" s="124">
+        <v>460</v>
+      </c>
+      <c r="CL4" s="124">
+        <v>461</v>
+      </c>
+      <c r="CM4" s="124">
+        <v>462</v>
+      </c>
+      <c r="CN4" s="124">
+        <v>463</v>
+      </c>
+      <c r="CO4" s="124">
+        <v>464</v>
+      </c>
+      <c r="CP4" s="88">
+        <v>465</v>
+      </c>
+      <c r="CQ4" s="88">
+        <v>466</v>
+      </c>
+      <c r="CR4" s="88">
+        <v>467</v>
+      </c>
+      <c r="CS4" s="88">
+        <v>468</v>
+      </c>
+      <c r="CT4" s="88">
+        <v>469</v>
+      </c>
+      <c r="CU4" s="88">
+        <v>471</v>
+      </c>
+      <c r="CV4" s="88">
+        <v>472</v>
+      </c>
+      <c r="CW4" s="88">
+        <v>473</v>
+      </c>
+      <c r="CX4" s="88">
+        <v>474</v>
+      </c>
+      <c r="CY4" s="88">
+        <v>475</v>
+      </c>
+      <c r="CZ4" s="88">
+        <v>476</v>
+      </c>
+      <c r="DA4" s="88">
+        <v>501</v>
+      </c>
+      <c r="DB4" s="88">
+        <v>502</v>
+      </c>
+      <c r="DC4" s="88">
+        <v>503</v>
+      </c>
+      <c r="DD4" s="88">
+        <v>504</v>
+      </c>
+      <c r="DE4" s="88">
+        <v>520</v>
+      </c>
+      <c r="DF4" s="88">
+        <v>521</v>
+      </c>
+      <c r="DG4" s="88">
+        <v>522</v>
+      </c>
+      <c r="DH4" s="88">
+        <v>523</v>
+      </c>
+      <c r="DI4" s="88">
+        <v>524</v>
+      </c>
+      <c r="DJ4" s="88">
+        <v>525</v>
+      </c>
+      <c r="DK4" s="88">
+        <v>1000</v>
+      </c>
+      <c r="DL4" s="88">
+        <v>2000</v>
+      </c>
+      <c r="DM4" s="88">
+        <v>2001</v>
+      </c>
+      <c r="DN4" s="88">
+        <v>2002</v>
+      </c>
+      <c r="DO4" s="88">
+        <v>2003</v>
+      </c>
+      <c r="DP4" s="88">
+        <v>2004</v>
+      </c>
+      <c r="DQ4" s="88">
+        <v>2005</v>
+      </c>
+      <c r="DR4" s="88">
+        <v>2006</v>
+      </c>
+      <c r="DS4" s="88">
+        <v>2007</v>
+      </c>
+      <c r="DT4" s="88">
+        <v>2008</v>
+      </c>
+      <c r="DU4" s="88">
+        <v>2009</v>
+      </c>
+      <c r="DV4" s="88">
+        <v>2020</v>
+      </c>
+      <c r="DW4" s="88">
+        <v>2021</v>
+      </c>
+      <c r="DX4" s="88">
+        <v>2022</v>
+      </c>
+      <c r="DY4" s="88">
+        <v>2030</v>
+      </c>
+      <c r="DZ4" s="88">
+        <v>2031</v>
+      </c>
+      <c r="EA4" s="88">
+        <v>2032</v>
+      </c>
+      <c r="EB4" s="88">
+        <v>3000</v>
+      </c>
+      <c r="EC4" s="88">
+        <v>3001</v>
+      </c>
+      <c r="ED4" s="88">
+        <v>3002</v>
+      </c>
+      <c r="EE4" s="88">
+        <v>3003</v>
+      </c>
+      <c r="EF4" s="88">
+        <v>3004</v>
+      </c>
+      <c r="EG4" s="88">
+        <v>3005</v>
+      </c>
+      <c r="EH4" s="88">
+        <v>3006</v>
+      </c>
+      <c r="EI4" s="88">
+        <v>3007</v>
+      </c>
+      <c r="EJ4" s="88">
+        <v>3008</v>
+      </c>
+      <c r="EK4" s="88">
+        <v>3009</v>
+      </c>
+      <c r="EL4" s="88">
+        <v>3010</v>
+      </c>
+      <c r="EM4" s="88">
+        <v>3011</v>
+      </c>
+      <c r="EN4" s="88">
+        <v>3012</v>
+      </c>
+      <c r="EO4" s="88">
+        <v>4000</v>
+      </c>
+      <c r="EP4" s="88">
+        <v>4001</v>
+      </c>
+      <c r="EQ4" s="88">
+        <v>4002</v>
+      </c>
+      <c r="ER4" s="88">
+        <v>4003</v>
+      </c>
+      <c r="ES4" s="88">
+        <v>4010</v>
+      </c>
+      <c r="ET4" s="88">
+        <v>5000</v>
+      </c>
+      <c r="EU4" s="88">
+        <v>5001</v>
+      </c>
+      <c r="EV4" s="88">
+        <v>5002</v>
+      </c>
+      <c r="EW4" s="88">
+        <v>5003</v>
+      </c>
+      <c r="EX4" s="88">
+        <v>6000</v>
+      </c>
+      <c r="EY4" s="88">
+        <v>6001</v>
+      </c>
+      <c r="EZ4" s="88">
+        <v>6002</v>
+      </c>
+      <c r="FA4" s="88">
+        <v>6003</v>
+      </c>
+      <c r="FB4" s="88">
+        <v>6004</v>
+      </c>
+      <c r="FC4" s="88">
+        <v>6005</v>
+      </c>
+      <c r="FD4" s="88">
+        <v>6006</v>
+      </c>
+      <c r="FE4" s="88">
+        <v>6007</v>
+      </c>
+      <c r="FF4" s="88">
+        <v>6008</v>
+      </c>
+      <c r="FG4" s="88">
+        <v>6009</v>
+      </c>
+      <c r="FH4" s="88">
+        <v>6010</v>
+      </c>
+      <c r="FI4" s="88">
+        <v>6011</v>
+      </c>
+      <c r="FJ4" s="88">
+        <v>6012</v>
+      </c>
       <c r="FK4" s="88"/>
       <c r="FL4" s="88"/>
       <c r="FM4" s="88"/>
@@ -24991,10 +25640,10 @@
       <c r="A5" s="33"/>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
-      <c r="D5" s="193"/>
-      <c r="E5" s="183"/>
-      <c r="F5" s="183"/>
-      <c r="G5" s="183"/>
+      <c r="D5" s="180"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="169"/>
       <c r="H5" s="124"/>
       <c r="I5" s="124"/>
       <c r="J5" s="124"/>
@@ -25366,25 +26015,25 @@
     </row>
     <row r="6" spans="1:4605" s="16" customFormat="1" ht="14.45" customHeight="1">
       <c r="A6" s="13" t="s">
-        <v>185</v>
+        <v>237</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>186</v>
+        <v>238</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>187</v>
+        <v>239</v>
       </c>
       <c r="D6" s="89" t="s">
-        <v>188</v>
+        <v>240</v>
       </c>
       <c r="E6" s="89" t="s">
-        <v>188</v>
+        <v>240</v>
       </c>
       <c r="F6" s="89" t="s">
-        <v>188</v>
+        <v>240</v>
       </c>
       <c r="G6" s="89" t="s">
-        <v>188</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:4605" s="16" customFormat="1">
@@ -25392,10 +26041,10 @@
         <v>1000</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="D7" s="25">
         <v>0</v>
@@ -25405,11 +26054,17 @@
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
+      <c r="H7" s="82">
+        <v>1.22</v>
+      </c>
+      <c r="I7" s="82">
+        <v>1</v>
+      </c>
       <c r="J7" s="82"/>
       <c r="K7" s="82"/>
-      <c r="L7" s="82"/>
+      <c r="L7" s="82">
+        <v>1.05</v>
+      </c>
       <c r="M7" s="82"/>
       <c r="N7" s="82"/>
       <c r="O7" s="82"/>
@@ -25601,10 +26256,10 @@
         <v>2000</v>
       </c>
       <c r="B8" s="122" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="D8" s="25">
         <v>0</v>
@@ -25616,10 +26271,14 @@
       <c r="G8" s="25"/>
       <c r="H8" s="82"/>
       <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
+      <c r="J8" s="82">
+        <v>1.25</v>
+      </c>
       <c r="K8" s="82"/>
       <c r="L8" s="82"/>
-      <c r="M8" s="82"/>
+      <c r="M8" s="82">
+        <v>1.25</v>
+      </c>
       <c r="N8" s="82"/>
       <c r="O8" s="82"/>
       <c r="P8" s="82"/>
@@ -25721,7 +26380,9 @@
       <c r="DH8" s="82"/>
       <c r="DI8" s="82"/>
       <c r="DJ8" s="82"/>
-      <c r="DK8" s="82"/>
+      <c r="DK8" s="82">
+        <v>1.25</v>
+      </c>
       <c r="DL8" s="82"/>
       <c r="DM8" s="82"/>
       <c r="DN8" s="82"/>
@@ -25924,10 +26585,10 @@
         <v>2001</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="D9" s="25">
         <v>0</v>
@@ -25940,9 +26601,13 @@
       <c r="H9" s="83"/>
       <c r="I9" s="83"/>
       <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
+      <c r="K9" s="83">
+        <v>1.25</v>
+      </c>
       <c r="L9" s="83"/>
-      <c r="M9" s="83"/>
+      <c r="M9" s="83">
+        <v>1.25</v>
+      </c>
       <c r="N9" s="83"/>
       <c r="O9" s="83"/>
       <c r="P9" s="83"/>
@@ -26044,7 +26709,9 @@
       <c r="DH9" s="83"/>
       <c r="DI9" s="83"/>
       <c r="DJ9" s="83"/>
-      <c r="DK9" s="83"/>
+      <c r="DK9" s="83">
+        <v>1.25</v>
+      </c>
       <c r="DL9" s="83"/>
       <c r="DM9" s="83"/>
       <c r="DN9" s="83"/>
@@ -26260,10 +26927,10 @@
         <v>2002</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="D10" s="25">
         <v>0</v>
@@ -26275,11 +26942,15 @@
       <c r="G10" s="25"/>
       <c r="H10" s="83"/>
       <c r="I10" s="83"/>
-      <c r="J10" s="83"/>
+      <c r="J10" s="83">
+        <v>1.25</v>
+      </c>
       <c r="K10" s="83"/>
       <c r="L10" s="83"/>
       <c r="M10" s="83"/>
-      <c r="N10" s="83"/>
+      <c r="N10" s="83">
+        <v>1.25</v>
+      </c>
       <c r="O10" s="83"/>
       <c r="P10" s="83"/>
       <c r="Q10" s="83"/>
@@ -26380,7 +27051,9 @@
       <c r="DH10" s="83"/>
       <c r="DI10" s="83"/>
       <c r="DJ10" s="83"/>
-      <c r="DK10" s="83"/>
+      <c r="DK10" s="83">
+        <v>1.25</v>
+      </c>
       <c r="DL10" s="83"/>
       <c r="DM10" s="83"/>
       <c r="DN10" s="83"/>
@@ -26617,10 +27290,10 @@
         <v>2003</v>
       </c>
       <c r="B11" s="122" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="D11" s="25">
         <v>0</v>
@@ -26633,10 +27306,14 @@
       <c r="H11" s="83"/>
       <c r="I11" s="83"/>
       <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
+      <c r="K11" s="83">
+        <v>1.25</v>
+      </c>
       <c r="L11" s="83"/>
       <c r="M11" s="83"/>
-      <c r="N11" s="83"/>
+      <c r="N11" s="83">
+        <v>1.25</v>
+      </c>
       <c r="O11" s="83"/>
       <c r="P11" s="83"/>
       <c r="Q11" s="83"/>
@@ -26737,7 +27414,9 @@
       <c r="DH11" s="83"/>
       <c r="DI11" s="83"/>
       <c r="DJ11" s="83"/>
-      <c r="DK11" s="83"/>
+      <c r="DK11" s="83">
+        <v>1.25</v>
+      </c>
       <c r="DL11" s="83"/>
       <c r="DM11" s="83"/>
       <c r="DN11" s="83"/>
@@ -26979,10 +27658,10 @@
         <v>2004</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="D12" s="25">
         <v>0</v>
@@ -26994,12 +27673,16 @@
       <c r="G12" s="25"/>
       <c r="H12" s="83"/>
       <c r="I12" s="83"/>
-      <c r="J12" s="83"/>
+      <c r="J12" s="83">
+        <v>1.25</v>
+      </c>
       <c r="K12" s="83"/>
       <c r="L12" s="83"/>
       <c r="M12" s="83"/>
       <c r="N12" s="83"/>
-      <c r="O12" s="83"/>
+      <c r="O12" s="83">
+        <v>1.25</v>
+      </c>
       <c r="P12" s="83"/>
       <c r="Q12" s="83"/>
       <c r="R12" s="83"/>
@@ -27099,7 +27782,9 @@
       <c r="DH12" s="83"/>
       <c r="DI12" s="83"/>
       <c r="DJ12" s="83"/>
-      <c r="DK12" s="83"/>
+      <c r="DK12" s="83">
+        <v>1.25</v>
+      </c>
       <c r="DL12" s="83"/>
       <c r="DM12" s="83"/>
       <c r="DN12" s="83"/>
@@ -27320,10 +28005,10 @@
         <v>2005</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="D13" s="25">
         <v>0</v>
@@ -27336,11 +28021,15 @@
       <c r="H13" s="83"/>
       <c r="I13" s="83"/>
       <c r="J13" s="83"/>
-      <c r="K13" s="83"/>
+      <c r="K13" s="83">
+        <v>1.25</v>
+      </c>
       <c r="L13" s="83"/>
       <c r="M13" s="83"/>
       <c r="N13" s="83"/>
-      <c r="O13" s="83"/>
+      <c r="O13" s="83">
+        <v>1.25</v>
+      </c>
       <c r="P13" s="83"/>
       <c r="Q13" s="83"/>
       <c r="R13" s="83"/>
@@ -27440,7 +28129,9 @@
       <c r="DH13" s="83"/>
       <c r="DI13" s="83"/>
       <c r="DJ13" s="83"/>
-      <c r="DK13" s="83"/>
+      <c r="DK13" s="83">
+        <v>1.25</v>
+      </c>
       <c r="DL13" s="83"/>
       <c r="DM13" s="83"/>
       <c r="DN13" s="83"/>
@@ -27662,10 +28353,10 @@
         <v>2006</v>
       </c>
       <c r="B14" s="68" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="D14" s="25">
         <v>0</v>
@@ -27678,7 +28369,9 @@
       <c r="H14" s="83"/>
       <c r="I14" s="83"/>
       <c r="J14" s="83"/>
-      <c r="K14" s="83"/>
+      <c r="K14" s="83">
+        <v>1.25</v>
+      </c>
       <c r="L14" s="83"/>
       <c r="M14" s="83"/>
       <c r="N14" s="83"/>
@@ -27782,7 +28475,9 @@
       <c r="DH14" s="83"/>
       <c r="DI14" s="83"/>
       <c r="DJ14" s="83"/>
-      <c r="DK14" s="83"/>
+      <c r="DK14" s="83">
+        <v>1.25</v>
+      </c>
       <c r="DL14" s="83"/>
       <c r="DM14" s="83"/>
       <c r="DN14" s="83"/>
@@ -28042,10 +28737,10 @@
         <v>2007</v>
       </c>
       <c r="B15" s="68" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="D15" s="25">
         <v>0</v>
@@ -28058,7 +28753,9 @@
       <c r="H15" s="83"/>
       <c r="I15" s="83"/>
       <c r="J15" s="83"/>
-      <c r="K15" s="83"/>
+      <c r="K15" s="83">
+        <v>1.25</v>
+      </c>
       <c r="L15" s="83"/>
       <c r="M15" s="83"/>
       <c r="N15" s="83"/>
@@ -28162,7 +28859,9 @@
       <c r="DH15" s="83"/>
       <c r="DI15" s="83"/>
       <c r="DJ15" s="83"/>
-      <c r="DK15" s="83"/>
+      <c r="DK15" s="83">
+        <v>1.25</v>
+      </c>
       <c r="DL15" s="83"/>
       <c r="DM15" s="83"/>
       <c r="DN15" s="83"/>
@@ -28426,10 +29125,10 @@
         <v>2008</v>
       </c>
       <c r="B16" s="68" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="D16" s="25">
         <v>0</v>
@@ -28439,6 +29138,15 @@
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
+      <c r="K16">
+        <v>1.25</v>
+      </c>
+      <c r="P16">
+        <v>1.25</v>
+      </c>
+      <c r="DK16">
+        <v>1.25</v>
+      </c>
       <c r="IU16" s="87"/>
       <c r="IW16" s="87"/>
       <c r="IX16" s="83"/>
@@ -28556,10 +29264,10 @@
         <v>2009</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="D17" s="25">
         <v>0</v>
@@ -28572,13 +29280,19 @@
       <c r="H17" s="83"/>
       <c r="I17" s="83"/>
       <c r="J17" s="83"/>
-      <c r="K17" s="83"/>
+      <c r="K17" s="83">
+        <v>1.25</v>
+      </c>
       <c r="L17" s="83"/>
       <c r="M17" s="83"/>
       <c r="N17" s="83"/>
       <c r="O17" s="83"/>
-      <c r="P17" s="83"/>
-      <c r="Q17" s="83"/>
+      <c r="P17" s="83">
+        <v>1.25</v>
+      </c>
+      <c r="Q17" s="83">
+        <v>1.25</v>
+      </c>
       <c r="R17" s="83"/>
       <c r="S17" s="83"/>
       <c r="T17" s="83"/>
@@ -28676,7 +29390,9 @@
       <c r="DH17" s="83"/>
       <c r="DI17" s="83"/>
       <c r="DJ17" s="83"/>
-      <c r="DK17" s="83"/>
+      <c r="DK17" s="83">
+        <v>1.25</v>
+      </c>
       <c r="DL17" s="83"/>
       <c r="DM17" s="83"/>
       <c r="DN17" s="83"/>
@@ -28882,10 +29598,10 @@
         <v>2020</v>
       </c>
       <c r="B18" s="86" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="D18" s="25">
         <v>0</v>
@@ -28897,15 +29613,21 @@
       <c r="G18" s="25"/>
       <c r="H18" s="83"/>
       <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
+      <c r="J18" s="83">
+        <v>1.25</v>
+      </c>
       <c r="K18" s="83"/>
       <c r="L18" s="83"/>
-      <c r="M18" s="83"/>
+      <c r="M18" s="83">
+        <v>1.25</v>
+      </c>
       <c r="N18" s="83"/>
       <c r="O18" s="83"/>
       <c r="P18" s="83"/>
       <c r="Q18" s="83"/>
-      <c r="R18" s="83"/>
+      <c r="R18" s="83">
+        <v>1.25</v>
+      </c>
       <c r="S18" s="83"/>
       <c r="T18" s="83"/>
       <c r="U18" s="83"/>
@@ -29002,7 +29724,9 @@
       <c r="DH18" s="83"/>
       <c r="DI18" s="83"/>
       <c r="DJ18" s="83"/>
-      <c r="DK18" s="83"/>
+      <c r="DK18" s="83">
+        <v>1.25</v>
+      </c>
       <c r="DL18" s="83"/>
       <c r="DM18" s="83"/>
       <c r="DN18" s="83"/>
@@ -29207,10 +29931,10 @@
         <v>2021</v>
       </c>
       <c r="B19" s="86" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="D19" s="25">
         <v>0</v>
@@ -29220,6 +29944,18 @@
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
+      <c r="J19">
+        <v>1.25</v>
+      </c>
+      <c r="M19">
+        <v>1.25</v>
+      </c>
+      <c r="S19">
+        <v>1.25</v>
+      </c>
+      <c r="DK19">
+        <v>1.25</v>
+      </c>
       <c r="IU19" s="87"/>
       <c r="IW19" s="83"/>
       <c r="IX19" s="83"/>
@@ -29338,10 +30074,10 @@
         <v>2022</v>
       </c>
       <c r="B20" s="86" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="D20" s="25">
         <v>0</v>
@@ -29351,6 +30087,18 @@
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
+      <c r="J20">
+        <v>1.25</v>
+      </c>
+      <c r="M20">
+        <v>1.25</v>
+      </c>
+      <c r="T20">
+        <v>1.25</v>
+      </c>
+      <c r="DK20">
+        <v>1.25</v>
+      </c>
       <c r="IW20" s="87"/>
       <c r="IX20" s="83"/>
       <c r="IY20" s="83"/>
@@ -29464,10 +30212,10 @@
         <v>2030</v>
       </c>
       <c r="B21" s="86" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="D21" s="25">
         <v>0</v>
@@ -29477,6 +30225,21 @@
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
+      <c r="K21">
+        <v>1.25</v>
+      </c>
+      <c r="N21">
+        <v>1.25</v>
+      </c>
+      <c r="DE21">
+        <v>1.25</v>
+      </c>
+      <c r="DF21">
+        <v>1.25</v>
+      </c>
+      <c r="DK21">
+        <v>1.25</v>
+      </c>
       <c r="GQ21" s="83"/>
       <c r="HM21" s="83"/>
       <c r="IW21" s="83"/>
@@ -29592,10 +30355,10 @@
         <v>2031</v>
       </c>
       <c r="B22" s="86" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="D22" s="25">
         <v>0</v>
@@ -29608,10 +30371,14 @@
       <c r="H22" s="83"/>
       <c r="I22" s="83"/>
       <c r="J22" s="83"/>
-      <c r="K22" s="83"/>
+      <c r="K22" s="83">
+        <v>1.25</v>
+      </c>
       <c r="L22" s="83"/>
       <c r="M22" s="83"/>
-      <c r="N22" s="83"/>
+      <c r="N22" s="83">
+        <v>1.25</v>
+      </c>
       <c r="O22" s="83"/>
       <c r="P22" s="83"/>
       <c r="Q22" s="83"/>
@@ -29708,11 +30475,17 @@
       <c r="DD22" s="83"/>
       <c r="DE22" s="83"/>
       <c r="DF22" s="83"/>
-      <c r="DG22" s="83"/>
-      <c r="DH22" s="83"/>
+      <c r="DG22" s="83">
+        <v>1.25</v>
+      </c>
+      <c r="DH22" s="83">
+        <v>1.25</v>
+      </c>
       <c r="DI22" s="83"/>
       <c r="DJ22" s="83"/>
-      <c r="DK22" s="83"/>
+      <c r="DK22" s="83">
+        <v>1.25</v>
+      </c>
       <c r="DL22" s="83"/>
       <c r="DM22" s="83"/>
       <c r="DN22" s="83"/>
@@ -29915,10 +30688,10 @@
         <v>2032</v>
       </c>
       <c r="B23" s="86" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="D23" s="25">
         <v>0</v>
@@ -29931,10 +30704,14 @@
       <c r="H23" s="83"/>
       <c r="I23" s="83"/>
       <c r="J23" s="83"/>
-      <c r="K23" s="83"/>
+      <c r="K23" s="83">
+        <v>1.25</v>
+      </c>
       <c r="L23" s="83"/>
       <c r="M23" s="83"/>
-      <c r="N23" s="83"/>
+      <c r="N23" s="83">
+        <v>1.25</v>
+      </c>
       <c r="O23" s="83"/>
       <c r="P23" s="83"/>
       <c r="Q23" s="83"/>
@@ -30033,9 +30810,15 @@
       <c r="DF23" s="83"/>
       <c r="DG23" s="83"/>
       <c r="DH23" s="83"/>
-      <c r="DI23" s="83"/>
-      <c r="DJ23" s="83"/>
-      <c r="DK23" s="83"/>
+      <c r="DI23" s="83">
+        <v>1.25</v>
+      </c>
+      <c r="DJ23" s="83">
+        <v>1.25</v>
+      </c>
+      <c r="DK23" s="83">
+        <v>1.25</v>
+      </c>
       <c r="DL23" s="83"/>
       <c r="DM23" s="83"/>
       <c r="DN23" s="83"/>
@@ -30238,10 +31021,10 @@
         <v>3000</v>
       </c>
       <c r="B24" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="D24" s="25">
         <v>0</v>
@@ -30254,7 +31037,9 @@
       <c r="H24" s="83"/>
       <c r="I24" s="83"/>
       <c r="J24" s="83"/>
-      <c r="K24" s="83"/>
+      <c r="K24" s="83">
+        <v>1</v>
+      </c>
       <c r="L24" s="83"/>
       <c r="M24" s="83"/>
       <c r="N24" s="83"/>
@@ -30264,7 +31049,9 @@
       <c r="R24" s="83"/>
       <c r="S24" s="83"/>
       <c r="T24" s="83"/>
-      <c r="U24" s="83"/>
+      <c r="U24" s="83">
+        <v>1</v>
+      </c>
       <c r="V24" s="83"/>
       <c r="W24" s="83"/>
       <c r="X24" s="83"/>
@@ -30358,7 +31145,9 @@
       <c r="DH24" s="83"/>
       <c r="DI24" s="83"/>
       <c r="DJ24" s="83"/>
-      <c r="DK24" s="83"/>
+      <c r="DK24" s="83">
+        <v>1</v>
+      </c>
       <c r="DL24" s="83"/>
       <c r="DM24" s="83"/>
       <c r="DN24" s="83"/>
@@ -30524,10 +31313,10 @@
         <v>3001</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="D25" s="25">
         <v>0</v>
@@ -30537,6 +31326,15 @@
       </c>
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="DK25">
+        <v>1</v>
+      </c>
       <c r="NL25" s="83"/>
       <c r="NM25" s="83"/>
       <c r="NN25" s="83"/>
@@ -30614,10 +31412,10 @@
         <v>3002</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="D26" s="25">
         <v>0</v>
@@ -30627,6 +31425,15 @@
       </c>
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="DK26">
+        <v>1</v>
+      </c>
       <c r="NL26" s="83"/>
       <c r="NM26" s="83"/>
       <c r="NN26" s="83"/>
@@ -30704,10 +31511,10 @@
         <v>3003</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="D27" s="25">
         <v>0</v>
@@ -30717,6 +31524,15 @@
       </c>
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="X27">
+        <v>1</v>
+      </c>
+      <c r="DK27">
+        <v>1</v>
+      </c>
       <c r="NL27" s="83"/>
       <c r="NM27" s="83"/>
       <c r="NN27" s="83"/>
@@ -30794,10 +31610,10 @@
         <v>3004</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="D28" s="25">
         <v>0</v>
@@ -30807,6 +31623,15 @@
       </c>
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="Y28">
+        <v>1</v>
+      </c>
+      <c r="DK28">
+        <v>1</v>
+      </c>
       <c r="NL28" s="83"/>
       <c r="NM28" s="83"/>
       <c r="NN28" s="83"/>
@@ -30884,10 +31709,10 @@
         <v>3005</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="D29" s="25">
         <v>0</v>
@@ -30897,6 +31722,15 @@
       </c>
       <c r="F29" s="25"/>
       <c r="G29" s="25"/>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="Z29">
+        <v>1</v>
+      </c>
+      <c r="DK29">
+        <v>1</v>
+      </c>
       <c r="NL29" s="83"/>
       <c r="NM29" s="83"/>
       <c r="NN29" s="83"/>
@@ -30974,10 +31808,10 @@
         <v>3006</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="D30" s="25">
         <v>0</v>
@@ -30987,6 +31821,15 @@
       </c>
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="AA30">
+        <v>1</v>
+      </c>
+      <c r="DK30">
+        <v>1</v>
+      </c>
       <c r="NL30" s="83"/>
       <c r="NM30" s="83"/>
       <c r="NN30" s="83"/>
@@ -31064,10 +31907,10 @@
         <v>3007</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="D31" s="25">
         <v>0</v>
@@ -31077,6 +31920,15 @@
       </c>
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="AB31">
+        <v>1</v>
+      </c>
+      <c r="DK31">
+        <v>1</v>
+      </c>
       <c r="NL31" s="83"/>
       <c r="NM31" s="83"/>
       <c r="NN31" s="83"/>
@@ -31154,10 +32006,10 @@
         <v>3008</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="D32" s="25">
         <v>0</v>
@@ -31167,6 +32019,15 @@
       </c>
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="AC32">
+        <v>1</v>
+      </c>
+      <c r="DK32">
+        <v>1</v>
+      </c>
       <c r="NL32" s="83"/>
       <c r="NM32" s="83"/>
       <c r="NN32" s="83"/>
@@ -31244,10 +32105,10 @@
         <v>3009</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="D33" s="25">
         <v>0</v>
@@ -31257,6 +32118,15 @@
       </c>
       <c r="F33" s="25"/>
       <c r="G33" s="25"/>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="AD33">
+        <v>1</v>
+      </c>
+      <c r="DK33">
+        <v>1</v>
+      </c>
       <c r="NL33" s="83"/>
       <c r="NM33" s="83"/>
       <c r="NN33" s="83"/>
@@ -31334,10 +32204,10 @@
         <v>3010</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="D34" s="25">
         <v>0</v>
@@ -31347,6 +32217,18 @@
       </c>
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="AE34">
+        <v>1</v>
+      </c>
+      <c r="DK34">
+        <v>1</v>
+      </c>
       <c r="NL34" s="84"/>
       <c r="NM34" s="84"/>
       <c r="NN34" s="84"/>
@@ -31424,10 +32306,10 @@
         <v>3011</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="D35" s="25">
         <v>0</v>
@@ -31437,6 +32319,18 @@
       </c>
       <c r="F35" s="25"/>
       <c r="G35" s="25"/>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="AF35">
+        <v>1</v>
+      </c>
+      <c r="DK35">
+        <v>1</v>
+      </c>
       <c r="NL35" s="83"/>
       <c r="NM35" s="83"/>
       <c r="NN35" s="83"/>
@@ -31514,10 +32408,10 @@
         <v>3012</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="D36" s="25">
         <v>0</v>
@@ -31527,6 +32421,18 @@
       </c>
       <c r="F36" s="25"/>
       <c r="G36" s="25"/>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="AG36">
+        <v>1</v>
+      </c>
+      <c r="DK36">
+        <v>1</v>
+      </c>
       <c r="NL36" s="83"/>
       <c r="NM36" s="83"/>
       <c r="NN36" s="83"/>
@@ -31604,10 +32510,10 @@
         <v>4000</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="D37" s="25">
         <v>0</v>
@@ -31617,6 +32523,78 @@
       </c>
       <c r="F37" s="25"/>
       <c r="G37" s="25"/>
+      <c r="AH37">
+        <v>1.365</v>
+      </c>
+      <c r="AI37">
+        <v>1.365</v>
+      </c>
+      <c r="AJ37">
+        <v>1.365</v>
+      </c>
+      <c r="AK37">
+        <v>1.365</v>
+      </c>
+      <c r="AL37">
+        <v>1.365</v>
+      </c>
+      <c r="AM37">
+        <v>1.365</v>
+      </c>
+      <c r="AN37">
+        <v>1.365</v>
+      </c>
+      <c r="AO37">
+        <v>1.365</v>
+      </c>
+      <c r="AP37">
+        <v>1.365</v>
+      </c>
+      <c r="AQ37">
+        <v>1.365</v>
+      </c>
+      <c r="AR37">
+        <v>1.365</v>
+      </c>
+      <c r="AS37">
+        <v>1.365</v>
+      </c>
+      <c r="AT37">
+        <v>1.365</v>
+      </c>
+      <c r="AU37">
+        <v>1.365</v>
+      </c>
+      <c r="AV37">
+        <v>1.365</v>
+      </c>
+      <c r="AW37">
+        <v>1.365</v>
+      </c>
+      <c r="AX37">
+        <v>1.365</v>
+      </c>
+      <c r="AY37">
+        <v>1.365</v>
+      </c>
+      <c r="AZ37">
+        <v>1.365</v>
+      </c>
+      <c r="BA37">
+        <v>1.365</v>
+      </c>
+      <c r="BB37">
+        <v>1.365</v>
+      </c>
+      <c r="BC37">
+        <v>1.365</v>
+      </c>
+      <c r="BD37">
+        <v>1.365</v>
+      </c>
+      <c r="DK37">
+        <v>1.25</v>
+      </c>
       <c r="NL37" s="83"/>
       <c r="NM37" s="83"/>
       <c r="NN37" s="83"/>
@@ -31694,10 +32672,10 @@
         <v>4001</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="D38" s="25">
         <v>0</v>
@@ -31707,6 +32685,78 @@
       </c>
       <c r="F38" s="25"/>
       <c r="G38" s="25"/>
+      <c r="AH38">
+        <v>1.365</v>
+      </c>
+      <c r="AI38">
+        <v>1.365</v>
+      </c>
+      <c r="AJ38">
+        <v>1.365</v>
+      </c>
+      <c r="AK38">
+        <v>1.365</v>
+      </c>
+      <c r="AL38">
+        <v>1.365</v>
+      </c>
+      <c r="AM38">
+        <v>1.365</v>
+      </c>
+      <c r="AN38">
+        <v>1.365</v>
+      </c>
+      <c r="AO38">
+        <v>1.365</v>
+      </c>
+      <c r="AP38">
+        <v>1.365</v>
+      </c>
+      <c r="AQ38">
+        <v>1.365</v>
+      </c>
+      <c r="AR38">
+        <v>1.365</v>
+      </c>
+      <c r="BE38">
+        <v>1.365</v>
+      </c>
+      <c r="BF38">
+        <v>1.365</v>
+      </c>
+      <c r="BG38">
+        <v>1.365</v>
+      </c>
+      <c r="BH38">
+        <v>1.365</v>
+      </c>
+      <c r="BI38">
+        <v>1.365</v>
+      </c>
+      <c r="BJ38">
+        <v>1.365</v>
+      </c>
+      <c r="BK38">
+        <v>1.365</v>
+      </c>
+      <c r="BL38">
+        <v>1.365</v>
+      </c>
+      <c r="BM38">
+        <v>1.365</v>
+      </c>
+      <c r="BN38">
+        <v>1.365</v>
+      </c>
+      <c r="BO38">
+        <v>1.365</v>
+      </c>
+      <c r="BP38">
+        <v>1.365</v>
+      </c>
+      <c r="DK38">
+        <v>1.25</v>
+      </c>
       <c r="NL38" s="83"/>
       <c r="NM38" s="83"/>
       <c r="NN38" s="83"/>
@@ -31784,10 +32834,10 @@
         <v>4002</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="D39" s="25">
         <v>0</v>
@@ -31797,6 +32847,78 @@
       </c>
       <c r="F39" s="25"/>
       <c r="G39" s="25"/>
+      <c r="AH39">
+        <v>1.365</v>
+      </c>
+      <c r="AI39">
+        <v>1.365</v>
+      </c>
+      <c r="AJ39">
+        <v>1.365</v>
+      </c>
+      <c r="AK39">
+        <v>1.365</v>
+      </c>
+      <c r="AL39">
+        <v>1.365</v>
+      </c>
+      <c r="AM39">
+        <v>1.365</v>
+      </c>
+      <c r="AN39">
+        <v>1.365</v>
+      </c>
+      <c r="AO39">
+        <v>1.365</v>
+      </c>
+      <c r="AP39">
+        <v>1.365</v>
+      </c>
+      <c r="AQ39">
+        <v>1.365</v>
+      </c>
+      <c r="AR39">
+        <v>1.365</v>
+      </c>
+      <c r="BQ39">
+        <v>1.365</v>
+      </c>
+      <c r="BR39">
+        <v>1.365</v>
+      </c>
+      <c r="BS39">
+        <v>1.365</v>
+      </c>
+      <c r="BT39">
+        <v>1.365</v>
+      </c>
+      <c r="BU39">
+        <v>1.365</v>
+      </c>
+      <c r="BV39">
+        <v>1.365</v>
+      </c>
+      <c r="BW39">
+        <v>1.365</v>
+      </c>
+      <c r="BX39">
+        <v>1.365</v>
+      </c>
+      <c r="BY39">
+        <v>1.365</v>
+      </c>
+      <c r="BZ39">
+        <v>1.365</v>
+      </c>
+      <c r="CA39">
+        <v>1.365</v>
+      </c>
+      <c r="CB39">
+        <v>1.365</v>
+      </c>
+      <c r="DK39">
+        <v>1.25</v>
+      </c>
       <c r="NL39" s="83"/>
       <c r="NM39" s="83"/>
       <c r="NN39" s="83"/>
@@ -31874,10 +32996,10 @@
         <v>4003</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="D40" s="25">
         <v>0</v>
@@ -31887,6 +33009,78 @@
       </c>
       <c r="F40" s="25"/>
       <c r="G40" s="25"/>
+      <c r="AH40">
+        <v>1.365</v>
+      </c>
+      <c r="AI40">
+        <v>1.365</v>
+      </c>
+      <c r="AJ40">
+        <v>1.365</v>
+      </c>
+      <c r="AK40">
+        <v>1.365</v>
+      </c>
+      <c r="AL40">
+        <v>1.365</v>
+      </c>
+      <c r="AM40">
+        <v>1.365</v>
+      </c>
+      <c r="AN40">
+        <v>1.365</v>
+      </c>
+      <c r="AO40">
+        <v>1.365</v>
+      </c>
+      <c r="AP40">
+        <v>1.365</v>
+      </c>
+      <c r="AQ40">
+        <v>1.365</v>
+      </c>
+      <c r="AR40">
+        <v>1.365</v>
+      </c>
+      <c r="CC40">
+        <v>1.365</v>
+      </c>
+      <c r="CD40">
+        <v>1.365</v>
+      </c>
+      <c r="CE40">
+        <v>1.365</v>
+      </c>
+      <c r="CF40">
+        <v>1.365</v>
+      </c>
+      <c r="CG40">
+        <v>1.365</v>
+      </c>
+      <c r="CH40">
+        <v>1.365</v>
+      </c>
+      <c r="CI40">
+        <v>1.365</v>
+      </c>
+      <c r="CJ40">
+        <v>1.365</v>
+      </c>
+      <c r="CK40">
+        <v>1.365</v>
+      </c>
+      <c r="CL40">
+        <v>1.365</v>
+      </c>
+      <c r="CM40">
+        <v>1.365</v>
+      </c>
+      <c r="CN40">
+        <v>1.365</v>
+      </c>
+      <c r="DK40">
+        <v>1.25</v>
+      </c>
       <c r="NL40" s="83"/>
       <c r="NM40" s="83"/>
       <c r="NN40" s="83"/>
@@ -31964,10 +33158,10 @@
         <v>4010</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="D41" s="25">
         <v>0</v>
@@ -31977,6 +33171,48 @@
       </c>
       <c r="F41" s="25"/>
       <c r="G41" s="25"/>
+      <c r="H41">
+        <v>1.22</v>
+      </c>
+      <c r="L41">
+        <v>1.05</v>
+      </c>
+      <c r="CO41">
+        <v>1.365</v>
+      </c>
+      <c r="CP41">
+        <v>1.365</v>
+      </c>
+      <c r="CQ41">
+        <v>1.365</v>
+      </c>
+      <c r="CR41">
+        <v>1.365</v>
+      </c>
+      <c r="CS41">
+        <v>1.365</v>
+      </c>
+      <c r="CT41">
+        <v>1.365</v>
+      </c>
+      <c r="CU41">
+        <v>1.365</v>
+      </c>
+      <c r="CV41">
+        <v>1.365</v>
+      </c>
+      <c r="CW41">
+        <v>1.365</v>
+      </c>
+      <c r="CX41">
+        <v>1.365</v>
+      </c>
+      <c r="CY41">
+        <v>1.365</v>
+      </c>
+      <c r="CZ41">
+        <v>1.365</v>
+      </c>
       <c r="NL41" s="83"/>
       <c r="NM41" s="83"/>
       <c r="NN41" s="83"/>
@@ -32054,10 +33290,10 @@
         <v>5000</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="D42" s="25">
         <v>0</v>
@@ -32067,6 +33303,9 @@
       </c>
       <c r="F42" s="25"/>
       <c r="G42" s="25"/>
+      <c r="DA42">
+        <v>1.05</v>
+      </c>
       <c r="NL42" s="83"/>
       <c r="NM42" s="83"/>
       <c r="NN42" s="83"/>
@@ -32144,10 +33383,10 @@
         <v>5001</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="D43" s="25">
         <v>0</v>
@@ -32157,6 +33396,9 @@
       </c>
       <c r="F43" s="25"/>
       <c r="G43" s="25"/>
+      <c r="DB43">
+        <v>1.05</v>
+      </c>
       <c r="NL43" s="83"/>
       <c r="NM43" s="83"/>
       <c r="NN43" s="83"/>
@@ -32234,10 +33476,10 @@
         <v>5002</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="D44" s="25">
         <v>0</v>
@@ -32247,6 +33489,9 @@
       </c>
       <c r="F44" s="25"/>
       <c r="G44" s="25"/>
+      <c r="DC44">
+        <v>1.05</v>
+      </c>
       <c r="NL44" s="83"/>
       <c r="NM44" s="83"/>
       <c r="NN44" s="83"/>
@@ -32324,10 +33569,10 @@
         <v>5003</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="D45" s="25">
         <v>0</v>
@@ -32337,16 +33582,19 @@
       </c>
       <c r="F45" s="25"/>
       <c r="G45" s="25"/>
+      <c r="DD45">
+        <v>1.05</v>
+      </c>
     </row>
     <row r="46" spans="1:446" s="16" customFormat="1">
       <c r="A46" s="11">
         <v>6000</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="D46" s="25">
         <v>0</v>
@@ -32356,16 +33604,25 @@
       </c>
       <c r="F46" s="25"/>
       <c r="G46" s="25"/>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="DK46">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:446" s="16" customFormat="1">
       <c r="A47" s="11">
         <v>6001</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="D47" s="25">
         <v>0</v>
@@ -32375,16 +33632,25 @@
       </c>
       <c r="F47" s="25"/>
       <c r="G47" s="25"/>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="DK47">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:446" s="16" customFormat="1">
       <c r="A48" s="11">
         <v>6002</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="D48" s="25">
         <v>0</v>
@@ -32394,16 +33660,25 @@
       </c>
       <c r="F48" s="25"/>
       <c r="G48" s="25"/>
-    </row>
-    <row r="49" spans="1:7" s="16" customFormat="1">
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="DK48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:115" s="16" customFormat="1">
       <c r="A49" s="11">
         <v>6003</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="D49" s="25">
         <v>0</v>
@@ -32413,16 +33688,25 @@
       </c>
       <c r="F49" s="25"/>
       <c r="G49" s="25"/>
-    </row>
-    <row r="50" spans="1:7" s="16" customFormat="1">
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="DK49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:115" s="16" customFormat="1">
       <c r="A50" s="11">
         <v>6004</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="D50" s="25">
         <v>0</v>
@@ -32432,16 +33716,25 @@
       </c>
       <c r="F50" s="25"/>
       <c r="G50" s="25"/>
-    </row>
-    <row r="51" spans="1:7" s="16" customFormat="1">
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
+      <c r="DK50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:115" s="16" customFormat="1">
       <c r="A51" s="11">
         <v>6005</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="D51" s="25">
         <v>0</v>
@@ -32451,16 +33744,25 @@
       </c>
       <c r="F51" s="25"/>
       <c r="G51" s="25"/>
-    </row>
-    <row r="52" spans="1:7" s="16" customFormat="1">
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+      <c r="DK51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:115" s="16" customFormat="1">
       <c r="A52" s="11">
         <v>6006</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="D52" s="25">
         <v>0</v>
@@ -32470,16 +33772,22 @@
       </c>
       <c r="F52" s="25"/>
       <c r="G52" s="25"/>
-    </row>
-    <row r="53" spans="1:7" s="16" customFormat="1">
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="DK52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:115" s="16" customFormat="1">
       <c r="A53" s="11">
         <v>6007</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="D53" s="25">
         <v>0</v>
@@ -32489,16 +33797,22 @@
       </c>
       <c r="F53" s="25"/>
       <c r="G53" s="25"/>
-    </row>
-    <row r="54" spans="1:7" s="16" customFormat="1">
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="DK53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:115" s="16" customFormat="1">
       <c r="A54" s="11">
         <v>6008</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="D54" s="25">
         <v>0</v>
@@ -32508,16 +33822,25 @@
       </c>
       <c r="F54" s="25"/>
       <c r="G54" s="25"/>
-    </row>
-    <row r="55" spans="1:7" s="16" customFormat="1">
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="P54">
+        <v>1</v>
+      </c>
+      <c r="DK54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:115" s="16" customFormat="1">
       <c r="A55" s="11">
         <v>6009</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="D55" s="25">
         <v>0</v>
@@ -32527,16 +33850,25 @@
       </c>
       <c r="F55" s="25"/>
       <c r="G55" s="25"/>
-    </row>
-    <row r="56" spans="1:7" s="16" customFormat="1">
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>1</v>
+      </c>
+      <c r="DK55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:115" s="16" customFormat="1">
       <c r="A56" s="11">
         <v>6010</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="D56" s="25">
         <v>0</v>
@@ -32546,16 +33878,31 @@
       </c>
       <c r="F56" s="25"/>
       <c r="G56" s="25"/>
-    </row>
-    <row r="57" spans="1:7" s="16" customFormat="1">
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="DE56">
+        <v>1</v>
+      </c>
+      <c r="DF56">
+        <v>1</v>
+      </c>
+      <c r="DK56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:115" s="16" customFormat="1">
       <c r="A57" s="11">
         <v>6011</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="D57" s="25">
         <v>0</v>
@@ -32565,16 +33912,31 @@
       </c>
       <c r="F57" s="25"/>
       <c r="G57" s="25"/>
-    </row>
-    <row r="58" spans="1:7" s="16" customFormat="1">
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="DG57">
+        <v>1</v>
+      </c>
+      <c r="DH57">
+        <v>1</v>
+      </c>
+      <c r="DK57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:115" s="16" customFormat="1">
       <c r="A58" s="11">
         <v>6012</v>
       </c>
       <c r="B58" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C58" s="12" t="s">
         <v>243</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>231</v>
       </c>
       <c r="D58" s="25">
         <v>0</v>
@@ -32584,8 +33946,23 @@
       </c>
       <c r="F58" s="25"/>
       <c r="G58" s="25"/>
-    </row>
-    <row r="59" spans="1:7" s="16" customFormat="1">
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="DI58">
+        <v>1</v>
+      </c>
+      <c r="DJ58">
+        <v>1</v>
+      </c>
+      <c r="DK58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:115" s="16" customFormat="1">
       <c r="A59" s="11"/>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
@@ -32594,7 +33971,7 @@
       <c r="F59" s="25"/>
       <c r="G59" s="25"/>
     </row>
-    <row r="60" spans="1:7" s="16" customFormat="1">
+    <row r="60" spans="1:115" s="16" customFormat="1">
       <c r="A60" s="11"/>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
@@ -32603,7 +33980,7 @@
       <c r="F60" s="25"/>
       <c r="G60" s="25"/>
     </row>
-    <row r="61" spans="1:7" s="16" customFormat="1">
+    <row r="61" spans="1:115" s="16" customFormat="1">
       <c r="A61" s="11"/>
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
@@ -32612,7 +33989,7 @@
       <c r="F61" s="25"/>
       <c r="G61" s="25"/>
     </row>
-    <row r="62" spans="1:7" s="16" customFormat="1">
+    <row r="62" spans="1:115" s="16" customFormat="1">
       <c r="A62" s="11"/>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
@@ -32621,7 +33998,7 @@
       <c r="F62" s="25"/>
       <c r="G62" s="25"/>
     </row>
-    <row r="63" spans="1:7" s="16" customFormat="1">
+    <row r="63" spans="1:115" s="16" customFormat="1">
       <c r="A63" s="11"/>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
@@ -32630,7 +34007,7 @@
       <c r="F63" s="25"/>
       <c r="G63" s="25"/>
     </row>
-    <row r="64" spans="1:7" s="16" customFormat="1">
+    <row r="64" spans="1:115" s="16" customFormat="1">
       <c r="A64" s="11"/>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
@@ -36420,8 +37797,8 @@
     <col min="29" max="33" width="5.7109375" style="35" customWidth="1"/>
     <col min="34" max="49" width="8.7109375" style="35" customWidth="1"/>
     <col min="50" max="50" width="9.42578125" style="35" customWidth="1"/>
-    <col min="51" max="55" width="8.7109375" style="35" customWidth="1"/>
-    <col min="56" max="16384" width="8.7109375" style="35"/>
+    <col min="51" max="56" width="8.7109375" style="35" customWidth="1"/>
+    <col min="57" max="16384" width="8.7109375" style="35"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:55" ht="62.1" customHeight="1" thickBot="1">
@@ -36486,75 +37863,75 @@
       <c r="D3" s="46"/>
       <c r="E3" s="51"/>
       <c r="F3" s="72"/>
-      <c r="G3" s="182" t="s">
+      <c r="G3" s="194" t="s">
         <v>244</v>
       </c>
-      <c r="H3" s="186"/>
-      <c r="I3" s="186"/>
-      <c r="J3" s="186"/>
-      <c r="K3" s="186"/>
-      <c r="L3" s="186"/>
-      <c r="M3" s="186"/>
-      <c r="N3" s="186"/>
-      <c r="O3" s="187"/>
-      <c r="P3" s="180" t="s">
+      <c r="H3" s="172"/>
+      <c r="I3" s="172"/>
+      <c r="J3" s="172"/>
+      <c r="K3" s="172"/>
+      <c r="L3" s="172"/>
+      <c r="M3" s="172"/>
+      <c r="N3" s="172"/>
+      <c r="O3" s="173"/>
+      <c r="P3" s="192" t="s">
         <v>245</v>
       </c>
-      <c r="Q3" s="186"/>
-      <c r="R3" s="186"/>
-      <c r="S3" s="186"/>
-      <c r="T3" s="186"/>
-      <c r="U3" s="186"/>
-      <c r="V3" s="186"/>
-      <c r="W3" s="187"/>
-      <c r="X3" s="180" t="s">
+      <c r="Q3" s="172"/>
+      <c r="R3" s="172"/>
+      <c r="S3" s="172"/>
+      <c r="T3" s="172"/>
+      <c r="U3" s="172"/>
+      <c r="V3" s="172"/>
+      <c r="W3" s="173"/>
+      <c r="X3" s="192" t="s">
         <v>246</v>
       </c>
-      <c r="Y3" s="186"/>
-      <c r="Z3" s="187"/>
-      <c r="AA3" s="179" t="s">
+      <c r="Y3" s="172"/>
+      <c r="Z3" s="173"/>
+      <c r="AA3" s="191" t="s">
         <v>247</v>
       </c>
-      <c r="AB3" s="186"/>
-      <c r="AC3" s="181" t="s">
+      <c r="AB3" s="172"/>
+      <c r="AC3" s="193" t="s">
         <v>248</v>
       </c>
-      <c r="AD3" s="191"/>
-      <c r="AE3" s="192"/>
+      <c r="AD3" s="175"/>
+      <c r="AE3" s="176"/>
       <c r="AF3" s="135" t="s">
         <v>249</v>
       </c>
-      <c r="AG3" s="180" t="s">
+      <c r="AG3" s="192" t="s">
         <v>250</v>
       </c>
-      <c r="AH3" s="186"/>
-      <c r="AI3" s="186"/>
-      <c r="AJ3" s="186"/>
-      <c r="AK3" s="186"/>
-      <c r="AL3" s="186"/>
-      <c r="AM3" s="186"/>
-      <c r="AN3" s="187"/>
-      <c r="AO3" s="178" t="s">
+      <c r="AH3" s="172"/>
+      <c r="AI3" s="172"/>
+      <c r="AJ3" s="172"/>
+      <c r="AK3" s="172"/>
+      <c r="AL3" s="172"/>
+      <c r="AM3" s="172"/>
+      <c r="AN3" s="173"/>
+      <c r="AO3" s="190" t="s">
         <v>251</v>
       </c>
-      <c r="AP3" s="186"/>
-      <c r="AQ3" s="186"/>
-      <c r="AR3" s="186"/>
-      <c r="AS3" s="186"/>
-      <c r="AT3" s="186"/>
-      <c r="AU3" s="186"/>
-      <c r="AV3" s="178" t="s">
+      <c r="AP3" s="172"/>
+      <c r="AQ3" s="172"/>
+      <c r="AR3" s="172"/>
+      <c r="AS3" s="172"/>
+      <c r="AT3" s="172"/>
+      <c r="AU3" s="172"/>
+      <c r="AV3" s="190" t="s">
         <v>252</v>
       </c>
-      <c r="AW3" s="186"/>
-      <c r="AX3" s="186"/>
-      <c r="AY3" s="186"/>
-      <c r="AZ3" s="186"/>
-      <c r="BA3" s="180" t="s">
+      <c r="AW3" s="172"/>
+      <c r="AX3" s="172"/>
+      <c r="AY3" s="172"/>
+      <c r="AZ3" s="172"/>
+      <c r="BA3" s="192" t="s">
         <v>253</v>
       </c>
-      <c r="BB3" s="186"/>
-      <c r="BC3" s="187"/>
+      <c r="BB3" s="172"/>
+      <c r="BC3" s="173"/>
     </row>
     <row r="4" spans="1:55" ht="111" customHeight="1">
       <c r="A4" s="42" t="s">
@@ -36727,9 +38104,9 @@
       <c r="A5" s="40" t="s">
         <v>309</v>
       </c>
-      <c r="B5" s="40" t="str">
+      <c r="B5" s="40" t="e">
         <f>PlatformName &amp; " Robot layout"</f>
-        <v/>
+        <v>#REF!</v>
       </c>
       <c r="C5" s="139"/>
       <c r="D5" s="37"/>
@@ -36889,9 +38266,9 @@
       <c r="A6" s="40" t="s">
         <v>310</v>
       </c>
-      <c r="B6" s="40" t="str">
+      <c r="B6" s="40" t="e">
         <f>PlatformName &amp; " Robot layout plan"</f>
-        <v/>
+        <v>#REF!</v>
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="37"/>
@@ -37051,9 +38428,9 @@
       <c r="A7" s="40" t="s">
         <v>311</v>
       </c>
-      <c r="B7" s="40" t="str">
+      <c r="B7" s="40" t="e">
         <f>PlatformName &amp; " Robot layout plan cladding"</f>
-        <v/>
+        <v>#REF!</v>
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="37"/>
@@ -37213,9 +38590,9 @@
       <c r="A8" s="40" t="s">
         <v>312</v>
       </c>
-      <c r="B8" s="40" t="str">
+      <c r="B8" s="40" t="e">
         <f>PlatformName &amp; " Robot boundary conditions and connections"</f>
-        <v/>
+        <v>#REF!</v>
       </c>
       <c r="C8" s="37"/>
       <c r="D8" s="37"/>
@@ -37375,9 +38752,9 @@
       <c r="A9" s="40" t="s">
         <v>313</v>
       </c>
-      <c r="B9" s="40" t="str">
+      <c r="B9" s="40" t="e">
         <f>PlatformName &amp; " Utilised members"</f>
-        <v/>
+        <v>#REF!</v>
       </c>
       <c r="C9" s="37"/>
       <c r="D9" s="37"/>
@@ -37406,9 +38783,9 @@
       <c r="M9" s="39">
         <v>0</v>
       </c>
-      <c r="N9" s="39" t="str">
+      <c r="N9" s="39">
         <f>IF(AND(ISNUMBER(A9),NOT(ISBLANK(E9))),1,0)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="O9" s="38">
         <v>0</v>
@@ -40828,8 +42205,8 @@
     <col min="12" max="18" width="8.7109375" style="19" customWidth="1"/>
     <col min="19" max="19" width="18.42578125" style="19" customWidth="1"/>
     <col min="20" max="20" width="15.28515625" style="19" customWidth="1"/>
-    <col min="21" max="25" width="8.7109375" style="19" customWidth="1"/>
-    <col min="26" max="16384" width="8.7109375" style="19"/>
+    <col min="21" max="26" width="8.7109375" style="19" customWidth="1"/>
+    <col min="27" max="16384" width="8.7109375" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
@@ -40915,17 +42292,17 @@
       <c r="E3" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="F3" s="27" t="str">
+      <c r="F3" s="27" t="e">
         <f>PlatformName &amp;" member utilisations $&gt;" &amp;F1&amp;"$"</f>
-        <v/>
-      </c>
-      <c r="G3" s="27" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="G3" s="27" t="e">
         <f>PlatformName &amp;" member deflection ratios $&gt;" &amp;G1&amp;"$"</f>
-        <v/>
-      </c>
-      <c r="H3" s="27" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="H3" s="27" t="e">
         <f>"\section{"&amp;PlatformName&amp;" load combinations} \label{app:" &amp;IF(PlatformName="BTP","A",IF(PlatformName="SWGP","B",IF(PlatformName="ATP","C","Check the name of the platform"))) &amp;"}"</f>
-        <v/>
+        <v>#REF!</v>
       </c>
       <c r="J3" s="28" t="s">
         <v>338</v>
@@ -41032,29 +42409,29 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B6" s="19" t="str">
+      <c r="B6" s="19" t="e">
         <f>"    \caption{" &amp;PlatformName&amp; " " &amp; B3 &amp;".}"</f>
-        <v/>
-      </c>
-      <c r="C6" s="19" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="C6" s="19" t="e">
         <f>"    \caption{" &amp;PlatformName&amp; " " &amp; C3 &amp;".}"</f>
-        <v/>
-      </c>
-      <c r="D6" s="19" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="D6" s="19" t="e">
         <f>"    \caption{" &amp;PlatformName&amp; " " &amp; D3 &amp;".}"</f>
-        <v/>
-      </c>
-      <c r="E6" s="19" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E6" s="19" t="e">
         <f>"    \caption{" &amp;PlatformName&amp; " " &amp; E3 &amp;".}"</f>
-        <v/>
-      </c>
-      <c r="F6" s="19" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="F6" s="19" t="e">
         <f>"    \caption{" &amp; F3 &amp;".}"</f>
-        <v/>
-      </c>
-      <c r="G6" s="19" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="G6" s="19" t="e">
         <f>"    \caption{" &amp; G3 &amp;".}"</f>
-        <v/>
+        <v>#REF!</v>
       </c>
       <c r="H6" s="27" t="s">
         <v>352</v>
@@ -41071,42 +42448,42 @@
       <c r="P6" s="19" t="s">
         <v>354</v>
       </c>
-      <c r="S6" s="19" t="str">
+      <c r="S6" s="19" t="e">
         <f>"\includegraphics[width=\textwidth]{\"&amp;LaTeXFiguresFolder &amp;"\"&amp;PlatformName&amp; " "&amp;S3&amp;".png} "</f>
-        <v/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B7" s="19" t="str">
+      <c r="B7" s="19" t="e">
         <f>"    \label{tabl:" &amp; PlatformName &amp;" "&amp;B3 &amp;"}"</f>
-        <v/>
-      </c>
-      <c r="C7" s="19" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="C7" s="19" t="e">
         <f>"    \label{tabl:" &amp; PlatformName &amp;" "&amp;C3 &amp;"}"</f>
-        <v/>
-      </c>
-      <c r="D7" s="19" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="D7" s="19" t="e">
         <f>"    \label{tabl:" &amp; PlatformName &amp;" "&amp;D3 &amp;"}"</f>
-        <v/>
-      </c>
-      <c r="E7" s="19" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E7" s="19" t="e">
         <f>"    \label{tabl:" &amp; PlatformName &amp;" "&amp;E3 &amp;"}"</f>
-        <v/>
-      </c>
-      <c r="F7" s="19" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="F7" s="19" t="e">
         <f>"    \label{tabl:" &amp;F3 &amp;"}"</f>
-        <v/>
-      </c>
-      <c r="G7" s="19" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="G7" s="19" t="e">
         <f>"    \label{tabl:" &amp;G3 &amp;"}"</f>
-        <v/>
+        <v>#REF!</v>
       </c>
       <c r="H7" s="27" t="s">
         <v>355</v>
       </c>
-      <c r="J7" s="19" t="str">
+      <c r="J7" s="19">
         <f>COLUMN(J1)</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="M7" s="19" t="s">
         <v>356</v>
@@ -41158,9 +42535,9 @@
       <c r="P8" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="S8" s="19" t="str">
+      <c r="S8" s="19" t="e">
         <f>"    \caption{" &amp;PlatformName&amp; " " &amp; S3 &amp;".}"</f>
-        <v/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1">
@@ -41197,9 +42574,9 @@
       <c r="P9" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="S9" s="19" t="str">
+      <c r="S9" s="19" t="e">
         <f>"    \label{tabl:" &amp; PlatformName &amp;" "&amp;S3 &amp;"}"</f>
-        <v/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="16.5" customHeight="1">
@@ -41309,9 +42686,9 @@
     </row>
     <row r="14" spans="1:20" ht="16.5" customHeight="1">
       <c r="C14" s="85"/>
-      <c r="H14" s="27" t="str">
+      <c r="H14" s="27" t="e">
         <f>"\caption{Summary of " &amp;PlatformName &amp;" load combinations and coefficients.}"</f>
-        <v/>
+        <v>#REF!</v>
       </c>
       <c r="M14" s="19" t="s">
         <v>387</v>
@@ -41329,9 +42706,9 @@
     </row>
     <row r="15" spans="1:20" ht="16.5" customHeight="1">
       <c r="C15" s="85"/>
-      <c r="H15" s="27" t="str">
+      <c r="H15" s="27" t="e">
         <f>"\label{tabl:"&amp;PlatformName&amp;" Load combinations}"</f>
-        <v/>
+        <v>#REF!</v>
       </c>
       <c r="M15" s="19" t="s">
         <v>388</v>
@@ -41434,8 +42811,8 @@
     <col min="3" max="3" width="22.7109375" style="27" customWidth="1"/>
     <col min="4" max="24" width="11.5703125" style="27" customWidth="1"/>
     <col min="25" max="25" width="204.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="26" max="30" width="11.5703125" style="27" customWidth="1"/>
-    <col min="31" max="16384" width="11.5703125" style="27"/>
+    <col min="26" max="31" width="11.5703125" style="27" customWidth="1"/>
+    <col min="32" max="16384" width="11.5703125" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -41446,7 +42823,7 @@
         <v>393</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>187</v>
+        <v>239</v>
       </c>
       <c r="D1" s="32" t="s">
         <v>394</v>
@@ -41523,7 +42900,7 @@
         <v>398</v>
       </c>
       <c r="C2" s="127" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="D2" s="125">
         <v>1</v>
@@ -41554,8 +42931,8 @@
       <c r="V2" s="128"/>
       <c r="W2" s="128"/>
       <c r="Y2" s="129" t="str">
-        <f>CONCATENATE($X$1,A2,"} &amp; ",$X$1,B2,"} &amp; ",$D$1," &amp; ",D2," &amp; ",F2," &amp; ",H2," &amp; ",J2," &amp; ",L2," &amp; ",N2," &amp; ",P2," &amp; ",R2," &amp; ", T2," &amp; ", V2, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E2," &amp; ",G2," &amp; ",I2," &amp; ",K2," &amp; ",M2," &amp; ",O2," &amp; ",Q2," &amp; ",S2," &amp; ",U2," &amp; ",W2," \\ \hline")</f>
-        <v/>
+        <f t="shared" ref="Y2:Y33" si="0">CONCATENATE($X$1,A2,"} &amp; ",$X$1,B2,"} &amp; ",$D$1," &amp; ",D2," &amp; ",F2," &amp; ",H2," &amp; ",J2," &amp; ",L2," &amp; ",N2," &amp; ",P2," &amp; ",R2," &amp; ", T2," &amp; ", V2, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E2," &amp; ",G2," &amp; ",I2," &amp; ",K2," &amp; ",M2," &amp; ",O2," &amp; ",Q2," &amp; ",S2," &amp; ",U2," &amp; ",W2," \\ \hline")</f>
+        <v>\multirow{2}{*}{1000} &amp; \multirow{2}{*}{DL} &amp; Case &amp; 1 &amp; 3 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp; 1 &amp; 1 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -41566,7 +42943,7 @@
         <v>399</v>
       </c>
       <c r="C3" s="127" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="D3" s="127">
         <v>2</v>
@@ -41597,8 +42974,8 @@
       <c r="V3" s="128"/>
       <c r="W3" s="128"/>
       <c r="Y3" s="129" t="str">
-        <f>CONCATENATE($X$1,A3,"} &amp; ",$X$1,B3,"} &amp; ",$D$1," &amp; ",D3," &amp; ",F3," &amp; ",H3," &amp; ",J3," &amp; ",L3," &amp; ",N3," &amp; ",P3," &amp; ",R3," &amp; ", T3," &amp; ", V3, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E3," &amp; ",G3," &amp; ",I3," &amp; ",K3," &amp; ",M3," &amp; ",O3," &amp; ",Q3," &amp; ",S3," &amp; ",U3," &amp; ",W3," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>\multirow{2}{*}{1001} &amp; \multirow{2}{*}{DL+} &amp; Case &amp; 2 &amp; 3 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp; 1 &amp; 1 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -41609,7 +42986,7 @@
         <v>400</v>
       </c>
       <c r="C4" s="127" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="D4" s="127">
         <v>2</v>
@@ -41648,8 +43025,8 @@
       <c r="V4" s="128"/>
       <c r="W4" s="128"/>
       <c r="Y4" s="129" t="str">
-        <f>CONCATENATE($X$1,A4,"} &amp; ",$X$1,B4,"} &amp; ",$D$1," &amp; ",D4," &amp; ",F4," &amp; ",H4," &amp; ",J4," &amp; ",L4," &amp; ",N4," &amp; ",P4," &amp; ",R4," &amp; ", T4," &amp; ", V4, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E4," &amp; ",G4," &amp; ",I4," &amp; ",K4," &amp; ",M4," &amp; ",O4," &amp; ",Q4," &amp; ",S4," &amp; ",U4," &amp; ",W4," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>\multirow{2}{*}{2000} &amp; \multirow{2}{*}{ULS_A_LL_ALL_1} &amp; Case &amp; 2 &amp; 3 &amp; 4 &amp; 5 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp; 1.3 &amp; 1.3 &amp; 1.3 &amp; 1.3 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -41660,7 +43037,7 @@
         <v>401</v>
       </c>
       <c r="C5" s="127" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="D5" s="127">
         <v>2</v>
@@ -41699,8 +43076,8 @@
       <c r="V5" s="128"/>
       <c r="W5" s="128"/>
       <c r="Y5" s="129" t="str">
-        <f>CONCATENATE($X$1,A5,"} &amp; ",$X$1,B5,"} &amp; ",$D$1," &amp; ",D5," &amp; ",F5," &amp; ",H5," &amp; ",J5," &amp; ",L5," &amp; ",N5," &amp; ",P5," &amp; ",R5," &amp; ", T5," &amp; ", V5, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E5," &amp; ",G5," &amp; ",I5," &amp; ",K5," &amp; ",M5," &amp; ",O5," &amp; ",Q5," &amp; ",S5," &amp; ",U5," &amp; ",W5," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>\multirow{2}{*}{2001} &amp; \multirow{2}{*}{ULS_A_LL_ALL_2} &amp; Case &amp; 2 &amp; 3 &amp; 4 &amp; 6 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp; 1.3 &amp; 1.3 &amp; 1.3 &amp; 1.3 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -41711,7 +43088,7 @@
         <v>402</v>
       </c>
       <c r="C6" s="127" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="D6" s="127">
         <v>2</v>
@@ -41750,8 +43127,8 @@
       <c r="V6" s="128"/>
       <c r="W6" s="128"/>
       <c r="Y6" s="129" t="str">
-        <f>CONCATENATE($X$1,A6,"} &amp; ",$X$1,B6,"} &amp; ",$D$1," &amp; ",D6," &amp; ",F6," &amp; ",H6," &amp; ",J6," &amp; ",L6," &amp; ",N6," &amp; ",P6," &amp; ",R6," &amp; ", T6," &amp; ", V6, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E6," &amp; ",G6," &amp; ",I6," &amp; ",K6," &amp; ",M6," &amp; ",O6," &amp; ",Q6," &amp; ",S6," &amp; ",U6," &amp; ",W6," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>\multirow{2}{*}{2002} &amp; \multirow{2}{*}{ULS_A_LL_ALL_3} &amp; Case &amp; 2 &amp; 3 &amp; 4 &amp; 7 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp; 1.3 &amp; 1.3 &amp; 1.3 &amp; 1.3 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -41762,7 +43139,7 @@
         <v>403</v>
       </c>
       <c r="C7" s="127" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="D7" s="127">
         <v>1</v>
@@ -41801,8 +43178,8 @@
       <c r="V7" s="128"/>
       <c r="W7" s="128"/>
       <c r="Y7" s="129" t="str">
-        <f>CONCATENATE($X$1,A7,"} &amp; ",$X$1,B7,"} &amp; ",$D$1," &amp; ",D7," &amp; ",F7," &amp; ",H7," &amp; ",J7," &amp; ",L7," &amp; ",N7," &amp; ",P7," &amp; ",R7," &amp; ", T7," &amp; ", V7, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E7," &amp; ",G7," &amp; ",I7," &amp; ",K7," &amp; ",M7," &amp; ",O7," &amp; ",Q7," &amp; ",S7," &amp; ",U7," &amp; ",W7," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>\multirow{2}{*}{2100} &amp; \multirow{2}{*}{ULS_B_WRUG_210N} &amp; Case &amp; 1 &amp; 3 &amp; 4 &amp; 8 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp; 1 &amp; 1 &amp; 1 &amp; 1.3 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -41813,7 +43190,7 @@
         <v>404</v>
       </c>
       <c r="C8" s="127" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="D8" s="127">
         <v>1</v>
@@ -41852,8 +43229,8 @@
       <c r="V8" s="128"/>
       <c r="W8" s="128"/>
       <c r="Y8" s="129" t="str">
-        <f>CONCATENATE($X$1,A8,"} &amp; ",$X$1,B8,"} &amp; ",$D$1," &amp; ",D8," &amp; ",F8," &amp; ",H8," &amp; ",J8," &amp; ",L8," &amp; ",N8," &amp; ",P8," &amp; ",R8," &amp; ", T8," &amp; ", V8, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E8," &amp; ",G8," &amp; ",I8," &amp; ",K8," &amp; ",M8," &amp; ",O8," &amp; ",Q8," &amp; ",S8," &amp; ",U8," &amp; ",W8," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>\multirow{2}{*}{2101} &amp; \multirow{2}{*}{ULS_B_WRUG_240N} &amp; Case &amp; 1 &amp; 3 &amp; 4 &amp; 9 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp; 1 &amp; 1 &amp; 1 &amp; 1.3 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -41864,7 +43241,7 @@
         <v>405</v>
       </c>
       <c r="C9" s="127" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="D9" s="127">
         <v>1</v>
@@ -41903,8 +43280,8 @@
       <c r="V9" s="128"/>
       <c r="W9" s="128"/>
       <c r="Y9" s="129" t="str">
-        <f>CONCATENATE($X$1,A9,"} &amp; ",$X$1,B9,"} &amp; ",$D$1," &amp; ",D9," &amp; ",F9," &amp; ",H9," &amp; ",J9," &amp; ",L9," &amp; ",N9," &amp; ",P9," &amp; ",R9," &amp; ", T9," &amp; ", V9, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E9," &amp; ",G9," &amp; ",I9," &amp; ",K9," &amp; ",M9," &amp; ",O9," &amp; ",Q9," &amp; ",S9," &amp; ",U9," &amp; ",W9," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>\multirow{2}{*}{2102} &amp; \multirow{2}{*}{ULS_B_WRUG_270N} &amp; Case &amp; 1 &amp; 3 &amp; 4 &amp; 10 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp; 1 &amp; 1 &amp; 1 &amp; 1.3 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -41915,7 +43292,7 @@
         <v>406</v>
       </c>
       <c r="C10" s="127" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="D10" s="127">
         <v>1</v>
@@ -41954,8 +43331,8 @@
       <c r="V10" s="128"/>
       <c r="W10" s="128"/>
       <c r="Y10" s="129" t="str">
-        <f>CONCATENATE($X$1,A10,"} &amp; ",$X$1,B10,"} &amp; ",$D$1," &amp; ",D10," &amp; ",F10," &amp; ",H10," &amp; ",J10," &amp; ",L10," &amp; ",N10," &amp; ",P10," &amp; ",R10," &amp; ", T10," &amp; ", V10, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E10," &amp; ",G10," &amp; ",I10," &amp; ",K10," &amp; ",M10," &amp; ",O10," &amp; ",Q10," &amp; ",S10," &amp; ",U10," &amp; ",W10," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>\multirow{2}{*}{2103} &amp; \multirow{2}{*}{ULS_B_WRUG_300N} &amp; Case &amp; 1 &amp; 3 &amp; 4 &amp; 11 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp; 1 &amp; 1 &amp; 1 &amp; 1.3 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -41966,7 +43343,7 @@
         <v>407</v>
       </c>
       <c r="C11" s="127" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="D11" s="127">
         <v>1</v>
@@ -42005,8 +43382,8 @@
       <c r="V11" s="128"/>
       <c r="W11" s="128"/>
       <c r="Y11" s="129" t="str">
-        <f>CONCATENATE($X$1,A11,"} &amp; ",$X$1,B11,"} &amp; ",$D$1," &amp; ",D11," &amp; ",F11," &amp; ",H11," &amp; ",J11," &amp; ",L11," &amp; ",N11," &amp; ",P11," &amp; ",R11," &amp; ", T11," &amp; ", V11, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E11," &amp; ",G11," &amp; ",I11," &amp; ",K11," &amp; ",M11," &amp; ",O11," &amp; ",Q11," &amp; ",S11," &amp; ",U11," &amp; ",W11," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>\multirow{2}{*}{2104} &amp; \multirow{2}{*}{ULS_B_WRUG_330N} &amp; Case &amp; 1 &amp; 3 &amp; 4 &amp; 12 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp; 1 &amp; 1 &amp; 1 &amp; 1.3 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -42017,7 +43394,7 @@
         <v>408</v>
       </c>
       <c r="C12" s="127" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="D12" s="127">
         <v>1</v>
@@ -42056,8 +43433,8 @@
       <c r="V12" s="128"/>
       <c r="W12" s="128"/>
       <c r="Y12" s="129" t="str">
-        <f>CONCATENATE($X$1,A12,"} &amp; ",$X$1,B12,"} &amp; ",$D$1," &amp; ",D12," &amp; ",F12," &amp; ",H12," &amp; ",J12," &amp; ",L12," &amp; ",N12," &amp; ",P12," &amp; ",R12," &amp; ", T12," &amp; ", V12, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E12," &amp; ",G12," &amp; ",I12," &amp; ",K12," &amp; ",M12," &amp; ",O12," &amp; ",Q12," &amp; ",S12," &amp; ",U12," &amp; ",W12," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>\multirow{2}{*}{2105} &amp; \multirow{2}{*}{ALS_B_WRL_210N} &amp; Case &amp; 1 &amp; 3 &amp; 4 &amp; 13 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp; 1 &amp; 1 &amp; 1 &amp; 1 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -42068,7 +43445,7 @@
         <v>409</v>
       </c>
       <c r="C13" s="127" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="D13" s="127">
         <v>1</v>
@@ -42107,8 +43484,8 @@
       <c r="V13" s="128"/>
       <c r="W13" s="128"/>
       <c r="Y13" s="129" t="str">
-        <f>CONCATENATE($X$1,A13,"} &amp; ",$X$1,B13,"} &amp; ",$D$1," &amp; ",D13," &amp; ",F13," &amp; ",H13," &amp; ",J13," &amp; ",L13," &amp; ",N13," &amp; ",P13," &amp; ",R13," &amp; ", T13," &amp; ", V13, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E13," &amp; ",G13," &amp; ",I13," &amp; ",K13," &amp; ",M13," &amp; ",O13," &amp; ",Q13," &amp; ",S13," &amp; ",U13," &amp; ",W13," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>\multirow{2}{*}{2106} &amp; \multirow{2}{*}{ALS_B_WRL_240N} &amp; Case &amp; 1 &amp; 3 &amp; 4 &amp; 14 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp; 1 &amp; 1 &amp; 1 &amp; 1 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -42119,7 +43496,7 @@
         <v>410</v>
       </c>
       <c r="C14" s="127" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="D14" s="127">
         <v>1</v>
@@ -42158,8 +43535,8 @@
       <c r="V14" s="128"/>
       <c r="W14" s="128"/>
       <c r="Y14" s="129" t="str">
-        <f>CONCATENATE($X$1,A14,"} &amp; ",$X$1,B14,"} &amp; ",$D$1," &amp; ",D14," &amp; ",F14," &amp; ",H14," &amp; ",J14," &amp; ",L14," &amp; ",N14," &amp; ",P14," &amp; ",R14," &amp; ", T14," &amp; ", V14, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E14," &amp; ",G14," &amp; ",I14," &amp; ",K14," &amp; ",M14," &amp; ",O14," &amp; ",Q14," &amp; ",S14," &amp; ",U14," &amp; ",W14," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>\multirow{2}{*}{2107} &amp; \multirow{2}{*}{ALS_B_WRL_270N} &amp; Case &amp; 1 &amp; 3 &amp; 4 &amp; 15 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp; 1 &amp; 1 &amp; 1 &amp; 1 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -42170,7 +43547,7 @@
         <v>411</v>
       </c>
       <c r="C15" s="127" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="D15" s="127">
         <v>1</v>
@@ -42209,8 +43586,8 @@
       <c r="V15" s="128"/>
       <c r="W15" s="128"/>
       <c r="Y15" s="129" t="str">
-        <f>CONCATENATE($X$1,A15,"} &amp; ",$X$1,B15,"} &amp; ",$D$1," &amp; ",D15," &amp; ",F15," &amp; ",H15," &amp; ",J15," &amp; ",L15," &amp; ",N15," &amp; ",P15," &amp; ",R15," &amp; ", T15," &amp; ", V15, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E15," &amp; ",G15," &amp; ",I15," &amp; ",K15," &amp; ",M15," &amp; ",O15," &amp; ",Q15," &amp; ",S15," &amp; ",U15," &amp; ",W15," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>\multirow{2}{*}{2108} &amp; \multirow{2}{*}{ALS_B_WRL_300N} &amp; Case &amp; 1 &amp; 3 &amp; 4 &amp; 16 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp; 1 &amp; 1 &amp; 1 &amp; 1 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -42221,7 +43598,7 @@
         <v>412</v>
       </c>
       <c r="C16" s="127" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="D16" s="127">
         <v>1</v>
@@ -42260,8 +43637,8 @@
       <c r="V16" s="128"/>
       <c r="W16" s="128"/>
       <c r="Y16" s="129" t="str">
-        <f>CONCATENATE($X$1,A16,"} &amp; ",$X$1,B16,"} &amp; ",$D$1," &amp; ",D16," &amp; ",F16," &amp; ",H16," &amp; ",J16," &amp; ",L16," &amp; ",N16," &amp; ",P16," &amp; ",R16," &amp; ", T16," &amp; ", V16, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E16," &amp; ",G16," &amp; ",I16," &amp; ",K16," &amp; ",M16," &amp; ",O16," &amp; ",Q16," &amp; ",S16," &amp; ",U16," &amp; ",W16," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>\multirow{2}{*}{2109} &amp; \multirow{2}{*}{ALS_B_WRL_330N} &amp; Case &amp; 1 &amp; 3 &amp; 4 &amp; 17 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp; 1 &amp; 1 &amp; 1 &amp; 1 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -42272,7 +43649,7 @@
         <v>413</v>
       </c>
       <c r="C17" s="127" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="D17" s="127">
         <v>1</v>
@@ -42307,8 +43684,8 @@
       <c r="V17" s="128"/>
       <c r="W17" s="128"/>
       <c r="Y17" s="129" t="str">
-        <f>CONCATENATE($X$1,A17,"} &amp; ",$X$1,B17,"} &amp; ",$D$1," &amp; ",D17," &amp; ",F17," &amp; ",H17," &amp; ",J17," &amp; ",L17," &amp; ",N17," &amp; ",P17," &amp; ",R17," &amp; ", T17," &amp; ", V17, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E17," &amp; ",G17," &amp; ",I17," &amp; ",K17," &amp; ",M17," &amp; ",O17," &amp; ",Q17," &amp; ",S17," &amp; ",U17," &amp; ",W17," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>\multirow{2}{*}{3001} &amp; \multirow{2}{*}{SLS_A_SW} &amp; Case &amp; 1 &amp; 3 &amp; 4 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp; 1 &amp; 1 &amp; 1 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -42319,7 +43696,7 @@
         <v>414</v>
       </c>
       <c r="C18" s="127" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="D18" s="127">
         <v>2</v>
@@ -42354,8 +43731,8 @@
       <c r="V18" s="128"/>
       <c r="W18" s="128"/>
       <c r="Y18" s="129" t="str">
-        <f>CONCATENATE($X$1,A18,"} &amp; ",$X$1,B18,"} &amp; ",$D$1," &amp; ",D18," &amp; ",F18," &amp; ",H18," &amp; ",J18," &amp; ",L18," &amp; ",N18," &amp; ",P18," &amp; ",R18," &amp; ", T18," &amp; ", V18, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E18," &amp; ",G18," &amp; ",I18," &amp; ",K18," &amp; ",M18," &amp; ",O18," &amp; ",Q18," &amp; ",S18," &amp; ",U18," &amp; ",W18," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>\multirow{2}{*}{3002} &amp; \multirow{2}{*}{SLS_A_SW+} &amp; Case &amp; 2 &amp; 3 &amp; 4 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp; 1 &amp; 1 &amp; 1 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -42366,7 +43743,7 @@
         <v>415</v>
       </c>
       <c r="C19" s="127" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="D19" s="127">
         <v>2</v>
@@ -42405,8 +43782,8 @@
       <c r="V19" s="128"/>
       <c r="W19" s="128"/>
       <c r="Y19" s="129" t="str">
-        <f>CONCATENATE($X$1,A19,"} &amp; ",$X$1,B19,"} &amp; ",$D$1," &amp; ",D19," &amp; ",F19," &amp; ",H19," &amp; ",J19," &amp; ",L19," &amp; ",N19," &amp; ",P19," &amp; ",R19," &amp; ", T19," &amp; ", V19, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E19," &amp; ",G19," &amp; ",I19," &amp; ",K19," &amp; ",M19," &amp; ",O19," &amp; ",Q19," &amp; ",S19," &amp; ",U19," &amp; ",W19," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>\multirow{2}{*}{3004} &amp; \multirow{2}{*}{SLS_A_QPR_DL_LL_1} &amp; Case &amp; 2 &amp; 3 &amp; 4 &amp; 5 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp; 1 &amp; 1 &amp; 1 &amp; 0.8 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -42417,7 +43794,7 @@
         <v>416</v>
       </c>
       <c r="C20" s="127" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="D20" s="127">
         <v>2</v>
@@ -42456,8 +43833,8 @@
       <c r="V20" s="128"/>
       <c r="W20" s="128"/>
       <c r="Y20" s="129" t="str">
-        <f>CONCATENATE($X$1,A20,"} &amp; ",$X$1,B20,"} &amp; ",$D$1," &amp; ",D20," &amp; ",F20," &amp; ",H20," &amp; ",J20," &amp; ",L20," &amp; ",N20," &amp; ",P20," &amp; ",R20," &amp; ", T20," &amp; ", V20, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E20," &amp; ",G20," &amp; ",I20," &amp; ",K20," &amp; ",M20," &amp; ",O20," &amp; ",Q20," &amp; ",S20," &amp; ",U20," &amp; ",W20," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>\multirow{2}{*}{3005} &amp; \multirow{2}{*}{SLS_A_QPR_DL_LL_2} &amp; Case &amp; 2 &amp; 3 &amp; 4 &amp; 6 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp; 1 &amp; 1 &amp; 1 &amp; 0.8 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -42468,7 +43845,7 @@
         <v>417</v>
       </c>
       <c r="C21" s="127" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="D21" s="127">
         <v>2</v>
@@ -42507,8 +43884,8 @@
       <c r="V21" s="128"/>
       <c r="W21" s="128"/>
       <c r="Y21" s="129" t="str">
-        <f>CONCATENATE($X$1,A21,"} &amp; ",$X$1,B21,"} &amp; ",$D$1," &amp; ",D21," &amp; ",F21," &amp; ",H21," &amp; ",J21," &amp; ",L21," &amp; ",N21," &amp; ",P21," &amp; ",R21," &amp; ", T21," &amp; ", V21, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E21," &amp; ",G21," &amp; ",I21," &amp; ",K21," &amp; ",M21," &amp; ",O21," &amp; ",Q21," &amp; ",S21," &amp; ",U21," &amp; ",W21," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>\multirow{2}{*}{3006} &amp; \multirow{2}{*}{SLS_QPR_DL_LL_3} &amp; Case &amp; 2 &amp; 3 &amp; 4 &amp; 7 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp; 1 &amp; 1 &amp; 1 &amp; 0.8 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -42536,8 +43913,8 @@
       <c r="V22" s="128"/>
       <c r="W22" s="128"/>
       <c r="Y22" s="129" t="str">
-        <f>CONCATENATE($X$1,A22,"} &amp; ",$X$1,B22,"} &amp; ",$D$1," &amp; ",D22," &amp; ",F22," &amp; ",H22," &amp; ",J22," &amp; ",L22," &amp; ",N22," &amp; ",P22," &amp; ",R22," &amp; ", T22," &amp; ", V22, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E22," &amp; ",G22," &amp; ",I22," &amp; ",K22," &amp; ",M22," &amp; ",O22," &amp; ",Q22," &amp; ",S22," &amp; ",U22," &amp; ",W22," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -42565,8 +43942,8 @@
       <c r="V23" s="128"/>
       <c r="W23" s="128"/>
       <c r="Y23" s="129" t="str">
-        <f>CONCATENATE($X$1,A23,"} &amp; ",$X$1,B23,"} &amp; ",$D$1," &amp; ",D23," &amp; ",F23," &amp; ",H23," &amp; ",J23," &amp; ",L23," &amp; ",N23," &amp; ",P23," &amp; ",R23," &amp; ", T23," &amp; ", V23, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E23," &amp; ",G23," &amp; ",I23," &amp; ",K23," &amp; ",M23," &amp; ",O23," &amp; ",Q23," &amp; ",S23," &amp; ",U23," &amp; ",W23," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -42594,8 +43971,8 @@
       <c r="V24" s="128"/>
       <c r="W24" s="128"/>
       <c r="Y24" s="129" t="str">
-        <f>CONCATENATE($X$1,A24,"} &amp; ",$X$1,B24,"} &amp; ",$D$1," &amp; ",D24," &amp; ",F24," &amp; ",H24," &amp; ",J24," &amp; ",L24," &amp; ",N24," &amp; ",P24," &amp; ",R24," &amp; ", T24," &amp; ", V24, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E24," &amp; ",G24," &amp; ",I24," &amp; ",K24," &amp; ",M24," &amp; ",O24," &amp; ",Q24," &amp; ",S24," &amp; ",U24," &amp; ",W24," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -42623,8 +44000,8 @@
       <c r="V25" s="128"/>
       <c r="W25" s="128"/>
       <c r="Y25" s="129" t="str">
-        <f>CONCATENATE($X$1,A25,"} &amp; ",$X$1,B25,"} &amp; ",$D$1," &amp; ",D25," &amp; ",F25," &amp; ",H25," &amp; ",J25," &amp; ",L25," &amp; ",N25," &amp; ",P25," &amp; ",R25," &amp; ", T25," &amp; ", V25, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E25," &amp; ",G25," &amp; ",I25," &amp; ",K25," &amp; ",M25," &amp; ",O25," &amp; ",Q25," &amp; ",S25," &amp; ",U25," &amp; ",W25," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -42652,8 +44029,8 @@
       <c r="V26" s="128"/>
       <c r="W26" s="128"/>
       <c r="Y26" s="129" t="str">
-        <f>CONCATENATE($X$1,A26,"} &amp; ",$X$1,B26,"} &amp; ",$D$1," &amp; ",D26," &amp; ",F26," &amp; ",H26," &amp; ",J26," &amp; ",L26," &amp; ",N26," &amp; ",P26," &amp; ",R26," &amp; ", T26," &amp; ", V26, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E26," &amp; ",G26," &amp; ",I26," &amp; ",K26," &amp; ",M26," &amp; ",O26," &amp; ",Q26," &amp; ",S26," &amp; ",U26," &amp; ",W26," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -42681,8 +44058,8 @@
       <c r="V27" s="128"/>
       <c r="W27" s="128"/>
       <c r="Y27" s="129" t="str">
-        <f>CONCATENATE($X$1,A27,"} &amp; ",$X$1,B27,"} &amp; ",$D$1," &amp; ",D27," &amp; ",F27," &amp; ",H27," &amp; ",J27," &amp; ",L27," &amp; ",N27," &amp; ",P27," &amp; ",R27," &amp; ", T27," &amp; ", V27, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E27," &amp; ",G27," &amp; ",I27," &amp; ",K27," &amp; ",M27," &amp; ",O27," &amp; ",Q27," &amp; ",S27," &amp; ",U27," &amp; ",W27," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -42710,8 +44087,8 @@
       <c r="V28" s="128"/>
       <c r="W28" s="128"/>
       <c r="Y28" s="129" t="str">
-        <f>CONCATENATE($X$1,A28,"} &amp; ",$X$1,B28,"} &amp; ",$D$1," &amp; ",D28," &amp; ",F28," &amp; ",H28," &amp; ",J28," &amp; ",L28," &amp; ",N28," &amp; ",P28," &amp; ",R28," &amp; ", T28," &amp; ", V28, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E28," &amp; ",G28," &amp; ",I28," &amp; ",K28," &amp; ",M28," &amp; ",O28," &amp; ",Q28," &amp; ",S28," &amp; ",U28," &amp; ",W28," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -42739,8 +44116,8 @@
       <c r="V29" s="128"/>
       <c r="W29" s="128"/>
       <c r="Y29" s="129" t="str">
-        <f>CONCATENATE($X$1,A29,"} &amp; ",$X$1,B29,"} &amp; ",$D$1," &amp; ",D29," &amp; ",F29," &amp; ",H29," &amp; ",J29," &amp; ",L29," &amp; ",N29," &amp; ",P29," &amp; ",R29," &amp; ", T29," &amp; ", V29, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E29," &amp; ",G29," &amp; ",I29," &amp; ",K29," &amp; ",M29," &amp; ",O29," &amp; ",Q29," &amp; ",S29," &amp; ",U29," &amp; ",W29," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -42768,8 +44145,8 @@
       <c r="V30" s="128"/>
       <c r="W30" s="128"/>
       <c r="Y30" s="129" t="str">
-        <f>CONCATENATE($X$1,A30,"} &amp; ",$X$1,B30,"} &amp; ",$D$1," &amp; ",D30," &amp; ",F30," &amp; ",H30," &amp; ",J30," &amp; ",L30," &amp; ",N30," &amp; ",P30," &amp; ",R30," &amp; ", T30," &amp; ", V30, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E30," &amp; ",G30," &amp; ",I30," &amp; ",K30," &amp; ",M30," &amp; ",O30," &amp; ",Q30," &amp; ",S30," &amp; ",U30," &amp; ",W30," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="31" spans="1:25">
@@ -42797,8 +44174,8 @@
       <c r="V31" s="128"/>
       <c r="W31" s="128"/>
       <c r="Y31" s="129" t="str">
-        <f>CONCATENATE($X$1,A31,"} &amp; ",$X$1,B31,"} &amp; ",$D$1," &amp; ",D31," &amp; ",F31," &amp; ",H31," &amp; ",J31," &amp; ",L31," &amp; ",N31," &amp; ",P31," &amp; ",R31," &amp; ", T31," &amp; ", V31, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E31," &amp; ",G31," &amp; ",I31," &amp; ",K31," &amp; ",M31," &amp; ",O31," &amp; ",Q31," &amp; ",S31," &amp; ",U31," &amp; ",W31," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="32" spans="1:25">
@@ -42826,8 +44203,8 @@
       <c r="V32" s="128"/>
       <c r="W32" s="128"/>
       <c r="Y32" s="129" t="str">
-        <f>CONCATENATE($X$1,A32,"} &amp; ",$X$1,B32,"} &amp; ",$D$1," &amp; ",D32," &amp; ",F32," &amp; ",H32," &amp; ",J32," &amp; ",L32," &amp; ",N32," &amp; ",P32," &amp; ",R32," &amp; ", T32," &amp; ", V32, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E32," &amp; ",G32," &amp; ",I32," &amp; ",K32," &amp; ",M32," &amp; ",O32," &amp; ",Q32," &amp; ",S32," &amp; ",U32," &amp; ",W32," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="33" spans="1:25">
@@ -42855,8 +44232,8 @@
       <c r="V33" s="128"/>
       <c r="W33" s="128"/>
       <c r="Y33" s="129" t="str">
-        <f>CONCATENATE($X$1,A33,"} &amp; ",$X$1,B33,"} &amp; ",$D$1," &amp; ",D33," &amp; ",F33," &amp; ",H33," &amp; ",J33," &amp; ",L33," &amp; ",N33," &amp; ",P33," &amp; ",R33," &amp; ", T33," &amp; ", V33, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E33," &amp; ",G33," &amp; ",I33," &amp; ",K33," &amp; ",M33," &amp; ",O33," &amp; ",Q33," &amp; ",S33," &amp; ",U33," &amp; ",W33," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="34" spans="1:25">
@@ -42884,8 +44261,8 @@
       <c r="V34" s="128"/>
       <c r="W34" s="128"/>
       <c r="Y34" s="129" t="str">
-        <f>CONCATENATE($X$1,A34,"} &amp; ",$X$1,B34,"} &amp; ",$D$1," &amp; ",D34," &amp; ",F34," &amp; ",H34," &amp; ",J34," &amp; ",L34," &amp; ",N34," &amp; ",P34," &amp; ",R34," &amp; ", T34," &amp; ", V34, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E34," &amp; ",G34," &amp; ",I34," &amp; ",K34," &amp; ",M34," &amp; ",O34," &amp; ",Q34," &amp; ",S34," &amp; ",U34," &amp; ",W34," \\ \hline")</f>
-        <v/>
+        <f t="shared" ref="Y34:Y65" si="1">CONCATENATE($X$1,A34,"} &amp; ",$X$1,B34,"} &amp; ",$D$1," &amp; ",D34," &amp; ",F34," &amp; ",H34," &amp; ",J34," &amp; ",L34," &amp; ",N34," &amp; ",P34," &amp; ",R34," &amp; ", T34," &amp; ", V34, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E34," &amp; ",G34," &amp; ",I34," &amp; ",K34," &amp; ",M34," &amp; ",O34," &amp; ",Q34," &amp; ",S34," &amp; ",U34," &amp; ",W34," \\ \hline")</f>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="35" spans="1:25">
@@ -42913,8 +44290,8 @@
       <c r="V35" s="128"/>
       <c r="W35" s="128"/>
       <c r="Y35" s="129" t="str">
-        <f>CONCATENATE($X$1,A35,"} &amp; ",$X$1,B35,"} &amp; ",$D$1," &amp; ",D35," &amp; ",F35," &amp; ",H35," &amp; ",J35," &amp; ",L35," &amp; ",N35," &amp; ",P35," &amp; ",R35," &amp; ", T35," &amp; ", V35, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E35," &amp; ",G35," &amp; ",I35," &amp; ",K35," &amp; ",M35," &amp; ",O35," &amp; ",Q35," &amp; ",S35," &amp; ",U35," &amp; ",W35," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="36" spans="1:25">
@@ -42942,8 +44319,8 @@
       <c r="V36" s="128"/>
       <c r="W36" s="128"/>
       <c r="Y36" s="129" t="str">
-        <f>CONCATENATE($X$1,A36,"} &amp; ",$X$1,B36,"} &amp; ",$D$1," &amp; ",D36," &amp; ",F36," &amp; ",H36," &amp; ",J36," &amp; ",L36," &amp; ",N36," &amp; ",P36," &amp; ",R36," &amp; ", T36," &amp; ", V36, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E36," &amp; ",G36," &amp; ",I36," &amp; ",K36," &amp; ",M36," &amp; ",O36," &amp; ",Q36," &amp; ",S36," &amp; ",U36," &amp; ",W36," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="37" spans="1:25">
@@ -42971,8 +44348,8 @@
       <c r="V37" s="128"/>
       <c r="W37" s="128"/>
       <c r="Y37" s="129" t="str">
-        <f>CONCATENATE($X$1,A37,"} &amp; ",$X$1,B37,"} &amp; ",$D$1," &amp; ",D37," &amp; ",F37," &amp; ",H37," &amp; ",J37," &amp; ",L37," &amp; ",N37," &amp; ",P37," &amp; ",R37," &amp; ", T37," &amp; ", V37, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E37," &amp; ",G37," &amp; ",I37," &amp; ",K37," &amp; ",M37," &amp; ",O37," &amp; ",Q37," &amp; ",S37," &amp; ",U37," &amp; ",W37," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="38" spans="1:25">
@@ -43000,8 +44377,8 @@
       <c r="V38" s="128"/>
       <c r="W38" s="128"/>
       <c r="Y38" s="129" t="str">
-        <f>CONCATENATE($X$1,A38,"} &amp; ",$X$1,B38,"} &amp; ",$D$1," &amp; ",D38," &amp; ",F38," &amp; ",H38," &amp; ",J38," &amp; ",L38," &amp; ",N38," &amp; ",P38," &amp; ",R38," &amp; ", T38," &amp; ", V38, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E38," &amp; ",G38," &amp; ",I38," &amp; ",K38," &amp; ",M38," &amp; ",O38," &amp; ",Q38," &amp; ",S38," &amp; ",U38," &amp; ",W38," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="39" spans="1:25">
@@ -43029,8 +44406,8 @@
       <c r="V39" s="128"/>
       <c r="W39" s="128"/>
       <c r="Y39" s="129" t="str">
-        <f>CONCATENATE($X$1,A39,"} &amp; ",$X$1,B39,"} &amp; ",$D$1," &amp; ",D39," &amp; ",F39," &amp; ",H39," &amp; ",J39," &amp; ",L39," &amp; ",N39," &amp; ",P39," &amp; ",R39," &amp; ", T39," &amp; ", V39, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E39," &amp; ",G39," &amp; ",I39," &amp; ",K39," &amp; ",M39," &amp; ",O39," &amp; ",Q39," &amp; ",S39," &amp; ",U39," &amp; ",W39," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="40" spans="1:25">
@@ -43058,8 +44435,8 @@
       <c r="V40" s="128"/>
       <c r="W40" s="128"/>
       <c r="Y40" s="129" t="str">
-        <f>CONCATENATE($X$1,A40,"} &amp; ",$X$1,B40,"} &amp; ",$D$1," &amp; ",D40," &amp; ",F40," &amp; ",H40," &amp; ",J40," &amp; ",L40," &amp; ",N40," &amp; ",P40," &amp; ",R40," &amp; ", T40," &amp; ", V40, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E40," &amp; ",G40," &amp; ",I40," &amp; ",K40," &amp; ",M40," &amp; ",O40," &amp; ",Q40," &amp; ",S40," &amp; ",U40," &amp; ",W40," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="41" spans="1:25">
@@ -43087,8 +44464,8 @@
       <c r="V41" s="128"/>
       <c r="W41" s="128"/>
       <c r="Y41" s="129" t="str">
-        <f>CONCATENATE($X$1,A41,"} &amp; ",$X$1,B41,"} &amp; ",$D$1," &amp; ",D41," &amp; ",F41," &amp; ",H41," &amp; ",J41," &amp; ",L41," &amp; ",N41," &amp; ",P41," &amp; ",R41," &amp; ", T41," &amp; ", V41, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E41," &amp; ",G41," &amp; ",I41," &amp; ",K41," &amp; ",M41," &amp; ",O41," &amp; ",Q41," &amp; ",S41," &amp; ",U41," &amp; ",W41," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="42" spans="1:25">
@@ -43116,8 +44493,8 @@
       <c r="V42" s="128"/>
       <c r="W42" s="128"/>
       <c r="Y42" s="129" t="str">
-        <f>CONCATENATE($X$1,A42,"} &amp; ",$X$1,B42,"} &amp; ",$D$1," &amp; ",D42," &amp; ",F42," &amp; ",H42," &amp; ",J42," &amp; ",L42," &amp; ",N42," &amp; ",P42," &amp; ",R42," &amp; ", T42," &amp; ", V42, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E42," &amp; ",G42," &amp; ",I42," &amp; ",K42," &amp; ",M42," &amp; ",O42," &amp; ",Q42," &amp; ",S42," &amp; ",U42," &amp; ",W42," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="43" spans="1:25">
@@ -43145,8 +44522,8 @@
       <c r="V43" s="128"/>
       <c r="W43" s="128"/>
       <c r="Y43" s="129" t="str">
-        <f>CONCATENATE($X$1,A43,"} &amp; ",$X$1,B43,"} &amp; ",$D$1," &amp; ",D43," &amp; ",F43," &amp; ",H43," &amp; ",J43," &amp; ",L43," &amp; ",N43," &amp; ",P43," &amp; ",R43," &amp; ", T43," &amp; ", V43, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E43," &amp; ",G43," &amp; ",I43," &amp; ",K43," &amp; ",M43," &amp; ",O43," &amp; ",Q43," &amp; ",S43," &amp; ",U43," &amp; ",W43," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="44" spans="1:25">
@@ -43174,8 +44551,8 @@
       <c r="V44" s="128"/>
       <c r="W44" s="128"/>
       <c r="Y44" s="129" t="str">
-        <f>CONCATENATE($X$1,A44,"} &amp; ",$X$1,B44,"} &amp; ",$D$1," &amp; ",D44," &amp; ",F44," &amp; ",H44," &amp; ",J44," &amp; ",L44," &amp; ",N44," &amp; ",P44," &amp; ",R44," &amp; ", T44," &amp; ", V44, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E44," &amp; ",G44," &amp; ",I44," &amp; ",K44," &amp; ",M44," &amp; ",O44," &amp; ",Q44," &amp; ",S44," &amp; ",U44," &amp; ",W44," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="45" spans="1:25">
@@ -43203,8 +44580,8 @@
       <c r="V45" s="128"/>
       <c r="W45" s="128"/>
       <c r="Y45" s="129" t="str">
-        <f>CONCATENATE($X$1,A45,"} &amp; ",$X$1,B45,"} &amp; ",$D$1," &amp; ",D45," &amp; ",F45," &amp; ",H45," &amp; ",J45," &amp; ",L45," &amp; ",N45," &amp; ",P45," &amp; ",R45," &amp; ", T45," &amp; ", V45, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E45," &amp; ",G45," &amp; ",I45," &amp; ",K45," &amp; ",M45," &amp; ",O45," &amp; ",Q45," &amp; ",S45," &amp; ",U45," &amp; ",W45," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="46" spans="1:25">
@@ -43232,8 +44609,8 @@
       <c r="V46" s="128"/>
       <c r="W46" s="128"/>
       <c r="Y46" s="129" t="str">
-        <f>CONCATENATE($X$1,A46,"} &amp; ",$X$1,B46,"} &amp; ",$D$1," &amp; ",D46," &amp; ",F46," &amp; ",H46," &amp; ",J46," &amp; ",L46," &amp; ",N46," &amp; ",P46," &amp; ",R46," &amp; ", T46," &amp; ", V46, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E46," &amp; ",G46," &amp; ",I46," &amp; ",K46," &amp; ",M46," &amp; ",O46," &amp; ",Q46," &amp; ",S46," &amp; ",U46," &amp; ",W46," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="47" spans="1:25">
@@ -43261,8 +44638,8 @@
       <c r="V47" s="128"/>
       <c r="W47" s="128"/>
       <c r="Y47" s="129" t="str">
-        <f>CONCATENATE($X$1,A47,"} &amp; ",$X$1,B47,"} &amp; ",$D$1," &amp; ",D47," &amp; ",F47," &amp; ",H47," &amp; ",J47," &amp; ",L47," &amp; ",N47," &amp; ",P47," &amp; ",R47," &amp; ", T47," &amp; ", V47, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E47," &amp; ",G47," &amp; ",I47," &amp; ",K47," &amp; ",M47," &amp; ",O47," &amp; ",Q47," &amp; ",S47," &amp; ",U47," &amp; ",W47," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="48" spans="1:25">
@@ -43290,8 +44667,8 @@
       <c r="V48" s="128"/>
       <c r="W48" s="128"/>
       <c r="Y48" s="129" t="str">
-        <f>CONCATENATE($X$1,A48,"} &amp; ",$X$1,B48,"} &amp; ",$D$1," &amp; ",D48," &amp; ",F48," &amp; ",H48," &amp; ",J48," &amp; ",L48," &amp; ",N48," &amp; ",P48," &amp; ",R48," &amp; ", T48," &amp; ", V48, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E48," &amp; ",G48," &amp; ",I48," &amp; ",K48," &amp; ",M48," &amp; ",O48," &amp; ",Q48," &amp; ",S48," &amp; ",U48," &amp; ",W48," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="49" spans="1:25">
@@ -43319,8 +44696,8 @@
       <c r="V49" s="128"/>
       <c r="W49" s="128"/>
       <c r="Y49" s="129" t="str">
-        <f>CONCATENATE($X$1,A49,"} &amp; ",$X$1,B49,"} &amp; ",$D$1," &amp; ",D49," &amp; ",F49," &amp; ",H49," &amp; ",J49," &amp; ",L49," &amp; ",N49," &amp; ",P49," &amp; ",R49," &amp; ", T49," &amp; ", V49, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E49," &amp; ",G49," &amp; ",I49," &amp; ",K49," &amp; ",M49," &amp; ",O49," &amp; ",Q49," &amp; ",S49," &amp; ",U49," &amp; ",W49," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="50" spans="1:25">
@@ -43348,8 +44725,8 @@
       <c r="V50" s="128"/>
       <c r="W50" s="128"/>
       <c r="Y50" s="129" t="str">
-        <f>CONCATENATE($X$1,A50,"} &amp; ",$X$1,B50,"} &amp; ",$D$1," &amp; ",D50," &amp; ",F50," &amp; ",H50," &amp; ",J50," &amp; ",L50," &amp; ",N50," &amp; ",P50," &amp; ",R50," &amp; ", T50," &amp; ", V50, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E50," &amp; ",G50," &amp; ",I50," &amp; ",K50," &amp; ",M50," &amp; ",O50," &amp; ",Q50," &amp; ",S50," &amp; ",U50," &amp; ",W50," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="51" spans="1:25">
@@ -43377,8 +44754,8 @@
       <c r="V51" s="128"/>
       <c r="W51" s="128"/>
       <c r="Y51" s="129" t="str">
-        <f>CONCATENATE($X$1,A51,"} &amp; ",$X$1,B51,"} &amp; ",$D$1," &amp; ",D51," &amp; ",F51," &amp; ",H51," &amp; ",J51," &amp; ",L51," &amp; ",N51," &amp; ",P51," &amp; ",R51," &amp; ", T51," &amp; ", V51, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E51," &amp; ",G51," &amp; ",I51," &amp; ",K51," &amp; ",M51," &amp; ",O51," &amp; ",Q51," &amp; ",S51," &amp; ",U51," &amp; ",W51," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="52" spans="1:25">
@@ -43406,8 +44783,8 @@
       <c r="V52" s="128"/>
       <c r="W52" s="128"/>
       <c r="Y52" s="129" t="str">
-        <f>CONCATENATE($X$1,A52,"} &amp; ",$X$1,B52,"} &amp; ",$D$1," &amp; ",D52," &amp; ",F52," &amp; ",H52," &amp; ",J52," &amp; ",L52," &amp; ",N52," &amp; ",P52," &amp; ",R52," &amp; ", T52," &amp; ", V52, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E52," &amp; ",G52," &amp; ",I52," &amp; ",K52," &amp; ",M52," &amp; ",O52," &amp; ",Q52," &amp; ",S52," &amp; ",U52," &amp; ",W52," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="53" spans="1:25">
@@ -43435,8 +44812,8 @@
       <c r="V53" s="128"/>
       <c r="W53" s="128"/>
       <c r="Y53" s="129" t="str">
-        <f>CONCATENATE($X$1,A53,"} &amp; ",$X$1,B53,"} &amp; ",$D$1," &amp; ",D53," &amp; ",F53," &amp; ",H53," &amp; ",J53," &amp; ",L53," &amp; ",N53," &amp; ",P53," &amp; ",R53," &amp; ", T53," &amp; ", V53, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E53," &amp; ",G53," &amp; ",I53," &amp; ",K53," &amp; ",M53," &amp; ",O53," &amp; ",Q53," &amp; ",S53," &amp; ",U53," &amp; ",W53," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="54" spans="1:25">
@@ -43464,8 +44841,8 @@
       <c r="V54" s="128"/>
       <c r="W54" s="128"/>
       <c r="Y54" s="129" t="str">
-        <f>CONCATENATE($X$1,A54,"} &amp; ",$X$1,B54,"} &amp; ",$D$1," &amp; ",D54," &amp; ",F54," &amp; ",H54," &amp; ",J54," &amp; ",L54," &amp; ",N54," &amp; ",P54," &amp; ",R54," &amp; ", T54," &amp; ", V54, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E54," &amp; ",G54," &amp; ",I54," &amp; ",K54," &amp; ",M54," &amp; ",O54," &amp; ",Q54," &amp; ",S54," &amp; ",U54," &amp; ",W54," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="55" spans="1:25">
@@ -43493,8 +44870,8 @@
       <c r="V55" s="128"/>
       <c r="W55" s="128"/>
       <c r="Y55" s="129" t="str">
-        <f>CONCATENATE($X$1,A55,"} &amp; ",$X$1,B55,"} &amp; ",$D$1," &amp; ",D55," &amp; ",F55," &amp; ",H55," &amp; ",J55," &amp; ",L55," &amp; ",N55," &amp; ",P55," &amp; ",R55," &amp; ", T55," &amp; ", V55, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E55," &amp; ",G55," &amp; ",I55," &amp; ",K55," &amp; ",M55," &amp; ",O55," &amp; ",Q55," &amp; ",S55," &amp; ",U55," &amp; ",W55," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="56" spans="1:25">
@@ -43522,8 +44899,8 @@
       <c r="V56" s="128"/>
       <c r="W56" s="128"/>
       <c r="Y56" s="129" t="str">
-        <f>CONCATENATE($X$1,A56,"} &amp; ",$X$1,B56,"} &amp; ",$D$1," &amp; ",D56," &amp; ",F56," &amp; ",H56," &amp; ",J56," &amp; ",L56," &amp; ",N56," &amp; ",P56," &amp; ",R56," &amp; ", T56," &amp; ", V56, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E56," &amp; ",G56," &amp; ",I56," &amp; ",K56," &amp; ",M56," &amp; ",O56," &amp; ",Q56," &amp; ",S56," &amp; ",U56," &amp; ",W56," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="57" spans="1:25">
@@ -43551,8 +44928,8 @@
       <c r="V57" s="128"/>
       <c r="W57" s="128"/>
       <c r="Y57" s="129" t="str">
-        <f>CONCATENATE($X$1,A57,"} &amp; ",$X$1,B57,"} &amp; ",$D$1," &amp; ",D57," &amp; ",F57," &amp; ",H57," &amp; ",J57," &amp; ",L57," &amp; ",N57," &amp; ",P57," &amp; ",R57," &amp; ", T57," &amp; ", V57, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E57," &amp; ",G57," &amp; ",I57," &amp; ",K57," &amp; ",M57," &amp; ",O57," &amp; ",Q57," &amp; ",S57," &amp; ",U57," &amp; ",W57," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="58" spans="1:25">
@@ -43580,8 +44957,8 @@
       <c r="V58" s="128"/>
       <c r="W58" s="128"/>
       <c r="Y58" s="129" t="str">
-        <f>CONCATENATE($X$1,A58,"} &amp; ",$X$1,B58,"} &amp; ",$D$1," &amp; ",D58," &amp; ",F58," &amp; ",H58," &amp; ",J58," &amp; ",L58," &amp; ",N58," &amp; ",P58," &amp; ",R58," &amp; ", T58," &amp; ", V58, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E58," &amp; ",G58," &amp; ",I58," &amp; ",K58," &amp; ",M58," &amp; ",O58," &amp; ",Q58," &amp; ",S58," &amp; ",U58," &amp; ",W58," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="59" spans="1:25">
@@ -43609,8 +44986,8 @@
       <c r="V59" s="128"/>
       <c r="W59" s="128"/>
       <c r="Y59" s="129" t="str">
-        <f>CONCATENATE($X$1,A59,"} &amp; ",$X$1,B59,"} &amp; ",$D$1," &amp; ",D59," &amp; ",F59," &amp; ",H59," &amp; ",J59," &amp; ",L59," &amp; ",N59," &amp; ",P59," &amp; ",R59," &amp; ", T59," &amp; ", V59, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E59," &amp; ",G59," &amp; ",I59," &amp; ",K59," &amp; ",M59," &amp; ",O59," &amp; ",Q59," &amp; ",S59," &amp; ",U59," &amp; ",W59," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="60" spans="1:25">
@@ -43638,8 +45015,8 @@
       <c r="V60" s="128"/>
       <c r="W60" s="128"/>
       <c r="Y60" s="129" t="str">
-        <f>CONCATENATE($X$1,A60,"} &amp; ",$X$1,B60,"} &amp; ",$D$1," &amp; ",D60," &amp; ",F60," &amp; ",H60," &amp; ",J60," &amp; ",L60," &amp; ",N60," &amp; ",P60," &amp; ",R60," &amp; ", T60," &amp; ", V60, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E60," &amp; ",G60," &amp; ",I60," &amp; ",K60," &amp; ",M60," &amp; ",O60," &amp; ",Q60," &amp; ",S60," &amp; ",U60," &amp; ",W60," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="61" spans="1:25">
@@ -43667,8 +45044,8 @@
       <c r="V61" s="128"/>
       <c r="W61" s="128"/>
       <c r="Y61" s="129" t="str">
-        <f>CONCATENATE($X$1,A61,"} &amp; ",$X$1,B61,"} &amp; ",$D$1," &amp; ",D61," &amp; ",F61," &amp; ",H61," &amp; ",J61," &amp; ",L61," &amp; ",N61," &amp; ",P61," &amp; ",R61," &amp; ", T61," &amp; ", V61, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E61," &amp; ",G61," &amp; ",I61," &amp; ",K61," &amp; ",M61," &amp; ",O61," &amp; ",Q61," &amp; ",S61," &amp; ",U61," &amp; ",W61," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="62" spans="1:25">
@@ -43696,8 +45073,8 @@
       <c r="V62" s="128"/>
       <c r="W62" s="128"/>
       <c r="Y62" s="129" t="str">
-        <f>CONCATENATE($X$1,A62,"} &amp; ",$X$1,B62,"} &amp; ",$D$1," &amp; ",D62," &amp; ",F62," &amp; ",H62," &amp; ",J62," &amp; ",L62," &amp; ",N62," &amp; ",P62," &amp; ",R62," &amp; ", T62," &amp; ", V62, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E62," &amp; ",G62," &amp; ",I62," &amp; ",K62," &amp; ",M62," &amp; ",O62," &amp; ",Q62," &amp; ",S62," &amp; ",U62," &amp; ",W62," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="63" spans="1:25">
@@ -43725,8 +45102,8 @@
       <c r="V63" s="128"/>
       <c r="W63" s="128"/>
       <c r="Y63" s="129" t="str">
-        <f>CONCATENATE($X$1,A63,"} &amp; ",$X$1,B63,"} &amp; ",$D$1," &amp; ",D63," &amp; ",F63," &amp; ",H63," &amp; ",J63," &amp; ",L63," &amp; ",N63," &amp; ",P63," &amp; ",R63," &amp; ", T63," &amp; ", V63, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E63," &amp; ",G63," &amp; ",I63," &amp; ",K63," &amp; ",M63," &amp; ",O63," &amp; ",Q63," &amp; ",S63," &amp; ",U63," &amp; ",W63," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="64" spans="1:25">
@@ -43754,8 +45131,8 @@
       <c r="V64" s="128"/>
       <c r="W64" s="128"/>
       <c r="Y64" s="129" t="str">
-        <f>CONCATENATE($X$1,A64,"} &amp; ",$X$1,B64,"} &amp; ",$D$1," &amp; ",D64," &amp; ",F64," &amp; ",H64," &amp; ",J64," &amp; ",L64," &amp; ",N64," &amp; ",P64," &amp; ",R64," &amp; ", T64," &amp; ", V64, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E64," &amp; ",G64," &amp; ",I64," &amp; ",K64," &amp; ",M64," &amp; ",O64," &amp; ",Q64," &amp; ",S64," &amp; ",U64," &amp; ",W64," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="65" spans="1:25">
@@ -43783,8 +45160,8 @@
       <c r="V65" s="128"/>
       <c r="W65" s="128"/>
       <c r="Y65" s="129" t="str">
-        <f>CONCATENATE($X$1,A65,"} &amp; ",$X$1,B65,"} &amp; ",$D$1," &amp; ",D65," &amp; ",F65," &amp; ",H65," &amp; ",J65," &amp; ",L65," &amp; ",N65," &amp; ",P65," &amp; ",R65," &amp; ", T65," &amp; ", V65, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E65," &amp; ",G65," &amp; ",I65," &amp; ",K65," &amp; ",M65," &amp; ",O65," &amp; ",Q65," &amp; ",S65," &amp; ",U65," &amp; ",W65," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="66" spans="1:25">
@@ -43812,8 +45189,8 @@
       <c r="V66" s="128"/>
       <c r="W66" s="128"/>
       <c r="Y66" s="129" t="str">
-        <f>CONCATENATE($X$1,A66,"} &amp; ",$X$1,B66,"} &amp; ",$D$1," &amp; ",D66," &amp; ",F66," &amp; ",H66," &amp; ",J66," &amp; ",L66," &amp; ",N66," &amp; ",P66," &amp; ",R66," &amp; ", T66," &amp; ", V66, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E66," &amp; ",G66," &amp; ",I66," &amp; ",K66," &amp; ",M66," &amp; ",O66," &amp; ",Q66," &amp; ",S66," &amp; ",U66," &amp; ",W66," \\ \hline")</f>
-        <v/>
+        <f t="shared" ref="Y66:Y97" si="2">CONCATENATE($X$1,A66,"} &amp; ",$X$1,B66,"} &amp; ",$D$1," &amp; ",D66," &amp; ",F66," &amp; ",H66," &amp; ",J66," &amp; ",L66," &amp; ",N66," &amp; ",P66," &amp; ",R66," &amp; ", T66," &amp; ", V66, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E66," &amp; ",G66," &amp; ",I66," &amp; ",K66," &amp; ",M66," &amp; ",O66," &amp; ",Q66," &amp; ",S66," &amp; ",U66," &amp; ",W66," \\ \hline")</f>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="67" spans="1:25">
@@ -43841,8 +45218,8 @@
       <c r="V67" s="128"/>
       <c r="W67" s="128"/>
       <c r="Y67" s="129" t="str">
-        <f>CONCATENATE($X$1,A67,"} &amp; ",$X$1,B67,"} &amp; ",$D$1," &amp; ",D67," &amp; ",F67," &amp; ",H67," &amp; ",J67," &amp; ",L67," &amp; ",N67," &amp; ",P67," &amp; ",R67," &amp; ", T67," &amp; ", V67, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E67," &amp; ",G67," &amp; ",I67," &amp; ",K67," &amp; ",M67," &amp; ",O67," &amp; ",Q67," &amp; ",S67," &amp; ",U67," &amp; ",W67," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="68" spans="1:25">
@@ -43870,8 +45247,8 @@
       <c r="V68" s="128"/>
       <c r="W68" s="128"/>
       <c r="Y68" s="129" t="str">
-        <f>CONCATENATE($X$1,A68,"} &amp; ",$X$1,B68,"} &amp; ",$D$1," &amp; ",D68," &amp; ",F68," &amp; ",H68," &amp; ",J68," &amp; ",L68," &amp; ",N68," &amp; ",P68," &amp; ",R68," &amp; ", T68," &amp; ", V68, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E68," &amp; ",G68," &amp; ",I68," &amp; ",K68," &amp; ",M68," &amp; ",O68," &amp; ",Q68," &amp; ",S68," &amp; ",U68," &amp; ",W68," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="69" spans="1:25">
@@ -43899,8 +45276,8 @@
       <c r="V69" s="128"/>
       <c r="W69" s="128"/>
       <c r="Y69" s="129" t="str">
-        <f>CONCATENATE($X$1,A69,"} &amp; ",$X$1,B69,"} &amp; ",$D$1," &amp; ",D69," &amp; ",F69," &amp; ",H69," &amp; ",J69," &amp; ",L69," &amp; ",N69," &amp; ",P69," &amp; ",R69," &amp; ", T69," &amp; ", V69, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E69," &amp; ",G69," &amp; ",I69," &amp; ",K69," &amp; ",M69," &amp; ",O69," &amp; ",Q69," &amp; ",S69," &amp; ",U69," &amp; ",W69," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="70" spans="1:25">
@@ -43928,8 +45305,8 @@
       <c r="V70" s="128"/>
       <c r="W70" s="128"/>
       <c r="Y70" s="129" t="str">
-        <f>CONCATENATE($X$1,A70,"} &amp; ",$X$1,B70,"} &amp; ",$D$1," &amp; ",D70," &amp; ",F70," &amp; ",H70," &amp; ",J70," &amp; ",L70," &amp; ",N70," &amp; ",P70," &amp; ",R70," &amp; ", T70," &amp; ", V70, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E70," &amp; ",G70," &amp; ",I70," &amp; ",K70," &amp; ",M70," &amp; ",O70," &amp; ",Q70," &amp; ",S70," &amp; ",U70," &amp; ",W70," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="71" spans="1:25">
@@ -43957,8 +45334,8 @@
       <c r="V71" s="128"/>
       <c r="W71" s="128"/>
       <c r="Y71" s="129" t="str">
-        <f>CONCATENATE($X$1,A71,"} &amp; ",$X$1,B71,"} &amp; ",$D$1," &amp; ",D71," &amp; ",F71," &amp; ",H71," &amp; ",J71," &amp; ",L71," &amp; ",N71," &amp; ",P71," &amp; ",R71," &amp; ", T71," &amp; ", V71, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E71," &amp; ",G71," &amp; ",I71," &amp; ",K71," &amp; ",M71," &amp; ",O71," &amp; ",Q71," &amp; ",S71," &amp; ",U71," &amp; ",W71," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="72" spans="1:25">
@@ -43986,8 +45363,8 @@
       <c r="V72" s="128"/>
       <c r="W72" s="128"/>
       <c r="Y72" s="129" t="str">
-        <f>CONCATENATE($X$1,A72,"} &amp; ",$X$1,B72,"} &amp; ",$D$1," &amp; ",D72," &amp; ",F72," &amp; ",H72," &amp; ",J72," &amp; ",L72," &amp; ",N72," &amp; ",P72," &amp; ",R72," &amp; ", T72," &amp; ", V72, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E72," &amp; ",G72," &amp; ",I72," &amp; ",K72," &amp; ",M72," &amp; ",O72," &amp; ",Q72," &amp; ",S72," &amp; ",U72," &amp; ",W72," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="73" spans="1:25">
@@ -44015,8 +45392,8 @@
       <c r="V73" s="128"/>
       <c r="W73" s="128"/>
       <c r="Y73" s="129" t="str">
-        <f>CONCATENATE($X$1,A73,"} &amp; ",$X$1,B73,"} &amp; ",$D$1," &amp; ",D73," &amp; ",F73," &amp; ",H73," &amp; ",J73," &amp; ",L73," &amp; ",N73," &amp; ",P73," &amp; ",R73," &amp; ", T73," &amp; ", V73, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E73," &amp; ",G73," &amp; ",I73," &amp; ",K73," &amp; ",M73," &amp; ",O73," &amp; ",Q73," &amp; ",S73," &amp; ",U73," &amp; ",W73," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="74" spans="1:25">
@@ -44044,8 +45421,8 @@
       <c r="V74" s="128"/>
       <c r="W74" s="128"/>
       <c r="Y74" s="129" t="str">
-        <f>CONCATENATE($X$1,A74,"} &amp; ",$X$1,B74,"} &amp; ",$D$1," &amp; ",D74," &amp; ",F74," &amp; ",H74," &amp; ",J74," &amp; ",L74," &amp; ",N74," &amp; ",P74," &amp; ",R74," &amp; ", T74," &amp; ", V74, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E74," &amp; ",G74," &amp; ",I74," &amp; ",K74," &amp; ",M74," &amp; ",O74," &amp; ",Q74," &amp; ",S74," &amp; ",U74," &amp; ",W74," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="75" spans="1:25">
@@ -44073,8 +45450,8 @@
       <c r="V75" s="128"/>
       <c r="W75" s="128"/>
       <c r="Y75" s="129" t="str">
-        <f>CONCATENATE($X$1,A75,"} &amp; ",$X$1,B75,"} &amp; ",$D$1," &amp; ",D75," &amp; ",F75," &amp; ",H75," &amp; ",J75," &amp; ",L75," &amp; ",N75," &amp; ",P75," &amp; ",R75," &amp; ", T75," &amp; ", V75, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E75," &amp; ",G75," &amp; ",I75," &amp; ",K75," &amp; ",M75," &amp; ",O75," &amp; ",Q75," &amp; ",S75," &amp; ",U75," &amp; ",W75," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="76" spans="1:25">
@@ -44102,8 +45479,8 @@
       <c r="V76" s="128"/>
       <c r="W76" s="128"/>
       <c r="Y76" s="129" t="str">
-        <f>CONCATENATE($X$1,A76,"} &amp; ",$X$1,B76,"} &amp; ",$D$1," &amp; ",D76," &amp; ",F76," &amp; ",H76," &amp; ",J76," &amp; ",L76," &amp; ",N76," &amp; ",P76," &amp; ",R76," &amp; ", T76," &amp; ", V76, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E76," &amp; ",G76," &amp; ",I76," &amp; ",K76," &amp; ",M76," &amp; ",O76," &amp; ",Q76," &amp; ",S76," &amp; ",U76," &amp; ",W76," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="77" spans="1:25">
@@ -44131,8 +45508,8 @@
       <c r="V77" s="128"/>
       <c r="W77" s="128"/>
       <c r="Y77" s="129" t="str">
-        <f>CONCATENATE($X$1,A77,"} &amp; ",$X$1,B77,"} &amp; ",$D$1," &amp; ",D77," &amp; ",F77," &amp; ",H77," &amp; ",J77," &amp; ",L77," &amp; ",N77," &amp; ",P77," &amp; ",R77," &amp; ", T77," &amp; ", V77, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E77," &amp; ",G77," &amp; ",I77," &amp; ",K77," &amp; ",M77," &amp; ",O77," &amp; ",Q77," &amp; ",S77," &amp; ",U77," &amp; ",W77," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="78" spans="1:25">
@@ -44160,8 +45537,8 @@
       <c r="V78" s="128"/>
       <c r="W78" s="128"/>
       <c r="Y78" s="129" t="str">
-        <f>CONCATENATE($X$1,A78,"} &amp; ",$X$1,B78,"} &amp; ",$D$1," &amp; ",D78," &amp; ",F78," &amp; ",H78," &amp; ",J78," &amp; ",L78," &amp; ",N78," &amp; ",P78," &amp; ",R78," &amp; ", T78," &amp; ", V78, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E78," &amp; ",G78," &amp; ",I78," &amp; ",K78," &amp; ",M78," &amp; ",O78," &amp; ",Q78," &amp; ",S78," &amp; ",U78," &amp; ",W78," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="79" spans="1:25">
@@ -44189,8 +45566,8 @@
       <c r="V79" s="128"/>
       <c r="W79" s="128"/>
       <c r="Y79" s="129" t="str">
-        <f>CONCATENATE($X$1,A79,"} &amp; ",$X$1,B79,"} &amp; ",$D$1," &amp; ",D79," &amp; ",F79," &amp; ",H79," &amp; ",J79," &amp; ",L79," &amp; ",N79," &amp; ",P79," &amp; ",R79," &amp; ", T79," &amp; ", V79, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E79," &amp; ",G79," &amp; ",I79," &amp; ",K79," &amp; ",M79," &amp; ",O79," &amp; ",Q79," &amp; ",S79," &amp; ",U79," &amp; ",W79," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="80" spans="1:25">
@@ -44218,8 +45595,8 @@
       <c r="V80" s="128"/>
       <c r="W80" s="128"/>
       <c r="Y80" s="129" t="str">
-        <f>CONCATENATE($X$1,A80,"} &amp; ",$X$1,B80,"} &amp; ",$D$1," &amp; ",D80," &amp; ",F80," &amp; ",H80," &amp; ",J80," &amp; ",L80," &amp; ",N80," &amp; ",P80," &amp; ",R80," &amp; ", T80," &amp; ", V80, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E80," &amp; ",G80," &amp; ",I80," &amp; ",K80," &amp; ",M80," &amp; ",O80," &amp; ",Q80," &amp; ",S80," &amp; ",U80," &amp; ",W80," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="81" spans="1:25">
@@ -44247,8 +45624,8 @@
       <c r="V81" s="128"/>
       <c r="W81" s="128"/>
       <c r="Y81" s="129" t="str">
-        <f>CONCATENATE($X$1,A81,"} &amp; ",$X$1,B81,"} &amp; ",$D$1," &amp; ",D81," &amp; ",F81," &amp; ",H81," &amp; ",J81," &amp; ",L81," &amp; ",N81," &amp; ",P81," &amp; ",R81," &amp; ", T81," &amp; ", V81, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E81," &amp; ",G81," &amp; ",I81," &amp; ",K81," &amp; ",M81," &amp; ",O81," &amp; ",Q81," &amp; ",S81," &amp; ",U81," &amp; ",W81," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="82" spans="1:25">
@@ -44276,8 +45653,8 @@
       <c r="V82" s="128"/>
       <c r="W82" s="128"/>
       <c r="Y82" s="129" t="str">
-        <f>CONCATENATE($X$1,A82,"} &amp; ",$X$1,B82,"} &amp; ",$D$1," &amp; ",D82," &amp; ",F82," &amp; ",H82," &amp; ",J82," &amp; ",L82," &amp; ",N82," &amp; ",P82," &amp; ",R82," &amp; ", T82," &amp; ", V82, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E82," &amp; ",G82," &amp; ",I82," &amp; ",K82," &amp; ",M82," &amp; ",O82," &amp; ",Q82," &amp; ",S82," &amp; ",U82," &amp; ",W82," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="83" spans="1:25">
@@ -44305,8 +45682,8 @@
       <c r="V83" s="128"/>
       <c r="W83" s="128"/>
       <c r="Y83" s="129" t="str">
-        <f>CONCATENATE($X$1,A83,"} &amp; ",$X$1,B83,"} &amp; ",$D$1," &amp; ",D83," &amp; ",F83," &amp; ",H83," &amp; ",J83," &amp; ",L83," &amp; ",N83," &amp; ",P83," &amp; ",R83," &amp; ", T83," &amp; ", V83, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E83," &amp; ",G83," &amp; ",I83," &amp; ",K83," &amp; ",M83," &amp; ",O83," &amp; ",Q83," &amp; ",S83," &amp; ",U83," &amp; ",W83," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="84" spans="1:25">
@@ -44334,8 +45711,8 @@
       <c r="V84" s="128"/>
       <c r="W84" s="128"/>
       <c r="Y84" s="129" t="str">
-        <f>CONCATENATE($X$1,A84,"} &amp; ",$X$1,B84,"} &amp; ",$D$1," &amp; ",D84," &amp; ",F84," &amp; ",H84," &amp; ",J84," &amp; ",L84," &amp; ",N84," &amp; ",P84," &amp; ",R84," &amp; ", T84," &amp; ", V84, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E84," &amp; ",G84," &amp; ",I84," &amp; ",K84," &amp; ",M84," &amp; ",O84," &amp; ",Q84," &amp; ",S84," &amp; ",U84," &amp; ",W84," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="85" spans="1:25">
@@ -44363,8 +45740,8 @@
       <c r="V85" s="128"/>
       <c r="W85" s="128"/>
       <c r="Y85" s="129" t="str">
-        <f>CONCATENATE($X$1,A85,"} &amp; ",$X$1,B85,"} &amp; ",$D$1," &amp; ",D85," &amp; ",F85," &amp; ",H85," &amp; ",J85," &amp; ",L85," &amp; ",N85," &amp; ",P85," &amp; ",R85," &amp; ", T85," &amp; ", V85, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E85," &amp; ",G85," &amp; ",I85," &amp; ",K85," &amp; ",M85," &amp; ",O85," &amp; ",Q85," &amp; ",S85," &amp; ",U85," &amp; ",W85," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="86" spans="1:25">
@@ -44392,8 +45769,8 @@
       <c r="V86" s="128"/>
       <c r="W86" s="128"/>
       <c r="Y86" s="129" t="str">
-        <f>CONCATENATE($X$1,A86,"} &amp; ",$X$1,B86,"} &amp; ",$D$1," &amp; ",D86," &amp; ",F86," &amp; ",H86," &amp; ",J86," &amp; ",L86," &amp; ",N86," &amp; ",P86," &amp; ",R86," &amp; ", T86," &amp; ", V86, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E86," &amp; ",G86," &amp; ",I86," &amp; ",K86," &amp; ",M86," &amp; ",O86," &amp; ",Q86," &amp; ",S86," &amp; ",U86," &amp; ",W86," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="87" spans="1:25">
@@ -44421,8 +45798,8 @@
       <c r="V87" s="128"/>
       <c r="W87" s="128"/>
       <c r="Y87" s="129" t="str">
-        <f>CONCATENATE($X$1,A87,"} &amp; ",$X$1,B87,"} &amp; ",$D$1," &amp; ",D87," &amp; ",F87," &amp; ",H87," &amp; ",J87," &amp; ",L87," &amp; ",N87," &amp; ",P87," &amp; ",R87," &amp; ", T87," &amp; ", V87, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E87," &amp; ",G87," &amp; ",I87," &amp; ",K87," &amp; ",M87," &amp; ",O87," &amp; ",Q87," &amp; ",S87," &amp; ",U87," &amp; ",W87," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="88" spans="1:25">
@@ -44450,8 +45827,8 @@
       <c r="V88" s="128"/>
       <c r="W88" s="128"/>
       <c r="Y88" s="129" t="str">
-        <f>CONCATENATE($X$1,A88,"} &amp; ",$X$1,B88,"} &amp; ",$D$1," &amp; ",D88," &amp; ",F88," &amp; ",H88," &amp; ",J88," &amp; ",L88," &amp; ",N88," &amp; ",P88," &amp; ",R88," &amp; ", T88," &amp; ", V88, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E88," &amp; ",G88," &amp; ",I88," &amp; ",K88," &amp; ",M88," &amp; ",O88," &amp; ",Q88," &amp; ",S88," &amp; ",U88," &amp; ",W88," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="89" spans="1:25">
@@ -44479,8 +45856,8 @@
       <c r="V89" s="128"/>
       <c r="W89" s="128"/>
       <c r="Y89" s="129" t="str">
-        <f>CONCATENATE($X$1,A89,"} &amp; ",$X$1,B89,"} &amp; ",$D$1," &amp; ",D89," &amp; ",F89," &amp; ",H89," &amp; ",J89," &amp; ",L89," &amp; ",N89," &amp; ",P89," &amp; ",R89," &amp; ", T89," &amp; ", V89, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E89," &amp; ",G89," &amp; ",I89," &amp; ",K89," &amp; ",M89," &amp; ",O89," &amp; ",Q89," &amp; ",S89," &amp; ",U89," &amp; ",W89," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="90" spans="1:25">
@@ -44508,8 +45885,8 @@
       <c r="V90" s="128"/>
       <c r="W90" s="128"/>
       <c r="Y90" s="129" t="str">
-        <f>CONCATENATE($X$1,A90,"} &amp; ",$X$1,B90,"} &amp; ",$D$1," &amp; ",D90," &amp; ",F90," &amp; ",H90," &amp; ",J90," &amp; ",L90," &amp; ",N90," &amp; ",P90," &amp; ",R90," &amp; ", T90," &amp; ", V90, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E90," &amp; ",G90," &amp; ",I90," &amp; ",K90," &amp; ",M90," &amp; ",O90," &amp; ",Q90," &amp; ",S90," &amp; ",U90," &amp; ",W90," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="91" spans="1:25">
@@ -44537,8 +45914,8 @@
       <c r="V91" s="128"/>
       <c r="W91" s="128"/>
       <c r="Y91" s="129" t="str">
-        <f>CONCATENATE($X$1,A91,"} &amp; ",$X$1,B91,"} &amp; ",$D$1," &amp; ",D91," &amp; ",F91," &amp; ",H91," &amp; ",J91," &amp; ",L91," &amp; ",N91," &amp; ",P91," &amp; ",R91," &amp; ", T91," &amp; ", V91, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E91," &amp; ",G91," &amp; ",I91," &amp; ",K91," &amp; ",M91," &amp; ",O91," &amp; ",Q91," &amp; ",S91," &amp; ",U91," &amp; ",W91," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="92" spans="1:25">
@@ -44566,8 +45943,8 @@
       <c r="V92" s="128"/>
       <c r="W92" s="128"/>
       <c r="Y92" s="129" t="str">
-        <f>CONCATENATE($X$1,A92,"} &amp; ",$X$1,B92,"} &amp; ",$D$1," &amp; ",D92," &amp; ",F92," &amp; ",H92," &amp; ",J92," &amp; ",L92," &amp; ",N92," &amp; ",P92," &amp; ",R92," &amp; ", T92," &amp; ", V92, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E92," &amp; ",G92," &amp; ",I92," &amp; ",K92," &amp; ",M92," &amp; ",O92," &amp; ",Q92," &amp; ",S92," &amp; ",U92," &amp; ",W92," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="93" spans="1:25">
@@ -44595,8 +45972,8 @@
       <c r="V93" s="128"/>
       <c r="W93" s="128"/>
       <c r="Y93" s="129" t="str">
-        <f>CONCATENATE($X$1,A93,"} &amp; ",$X$1,B93,"} &amp; ",$D$1," &amp; ",D93," &amp; ",F93," &amp; ",H93," &amp; ",J93," &amp; ",L93," &amp; ",N93," &amp; ",P93," &amp; ",R93," &amp; ", T93," &amp; ", V93, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E93," &amp; ",G93," &amp; ",I93," &amp; ",K93," &amp; ",M93," &amp; ",O93," &amp; ",Q93," &amp; ",S93," &amp; ",U93," &amp; ",W93," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="94" spans="1:25">
@@ -44624,8 +46001,8 @@
       <c r="V94" s="128"/>
       <c r="W94" s="128"/>
       <c r="Y94" s="129" t="str">
-        <f>CONCATENATE($X$1,A94,"} &amp; ",$X$1,B94,"} &amp; ",$D$1," &amp; ",D94," &amp; ",F94," &amp; ",H94," &amp; ",J94," &amp; ",L94," &amp; ",N94," &amp; ",P94," &amp; ",R94," &amp; ", T94," &amp; ", V94, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E94," &amp; ",G94," &amp; ",I94," &amp; ",K94," &amp; ",M94," &amp; ",O94," &amp; ",Q94," &amp; ",S94," &amp; ",U94," &amp; ",W94," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="95" spans="1:25">
@@ -44653,8 +46030,8 @@
       <c r="V95" s="128"/>
       <c r="W95" s="128"/>
       <c r="Y95" s="129" t="str">
-        <f>CONCATENATE($X$1,A95,"} &amp; ",$X$1,B95,"} &amp; ",$D$1," &amp; ",D95," &amp; ",F95," &amp; ",H95," &amp; ",J95," &amp; ",L95," &amp; ",N95," &amp; ",P95," &amp; ",R95," &amp; ", T95," &amp; ", V95, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E95," &amp; ",G95," &amp; ",I95," &amp; ",K95," &amp; ",M95," &amp; ",O95," &amp; ",Q95," &amp; ",S95," &amp; ",U95," &amp; ",W95," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="96" spans="1:25">
@@ -44682,8 +46059,8 @@
       <c r="V96" s="128"/>
       <c r="W96" s="128"/>
       <c r="Y96" s="129" t="str">
-        <f>CONCATENATE($X$1,A96,"} &amp; ",$X$1,B96,"} &amp; ",$D$1," &amp; ",D96," &amp; ",F96," &amp; ",H96," &amp; ",J96," &amp; ",L96," &amp; ",N96," &amp; ",P96," &amp; ",R96," &amp; ", T96," &amp; ", V96, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E96," &amp; ",G96," &amp; ",I96," &amp; ",K96," &amp; ",M96," &amp; ",O96," &amp; ",Q96," &amp; ",S96," &amp; ",U96," &amp; ",W96," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="97" spans="1:25">
@@ -44711,8 +46088,8 @@
       <c r="V97" s="128"/>
       <c r="W97" s="128"/>
       <c r="Y97" s="129" t="str">
-        <f>CONCATENATE($X$1,A97,"} &amp; ",$X$1,B97,"} &amp; ",$D$1," &amp; ",D97," &amp; ",F97," &amp; ",H97," &amp; ",J97," &amp; ",L97," &amp; ",N97," &amp; ",P97," &amp; ",R97," &amp; ", T97," &amp; ", V97, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E97," &amp; ",G97," &amp; ",I97," &amp; ",K97," &amp; ",M97," &amp; ",O97," &amp; ",Q97," &amp; ",S97," &amp; ",U97," &amp; ",W97," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="98" spans="1:25">
@@ -44740,8 +46117,8 @@
       <c r="V98" s="128"/>
       <c r="W98" s="128"/>
       <c r="Y98" s="129" t="str">
-        <f>CONCATENATE($X$1,A98,"} &amp; ",$X$1,B98,"} &amp; ",$D$1," &amp; ",D98," &amp; ",F98," &amp; ",H98," &amp; ",J98," &amp; ",L98," &amp; ",N98," &amp; ",P98," &amp; ",R98," &amp; ", T98," &amp; ", V98, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E98," &amp; ",G98," &amp; ",I98," &amp; ",K98," &amp; ",M98," &amp; ",O98," &amp; ",Q98," &amp; ",S98," &amp; ",U98," &amp; ",W98," \\ \hline")</f>
-        <v/>
+        <f t="shared" ref="Y98:Y129" si="3">CONCATENATE($X$1,A98,"} &amp; ",$X$1,B98,"} &amp; ",$D$1," &amp; ",D98," &amp; ",F98," &amp; ",H98," &amp; ",J98," &amp; ",L98," &amp; ",N98," &amp; ",P98," &amp; ",R98," &amp; ", T98," &amp; ", V98, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E98," &amp; ",G98," &amp; ",I98," &amp; ",K98," &amp; ",M98," &amp; ",O98," &amp; ",Q98," &amp; ",S98," &amp; ",U98," &amp; ",W98," \\ \hline")</f>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="99" spans="1:25">
@@ -44769,8 +46146,8 @@
       <c r="V99" s="128"/>
       <c r="W99" s="128"/>
       <c r="Y99" s="129" t="str">
-        <f>CONCATENATE($X$1,A99,"} &amp; ",$X$1,B99,"} &amp; ",$D$1," &amp; ",D99," &amp; ",F99," &amp; ",H99," &amp; ",J99," &amp; ",L99," &amp; ",N99," &amp; ",P99," &amp; ",R99," &amp; ", T99," &amp; ", V99, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E99," &amp; ",G99," &amp; ",I99," &amp; ",K99," &amp; ",M99," &amp; ",O99," &amp; ",Q99," &amp; ",S99," &amp; ",U99," &amp; ",W99," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="100" spans="1:25">
@@ -44798,8 +46175,8 @@
       <c r="V100" s="128"/>
       <c r="W100" s="128"/>
       <c r="Y100" s="129" t="str">
-        <f>CONCATENATE($X$1,A100,"} &amp; ",$X$1,B100,"} &amp; ",$D$1," &amp; ",D100," &amp; ",F100," &amp; ",H100," &amp; ",J100," &amp; ",L100," &amp; ",N100," &amp; ",P100," &amp; ",R100," &amp; ", T100," &amp; ", V100, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E100," &amp; ",G100," &amp; ",I100," &amp; ",K100," &amp; ",M100," &amp; ",O100," &amp; ",Q100," &amp; ",S100," &amp; ",U100," &amp; ",W100," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="101" spans="1:25">
@@ -44827,8 +46204,8 @@
       <c r="V101" s="128"/>
       <c r="W101" s="128"/>
       <c r="Y101" s="129" t="str">
-        <f>CONCATENATE($X$1,A101,"} &amp; ",$X$1,B101,"} &amp; ",$D$1," &amp; ",D101," &amp; ",F101," &amp; ",H101," &amp; ",J101," &amp; ",L101," &amp; ",N101," &amp; ",P101," &amp; ",R101," &amp; ", T101," &amp; ", V101, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E101," &amp; ",G101," &amp; ",I101," &amp; ",K101," &amp; ",M101," &amp; ",O101," &amp; ",Q101," &amp; ",S101," &amp; ",U101," &amp; ",W101," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="102" spans="1:25">
@@ -44856,8 +46233,8 @@
       <c r="V102" s="128"/>
       <c r="W102" s="128"/>
       <c r="Y102" s="129" t="str">
-        <f>CONCATENATE($X$1,A102,"} &amp; ",$X$1,B102,"} &amp; ",$D$1," &amp; ",D102," &amp; ",F102," &amp; ",H102," &amp; ",J102," &amp; ",L102," &amp; ",N102," &amp; ",P102," &amp; ",R102," &amp; ", T102," &amp; ", V102, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E102," &amp; ",G102," &amp; ",I102," &amp; ",K102," &amp; ",M102," &amp; ",O102," &amp; ",Q102," &amp; ",S102," &amp; ",U102," &amp; ",W102," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="103" spans="1:25">
@@ -44885,8 +46262,8 @@
       <c r="V103" s="128"/>
       <c r="W103" s="128"/>
       <c r="Y103" s="129" t="str">
-        <f>CONCATENATE($X$1,A103,"} &amp; ",$X$1,B103,"} &amp; ",$D$1," &amp; ",D103," &amp; ",F103," &amp; ",H103," &amp; ",J103," &amp; ",L103," &amp; ",N103," &amp; ",P103," &amp; ",R103," &amp; ", T103," &amp; ", V103, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E103," &amp; ",G103," &amp; ",I103," &amp; ",K103," &amp; ",M103," &amp; ",O103," &amp; ",Q103," &amp; ",S103," &amp; ",U103," &amp; ",W103," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="104" spans="1:25">
@@ -44914,8 +46291,8 @@
       <c r="V104" s="128"/>
       <c r="W104" s="128"/>
       <c r="Y104" s="129" t="str">
-        <f>CONCATENATE($X$1,A104,"} &amp; ",$X$1,B104,"} &amp; ",$D$1," &amp; ",D104," &amp; ",F104," &amp; ",H104," &amp; ",J104," &amp; ",L104," &amp; ",N104," &amp; ",P104," &amp; ",R104," &amp; ", T104," &amp; ", V104, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E104," &amp; ",G104," &amp; ",I104," &amp; ",K104," &amp; ",M104," &amp; ",O104," &amp; ",Q104," &amp; ",S104," &amp; ",U104," &amp; ",W104," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="105" spans="1:25">
@@ -44943,8 +46320,8 @@
       <c r="V105" s="128"/>
       <c r="W105" s="128"/>
       <c r="Y105" s="129" t="str">
-        <f>CONCATENATE($X$1,A105,"} &amp; ",$X$1,B105,"} &amp; ",$D$1," &amp; ",D105," &amp; ",F105," &amp; ",H105," &amp; ",J105," &amp; ",L105," &amp; ",N105," &amp; ",P105," &amp; ",R105," &amp; ", T105," &amp; ", V105, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E105," &amp; ",G105," &amp; ",I105," &amp; ",K105," &amp; ",M105," &amp; ",O105," &amp; ",Q105," &amp; ",S105," &amp; ",U105," &amp; ",W105," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="106" spans="1:25">
@@ -44972,8 +46349,8 @@
       <c r="V106" s="128"/>
       <c r="W106" s="128"/>
       <c r="Y106" s="129" t="str">
-        <f>CONCATENATE($X$1,A106,"} &amp; ",$X$1,B106,"} &amp; ",$D$1," &amp; ",D106," &amp; ",F106," &amp; ",H106," &amp; ",J106," &amp; ",L106," &amp; ",N106," &amp; ",P106," &amp; ",R106," &amp; ", T106," &amp; ", V106, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E106," &amp; ",G106," &amp; ",I106," &amp; ",K106," &amp; ",M106," &amp; ",O106," &amp; ",Q106," &amp; ",S106," &amp; ",U106," &amp; ",W106," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="107" spans="1:25">
@@ -45001,8 +46378,8 @@
       <c r="V107" s="128"/>
       <c r="W107" s="128"/>
       <c r="Y107" s="129" t="str">
-        <f>CONCATENATE($X$1,A107,"} &amp; ",$X$1,B107,"} &amp; ",$D$1," &amp; ",D107," &amp; ",F107," &amp; ",H107," &amp; ",J107," &amp; ",L107," &amp; ",N107," &amp; ",P107," &amp; ",R107," &amp; ", T107," &amp; ", V107, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E107," &amp; ",G107," &amp; ",I107," &amp; ",K107," &amp; ",M107," &amp; ",O107," &amp; ",Q107," &amp; ",S107," &amp; ",U107," &amp; ",W107," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="108" spans="1:25">
@@ -45030,8 +46407,8 @@
       <c r="V108" s="128"/>
       <c r="W108" s="128"/>
       <c r="Y108" s="129" t="str">
-        <f>CONCATENATE($X$1,A108,"} &amp; ",$X$1,B108,"} &amp; ",$D$1," &amp; ",D108," &amp; ",F108," &amp; ",H108," &amp; ",J108," &amp; ",L108," &amp; ",N108," &amp; ",P108," &amp; ",R108," &amp; ", T108," &amp; ", V108, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E108," &amp; ",G108," &amp; ",I108," &amp; ",K108," &amp; ",M108," &amp; ",O108," &amp; ",Q108," &amp; ",S108," &amp; ",U108," &amp; ",W108," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="109" spans="1:25">
@@ -45059,8 +46436,8 @@
       <c r="V109" s="128"/>
       <c r="W109" s="128"/>
       <c r="Y109" s="129" t="str">
-        <f>CONCATENATE($X$1,A109,"} &amp; ",$X$1,B109,"} &amp; ",$D$1," &amp; ",D109," &amp; ",F109," &amp; ",H109," &amp; ",J109," &amp; ",L109," &amp; ",N109," &amp; ",P109," &amp; ",R109," &amp; ", T109," &amp; ", V109, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E109," &amp; ",G109," &amp; ",I109," &amp; ",K109," &amp; ",M109," &amp; ",O109," &amp; ",Q109," &amp; ",S109," &amp; ",U109," &amp; ",W109," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="110" spans="1:25">
@@ -45088,8 +46465,8 @@
       <c r="V110" s="128"/>
       <c r="W110" s="128"/>
       <c r="Y110" s="129" t="str">
-        <f>CONCATENATE($X$1,A110,"} &amp; ",$X$1,B110,"} &amp; ",$D$1," &amp; ",D110," &amp; ",F110," &amp; ",H110," &amp; ",J110," &amp; ",L110," &amp; ",N110," &amp; ",P110," &amp; ",R110," &amp; ", T110," &amp; ", V110, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E110," &amp; ",G110," &amp; ",I110," &amp; ",K110," &amp; ",M110," &amp; ",O110," &amp; ",Q110," &amp; ",S110," &amp; ",U110," &amp; ",W110," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="111" spans="1:25">
@@ -45117,8 +46494,8 @@
       <c r="V111" s="128"/>
       <c r="W111" s="128"/>
       <c r="Y111" s="129" t="str">
-        <f>CONCATENATE($X$1,A111,"} &amp; ",$X$1,B111,"} &amp; ",$D$1," &amp; ",D111," &amp; ",F111," &amp; ",H111," &amp; ",J111," &amp; ",L111," &amp; ",N111," &amp; ",P111," &amp; ",R111," &amp; ", T111," &amp; ", V111, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E111," &amp; ",G111," &amp; ",I111," &amp; ",K111," &amp; ",M111," &amp; ",O111," &amp; ",Q111," &amp; ",S111," &amp; ",U111," &amp; ",W111," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="112" spans="1:25">
@@ -45146,8 +46523,8 @@
       <c r="V112" s="128"/>
       <c r="W112" s="128"/>
       <c r="Y112" s="129" t="str">
-        <f>CONCATENATE($X$1,A112,"} &amp; ",$X$1,B112,"} &amp; ",$D$1," &amp; ",D112," &amp; ",F112," &amp; ",H112," &amp; ",J112," &amp; ",L112," &amp; ",N112," &amp; ",P112," &amp; ",R112," &amp; ", T112," &amp; ", V112, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E112," &amp; ",G112," &amp; ",I112," &amp; ",K112," &amp; ",M112," &amp; ",O112," &amp; ",Q112," &amp; ",S112," &amp; ",U112," &amp; ",W112," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="113" spans="1:25">
@@ -45175,8 +46552,8 @@
       <c r="V113" s="128"/>
       <c r="W113" s="128"/>
       <c r="Y113" s="129" t="str">
-        <f>CONCATENATE($X$1,A113,"} &amp; ",$X$1,B113,"} &amp; ",$D$1," &amp; ",D113," &amp; ",F113," &amp; ",H113," &amp; ",J113," &amp; ",L113," &amp; ",N113," &amp; ",P113," &amp; ",R113," &amp; ", T113," &amp; ", V113, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E113," &amp; ",G113," &amp; ",I113," &amp; ",K113," &amp; ",M113," &amp; ",O113," &amp; ",Q113," &amp; ",S113," &amp; ",U113," &amp; ",W113," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="114" spans="1:25">
@@ -45204,8 +46581,8 @@
       <c r="V114" s="128"/>
       <c r="W114" s="128"/>
       <c r="Y114" s="129" t="str">
-        <f>CONCATENATE($X$1,A114,"} &amp; ",$X$1,B114,"} &amp; ",$D$1," &amp; ",D114," &amp; ",F114," &amp; ",H114," &amp; ",J114," &amp; ",L114," &amp; ",N114," &amp; ",P114," &amp; ",R114," &amp; ", T114," &amp; ", V114, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E114," &amp; ",G114," &amp; ",I114," &amp; ",K114," &amp; ",M114," &amp; ",O114," &amp; ",Q114," &amp; ",S114," &amp; ",U114," &amp; ",W114," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="115" spans="1:25">
@@ -45233,8 +46610,8 @@
       <c r="V115" s="128"/>
       <c r="W115" s="128"/>
       <c r="Y115" s="129" t="str">
-        <f>CONCATENATE($X$1,A115,"} &amp; ",$X$1,B115,"} &amp; ",$D$1," &amp; ",D115," &amp; ",F115," &amp; ",H115," &amp; ",J115," &amp; ",L115," &amp; ",N115," &amp; ",P115," &amp; ",R115," &amp; ", T115," &amp; ", V115, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E115," &amp; ",G115," &amp; ",I115," &amp; ",K115," &amp; ",M115," &amp; ",O115," &amp; ",Q115," &amp; ",S115," &amp; ",U115," &amp; ",W115," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="116" spans="1:25">
@@ -45262,8 +46639,8 @@
       <c r="V116" s="128"/>
       <c r="W116" s="128"/>
       <c r="Y116" s="129" t="str">
-        <f>CONCATENATE($X$1,A116,"} &amp; ",$X$1,B116,"} &amp; ",$D$1," &amp; ",D116," &amp; ",F116," &amp; ",H116," &amp; ",J116," &amp; ",L116," &amp; ",N116," &amp; ",P116," &amp; ",R116," &amp; ", T116," &amp; ", V116, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E116," &amp; ",G116," &amp; ",I116," &amp; ",K116," &amp; ",M116," &amp; ",O116," &amp; ",Q116," &amp; ",S116," &amp; ",U116," &amp; ",W116," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="117" spans="1:25">
@@ -45291,8 +46668,8 @@
       <c r="V117" s="128"/>
       <c r="W117" s="128"/>
       <c r="Y117" s="129" t="str">
-        <f>CONCATENATE($X$1,A117,"} &amp; ",$X$1,B117,"} &amp; ",$D$1," &amp; ",D117," &amp; ",F117," &amp; ",H117," &amp; ",J117," &amp; ",L117," &amp; ",N117," &amp; ",P117," &amp; ",R117," &amp; ", T117," &amp; ", V117, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E117," &amp; ",G117," &amp; ",I117," &amp; ",K117," &amp; ",M117," &amp; ",O117," &amp; ",Q117," &amp; ",S117," &amp; ",U117," &amp; ",W117," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="118" spans="1:25">
@@ -45320,8 +46697,8 @@
       <c r="V118" s="128"/>
       <c r="W118" s="128"/>
       <c r="Y118" s="129" t="str">
-        <f>CONCATENATE($X$1,A118,"} &amp; ",$X$1,B118,"} &amp; ",$D$1," &amp; ",D118," &amp; ",F118," &amp; ",H118," &amp; ",J118," &amp; ",L118," &amp; ",N118," &amp; ",P118," &amp; ",R118," &amp; ", T118," &amp; ", V118, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E118," &amp; ",G118," &amp; ",I118," &amp; ",K118," &amp; ",M118," &amp; ",O118," &amp; ",Q118," &amp; ",S118," &amp; ",U118," &amp; ",W118," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="119" spans="1:25">
@@ -45349,8 +46726,8 @@
       <c r="V119" s="128"/>
       <c r="W119" s="128"/>
       <c r="Y119" s="129" t="str">
-        <f>CONCATENATE($X$1,A119,"} &amp; ",$X$1,B119,"} &amp; ",$D$1," &amp; ",D119," &amp; ",F119," &amp; ",H119," &amp; ",J119," &amp; ",L119," &amp; ",N119," &amp; ",P119," &amp; ",R119," &amp; ", T119," &amp; ", V119, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E119," &amp; ",G119," &amp; ",I119," &amp; ",K119," &amp; ",M119," &amp; ",O119," &amp; ",Q119," &amp; ",S119," &amp; ",U119," &amp; ",W119," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="120" spans="1:25">
@@ -45378,8 +46755,8 @@
       <c r="V120" s="128"/>
       <c r="W120" s="128"/>
       <c r="Y120" s="129" t="str">
-        <f>CONCATENATE($X$1,A120,"} &amp; ",$X$1,B120,"} &amp; ",$D$1," &amp; ",D120," &amp; ",F120," &amp; ",H120," &amp; ",J120," &amp; ",L120," &amp; ",N120," &amp; ",P120," &amp; ",R120," &amp; ", T120," &amp; ", V120, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E120," &amp; ",G120," &amp; ",I120," &amp; ",K120," &amp; ",M120," &amp; ",O120," &amp; ",Q120," &amp; ",S120," &amp; ",U120," &amp; ",W120," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="121" spans="1:25">
@@ -45407,8 +46784,8 @@
       <c r="V121" s="128"/>
       <c r="W121" s="128"/>
       <c r="Y121" s="129" t="str">
-        <f>CONCATENATE($X$1,A121,"} &amp; ",$X$1,B121,"} &amp; ",$D$1," &amp; ",D121," &amp; ",F121," &amp; ",H121," &amp; ",J121," &amp; ",L121," &amp; ",N121," &amp; ",P121," &amp; ",R121," &amp; ", T121," &amp; ", V121, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E121," &amp; ",G121," &amp; ",I121," &amp; ",K121," &amp; ",M121," &amp; ",O121," &amp; ",Q121," &amp; ",S121," &amp; ",U121," &amp; ",W121," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="122" spans="1:25">
@@ -45436,8 +46813,8 @@
       <c r="V122" s="128"/>
       <c r="W122" s="128"/>
       <c r="Y122" s="129" t="str">
-        <f>CONCATENATE($X$1,A122,"} &amp; ",$X$1,B122,"} &amp; ",$D$1," &amp; ",D122," &amp; ",F122," &amp; ",H122," &amp; ",J122," &amp; ",L122," &amp; ",N122," &amp; ",P122," &amp; ",R122," &amp; ", T122," &amp; ", V122, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E122," &amp; ",G122," &amp; ",I122," &amp; ",K122," &amp; ",M122," &amp; ",O122," &amp; ",Q122," &amp; ",S122," &amp; ",U122," &amp; ",W122," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="123" spans="1:25">
@@ -45465,8 +46842,8 @@
       <c r="V123" s="128"/>
       <c r="W123" s="128"/>
       <c r="Y123" s="129" t="str">
-        <f>CONCATENATE($X$1,A123,"} &amp; ",$X$1,B123,"} &amp; ",$D$1," &amp; ",D123," &amp; ",F123," &amp; ",H123," &amp; ",J123," &amp; ",L123," &amp; ",N123," &amp; ",P123," &amp; ",R123," &amp; ", T123," &amp; ", V123, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E123," &amp; ",G123," &amp; ",I123," &amp; ",K123," &amp; ",M123," &amp; ",O123," &amp; ",Q123," &amp; ",S123," &amp; ",U123," &amp; ",W123," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="124" spans="1:25">
@@ -45494,8 +46871,8 @@
       <c r="V124" s="128"/>
       <c r="W124" s="128"/>
       <c r="Y124" s="129" t="str">
-        <f>CONCATENATE($X$1,A124,"} &amp; ",$X$1,B124,"} &amp; ",$D$1," &amp; ",D124," &amp; ",F124," &amp; ",H124," &amp; ",J124," &amp; ",L124," &amp; ",N124," &amp; ",P124," &amp; ",R124," &amp; ", T124," &amp; ", V124, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E124," &amp; ",G124," &amp; ",I124," &amp; ",K124," &amp; ",M124," &amp; ",O124," &amp; ",Q124," &amp; ",S124," &amp; ",U124," &amp; ",W124," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="125" spans="1:25">
@@ -45523,8 +46900,8 @@
       <c r="V125" s="128"/>
       <c r="W125" s="128"/>
       <c r="Y125" s="129" t="str">
-        <f>CONCATENATE($X$1,A125,"} &amp; ",$X$1,B125,"} &amp; ",$D$1," &amp; ",D125," &amp; ",F125," &amp; ",H125," &amp; ",J125," &amp; ",L125," &amp; ",N125," &amp; ",P125," &amp; ",R125," &amp; ", T125," &amp; ", V125, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E125," &amp; ",G125," &amp; ",I125," &amp; ",K125," &amp; ",M125," &amp; ",O125," &amp; ",Q125," &amp; ",S125," &amp; ",U125," &amp; ",W125," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="126" spans="1:25">
@@ -45552,8 +46929,8 @@
       <c r="V126" s="128"/>
       <c r="W126" s="128"/>
       <c r="Y126" s="129" t="str">
-        <f>CONCATENATE($X$1,A126,"} &amp; ",$X$1,B126,"} &amp; ",$D$1," &amp; ",D126," &amp; ",F126," &amp; ",H126," &amp; ",J126," &amp; ",L126," &amp; ",N126," &amp; ",P126," &amp; ",R126," &amp; ", T126," &amp; ", V126, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E126," &amp; ",G126," &amp; ",I126," &amp; ",K126," &amp; ",M126," &amp; ",O126," &amp; ",Q126," &amp; ",S126," &amp; ",U126," &amp; ",W126," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="127" spans="1:25">
@@ -45581,8 +46958,8 @@
       <c r="V127" s="128"/>
       <c r="W127" s="128"/>
       <c r="Y127" s="129" t="str">
-        <f>CONCATENATE($X$1,A127,"} &amp; ",$X$1,B127,"} &amp; ",$D$1," &amp; ",D127," &amp; ",F127," &amp; ",H127," &amp; ",J127," &amp; ",L127," &amp; ",N127," &amp; ",P127," &amp; ",R127," &amp; ", T127," &amp; ", V127, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E127," &amp; ",G127," &amp; ",I127," &amp; ",K127," &amp; ",M127," &amp; ",O127," &amp; ",Q127," &amp; ",S127," &amp; ",U127," &amp; ",W127," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="128" spans="1:25">
@@ -45610,8 +46987,8 @@
       <c r="V128" s="128"/>
       <c r="W128" s="128"/>
       <c r="Y128" s="129" t="str">
-        <f>CONCATENATE($X$1,A128,"} &amp; ",$X$1,B128,"} &amp; ",$D$1," &amp; ",D128," &amp; ",F128," &amp; ",H128," &amp; ",J128," &amp; ",L128," &amp; ",N128," &amp; ",P128," &amp; ",R128," &amp; ", T128," &amp; ", V128, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E128," &amp; ",G128," &amp; ",I128," &amp; ",K128," &amp; ",M128," &amp; ",O128," &amp; ",Q128," &amp; ",S128," &amp; ",U128," &amp; ",W128," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="129" spans="1:25">
@@ -45639,8 +47016,8 @@
       <c r="V129" s="128"/>
       <c r="W129" s="128"/>
       <c r="Y129" s="129" t="str">
-        <f>CONCATENATE($X$1,A129,"} &amp; ",$X$1,B129,"} &amp; ",$D$1," &amp; ",D129," &amp; ",F129," &amp; ",H129," &amp; ",J129," &amp; ",L129," &amp; ",N129," &amp; ",P129," &amp; ",R129," &amp; ", T129," &amp; ", V129, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E129," &amp; ",G129," &amp; ",I129," &amp; ",K129," &amp; ",M129," &amp; ",O129," &amp; ",Q129," &amp; ",S129," &amp; ",U129," &amp; ",W129," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="130" spans="1:25">
@@ -45668,8 +47045,8 @@
       <c r="V130" s="128"/>
       <c r="W130" s="128"/>
       <c r="Y130" s="129" t="str">
-        <f>CONCATENATE($X$1,A130,"} &amp; ",$X$1,B130,"} &amp; ",$D$1," &amp; ",D130," &amp; ",F130," &amp; ",H130," &amp; ",J130," &amp; ",L130," &amp; ",N130," &amp; ",P130," &amp; ",R130," &amp; ", T130," &amp; ", V130, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E130," &amp; ",G130," &amp; ",I130," &amp; ",K130," &amp; ",M130," &amp; ",O130," &amp; ",Q130," &amp; ",S130," &amp; ",U130," &amp; ",W130," \\ \hline")</f>
-        <v/>
+        <f t="shared" ref="Y130:Y148" si="4">CONCATENATE($X$1,A130,"} &amp; ",$X$1,B130,"} &amp; ",$D$1," &amp; ",D130," &amp; ",F130," &amp; ",H130," &amp; ",J130," &amp; ",L130," &amp; ",N130," &amp; ",P130," &amp; ",R130," &amp; ", T130," &amp; ", V130, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E130," &amp; ",G130," &amp; ",I130," &amp; ",K130," &amp; ",M130," &amp; ",O130," &amp; ",Q130," &amp; ",S130," &amp; ",U130," &amp; ",W130," \\ \hline")</f>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="131" spans="1:25">
@@ -45697,8 +47074,8 @@
       <c r="V131" s="128"/>
       <c r="W131" s="128"/>
       <c r="Y131" s="129" t="str">
-        <f>CONCATENATE($X$1,A131,"} &amp; ",$X$1,B131,"} &amp; ",$D$1," &amp; ",D131," &amp; ",F131," &amp; ",H131," &amp; ",J131," &amp; ",L131," &amp; ",N131," &amp; ",P131," &amp; ",R131," &amp; ", T131," &amp; ", V131, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E131," &amp; ",G131," &amp; ",I131," &amp; ",K131," &amp; ",M131," &amp; ",O131," &amp; ",Q131," &amp; ",S131," &amp; ",U131," &amp; ",W131," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="132" spans="1:25">
@@ -45726,8 +47103,8 @@
       <c r="V132" s="128"/>
       <c r="W132" s="128"/>
       <c r="Y132" s="129" t="str">
-        <f>CONCATENATE($X$1,A132,"} &amp; ",$X$1,B132,"} &amp; ",$D$1," &amp; ",D132," &amp; ",F132," &amp; ",H132," &amp; ",J132," &amp; ",L132," &amp; ",N132," &amp; ",P132," &amp; ",R132," &amp; ", T132," &amp; ", V132, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E132," &amp; ",G132," &amp; ",I132," &amp; ",K132," &amp; ",M132," &amp; ",O132," &amp; ",Q132," &amp; ",S132," &amp; ",U132," &amp; ",W132," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="133" spans="1:25">
@@ -45755,8 +47132,8 @@
       <c r="V133" s="128"/>
       <c r="W133" s="128"/>
       <c r="Y133" s="129" t="str">
-        <f>CONCATENATE($X$1,A133,"} &amp; ",$X$1,B133,"} &amp; ",$D$1," &amp; ",D133," &amp; ",F133," &amp; ",H133," &amp; ",J133," &amp; ",L133," &amp; ",N133," &amp; ",P133," &amp; ",R133," &amp; ", T133," &amp; ", V133, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E133," &amp; ",G133," &amp; ",I133," &amp; ",K133," &amp; ",M133," &amp; ",O133," &amp; ",Q133," &amp; ",S133," &amp; ",U133," &amp; ",W133," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="134" spans="1:25">
@@ -45784,8 +47161,8 @@
       <c r="V134" s="128"/>
       <c r="W134" s="128"/>
       <c r="Y134" s="129" t="str">
-        <f>CONCATENATE($X$1,A134,"} &amp; ",$X$1,B134,"} &amp; ",$D$1," &amp; ",D134," &amp; ",F134," &amp; ",H134," &amp; ",J134," &amp; ",L134," &amp; ",N134," &amp; ",P134," &amp; ",R134," &amp; ", T134," &amp; ", V134, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E134," &amp; ",G134," &amp; ",I134," &amp; ",K134," &amp; ",M134," &amp; ",O134," &amp; ",Q134," &amp; ",S134," &amp; ",U134," &amp; ",W134," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="135" spans="1:25">
@@ -45813,8 +47190,8 @@
       <c r="V135" s="128"/>
       <c r="W135" s="128"/>
       <c r="Y135" s="129" t="str">
-        <f>CONCATENATE($X$1,A135,"} &amp; ",$X$1,B135,"} &amp; ",$D$1," &amp; ",D135," &amp; ",F135," &amp; ",H135," &amp; ",J135," &amp; ",L135," &amp; ",N135," &amp; ",P135," &amp; ",R135," &amp; ", T135," &amp; ", V135, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E135," &amp; ",G135," &amp; ",I135," &amp; ",K135," &amp; ",M135," &amp; ",O135," &amp; ",Q135," &amp; ",S135," &amp; ",U135," &amp; ",W135," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="136" spans="1:25">
@@ -45842,8 +47219,8 @@
       <c r="V136" s="128"/>
       <c r="W136" s="128"/>
       <c r="Y136" s="129" t="str">
-        <f>CONCATENATE($X$1,A136,"} &amp; ",$X$1,B136,"} &amp; ",$D$1," &amp; ",D136," &amp; ",F136," &amp; ",H136," &amp; ",J136," &amp; ",L136," &amp; ",N136," &amp; ",P136," &amp; ",R136," &amp; ", T136," &amp; ", V136, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E136," &amp; ",G136," &amp; ",I136," &amp; ",K136," &amp; ",M136," &amp; ",O136," &amp; ",Q136," &amp; ",S136," &amp; ",U136," &amp; ",W136," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="137" spans="1:25">
@@ -45871,8 +47248,8 @@
       <c r="V137" s="128"/>
       <c r="W137" s="128"/>
       <c r="Y137" s="129" t="str">
-        <f>CONCATENATE($X$1,A137,"} &amp; ",$X$1,B137,"} &amp; ",$D$1," &amp; ",D137," &amp; ",F137," &amp; ",H137," &amp; ",J137," &amp; ",L137," &amp; ",N137," &amp; ",P137," &amp; ",R137," &amp; ", T137," &amp; ", V137, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E137," &amp; ",G137," &amp; ",I137," &amp; ",K137," &amp; ",M137," &amp; ",O137," &amp; ",Q137," &amp; ",S137," &amp; ",U137," &amp; ",W137," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="138" spans="1:25">
@@ -45900,8 +47277,8 @@
       <c r="V138" s="128"/>
       <c r="W138" s="128"/>
       <c r="Y138" s="129" t="str">
-        <f>CONCATENATE($X$1,A138,"} &amp; ",$X$1,B138,"} &amp; ",$D$1," &amp; ",D138," &amp; ",F138," &amp; ",H138," &amp; ",J138," &amp; ",L138," &amp; ",N138," &amp; ",P138," &amp; ",R138," &amp; ", T138," &amp; ", V138, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E138," &amp; ",G138," &amp; ",I138," &amp; ",K138," &amp; ",M138," &amp; ",O138," &amp; ",Q138," &amp; ",S138," &amp; ",U138," &amp; ",W138," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="139" spans="1:25">
@@ -45929,8 +47306,8 @@
       <c r="V139" s="128"/>
       <c r="W139" s="128"/>
       <c r="Y139" s="129" t="str">
-        <f>CONCATENATE($X$1,A139,"} &amp; ",$X$1,B139,"} &amp; ",$D$1," &amp; ",D139," &amp; ",F139," &amp; ",H139," &amp; ",J139," &amp; ",L139," &amp; ",N139," &amp; ",P139," &amp; ",R139," &amp; ", T139," &amp; ", V139, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E139," &amp; ",G139," &amp; ",I139," &amp; ",K139," &amp; ",M139," &amp; ",O139," &amp; ",Q139," &amp; ",S139," &amp; ",U139," &amp; ",W139," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="140" spans="1:25">
@@ -45958,8 +47335,8 @@
       <c r="V140" s="128"/>
       <c r="W140" s="128"/>
       <c r="Y140" s="129" t="str">
-        <f>CONCATENATE($X$1,A140,"} &amp; ",$X$1,B140,"} &amp; ",$D$1," &amp; ",D140," &amp; ",F140," &amp; ",H140," &amp; ",J140," &amp; ",L140," &amp; ",N140," &amp; ",P140," &amp; ",R140," &amp; ", T140," &amp; ", V140, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E140," &amp; ",G140," &amp; ",I140," &amp; ",K140," &amp; ",M140," &amp; ",O140," &amp; ",Q140," &amp; ",S140," &amp; ",U140," &amp; ",W140," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="141" spans="1:25">
@@ -45987,8 +47364,8 @@
       <c r="V141" s="128"/>
       <c r="W141" s="128"/>
       <c r="Y141" s="129" t="str">
-        <f>CONCATENATE($X$1,A141,"} &amp; ",$X$1,B141,"} &amp; ",$D$1," &amp; ",D141," &amp; ",F141," &amp; ",H141," &amp; ",J141," &amp; ",L141," &amp; ",N141," &amp; ",P141," &amp; ",R141," &amp; ", T141," &amp; ", V141, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E141," &amp; ",G141," &amp; ",I141," &amp; ",K141," &amp; ",M141," &amp; ",O141," &amp; ",Q141," &amp; ",S141," &amp; ",U141," &amp; ",W141," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="142" spans="1:25">
@@ -46016,8 +47393,8 @@
       <c r="V142" s="128"/>
       <c r="W142" s="128"/>
       <c r="Y142" s="129" t="str">
-        <f>CONCATENATE($X$1,A142,"} &amp; ",$X$1,B142,"} &amp; ",$D$1," &amp; ",D142," &amp; ",F142," &amp; ",H142," &amp; ",J142," &amp; ",L142," &amp; ",N142," &amp; ",P142," &amp; ",R142," &amp; ", T142," &amp; ", V142, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E142," &amp; ",G142," &amp; ",I142," &amp; ",K142," &amp; ",M142," &amp; ",O142," &amp; ",Q142," &amp; ",S142," &amp; ",U142," &amp; ",W142," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="143" spans="1:25">
@@ -46045,8 +47422,8 @@
       <c r="V143" s="128"/>
       <c r="W143" s="128"/>
       <c r="Y143" s="129" t="str">
-        <f>CONCATENATE($X$1,A143,"} &amp; ",$X$1,B143,"} &amp; ",$D$1," &amp; ",D143," &amp; ",F143," &amp; ",H143," &amp; ",J143," &amp; ",L143," &amp; ",N143," &amp; ",P143," &amp; ",R143," &amp; ", T143," &amp; ", V143, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E143," &amp; ",G143," &amp; ",I143," &amp; ",K143," &amp; ",M143," &amp; ",O143," &amp; ",Q143," &amp; ",S143," &amp; ",U143," &amp; ",W143," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="144" spans="1:25">
@@ -46074,8 +47451,8 @@
       <c r="V144" s="128"/>
       <c r="W144" s="128"/>
       <c r="Y144" s="129" t="str">
-        <f>CONCATENATE($X$1,A144,"} &amp; ",$X$1,B144,"} &amp; ",$D$1," &amp; ",D144," &amp; ",F144," &amp; ",H144," &amp; ",J144," &amp; ",L144," &amp; ",N144," &amp; ",P144," &amp; ",R144," &amp; ", T144," &amp; ", V144, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E144," &amp; ",G144," &amp; ",I144," &amp; ",K144," &amp; ",M144," &amp; ",O144," &amp; ",Q144," &amp; ",S144," &amp; ",U144," &amp; ",W144," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="145" spans="1:25">
@@ -46103,8 +47480,8 @@
       <c r="V145" s="128"/>
       <c r="W145" s="128"/>
       <c r="Y145" s="129" t="str">
-        <f>CONCATENATE($X$1,A145,"} &amp; ",$X$1,B145,"} &amp; ",$D$1," &amp; ",D145," &amp; ",F145," &amp; ",H145," &amp; ",J145," &amp; ",L145," &amp; ",N145," &amp; ",P145," &amp; ",R145," &amp; ", T145," &amp; ", V145, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E145," &amp; ",G145," &amp; ",I145," &amp; ",K145," &amp; ",M145," &amp; ",O145," &amp; ",Q145," &amp; ",S145," &amp; ",U145," &amp; ",W145," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="146" spans="1:25">
@@ -46132,8 +47509,8 @@
       <c r="V146" s="128"/>
       <c r="W146" s="128"/>
       <c r="Y146" s="129" t="str">
-        <f>CONCATENATE($X$1,A146,"} &amp; ",$X$1,B146,"} &amp; ",$D$1," &amp; ",D146," &amp; ",F146," &amp; ",H146," &amp; ",J146," &amp; ",L146," &amp; ",N146," &amp; ",P146," &amp; ",R146," &amp; ", T146," &amp; ", V146, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E146," &amp; ",G146," &amp; ",I146," &amp; ",K146," &amp; ",M146," &amp; ",O146," &amp; ",Q146," &amp; ",S146," &amp; ",U146," &amp; ",W146," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="147" spans="1:25">
@@ -46161,8 +47538,8 @@
       <c r="V147" s="128"/>
       <c r="W147" s="128"/>
       <c r="Y147" s="129" t="str">
-        <f>CONCATENATE($X$1,A147,"} &amp; ",$X$1,B147,"} &amp; ",$D$1," &amp; ",D147," &amp; ",F147," &amp; ",H147," &amp; ",J147," &amp; ",L147," &amp; ",N147," &amp; ",P147," &amp; ",R147," &amp; ", T147," &amp; ", V147, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E147," &amp; ",G147," &amp; ",I147," &amp; ",K147," &amp; ",M147," &amp; ",O147," &amp; ",Q147," &amp; ",S147," &amp; ",U147," &amp; ",W147," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
     <row r="148" spans="1:25">
@@ -46190,8 +47567,8 @@
       <c r="V148" s="128"/>
       <c r="W148" s="128"/>
       <c r="Y148" s="129" t="str">
-        <f>CONCATENATE($X$1,A148,"} &amp; ",$X$1,B148,"} &amp; ",$D$1," &amp; ",D148," &amp; ",F148," &amp; ",H148," &amp; ",J148," &amp; ",L148," &amp; ",N148," &amp; ",P148," &amp; ",R148," &amp; ", T148," &amp; ", V148, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E148," &amp; ",G148," &amp; ",I148," &amp; ",K148," &amp; ",M148," &amp; ",O148," &amp; ",Q148," &amp; ",S148," &amp; ",U148," &amp; ",W148," \\ \hline")</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
       </c>
     </row>
   </sheetData>

--- a/pyMaster_loads_tool.xlsx
+++ b/pyMaster_loads_tool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://atlec-my.sharepoint.com/personal/mwo_woodthilsted_com/Documents/Professional/5_PYTHON/pyMasterLoadsTool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_63C044A934FA1E3C64BD361040959C1020566A08" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBED3B3D-0CB1-4490-B121-CB7CD6948239}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_63C044A934FA1E3C64BD361040959C1020566A08" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B21B98A5-3CC4-44E5-92B7-26C9749CD1C3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="858" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-1590" windowWidth="38640" windowHeight="21120" tabRatio="858" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Load case definition" sheetId="1" r:id="rId1"/>
@@ -30,8 +30,11 @@
     <definedName name="SheetVersion">#REF!</definedName>
     <definedName name="VersionStatus">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -192,7 +195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="419">
   <si>
     <t>Basic case no.</t>
   </si>
@@ -1455,6 +1458,9 @@
   <si>
     <t>SLS_QPR_DL_LL_3</t>
   </si>
+  <si>
+    <t>Solver input solver number</t>
+  </si>
 </sst>
 </file>
 
@@ -2373,24 +2379,24 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2400,17 +2406,23 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2418,13 +2430,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2972,17 +2978,18 @@
   </sheetPr>
   <dimension ref="A1:N177"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="13.140625" style="152" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="151" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" hidden="1" customWidth="1"/>
-    <col min="5" max="8" width="13.140625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="19" customWidth="1"/>
+    <col min="6" max="8" width="13.140625" style="19" customWidth="1"/>
     <col min="11" max="11" width="15.7109375" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="20.140625" hidden="1" customWidth="1"/>
     <col min="13" max="14" width="13" hidden="1" customWidth="1"/>
@@ -3017,7 +3024,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="163" t="s">
-        <v>6</v>
+        <v>418</v>
       </c>
       <c r="G2" s="163" t="s">
         <v>7</v>
@@ -6191,11 +6198,11 @@
       <formula>F7=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="11">
+  <dataValidations count="9">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the load case number_x000a__x000a_Try to stick to a consistent naming convention and leave 100 possibilities for each load type. For example: _x000a_200-299 are live loads,_x000a_300-399 could be padeye loads,_x000a_400-499 could be HOP loads etc._x000a_ " sqref="A1:A6" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the load case_x000a__x000a_Please keep naming of similar loads as consistent as possible" sqref="B1:B6" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Filled in automatically" sqref="C1:C6" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576 G2:G6 G178:G1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576 G2:G6 G7:H1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"1,0"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="1- for Auxiliary case, 0 - if not." sqref="I2:I6" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
@@ -6205,14 +6212,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F177" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>IF(E8=1,$L$13:$L$15,$L$10:$L$13)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G177" xr:uid="{00000000-0002-0000-0000-000007000000}">
-      <formula1>IF(E7=1,#REF!,#REF!)</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>IF(E7=1,$L$11:$L$15,$L$10:$L$13)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H177" xr:uid="{00000000-0002-0000-0000-000009000000}">
-      <formula1>IF(E7=1,#REF!,#REF!)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I177" xr:uid="{00000000-0002-0000-0000-00000A000000}">
       <formula1>#REF!</formula1>
@@ -6230,10 +6231,10 @@
   </sheetPr>
   <dimension ref="A1:AJ177"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AE13" sqref="AE13"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -6292,12 +6293,12 @@
       <c r="X1" s="17"/>
       <c r="Y1" s="17"/>
       <c r="Z1" s="17"/>
-      <c r="AB1" s="187" t="s">
+      <c r="AB1" s="173" t="s">
         <v>131</v>
       </c>
-      <c r="AC1" s="172"/>
-      <c r="AD1" s="172"/>
-      <c r="AE1" s="173"/>
+      <c r="AC1" s="174"/>
+      <c r="AD1" s="174"/>
+      <c r="AE1" s="175"/>
     </row>
     <row r="2" spans="1:31" ht="12.4" customHeight="1">
       <c r="A2" s="166" t="s">
@@ -6310,7 +6311,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="183"/>
-      <c r="E2" s="186"/>
+      <c r="E2" s="171"/>
       <c r="F2" s="184"/>
       <c r="G2" s="167" t="s">
         <v>1</v>
@@ -6318,27 +6319,27 @@
       <c r="H2" s="185" t="s">
         <v>132</v>
       </c>
-      <c r="I2" s="182" t="s">
+      <c r="I2" s="188" t="s">
         <v>133</v>
       </c>
-      <c r="J2" s="171" t="s">
+      <c r="J2" s="186" t="s">
         <v>134</v>
       </c>
-      <c r="K2" s="172"/>
-      <c r="L2" s="172"/>
-      <c r="M2" s="172"/>
-      <c r="N2" s="172"/>
-      <c r="O2" s="172"/>
-      <c r="P2" s="172"/>
-      <c r="Q2" s="172"/>
-      <c r="R2" s="172"/>
-      <c r="S2" s="172"/>
-      <c r="T2" s="172"/>
-      <c r="U2" s="172"/>
-      <c r="V2" s="172"/>
-      <c r="W2" s="172"/>
-      <c r="X2" s="172"/>
-      <c r="Y2" s="173"/>
+      <c r="K2" s="174"/>
+      <c r="L2" s="174"/>
+      <c r="M2" s="174"/>
+      <c r="N2" s="174"/>
+      <c r="O2" s="174"/>
+      <c r="P2" s="174"/>
+      <c r="Q2" s="174"/>
+      <c r="R2" s="174"/>
+      <c r="S2" s="174"/>
+      <c r="T2" s="174"/>
+      <c r="U2" s="174"/>
+      <c r="V2" s="174"/>
+      <c r="W2" s="174"/>
+      <c r="X2" s="174"/>
+      <c r="Y2" s="175"/>
       <c r="Z2" s="163" t="s">
         <v>135</v>
       </c>
@@ -6360,30 +6361,30 @@
       <c r="B3" s="164"/>
       <c r="C3" s="164"/>
       <c r="D3" s="177"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="179"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="178"/>
       <c r="G3" s="164"/>
       <c r="H3" s="177"/>
       <c r="I3" s="164"/>
-      <c r="J3" s="174" t="s">
+      <c r="J3" s="187" t="s">
         <v>140</v>
       </c>
-      <c r="K3" s="175"/>
+      <c r="K3" s="182"/>
       <c r="L3" s="176"/>
-      <c r="M3" s="188" t="s">
+      <c r="M3" s="181" t="s">
         <v>141</v>
       </c>
-      <c r="N3" s="175"/>
+      <c r="N3" s="182"/>
       <c r="O3" s="176"/>
       <c r="P3" s="167" t="s">
         <v>142</v>
       </c>
-      <c r="Q3" s="175"/>
+      <c r="Q3" s="182"/>
       <c r="R3" s="176"/>
       <c r="S3" s="167" t="s">
         <v>143</v>
       </c>
-      <c r="T3" s="175"/>
+      <c r="T3" s="182"/>
       <c r="U3" s="176"/>
       <c r="V3" s="163" t="s">
         <v>144</v>
@@ -6406,26 +6407,26 @@
       <c r="B4" s="164"/>
       <c r="C4" s="164"/>
       <c r="D4" s="177"/>
-      <c r="E4" s="178"/>
-      <c r="F4" s="179"/>
+      <c r="E4" s="172"/>
+      <c r="F4" s="178"/>
       <c r="G4" s="164"/>
       <c r="H4" s="177"/>
       <c r="I4" s="164"/>
       <c r="J4" s="177"/>
-      <c r="K4" s="178"/>
-      <c r="L4" s="179"/>
+      <c r="K4" s="172"/>
+      <c r="L4" s="178"/>
       <c r="M4" s="177"/>
-      <c r="N4" s="178"/>
-      <c r="O4" s="179"/>
+      <c r="N4" s="172"/>
+      <c r="O4" s="178"/>
       <c r="P4" s="177"/>
-      <c r="Q4" s="178"/>
-      <c r="R4" s="179"/>
+      <c r="Q4" s="172"/>
+      <c r="R4" s="178"/>
       <c r="S4" s="177"/>
-      <c r="T4" s="178"/>
-      <c r="U4" s="179"/>
+      <c r="T4" s="172"/>
+      <c r="U4" s="178"/>
       <c r="V4" s="164"/>
       <c r="W4" s="177"/>
-      <c r="X4" s="179"/>
+      <c r="X4" s="178"/>
       <c r="Y4" s="164"/>
       <c r="Z4" s="164"/>
       <c r="AB4" s="164"/>
@@ -6438,26 +6439,26 @@
       <c r="B5" s="164"/>
       <c r="C5" s="164"/>
       <c r="D5" s="177"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="179"/>
+      <c r="E5" s="172"/>
+      <c r="F5" s="178"/>
       <c r="G5" s="164"/>
       <c r="H5" s="177"/>
       <c r="I5" s="164"/>
       <c r="J5" s="177"/>
-      <c r="K5" s="178"/>
-      <c r="L5" s="179"/>
+      <c r="K5" s="172"/>
+      <c r="L5" s="178"/>
       <c r="M5" s="177"/>
-      <c r="N5" s="178"/>
-      <c r="O5" s="179"/>
+      <c r="N5" s="172"/>
+      <c r="O5" s="178"/>
       <c r="P5" s="177"/>
-      <c r="Q5" s="178"/>
-      <c r="R5" s="179"/>
+      <c r="Q5" s="172"/>
+      <c r="R5" s="178"/>
       <c r="S5" s="177"/>
-      <c r="T5" s="178"/>
-      <c r="U5" s="179"/>
+      <c r="T5" s="172"/>
+      <c r="U5" s="178"/>
       <c r="V5" s="164"/>
       <c r="W5" s="177"/>
-      <c r="X5" s="179"/>
+      <c r="X5" s="178"/>
       <c r="Y5" s="164"/>
       <c r="Z5" s="164"/>
       <c r="AB5" s="164"/>
@@ -6470,26 +6471,26 @@
       <c r="B6" s="164"/>
       <c r="C6" s="164"/>
       <c r="D6" s="177"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="179"/>
+      <c r="E6" s="172"/>
+      <c r="F6" s="178"/>
       <c r="G6" s="164"/>
       <c r="H6" s="177"/>
       <c r="I6" s="164"/>
-      <c r="J6" s="180"/>
+      <c r="J6" s="179"/>
       <c r="K6" s="169"/>
-      <c r="L6" s="181"/>
-      <c r="M6" s="180"/>
+      <c r="L6" s="180"/>
+      <c r="M6" s="179"/>
       <c r="N6" s="169"/>
-      <c r="O6" s="181"/>
+      <c r="O6" s="180"/>
       <c r="P6" s="177"/>
-      <c r="Q6" s="178"/>
-      <c r="R6" s="179"/>
-      <c r="S6" s="180"/>
+      <c r="Q6" s="172"/>
+      <c r="R6" s="178"/>
+      <c r="S6" s="179"/>
       <c r="T6" s="169"/>
-      <c r="U6" s="181"/>
+      <c r="U6" s="180"/>
       <c r="V6" s="164"/>
       <c r="W6" s="177"/>
-      <c r="X6" s="179"/>
+      <c r="X6" s="178"/>
       <c r="Y6" s="164"/>
       <c r="Z6" s="164"/>
       <c r="AB6" s="164"/>
@@ -6502,32 +6503,32 @@
       <c r="B7" s="165"/>
       <c r="C7" s="165"/>
       <c r="D7" s="177"/>
-      <c r="E7" s="178"/>
-      <c r="F7" s="179"/>
+      <c r="E7" s="172"/>
+      <c r="F7" s="178"/>
       <c r="G7" s="165"/>
-      <c r="H7" s="180"/>
+      <c r="H7" s="179"/>
       <c r="I7" s="165"/>
-      <c r="J7" s="171" t="s">
+      <c r="J7" s="186" t="s">
         <v>147</v>
       </c>
-      <c r="K7" s="172"/>
-      <c r="L7" s="173"/>
-      <c r="M7" s="171" t="s">
+      <c r="K7" s="174"/>
+      <c r="L7" s="175"/>
+      <c r="M7" s="186" t="s">
         <v>148</v>
       </c>
-      <c r="N7" s="172"/>
-      <c r="O7" s="173"/>
-      <c r="P7" s="180"/>
+      <c r="N7" s="174"/>
+      <c r="O7" s="175"/>
+      <c r="P7" s="179"/>
       <c r="Q7" s="169"/>
-      <c r="R7" s="181"/>
-      <c r="S7" s="171" t="s">
+      <c r="R7" s="180"/>
+      <c r="S7" s="186" t="s">
         <v>149</v>
       </c>
-      <c r="T7" s="172"/>
-      <c r="U7" s="173"/>
+      <c r="T7" s="174"/>
+      <c r="U7" s="175"/>
       <c r="V7" s="165"/>
-      <c r="W7" s="180"/>
-      <c r="X7" s="181"/>
+      <c r="W7" s="179"/>
+      <c r="X7" s="180"/>
       <c r="Y7" s="165"/>
       <c r="Z7" s="165"/>
       <c r="AB7" s="165"/>
@@ -15205,6 +15206,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="I2:I7"/>
+    <mergeCell ref="J2:Y2"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="V3:V7"/>
+    <mergeCell ref="Z2:Z7"/>
+    <mergeCell ref="AB2:AB7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="J3:L6"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="AD2:AD7"/>
     <mergeCell ref="C2:C7"/>
@@ -15221,16 +15232,6 @@
     <mergeCell ref="Y3:Y7"/>
     <mergeCell ref="S3:U6"/>
     <mergeCell ref="P3:R7"/>
-    <mergeCell ref="Z2:Z7"/>
-    <mergeCell ref="AB2:AB7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="J3:L6"/>
-    <mergeCell ref="G2:G7"/>
-    <mergeCell ref="I2:I7"/>
-    <mergeCell ref="J2:Y2"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="V3:V7"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:I1048576">
     <cfRule type="expression" dxfId="28" priority="41">
@@ -15379,11 +15380,11 @@
   </sheetPr>
   <dimension ref="A1:FUC476"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AE13" sqref="AE13"/>
       <selection pane="bottomLeft" activeCell="AE13" sqref="AE13"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="12.75"/>
@@ -20716,9 +20717,9 @@
       <c r="D4" s="189" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="175"/>
-      <c r="F4" s="175"/>
-      <c r="G4" s="175"/>
+      <c r="E4" s="182"/>
+      <c r="F4" s="182"/>
+      <c r="G4" s="182"/>
       <c r="H4" s="124">
         <v>1</v>
       </c>
@@ -25640,7 +25641,7 @@
       <c r="A5" s="33"/>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
-      <c r="D5" s="180"/>
+      <c r="D5" s="179"/>
       <c r="E5" s="169"/>
       <c r="F5" s="169"/>
       <c r="G5" s="169"/>
@@ -37863,75 +37864,75 @@
       <c r="D3" s="46"/>
       <c r="E3" s="51"/>
       <c r="F3" s="72"/>
-      <c r="G3" s="194" t="s">
+      <c r="G3" s="190" t="s">
         <v>244</v>
       </c>
-      <c r="H3" s="172"/>
-      <c r="I3" s="172"/>
-      <c r="J3" s="172"/>
-      <c r="K3" s="172"/>
-      <c r="L3" s="172"/>
-      <c r="M3" s="172"/>
-      <c r="N3" s="172"/>
-      <c r="O3" s="173"/>
-      <c r="P3" s="192" t="s">
+      <c r="H3" s="174"/>
+      <c r="I3" s="174"/>
+      <c r="J3" s="174"/>
+      <c r="K3" s="174"/>
+      <c r="L3" s="174"/>
+      <c r="M3" s="174"/>
+      <c r="N3" s="174"/>
+      <c r="O3" s="175"/>
+      <c r="P3" s="191" t="s">
         <v>245</v>
       </c>
-      <c r="Q3" s="172"/>
-      <c r="R3" s="172"/>
-      <c r="S3" s="172"/>
-      <c r="T3" s="172"/>
-      <c r="U3" s="172"/>
-      <c r="V3" s="172"/>
-      <c r="W3" s="173"/>
-      <c r="X3" s="192" t="s">
+      <c r="Q3" s="174"/>
+      <c r="R3" s="174"/>
+      <c r="S3" s="174"/>
+      <c r="T3" s="174"/>
+      <c r="U3" s="174"/>
+      <c r="V3" s="174"/>
+      <c r="W3" s="175"/>
+      <c r="X3" s="191" t="s">
         <v>246</v>
       </c>
-      <c r="Y3" s="172"/>
-      <c r="Z3" s="173"/>
-      <c r="AA3" s="191" t="s">
+      <c r="Y3" s="174"/>
+      <c r="Z3" s="175"/>
+      <c r="AA3" s="193" t="s">
         <v>247</v>
       </c>
-      <c r="AB3" s="172"/>
-      <c r="AC3" s="193" t="s">
+      <c r="AB3" s="174"/>
+      <c r="AC3" s="194" t="s">
         <v>248</v>
       </c>
-      <c r="AD3" s="175"/>
+      <c r="AD3" s="182"/>
       <c r="AE3" s="176"/>
       <c r="AF3" s="135" t="s">
         <v>249</v>
       </c>
-      <c r="AG3" s="192" t="s">
+      <c r="AG3" s="191" t="s">
         <v>250</v>
       </c>
-      <c r="AH3" s="172"/>
-      <c r="AI3" s="172"/>
-      <c r="AJ3" s="172"/>
-      <c r="AK3" s="172"/>
-      <c r="AL3" s="172"/>
-      <c r="AM3" s="172"/>
-      <c r="AN3" s="173"/>
-      <c r="AO3" s="190" t="s">
+      <c r="AH3" s="174"/>
+      <c r="AI3" s="174"/>
+      <c r="AJ3" s="174"/>
+      <c r="AK3" s="174"/>
+      <c r="AL3" s="174"/>
+      <c r="AM3" s="174"/>
+      <c r="AN3" s="175"/>
+      <c r="AO3" s="192" t="s">
         <v>251</v>
       </c>
-      <c r="AP3" s="172"/>
-      <c r="AQ3" s="172"/>
-      <c r="AR3" s="172"/>
-      <c r="AS3" s="172"/>
-      <c r="AT3" s="172"/>
-      <c r="AU3" s="172"/>
-      <c r="AV3" s="190" t="s">
+      <c r="AP3" s="174"/>
+      <c r="AQ3" s="174"/>
+      <c r="AR3" s="174"/>
+      <c r="AS3" s="174"/>
+      <c r="AT3" s="174"/>
+      <c r="AU3" s="174"/>
+      <c r="AV3" s="192" t="s">
         <v>252</v>
       </c>
-      <c r="AW3" s="172"/>
-      <c r="AX3" s="172"/>
-      <c r="AY3" s="172"/>
-      <c r="AZ3" s="172"/>
-      <c r="BA3" s="192" t="s">
+      <c r="AW3" s="174"/>
+      <c r="AX3" s="174"/>
+      <c r="AY3" s="174"/>
+      <c r="AZ3" s="174"/>
+      <c r="BA3" s="191" t="s">
         <v>253</v>
       </c>
-      <c r="BB3" s="172"/>
-      <c r="BC3" s="173"/>
+      <c r="BB3" s="174"/>
+      <c r="BC3" s="175"/>
     </row>
     <row r="4" spans="1:55" ht="111" customHeight="1">
       <c r="A4" s="42" t="s">

--- a/pyMaster_loads_tool.xlsx
+++ b/pyMaster_loads_tool.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://atlec-my.sharepoint.com/personal/mwo_woodthilsted_com/Documents/Professional/5_PYTHON/pyMasterLoadsTool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_63C044A934FA1E3C64BD361040959C1020566A08" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B21B98A5-3CC4-44E5-92B7-26C9749CD1C3}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="11_63C044A934FA1E3C64BD361040959C1020566A08" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A07F426-7C1D-4FDB-ACA3-9557897569C5}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-1590" windowWidth="38640" windowHeight="21120" tabRatio="858" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-1590" windowWidth="38640" windowHeight="21120" tabRatio="858" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Load case definition" sheetId="1" r:id="rId1"/>
     <sheet name="Load definition" sheetId="2" r:id="rId2"/>
     <sheet name="Load combination" sheetId="3" r:id="rId3"/>
-    <sheet name="Screen capture" sheetId="4" r:id="rId4"/>
-    <sheet name="LaTeX code" sheetId="5" state="hidden" r:id="rId5"/>
-    <sheet name="LaTeX load combs apndx" sheetId="6" state="hidden" r:id="rId6"/>
+    <sheet name="Contour load data" sheetId="7" r:id="rId4"/>
+    <sheet name="Screen capture" sheetId="4" r:id="rId5"/>
+    <sheet name="LaTeX code" sheetId="5" state="hidden" r:id="rId6"/>
+    <sheet name="LaTeX load combs apndx" sheetId="6" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="BargePhoto">INDIRECT(#REF!)</definedName>
@@ -63,6 +64,7 @@
           <rPr>
             <sz val="10"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Toggle for non-linear solver parameters. If 1-true, the column to the right is enabled.</t>
         </r>
@@ -74,6 +76,7 @@
           <rPr>
             <sz val="10"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>1 = Static linear
 2 = Static non-linear
@@ -89,6 +92,7 @@
           <rPr>
             <sz val="10"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Toggle 1-True/0-False, for K-matrix update for every iteration of the non-linear solver. This has to be applied if tension only members are use or if up-lift supports are used.</t>
         </r>
@@ -100,6 +104,7 @@
           <rPr>
             <sz val="10"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Toggle for P-delta effects. This has to be true if the critical buckling coefficient is less than 10 and above 3.</t>
         </r>
@@ -121,6 +126,7 @@
           <rPr>
             <sz val="10"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Toggle for non-linear solver parameters. If true, the column to the right is enabled.</t>
         </r>
@@ -132,6 +138,7 @@
           <rPr>
             <sz val="10"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Kasper Bech Skiveren:
 0 = Static linear combination
@@ -148,6 +155,7 @@
           <rPr>
             <sz val="10"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Toggle True/False, for K-matrix update for every iteration of the non-linear solver. This has to be applied if tension only members are use or if up-lift supports are used.</t>
         </r>
@@ -159,6 +167,7 @@
           <rPr>
             <sz val="10"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Toggle for P-delta effects. This has to be true if the critical buckling coefficient is less than 10 and above 3.</t>
         </r>
@@ -180,6 +189,7 @@
           <rPr>
             <sz val="10"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Marcin Woliński:
 0 - automatic
@@ -195,7 +205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="423">
   <si>
     <t>Basic case no.</t>
   </si>
@@ -628,9 +638,6 @@
   </si>
   <si>
     <t>AL                 BE                GA</t>
-  </si>
-  <si>
-    <t>X                 DY                DZ</t>
   </si>
   <si>
     <t>Generate calc node</t>
@@ -1461,6 +1468,22 @@
   <si>
     <t>Solver input solver number</t>
   </si>
+  <si>
+    <t>Node</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>X                 DY                DZ
+PX3             PY3               PZ3</t>
+  </si>
+  <si>
+    <t>Auto detect</t>
+  </si>
 </sst>
 </file>
 
@@ -1948,7 +1971,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2379,24 +2402,33 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2405,15 +2437,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2431,6 +2454,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2978,7 +3010,7 @@
   </sheetPr>
   <dimension ref="A1:N177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -3024,7 +3056,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="163" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G2" s="163" t="s">
         <v>7</v>
@@ -6229,12 +6261,12 @@
   <sheetPr codeName="Loadcases">
     <tabColor rgb="FFFFE699"/>
   </sheetPr>
-  <dimension ref="A1:AJ177"/>
+  <dimension ref="A1:AK177"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AE13" sqref="AE13"/>
-      <selection pane="bottomLeft" activeCell="H42" sqref="H42"/>
+      <selection pane="bottomLeft" activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -6242,29 +6274,29 @@
     <col min="1" max="1" width="13.42578125" style="158" customWidth="1"/>
     <col min="2" max="2" width="38.28515625" style="161" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" style="19" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="19" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="19" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="19" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="19" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="19" customWidth="1"/>
     <col min="7" max="7" width="44.28515625" style="19" customWidth="1"/>
     <col min="8" max="8" width="19" style="19" customWidth="1"/>
     <col min="9" max="9" width="44.7109375" style="145" customWidth="1"/>
     <col min="10" max="22" width="12.42578125" style="19" customWidth="1"/>
     <col min="23" max="23" width="10.42578125" style="19" customWidth="1"/>
     <col min="24" max="24" width="12.42578125" style="19" customWidth="1"/>
-    <col min="25" max="25" width="8.5703125" style="19" customWidth="1"/>
-    <col min="26" max="26" width="26.28515625" style="19" customWidth="1"/>
-    <col min="27" max="27" width="8.5703125" style="19" customWidth="1"/>
-    <col min="28" max="28" width="16.7109375" style="19" customWidth="1"/>
-    <col min="29" max="29" width="11.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12" style="19" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="28.28515625" style="19" customWidth="1"/>
-    <col min="32" max="32" width="8.7109375" style="19" customWidth="1"/>
-    <col min="33" max="36" width="8.7109375" customWidth="1"/>
-    <col min="37" max="42" width="8.7109375" style="19" customWidth="1"/>
-    <col min="43" max="16384" width="8.7109375" style="19"/>
+    <col min="25" max="26" width="8.5703125" style="19" customWidth="1"/>
+    <col min="27" max="27" width="26.28515625" style="19" customWidth="1"/>
+    <col min="28" max="28" width="8.5703125" style="19" customWidth="1"/>
+    <col min="29" max="29" width="16.7109375" style="19" customWidth="1"/>
+    <col min="30" max="30" width="11.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12" style="19" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="28.28515625" style="19" customWidth="1"/>
+    <col min="33" max="33" width="8.7109375" style="19" customWidth="1"/>
+    <col min="34" max="37" width="8.7109375" customWidth="1"/>
+    <col min="38" max="43" width="8.7109375" style="19" customWidth="1"/>
+    <col min="44" max="16384" width="8.7109375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="23.1" customHeight="1">
+    <row r="1" spans="1:32" ht="23.1" customHeight="1">
       <c r="A1" s="153" t="s">
         <v>130</v>
       </c>
@@ -6293,14 +6325,15 @@
       <c r="X1" s="17"/>
       <c r="Y1" s="17"/>
       <c r="Z1" s="17"/>
-      <c r="AB1" s="173" t="s">
+      <c r="AA1" s="17"/>
+      <c r="AC1" s="184" t="s">
         <v>131</v>
       </c>
-      <c r="AC1" s="174"/>
-      <c r="AD1" s="174"/>
-      <c r="AE1" s="175"/>
-    </row>
-    <row r="2" spans="1:31" ht="12.4" customHeight="1">
+      <c r="AD1" s="173"/>
+      <c r="AE1" s="173"/>
+      <c r="AF1" s="174"/>
+    </row>
+    <row r="2" spans="1:32" ht="12.4" customHeight="1">
       <c r="A2" s="166" t="s">
         <v>0</v>
       </c>
@@ -6310,233 +6343,241 @@
       <c r="C2" s="167" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="183"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="184"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="187"/>
       <c r="G2" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="185" t="s">
+      <c r="H2" s="188" t="s">
         <v>132</v>
       </c>
-      <c r="I2" s="188" t="s">
+      <c r="I2" s="171" t="s">
         <v>133</v>
       </c>
-      <c r="J2" s="186" t="s">
+      <c r="J2" s="195" t="s">
         <v>134</v>
       </c>
-      <c r="K2" s="174"/>
-      <c r="L2" s="174"/>
-      <c r="M2" s="174"/>
-      <c r="N2" s="174"/>
-      <c r="O2" s="174"/>
-      <c r="P2" s="174"/>
-      <c r="Q2" s="174"/>
-      <c r="R2" s="174"/>
-      <c r="S2" s="174"/>
-      <c r="T2" s="174"/>
-      <c r="U2" s="174"/>
-      <c r="V2" s="174"/>
-      <c r="W2" s="174"/>
-      <c r="X2" s="174"/>
-      <c r="Y2" s="175"/>
-      <c r="Z2" s="163" t="s">
+      <c r="K2" s="196"/>
+      <c r="L2" s="196"/>
+      <c r="M2" s="196"/>
+      <c r="N2" s="196"/>
+      <c r="O2" s="196"/>
+      <c r="P2" s="196"/>
+      <c r="Q2" s="196"/>
+      <c r="R2" s="196"/>
+      <c r="S2" s="196"/>
+      <c r="T2" s="196"/>
+      <c r="U2" s="196"/>
+      <c r="V2" s="196"/>
+      <c r="W2" s="196"/>
+      <c r="X2" s="196"/>
+      <c r="Y2" s="196"/>
+      <c r="Z2" s="197"/>
+      <c r="AA2" s="163" t="s">
         <v>135</v>
       </c>
-      <c r="AB2" s="167" t="s">
+      <c r="AC2" s="167" t="s">
         <v>136</v>
       </c>
-      <c r="AC2" s="167" t="s">
+      <c r="AD2" s="167" t="s">
         <v>137</v>
       </c>
-      <c r="AD2" s="167" t="s">
+      <c r="AE2" s="167" t="s">
         <v>138</v>
       </c>
-      <c r="AE2" s="167" t="s">
+      <c r="AF2" s="167" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="12.6" customHeight="1">
+    <row r="3" spans="1:32" ht="12.6" customHeight="1">
       <c r="A3" s="164"/>
       <c r="B3" s="164"/>
       <c r="C3" s="164"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="172"/>
-      <c r="F3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="179"/>
+      <c r="F3" s="180"/>
       <c r="G3" s="164"/>
-      <c r="H3" s="177"/>
+      <c r="H3" s="178"/>
       <c r="I3" s="164"/>
-      <c r="J3" s="187" t="s">
+      <c r="J3" s="175" t="s">
         <v>140</v>
       </c>
-      <c r="K3" s="182"/>
-      <c r="L3" s="176"/>
-      <c r="M3" s="181" t="s">
+      <c r="K3" s="176"/>
+      <c r="L3" s="177"/>
+      <c r="M3" s="185" t="s">
         <v>141</v>
       </c>
-      <c r="N3" s="182"/>
-      <c r="O3" s="176"/>
+      <c r="N3" s="176"/>
+      <c r="O3" s="177"/>
       <c r="P3" s="167" t="s">
         <v>142</v>
       </c>
-      <c r="Q3" s="182"/>
-      <c r="R3" s="176"/>
-      <c r="S3" s="167" t="s">
+      <c r="Q3" s="176"/>
+      <c r="R3" s="177"/>
+      <c r="S3" s="163" t="s">
+        <v>421</v>
+      </c>
+      <c r="T3" s="176"/>
+      <c r="U3" s="177"/>
+      <c r="V3" s="163" t="s">
         <v>143</v>
       </c>
-      <c r="T3" s="182"/>
-      <c r="U3" s="176"/>
-      <c r="V3" s="163" t="s">
+      <c r="W3" s="163" t="s">
         <v>144</v>
       </c>
-      <c r="W3" s="163" t="s">
+      <c r="X3" s="177"/>
+      <c r="Y3" s="163" t="s">
         <v>145</v>
       </c>
-      <c r="X3" s="176"/>
-      <c r="Y3" s="163" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z3" s="164"/>
-      <c r="AB3" s="164"/>
+      <c r="Z3" s="163" t="s">
+        <v>422</v>
+      </c>
+      <c r="AA3" s="164"/>
       <c r="AC3" s="164"/>
       <c r="AD3" s="164"/>
       <c r="AE3" s="164"/>
-    </row>
-    <row r="4" spans="1:31" ht="12.6" customHeight="1">
+      <c r="AF3" s="164"/>
+    </row>
+    <row r="4" spans="1:32" ht="12.6" customHeight="1">
       <c r="A4" s="164"/>
       <c r="B4" s="164"/>
       <c r="C4" s="164"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="172"/>
-      <c r="F4" s="178"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="180"/>
       <c r="G4" s="164"/>
-      <c r="H4" s="177"/>
+      <c r="H4" s="178"/>
       <c r="I4" s="164"/>
-      <c r="J4" s="177"/>
-      <c r="K4" s="172"/>
-      <c r="L4" s="178"/>
-      <c r="M4" s="177"/>
-      <c r="N4" s="172"/>
-      <c r="O4" s="178"/>
-      <c r="P4" s="177"/>
-      <c r="Q4" s="172"/>
-      <c r="R4" s="178"/>
-      <c r="S4" s="177"/>
-      <c r="T4" s="172"/>
-      <c r="U4" s="178"/>
+      <c r="J4" s="178"/>
+      <c r="K4" s="179"/>
+      <c r="L4" s="180"/>
+      <c r="M4" s="178"/>
+      <c r="N4" s="179"/>
+      <c r="O4" s="180"/>
+      <c r="P4" s="178"/>
+      <c r="Q4" s="179"/>
+      <c r="R4" s="180"/>
+      <c r="S4" s="178"/>
+      <c r="T4" s="179"/>
+      <c r="U4" s="180"/>
       <c r="V4" s="164"/>
-      <c r="W4" s="177"/>
-      <c r="X4" s="178"/>
+      <c r="W4" s="178"/>
+      <c r="X4" s="180"/>
       <c r="Y4" s="164"/>
       <c r="Z4" s="164"/>
-      <c r="AB4" s="164"/>
+      <c r="AA4" s="164"/>
       <c r="AC4" s="164"/>
       <c r="AD4" s="164"/>
       <c r="AE4" s="164"/>
-    </row>
-    <row r="5" spans="1:31" ht="25.15" customHeight="1">
+      <c r="AF4" s="164"/>
+    </row>
+    <row r="5" spans="1:32" ht="25.15" customHeight="1">
       <c r="A5" s="164"/>
       <c r="B5" s="164"/>
       <c r="C5" s="164"/>
-      <c r="D5" s="177"/>
-      <c r="E5" s="172"/>
-      <c r="F5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="179"/>
+      <c r="F5" s="180"/>
       <c r="G5" s="164"/>
-      <c r="H5" s="177"/>
+      <c r="H5" s="178"/>
       <c r="I5" s="164"/>
-      <c r="J5" s="177"/>
-      <c r="K5" s="172"/>
-      <c r="L5" s="178"/>
-      <c r="M5" s="177"/>
-      <c r="N5" s="172"/>
-      <c r="O5" s="178"/>
-      <c r="P5" s="177"/>
-      <c r="Q5" s="172"/>
-      <c r="R5" s="178"/>
-      <c r="S5" s="177"/>
-      <c r="T5" s="172"/>
-      <c r="U5" s="178"/>
+      <c r="J5" s="178"/>
+      <c r="K5" s="179"/>
+      <c r="L5" s="180"/>
+      <c r="M5" s="178"/>
+      <c r="N5" s="179"/>
+      <c r="O5" s="180"/>
+      <c r="P5" s="178"/>
+      <c r="Q5" s="179"/>
+      <c r="R5" s="180"/>
+      <c r="S5" s="178"/>
+      <c r="T5" s="179"/>
+      <c r="U5" s="180"/>
       <c r="V5" s="164"/>
-      <c r="W5" s="177"/>
-      <c r="X5" s="178"/>
+      <c r="W5" s="178"/>
+      <c r="X5" s="180"/>
       <c r="Y5" s="164"/>
       <c r="Z5" s="164"/>
-      <c r="AB5" s="164"/>
+      <c r="AA5" s="164"/>
       <c r="AC5" s="164"/>
       <c r="AD5" s="164"/>
       <c r="AE5" s="164"/>
-    </row>
-    <row r="6" spans="1:31" ht="12.6" customHeight="1">
+      <c r="AF5" s="164"/>
+    </row>
+    <row r="6" spans="1:32" ht="12.6" customHeight="1">
       <c r="A6" s="164"/>
       <c r="B6" s="164"/>
       <c r="C6" s="164"/>
-      <c r="D6" s="177"/>
-      <c r="E6" s="172"/>
-      <c r="F6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="179"/>
+      <c r="F6" s="180"/>
       <c r="G6" s="164"/>
-      <c r="H6" s="177"/>
+      <c r="H6" s="178"/>
       <c r="I6" s="164"/>
-      <c r="J6" s="179"/>
+      <c r="J6" s="181"/>
       <c r="K6" s="169"/>
-      <c r="L6" s="180"/>
-      <c r="M6" s="179"/>
+      <c r="L6" s="182"/>
+      <c r="M6" s="181"/>
       <c r="N6" s="169"/>
-      <c r="O6" s="180"/>
-      <c r="P6" s="177"/>
-      <c r="Q6" s="172"/>
-      <c r="R6" s="178"/>
-      <c r="S6" s="179"/>
+      <c r="O6" s="182"/>
+      <c r="P6" s="178"/>
+      <c r="Q6" s="179"/>
+      <c r="R6" s="180"/>
+      <c r="S6" s="181"/>
       <c r="T6" s="169"/>
-      <c r="U6" s="180"/>
+      <c r="U6" s="182"/>
       <c r="V6" s="164"/>
-      <c r="W6" s="177"/>
-      <c r="X6" s="178"/>
+      <c r="W6" s="178"/>
+      <c r="X6" s="180"/>
       <c r="Y6" s="164"/>
       <c r="Z6" s="164"/>
-      <c r="AB6" s="164"/>
+      <c r="AA6" s="164"/>
       <c r="AC6" s="164"/>
       <c r="AD6" s="164"/>
       <c r="AE6" s="164"/>
-    </row>
-    <row r="7" spans="1:31">
+      <c r="AF6" s="164"/>
+    </row>
+    <row r="7" spans="1:32">
       <c r="A7" s="165"/>
       <c r="B7" s="165"/>
       <c r="C7" s="165"/>
-      <c r="D7" s="177"/>
-      <c r="E7" s="172"/>
-      <c r="F7" s="178"/>
+      <c r="D7" s="178"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="180"/>
       <c r="G7" s="165"/>
-      <c r="H7" s="179"/>
+      <c r="H7" s="181"/>
       <c r="I7" s="165"/>
-      <c r="J7" s="186" t="s">
+      <c r="J7" s="172" t="s">
+        <v>146</v>
+      </c>
+      <c r="K7" s="173"/>
+      <c r="L7" s="174"/>
+      <c r="M7" s="172" t="s">
         <v>147</v>
       </c>
-      <c r="K7" s="174"/>
-      <c r="L7" s="175"/>
-      <c r="M7" s="186" t="s">
+      <c r="N7" s="173"/>
+      <c r="O7" s="174"/>
+      <c r="P7" s="181"/>
+      <c r="Q7" s="169"/>
+      <c r="R7" s="182"/>
+      <c r="S7" s="172" t="s">
         <v>148</v>
       </c>
-      <c r="N7" s="174"/>
-      <c r="O7" s="175"/>
-      <c r="P7" s="179"/>
-      <c r="Q7" s="169"/>
-      <c r="R7" s="180"/>
-      <c r="S7" s="186" t="s">
-        <v>149</v>
-      </c>
-      <c r="T7" s="174"/>
-      <c r="U7" s="175"/>
+      <c r="T7" s="173"/>
+      <c r="U7" s="174"/>
       <c r="V7" s="165"/>
-      <c r="W7" s="179"/>
-      <c r="X7" s="180"/>
+      <c r="W7" s="181"/>
+      <c r="X7" s="182"/>
       <c r="Y7" s="165"/>
       <c r="Z7" s="165"/>
-      <c r="AB7" s="165"/>
+      <c r="AA7" s="165"/>
       <c r="AC7" s="165"/>
       <c r="AD7" s="165"/>
       <c r="AE7" s="165"/>
-    </row>
-    <row r="8" spans="1:31">
+      <c r="AF7" s="165"/>
+    </row>
+    <row r="8" spans="1:32">
       <c r="A8" s="154">
         <v>1</v>
       </c>
@@ -6549,7 +6590,7 @@
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="95" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F8" s="17"/>
       <c r="G8" s="20" t="str">
@@ -6557,7 +6598,7 @@
         <v>1:Selfweight</v>
       </c>
       <c r="H8" s="109" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I8" s="142">
         <v>1</v>
@@ -6578,15 +6619,16 @@
       <c r="W8" s="115"/>
       <c r="X8" s="116"/>
       <c r="Y8" s="17"/>
-      <c r="Z8" s="61"/>
-      <c r="AB8" s="99"/>
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="61"/>
       <c r="AC8" s="99"/>
       <c r="AD8" s="99"/>
-      <c r="AE8" s="99" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31">
+      <c r="AE8" s="99"/>
+      <c r="AF8" s="99" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32">
       <c r="A9" s="155">
         <v>100</v>
       </c>
@@ -6599,7 +6641,7 @@
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="95" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="21" t="str">
@@ -6607,10 +6649,10 @@
         <v>100:Cable dead load</v>
       </c>
       <c r="H9" s="67" t="s">
+        <v>152</v>
+      </c>
+      <c r="I9" s="142" t="s">
         <v>153</v>
-      </c>
-      <c r="I9" s="142" t="s">
-        <v>154</v>
       </c>
       <c r="J9" s="117">
         <v>0</v>
@@ -6632,21 +6674,22 @@
       <c r="U9" s="110"/>
       <c r="V9" s="120"/>
       <c r="W9" s="121" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X9" s="112"/>
       <c r="Y9" s="17">
         <v>0</v>
       </c>
-      <c r="Z9" s="62"/>
-      <c r="AB9" s="66"/>
-      <c r="AC9" s="100"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="62"/>
+      <c r="AC9" s="66"/>
       <c r="AD9" s="100"/>
-      <c r="AE9" s="100" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31">
+      <c r="AE9" s="100"/>
+      <c r="AF9" s="100" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32">
       <c r="A10" s="155">
         <v>101</v>
       </c>
@@ -6665,10 +6708,10 @@
         <v>101:Anode pallets</v>
       </c>
       <c r="H10" s="67" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I10" s="142" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J10" s="117">
         <v>0</v>
@@ -6690,21 +6733,22 @@
       <c r="U10" s="110"/>
       <c r="V10" s="120"/>
       <c r="W10" s="121" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X10" s="112"/>
       <c r="Y10" s="17">
         <v>0</v>
       </c>
-      <c r="Z10" s="62"/>
-      <c r="AB10" s="66"/>
-      <c r="AC10" s="100"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="62"/>
+      <c r="AC10" s="66"/>
       <c r="AD10" s="100"/>
-      <c r="AE10" s="100" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31">
+      <c r="AE10" s="100"/>
+      <c r="AF10" s="100" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32">
       <c r="A11" s="155">
         <v>102</v>
       </c>
@@ -6717,7 +6761,7 @@
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="95" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="21" t="str">
@@ -6725,10 +6769,10 @@
         <v>102:Deployed anodes</v>
       </c>
       <c r="H11" s="67" t="s">
+        <v>156</v>
+      </c>
+      <c r="I11" s="142" t="s">
         <v>157</v>
-      </c>
-      <c r="I11" s="142" t="s">
-        <v>158</v>
       </c>
       <c r="J11" s="117">
         <v>0</v>
@@ -6764,15 +6808,16 @@
       <c r="W11" s="121"/>
       <c r="X11" s="112"/>
       <c r="Y11" s="17"/>
-      <c r="Z11" s="63"/>
-      <c r="AB11" s="100"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="63"/>
       <c r="AC11" s="100"/>
       <c r="AD11" s="100"/>
-      <c r="AE11" s="100" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31">
+      <c r="AE11" s="100"/>
+      <c r="AF11" s="100" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32">
       <c r="A12" s="155">
         <v>104</v>
       </c>
@@ -6785,7 +6830,7 @@
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="95" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="21" t="str">
@@ -6793,10 +6838,10 @@
         <v>104:HV cable support structure</v>
       </c>
       <c r="H12" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I12" s="143" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J12" s="117">
         <v>0</v>
@@ -6832,13 +6877,14 @@
       <c r="W12" s="121"/>
       <c r="X12" s="112"/>
       <c r="Y12" s="17"/>
-      <c r="Z12" s="63"/>
-      <c r="AB12" s="100"/>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="63"/>
       <c r="AC12" s="100"/>
       <c r="AD12" s="100"/>
       <c r="AE12" s="100"/>
-    </row>
-    <row r="13" spans="1:31">
+      <c r="AF12" s="100"/>
+    </row>
+    <row r="13" spans="1:32">
       <c r="A13" s="155">
         <v>200</v>
       </c>
@@ -6851,7 +6897,7 @@
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="95" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="21" t="str">
@@ -6859,10 +6905,10 @@
         <v>200:Distributed live load A</v>
       </c>
       <c r="H13" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I13" s="143" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J13" s="117">
         <v>0</v>
@@ -6884,19 +6930,20 @@
       <c r="U13" s="96"/>
       <c r="V13" s="100"/>
       <c r="W13" s="121" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X13" s="112"/>
       <c r="Y13" s="17">
         <v>0</v>
       </c>
-      <c r="Z13" s="63"/>
-      <c r="AB13" s="100"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="63"/>
       <c r="AC13" s="100"/>
       <c r="AD13" s="100"/>
       <c r="AE13" s="100"/>
-    </row>
-    <row r="14" spans="1:31">
+      <c r="AF13" s="100"/>
+    </row>
+    <row r="14" spans="1:32">
       <c r="A14" s="150">
         <v>201</v>
       </c>
@@ -6909,7 +6956,7 @@
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="95" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="21" t="str">
@@ -6917,10 +6964,10 @@
         <v>201:Distributed live load B</v>
       </c>
       <c r="H14" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I14" s="142" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J14" s="117">
         <v>0</v>
@@ -6942,19 +6989,20 @@
       <c r="U14" s="96"/>
       <c r="V14" s="100"/>
       <c r="W14" s="121" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X14" s="112"/>
       <c r="Y14" s="17">
         <v>0</v>
       </c>
-      <c r="Z14" s="63"/>
-      <c r="AB14" s="100"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="63"/>
       <c r="AC14" s="100"/>
       <c r="AD14" s="100"/>
       <c r="AE14" s="100"/>
-    </row>
-    <row r="15" spans="1:31">
+      <c r="AF14" s="100"/>
+    </row>
+    <row r="15" spans="1:32">
       <c r="A15" s="150">
         <v>202</v>
       </c>
@@ -6973,10 +7021,10 @@
         <v>202:Distributed live load A+B</v>
       </c>
       <c r="H15" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I15" s="142" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J15" s="117">
         <v>0</v>
@@ -6998,19 +7046,20 @@
       <c r="U15" s="96"/>
       <c r="V15" s="100"/>
       <c r="W15" s="121" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X15" s="112"/>
       <c r="Y15" s="17">
         <v>0</v>
       </c>
-      <c r="Z15" s="63"/>
-      <c r="AB15" s="100"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="63"/>
       <c r="AC15" s="100"/>
       <c r="AD15" s="100"/>
       <c r="AE15" s="100"/>
-    </row>
-    <row r="16" spans="1:31">
+      <c r="AF15" s="100"/>
+    </row>
+    <row r="16" spans="1:32">
       <c r="A16" s="150">
         <v>205</v>
       </c>
@@ -7029,10 +7078,10 @@
         <v>205:Live point load pos 3</v>
       </c>
       <c r="H16" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I16" s="142" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J16" s="117">
         <v>0</v>
@@ -7054,19 +7103,20 @@
       <c r="U16" s="96"/>
       <c r="V16" s="100"/>
       <c r="W16" s="121" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X16" s="112"/>
       <c r="Y16" s="17">
         <v>0</v>
       </c>
-      <c r="Z16" s="63"/>
-      <c r="AB16" s="100"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="63"/>
       <c r="AC16" s="100"/>
       <c r="AD16" s="100"/>
       <c r="AE16" s="100"/>
-    </row>
-    <row r="17" spans="1:31">
+      <c r="AF16" s="100"/>
+    </row>
+    <row r="17" spans="1:32">
       <c r="A17" s="150">
         <v>206</v>
       </c>
@@ -7079,7 +7129,7 @@
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="95" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="21" t="str">
@@ -7087,10 +7137,10 @@
         <v>206:Live point load pos 4</v>
       </c>
       <c r="H17" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I17" s="142" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J17" s="117">
         <v>0</v>
@@ -7112,19 +7162,20 @@
       <c r="U17" s="96"/>
       <c r="V17" s="100"/>
       <c r="W17" s="121" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X17" s="112"/>
       <c r="Y17" s="17">
         <v>0</v>
       </c>
-      <c r="Z17" s="63"/>
-      <c r="AB17" s="100"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="63"/>
       <c r="AC17" s="100"/>
       <c r="AD17" s="100"/>
       <c r="AE17" s="100"/>
-    </row>
-    <row r="18" spans="1:31">
+      <c r="AF17" s="100"/>
+    </row>
+    <row r="18" spans="1:32">
       <c r="A18" s="150">
         <v>220</v>
       </c>
@@ -7143,10 +7194,10 @@
         <v>220:Cable lashing point x</v>
       </c>
       <c r="H18" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I18" s="142" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J18" s="117">
         <v>20</v>
@@ -7182,13 +7233,14 @@
       <c r="W18" s="121"/>
       <c r="X18" s="112"/>
       <c r="Y18" s="17"/>
-      <c r="Z18" s="63"/>
-      <c r="AB18" s="100"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="63"/>
       <c r="AC18" s="100"/>
       <c r="AD18" s="100"/>
       <c r="AE18" s="100"/>
-    </row>
-    <row r="19" spans="1:31">
+      <c r="AF18" s="100"/>
+    </row>
+    <row r="19" spans="1:32">
       <c r="A19" s="150">
         <v>221</v>
       </c>
@@ -7207,10 +7259,10 @@
         <v>221:Cable lashing point 45-</v>
       </c>
       <c r="H19" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I19" s="142" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J19" s="117">
         <v>14.14</v>
@@ -7246,13 +7298,14 @@
       <c r="W19" s="121"/>
       <c r="X19" s="112"/>
       <c r="Y19" s="17"/>
-      <c r="Z19" s="63"/>
-      <c r="AB19" s="100"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="63"/>
       <c r="AC19" s="100"/>
       <c r="AD19" s="100"/>
       <c r="AE19" s="100"/>
-    </row>
-    <row r="20" spans="1:31">
+      <c r="AF19" s="100"/>
+    </row>
+    <row r="20" spans="1:32">
       <c r="A20" s="150">
         <v>222</v>
       </c>
@@ -7265,7 +7318,7 @@
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="95" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="21" t="str">
@@ -7273,10 +7326,10 @@
         <v>222:Cable lashing point 45+</v>
       </c>
       <c r="H20" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I20" s="142" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J20" s="117">
         <v>14.14</v>
@@ -7312,13 +7365,14 @@
       <c r="W20" s="121"/>
       <c r="X20" s="112"/>
       <c r="Y20" s="17"/>
-      <c r="Z20" s="63"/>
-      <c r="AB20" s="100"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="63"/>
       <c r="AC20" s="100"/>
       <c r="AD20" s="100"/>
       <c r="AE20" s="100"/>
-    </row>
-    <row r="21" spans="1:31">
+      <c r="AF20" s="100"/>
+    </row>
+    <row r="21" spans="1:32">
       <c r="A21" s="150">
         <v>300</v>
       </c>
@@ -7337,10 +7391,10 @@
         <v>300:Snagging load 1 x-</v>
       </c>
       <c r="H21" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I21" s="142" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J21" s="117">
         <v>-111.49</v>
@@ -7362,19 +7416,20 @@
       <c r="U21" s="96"/>
       <c r="V21" s="100"/>
       <c r="W21" s="121" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X21" s="112"/>
       <c r="Y21" s="17">
         <v>0</v>
       </c>
-      <c r="Z21" s="63"/>
-      <c r="AB21" s="100"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="63"/>
       <c r="AC21" s="100"/>
       <c r="AD21" s="100"/>
       <c r="AE21" s="100"/>
-    </row>
-    <row r="22" spans="1:31">
+      <c r="AF21" s="100"/>
+    </row>
+    <row r="22" spans="1:32">
       <c r="A22" s="150">
         <v>301</v>
       </c>
@@ -7393,10 +7448,10 @@
         <v>301:Snagging load 1 45-</v>
       </c>
       <c r="H22" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I22" s="142" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J22" s="117">
         <v>-78.84</v>
@@ -7418,19 +7473,20 @@
       <c r="U22" s="96"/>
       <c r="V22" s="100"/>
       <c r="W22" s="121" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X22" s="112"/>
       <c r="Y22" s="17">
         <v>0</v>
       </c>
-      <c r="Z22" s="63"/>
-      <c r="AB22" s="100"/>
+      <c r="Z22" s="17"/>
+      <c r="AA22" s="63"/>
       <c r="AC22" s="100"/>
       <c r="AD22" s="100"/>
       <c r="AE22" s="100"/>
-    </row>
-    <row r="23" spans="1:31">
+      <c r="AF22" s="100"/>
+    </row>
+    <row r="23" spans="1:32">
       <c r="A23" s="150">
         <v>302</v>
       </c>
@@ -7443,7 +7499,7 @@
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="95" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="21" t="str">
@@ -7451,10 +7507,10 @@
         <v>302:Snagging load 1 y+</v>
       </c>
       <c r="H23" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I23" s="142" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J23" s="117">
         <v>0</v>
@@ -7476,19 +7532,20 @@
       <c r="U23" s="96"/>
       <c r="V23" s="100"/>
       <c r="W23" s="121" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X23" s="112"/>
       <c r="Y23" s="17">
         <v>0</v>
       </c>
-      <c r="Z23" s="63"/>
-      <c r="AB23" s="100"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="63"/>
       <c r="AC23" s="100"/>
       <c r="AD23" s="100"/>
       <c r="AE23" s="100"/>
-    </row>
-    <row r="24" spans="1:31">
+      <c r="AF23" s="100"/>
+    </row>
+    <row r="24" spans="1:32">
       <c r="A24" s="150">
         <v>303</v>
       </c>
@@ -7507,10 +7564,10 @@
         <v>303:Snagging load 1 45+</v>
       </c>
       <c r="H24" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I24" s="142" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J24" s="117">
         <v>78.84</v>
@@ -7532,19 +7589,20 @@
       <c r="U24" s="96"/>
       <c r="V24" s="100"/>
       <c r="W24" s="121" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X24" s="112"/>
       <c r="Y24" s="17">
         <v>0</v>
       </c>
-      <c r="Z24" s="63"/>
-      <c r="AB24" s="100"/>
+      <c r="Z24" s="17"/>
+      <c r="AA24" s="63"/>
       <c r="AC24" s="100"/>
       <c r="AD24" s="100"/>
       <c r="AE24" s="100"/>
-    </row>
-    <row r="25" spans="1:31">
+      <c r="AF24" s="100"/>
+    </row>
+    <row r="25" spans="1:32">
       <c r="A25" s="150">
         <v>304</v>
       </c>
@@ -7563,10 +7621,10 @@
         <v>304:Snagging load 1 x+</v>
       </c>
       <c r="H25" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I25" s="142" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J25" s="117">
         <v>111.49</v>
@@ -7588,19 +7646,20 @@
       <c r="U25" s="96"/>
       <c r="V25" s="100"/>
       <c r="W25" s="121" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X25" s="112"/>
       <c r="Y25" s="17">
         <v>0</v>
       </c>
-      <c r="Z25" s="63"/>
-      <c r="AB25" s="100"/>
+      <c r="Z25" s="17"/>
+      <c r="AA25" s="63"/>
       <c r="AC25" s="100"/>
       <c r="AD25" s="100"/>
       <c r="AE25" s="100"/>
-    </row>
-    <row r="26" spans="1:31">
+      <c r="AF25" s="100"/>
+    </row>
+    <row r="26" spans="1:32">
       <c r="A26" s="150">
         <v>305</v>
       </c>
@@ -7613,7 +7672,7 @@
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="95" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F26" s="17"/>
       <c r="G26" s="21" t="str">
@@ -7621,10 +7680,10 @@
         <v>305:Snagging load 2 x-</v>
       </c>
       <c r="H26" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I26" s="142" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J26" s="117">
         <v>-111.49</v>
@@ -7646,19 +7705,20 @@
       <c r="U26" s="96"/>
       <c r="V26" s="100"/>
       <c r="W26" s="121" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X26" s="112"/>
       <c r="Y26" s="17">
         <v>0</v>
       </c>
-      <c r="Z26" s="63"/>
-      <c r="AB26" s="100"/>
+      <c r="Z26" s="17"/>
+      <c r="AA26" s="63"/>
       <c r="AC26" s="100"/>
       <c r="AD26" s="100"/>
       <c r="AE26" s="100"/>
-    </row>
-    <row r="27" spans="1:31">
+      <c r="AF26" s="100"/>
+    </row>
+    <row r="27" spans="1:32">
       <c r="A27" s="150">
         <v>306</v>
       </c>
@@ -7677,10 +7737,10 @@
         <v>306:Snagging load 2 45-</v>
       </c>
       <c r="H27" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I27" s="142" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J27" s="117">
         <v>-78.84</v>
@@ -7702,19 +7762,20 @@
       <c r="U27" s="96"/>
       <c r="V27" s="100"/>
       <c r="W27" s="121" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X27" s="112"/>
       <c r="Y27" s="17">
         <v>0</v>
       </c>
-      <c r="Z27" s="63"/>
-      <c r="AB27" s="100"/>
+      <c r="Z27" s="17"/>
+      <c r="AA27" s="63"/>
       <c r="AC27" s="100"/>
       <c r="AD27" s="100"/>
       <c r="AE27" s="100"/>
-    </row>
-    <row r="28" spans="1:31">
+      <c r="AF27" s="100"/>
+    </row>
+    <row r="28" spans="1:32">
       <c r="A28" s="150">
         <v>307</v>
       </c>
@@ -7733,10 +7794,10 @@
         <v>307:Snagging load 2 y+</v>
       </c>
       <c r="H28" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I28" s="142" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J28" s="117">
         <v>0</v>
@@ -7758,19 +7819,20 @@
       <c r="U28" s="96"/>
       <c r="V28" s="100"/>
       <c r="W28" s="121" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X28" s="112"/>
       <c r="Y28" s="17">
         <v>0</v>
       </c>
-      <c r="Z28" s="63"/>
-      <c r="AB28" s="100"/>
+      <c r="Z28" s="17"/>
+      <c r="AA28" s="63"/>
       <c r="AC28" s="100"/>
       <c r="AD28" s="100"/>
       <c r="AE28" s="100"/>
-    </row>
-    <row r="29" spans="1:31">
+      <c r="AF28" s="100"/>
+    </row>
+    <row r="29" spans="1:32">
       <c r="A29" s="150">
         <v>308</v>
       </c>
@@ -7783,7 +7845,7 @@
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="95" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F29" s="17"/>
       <c r="G29" s="21" t="str">
@@ -7791,10 +7853,10 @@
         <v>308:Snagging load 2 45+</v>
       </c>
       <c r="H29" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I29" s="142" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J29" s="117">
         <v>78.84</v>
@@ -7816,19 +7878,20 @@
       <c r="U29" s="96"/>
       <c r="V29" s="100"/>
       <c r="W29" s="121" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X29" s="112"/>
       <c r="Y29" s="17">
         <v>0</v>
       </c>
-      <c r="Z29" s="63"/>
-      <c r="AB29" s="100"/>
+      <c r="Z29" s="17"/>
+      <c r="AA29" s="63"/>
       <c r="AC29" s="100"/>
       <c r="AD29" s="100"/>
       <c r="AE29" s="100"/>
-    </row>
-    <row r="30" spans="1:31">
+      <c r="AF29" s="100"/>
+    </row>
+    <row r="30" spans="1:32">
       <c r="A30" s="150">
         <v>309</v>
       </c>
@@ -7847,10 +7910,10 @@
         <v>309:Snagging load 2 x+</v>
       </c>
       <c r="H30" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I30" s="142" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J30" s="117">
         <v>111.49</v>
@@ -7872,19 +7935,20 @@
       <c r="U30" s="96"/>
       <c r="V30" s="100"/>
       <c r="W30" s="121" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X30" s="112"/>
       <c r="Y30" s="17">
         <v>0</v>
       </c>
-      <c r="Z30" s="63"/>
-      <c r="AB30" s="100"/>
+      <c r="Z30" s="17"/>
+      <c r="AA30" s="63"/>
       <c r="AC30" s="100"/>
       <c r="AD30" s="100"/>
       <c r="AE30" s="100"/>
-    </row>
-    <row r="31" spans="1:31">
+      <c r="AF30" s="100"/>
+    </row>
+    <row r="31" spans="1:32">
       <c r="A31" s="150">
         <v>310</v>
       </c>
@@ -7903,10 +7967,10 @@
         <v>310:Dogleg HOP fall z</v>
       </c>
       <c r="H31" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I31" s="142" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J31" s="117">
         <v>0</v>
@@ -7942,13 +8006,14 @@
       <c r="W31" s="121"/>
       <c r="X31" s="112"/>
       <c r="Y31" s="17"/>
-      <c r="Z31" s="63"/>
-      <c r="AB31" s="100"/>
+      <c r="Z31" s="17"/>
+      <c r="AA31" s="63"/>
       <c r="AC31" s="100"/>
       <c r="AD31" s="100"/>
       <c r="AE31" s="100"/>
-    </row>
-    <row r="32" spans="1:31">
+      <c r="AF31" s="100"/>
+    </row>
+    <row r="32" spans="1:32">
       <c r="A32" s="150">
         <v>311</v>
       </c>
@@ -7961,7 +8026,7 @@
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="95" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F32" s="17"/>
       <c r="G32" s="21" t="str">
@@ -7969,10 +8034,10 @@
         <v>311:Dogleg HOP fall x</v>
       </c>
       <c r="H32" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I32" s="142" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J32" s="117">
         <v>20</v>
@@ -8008,13 +8073,14 @@
       <c r="W32" s="121"/>
       <c r="X32" s="112"/>
       <c r="Y32" s="17"/>
-      <c r="Z32" s="63"/>
-      <c r="AB32" s="100"/>
+      <c r="Z32" s="17"/>
+      <c r="AA32" s="63"/>
       <c r="AC32" s="100"/>
       <c r="AD32" s="100"/>
       <c r="AE32" s="100"/>
-    </row>
-    <row r="33" spans="1:31">
+      <c r="AF32" s="100"/>
+    </row>
+    <row r="33" spans="1:32">
       <c r="A33" s="150">
         <v>312</v>
       </c>
@@ -8033,10 +8099,10 @@
         <v>312:Dogleg HOP fall y</v>
       </c>
       <c r="H33" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I33" s="142" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J33" s="117">
         <v>0</v>
@@ -8072,13 +8138,14 @@
       <c r="W33" s="121"/>
       <c r="X33" s="112"/>
       <c r="Y33" s="17"/>
-      <c r="Z33" s="63"/>
-      <c r="AB33" s="100"/>
+      <c r="Z33" s="17"/>
+      <c r="AA33" s="63"/>
       <c r="AC33" s="100"/>
       <c r="AD33" s="100"/>
       <c r="AE33" s="100"/>
-    </row>
-    <row r="34" spans="1:31">
+      <c r="AF33" s="100"/>
+    </row>
+    <row r="34" spans="1:32">
       <c r="A34" s="150">
         <v>400</v>
       </c>
@@ -8097,10 +8164,10 @@
         <v>400:Transport z- objects</v>
       </c>
       <c r="H34" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="I34" s="142" t="s">
         <v>170</v>
-      </c>
-      <c r="I34" s="142" t="s">
-        <v>171</v>
       </c>
       <c r="J34" s="117">
         <v>0</v>
@@ -8123,16 +8190,17 @@
       <c r="V34" s="100"/>
       <c r="W34" s="121"/>
       <c r="X34" s="112" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Y34" s="17"/>
-      <c r="Z34" s="63"/>
-      <c r="AB34" s="100"/>
+      <c r="Z34" s="17"/>
+      <c r="AA34" s="63"/>
       <c r="AC34" s="100"/>
       <c r="AD34" s="100"/>
       <c r="AE34" s="100"/>
-    </row>
-    <row r="35" spans="1:31">
+      <c r="AF34" s="100"/>
+    </row>
+    <row r="35" spans="1:32">
       <c r="A35" s="150">
         <v>400</v>
       </c>
@@ -8145,7 +8213,7 @@
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="95" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F35" s="17"/>
       <c r="G35" s="21" t="str">
@@ -8153,10 +8221,10 @@
         <v>400:Transport z- objects</v>
       </c>
       <c r="H35" s="63" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I35" s="142" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J35" s="117">
         <v>0</v>
@@ -8179,16 +8247,17 @@
       <c r="V35" s="100"/>
       <c r="W35" s="121"/>
       <c r="X35" s="112" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Y35" s="17"/>
-      <c r="Z35" s="63"/>
-      <c r="AB35" s="100"/>
+      <c r="Z35" s="17"/>
+      <c r="AA35" s="63"/>
       <c r="AC35" s="100"/>
       <c r="AD35" s="100"/>
       <c r="AE35" s="100"/>
-    </row>
-    <row r="36" spans="1:31">
+      <c r="AF35" s="100"/>
+    </row>
+    <row r="36" spans="1:32">
       <c r="A36" s="150">
         <v>401</v>
       </c>
@@ -8207,10 +8276,10 @@
         <v>401:Transport z- lifting cage</v>
       </c>
       <c r="H36" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I36" s="142" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J36" s="117">
         <v>0</v>
@@ -8232,19 +8301,20 @@
       <c r="U36" s="96"/>
       <c r="V36" s="100"/>
       <c r="W36" s="121" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X36" s="112"/>
       <c r="Y36" s="17">
         <v>0</v>
       </c>
-      <c r="Z36" s="63"/>
-      <c r="AB36" s="100"/>
+      <c r="Z36" s="17"/>
+      <c r="AA36" s="63"/>
       <c r="AC36" s="100"/>
       <c r="AD36" s="100"/>
       <c r="AE36" s="100"/>
-    </row>
-    <row r="37" spans="1:31">
+      <c r="AF36" s="100"/>
+    </row>
+    <row r="37" spans="1:32">
       <c r="A37" s="150">
         <v>402</v>
       </c>
@@ -8263,10 +8333,10 @@
         <v>402:Transport z- misc storage</v>
       </c>
       <c r="H37" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I37" s="142" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J37" s="117">
         <v>0</v>
@@ -8288,19 +8358,20 @@
       <c r="U37" s="96"/>
       <c r="V37" s="100"/>
       <c r="W37" s="121" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X37" s="112"/>
       <c r="Y37" s="17">
         <v>0</v>
       </c>
-      <c r="Z37" s="63"/>
-      <c r="AB37" s="100"/>
+      <c r="Z37" s="17"/>
+      <c r="AA37" s="63"/>
       <c r="AC37" s="100"/>
       <c r="AD37" s="100"/>
       <c r="AE37" s="100"/>
-    </row>
-    <row r="38" spans="1:31">
+      <c r="AF37" s="100"/>
+    </row>
+    <row r="38" spans="1:32">
       <c r="A38" s="155">
         <v>403</v>
       </c>
@@ -8319,10 +8390,10 @@
         <v>403:Transport z- pins and jacks</v>
       </c>
       <c r="H38" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I38" s="143" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J38" s="105">
         <v>0</v>
@@ -8344,19 +8415,20 @@
       <c r="U38" s="96"/>
       <c r="V38" s="100"/>
       <c r="W38" s="97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X38" s="98"/>
       <c r="Y38" s="17">
         <v>0</v>
       </c>
-      <c r="Z38" s="63"/>
-      <c r="AB38" s="100"/>
-      <c r="AC38" s="96"/>
-      <c r="AD38" s="100"/>
+      <c r="Z38" s="17"/>
+      <c r="AA38" s="63"/>
+      <c r="AC38" s="100"/>
+      <c r="AD38" s="96"/>
       <c r="AE38" s="100"/>
-    </row>
-    <row r="39" spans="1:31">
+      <c r="AF38" s="100"/>
+    </row>
+    <row r="39" spans="1:32">
       <c r="A39" s="155">
         <v>404</v>
       </c>
@@ -8375,10 +8447,10 @@
         <v>404:Transport z- anode boxes</v>
       </c>
       <c r="H39" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I39" s="143" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J39" s="105">
         <v>0</v>
@@ -8400,19 +8472,20 @@
       <c r="U39" s="96"/>
       <c r="V39" s="100"/>
       <c r="W39" s="97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X39" s="98"/>
       <c r="Y39" s="17">
         <v>0</v>
       </c>
-      <c r="Z39" s="63"/>
-      <c r="AB39" s="100"/>
-      <c r="AC39" s="96"/>
-      <c r="AD39" s="100"/>
+      <c r="Z39" s="17"/>
+      <c r="AA39" s="63"/>
+      <c r="AC39" s="100"/>
+      <c r="AD39" s="96"/>
       <c r="AE39" s="100"/>
-    </row>
-    <row r="40" spans="1:31">
+      <c r="AF39" s="100"/>
+    </row>
+    <row r="40" spans="1:32">
       <c r="A40" s="155">
         <v>406</v>
       </c>
@@ -8431,10 +8504,10 @@
         <v>406:Transport z- jacks pins plugs</v>
       </c>
       <c r="H40" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I40" s="143" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J40" s="105">
         <v>0</v>
@@ -8456,19 +8529,20 @@
       <c r="U40" s="96"/>
       <c r="V40" s="100"/>
       <c r="W40" s="97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X40" s="98"/>
       <c r="Y40" s="17">
         <v>0</v>
       </c>
-      <c r="Z40" s="63"/>
-      <c r="AB40" s="100"/>
-      <c r="AC40" s="96"/>
-      <c r="AD40" s="100"/>
+      <c r="Z40" s="17"/>
+      <c r="AA40" s="63"/>
+      <c r="AC40" s="100"/>
+      <c r="AD40" s="96"/>
       <c r="AE40" s="100"/>
-    </row>
-    <row r="41" spans="1:31">
+      <c r="AF40" s="100"/>
+    </row>
+    <row r="41" spans="1:32">
       <c r="A41" s="155">
         <v>407</v>
       </c>
@@ -8487,10 +8561,10 @@
         <v>407:Transport z- hang offs</v>
       </c>
       <c r="H41" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I41" s="143" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J41" s="105">
         <v>0</v>
@@ -8512,19 +8586,20 @@
       <c r="U41" s="96"/>
       <c r="V41" s="100"/>
       <c r="W41" s="97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X41" s="98"/>
       <c r="Y41" s="17">
         <v>0</v>
       </c>
-      <c r="Z41" s="63"/>
-      <c r="AB41" s="100"/>
-      <c r="AC41" s="96"/>
-      <c r="AD41" s="100"/>
+      <c r="Z41" s="17"/>
+      <c r="AA41" s="63"/>
+      <c r="AC41" s="100"/>
+      <c r="AD41" s="96"/>
       <c r="AE41" s="100"/>
-    </row>
-    <row r="42" spans="1:31">
+      <c r="AF41" s="100"/>
+    </row>
+    <row r="42" spans="1:32">
       <c r="A42" s="155">
         <v>408</v>
       </c>
@@ -8543,10 +8618,10 @@
         <v>408:Transport z- jibflex top</v>
       </c>
       <c r="H42" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I42" s="143" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J42" s="105">
         <v>0</v>
@@ -8582,13 +8657,14 @@
       <c r="W42" s="97"/>
       <c r="X42" s="98"/>
       <c r="Y42" s="17"/>
-      <c r="Z42" s="63"/>
-      <c r="AB42" s="100"/>
-      <c r="AC42" s="96"/>
-      <c r="AD42" s="100"/>
+      <c r="Z42" s="17"/>
+      <c r="AA42" s="63"/>
+      <c r="AC42" s="100"/>
+      <c r="AD42" s="96"/>
       <c r="AE42" s="100"/>
-    </row>
-    <row r="43" spans="1:31">
+      <c r="AF42" s="100"/>
+    </row>
+    <row r="43" spans="1:32">
       <c r="A43" s="155">
         <v>409</v>
       </c>
@@ -8607,10 +8683,10 @@
         <v>409:Transport z- jibflex bot</v>
       </c>
       <c r="H43" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I43" s="143" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J43" s="105">
         <v>0</v>
@@ -8646,13 +8722,14 @@
       <c r="W43" s="97"/>
       <c r="X43" s="98"/>
       <c r="Y43" s="17"/>
-      <c r="Z43" s="63"/>
-      <c r="AB43" s="100"/>
-      <c r="AC43" s="96"/>
-      <c r="AD43" s="100"/>
+      <c r="Z43" s="17"/>
+      <c r="AA43" s="63"/>
+      <c r="AC43" s="100"/>
+      <c r="AD43" s="96"/>
       <c r="AE43" s="100"/>
-    </row>
-    <row r="44" spans="1:31">
+      <c r="AF43" s="100"/>
+    </row>
+    <row r="44" spans="1:32">
       <c r="A44" s="155">
         <v>410</v>
       </c>
@@ -8671,10 +8748,10 @@
         <v>410:Transport z- tensioner tool</v>
       </c>
       <c r="H44" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I44" s="143" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J44" s="105">
         <v>0</v>
@@ -8696,19 +8773,20 @@
       <c r="U44" s="96"/>
       <c r="V44" s="100"/>
       <c r="W44" s="97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X44" s="98"/>
       <c r="Y44" s="17">
         <v>0</v>
       </c>
-      <c r="Z44" s="64"/>
-      <c r="AB44" s="100"/>
-      <c r="AC44" s="96"/>
-      <c r="AD44" s="100"/>
+      <c r="Z44" s="17"/>
+      <c r="AA44" s="64"/>
+      <c r="AC44" s="100"/>
+      <c r="AD44" s="96"/>
       <c r="AE44" s="100"/>
-    </row>
-    <row r="45" spans="1:31">
+      <c r="AF44" s="100"/>
+    </row>
+    <row r="45" spans="1:32">
       <c r="A45" s="156">
         <v>411</v>
       </c>
@@ -8727,10 +8805,10 @@
         <v>411:Transport z- tensioner power pack</v>
       </c>
       <c r="H45" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I45" s="143" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J45" s="105">
         <v>0</v>
@@ -8752,19 +8830,20 @@
       <c r="U45" s="96"/>
       <c r="V45" s="100"/>
       <c r="W45" s="97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X45" s="98"/>
       <c r="Y45" s="17">
         <v>0</v>
       </c>
-      <c r="Z45" s="63"/>
-      <c r="AB45" s="100"/>
-      <c r="AC45" s="96"/>
-      <c r="AD45" s="100"/>
+      <c r="Z45" s="17"/>
+      <c r="AA45" s="63"/>
+      <c r="AC45" s="100"/>
+      <c r="AD45" s="96"/>
       <c r="AE45" s="100"/>
-    </row>
-    <row r="46" spans="1:31">
+      <c r="AF45" s="100"/>
+    </row>
+    <row r="46" spans="1:32">
       <c r="A46" s="156">
         <v>412</v>
       </c>
@@ -8783,10 +8862,10 @@
         <v>412:Transport x+ objects</v>
       </c>
       <c r="H46" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="I46" s="143" t="s">
         <v>170</v>
-      </c>
-      <c r="I46" s="143" t="s">
-        <v>171</v>
       </c>
       <c r="J46" s="97">
         <v>4.08</v>
@@ -8809,16 +8888,17 @@
       <c r="V46" s="100"/>
       <c r="W46" s="97"/>
       <c r="X46" s="98" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Y46" s="17"/>
-      <c r="Z46" s="63"/>
-      <c r="AB46" s="100"/>
-      <c r="AC46" s="96"/>
-      <c r="AD46" s="100"/>
+      <c r="Z46" s="17"/>
+      <c r="AA46" s="63"/>
+      <c r="AC46" s="100"/>
+      <c r="AD46" s="96"/>
       <c r="AE46" s="100"/>
-    </row>
-    <row r="47" spans="1:31">
+      <c r="AF46" s="100"/>
+    </row>
+    <row r="47" spans="1:32">
       <c r="A47" s="156">
         <v>413</v>
       </c>
@@ -8837,10 +8917,10 @@
         <v>413:Transport x+ objects</v>
       </c>
       <c r="H47" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="I47" s="143" t="s">
         <v>170</v>
-      </c>
-      <c r="I47" s="143" t="s">
-        <v>171</v>
       </c>
       <c r="J47" s="97">
         <v>4.08</v>
@@ -8863,16 +8943,17 @@
       <c r="V47" s="100"/>
       <c r="W47" s="97"/>
       <c r="X47" s="98" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Y47" s="17"/>
-      <c r="Z47" s="63"/>
-      <c r="AB47" s="100"/>
-      <c r="AC47" s="96"/>
-      <c r="AD47" s="100"/>
+      <c r="Z47" s="17"/>
+      <c r="AA47" s="63"/>
+      <c r="AC47" s="100"/>
+      <c r="AD47" s="96"/>
       <c r="AE47" s="100"/>
-    </row>
-    <row r="48" spans="1:31">
+      <c r="AF47" s="100"/>
+    </row>
+    <row r="48" spans="1:32">
       <c r="A48" s="156">
         <v>414</v>
       </c>
@@ -8891,10 +8972,10 @@
         <v>414:Transport x+ lifting cage</v>
       </c>
       <c r="H48" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I48" s="143" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J48" s="97">
         <v>1.04</v>
@@ -8916,19 +8997,20 @@
       <c r="U48" s="96"/>
       <c r="V48" s="100"/>
       <c r="W48" s="97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X48" s="98"/>
       <c r="Y48" s="17">
         <v>0</v>
       </c>
-      <c r="Z48" s="63"/>
-      <c r="AB48" s="100"/>
-      <c r="AC48" s="96"/>
-      <c r="AD48" s="100"/>
+      <c r="Z48" s="17"/>
+      <c r="AA48" s="63"/>
+      <c r="AC48" s="100"/>
+      <c r="AD48" s="96"/>
       <c r="AE48" s="100"/>
-    </row>
-    <row r="49" spans="1:31">
+      <c r="AF48" s="100"/>
+    </row>
+    <row r="49" spans="1:32">
       <c r="A49" s="156">
         <v>415</v>
       </c>
@@ -8947,10 +9029,10 @@
         <v>415:Transport x+ misc storage</v>
       </c>
       <c r="H49" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I49" s="143" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J49" s="97">
         <v>4.8</v>
@@ -8972,19 +9054,20 @@
       <c r="U49" s="96"/>
       <c r="V49" s="100"/>
       <c r="W49" s="97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X49" s="98"/>
       <c r="Y49" s="17">
         <v>0</v>
       </c>
-      <c r="Z49" s="63"/>
-      <c r="AB49" s="100"/>
-      <c r="AC49" s="96"/>
-      <c r="AD49" s="100"/>
+      <c r="Z49" s="17"/>
+      <c r="AA49" s="63"/>
+      <c r="AC49" s="100"/>
+      <c r="AD49" s="96"/>
       <c r="AE49" s="100"/>
-    </row>
-    <row r="50" spans="1:31">
+      <c r="AF49" s="100"/>
+    </row>
+    <row r="50" spans="1:32">
       <c r="A50" s="156">
         <v>416</v>
       </c>
@@ -9003,10 +9086,10 @@
         <v>416:Transport x+ pins and jacks</v>
       </c>
       <c r="H50" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I50" s="143" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J50" s="97">
         <v>5.42</v>
@@ -9028,19 +9111,20 @@
       <c r="U50" s="96"/>
       <c r="V50" s="100"/>
       <c r="W50" s="97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X50" s="98"/>
       <c r="Y50" s="17">
         <v>0</v>
       </c>
-      <c r="Z50" s="63"/>
-      <c r="AB50" s="100"/>
-      <c r="AC50" s="96"/>
-      <c r="AD50" s="100"/>
+      <c r="Z50" s="17"/>
+      <c r="AA50" s="63"/>
+      <c r="AC50" s="100"/>
+      <c r="AD50" s="96"/>
       <c r="AE50" s="100"/>
-    </row>
-    <row r="51" spans="1:31">
+      <c r="AF50" s="100"/>
+    </row>
+    <row r="51" spans="1:32">
       <c r="A51" s="156">
         <v>417</v>
       </c>
@@ -9059,10 +9143,10 @@
         <v>417:Transport x+ anode boxes</v>
       </c>
       <c r="H51" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I51" s="143" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J51" s="97">
         <v>5.7</v>
@@ -9084,19 +9168,20 @@
       <c r="U51" s="96"/>
       <c r="V51" s="100"/>
       <c r="W51" s="97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X51" s="98"/>
       <c r="Y51" s="17">
         <v>0</v>
       </c>
-      <c r="Z51" s="63"/>
-      <c r="AB51" s="100"/>
-      <c r="AC51" s="96"/>
-      <c r="AD51" s="100"/>
+      <c r="Z51" s="17"/>
+      <c r="AA51" s="63"/>
+      <c r="AC51" s="100"/>
+      <c r="AD51" s="96"/>
       <c r="AE51" s="100"/>
-    </row>
-    <row r="52" spans="1:31">
+      <c r="AF51" s="100"/>
+    </row>
+    <row r="52" spans="1:32">
       <c r="A52" s="156">
         <v>419</v>
       </c>
@@ -9115,10 +9200,10 @@
         <v>419:Transport x+ jacks pins plugs</v>
       </c>
       <c r="H52" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I52" s="143" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J52" s="97">
         <v>5.42</v>
@@ -9140,19 +9225,20 @@
       <c r="U52" s="96"/>
       <c r="V52" s="100"/>
       <c r="W52" s="97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X52" s="98"/>
       <c r="Y52" s="17">
         <v>0</v>
       </c>
-      <c r="Z52" s="63"/>
-      <c r="AB52" s="100"/>
-      <c r="AC52" s="96"/>
-      <c r="AD52" s="100"/>
+      <c r="Z52" s="17"/>
+      <c r="AA52" s="63"/>
+      <c r="AC52" s="100"/>
+      <c r="AD52" s="96"/>
       <c r="AE52" s="100"/>
-    </row>
-    <row r="53" spans="1:31">
+      <c r="AF52" s="100"/>
+    </row>
+    <row r="53" spans="1:32">
       <c r="A53" s="156">
         <v>420</v>
       </c>
@@ -9171,10 +9257,10 @@
         <v>420:Transport x+ hang offs</v>
       </c>
       <c r="H53" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I53" s="143" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J53" s="97">
         <v>1.49</v>
@@ -9196,19 +9282,20 @@
       <c r="U53" s="96"/>
       <c r="V53" s="100"/>
       <c r="W53" s="97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X53" s="98"/>
       <c r="Y53" s="17">
         <v>0</v>
       </c>
-      <c r="Z53" s="63"/>
-      <c r="AB53" s="100"/>
-      <c r="AC53" s="96"/>
-      <c r="AD53" s="100"/>
+      <c r="Z53" s="17"/>
+      <c r="AA53" s="63"/>
+      <c r="AC53" s="100"/>
+      <c r="AD53" s="96"/>
       <c r="AE53" s="100"/>
-    </row>
-    <row r="54" spans="1:31" ht="13.15" customHeight="1">
+      <c r="AF53" s="100"/>
+    </row>
+    <row r="54" spans="1:32" ht="13.15" customHeight="1">
       <c r="A54" s="156">
         <v>421</v>
       </c>
@@ -9227,10 +9314,10 @@
         <v>421:Transport x+ jibflex top</v>
       </c>
       <c r="H54" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I54" s="143" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J54" s="97">
         <v>0</v>
@@ -9266,13 +9353,14 @@
       <c r="W54" s="97"/>
       <c r="X54" s="98"/>
       <c r="Y54" s="17"/>
-      <c r="Z54" s="63"/>
-      <c r="AB54" s="100"/>
-      <c r="AC54" s="96"/>
-      <c r="AD54" s="100"/>
+      <c r="Z54" s="17"/>
+      <c r="AA54" s="63"/>
+      <c r="AC54" s="100"/>
+      <c r="AD54" s="96"/>
       <c r="AE54" s="100"/>
-    </row>
-    <row r="55" spans="1:31">
+      <c r="AF54" s="100"/>
+    </row>
+    <row r="55" spans="1:32">
       <c r="A55" s="156">
         <v>422</v>
       </c>
@@ -9291,10 +9379,10 @@
         <v>422:Transport x+ jibflex bot</v>
       </c>
       <c r="H55" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I55" s="143" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J55" s="97">
         <v>1.78</v>
@@ -9330,13 +9418,14 @@
       <c r="W55" s="97"/>
       <c r="X55" s="98"/>
       <c r="Y55" s="17"/>
-      <c r="Z55" s="63"/>
-      <c r="AB55" s="100"/>
-      <c r="AC55" s="96"/>
-      <c r="AD55" s="100"/>
+      <c r="Z55" s="17"/>
+      <c r="AA55" s="63"/>
+      <c r="AC55" s="100"/>
+      <c r="AD55" s="96"/>
       <c r="AE55" s="100"/>
-    </row>
-    <row r="56" spans="1:31">
+      <c r="AF55" s="100"/>
+    </row>
+    <row r="56" spans="1:32">
       <c r="A56" s="156">
         <v>423</v>
       </c>
@@ -9355,10 +9444,10 @@
         <v>423:Transport x+ tensioner tool</v>
       </c>
       <c r="H56" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I56" s="143" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J56" s="97">
         <v>2.98</v>
@@ -9380,19 +9469,20 @@
       <c r="U56" s="96"/>
       <c r="V56" s="100"/>
       <c r="W56" s="97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X56" s="98"/>
       <c r="Y56" s="17">
         <v>0</v>
       </c>
-      <c r="Z56" s="63"/>
-      <c r="AB56" s="100"/>
-      <c r="AC56" s="96"/>
-      <c r="AD56" s="100"/>
+      <c r="Z56" s="17"/>
+      <c r="AA56" s="63"/>
+      <c r="AC56" s="100"/>
+      <c r="AD56" s="96"/>
       <c r="AE56" s="100"/>
-    </row>
-    <row r="57" spans="1:31">
+      <c r="AF56" s="100"/>
+    </row>
+    <row r="57" spans="1:32">
       <c r="A57" s="156">
         <v>424</v>
       </c>
@@ -9411,10 +9501,10 @@
         <v>424:Transport x+ tensioner power pack</v>
       </c>
       <c r="H57" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I57" s="143" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J57" s="97">
         <v>1.06</v>
@@ -9436,19 +9526,20 @@
       <c r="U57" s="96"/>
       <c r="V57" s="100"/>
       <c r="W57" s="97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X57" s="98"/>
       <c r="Y57" s="17">
         <v>0</v>
       </c>
-      <c r="Z57" s="63"/>
-      <c r="AB57" s="100"/>
+      <c r="Z57" s="17"/>
+      <c r="AA57" s="63"/>
       <c r="AC57" s="100"/>
       <c r="AD57" s="100"/>
-      <c r="AE57" s="98"/>
-    </row>
-    <row r="58" spans="1:31">
+      <c r="AE57" s="100"/>
+      <c r="AF57" s="98"/>
+    </row>
+    <row r="58" spans="1:32">
       <c r="A58" s="156">
         <v>425</v>
       </c>
@@ -9467,10 +9558,10 @@
         <v>425:Transport x- objects</v>
       </c>
       <c r="H58" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="I58" s="143" t="s">
         <v>170</v>
-      </c>
-      <c r="I58" s="143" t="s">
-        <v>171</v>
       </c>
       <c r="J58" s="97">
         <v>-4.08</v>
@@ -9493,16 +9584,17 @@
       <c r="V58" s="100"/>
       <c r="W58" s="97"/>
       <c r="X58" s="98" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Y58" s="17"/>
-      <c r="Z58" s="63"/>
-      <c r="AB58" s="100"/>
+      <c r="Z58" s="17"/>
+      <c r="AA58" s="63"/>
       <c r="AC58" s="100"/>
       <c r="AD58" s="100"/>
       <c r="AE58" s="100"/>
-    </row>
-    <row r="59" spans="1:31">
+      <c r="AF58" s="100"/>
+    </row>
+    <row r="59" spans="1:32">
       <c r="A59" s="156">
         <v>426</v>
       </c>
@@ -9521,10 +9613,10 @@
         <v>426:Transport x- objects</v>
       </c>
       <c r="H59" s="63" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I59" s="143" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J59" s="97">
         <v>-4.08</v>
@@ -9547,16 +9639,17 @@
       <c r="V59" s="100"/>
       <c r="W59" s="97"/>
       <c r="X59" s="98" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Y59" s="17"/>
-      <c r="Z59" s="63"/>
-      <c r="AB59" s="100"/>
+      <c r="Z59" s="17"/>
+      <c r="AA59" s="63"/>
       <c r="AC59" s="100"/>
       <c r="AD59" s="100"/>
       <c r="AE59" s="100"/>
-    </row>
-    <row r="60" spans="1:31">
+      <c r="AF59" s="100"/>
+    </row>
+    <row r="60" spans="1:32">
       <c r="A60" s="156">
         <v>427</v>
       </c>
@@ -9575,10 +9668,10 @@
         <v>427:Transport x- lifting cage</v>
       </c>
       <c r="H60" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I60" s="143" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J60" s="97">
         <v>-1.04</v>
@@ -9600,19 +9693,20 @@
       <c r="U60" s="96"/>
       <c r="V60" s="100"/>
       <c r="W60" s="97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X60" s="98"/>
       <c r="Y60" s="17">
         <v>0</v>
       </c>
-      <c r="Z60" s="63"/>
-      <c r="AB60" s="100"/>
+      <c r="Z60" s="17"/>
+      <c r="AA60" s="63"/>
       <c r="AC60" s="100"/>
       <c r="AD60" s="100"/>
       <c r="AE60" s="100"/>
-    </row>
-    <row r="61" spans="1:31">
+      <c r="AF60" s="100"/>
+    </row>
+    <row r="61" spans="1:32">
       <c r="A61" s="156">
         <v>428</v>
       </c>
@@ -9631,10 +9725,10 @@
         <v>428:Transport x- misc storage</v>
       </c>
       <c r="H61" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I61" s="143" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J61" s="97">
         <v>-4.8</v>
@@ -9656,19 +9750,20 @@
       <c r="U61" s="96"/>
       <c r="V61" s="100"/>
       <c r="W61" s="97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X61" s="98"/>
       <c r="Y61" s="17">
         <v>0</v>
       </c>
-      <c r="Z61" s="63"/>
-      <c r="AB61" s="100"/>
+      <c r="Z61" s="17"/>
+      <c r="AA61" s="63"/>
       <c r="AC61" s="100"/>
       <c r="AD61" s="100"/>
       <c r="AE61" s="100"/>
-    </row>
-    <row r="62" spans="1:31">
+      <c r="AF61" s="100"/>
+    </row>
+    <row r="62" spans="1:32">
       <c r="A62" s="156">
         <v>429</v>
       </c>
@@ -9687,10 +9782,10 @@
         <v>429:Transport x- pins and jacks</v>
       </c>
       <c r="H62" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I62" s="143" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J62" s="97">
         <v>-5.42</v>
@@ -9712,19 +9807,20 @@
       <c r="U62" s="96"/>
       <c r="V62" s="100"/>
       <c r="W62" s="97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X62" s="98"/>
       <c r="Y62" s="17">
         <v>0</v>
       </c>
-      <c r="Z62" s="63"/>
-      <c r="AB62" s="100"/>
+      <c r="Z62" s="17"/>
+      <c r="AA62" s="63"/>
       <c r="AC62" s="100"/>
       <c r="AD62" s="100"/>
       <c r="AE62" s="100"/>
-    </row>
-    <row r="63" spans="1:31">
+      <c r="AF62" s="100"/>
+    </row>
+    <row r="63" spans="1:32">
       <c r="A63" s="156">
         <v>430</v>
       </c>
@@ -9743,10 +9839,10 @@
         <v>430:Transport x- anode boxes</v>
       </c>
       <c r="H63" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I63" s="143" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J63" s="97">
         <v>-5.7</v>
@@ -9768,19 +9864,20 @@
       <c r="U63" s="96"/>
       <c r="V63" s="100"/>
       <c r="W63" s="97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X63" s="98"/>
       <c r="Y63" s="17">
         <v>0</v>
       </c>
-      <c r="Z63" s="63"/>
-      <c r="AB63" s="100"/>
+      <c r="Z63" s="17"/>
+      <c r="AA63" s="63"/>
       <c r="AC63" s="100"/>
       <c r="AD63" s="100"/>
       <c r="AE63" s="100"/>
-    </row>
-    <row r="64" spans="1:31">
+      <c r="AF63" s="100"/>
+    </row>
+    <row r="64" spans="1:32">
       <c r="A64" s="156">
         <v>432</v>
       </c>
@@ -9799,10 +9896,10 @@
         <v>432:Transport x- jacks pins plugs</v>
       </c>
       <c r="H64" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I64" s="143" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J64" s="97">
         <v>-5.42</v>
@@ -9824,19 +9921,20 @@
       <c r="U64" s="96"/>
       <c r="V64" s="100"/>
       <c r="W64" s="97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X64" s="98"/>
       <c r="Y64" s="17">
         <v>0</v>
       </c>
-      <c r="Z64" s="63"/>
-      <c r="AB64" s="100"/>
+      <c r="Z64" s="17"/>
+      <c r="AA64" s="63"/>
       <c r="AC64" s="100"/>
       <c r="AD64" s="100"/>
       <c r="AE64" s="100"/>
-    </row>
-    <row r="65" spans="1:31">
+      <c r="AF64" s="100"/>
+    </row>
+    <row r="65" spans="1:32">
       <c r="A65" s="156">
         <v>433</v>
       </c>
@@ -9855,10 +9953,10 @@
         <v>433:Transport x- hang offs</v>
       </c>
       <c r="H65" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I65" s="143" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J65" s="97">
         <v>-1.49</v>
@@ -9880,19 +9978,20 @@
       <c r="U65" s="96"/>
       <c r="V65" s="100"/>
       <c r="W65" s="97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X65" s="98"/>
       <c r="Y65" s="17">
         <v>0</v>
       </c>
-      <c r="Z65" s="63"/>
-      <c r="AB65" s="100"/>
+      <c r="Z65" s="17"/>
+      <c r="AA65" s="63"/>
       <c r="AC65" s="100"/>
       <c r="AD65" s="100"/>
       <c r="AE65" s="100"/>
-    </row>
-    <row r="66" spans="1:31">
+      <c r="AF65" s="100"/>
+    </row>
+    <row r="66" spans="1:32">
       <c r="A66" s="156">
         <v>434</v>
       </c>
@@ -9911,10 +10010,10 @@
         <v>434:Transport x- jibflex top</v>
       </c>
       <c r="H66" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I66" s="143" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J66" s="97">
         <v>0</v>
@@ -9950,13 +10049,14 @@
       <c r="W66" s="97"/>
       <c r="X66" s="98"/>
       <c r="Y66" s="17"/>
-      <c r="Z66" s="63"/>
-      <c r="AB66" s="100"/>
+      <c r="Z66" s="17"/>
+      <c r="AA66" s="63"/>
       <c r="AC66" s="100"/>
       <c r="AD66" s="100"/>
       <c r="AE66" s="100"/>
-    </row>
-    <row r="67" spans="1:31">
+      <c r="AF66" s="100"/>
+    </row>
+    <row r="67" spans="1:32">
       <c r="A67" s="156">
         <v>435</v>
       </c>
@@ -9975,10 +10075,10 @@
         <v>435:Transport x- jibflex bot</v>
       </c>
       <c r="H67" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I67" s="143" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J67" s="97">
         <v>-1.78</v>
@@ -10014,13 +10114,14 @@
       <c r="W67" s="97"/>
       <c r="X67" s="98"/>
       <c r="Y67" s="17"/>
-      <c r="Z67" s="63"/>
-      <c r="AB67" s="100"/>
+      <c r="Z67" s="17"/>
+      <c r="AA67" s="63"/>
       <c r="AC67" s="100"/>
       <c r="AD67" s="100"/>
       <c r="AE67" s="100"/>
-    </row>
-    <row r="68" spans="1:31">
+      <c r="AF67" s="100"/>
+    </row>
+    <row r="68" spans="1:32">
       <c r="A68" s="156">
         <v>436</v>
       </c>
@@ -10039,10 +10140,10 @@
         <v>436:Transport x- tensioner tool</v>
       </c>
       <c r="H68" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I68" s="143" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J68" s="97">
         <v>-2.98</v>
@@ -10064,19 +10165,20 @@
       <c r="U68" s="96"/>
       <c r="V68" s="100"/>
       <c r="W68" s="97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X68" s="98"/>
       <c r="Y68" s="17">
         <v>0</v>
       </c>
-      <c r="Z68" s="63"/>
-      <c r="AB68" s="100"/>
+      <c r="Z68" s="17"/>
+      <c r="AA68" s="63"/>
       <c r="AC68" s="100"/>
       <c r="AD68" s="100"/>
       <c r="AE68" s="100"/>
-    </row>
-    <row r="69" spans="1:31">
+      <c r="AF68" s="100"/>
+    </row>
+    <row r="69" spans="1:32">
       <c r="A69" s="156">
         <v>437</v>
       </c>
@@ -10095,10 +10197,10 @@
         <v>437:Transport x- tensioner power pack</v>
       </c>
       <c r="H69" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I69" s="143" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J69" s="97">
         <v>-1.06</v>
@@ -10120,19 +10222,20 @@
       <c r="U69" s="96"/>
       <c r="V69" s="100"/>
       <c r="W69" s="97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X69" s="98"/>
       <c r="Y69" s="17">
         <v>0</v>
       </c>
-      <c r="Z69" s="63"/>
-      <c r="AB69" s="100"/>
+      <c r="Z69" s="17"/>
+      <c r="AA69" s="63"/>
       <c r="AC69" s="100"/>
       <c r="AD69" s="100"/>
       <c r="AE69" s="100"/>
-    </row>
-    <row r="70" spans="1:31">
+      <c r="AF69" s="100"/>
+    </row>
+    <row r="70" spans="1:32">
       <c r="A70" s="156">
         <v>438</v>
       </c>
@@ -10151,10 +10254,10 @@
         <v>438:Transport y+ objects</v>
       </c>
       <c r="H70" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="I70" s="143" t="s">
         <v>170</v>
-      </c>
-      <c r="I70" s="143" t="s">
-        <v>171</v>
       </c>
       <c r="J70" s="97">
         <v>0</v>
@@ -10177,16 +10280,17 @@
       <c r="V70" s="100"/>
       <c r="W70" s="97"/>
       <c r="X70" s="98" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Y70" s="17"/>
-      <c r="Z70" s="63"/>
-      <c r="AB70" s="100"/>
+      <c r="Z70" s="17"/>
+      <c r="AA70" s="63"/>
       <c r="AC70" s="100"/>
       <c r="AD70" s="100"/>
       <c r="AE70" s="100"/>
-    </row>
-    <row r="71" spans="1:31">
+      <c r="AF70" s="100"/>
+    </row>
+    <row r="71" spans="1:32">
       <c r="A71" s="156">
         <v>439</v>
       </c>
@@ -10205,10 +10309,10 @@
         <v>439:Transport y+ objects</v>
       </c>
       <c r="H71" s="63" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I71" s="143" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J71" s="97">
         <v>0</v>
@@ -10231,16 +10335,17 @@
       <c r="V71" s="100"/>
       <c r="W71" s="97"/>
       <c r="X71" s="98" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Y71" s="17"/>
-      <c r="Z71" s="63"/>
-      <c r="AB71" s="100"/>
+      <c r="Z71" s="17"/>
+      <c r="AA71" s="63"/>
       <c r="AC71" s="100"/>
       <c r="AD71" s="100"/>
       <c r="AE71" s="100"/>
-    </row>
-    <row r="72" spans="1:31">
+      <c r="AF71" s="100"/>
+    </row>
+    <row r="72" spans="1:32">
       <c r="A72" s="156">
         <v>440</v>
       </c>
@@ -10259,10 +10364,10 @@
         <v>440:Transport y+ lifting cage</v>
       </c>
       <c r="H72" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I72" s="143" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J72" s="97">
         <v>0</v>
@@ -10284,19 +10389,20 @@
       <c r="U72" s="96"/>
       <c r="V72" s="100"/>
       <c r="W72" s="97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X72" s="98"/>
       <c r="Y72" s="17">
         <v>0</v>
       </c>
-      <c r="Z72" s="63"/>
-      <c r="AB72" s="100"/>
+      <c r="Z72" s="17"/>
+      <c r="AA72" s="63"/>
       <c r="AC72" s="100"/>
       <c r="AD72" s="100"/>
       <c r="AE72" s="100"/>
-    </row>
-    <row r="73" spans="1:31">
+      <c r="AF72" s="100"/>
+    </row>
+    <row r="73" spans="1:32">
       <c r="A73" s="156">
         <v>441</v>
       </c>
@@ -10315,10 +10421,10 @@
         <v>441:Transport y+ misc storage</v>
       </c>
       <c r="H73" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I73" s="143" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J73" s="97">
         <v>0</v>
@@ -10340,19 +10446,20 @@
       <c r="U73" s="96"/>
       <c r="V73" s="100"/>
       <c r="W73" s="97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X73" s="98"/>
       <c r="Y73" s="17">
         <v>0</v>
       </c>
-      <c r="Z73" s="63"/>
-      <c r="AB73" s="100"/>
+      <c r="Z73" s="17"/>
+      <c r="AA73" s="63"/>
       <c r="AC73" s="100"/>
       <c r="AD73" s="100"/>
       <c r="AE73" s="100"/>
-    </row>
-    <row r="74" spans="1:31">
+      <c r="AF73" s="100"/>
+    </row>
+    <row r="74" spans="1:32">
       <c r="A74" s="156">
         <v>442</v>
       </c>
@@ -10371,10 +10478,10 @@
         <v>442:Transport y+ pins and jacks</v>
       </c>
       <c r="H74" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I74" s="143" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J74" s="97">
         <v>0</v>
@@ -10396,19 +10503,20 @@
       <c r="U74" s="96"/>
       <c r="V74" s="100"/>
       <c r="W74" s="97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X74" s="98"/>
       <c r="Y74" s="17">
         <v>0</v>
       </c>
-      <c r="Z74" s="63"/>
-      <c r="AB74" s="100"/>
+      <c r="Z74" s="17"/>
+      <c r="AA74" s="63"/>
       <c r="AC74" s="100"/>
       <c r="AD74" s="100"/>
       <c r="AE74" s="100"/>
-    </row>
-    <row r="75" spans="1:31">
+      <c r="AF74" s="100"/>
+    </row>
+    <row r="75" spans="1:32">
       <c r="A75" s="156">
         <v>443</v>
       </c>
@@ -10427,10 +10535,10 @@
         <v>443:Transport y+ anode boxes</v>
       </c>
       <c r="H75" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I75" s="143" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J75" s="97">
         <v>0</v>
@@ -10452,19 +10560,20 @@
       <c r="U75" s="96"/>
       <c r="V75" s="100"/>
       <c r="W75" s="97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X75" s="98"/>
       <c r="Y75" s="17">
         <v>0</v>
       </c>
-      <c r="Z75" s="63"/>
-      <c r="AB75" s="100"/>
+      <c r="Z75" s="17"/>
+      <c r="AA75" s="63"/>
       <c r="AC75" s="100"/>
       <c r="AD75" s="100"/>
       <c r="AE75" s="100"/>
-    </row>
-    <row r="76" spans="1:31">
+      <c r="AF75" s="100"/>
+    </row>
+    <row r="76" spans="1:32">
       <c r="A76" s="156">
         <v>445</v>
       </c>
@@ -10483,10 +10592,10 @@
         <v>445:Transport y+ jacks pins plugs</v>
       </c>
       <c r="H76" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I76" s="143" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J76" s="97">
         <v>0</v>
@@ -10508,19 +10617,20 @@
       <c r="U76" s="96"/>
       <c r="V76" s="100"/>
       <c r="W76" s="97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X76" s="98"/>
       <c r="Y76" s="17">
         <v>0</v>
       </c>
-      <c r="Z76" s="63"/>
-      <c r="AB76" s="100"/>
+      <c r="Z76" s="17"/>
+      <c r="AA76" s="63"/>
       <c r="AC76" s="100"/>
       <c r="AD76" s="100"/>
       <c r="AE76" s="100"/>
-    </row>
-    <row r="77" spans="1:31">
+      <c r="AF76" s="100"/>
+    </row>
+    <row r="77" spans="1:32">
       <c r="A77" s="156">
         <v>446</v>
       </c>
@@ -10539,10 +10649,10 @@
         <v>446:Transport y+ hang offs</v>
       </c>
       <c r="H77" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I77" s="143" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J77" s="97">
         <v>0</v>
@@ -10564,19 +10674,20 @@
       <c r="U77" s="96"/>
       <c r="V77" s="100"/>
       <c r="W77" s="97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X77" s="98"/>
       <c r="Y77" s="17">
         <v>0</v>
       </c>
-      <c r="Z77" s="63"/>
-      <c r="AB77" s="100"/>
+      <c r="Z77" s="17"/>
+      <c r="AA77" s="63"/>
       <c r="AC77" s="100"/>
       <c r="AD77" s="100"/>
       <c r="AE77" s="100"/>
-    </row>
-    <row r="78" spans="1:31">
+      <c r="AF77" s="100"/>
+    </row>
+    <row r="78" spans="1:32">
       <c r="A78" s="156">
         <v>447</v>
       </c>
@@ -10595,10 +10706,10 @@
         <v>447:Transport y+ jibflex top</v>
       </c>
       <c r="H78" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I78" s="143" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J78" s="97">
         <v>0</v>
@@ -10634,13 +10745,14 @@
       <c r="W78" s="97"/>
       <c r="X78" s="98"/>
       <c r="Y78" s="17"/>
-      <c r="Z78" s="63"/>
-      <c r="AB78" s="100"/>
+      <c r="Z78" s="17"/>
+      <c r="AA78" s="63"/>
       <c r="AC78" s="100"/>
       <c r="AD78" s="100"/>
       <c r="AE78" s="100"/>
-    </row>
-    <row r="79" spans="1:31">
+      <c r="AF78" s="100"/>
+    </row>
+    <row r="79" spans="1:32">
       <c r="A79" s="156">
         <v>448</v>
       </c>
@@ -10659,10 +10771,10 @@
         <v>448:Transport y+ jibflex bot</v>
       </c>
       <c r="H79" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I79" s="143" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J79" s="97">
         <v>0</v>
@@ -10698,13 +10810,14 @@
       <c r="W79" s="97"/>
       <c r="X79" s="98"/>
       <c r="Y79" s="17"/>
-      <c r="Z79" s="63"/>
-      <c r="AB79" s="100"/>
+      <c r="Z79" s="17"/>
+      <c r="AA79" s="63"/>
       <c r="AC79" s="100"/>
       <c r="AD79" s="100"/>
       <c r="AE79" s="100"/>
-    </row>
-    <row r="80" spans="1:31">
+      <c r="AF79" s="100"/>
+    </row>
+    <row r="80" spans="1:32">
       <c r="A80" s="156">
         <v>449</v>
       </c>
@@ -10723,10 +10836,10 @@
         <v>449:Transport y+ tensioner tool</v>
       </c>
       <c r="H80" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I80" s="143" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J80" s="97">
         <v>0</v>
@@ -10748,19 +10861,20 @@
       <c r="U80" s="96"/>
       <c r="V80" s="100"/>
       <c r="W80" s="97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X80" s="98"/>
       <c r="Y80" s="17">
         <v>0</v>
       </c>
-      <c r="Z80" s="63"/>
-      <c r="AB80" s="100"/>
+      <c r="Z80" s="17"/>
+      <c r="AA80" s="63"/>
       <c r="AC80" s="100"/>
       <c r="AD80" s="100"/>
       <c r="AE80" s="100"/>
-    </row>
-    <row r="81" spans="1:31">
+      <c r="AF80" s="100"/>
+    </row>
+    <row r="81" spans="1:32">
       <c r="A81" s="156">
         <v>450</v>
       </c>
@@ -10779,10 +10893,10 @@
         <v>450:Transport y+ tensioner power pack</v>
       </c>
       <c r="H81" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I81" s="143" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J81" s="97">
         <v>0</v>
@@ -10804,19 +10918,20 @@
       <c r="U81" s="96"/>
       <c r="V81" s="100"/>
       <c r="W81" s="97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X81" s="98"/>
       <c r="Y81" s="17">
         <v>0</v>
       </c>
-      <c r="Z81" s="63"/>
-      <c r="AB81" s="100"/>
+      <c r="Z81" s="17"/>
+      <c r="AA81" s="63"/>
       <c r="AC81" s="100"/>
       <c r="AD81" s="100"/>
       <c r="AE81" s="100"/>
-    </row>
-    <row r="82" spans="1:31">
+      <c r="AF81" s="100"/>
+    </row>
+    <row r="82" spans="1:32">
       <c r="A82" s="156">
         <v>451</v>
       </c>
@@ -10835,10 +10950,10 @@
         <v>451:Transport y- objects</v>
       </c>
       <c r="H82" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="I82" s="143" t="s">
         <v>170</v>
-      </c>
-      <c r="I82" s="143" t="s">
-        <v>171</v>
       </c>
       <c r="J82" s="97">
         <v>0</v>
@@ -10861,16 +10976,17 @@
       <c r="V82" s="100"/>
       <c r="W82" s="97"/>
       <c r="X82" s="98" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Y82" s="17"/>
-      <c r="Z82" s="63"/>
-      <c r="AB82" s="100"/>
+      <c r="Z82" s="17"/>
+      <c r="AA82" s="63"/>
       <c r="AC82" s="100"/>
       <c r="AD82" s="100"/>
       <c r="AE82" s="100"/>
-    </row>
-    <row r="83" spans="1:31">
+      <c r="AF82" s="100"/>
+    </row>
+    <row r="83" spans="1:32">
       <c r="A83" s="156">
         <v>452</v>
       </c>
@@ -10889,10 +11005,10 @@
         <v>452:Transport y- objects</v>
       </c>
       <c r="H83" s="63" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I83" s="143" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J83" s="97">
         <v>0</v>
@@ -10915,16 +11031,17 @@
       <c r="V83" s="100"/>
       <c r="W83" s="97"/>
       <c r="X83" s="98" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Y83" s="17"/>
-      <c r="Z83" s="63"/>
-      <c r="AB83" s="100"/>
+      <c r="Z83" s="17"/>
+      <c r="AA83" s="63"/>
       <c r="AC83" s="100"/>
       <c r="AD83" s="100"/>
       <c r="AE83" s="100"/>
-    </row>
-    <row r="84" spans="1:31">
+      <c r="AF83" s="100"/>
+    </row>
+    <row r="84" spans="1:32">
       <c r="A84" s="156">
         <v>453</v>
       </c>
@@ -10943,10 +11060,10 @@
         <v>453:Transport y- lifting cage</v>
       </c>
       <c r="H84" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I84" s="143" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J84" s="97">
         <v>0</v>
@@ -10968,19 +11085,20 @@
       <c r="U84" s="96"/>
       <c r="V84" s="100"/>
       <c r="W84" s="97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X84" s="98"/>
       <c r="Y84" s="17">
         <v>0</v>
       </c>
-      <c r="Z84" s="63"/>
-      <c r="AB84" s="100"/>
+      <c r="Z84" s="17"/>
+      <c r="AA84" s="63"/>
       <c r="AC84" s="100"/>
       <c r="AD84" s="100"/>
       <c r="AE84" s="100"/>
-    </row>
-    <row r="85" spans="1:31">
+      <c r="AF84" s="100"/>
+    </row>
+    <row r="85" spans="1:32">
       <c r="A85" s="156">
         <v>454</v>
       </c>
@@ -10999,10 +11117,10 @@
         <v>454:Transport y- misc storage</v>
       </c>
       <c r="H85" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I85" s="143" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J85" s="97">
         <v>0</v>
@@ -11024,19 +11142,20 @@
       <c r="U85" s="96"/>
       <c r="V85" s="100"/>
       <c r="W85" s="97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X85" s="98"/>
       <c r="Y85" s="17">
         <v>0</v>
       </c>
-      <c r="Z85" s="63"/>
-      <c r="AB85" s="100"/>
+      <c r="Z85" s="17"/>
+      <c r="AA85" s="63"/>
       <c r="AC85" s="100"/>
       <c r="AD85" s="100"/>
       <c r="AE85" s="100"/>
-    </row>
-    <row r="86" spans="1:31">
+      <c r="AF85" s="100"/>
+    </row>
+    <row r="86" spans="1:32">
       <c r="A86" s="156">
         <v>455</v>
       </c>
@@ -11055,10 +11174,10 @@
         <v>455:Transport y- pins and jacks</v>
       </c>
       <c r="H86" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I86" s="143" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J86" s="97">
         <v>0</v>
@@ -11080,19 +11199,20 @@
       <c r="U86" s="96"/>
       <c r="V86" s="100"/>
       <c r="W86" s="97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X86" s="98"/>
       <c r="Y86" s="17">
         <v>0</v>
       </c>
-      <c r="Z86" s="63"/>
-      <c r="AB86" s="100"/>
+      <c r="Z86" s="17"/>
+      <c r="AA86" s="63"/>
       <c r="AC86" s="100"/>
       <c r="AD86" s="100"/>
       <c r="AE86" s="100"/>
-    </row>
-    <row r="87" spans="1:31">
+      <c r="AF86" s="100"/>
+    </row>
+    <row r="87" spans="1:32">
       <c r="A87" s="156">
         <v>456</v>
       </c>
@@ -11111,10 +11231,10 @@
         <v>456:Transport y- anode boxes</v>
       </c>
       <c r="H87" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I87" s="143" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J87" s="97">
         <v>0</v>
@@ -11136,19 +11256,20 @@
       <c r="U87" s="96"/>
       <c r="V87" s="100"/>
       <c r="W87" s="97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X87" s="98"/>
       <c r="Y87" s="17">
         <v>0</v>
       </c>
-      <c r="Z87" s="63"/>
-      <c r="AB87" s="100"/>
+      <c r="Z87" s="17"/>
+      <c r="AA87" s="63"/>
       <c r="AC87" s="100"/>
       <c r="AD87" s="100"/>
       <c r="AE87" s="100"/>
-    </row>
-    <row r="88" spans="1:31">
+      <c r="AF87" s="100"/>
+    </row>
+    <row r="88" spans="1:32">
       <c r="A88" s="156">
         <v>458</v>
       </c>
@@ -11167,10 +11288,10 @@
         <v>458:Transport y- jacks pins plugs</v>
       </c>
       <c r="H88" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I88" s="143" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J88" s="97">
         <v>0</v>
@@ -11192,19 +11313,20 @@
       <c r="U88" s="96"/>
       <c r="V88" s="100"/>
       <c r="W88" s="97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X88" s="98"/>
       <c r="Y88" s="17">
         <v>0</v>
       </c>
-      <c r="Z88" s="63"/>
-      <c r="AB88" s="100"/>
+      <c r="Z88" s="17"/>
+      <c r="AA88" s="63"/>
       <c r="AC88" s="100"/>
       <c r="AD88" s="100"/>
       <c r="AE88" s="100"/>
-    </row>
-    <row r="89" spans="1:31">
+      <c r="AF88" s="100"/>
+    </row>
+    <row r="89" spans="1:32">
       <c r="A89" s="156">
         <v>459</v>
       </c>
@@ -11223,10 +11345,10 @@
         <v>459:Transport y- hang offs</v>
       </c>
       <c r="H89" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I89" s="143" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J89" s="97">
         <v>0</v>
@@ -11248,19 +11370,20 @@
       <c r="U89" s="96"/>
       <c r="V89" s="100"/>
       <c r="W89" s="97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X89" s="98"/>
       <c r="Y89" s="17">
         <v>0</v>
       </c>
-      <c r="Z89" s="63"/>
-      <c r="AB89" s="100"/>
+      <c r="Z89" s="17"/>
+      <c r="AA89" s="63"/>
       <c r="AC89" s="100"/>
       <c r="AD89" s="100"/>
       <c r="AE89" s="100"/>
-    </row>
-    <row r="90" spans="1:31">
+      <c r="AF89" s="100"/>
+    </row>
+    <row r="90" spans="1:32">
       <c r="A90" s="156">
         <v>460</v>
       </c>
@@ -11279,10 +11402,10 @@
         <v>460:Transport y- jibflex top</v>
       </c>
       <c r="H90" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I90" s="143" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J90" s="97">
         <v>0</v>
@@ -11318,13 +11441,14 @@
       <c r="W90" s="97"/>
       <c r="X90" s="98"/>
       <c r="Y90" s="17"/>
-      <c r="Z90" s="63"/>
-      <c r="AB90" s="100"/>
+      <c r="Z90" s="17"/>
+      <c r="AA90" s="63"/>
       <c r="AC90" s="100"/>
       <c r="AD90" s="100"/>
       <c r="AE90" s="100"/>
-    </row>
-    <row r="91" spans="1:31">
+      <c r="AF90" s="100"/>
+    </row>
+    <row r="91" spans="1:32">
       <c r="A91" s="156">
         <v>461</v>
       </c>
@@ -11343,10 +11467,10 @@
         <v>461:Transport y- jibflex bot</v>
       </c>
       <c r="H91" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I91" s="143" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J91" s="97">
         <v>0</v>
@@ -11382,13 +11506,14 @@
       <c r="W91" s="97"/>
       <c r="X91" s="98"/>
       <c r="Y91" s="17"/>
-      <c r="Z91" s="63"/>
-      <c r="AB91" s="100"/>
+      <c r="Z91" s="17"/>
+      <c r="AA91" s="63"/>
       <c r="AC91" s="100"/>
       <c r="AD91" s="100"/>
       <c r="AE91" s="100"/>
-    </row>
-    <row r="92" spans="1:31">
+      <c r="AF91" s="100"/>
+    </row>
+    <row r="92" spans="1:32">
       <c r="A92" s="156">
         <v>462</v>
       </c>
@@ -11407,10 +11532,10 @@
         <v>462:Transport y- tensioner tool</v>
       </c>
       <c r="H92" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I92" s="143" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J92" s="97">
         <v>0</v>
@@ -11432,19 +11557,20 @@
       <c r="U92" s="96"/>
       <c r="V92" s="100"/>
       <c r="W92" s="97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X92" s="98"/>
       <c r="Y92" s="17">
         <v>0</v>
       </c>
-      <c r="Z92" s="63"/>
-      <c r="AB92" s="100"/>
+      <c r="Z92" s="17"/>
+      <c r="AA92" s="63"/>
       <c r="AC92" s="100"/>
       <c r="AD92" s="100"/>
       <c r="AE92" s="100"/>
-    </row>
-    <row r="93" spans="1:31">
+      <c r="AF92" s="100"/>
+    </row>
+    <row r="93" spans="1:32">
       <c r="A93" s="156">
         <v>463</v>
       </c>
@@ -11463,10 +11589,10 @@
         <v>463:Transport y- tensioner power pack</v>
       </c>
       <c r="H93" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I93" s="143" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J93" s="97">
         <v>0</v>
@@ -11488,19 +11614,20 @@
       <c r="U93" s="96"/>
       <c r="V93" s="100"/>
       <c r="W93" s="97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X93" s="98"/>
       <c r="Y93" s="17">
         <v>0</v>
       </c>
-      <c r="Z93" s="63"/>
-      <c r="AB93" s="100"/>
+      <c r="Z93" s="17"/>
+      <c r="AA93" s="63"/>
       <c r="AC93" s="100"/>
       <c r="AD93" s="100"/>
       <c r="AE93" s="100"/>
-    </row>
-    <row r="94" spans="1:31">
+      <c r="AF93" s="100"/>
+    </row>
+    <row r="94" spans="1:32">
       <c r="A94" s="156">
         <v>464</v>
       </c>
@@ -11519,10 +11646,10 @@
         <v>464:Set down accelerations z- objects</v>
       </c>
       <c r="H94" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="I94" s="143" t="s">
         <v>170</v>
-      </c>
-      <c r="I94" s="143" t="s">
-        <v>171</v>
       </c>
       <c r="J94" s="97">
         <v>0</v>
@@ -11545,16 +11672,17 @@
       <c r="V94" s="100"/>
       <c r="W94" s="97"/>
       <c r="X94" s="98" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Y94" s="17"/>
-      <c r="Z94" s="63"/>
-      <c r="AB94" s="100"/>
+      <c r="Z94" s="17"/>
+      <c r="AA94" s="63"/>
       <c r="AC94" s="100"/>
       <c r="AD94" s="100"/>
       <c r="AE94" s="100"/>
-    </row>
-    <row r="95" spans="1:31">
+      <c r="AF94" s="100"/>
+    </row>
+    <row r="95" spans="1:32">
       <c r="A95" s="156">
         <v>465</v>
       </c>
@@ -11573,10 +11701,10 @@
         <v>465:Set down accelerations z- objects</v>
       </c>
       <c r="H95" s="63" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I95" s="143" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J95" s="97">
         <v>0</v>
@@ -11599,16 +11727,17 @@
       <c r="V95" s="100"/>
       <c r="W95" s="97"/>
       <c r="X95" s="98" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Y95" s="17"/>
-      <c r="Z95" s="63"/>
-      <c r="AB95" s="100"/>
+      <c r="Z95" s="17"/>
+      <c r="AA95" s="63"/>
       <c r="AC95" s="100"/>
       <c r="AD95" s="100"/>
       <c r="AE95" s="100"/>
-    </row>
-    <row r="96" spans="1:31">
+      <c r="AF95" s="100"/>
+    </row>
+    <row r="96" spans="1:32">
       <c r="A96" s="156">
         <v>466</v>
       </c>
@@ -11627,10 +11756,10 @@
         <v>466:Set down accelerations z- lifting cage</v>
       </c>
       <c r="H96" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I96" s="143" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J96" s="97">
         <v>0</v>
@@ -11652,19 +11781,20 @@
       <c r="U96" s="96"/>
       <c r="V96" s="100"/>
       <c r="W96" s="97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X96" s="98"/>
       <c r="Y96" s="17">
         <v>0</v>
       </c>
-      <c r="Z96" s="63"/>
-      <c r="AB96" s="100"/>
+      <c r="Z96" s="17"/>
+      <c r="AA96" s="63"/>
       <c r="AC96" s="100"/>
       <c r="AD96" s="100"/>
       <c r="AE96" s="100"/>
-    </row>
-    <row r="97" spans="1:31">
+      <c r="AF96" s="100"/>
+    </row>
+    <row r="97" spans="1:32">
       <c r="A97" s="156">
         <v>467</v>
       </c>
@@ -11683,10 +11813,10 @@
         <v>467:Set down accelerations z- misc storage</v>
       </c>
       <c r="H97" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I97" s="143" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J97" s="97">
         <v>0</v>
@@ -11708,19 +11838,20 @@
       <c r="U97" s="96"/>
       <c r="V97" s="100"/>
       <c r="W97" s="97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X97" s="98"/>
       <c r="Y97" s="17">
         <v>0</v>
       </c>
-      <c r="Z97" s="63"/>
-      <c r="AB97" s="100"/>
+      <c r="Z97" s="17"/>
+      <c r="AA97" s="63"/>
       <c r="AC97" s="100"/>
       <c r="AD97" s="100"/>
       <c r="AE97" s="100"/>
-    </row>
-    <row r="98" spans="1:31">
+      <c r="AF97" s="100"/>
+    </row>
+    <row r="98" spans="1:32">
       <c r="A98" s="156">
         <v>468</v>
       </c>
@@ -11739,10 +11870,10 @@
         <v>468:Set down accelerations z- pins and jacks</v>
       </c>
       <c r="H98" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I98" s="143" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J98" s="97">
         <v>0</v>
@@ -11764,19 +11895,20 @@
       <c r="U98" s="96"/>
       <c r="V98" s="100"/>
       <c r="W98" s="97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X98" s="98"/>
       <c r="Y98" s="17">
         <v>0</v>
       </c>
-      <c r="Z98" s="63"/>
-      <c r="AB98" s="100"/>
+      <c r="Z98" s="17"/>
+      <c r="AA98" s="63"/>
       <c r="AC98" s="100"/>
       <c r="AD98" s="100"/>
       <c r="AE98" s="100"/>
-    </row>
-    <row r="99" spans="1:31">
+      <c r="AF98" s="100"/>
+    </row>
+    <row r="99" spans="1:32">
       <c r="A99" s="156">
         <v>469</v>
       </c>
@@ -11795,10 +11927,10 @@
         <v>469:Set down accelerations z- anode boxes</v>
       </c>
       <c r="H99" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I99" s="143" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J99" s="97">
         <v>0</v>
@@ -11820,19 +11952,20 @@
       <c r="U99" s="96"/>
       <c r="V99" s="100"/>
       <c r="W99" s="97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X99" s="98"/>
       <c r="Y99" s="17">
         <v>0</v>
       </c>
-      <c r="Z99" s="63"/>
-      <c r="AB99" s="100"/>
+      <c r="Z99" s="17"/>
+      <c r="AA99" s="63"/>
       <c r="AC99" s="100"/>
       <c r="AD99" s="100"/>
       <c r="AE99" s="100"/>
-    </row>
-    <row r="100" spans="1:31">
+      <c r="AF99" s="100"/>
+    </row>
+    <row r="100" spans="1:32">
       <c r="A100" s="156">
         <v>471</v>
       </c>
@@ -11851,10 +11984,10 @@
         <v>471:Set down accelerations z- jacks pins plugs</v>
       </c>
       <c r="H100" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I100" s="143" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J100" s="97">
         <v>0</v>
@@ -11876,19 +12009,20 @@
       <c r="U100" s="96"/>
       <c r="V100" s="100"/>
       <c r="W100" s="97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X100" s="98"/>
       <c r="Y100" s="17">
         <v>0</v>
       </c>
-      <c r="Z100" s="63"/>
-      <c r="AB100" s="100"/>
+      <c r="Z100" s="17"/>
+      <c r="AA100" s="63"/>
       <c r="AC100" s="100"/>
       <c r="AD100" s="100"/>
       <c r="AE100" s="100"/>
-    </row>
-    <row r="101" spans="1:31">
+      <c r="AF100" s="100"/>
+    </row>
+    <row r="101" spans="1:32">
       <c r="A101" s="156">
         <v>472</v>
       </c>
@@ -11907,10 +12041,10 @@
         <v>472:Set down accelerations z- hang offs</v>
       </c>
       <c r="H101" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I101" s="143" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J101" s="97">
         <v>0</v>
@@ -11932,19 +12066,20 @@
       <c r="U101" s="96"/>
       <c r="V101" s="100"/>
       <c r="W101" s="97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X101" s="98"/>
       <c r="Y101" s="17">
         <v>0</v>
       </c>
-      <c r="Z101" s="63"/>
-      <c r="AB101" s="100"/>
+      <c r="Z101" s="17"/>
+      <c r="AA101" s="63"/>
       <c r="AC101" s="100"/>
       <c r="AD101" s="100"/>
       <c r="AE101" s="100"/>
-    </row>
-    <row r="102" spans="1:31">
+      <c r="AF101" s="100"/>
+    </row>
+    <row r="102" spans="1:32">
       <c r="A102" s="156">
         <v>473</v>
       </c>
@@ -11963,10 +12098,10 @@
         <v>473:Set down accelerations z- jibflex top</v>
       </c>
       <c r="H102" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I102" s="143" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J102" s="97">
         <v>0</v>
@@ -12002,13 +12137,14 @@
       <c r="W102" s="97"/>
       <c r="X102" s="98"/>
       <c r="Y102" s="17"/>
-      <c r="Z102" s="63"/>
-      <c r="AB102" s="100"/>
+      <c r="Z102" s="17"/>
+      <c r="AA102" s="63"/>
       <c r="AC102" s="100"/>
       <c r="AD102" s="100"/>
       <c r="AE102" s="100"/>
-    </row>
-    <row r="103" spans="1:31">
+      <c r="AF102" s="100"/>
+    </row>
+    <row r="103" spans="1:32">
       <c r="A103" s="156">
         <v>474</v>
       </c>
@@ -12027,10 +12163,10 @@
         <v>474:Set down accelerations z- jibflex bot</v>
       </c>
       <c r="H103" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I103" s="143" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J103" s="97">
         <v>0</v>
@@ -12066,13 +12202,14 @@
       <c r="W103" s="97"/>
       <c r="X103" s="98"/>
       <c r="Y103" s="17"/>
-      <c r="Z103" s="63"/>
-      <c r="AB103" s="100"/>
+      <c r="Z103" s="17"/>
+      <c r="AA103" s="63"/>
       <c r="AC103" s="100"/>
       <c r="AD103" s="100"/>
       <c r="AE103" s="100"/>
-    </row>
-    <row r="104" spans="1:31">
+      <c r="AF103" s="100"/>
+    </row>
+    <row r="104" spans="1:32">
       <c r="A104" s="156">
         <v>475</v>
       </c>
@@ -12091,10 +12228,10 @@
         <v>475:Set down accelerations z- tensioner tool</v>
       </c>
       <c r="H104" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I104" s="143" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J104" s="97">
         <v>0</v>
@@ -12116,19 +12253,20 @@
       <c r="U104" s="96"/>
       <c r="V104" s="100"/>
       <c r="W104" s="97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X104" s="98"/>
       <c r="Y104" s="17">
         <v>0</v>
       </c>
-      <c r="Z104" s="63"/>
-      <c r="AB104" s="100"/>
+      <c r="Z104" s="17"/>
+      <c r="AA104" s="63"/>
       <c r="AC104" s="100"/>
       <c r="AD104" s="100"/>
       <c r="AE104" s="100"/>
-    </row>
-    <row r="105" spans="1:31">
+      <c r="AF104" s="100"/>
+    </row>
+    <row r="105" spans="1:32">
       <c r="A105" s="156">
         <v>476</v>
       </c>
@@ -12147,10 +12285,10 @@
         <v>476:Set down accelerations z- tensioner power pack</v>
       </c>
       <c r="H105" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I105" s="143" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J105" s="97">
         <v>0</v>
@@ -12172,19 +12310,20 @@
       <c r="U105" s="96"/>
       <c r="V105" s="100"/>
       <c r="W105" s="97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X105" s="98"/>
       <c r="Y105" s="17">
         <v>0</v>
       </c>
-      <c r="Z105" s="63"/>
-      <c r="AB105" s="100"/>
+      <c r="Z105" s="17"/>
+      <c r="AA105" s="63"/>
       <c r="AC105" s="100"/>
       <c r="AD105" s="100"/>
       <c r="AE105" s="100"/>
-    </row>
-    <row r="106" spans="1:31">
+      <c r="AF105" s="100"/>
+    </row>
+    <row r="106" spans="1:32">
       <c r="A106" s="156">
         <v>501</v>
       </c>
@@ -12203,10 +12342,10 @@
         <v>501:Horizontal position gravity x+ objects</v>
       </c>
       <c r="H106" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="I106" s="143" t="s">
         <v>170</v>
-      </c>
-      <c r="I106" s="143" t="s">
-        <v>171</v>
       </c>
       <c r="J106" s="97">
         <v>9.81</v>
@@ -12229,16 +12368,17 @@
       <c r="V106" s="100"/>
       <c r="W106" s="97"/>
       <c r="X106" s="98" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Y106" s="17"/>
-      <c r="Z106" s="63"/>
-      <c r="AB106" s="100"/>
+      <c r="Z106" s="17"/>
+      <c r="AA106" s="63"/>
       <c r="AC106" s="100"/>
       <c r="AD106" s="100"/>
       <c r="AE106" s="100"/>
-    </row>
-    <row r="107" spans="1:31">
+      <c r="AF106" s="100"/>
+    </row>
+    <row r="107" spans="1:32">
       <c r="A107" s="156">
         <v>501</v>
       </c>
@@ -12257,10 +12397,10 @@
         <v>501:Horizontal position gravity x+ objects</v>
       </c>
       <c r="H107" s="63" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I107" s="143" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J107" s="97">
         <v>9.81</v>
@@ -12283,16 +12423,17 @@
       <c r="V107" s="100"/>
       <c r="W107" s="97"/>
       <c r="X107" s="98" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Y107" s="17"/>
-      <c r="Z107" s="63"/>
-      <c r="AB107" s="100"/>
+      <c r="Z107" s="17"/>
+      <c r="AA107" s="63"/>
       <c r="AC107" s="100"/>
       <c r="AD107" s="100"/>
       <c r="AE107" s="100"/>
-    </row>
-    <row r="108" spans="1:31">
+      <c r="AF107" s="100"/>
+    </row>
+    <row r="108" spans="1:32">
       <c r="A108" s="156">
         <v>502</v>
       </c>
@@ -12311,10 +12452,10 @@
         <v>502:Horizontal position gravity x- objects</v>
       </c>
       <c r="H108" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="I108" s="143" t="s">
         <v>170</v>
-      </c>
-      <c r="I108" s="143" t="s">
-        <v>171</v>
       </c>
       <c r="J108" s="97">
         <v>-9.81</v>
@@ -12337,16 +12478,17 @@
       <c r="V108" s="100"/>
       <c r="W108" s="97"/>
       <c r="X108" s="98" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Y108" s="17"/>
-      <c r="Z108" s="63"/>
-      <c r="AB108" s="100"/>
+      <c r="Z108" s="17"/>
+      <c r="AA108" s="63"/>
       <c r="AC108" s="100"/>
       <c r="AD108" s="100"/>
       <c r="AE108" s="100"/>
-    </row>
-    <row r="109" spans="1:31">
+      <c r="AF108" s="100"/>
+    </row>
+    <row r="109" spans="1:32">
       <c r="A109" s="156">
         <v>502</v>
       </c>
@@ -12365,10 +12507,10 @@
         <v>502:Horizontal position gravity x- objects</v>
       </c>
       <c r="H109" s="63" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I109" s="143" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J109" s="97">
         <v>-9.81</v>
@@ -12391,16 +12533,17 @@
       <c r="V109" s="100"/>
       <c r="W109" s="97"/>
       <c r="X109" s="98" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Y109" s="17"/>
-      <c r="Z109" s="63"/>
-      <c r="AB109" s="100"/>
+      <c r="Z109" s="17"/>
+      <c r="AA109" s="63"/>
       <c r="AC109" s="100"/>
       <c r="AD109" s="100"/>
       <c r="AE109" s="100"/>
-    </row>
-    <row r="110" spans="1:31">
+      <c r="AF109" s="100"/>
+    </row>
+    <row r="110" spans="1:32">
       <c r="A110" s="156">
         <v>503</v>
       </c>
@@ -12419,10 +12562,10 @@
         <v>503:Horizontal position gravity y+ objects</v>
       </c>
       <c r="H110" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="I110" s="143" t="s">
         <v>170</v>
-      </c>
-      <c r="I110" s="143" t="s">
-        <v>171</v>
       </c>
       <c r="J110" s="97">
         <v>0</v>
@@ -12445,16 +12588,17 @@
       <c r="V110" s="100"/>
       <c r="W110" s="97"/>
       <c r="X110" s="98" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Y110" s="17"/>
-      <c r="Z110" s="63"/>
-      <c r="AB110" s="100"/>
+      <c r="Z110" s="17"/>
+      <c r="AA110" s="63"/>
       <c r="AC110" s="100"/>
       <c r="AD110" s="100"/>
       <c r="AE110" s="100"/>
-    </row>
-    <row r="111" spans="1:31">
+      <c r="AF110" s="100"/>
+    </row>
+    <row r="111" spans="1:32">
       <c r="A111" s="156">
         <v>503</v>
       </c>
@@ -12473,10 +12617,10 @@
         <v>503:Horizontal position gravity y+ objects</v>
       </c>
       <c r="H111" s="63" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I111" s="143" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J111" s="97">
         <v>0</v>
@@ -12499,16 +12643,17 @@
       <c r="V111" s="100"/>
       <c r="W111" s="97"/>
       <c r="X111" s="98" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Y111" s="17"/>
-      <c r="Z111" s="63"/>
-      <c r="AB111" s="100"/>
+      <c r="Z111" s="17"/>
+      <c r="AA111" s="63"/>
       <c r="AC111" s="100"/>
       <c r="AD111" s="100"/>
       <c r="AE111" s="100"/>
-    </row>
-    <row r="112" spans="1:31">
+      <c r="AF111" s="100"/>
+    </row>
+    <row r="112" spans="1:32">
       <c r="A112" s="156">
         <v>504</v>
       </c>
@@ -12527,10 +12672,10 @@
         <v>504:Horizontal position gravity y- objects</v>
       </c>
       <c r="H112" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="I112" s="143" t="s">
         <v>170</v>
-      </c>
-      <c r="I112" s="143" t="s">
-        <v>171</v>
       </c>
       <c r="J112" s="97">
         <v>0</v>
@@ -12553,16 +12698,17 @@
       <c r="V112" s="100"/>
       <c r="W112" s="97"/>
       <c r="X112" s="98" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Y112" s="17"/>
-      <c r="Z112" s="63"/>
-      <c r="AB112" s="100"/>
+      <c r="Z112" s="17"/>
+      <c r="AA112" s="63"/>
       <c r="AC112" s="100"/>
       <c r="AD112" s="100"/>
       <c r="AE112" s="100"/>
-    </row>
-    <row r="113" spans="1:31">
+      <c r="AF112" s="100"/>
+    </row>
+    <row r="113" spans="1:32">
       <c r="A113" s="156">
         <v>504</v>
       </c>
@@ -12581,10 +12727,10 @@
         <v>504:Horizontal position gravity y- objects</v>
       </c>
       <c r="H113" s="63" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I113" s="143" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J113" s="97">
         <v>0</v>
@@ -12607,16 +12753,17 @@
       <c r="V113" s="100"/>
       <c r="W113" s="97"/>
       <c r="X113" s="98" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Y113" s="17"/>
-      <c r="Z113" s="63"/>
-      <c r="AB113" s="100"/>
+      <c r="Z113" s="17"/>
+      <c r="AA113" s="63"/>
       <c r="AC113" s="100"/>
       <c r="AD113" s="100"/>
       <c r="AE113" s="100"/>
-    </row>
-    <row r="114" spans="1:31">
+      <c r="AF113" s="100"/>
+    </row>
+    <row r="114" spans="1:32">
       <c r="A114" s="156">
         <v>520</v>
       </c>
@@ -12635,10 +12782,10 @@
         <v>520:JibFlex 0 deg top</v>
       </c>
       <c r="H114" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I114" s="143" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J114" s="97">
         <v>0</v>
@@ -12674,13 +12821,14 @@
       <c r="W114" s="97"/>
       <c r="X114" s="98"/>
       <c r="Y114" s="17"/>
-      <c r="Z114" s="63"/>
-      <c r="AB114" s="100"/>
+      <c r="Z114" s="17"/>
+      <c r="AA114" s="63"/>
       <c r="AC114" s="100"/>
       <c r="AD114" s="100"/>
       <c r="AE114" s="100"/>
-    </row>
-    <row r="115" spans="1:31">
+      <c r="AF114" s="100"/>
+    </row>
+    <row r="115" spans="1:32">
       <c r="A115" s="156">
         <v>521</v>
       </c>
@@ -12699,10 +12847,10 @@
         <v>521:JibFlex 0 deg bot</v>
       </c>
       <c r="H115" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I115" s="143" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J115" s="97">
         <v>0</v>
@@ -12738,13 +12886,14 @@
       <c r="W115" s="97"/>
       <c r="X115" s="98"/>
       <c r="Y115" s="17"/>
-      <c r="Z115" s="63"/>
-      <c r="AB115" s="100"/>
+      <c r="Z115" s="17"/>
+      <c r="AA115" s="63"/>
       <c r="AC115" s="100"/>
       <c r="AD115" s="100"/>
       <c r="AE115" s="100"/>
-    </row>
-    <row r="116" spans="1:31">
+      <c r="AF115" s="100"/>
+    </row>
+    <row r="116" spans="1:32">
       <c r="A116" s="156">
         <v>522</v>
       </c>
@@ -12763,10 +12912,10 @@
         <v>522:JibFlex 45 deg top</v>
       </c>
       <c r="H116" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I116" s="143" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J116" s="97">
         <v>19.8</v>
@@ -12802,13 +12951,14 @@
       <c r="W116" s="97"/>
       <c r="X116" s="98"/>
       <c r="Y116" s="17"/>
-      <c r="Z116" s="63"/>
-      <c r="AB116" s="100"/>
+      <c r="Z116" s="17"/>
+      <c r="AA116" s="63"/>
       <c r="AC116" s="100"/>
       <c r="AD116" s="100"/>
       <c r="AE116" s="100"/>
-    </row>
-    <row r="117" spans="1:31">
+      <c r="AF116" s="100"/>
+    </row>
+    <row r="117" spans="1:32">
       <c r="A117" s="156">
         <v>523</v>
       </c>
@@ -12827,10 +12977,10 @@
         <v>523:JibFLex 45 deg bot</v>
       </c>
       <c r="H117" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I117" s="143" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J117" s="97">
         <v>-19.8</v>
@@ -12866,13 +13016,14 @@
       <c r="W117" s="97"/>
       <c r="X117" s="98"/>
       <c r="Y117" s="17"/>
-      <c r="Z117" s="63"/>
-      <c r="AB117" s="100"/>
+      <c r="Z117" s="17"/>
+      <c r="AA117" s="63"/>
       <c r="AC117" s="100"/>
       <c r="AD117" s="100"/>
       <c r="AE117" s="100"/>
-    </row>
-    <row r="118" spans="1:31">
+      <c r="AF117" s="100"/>
+    </row>
+    <row r="118" spans="1:32">
       <c r="A118" s="156">
         <v>524</v>
       </c>
@@ -12891,10 +13042,10 @@
         <v>524:JibFlex 90 deg top</v>
       </c>
       <c r="H118" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I118" s="143" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J118" s="97">
         <v>-27.5</v>
@@ -12930,13 +13081,14 @@
       <c r="W118" s="97"/>
       <c r="X118" s="98"/>
       <c r="Y118" s="17"/>
-      <c r="Z118" s="63"/>
-      <c r="AB118" s="100"/>
+      <c r="Z118" s="17"/>
+      <c r="AA118" s="63"/>
       <c r="AC118" s="100"/>
       <c r="AD118" s="100"/>
       <c r="AE118" s="100"/>
-    </row>
-    <row r="119" spans="1:31">
+      <c r="AF118" s="100"/>
+    </row>
+    <row r="119" spans="1:32">
       <c r="A119" s="156">
         <v>525</v>
       </c>
@@ -12955,10 +13107,10 @@
         <v>525:JibFlex 90 deg bot</v>
       </c>
       <c r="H119" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I119" s="143" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J119" s="97">
         <v>27.5</v>
@@ -12994,13 +13146,14 @@
       <c r="W119" s="97"/>
       <c r="X119" s="98"/>
       <c r="Y119" s="17"/>
-      <c r="Z119" s="63"/>
-      <c r="AB119" s="100"/>
+      <c r="Z119" s="17"/>
+      <c r="AA119" s="63"/>
       <c r="AC119" s="100"/>
       <c r="AD119" s="100"/>
       <c r="AE119" s="100"/>
-    </row>
-    <row r="120" spans="1:31">
+      <c r="AF119" s="100"/>
+    </row>
+    <row r="120" spans="1:32">
       <c r="A120" s="156"/>
       <c r="B120" s="160"/>
       <c r="C120" s="94" t="e">
@@ -13032,13 +13185,14 @@
       <c r="W120" s="97"/>
       <c r="X120" s="98"/>
       <c r="Y120" s="17"/>
-      <c r="Z120" s="63"/>
-      <c r="AB120" s="100"/>
+      <c r="Z120" s="17"/>
+      <c r="AA120" s="63"/>
       <c r="AC120" s="100"/>
       <c r="AD120" s="100"/>
       <c r="AE120" s="100"/>
-    </row>
-    <row r="121" spans="1:31">
+      <c r="AF120" s="100"/>
+    </row>
+    <row r="121" spans="1:32">
       <c r="A121" s="156"/>
       <c r="B121" s="160"/>
       <c r="C121" s="94" t="e">
@@ -13070,13 +13224,14 @@
       <c r="W121" s="97"/>
       <c r="X121" s="98"/>
       <c r="Y121" s="17"/>
-      <c r="Z121" s="63"/>
-      <c r="AB121" s="100"/>
+      <c r="Z121" s="17"/>
+      <c r="AA121" s="63"/>
       <c r="AC121" s="100"/>
       <c r="AD121" s="100"/>
       <c r="AE121" s="100"/>
-    </row>
-    <row r="122" spans="1:31">
+      <c r="AF121" s="100"/>
+    </row>
+    <row r="122" spans="1:32">
       <c r="A122" s="156"/>
       <c r="B122" s="160"/>
       <c r="C122" s="94" t="e">
@@ -13108,13 +13263,14 @@
       <c r="W122" s="97"/>
       <c r="X122" s="98"/>
       <c r="Y122" s="17"/>
-      <c r="Z122" s="63"/>
-      <c r="AB122" s="100"/>
+      <c r="Z122" s="17"/>
+      <c r="AA122" s="63"/>
       <c r="AC122" s="100"/>
       <c r="AD122" s="100"/>
       <c r="AE122" s="100"/>
-    </row>
-    <row r="123" spans="1:31">
+      <c r="AF122" s="100"/>
+    </row>
+    <row r="123" spans="1:32">
       <c r="A123" s="156"/>
       <c r="B123" s="160"/>
       <c r="C123" s="94" t="e">
@@ -13146,13 +13302,14 @@
       <c r="W123" s="97"/>
       <c r="X123" s="98"/>
       <c r="Y123" s="17"/>
-      <c r="Z123" s="63"/>
-      <c r="AB123" s="100"/>
+      <c r="Z123" s="17"/>
+      <c r="AA123" s="63"/>
       <c r="AC123" s="100"/>
       <c r="AD123" s="100"/>
       <c r="AE123" s="100"/>
-    </row>
-    <row r="124" spans="1:31">
+      <c r="AF123" s="100"/>
+    </row>
+    <row r="124" spans="1:32">
       <c r="A124" s="156"/>
       <c r="B124" s="160"/>
       <c r="C124" s="94" t="e">
@@ -13184,13 +13341,14 @@
       <c r="W124" s="97"/>
       <c r="X124" s="98"/>
       <c r="Y124" s="17"/>
-      <c r="Z124" s="63"/>
-      <c r="AB124" s="100"/>
+      <c r="Z124" s="17"/>
+      <c r="AA124" s="63"/>
       <c r="AC124" s="100"/>
       <c r="AD124" s="100"/>
       <c r="AE124" s="100"/>
-    </row>
-    <row r="125" spans="1:31">
+      <c r="AF124" s="100"/>
+    </row>
+    <row r="125" spans="1:32">
       <c r="A125" s="156"/>
       <c r="B125" s="160"/>
       <c r="C125" s="94" t="e">
@@ -13222,13 +13380,14 @@
       <c r="W125" s="97"/>
       <c r="X125" s="98"/>
       <c r="Y125" s="17"/>
-      <c r="Z125" s="63"/>
-      <c r="AB125" s="100"/>
+      <c r="Z125" s="17"/>
+      <c r="AA125" s="63"/>
       <c r="AC125" s="100"/>
       <c r="AD125" s="100"/>
       <c r="AE125" s="100"/>
-    </row>
-    <row r="126" spans="1:31">
+      <c r="AF125" s="100"/>
+    </row>
+    <row r="126" spans="1:32">
       <c r="A126" s="156"/>
       <c r="B126" s="160"/>
       <c r="C126" s="94" t="e">
@@ -13260,13 +13419,14 @@
       <c r="W126" s="97"/>
       <c r="X126" s="98"/>
       <c r="Y126" s="17"/>
-      <c r="Z126" s="63"/>
-      <c r="AB126" s="100"/>
+      <c r="Z126" s="17"/>
+      <c r="AA126" s="63"/>
       <c r="AC126" s="100"/>
       <c r="AD126" s="100"/>
       <c r="AE126" s="100"/>
-    </row>
-    <row r="127" spans="1:31">
+      <c r="AF126" s="100"/>
+    </row>
+    <row r="127" spans="1:32">
       <c r="A127" s="156"/>
       <c r="B127" s="160"/>
       <c r="C127" s="94" t="e">
@@ -13298,13 +13458,14 @@
       <c r="W127" s="97"/>
       <c r="X127" s="98"/>
       <c r="Y127" s="17"/>
-      <c r="Z127" s="63"/>
-      <c r="AB127" s="100"/>
+      <c r="Z127" s="17"/>
+      <c r="AA127" s="63"/>
       <c r="AC127" s="100"/>
       <c r="AD127" s="100"/>
       <c r="AE127" s="100"/>
-    </row>
-    <row r="128" spans="1:31">
+      <c r="AF127" s="100"/>
+    </row>
+    <row r="128" spans="1:32">
       <c r="A128" s="156"/>
       <c r="B128" s="160"/>
       <c r="C128" s="94" t="e">
@@ -13336,13 +13497,14 @@
       <c r="W128" s="97"/>
       <c r="X128" s="98"/>
       <c r="Y128" s="17"/>
-      <c r="Z128" s="63"/>
-      <c r="AB128" s="100"/>
+      <c r="Z128" s="17"/>
+      <c r="AA128" s="63"/>
       <c r="AC128" s="100"/>
       <c r="AD128" s="100"/>
       <c r="AE128" s="100"/>
-    </row>
-    <row r="129" spans="1:31">
+      <c r="AF128" s="100"/>
+    </row>
+    <row r="129" spans="1:32">
       <c r="A129" s="156"/>
       <c r="B129" s="160"/>
       <c r="C129" s="94" t="e">
@@ -13374,13 +13536,14 @@
       <c r="W129" s="97"/>
       <c r="X129" s="98"/>
       <c r="Y129" s="17"/>
-      <c r="Z129" s="63"/>
-      <c r="AB129" s="100"/>
+      <c r="Z129" s="17"/>
+      <c r="AA129" s="63"/>
       <c r="AC129" s="100"/>
       <c r="AD129" s="100"/>
       <c r="AE129" s="100"/>
-    </row>
-    <row r="130" spans="1:31">
+      <c r="AF129" s="100"/>
+    </row>
+    <row r="130" spans="1:32">
       <c r="A130" s="156"/>
       <c r="B130" s="160"/>
       <c r="C130" s="94" t="e">
@@ -13412,13 +13575,14 @@
       <c r="W130" s="97"/>
       <c r="X130" s="98"/>
       <c r="Y130" s="17"/>
-      <c r="Z130" s="63"/>
-      <c r="AB130" s="100"/>
+      <c r="Z130" s="17"/>
+      <c r="AA130" s="63"/>
       <c r="AC130" s="100"/>
       <c r="AD130" s="100"/>
       <c r="AE130" s="100"/>
-    </row>
-    <row r="131" spans="1:31">
+      <c r="AF130" s="100"/>
+    </row>
+    <row r="131" spans="1:32">
       <c r="A131" s="156"/>
       <c r="B131" s="160"/>
       <c r="C131" s="94" t="e">
@@ -13450,13 +13614,14 @@
       <c r="W131" s="97"/>
       <c r="X131" s="98"/>
       <c r="Y131" s="17"/>
-      <c r="Z131" s="63"/>
-      <c r="AB131" s="100"/>
+      <c r="Z131" s="17"/>
+      <c r="AA131" s="63"/>
       <c r="AC131" s="100"/>
       <c r="AD131" s="100"/>
       <c r="AE131" s="100"/>
-    </row>
-    <row r="132" spans="1:31">
+      <c r="AF131" s="100"/>
+    </row>
+    <row r="132" spans="1:32">
       <c r="A132" s="156"/>
       <c r="B132" s="160"/>
       <c r="C132" s="94" t="e">
@@ -13488,13 +13653,14 @@
       <c r="W132" s="97"/>
       <c r="X132" s="98"/>
       <c r="Y132" s="17"/>
-      <c r="Z132" s="63"/>
-      <c r="AB132" s="100"/>
+      <c r="Z132" s="17"/>
+      <c r="AA132" s="63"/>
       <c r="AC132" s="100"/>
       <c r="AD132" s="100"/>
       <c r="AE132" s="100"/>
-    </row>
-    <row r="133" spans="1:31">
+      <c r="AF132" s="100"/>
+    </row>
+    <row r="133" spans="1:32">
       <c r="A133" s="156"/>
       <c r="B133" s="160"/>
       <c r="C133" s="94" t="e">
@@ -13526,13 +13692,14 @@
       <c r="W133" s="97"/>
       <c r="X133" s="98"/>
       <c r="Y133" s="17"/>
-      <c r="Z133" s="63"/>
-      <c r="AB133" s="100"/>
+      <c r="Z133" s="17"/>
+      <c r="AA133" s="63"/>
       <c r="AC133" s="100"/>
       <c r="AD133" s="100"/>
       <c r="AE133" s="100"/>
-    </row>
-    <row r="134" spans="1:31">
+      <c r="AF133" s="100"/>
+    </row>
+    <row r="134" spans="1:32">
       <c r="A134" s="156"/>
       <c r="B134" s="160"/>
       <c r="C134" s="94" t="e">
@@ -13564,13 +13731,14 @@
       <c r="W134" s="97"/>
       <c r="X134" s="98"/>
       <c r="Y134" s="17"/>
-      <c r="Z134" s="63"/>
-      <c r="AB134" s="100"/>
+      <c r="Z134" s="17"/>
+      <c r="AA134" s="63"/>
       <c r="AC134" s="100"/>
       <c r="AD134" s="100"/>
       <c r="AE134" s="100"/>
-    </row>
-    <row r="135" spans="1:31">
+      <c r="AF134" s="100"/>
+    </row>
+    <row r="135" spans="1:32">
       <c r="A135" s="156"/>
       <c r="B135" s="160"/>
       <c r="C135" s="94" t="e">
@@ -13602,13 +13770,14 @@
       <c r="W135" s="97"/>
       <c r="X135" s="98"/>
       <c r="Y135" s="17"/>
-      <c r="Z135" s="63"/>
-      <c r="AB135" s="100"/>
+      <c r="Z135" s="17"/>
+      <c r="AA135" s="63"/>
       <c r="AC135" s="100"/>
       <c r="AD135" s="100"/>
       <c r="AE135" s="100"/>
-    </row>
-    <row r="136" spans="1:31">
+      <c r="AF135" s="100"/>
+    </row>
+    <row r="136" spans="1:32">
       <c r="A136" s="156"/>
       <c r="B136" s="160"/>
       <c r="C136" s="94" t="e">
@@ -13640,13 +13809,14 @@
       <c r="W136" s="97"/>
       <c r="X136" s="98"/>
       <c r="Y136" s="17"/>
-      <c r="Z136" s="63"/>
-      <c r="AB136" s="100"/>
+      <c r="Z136" s="17"/>
+      <c r="AA136" s="63"/>
       <c r="AC136" s="100"/>
       <c r="AD136" s="100"/>
       <c r="AE136" s="100"/>
-    </row>
-    <row r="137" spans="1:31">
+      <c r="AF136" s="100"/>
+    </row>
+    <row r="137" spans="1:32">
       <c r="A137" s="156"/>
       <c r="B137" s="160"/>
       <c r="C137" s="94" t="e">
@@ -13678,13 +13848,14 @@
       <c r="W137" s="97"/>
       <c r="X137" s="98"/>
       <c r="Y137" s="17"/>
-      <c r="Z137" s="63"/>
-      <c r="AB137" s="100"/>
+      <c r="Z137" s="17"/>
+      <c r="AA137" s="63"/>
       <c r="AC137" s="100"/>
       <c r="AD137" s="100"/>
       <c r="AE137" s="100"/>
-    </row>
-    <row r="138" spans="1:31">
+      <c r="AF137" s="100"/>
+    </row>
+    <row r="138" spans="1:32">
       <c r="A138" s="156"/>
       <c r="B138" s="160"/>
       <c r="C138" s="94" t="e">
@@ -13716,13 +13887,14 @@
       <c r="W138" s="97"/>
       <c r="X138" s="98"/>
       <c r="Y138" s="17"/>
-      <c r="Z138" s="63"/>
-      <c r="AB138" s="100"/>
+      <c r="Z138" s="17"/>
+      <c r="AA138" s="63"/>
       <c r="AC138" s="100"/>
       <c r="AD138" s="100"/>
       <c r="AE138" s="100"/>
-    </row>
-    <row r="139" spans="1:31">
+      <c r="AF138" s="100"/>
+    </row>
+    <row r="139" spans="1:32">
       <c r="A139" s="156"/>
       <c r="B139" s="160"/>
       <c r="C139" s="94" t="e">
@@ -13754,13 +13926,14 @@
       <c r="W139" s="97"/>
       <c r="X139" s="98"/>
       <c r="Y139" s="17"/>
-      <c r="Z139" s="63"/>
-      <c r="AB139" s="100"/>
+      <c r="Z139" s="17"/>
+      <c r="AA139" s="63"/>
       <c r="AC139" s="100"/>
       <c r="AD139" s="100"/>
       <c r="AE139" s="100"/>
-    </row>
-    <row r="140" spans="1:31">
+      <c r="AF139" s="100"/>
+    </row>
+    <row r="140" spans="1:32">
       <c r="A140" s="156"/>
       <c r="B140" s="160"/>
       <c r="C140" s="94" t="e">
@@ -13792,13 +13965,14 @@
       <c r="W140" s="97"/>
       <c r="X140" s="98"/>
       <c r="Y140" s="17"/>
-      <c r="Z140" s="63"/>
-      <c r="AB140" s="100"/>
+      <c r="Z140" s="17"/>
+      <c r="AA140" s="63"/>
       <c r="AC140" s="100"/>
       <c r="AD140" s="100"/>
       <c r="AE140" s="100"/>
-    </row>
-    <row r="141" spans="1:31">
+      <c r="AF140" s="100"/>
+    </row>
+    <row r="141" spans="1:32">
       <c r="A141" s="156"/>
       <c r="B141" s="160"/>
       <c r="C141" s="94" t="e">
@@ -13830,13 +14004,14 @@
       <c r="W141" s="97"/>
       <c r="X141" s="98"/>
       <c r="Y141" s="17"/>
-      <c r="Z141" s="63"/>
-      <c r="AB141" s="100"/>
+      <c r="Z141" s="17"/>
+      <c r="AA141" s="63"/>
       <c r="AC141" s="100"/>
       <c r="AD141" s="100"/>
       <c r="AE141" s="100"/>
-    </row>
-    <row r="142" spans="1:31">
+      <c r="AF141" s="100"/>
+    </row>
+    <row r="142" spans="1:32">
       <c r="A142" s="156"/>
       <c r="B142" s="160"/>
       <c r="C142" s="94" t="e">
@@ -13868,13 +14043,14 @@
       <c r="W142" s="97"/>
       <c r="X142" s="98"/>
       <c r="Y142" s="17"/>
-      <c r="Z142" s="63"/>
-      <c r="AB142" s="100"/>
+      <c r="Z142" s="17"/>
+      <c r="AA142" s="63"/>
       <c r="AC142" s="100"/>
       <c r="AD142" s="100"/>
       <c r="AE142" s="100"/>
-    </row>
-    <row r="143" spans="1:31">
+      <c r="AF142" s="100"/>
+    </row>
+    <row r="143" spans="1:32">
       <c r="A143" s="156"/>
       <c r="B143" s="160"/>
       <c r="C143" s="94" t="e">
@@ -13906,13 +14082,14 @@
       <c r="W143" s="97"/>
       <c r="X143" s="98"/>
       <c r="Y143" s="17"/>
-      <c r="Z143" s="63"/>
-      <c r="AB143" s="100"/>
+      <c r="Z143" s="17"/>
+      <c r="AA143" s="63"/>
       <c r="AC143" s="100"/>
       <c r="AD143" s="100"/>
       <c r="AE143" s="100"/>
-    </row>
-    <row r="144" spans="1:31">
+      <c r="AF143" s="100"/>
+    </row>
+    <row r="144" spans="1:32">
       <c r="A144" s="156"/>
       <c r="B144" s="160"/>
       <c r="C144" s="94" t="e">
@@ -13944,13 +14121,14 @@
       <c r="W144" s="97"/>
       <c r="X144" s="98"/>
       <c r="Y144" s="17"/>
-      <c r="Z144" s="63"/>
-      <c r="AB144" s="100"/>
+      <c r="Z144" s="17"/>
+      <c r="AA144" s="63"/>
       <c r="AC144" s="100"/>
       <c r="AD144" s="100"/>
       <c r="AE144" s="100"/>
-    </row>
-    <row r="145" spans="1:31">
+      <c r="AF144" s="100"/>
+    </row>
+    <row r="145" spans="1:32">
       <c r="A145" s="156"/>
       <c r="B145" s="160"/>
       <c r="C145" s="94" t="e">
@@ -13982,13 +14160,14 @@
       <c r="W145" s="97"/>
       <c r="X145" s="98"/>
       <c r="Y145" s="17"/>
-      <c r="Z145" s="63"/>
-      <c r="AB145" s="100"/>
+      <c r="Z145" s="17"/>
+      <c r="AA145" s="63"/>
       <c r="AC145" s="100"/>
       <c r="AD145" s="100"/>
       <c r="AE145" s="100"/>
-    </row>
-    <row r="146" spans="1:31">
+      <c r="AF145" s="100"/>
+    </row>
+    <row r="146" spans="1:32">
       <c r="A146" s="156"/>
       <c r="B146" s="160"/>
       <c r="C146" s="94" t="e">
@@ -14020,13 +14199,14 @@
       <c r="W146" s="97"/>
       <c r="X146" s="98"/>
       <c r="Y146" s="17"/>
-      <c r="Z146" s="63"/>
-      <c r="AB146" s="100"/>
+      <c r="Z146" s="17"/>
+      <c r="AA146" s="63"/>
       <c r="AC146" s="100"/>
       <c r="AD146" s="100"/>
       <c r="AE146" s="100"/>
-    </row>
-    <row r="147" spans="1:31">
+      <c r="AF146" s="100"/>
+    </row>
+    <row r="147" spans="1:32">
       <c r="A147" s="156"/>
       <c r="B147" s="160"/>
       <c r="C147" s="94" t="e">
@@ -14058,13 +14238,14 @@
       <c r="W147" s="97"/>
       <c r="X147" s="98"/>
       <c r="Y147" s="17"/>
-      <c r="Z147" s="63"/>
-      <c r="AB147" s="100"/>
+      <c r="Z147" s="17"/>
+      <c r="AA147" s="63"/>
       <c r="AC147" s="100"/>
       <c r="AD147" s="100"/>
       <c r="AE147" s="100"/>
-    </row>
-    <row r="148" spans="1:31">
+      <c r="AF147" s="100"/>
+    </row>
+    <row r="148" spans="1:32">
       <c r="A148" s="156"/>
       <c r="B148" s="160"/>
       <c r="C148" s="94" t="e">
@@ -14096,13 +14277,14 @@
       <c r="W148" s="97"/>
       <c r="X148" s="98"/>
       <c r="Y148" s="17"/>
-      <c r="Z148" s="63"/>
-      <c r="AB148" s="100"/>
+      <c r="Z148" s="17"/>
+      <c r="AA148" s="63"/>
       <c r="AC148" s="100"/>
       <c r="AD148" s="100"/>
       <c r="AE148" s="100"/>
-    </row>
-    <row r="149" spans="1:31">
+      <c r="AF148" s="100"/>
+    </row>
+    <row r="149" spans="1:32">
       <c r="A149" s="156"/>
       <c r="B149" s="160"/>
       <c r="C149" s="94" t="e">
@@ -14134,13 +14316,14 @@
       <c r="W149" s="97"/>
       <c r="X149" s="98"/>
       <c r="Y149" s="17"/>
-      <c r="Z149" s="63"/>
-      <c r="AB149" s="100"/>
+      <c r="Z149" s="17"/>
+      <c r="AA149" s="63"/>
       <c r="AC149" s="100"/>
       <c r="AD149" s="100"/>
       <c r="AE149" s="100"/>
-    </row>
-    <row r="150" spans="1:31">
+      <c r="AF149" s="100"/>
+    </row>
+    <row r="150" spans="1:32">
       <c r="A150" s="156"/>
       <c r="B150" s="160"/>
       <c r="C150" s="94" t="e">
@@ -14172,13 +14355,14 @@
       <c r="W150" s="97"/>
       <c r="X150" s="98"/>
       <c r="Y150" s="17"/>
-      <c r="Z150" s="63"/>
-      <c r="AB150" s="100"/>
+      <c r="Z150" s="17"/>
+      <c r="AA150" s="63"/>
       <c r="AC150" s="100"/>
       <c r="AD150" s="100"/>
       <c r="AE150" s="100"/>
-    </row>
-    <row r="151" spans="1:31">
+      <c r="AF150" s="100"/>
+    </row>
+    <row r="151" spans="1:32">
       <c r="A151" s="156"/>
       <c r="B151" s="160"/>
       <c r="C151" s="94" t="e">
@@ -14210,13 +14394,14 @@
       <c r="W151" s="97"/>
       <c r="X151" s="98"/>
       <c r="Y151" s="17"/>
-      <c r="Z151" s="63"/>
-      <c r="AB151" s="100"/>
+      <c r="Z151" s="17"/>
+      <c r="AA151" s="63"/>
       <c r="AC151" s="100"/>
       <c r="AD151" s="100"/>
       <c r="AE151" s="100"/>
-    </row>
-    <row r="152" spans="1:31">
+      <c r="AF151" s="100"/>
+    </row>
+    <row r="152" spans="1:32">
       <c r="A152" s="156"/>
       <c r="B152" s="160"/>
       <c r="C152" s="94" t="e">
@@ -14248,13 +14433,14 @@
       <c r="W152" s="97"/>
       <c r="X152" s="98"/>
       <c r="Y152" s="17"/>
-      <c r="Z152" s="63"/>
-      <c r="AB152" s="100"/>
+      <c r="Z152" s="17"/>
+      <c r="AA152" s="63"/>
       <c r="AC152" s="100"/>
       <c r="AD152" s="100"/>
       <c r="AE152" s="100"/>
-    </row>
-    <row r="153" spans="1:31">
+      <c r="AF152" s="100"/>
+    </row>
+    <row r="153" spans="1:32">
       <c r="A153" s="156"/>
       <c r="B153" s="160"/>
       <c r="C153" s="94" t="e">
@@ -14286,13 +14472,14 @@
       <c r="W153" s="97"/>
       <c r="X153" s="98"/>
       <c r="Y153" s="17"/>
-      <c r="Z153" s="63"/>
-      <c r="AB153" s="100"/>
+      <c r="Z153" s="17"/>
+      <c r="AA153" s="63"/>
       <c r="AC153" s="100"/>
       <c r="AD153" s="100"/>
       <c r="AE153" s="100"/>
-    </row>
-    <row r="154" spans="1:31">
+      <c r="AF153" s="100"/>
+    </row>
+    <row r="154" spans="1:32">
       <c r="A154" s="156"/>
       <c r="B154" s="160"/>
       <c r="C154" s="94" t="e">
@@ -14324,13 +14511,14 @@
       <c r="W154" s="97"/>
       <c r="X154" s="98"/>
       <c r="Y154" s="17"/>
-      <c r="Z154" s="63"/>
-      <c r="AB154" s="100"/>
+      <c r="Z154" s="17"/>
+      <c r="AA154" s="63"/>
       <c r="AC154" s="100"/>
       <c r="AD154" s="100"/>
       <c r="AE154" s="100"/>
-    </row>
-    <row r="155" spans="1:31">
+      <c r="AF154" s="100"/>
+    </row>
+    <row r="155" spans="1:32">
       <c r="A155" s="156"/>
       <c r="B155" s="160"/>
       <c r="C155" s="94" t="e">
@@ -14362,13 +14550,14 @@
       <c r="W155" s="97"/>
       <c r="X155" s="98"/>
       <c r="Y155" s="17"/>
-      <c r="Z155" s="63"/>
-      <c r="AB155" s="100"/>
+      <c r="Z155" s="17"/>
+      <c r="AA155" s="63"/>
       <c r="AC155" s="100"/>
       <c r="AD155" s="100"/>
       <c r="AE155" s="100"/>
-    </row>
-    <row r="156" spans="1:31">
+      <c r="AF155" s="100"/>
+    </row>
+    <row r="156" spans="1:32">
       <c r="A156" s="156"/>
       <c r="B156" s="160"/>
       <c r="C156" s="94" t="e">
@@ -14400,13 +14589,14 @@
       <c r="W156" s="97"/>
       <c r="X156" s="98"/>
       <c r="Y156" s="17"/>
-      <c r="Z156" s="63"/>
-      <c r="AB156" s="100"/>
+      <c r="Z156" s="17"/>
+      <c r="AA156" s="63"/>
       <c r="AC156" s="100"/>
       <c r="AD156" s="100"/>
       <c r="AE156" s="100"/>
-    </row>
-    <row r="157" spans="1:31">
+      <c r="AF156" s="100"/>
+    </row>
+    <row r="157" spans="1:32">
       <c r="A157" s="156"/>
       <c r="B157" s="160"/>
       <c r="C157" s="94" t="e">
@@ -14438,13 +14628,14 @@
       <c r="W157" s="97"/>
       <c r="X157" s="98"/>
       <c r="Y157" s="17"/>
-      <c r="Z157" s="63"/>
-      <c r="AB157" s="100"/>
+      <c r="Z157" s="17"/>
+      <c r="AA157" s="63"/>
       <c r="AC157" s="100"/>
       <c r="AD157" s="100"/>
       <c r="AE157" s="100"/>
-    </row>
-    <row r="158" spans="1:31">
+      <c r="AF157" s="100"/>
+    </row>
+    <row r="158" spans="1:32">
       <c r="A158" s="156"/>
       <c r="B158" s="160"/>
       <c r="C158" s="94" t="e">
@@ -14476,13 +14667,14 @@
       <c r="W158" s="97"/>
       <c r="X158" s="98"/>
       <c r="Y158" s="17"/>
-      <c r="Z158" s="63"/>
-      <c r="AB158" s="100"/>
+      <c r="Z158" s="17"/>
+      <c r="AA158" s="63"/>
       <c r="AC158" s="100"/>
       <c r="AD158" s="100"/>
       <c r="AE158" s="100"/>
-    </row>
-    <row r="159" spans="1:31">
+      <c r="AF158" s="100"/>
+    </row>
+    <row r="159" spans="1:32">
       <c r="A159" s="156"/>
       <c r="B159" s="160"/>
       <c r="C159" s="94" t="e">
@@ -14514,13 +14706,14 @@
       <c r="W159" s="97"/>
       <c r="X159" s="98"/>
       <c r="Y159" s="17"/>
-      <c r="Z159" s="63"/>
-      <c r="AB159" s="100"/>
+      <c r="Z159" s="17"/>
+      <c r="AA159" s="63"/>
       <c r="AC159" s="100"/>
       <c r="AD159" s="100"/>
       <c r="AE159" s="100"/>
-    </row>
-    <row r="160" spans="1:31">
+      <c r="AF159" s="100"/>
+    </row>
+    <row r="160" spans="1:32">
       <c r="A160" s="156"/>
       <c r="B160" s="160"/>
       <c r="C160" s="94" t="e">
@@ -14552,13 +14745,14 @@
       <c r="W160" s="97"/>
       <c r="X160" s="98"/>
       <c r="Y160" s="17"/>
-      <c r="Z160" s="63"/>
-      <c r="AB160" s="100"/>
+      <c r="Z160" s="17"/>
+      <c r="AA160" s="63"/>
       <c r="AC160" s="100"/>
       <c r="AD160" s="100"/>
       <c r="AE160" s="100"/>
-    </row>
-    <row r="161" spans="1:31">
+      <c r="AF160" s="100"/>
+    </row>
+    <row r="161" spans="1:32">
       <c r="A161" s="156"/>
       <c r="B161" s="160"/>
       <c r="C161" s="94" t="e">
@@ -14590,13 +14784,14 @@
       <c r="W161" s="97"/>
       <c r="X161" s="98"/>
       <c r="Y161" s="17"/>
-      <c r="Z161" s="63"/>
-      <c r="AB161" s="100"/>
+      <c r="Z161" s="17"/>
+      <c r="AA161" s="63"/>
       <c r="AC161" s="100"/>
       <c r="AD161" s="100"/>
       <c r="AE161" s="100"/>
-    </row>
-    <row r="162" spans="1:31">
+      <c r="AF161" s="100"/>
+    </row>
+    <row r="162" spans="1:32">
       <c r="A162" s="156"/>
       <c r="B162" s="160"/>
       <c r="C162" s="94" t="e">
@@ -14628,13 +14823,14 @@
       <c r="W162" s="97"/>
       <c r="X162" s="98"/>
       <c r="Y162" s="17"/>
-      <c r="Z162" s="63"/>
-      <c r="AB162" s="100"/>
+      <c r="Z162" s="17"/>
+      <c r="AA162" s="63"/>
       <c r="AC162" s="100"/>
       <c r="AD162" s="100"/>
       <c r="AE162" s="100"/>
-    </row>
-    <row r="163" spans="1:31">
+      <c r="AF162" s="100"/>
+    </row>
+    <row r="163" spans="1:32">
       <c r="A163" s="156"/>
       <c r="B163" s="160"/>
       <c r="C163" s="94" t="e">
@@ -14666,13 +14862,14 @@
       <c r="W163" s="97"/>
       <c r="X163" s="98"/>
       <c r="Y163" s="17"/>
-      <c r="Z163" s="63"/>
-      <c r="AB163" s="100"/>
+      <c r="Z163" s="17"/>
+      <c r="AA163" s="63"/>
       <c r="AC163" s="100"/>
       <c r="AD163" s="100"/>
       <c r="AE163" s="100"/>
-    </row>
-    <row r="164" spans="1:31">
+      <c r="AF163" s="100"/>
+    </row>
+    <row r="164" spans="1:32">
       <c r="A164" s="156"/>
       <c r="B164" s="160"/>
       <c r="C164" s="94" t="e">
@@ -14704,13 +14901,14 @@
       <c r="W164" s="97"/>
       <c r="X164" s="98"/>
       <c r="Y164" s="17"/>
-      <c r="Z164" s="63"/>
-      <c r="AB164" s="100"/>
+      <c r="Z164" s="17"/>
+      <c r="AA164" s="63"/>
       <c r="AC164" s="100"/>
       <c r="AD164" s="100"/>
       <c r="AE164" s="100"/>
-    </row>
-    <row r="165" spans="1:31">
+      <c r="AF164" s="100"/>
+    </row>
+    <row r="165" spans="1:32">
       <c r="A165" s="156"/>
       <c r="B165" s="160"/>
       <c r="C165" s="94" t="e">
@@ -14742,13 +14940,14 @@
       <c r="W165" s="97"/>
       <c r="X165" s="98"/>
       <c r="Y165" s="17"/>
-      <c r="Z165" s="63"/>
-      <c r="AB165" s="100"/>
+      <c r="Z165" s="17"/>
+      <c r="AA165" s="63"/>
       <c r="AC165" s="100"/>
       <c r="AD165" s="100"/>
       <c r="AE165" s="100"/>
-    </row>
-    <row r="166" spans="1:31">
+      <c r="AF165" s="100"/>
+    </row>
+    <row r="166" spans="1:32">
       <c r="A166" s="156"/>
       <c r="B166" s="160"/>
       <c r="C166" s="94" t="e">
@@ -14780,13 +14979,14 @@
       <c r="W166" s="97"/>
       <c r="X166" s="98"/>
       <c r="Y166" s="17"/>
-      <c r="Z166" s="63"/>
-      <c r="AB166" s="100"/>
+      <c r="Z166" s="17"/>
+      <c r="AA166" s="63"/>
       <c r="AC166" s="100"/>
       <c r="AD166" s="100"/>
       <c r="AE166" s="100"/>
-    </row>
-    <row r="167" spans="1:31">
+      <c r="AF166" s="100"/>
+    </row>
+    <row r="167" spans="1:32">
       <c r="A167" s="156"/>
       <c r="B167" s="160"/>
       <c r="C167" s="94" t="e">
@@ -14818,13 +15018,14 @@
       <c r="W167" s="97"/>
       <c r="X167" s="98"/>
       <c r="Y167" s="17"/>
-      <c r="Z167" s="63"/>
-      <c r="AB167" s="100"/>
+      <c r="Z167" s="17"/>
+      <c r="AA167" s="63"/>
       <c r="AC167" s="100"/>
       <c r="AD167" s="100"/>
       <c r="AE167" s="100"/>
-    </row>
-    <row r="168" spans="1:31">
+      <c r="AF167" s="100"/>
+    </row>
+    <row r="168" spans="1:32">
       <c r="A168" s="156"/>
       <c r="B168" s="160"/>
       <c r="C168" s="94" t="e">
@@ -14856,13 +15057,14 @@
       <c r="W168" s="97"/>
       <c r="X168" s="98"/>
       <c r="Y168" s="17"/>
-      <c r="Z168" s="63"/>
-      <c r="AB168" s="100"/>
+      <c r="Z168" s="17"/>
+      <c r="AA168" s="63"/>
       <c r="AC168" s="100"/>
       <c r="AD168" s="100"/>
       <c r="AE168" s="100"/>
-    </row>
-    <row r="169" spans="1:31">
+      <c r="AF168" s="100"/>
+    </row>
+    <row r="169" spans="1:32">
       <c r="A169" s="156"/>
       <c r="B169" s="160"/>
       <c r="C169" s="94" t="e">
@@ -14894,13 +15096,14 @@
       <c r="W169" s="97"/>
       <c r="X169" s="98"/>
       <c r="Y169" s="17"/>
-      <c r="Z169" s="63"/>
-      <c r="AB169" s="100"/>
+      <c r="Z169" s="17"/>
+      <c r="AA169" s="63"/>
       <c r="AC169" s="100"/>
       <c r="AD169" s="100"/>
       <c r="AE169" s="100"/>
-    </row>
-    <row r="170" spans="1:31">
+      <c r="AF169" s="100"/>
+    </row>
+    <row r="170" spans="1:32">
       <c r="A170" s="156"/>
       <c r="B170" s="160"/>
       <c r="C170" s="94" t="e">
@@ -14932,13 +15135,14 @@
       <c r="W170" s="97"/>
       <c r="X170" s="98"/>
       <c r="Y170" s="17"/>
-      <c r="Z170" s="63"/>
-      <c r="AB170" s="100"/>
+      <c r="Z170" s="17"/>
+      <c r="AA170" s="63"/>
       <c r="AC170" s="100"/>
       <c r="AD170" s="100"/>
       <c r="AE170" s="100"/>
-    </row>
-    <row r="171" spans="1:31">
+      <c r="AF170" s="100"/>
+    </row>
+    <row r="171" spans="1:32">
       <c r="A171" s="156"/>
       <c r="B171" s="160"/>
       <c r="C171" s="94" t="e">
@@ -14970,13 +15174,14 @@
       <c r="W171" s="97"/>
       <c r="X171" s="98"/>
       <c r="Y171" s="17"/>
-      <c r="Z171" s="63"/>
-      <c r="AB171" s="100"/>
+      <c r="Z171" s="17"/>
+      <c r="AA171" s="63"/>
       <c r="AC171" s="100"/>
       <c r="AD171" s="100"/>
       <c r="AE171" s="100"/>
-    </row>
-    <row r="172" spans="1:31">
+      <c r="AF171" s="100"/>
+    </row>
+    <row r="172" spans="1:32">
       <c r="A172" s="156"/>
       <c r="B172" s="160"/>
       <c r="C172" s="94" t="e">
@@ -15008,13 +15213,14 @@
       <c r="W172" s="97"/>
       <c r="X172" s="98"/>
       <c r="Y172" s="17"/>
-      <c r="Z172" s="63"/>
-      <c r="AB172" s="100"/>
+      <c r="Z172" s="17"/>
+      <c r="AA172" s="63"/>
       <c r="AC172" s="100"/>
       <c r="AD172" s="100"/>
       <c r="AE172" s="100"/>
-    </row>
-    <row r="173" spans="1:31">
+      <c r="AF172" s="100"/>
+    </row>
+    <row r="173" spans="1:32">
       <c r="A173" s="156"/>
       <c r="B173" s="160"/>
       <c r="C173" s="94" t="e">
@@ -15046,13 +15252,14 @@
       <c r="W173" s="97"/>
       <c r="X173" s="98"/>
       <c r="Y173" s="17"/>
-      <c r="Z173" s="63"/>
-      <c r="AB173" s="100"/>
+      <c r="Z173" s="17"/>
+      <c r="AA173" s="63"/>
       <c r="AC173" s="100"/>
       <c r="AD173" s="100"/>
       <c r="AE173" s="100"/>
-    </row>
-    <row r="174" spans="1:31">
+      <c r="AF173" s="100"/>
+    </row>
+    <row r="174" spans="1:32">
       <c r="A174" s="156"/>
       <c r="B174" s="160"/>
       <c r="C174" s="94" t="e">
@@ -15084,13 +15291,14 @@
       <c r="W174" s="97"/>
       <c r="X174" s="98"/>
       <c r="Y174" s="17"/>
-      <c r="Z174" s="63"/>
-      <c r="AB174" s="100"/>
+      <c r="Z174" s="17"/>
+      <c r="AA174" s="63"/>
       <c r="AC174" s="100"/>
       <c r="AD174" s="100"/>
       <c r="AE174" s="100"/>
-    </row>
-    <row r="175" spans="1:31">
+      <c r="AF174" s="100"/>
+    </row>
+    <row r="175" spans="1:32">
       <c r="A175" s="156"/>
       <c r="B175" s="160"/>
       <c r="C175" s="94" t="e">
@@ -15122,13 +15330,14 @@
       <c r="W175" s="97"/>
       <c r="X175" s="98"/>
       <c r="Y175" s="17"/>
-      <c r="Z175" s="63"/>
-      <c r="AB175" s="100"/>
+      <c r="Z175" s="17"/>
+      <c r="AA175" s="63"/>
       <c r="AC175" s="100"/>
       <c r="AD175" s="100"/>
       <c r="AE175" s="100"/>
-    </row>
-    <row r="176" spans="1:31">
+      <c r="AF175" s="100"/>
+    </row>
+    <row r="176" spans="1:32">
       <c r="A176" s="156"/>
       <c r="B176" s="160"/>
       <c r="C176" s="94" t="e">
@@ -15160,13 +15369,14 @@
       <c r="W176" s="97"/>
       <c r="X176" s="98"/>
       <c r="Y176" s="17"/>
-      <c r="Z176" s="63"/>
-      <c r="AB176" s="100"/>
+      <c r="Z176" s="17"/>
+      <c r="AA176" s="63"/>
       <c r="AC176" s="100"/>
       <c r="AD176" s="100"/>
       <c r="AE176" s="100"/>
-    </row>
-    <row r="177" spans="1:31">
+      <c r="AF176" s="100"/>
+    </row>
+    <row r="177" spans="1:32">
       <c r="A177" s="157"/>
       <c r="B177" s="160"/>
       <c r="C177" s="94" t="e">
@@ -15198,40 +15408,42 @@
       <c r="W177" s="102"/>
       <c r="X177" s="103"/>
       <c r="Y177" s="22"/>
-      <c r="Z177" s="65"/>
-      <c r="AB177" s="104"/>
+      <c r="Z177" s="22"/>
+      <c r="AA177" s="65"/>
       <c r="AC177" s="104"/>
       <c r="AD177" s="104"/>
       <c r="AE177" s="104"/>
+      <c r="AF177" s="104"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="G2:G7"/>
-    <mergeCell ref="I2:I7"/>
-    <mergeCell ref="J2:Y2"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="V3:V7"/>
-    <mergeCell ref="Z2:Z7"/>
-    <mergeCell ref="AB2:AB7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="J3:L6"/>
+  <mergeCells count="27">
     <mergeCell ref="A2:A7"/>
-    <mergeCell ref="AD2:AD7"/>
+    <mergeCell ref="AE2:AE7"/>
     <mergeCell ref="C2:C7"/>
     <mergeCell ref="E2:E7"/>
-    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="W3:X7"/>
-    <mergeCell ref="AC2:AC7"/>
+    <mergeCell ref="AD2:AD7"/>
     <mergeCell ref="M3:O6"/>
     <mergeCell ref="B2:B7"/>
-    <mergeCell ref="AE2:AE7"/>
+    <mergeCell ref="AF2:AF7"/>
     <mergeCell ref="D2:D7"/>
     <mergeCell ref="F2:F7"/>
     <mergeCell ref="H2:H7"/>
     <mergeCell ref="Y3:Y7"/>
     <mergeCell ref="S3:U6"/>
     <mergeCell ref="P3:R7"/>
+    <mergeCell ref="AA2:AA7"/>
+    <mergeCell ref="AC2:AC7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="J3:L6"/>
+    <mergeCell ref="Z3:Z7"/>
+    <mergeCell ref="J2:Z2"/>
+    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="I2:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="V3:V7"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:I1048576">
     <cfRule type="expression" dxfId="28" priority="41">
@@ -15308,7 +15520,7 @@
       <formula>$H8="(FE) linear load on edges"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y3:Y7">
+  <conditionalFormatting sqref="Y3:Z7">
     <cfRule type="expression" dxfId="13" priority="6">
       <formula>$H3="uniform load"</formula>
     </cfRule>
@@ -15328,12 +15540,12 @@
       <formula>$H3="Body forces"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB8:AB1527">
+  <conditionalFormatting sqref="AC8:AC1527">
     <cfRule type="expression" dxfId="7" priority="51">
       <formula>$H8 &lt;&gt; "(FE) uniform"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations xWindow="1747" yWindow="323" count="24">
+  <dataValidations xWindow="1747" yWindow="323" count="25">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="(FOR TRAPEZOIDAL LOADS ONLY)_x000a_PX1 - Enter your starting load in the X direction (kN/m)_x000a__x000a_PY1 - Enter your starting load in the Y direction (kN/m)_x000a__x000a_PZ1 - Enter your starting load in the Z direction (kN/m)" sqref="M7:O7" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="(FOR TRAPEZOIDAL LOADS ONLY)_x000a_x2 - Absolute or relative distance of end of load along a member (m or m/L)_x000a__x000a_x1 - Absolute or relative distance of start of load along a member (m or m/L)" sqref="S7:U7" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="(FOR TRAPEZOIDAL LOADS ONLY)_x000a_PX2 - Enter your finishing load in the X direction (kN/m)_x000a__x000a_PY2 - Enter your finishing load in the Y direction (kN/m)_x000a__x000a_PZ2 - Enter your finishing load in the Z direction (kN/m)" sqref="J7:L7" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
@@ -15342,24 +15554,24 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="AL - Angle of the load from X axis (deg)_x000a__x000a_BE - Angle of the load from Y axis (deg)_x000a__x000a_GA - Angle of the load from Z axis (deg)_x000a__x000a_These are normally 0" sqref="P3:R7" xr:uid="{00000000-0002-0000-0100-000005000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="x - Absolute or relative distance of application of load along a member (m or m/L)_x000a__x000a_DY - Loads on eccentricity in y direction (mm)_x000a__x000a_DZ - Loads on eccentricity in z direction (mm)" sqref="S3:U6" xr:uid="{00000000-0002-0000-0100-000006000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Filled in automatically" sqref="C2:C7 G2:G7" xr:uid="{00000000-0002-0000-0100-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the total area of the cladding you have listed in Column I._x000a__x000a_There is conditional formatting to indicate that this is only required for an '(FE) uniform' load type." sqref="AB2:AB7" xr:uid="{00000000-0002-0000-0100-000008000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the table / figure caption here._x000a__x000a_The name of the platform will be added as a prefix to the caption that you enter." sqref="AE2:AE7" xr:uid="{00000000-0002-0000-0100-000009000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter an integer between 1 and 150 for the figure number._x000a__x000a_To display multiple load cases in the same figure enter the same figure number in each load case._x000a__x000a_Ideally, you should group the same load cases in the same tables and figures." sqref="AD2:AD7" xr:uid="{00000000-0002-0000-0100-00000A000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter an integer between 1 and 150 for the table number._x000a__x000a_To display multiple load cases in the same table, enter the same table number in each load case." sqref="AC2:AC7" xr:uid="{00000000-0002-0000-0100-00000B000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the total area of the cladding you have listed in Column I._x000a__x000a_There is conditional formatting to indicate that this is only required for an '(FE) uniform' load type." sqref="AC2:AC7" xr:uid="{00000000-0002-0000-0100-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the table / figure caption here._x000a__x000a_The name of the platform will be added as a prefix to the caption that you enter." sqref="AF2:AF7" xr:uid="{00000000-0002-0000-0100-000009000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter an integer between 1 and 150 for the figure number._x000a__x000a_To display multiple load cases in the same figure enter the same figure number in each load case._x000a__x000a_Ideally, you should group the same load cases in the same tables and figures." sqref="AE2:AE7" xr:uid="{00000000-0002-0000-0100-00000A000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter an integer between 1 and 150 for the table number._x000a__x000a_To display multiple load cases in the same table, enter the same table number in each load case." sqref="AD2:AD7" xr:uid="{00000000-0002-0000-0100-00000B000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the load case_x000a__x000a_Please keep naming of similar loads as consistent as possible" sqref="B2:B7" xr:uid="{00000000-0002-0000-0100-00000C000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the load case number_x000a__x000a_Try to stick to a consistent naming convention and leave 100 possibilities for each load type. For example: _x000a_200-299 are live loads,_x000a_300-399 could be padeye loads,_x000a_400-499 could be HOP loads etc._x000a_ " sqref="A2:A7" xr:uid="{00000000-0002-0000-0100-00000D000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="FX / PX / AX - Enter the force / pressure / acceleration in the X direction_x000a__x000a_FY / PY / AY - Enter the force / pressure / acceleration in the Y direction_x000a__x000a_FZ / PZ / AZ - Enter the force / pressure / acceleration in the Z direction_x000a__x000a_(kN / kPa / m/s2)_x000a_" sqref="J3:L6" xr:uid="{00000000-0002-0000-0100-00000E000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="CX - Enter the moment about the X axis (kN*m)_x000a_objects/masses - Enter either 'objects' or 'masses'. This applies only to a body force._x000a__x000a_CY - Enter the moment about the Y axis (kN*m)_x000a__x000a_CZ - Enter the moment about the Z axis (kN*m)" sqref="M3:O6" xr:uid="{00000000-0002-0000-0100-00000F000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the node(s), member(s) or object(s) number which each load case is applied to" sqref="I2:I7" xr:uid="{00000000-0002-0000-0100-000010000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the load type from the drop down menu_x000a__x000a_Currently, the options are:_x000a_(FE) uniform, nodal force, Body forces, member force,  self-weight, trapezoidal (2p), uniform load " sqref="H2:H7" xr:uid="{00000000-0002-0000-0100-000011000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Please enter the total value of the load that you are applying and a reference for the value._x000a__x000a_This column is just for checking purposes and is not used by any macros." sqref="Z2:Z7" xr:uid="{00000000-0002-0000-0100-000012000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Please enter the total value of the load that you are applying and a reference for the value._x000a__x000a_This column is just for checking purposes and is not used by any macros." sqref="AA2:AA7" xr:uid="{00000000-0002-0000-0100-000012000000}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X8:X177" xr:uid="{00000000-0002-0000-0100-000013000000}">
       <formula1>"absolute, relative"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W8:W177" xr:uid="{00000000-0002-0000-0100-000014000000}">
       <formula1>"global, local"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC8:AD177" xr:uid="{00000000-0002-0000-0100-000015000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD8:AE177" xr:uid="{00000000-0002-0000-0100-000015000000}">
       <formula1>1</formula1>
       <formula2>150</formula2>
     </dataValidation>
@@ -15367,6 +15579,7 @@
       <formula1>"(FE) uniform, nodal force, Body forces, member force, self-weight, trapezoidal load (2p), uniform load, (FE) linear load on edges"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="1-Projected, 0- Not projected_x000a_" sqref="Y3:Y7" xr:uid="{00000000-0002-0000-0100-000017000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="1, 0 - For load on contour auto detect panels_x000a_" sqref="Z3:Z7" xr:uid="{AFA3F199-D940-448B-B1C7-FB20BCEAB8B0}"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -15775,10 +15988,10 @@
     </row>
     <row r="3" spans="1:4605" s="7" customFormat="1" ht="218.65" customHeight="1">
       <c r="A3" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="92" t="s">
@@ -16115,160 +16328,160 @@
         <v>129</v>
       </c>
       <c r="DK3" s="93" t="s">
+        <v>184</v>
+      </c>
+      <c r="DL3" s="93" t="s">
         <v>185</v>
       </c>
-      <c r="DL3" s="93" t="s">
+      <c r="DM3" s="93" t="s">
         <v>186</v>
       </c>
-      <c r="DM3" s="93" t="s">
+      <c r="DN3" s="93" t="s">
         <v>187</v>
       </c>
-      <c r="DN3" s="93" t="s">
+      <c r="DO3" s="93" t="s">
         <v>188</v>
       </c>
-      <c r="DO3" s="93" t="s">
+      <c r="DP3" s="93" t="s">
         <v>189</v>
       </c>
-      <c r="DP3" s="93" t="s">
+      <c r="DQ3" s="93" t="s">
         <v>190</v>
       </c>
-      <c r="DQ3" s="93" t="s">
+      <c r="DR3" s="93" t="s">
         <v>191</v>
       </c>
-      <c r="DR3" s="93" t="s">
+      <c r="DS3" s="93" t="s">
         <v>192</v>
       </c>
-      <c r="DS3" s="93" t="s">
+      <c r="DT3" s="93" t="s">
         <v>193</v>
       </c>
-      <c r="DT3" s="93" t="s">
+      <c r="DU3" s="93" t="s">
         <v>194</v>
       </c>
-      <c r="DU3" s="93" t="s">
+      <c r="DV3" s="93" t="s">
         <v>195</v>
       </c>
-      <c r="DV3" s="93" t="s">
+      <c r="DW3" s="93" t="s">
         <v>196</v>
       </c>
-      <c r="DW3" s="93" t="s">
+      <c r="DX3" s="93" t="s">
         <v>197</v>
       </c>
-      <c r="DX3" s="93" t="s">
+      <c r="DY3" s="93" t="s">
         <v>198</v>
       </c>
-      <c r="DY3" s="93" t="s">
+      <c r="DZ3" s="93" t="s">
         <v>199</v>
       </c>
-      <c r="DZ3" s="93" t="s">
+      <c r="EA3" s="93" t="s">
         <v>200</v>
       </c>
-      <c r="EA3" s="93" t="s">
+      <c r="EB3" s="93" t="s">
         <v>201</v>
       </c>
-      <c r="EB3" s="93" t="s">
+      <c r="EC3" s="93" t="s">
         <v>202</v>
       </c>
-      <c r="EC3" s="93" t="s">
+      <c r="ED3" s="93" t="s">
         <v>203</v>
       </c>
-      <c r="ED3" s="93" t="s">
+      <c r="EE3" s="93" t="s">
         <v>204</v>
       </c>
-      <c r="EE3" s="93" t="s">
+      <c r="EF3" s="93" t="s">
         <v>205</v>
       </c>
-      <c r="EF3" s="93" t="s">
+      <c r="EG3" s="93" t="s">
         <v>206</v>
       </c>
-      <c r="EG3" s="93" t="s">
+      <c r="EH3" s="93" t="s">
         <v>207</v>
       </c>
-      <c r="EH3" s="93" t="s">
+      <c r="EI3" s="93" t="s">
         <v>208</v>
       </c>
-      <c r="EI3" s="93" t="s">
+      <c r="EJ3" s="93" t="s">
         <v>209</v>
       </c>
-      <c r="EJ3" s="93" t="s">
+      <c r="EK3" s="93" t="s">
         <v>210</v>
       </c>
-      <c r="EK3" s="93" t="s">
+      <c r="EL3" s="93" t="s">
         <v>211</v>
       </c>
-      <c r="EL3" s="93" t="s">
+      <c r="EM3" s="93" t="s">
         <v>212</v>
       </c>
-      <c r="EM3" s="93" t="s">
+      <c r="EN3" s="93" t="s">
         <v>213</v>
       </c>
-      <c r="EN3" s="93" t="s">
+      <c r="EO3" s="93" t="s">
         <v>214</v>
       </c>
-      <c r="EO3" s="93" t="s">
+      <c r="EP3" s="93" t="s">
         <v>215</v>
       </c>
-      <c r="EP3" s="93" t="s">
+      <c r="EQ3" s="93" t="s">
         <v>216</v>
       </c>
-      <c r="EQ3" s="93" t="s">
+      <c r="ER3" s="93" t="s">
         <v>217</v>
       </c>
-      <c r="ER3" s="93" t="s">
+      <c r="ES3" s="93" t="s">
         <v>218</v>
       </c>
-      <c r="ES3" s="93" t="s">
+      <c r="ET3" s="93" t="s">
         <v>219</v>
       </c>
-      <c r="ET3" s="93" t="s">
+      <c r="EU3" s="93" t="s">
         <v>220</v>
       </c>
-      <c r="EU3" s="93" t="s">
+      <c r="EV3" s="93" t="s">
         <v>221</v>
       </c>
-      <c r="EV3" s="93" t="s">
+      <c r="EW3" s="93" t="s">
         <v>222</v>
       </c>
-      <c r="EW3" s="93" t="s">
+      <c r="EX3" s="93" t="s">
         <v>223</v>
       </c>
-      <c r="EX3" s="93" t="s">
+      <c r="EY3" s="93" t="s">
         <v>224</v>
       </c>
-      <c r="EY3" s="93" t="s">
+      <c r="EZ3" s="93" t="s">
         <v>225</v>
       </c>
-      <c r="EZ3" s="93" t="s">
+      <c r="FA3" s="93" t="s">
         <v>226</v>
       </c>
-      <c r="FA3" s="93" t="s">
+      <c r="FB3" s="93" t="s">
         <v>227</v>
       </c>
-      <c r="FB3" s="93" t="s">
+      <c r="FC3" s="93" t="s">
         <v>228</v>
       </c>
-      <c r="FC3" s="93" t="s">
+      <c r="FD3" s="93" t="s">
         <v>229</v>
       </c>
-      <c r="FD3" s="93" t="s">
+      <c r="FE3" s="93" t="s">
         <v>230</v>
       </c>
-      <c r="FE3" s="93" t="s">
+      <c r="FF3" s="93" t="s">
         <v>231</v>
       </c>
-      <c r="FF3" s="93" t="s">
+      <c r="FG3" s="93" t="s">
         <v>232</v>
       </c>
-      <c r="FG3" s="93" t="s">
+      <c r="FH3" s="93" t="s">
         <v>233</v>
       </c>
-      <c r="FH3" s="93" t="s">
+      <c r="FI3" s="93" t="s">
         <v>234</v>
       </c>
-      <c r="FI3" s="93" t="s">
+      <c r="FJ3" s="93" t="s">
         <v>235</v>
-      </c>
-      <c r="FJ3" s="93" t="s">
-        <v>236</v>
       </c>
       <c r="FK3" s="93"/>
       <c r="FL3" s="93"/>
@@ -20717,9 +20930,9 @@
       <c r="D4" s="189" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="182"/>
-      <c r="F4" s="182"/>
-      <c r="G4" s="182"/>
+      <c r="E4" s="176"/>
+      <c r="F4" s="176"/>
+      <c r="G4" s="176"/>
       <c r="H4" s="124">
         <v>1</v>
       </c>
@@ -25641,7 +25854,7 @@
       <c r="A5" s="33"/>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
-      <c r="D5" s="179"/>
+      <c r="D5" s="181"/>
       <c r="E5" s="169"/>
       <c r="F5" s="169"/>
       <c r="G5" s="169"/>
@@ -26016,25 +26229,25 @@
     </row>
     <row r="6" spans="1:4605" s="16" customFormat="1" ht="14.45" customHeight="1">
       <c r="A6" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="C6" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="D6" s="89" t="s">
         <v>239</v>
       </c>
-      <c r="D6" s="89" t="s">
-        <v>240</v>
-      </c>
       <c r="E6" s="89" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F6" s="89" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G6" s="89" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:4605" s="16" customFormat="1">
@@ -26042,10 +26255,10 @@
         <v>1000</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D7" s="25">
         <v>0</v>
@@ -26257,10 +26470,10 @@
         <v>2000</v>
       </c>
       <c r="B8" s="122" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D8" s="25">
         <v>0</v>
@@ -26586,10 +26799,10 @@
         <v>2001</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D9" s="25">
         <v>0</v>
@@ -26928,10 +27141,10 @@
         <v>2002</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D10" s="25">
         <v>0</v>
@@ -27291,10 +27504,10 @@
         <v>2003</v>
       </c>
       <c r="B11" s="122" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D11" s="25">
         <v>0</v>
@@ -27659,10 +27872,10 @@
         <v>2004</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D12" s="25">
         <v>0</v>
@@ -28006,10 +28219,10 @@
         <v>2005</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D13" s="25">
         <v>0</v>
@@ -28354,10 +28567,10 @@
         <v>2006</v>
       </c>
       <c r="B14" s="68" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D14" s="25">
         <v>0</v>
@@ -28738,10 +28951,10 @@
         <v>2007</v>
       </c>
       <c r="B15" s="68" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D15" s="25">
         <v>0</v>
@@ -29126,10 +29339,10 @@
         <v>2008</v>
       </c>
       <c r="B16" s="68" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D16" s="25">
         <v>0</v>
@@ -29265,10 +29478,10 @@
         <v>2009</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D17" s="25">
         <v>0</v>
@@ -29599,10 +29812,10 @@
         <v>2020</v>
       </c>
       <c r="B18" s="86" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D18" s="25">
         <v>0</v>
@@ -29932,10 +30145,10 @@
         <v>2021</v>
       </c>
       <c r="B19" s="86" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D19" s="25">
         <v>0</v>
@@ -30075,10 +30288,10 @@
         <v>2022</v>
       </c>
       <c r="B20" s="86" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D20" s="25">
         <v>0</v>
@@ -30213,10 +30426,10 @@
         <v>2030</v>
       </c>
       <c r="B21" s="86" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D21" s="25">
         <v>0</v>
@@ -30356,10 +30569,10 @@
         <v>2031</v>
       </c>
       <c r="B22" s="86" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D22" s="25">
         <v>0</v>
@@ -30689,10 +30902,10 @@
         <v>2032</v>
       </c>
       <c r="B23" s="86" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D23" s="25">
         <v>0</v>
@@ -31022,10 +31235,10 @@
         <v>3000</v>
       </c>
       <c r="B24" s="86" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D24" s="25">
         <v>0</v>
@@ -31314,10 +31527,10 @@
         <v>3001</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D25" s="25">
         <v>0</v>
@@ -31413,10 +31626,10 @@
         <v>3002</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D26" s="25">
         <v>0</v>
@@ -31512,10 +31725,10 @@
         <v>3003</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D27" s="25">
         <v>0</v>
@@ -31611,10 +31824,10 @@
         <v>3004</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D28" s="25">
         <v>0</v>
@@ -31710,10 +31923,10 @@
         <v>3005</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D29" s="25">
         <v>0</v>
@@ -31809,10 +32022,10 @@
         <v>3006</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D30" s="25">
         <v>0</v>
@@ -31908,10 +32121,10 @@
         <v>3007</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D31" s="25">
         <v>0</v>
@@ -32007,10 +32220,10 @@
         <v>3008</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D32" s="25">
         <v>0</v>
@@ -32106,10 +32319,10 @@
         <v>3009</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D33" s="25">
         <v>0</v>
@@ -32205,10 +32418,10 @@
         <v>3010</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D34" s="25">
         <v>0</v>
@@ -32307,10 +32520,10 @@
         <v>3011</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D35" s="25">
         <v>0</v>
@@ -32409,10 +32622,10 @@
         <v>3012</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D36" s="25">
         <v>0</v>
@@ -32511,10 +32724,10 @@
         <v>4000</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D37" s="25">
         <v>0</v>
@@ -32673,10 +32886,10 @@
         <v>4001</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D38" s="25">
         <v>0</v>
@@ -32835,10 +33048,10 @@
         <v>4002</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D39" s="25">
         <v>0</v>
@@ -32997,10 +33210,10 @@
         <v>4003</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D40" s="25">
         <v>0</v>
@@ -33159,10 +33372,10 @@
         <v>4010</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D41" s="25">
         <v>0</v>
@@ -33291,10 +33504,10 @@
         <v>5000</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D42" s="25">
         <v>0</v>
@@ -33384,10 +33597,10 @@
         <v>5001</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D43" s="25">
         <v>0</v>
@@ -33477,10 +33690,10 @@
         <v>5002</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D44" s="25">
         <v>0</v>
@@ -33570,10 +33783,10 @@
         <v>5003</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D45" s="25">
         <v>0</v>
@@ -33592,10 +33805,10 @@
         <v>6000</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D46" s="25">
         <v>0</v>
@@ -33620,10 +33833,10 @@
         <v>6001</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D47" s="25">
         <v>0</v>
@@ -33648,10 +33861,10 @@
         <v>6002</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D48" s="25">
         <v>0</v>
@@ -33676,10 +33889,10 @@
         <v>6003</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D49" s="25">
         <v>0</v>
@@ -33704,10 +33917,10 @@
         <v>6004</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D50" s="25">
         <v>0</v>
@@ -33732,10 +33945,10 @@
         <v>6005</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D51" s="25">
         <v>0</v>
@@ -33760,10 +33973,10 @@
         <v>6006</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D52" s="25">
         <v>0</v>
@@ -33785,10 +33998,10 @@
         <v>6007</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D53" s="25">
         <v>0</v>
@@ -33810,10 +34023,10 @@
         <v>6008</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D54" s="25">
         <v>0</v>
@@ -33838,10 +34051,10 @@
         <v>6009</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D55" s="25">
         <v>0</v>
@@ -33866,10 +34079,10 @@
         <v>6010</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D56" s="25">
         <v>0</v>
@@ -33900,10 +34113,10 @@
         <v>6011</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D57" s="25">
         <v>0</v>
@@ -33934,10 +34147,10 @@
         <v>6012</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D58" s="25">
         <v>0</v>
@@ -37775,6 +37988,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8735E212-3CFD-41CA-B0EB-15F7AFC4F78C}">
+  <sheetPr codeName="Sheet2">
+    <tabColor rgb="FFFFE699"/>
+  </sheetPr>
+  <dimension ref="B2:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" s="146" t="s">
+        <v>418</v>
+      </c>
+      <c r="C2" s="146" t="s">
+        <v>419</v>
+      </c>
+      <c r="D2" s="146" t="s">
+        <v>420</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="ScreenCapture">
     <tabColor theme="0"/>
@@ -37865,245 +38107,245 @@
       <c r="E3" s="51"/>
       <c r="F3" s="72"/>
       <c r="G3" s="190" t="s">
+        <v>243</v>
+      </c>
+      <c r="H3" s="173"/>
+      <c r="I3" s="173"/>
+      <c r="J3" s="173"/>
+      <c r="K3" s="173"/>
+      <c r="L3" s="173"/>
+      <c r="M3" s="173"/>
+      <c r="N3" s="173"/>
+      <c r="O3" s="174"/>
+      <c r="P3" s="191" t="s">
         <v>244</v>
       </c>
-      <c r="H3" s="174"/>
-      <c r="I3" s="174"/>
-      <c r="J3" s="174"/>
-      <c r="K3" s="174"/>
-      <c r="L3" s="174"/>
-      <c r="M3" s="174"/>
-      <c r="N3" s="174"/>
-      <c r="O3" s="175"/>
-      <c r="P3" s="191" t="s">
+      <c r="Q3" s="173"/>
+      <c r="R3" s="173"/>
+      <c r="S3" s="173"/>
+      <c r="T3" s="173"/>
+      <c r="U3" s="173"/>
+      <c r="V3" s="173"/>
+      <c r="W3" s="174"/>
+      <c r="X3" s="191" t="s">
         <v>245</v>
       </c>
-      <c r="Q3" s="174"/>
-      <c r="R3" s="174"/>
-      <c r="S3" s="174"/>
-      <c r="T3" s="174"/>
-      <c r="U3" s="174"/>
-      <c r="V3" s="174"/>
-      <c r="W3" s="175"/>
-      <c r="X3" s="191" t="s">
+      <c r="Y3" s="173"/>
+      <c r="Z3" s="174"/>
+      <c r="AA3" s="193" t="s">
         <v>246</v>
       </c>
-      <c r="Y3" s="174"/>
-      <c r="Z3" s="175"/>
-      <c r="AA3" s="193" t="s">
+      <c r="AB3" s="173"/>
+      <c r="AC3" s="194" t="s">
         <v>247</v>
       </c>
-      <c r="AB3" s="174"/>
-      <c r="AC3" s="194" t="s">
+      <c r="AD3" s="176"/>
+      <c r="AE3" s="177"/>
+      <c r="AF3" s="135" t="s">
         <v>248</v>
       </c>
-      <c r="AD3" s="182"/>
-      <c r="AE3" s="176"/>
-      <c r="AF3" s="135" t="s">
+      <c r="AG3" s="191" t="s">
         <v>249</v>
       </c>
-      <c r="AG3" s="191" t="s">
+      <c r="AH3" s="173"/>
+      <c r="AI3" s="173"/>
+      <c r="AJ3" s="173"/>
+      <c r="AK3" s="173"/>
+      <c r="AL3" s="173"/>
+      <c r="AM3" s="173"/>
+      <c r="AN3" s="174"/>
+      <c r="AO3" s="192" t="s">
         <v>250</v>
       </c>
-      <c r="AH3" s="174"/>
-      <c r="AI3" s="174"/>
-      <c r="AJ3" s="174"/>
-      <c r="AK3" s="174"/>
-      <c r="AL3" s="174"/>
-      <c r="AM3" s="174"/>
-      <c r="AN3" s="175"/>
-      <c r="AO3" s="192" t="s">
+      <c r="AP3" s="173"/>
+      <c r="AQ3" s="173"/>
+      <c r="AR3" s="173"/>
+      <c r="AS3" s="173"/>
+      <c r="AT3" s="173"/>
+      <c r="AU3" s="173"/>
+      <c r="AV3" s="192" t="s">
         <v>251</v>
       </c>
-      <c r="AP3" s="174"/>
-      <c r="AQ3" s="174"/>
-      <c r="AR3" s="174"/>
-      <c r="AS3" s="174"/>
-      <c r="AT3" s="174"/>
-      <c r="AU3" s="174"/>
-      <c r="AV3" s="192" t="s">
+      <c r="AW3" s="173"/>
+      <c r="AX3" s="173"/>
+      <c r="AY3" s="173"/>
+      <c r="AZ3" s="173"/>
+      <c r="BA3" s="191" t="s">
         <v>252</v>
       </c>
-      <c r="AW3" s="174"/>
-      <c r="AX3" s="174"/>
-      <c r="AY3" s="174"/>
-      <c r="AZ3" s="174"/>
-      <c r="BA3" s="191" t="s">
-        <v>253</v>
-      </c>
-      <c r="BB3" s="174"/>
-      <c r="BC3" s="175"/>
+      <c r="BB3" s="173"/>
+      <c r="BC3" s="174"/>
     </row>
     <row r="4" spans="1:55" ht="111" customHeight="1">
       <c r="A4" s="42" t="s">
+        <v>253</v>
+      </c>
+      <c r="B4" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="C4" s="42" t="s">
         <v>255</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="D4" s="41" t="s">
         <v>256</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="E4" s="44" t="s">
         <v>257</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="F4" s="73" t="s">
         <v>258</v>
       </c>
-      <c r="F4" s="73" t="s">
+      <c r="G4" s="43" t="s">
         <v>259</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="H4" s="43" t="s">
         <v>260</v>
       </c>
-      <c r="H4" s="43" t="s">
+      <c r="I4" s="43" t="s">
         <v>261</v>
       </c>
-      <c r="I4" s="43" t="s">
+      <c r="J4" s="43" t="s">
         <v>262</v>
       </c>
-      <c r="J4" s="43" t="s">
+      <c r="K4" s="43" t="s">
         <v>263</v>
       </c>
-      <c r="K4" s="43" t="s">
+      <c r="L4" s="43" t="s">
         <v>264</v>
       </c>
-      <c r="L4" s="43" t="s">
+      <c r="M4" s="43" t="s">
         <v>265</v>
       </c>
-      <c r="M4" s="43" t="s">
+      <c r="N4" s="43" t="s">
         <v>266</v>
       </c>
-      <c r="N4" s="43" t="s">
+      <c r="O4" s="43" t="s">
         <v>267</v>
       </c>
-      <c r="O4" s="43" t="s">
+      <c r="P4" s="44" t="s">
         <v>268</v>
       </c>
-      <c r="P4" s="44" t="s">
+      <c r="Q4" s="43" t="s">
         <v>269</v>
       </c>
-      <c r="Q4" s="43" t="s">
+      <c r="R4" s="43" t="s">
         <v>270</v>
       </c>
-      <c r="R4" s="43" t="s">
+      <c r="S4" s="43" t="s">
         <v>271</v>
       </c>
-      <c r="S4" s="43" t="s">
+      <c r="T4" s="43" t="s">
         <v>272</v>
       </c>
-      <c r="T4" s="43" t="s">
+      <c r="U4" s="43" t="s">
         <v>273</v>
       </c>
-      <c r="U4" s="43" t="s">
+      <c r="V4" s="43" t="s">
         <v>274</v>
       </c>
-      <c r="V4" s="43" t="s">
+      <c r="W4" s="43" t="s">
         <v>275</v>
       </c>
-      <c r="W4" s="43" t="s">
+      <c r="X4" s="44" t="s">
         <v>276</v>
       </c>
-      <c r="X4" s="44" t="s">
+      <c r="Y4" s="43" t="s">
         <v>277</v>
       </c>
-      <c r="Y4" s="43" t="s">
+      <c r="Z4" s="43" t="s">
         <v>278</v>
       </c>
-      <c r="Z4" s="43" t="s">
+      <c r="AA4" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="AA4" s="44" t="s">
+      <c r="AB4" s="43" t="s">
         <v>280</v>
       </c>
-      <c r="AB4" s="43" t="s">
+      <c r="AC4" s="44" t="s">
         <v>281</v>
       </c>
-      <c r="AC4" s="44" t="s">
+      <c r="AD4" s="43" t="s">
         <v>282</v>
       </c>
-      <c r="AD4" s="43" t="s">
+      <c r="AE4" s="42" t="s">
         <v>283</v>
       </c>
-      <c r="AE4" s="42" t="s">
+      <c r="AF4" s="41" t="s">
         <v>284</v>
       </c>
-      <c r="AF4" s="41" t="s">
+      <c r="AG4" s="136" t="s">
         <v>285</v>
       </c>
-      <c r="AG4" s="136" t="s">
+      <c r="AH4" s="137" t="s">
         <v>286</v>
       </c>
-      <c r="AH4" s="137" t="s">
+      <c r="AI4" s="136" t="s">
         <v>287</v>
       </c>
-      <c r="AI4" s="136" t="s">
+      <c r="AJ4" s="136" t="s">
         <v>288</v>
       </c>
-      <c r="AJ4" s="136" t="s">
+      <c r="AK4" s="136" t="s">
         <v>289</v>
       </c>
-      <c r="AK4" s="136" t="s">
+      <c r="AL4" s="137" t="s">
         <v>290</v>
       </c>
-      <c r="AL4" s="137" t="s">
+      <c r="AM4" s="136" t="s">
         <v>291</v>
       </c>
-      <c r="AM4" s="136" t="s">
+      <c r="AN4" s="138" t="s">
         <v>292</v>
       </c>
-      <c r="AN4" s="138" t="s">
+      <c r="AO4" s="41" t="s">
         <v>293</v>
       </c>
-      <c r="AO4" s="41" t="s">
+      <c r="AP4" s="41" t="s">
         <v>294</v>
       </c>
-      <c r="AP4" s="41" t="s">
+      <c r="AQ4" s="41" t="s">
         <v>295</v>
       </c>
-      <c r="AQ4" s="41" t="s">
+      <c r="AR4" s="41" t="s">
         <v>296</v>
       </c>
-      <c r="AR4" s="41" t="s">
+      <c r="AS4" s="41" t="s">
         <v>297</v>
       </c>
-      <c r="AS4" s="41" t="s">
+      <c r="AT4" s="41" t="s">
         <v>298</v>
       </c>
-      <c r="AT4" s="41" t="s">
+      <c r="AU4" s="137" t="s">
         <v>299</v>
       </c>
-      <c r="AU4" s="137" t="s">
+      <c r="AV4" s="41" t="s">
         <v>300</v>
       </c>
-      <c r="AV4" s="41" t="s">
+      <c r="AW4" s="41" t="s">
         <v>301</v>
       </c>
-      <c r="AW4" s="41" t="s">
+      <c r="AX4" s="41" t="s">
         <v>302</v>
       </c>
-      <c r="AX4" s="41" t="s">
+      <c r="AY4" s="41" t="s">
         <v>303</v>
       </c>
-      <c r="AY4" s="41" t="s">
+      <c r="AZ4" s="41" t="s">
         <v>304</v>
       </c>
-      <c r="AZ4" s="41" t="s">
+      <c r="BA4" s="41" t="s">
         <v>305</v>
       </c>
-      <c r="BA4" s="41" t="s">
+      <c r="BB4" s="41" t="s">
         <v>306</v>
       </c>
-      <c r="BB4" s="41" t="s">
+      <c r="BC4" s="41" t="s">
         <v>307</v>
-      </c>
-      <c r="BC4" s="41" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:55">
       <c r="A5" s="40" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B5" s="40" t="e">
         <f>PlatformName &amp; " Robot layout"</f>
@@ -38265,7 +38507,7 @@
     </row>
     <row r="6" spans="1:55">
       <c r="A6" s="40" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B6" s="40" t="e">
         <f>PlatformName &amp; " Robot layout plan"</f>
@@ -38427,7 +38669,7 @@
     </row>
     <row r="7" spans="1:55">
       <c r="A7" s="40" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B7" s="40" t="e">
         <f>PlatformName &amp; " Robot layout plan cladding"</f>
@@ -38589,7 +38831,7 @@
     </row>
     <row r="8" spans="1:55">
       <c r="A8" s="40" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B8" s="40" t="e">
         <f>PlatformName &amp; " Robot boundary conditions and connections"</f>
@@ -38751,7 +38993,7 @@
     </row>
     <row r="9" spans="1:55">
       <c r="A9" s="40" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B9" s="40" t="e">
         <f>PlatformName &amp; " Utilised members"</f>
@@ -39827,7 +40069,7 @@
     <row r="26" spans="1:55" ht="15.75" customHeight="1" thickBot="1">
       <c r="A26" s="55"/>
       <c r="B26" s="56" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C26" s="57"/>
       <c r="D26" s="57"/>
@@ -39988,16 +40230,16 @@
         <v>1</v>
       </c>
       <c r="B27" s="49" t="s">
+        <v>314</v>
+      </c>
+      <c r="C27" s="48" t="s">
         <v>315</v>
       </c>
-      <c r="C27" s="48" t="s">
+      <c r="D27" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="E27" s="47" t="s">
         <v>316</v>
-      </c>
-      <c r="D27" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="E27" s="47" t="s">
-        <v>317</v>
       </c>
       <c r="F27" s="76">
         <v>0</v>
@@ -42179,7 +42421,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="LaTeXCode">
     <tabColor theme="1" tint="0.499984740745262"/>
@@ -42212,7 +42454,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
       <c r="A1" s="19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F1" s="26">
         <v>0.5</v>
@@ -42221,77 +42463,77 @@
         <v>0.1</v>
       </c>
       <c r="M1" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="S1" s="19" t="s">
         <v>319</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" customHeight="1">
       <c r="A2" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>321</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="C2" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="D2" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="E2" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>324</v>
       </c>
-      <c r="E2" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="F2" s="19" t="s">
+      <c r="G2" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="H2" s="27" t="s">
         <v>326</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="J2" s="19" t="s">
         <v>327</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="K2" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="M2" s="19" t="s">
         <v>329</v>
       </c>
-      <c r="M2" s="19" t="s">
-        <v>330</v>
-      </c>
       <c r="N2" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O2" s="19">
         <v>1</v>
       </c>
       <c r="P2" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="S2" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="S2" s="19" t="s">
+      <c r="T2" s="19" t="s">
         <v>332</v>
-      </c>
-      <c r="T2" s="19" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="39" customHeight="1">
       <c r="A3" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="C3" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="D3" s="19" t="s">
+      <c r="E3" s="19" t="s">
         <v>336</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>337</v>
       </c>
       <c r="F3" s="27" t="e">
         <f>PlatformName &amp;" member utilisations $&gt;" &amp;F1&amp;"$"</f>
@@ -42306,107 +42548,107 @@
         <v>#REF!</v>
       </c>
       <c r="J3" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="K3" s="27" t="s">
         <v>338</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="M3" s="19" t="s">
         <v>339</v>
       </c>
-      <c r="M3" s="19" t="s">
-        <v>340</v>
-      </c>
       <c r="N3" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O3" s="19">
         <v>1</v>
       </c>
       <c r="P3" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="S3" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="T3" s="28" t="s">
         <v>341</v>
-      </c>
-      <c r="T3" s="28" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1">
       <c r="A4" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>343</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="C4" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="H4" s="27" t="s">
         <v>344</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="H4" s="27" t="s">
+      <c r="M4" s="19" t="s">
         <v>345</v>
       </c>
-      <c r="M4" s="19" t="s">
-        <v>346</v>
-      </c>
       <c r="N4" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O4" s="19">
         <v>1</v>
       </c>
       <c r="P4" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="S4" s="19" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1">
       <c r="B5" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="H5" s="27" t="s">
         <v>348</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>348</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>348</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>348</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>348</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>348</v>
-      </c>
-      <c r="H5" s="27" t="s">
+      <c r="M5" s="19" t="s">
         <v>349</v>
       </c>
-      <c r="M5" s="19" t="s">
-        <v>350</v>
-      </c>
       <c r="N5" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O5" s="19">
         <v>1</v>
       </c>
       <c r="P5" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="S5" s="19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" customHeight="1">
@@ -42435,19 +42677,19 @@
         <v>#REF!</v>
       </c>
       <c r="H6" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="M6" s="19" t="s">
         <v>352</v>
       </c>
-      <c r="M6" s="19" t="s">
-        <v>353</v>
-      </c>
       <c r="N6" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O6" s="19">
         <v>1</v>
       </c>
       <c r="P6" s="19" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="S6" s="19" t="e">
         <f>"\includegraphics[width=\textwidth]{\"&amp;LaTeXFiguresFolder &amp;"\"&amp;PlatformName&amp; " "&amp;S3&amp;".png} "</f>
@@ -42480,61 +42722,61 @@
         <v>#REF!</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J7" s="19">
         <f>COLUMN(J1)</f>
         <v>10</v>
       </c>
       <c r="M7" s="19" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N7" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O7" s="19">
         <v>1</v>
       </c>
       <c r="P7" s="19" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="S7" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1">
       <c r="B8" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>358</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="D8" s="19" t="s">
         <v>359</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="E8" s="19" t="s">
         <v>360</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="F8" s="19" t="s">
         <v>361</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="G8" s="19" t="s">
         <v>362</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="H8" s="27" t="s">
         <v>363</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="M8" s="19" t="s">
         <v>364</v>
       </c>
-      <c r="M8" s="19" t="s">
-        <v>365</v>
-      </c>
       <c r="N8" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O8" s="19">
         <v>1</v>
       </c>
       <c r="P8" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="S8" s="19" t="e">
         <f>"    \caption{" &amp;PlatformName&amp; " " &amp; S3 &amp;".}"</f>
@@ -42543,37 +42785,37 @@
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1">
       <c r="B9" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>366</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="D9" s="19" t="s">
         <v>367</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="E9" s="19" t="s">
         <v>368</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="F9" s="19" t="s">
         <v>369</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="G9" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="H9" s="27" t="s">
+        <v>348</v>
+      </c>
+      <c r="M9" s="19" t="s">
         <v>371</v>
       </c>
-      <c r="H9" s="27" t="s">
-        <v>349</v>
-      </c>
-      <c r="M9" s="19" t="s">
-        <v>372</v>
-      </c>
       <c r="N9" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O9" s="19">
         <v>1</v>
       </c>
       <c r="P9" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="S9" s="19" t="e">
         <f>"    \label{tabl:" &amp; PlatformName &amp;" "&amp;S3 &amp;"}"</f>
@@ -42582,107 +42824,107 @@
     </row>
     <row r="10" spans="1:20" ht="16.5" customHeight="1">
       <c r="B10" s="85" t="s">
+        <v>372</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>373</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="D10" s="19" t="s">
         <v>374</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="E10" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="F10" s="19" t="s">
         <v>376</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="G10" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="H10" s="27" t="s">
         <v>377</v>
       </c>
-      <c r="G10" s="19" t="s">
-        <v>377</v>
-      </c>
-      <c r="H10" s="27" t="s">
+      <c r="M10" s="19" t="s">
         <v>378</v>
       </c>
-      <c r="M10" s="19" t="s">
-        <v>379</v>
-      </c>
       <c r="N10" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O10" s="19">
         <v>1</v>
       </c>
       <c r="P10" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="16.5" customHeight="1">
       <c r="B11" s="85" t="s">
+        <v>379</v>
+      </c>
+      <c r="C11" s="85" t="s">
+        <v>379</v>
+      </c>
+      <c r="D11" s="85" t="s">
+        <v>379</v>
+      </c>
+      <c r="E11" s="85" t="s">
+        <v>379</v>
+      </c>
+      <c r="F11" s="85" t="s">
+        <v>379</v>
+      </c>
+      <c r="G11" s="85" t="s">
+        <v>379</v>
+      </c>
+      <c r="H11" s="27" t="s">
         <v>380</v>
       </c>
-      <c r="C11" s="85" t="s">
-        <v>380</v>
-      </c>
-      <c r="D11" s="85" t="s">
-        <v>380</v>
-      </c>
-      <c r="E11" s="85" t="s">
-        <v>380</v>
-      </c>
-      <c r="F11" s="85" t="s">
-        <v>380</v>
-      </c>
-      <c r="G11" s="85" t="s">
-        <v>380</v>
-      </c>
-      <c r="H11" s="27" t="s">
+      <c r="M11" s="19" t="s">
         <v>381</v>
       </c>
-      <c r="M11" s="19" t="s">
-        <v>382</v>
-      </c>
       <c r="N11" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O11" s="19">
         <v>1</v>
       </c>
       <c r="P11" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1">
       <c r="H12" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="M12" s="19" t="s">
         <v>383</v>
       </c>
-      <c r="M12" s="19" t="s">
-        <v>384</v>
-      </c>
       <c r="N12" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O12" s="19">
         <v>1</v>
       </c>
       <c r="P12" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="16.5" customHeight="1">
       <c r="C13" s="85"/>
       <c r="H13" s="27" t="s">
+        <v>384</v>
+      </c>
+      <c r="M13" s="19" t="s">
         <v>385</v>
       </c>
-      <c r="M13" s="19" t="s">
-        <v>386</v>
-      </c>
       <c r="N13" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O13" s="19">
         <v>1</v>
       </c>
       <c r="P13" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="16.5" customHeight="1">
@@ -42692,16 +42934,16 @@
         <v>#REF!</v>
       </c>
       <c r="M14" s="19" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N14" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O14" s="19">
         <v>1</v>
       </c>
       <c r="P14" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="S14" s="28"/>
     </row>
@@ -42712,49 +42954,49 @@
         <v>#REF!</v>
       </c>
       <c r="M15" s="19" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N15" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O15" s="19">
         <v>1</v>
       </c>
       <c r="P15" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="16.5" customHeight="1">
       <c r="C16" s="85"/>
       <c r="H16" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="M16" s="19" t="s">
         <v>389</v>
       </c>
-      <c r="M16" s="19" t="s">
-        <v>390</v>
-      </c>
       <c r="N16" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O16" s="19">
         <v>1</v>
       </c>
       <c r="P16" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="17" spans="3:16" ht="16.5" customHeight="1">
       <c r="C17" s="85"/>
       <c r="M17" s="19" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N17" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O17" s="19">
         <v>1</v>
       </c>
       <c r="P17" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="18" spans="3:16" ht="16.5" customHeight="1">
@@ -42794,7 +43036,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="LaTeXLcombApp">
     <tabColor theme="1" tint="0.499984740745262"/>
@@ -42818,79 +43060,79 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="30" t="s">
+        <v>391</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>392</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="C1" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>393</v>
       </c>
-      <c r="C1" s="31" t="s">
-        <v>239</v>
-      </c>
-      <c r="D1" s="32" t="s">
+      <c r="E1" s="31" t="s">
         <v>394</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="F1" s="31" t="s">
+        <v>393</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>394</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>393</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>394</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>393</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>394</v>
+      </c>
+      <c r="L1" s="31" t="s">
+        <v>393</v>
+      </c>
+      <c r="M1" s="31" t="s">
+        <v>394</v>
+      </c>
+      <c r="N1" s="31" t="s">
+        <v>393</v>
+      </c>
+      <c r="O1" s="31" t="s">
+        <v>394</v>
+      </c>
+      <c r="P1" s="31" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q1" s="31" t="s">
+        <v>394</v>
+      </c>
+      <c r="R1" s="31" t="s">
+        <v>393</v>
+      </c>
+      <c r="S1" s="31" t="s">
+        <v>394</v>
+      </c>
+      <c r="T1" s="31" t="s">
+        <v>393</v>
+      </c>
+      <c r="U1" s="31" t="s">
+        <v>394</v>
+      </c>
+      <c r="V1" s="31" t="s">
+        <v>393</v>
+      </c>
+      <c r="W1" s="31" t="s">
+        <v>394</v>
+      </c>
+      <c r="X1" s="60" t="s">
         <v>395</v>
       </c>
-      <c r="F1" s="31" t="s">
-        <v>394</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>395</v>
-      </c>
-      <c r="H1" s="31" t="s">
-        <v>394</v>
-      </c>
-      <c r="I1" s="31" t="s">
-        <v>395</v>
-      </c>
-      <c r="J1" s="31" t="s">
-        <v>394</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>395</v>
-      </c>
-      <c r="L1" s="31" t="s">
-        <v>394</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>395</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>394</v>
-      </c>
-      <c r="O1" s="31" t="s">
-        <v>395</v>
-      </c>
-      <c r="P1" s="31" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q1" s="31" t="s">
-        <v>395</v>
-      </c>
-      <c r="R1" s="31" t="s">
-        <v>394</v>
-      </c>
-      <c r="S1" s="31" t="s">
-        <v>395</v>
-      </c>
-      <c r="T1" s="31" t="s">
-        <v>394</v>
-      </c>
-      <c r="U1" s="31" t="s">
-        <v>395</v>
-      </c>
-      <c r="V1" s="31" t="s">
-        <v>394</v>
-      </c>
-      <c r="W1" s="31" t="s">
-        <v>395</v>
-      </c>
-      <c r="X1" s="60" t="s">
+      <c r="Y1" s="31" t="s">
         <v>396</v>
-      </c>
-      <c r="Y1" s="31" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -42898,10 +43140,10 @@
         <v>1000</v>
       </c>
       <c r="B2" s="126" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C2" s="127" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D2" s="125">
         <v>1</v>
@@ -42941,10 +43183,10 @@
         <v>1001</v>
       </c>
       <c r="B3" s="130" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C3" s="127" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D3" s="127">
         <v>2</v>
@@ -42984,10 +43226,10 @@
         <v>2000</v>
       </c>
       <c r="B4" s="130" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C4" s="127" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D4" s="127">
         <v>2</v>
@@ -43035,10 +43277,10 @@
         <v>2001</v>
       </c>
       <c r="B5" s="130" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C5" s="127" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D5" s="127">
         <v>2</v>
@@ -43086,10 +43328,10 @@
         <v>2002</v>
       </c>
       <c r="B6" s="130" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C6" s="127" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D6" s="127">
         <v>2</v>
@@ -43137,10 +43379,10 @@
         <v>2100</v>
       </c>
       <c r="B7" s="130" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C7" s="127" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D7" s="127">
         <v>1</v>
@@ -43188,10 +43430,10 @@
         <v>2101</v>
       </c>
       <c r="B8" s="130" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C8" s="127" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D8" s="127">
         <v>1</v>
@@ -43239,10 +43481,10 @@
         <v>2102</v>
       </c>
       <c r="B9" s="130" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C9" s="127" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D9" s="127">
         <v>1</v>
@@ -43290,10 +43532,10 @@
         <v>2103</v>
       </c>
       <c r="B10" s="130" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C10" s="127" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D10" s="127">
         <v>1</v>
@@ -43341,10 +43583,10 @@
         <v>2104</v>
       </c>
       <c r="B11" s="130" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C11" s="127" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D11" s="127">
         <v>1</v>
@@ -43392,10 +43634,10 @@
         <v>2105</v>
       </c>
       <c r="B12" s="130" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C12" s="127" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D12" s="127">
         <v>1</v>
@@ -43443,10 +43685,10 @@
         <v>2106</v>
       </c>
       <c r="B13" s="130" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C13" s="127" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D13" s="127">
         <v>1</v>
@@ -43494,10 +43736,10 @@
         <v>2107</v>
       </c>
       <c r="B14" s="130" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C14" s="127" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D14" s="127">
         <v>1</v>
@@ -43545,10 +43787,10 @@
         <v>2108</v>
       </c>
       <c r="B15" s="130" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C15" s="127" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D15" s="127">
         <v>1</v>
@@ -43596,10 +43838,10 @@
         <v>2109</v>
       </c>
       <c r="B16" s="130" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C16" s="127" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D16" s="127">
         <v>1</v>
@@ -43647,10 +43889,10 @@
         <v>3001</v>
       </c>
       <c r="B17" s="130" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C17" s="127" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D17" s="127">
         <v>1</v>
@@ -43694,10 +43936,10 @@
         <v>3002</v>
       </c>
       <c r="B18" s="130" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C18" s="127" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D18" s="127">
         <v>2</v>
@@ -43741,10 +43983,10 @@
         <v>3004</v>
       </c>
       <c r="B19" s="130" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C19" s="127" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D19" s="127">
         <v>2</v>
@@ -43792,10 +44034,10 @@
         <v>3005</v>
       </c>
       <c r="B20" s="130" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C20" s="127" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D20" s="127">
         <v>2</v>
@@ -43843,10 +44085,10 @@
         <v>3006</v>
       </c>
       <c r="B21" s="130" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C21" s="127" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D21" s="127">
         <v>2</v>

--- a/pyMaster_loads_tool.xlsx
+++ b/pyMaster_loads_tool.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://atlec-my.sharepoint.com/personal/mwo_woodthilsted_com/Documents/Professional/5_PYTHON/pyMasterLoadsTool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_AFB557827021BA1F9C2C107175FB6F18C44BF613" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C57E260F-088F-4880-AB57-AFA8040DAEED}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_5D32F417BDC4D05AA375E799C8C031A9731D5940" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7568026B-9348-425D-AFA3-6B959A48AC9C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="858" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39045" yWindow="4230" windowWidth="28800" windowHeight="15030" tabRatio="858" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Load case definition" sheetId="1" r:id="rId1"/>
     <sheet name="Load definition" sheetId="2" r:id="rId2"/>
     <sheet name="Load combination" sheetId="3" r:id="rId3"/>
     <sheet name="Contour load data" sheetId="4" r:id="rId4"/>
-    <sheet name="Screen capture" sheetId="5" r:id="rId5"/>
-    <sheet name="LaTeX code" sheetId="6" state="hidden" r:id="rId6"/>
-    <sheet name="LaTeX load combs apndx" sheetId="7" state="hidden" r:id="rId7"/>
+    <sheet name="Contour data template" sheetId="8" r:id="rId5"/>
+    <sheet name="Screen capture" sheetId="5" r:id="rId6"/>
+    <sheet name="LaTeX code" sheetId="6" state="hidden" r:id="rId7"/>
+    <sheet name="LaTeX load combs apndx" sheetId="7" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="BargePhoto">INDIRECT(#REF!)</definedName>
@@ -193,7 +194,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="256">
   <si>
     <t>Basic case no.</t>
   </si>
@@ -360,10 +361,16 @@
     <t>table 1</t>
   </si>
   <si>
+    <t>load on contour</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
     <t>global</t>
+  </si>
+  <si>
+    <t>load 3p on contour</t>
   </si>
   <si>
     <t>CAT_F</t>
@@ -390,19 +397,19 @@
     <t>-</t>
   </si>
   <si>
-    <t>Row: 9</t>
+    <t xml:space="preserve">Row: </t>
   </si>
   <si>
-    <t>Row: 10</t>
+    <t>9</t>
   </si>
   <si>
-    <t>Row: 11</t>
+    <t>10</t>
   </si>
   <si>
-    <t>Row: 12</t>
+    <t>11</t>
   </si>
   <si>
-    <t>3p definition</t>
+    <t>12</t>
   </si>
   <si>
     <t>Point number</t>
@@ -417,13 +424,16 @@
     <t>Z</t>
   </si>
   <si>
+    <t>3p definition</t>
+  </si>
+  <si>
     <t>A(-1, 2.5, 0.5, 0.0)</t>
   </si>
   <si>
-    <t>B(-1, 2.5, 0.5, 0.0)</t>
+    <t>B(-1, 3.5, 0.5, 0.0)</t>
   </si>
   <si>
-    <t>C(-1, 2.5, 0.5, 0.0)</t>
+    <t>C(-1, 3.0, 1.0, 0.0)</t>
   </si>
   <si>
     <t>Display settings</t>
@@ -1449,7 +1459,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1852,6 +1862,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1860,13 +1876,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1923,16 +1939,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2477,9 +2483,9 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFFE699"/>
   </sheetPr>
-  <dimension ref="A1:N177"/>
+  <dimension ref="A1:M177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
@@ -2496,43 +2502,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="167" t="s">
+      <c r="B1" s="169" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="164" t="s">
+      <c r="C1" s="168" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="165" t="s">
+      <c r="D1" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="166"/>
-      <c r="H1" s="166"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
       <c r="K1" s="145" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A2" s="161"/>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="160" t="s">
+      <c r="A2" s="163"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="160" t="s">
+      <c r="E2" s="162" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="160" t="s">
+      <c r="F2" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="160" t="s">
+      <c r="G2" s="162" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="160" t="s">
+      <c r="H2" s="162" t="s">
         <v>9</v>
       </c>
       <c r="J2" s="145" t="s">
@@ -2546,14 +2552,14 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="161"/>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
+      <c r="A3" s="163"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
       <c r="J3" s="145" t="s">
         <v>12</v>
       </c>
@@ -2565,14 +2571,14 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="161"/>
-      <c r="B4" s="161"/>
-      <c r="C4" s="161"/>
-      <c r="D4" s="161"/>
-      <c r="E4" s="161"/>
-      <c r="F4" s="161"/>
-      <c r="G4" s="161"/>
-      <c r="H4" s="161"/>
+      <c r="A4" s="163"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
       <c r="J4" s="145" t="s">
         <v>14</v>
       </c>
@@ -2584,14 +2590,14 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="161"/>
-      <c r="B5" s="161"/>
-      <c r="C5" s="161"/>
-      <c r="D5" s="161"/>
-      <c r="E5" s="161"/>
-      <c r="F5" s="161"/>
-      <c r="G5" s="161"/>
-      <c r="H5" s="161"/>
+      <c r="A5" s="163"/>
+      <c r="B5" s="163"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="163"/>
+      <c r="H5" s="163"/>
       <c r="J5" s="145" t="s">
         <v>16</v>
       </c>
@@ -2603,14 +2609,14 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="162"/>
-      <c r="B6" s="162"/>
-      <c r="C6" s="162"/>
-      <c r="D6" s="162"/>
-      <c r="E6" s="162"/>
-      <c r="F6" s="162"/>
-      <c r="G6" s="162"/>
-      <c r="H6" s="162"/>
+      <c r="A6" s="164"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="164"/>
+      <c r="D6" s="164"/>
+      <c r="E6" s="164"/>
+      <c r="F6" s="164"/>
+      <c r="G6" s="164"/>
+      <c r="H6" s="164"/>
       <c r="J6" s="145" t="s">
         <v>18</v>
       </c>
@@ -4409,15 +4415,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="E2:E6"/>
     <mergeCell ref="F2:F6"/>
-    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="A1:A6"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="C1:C6"/>
+    <mergeCell ref="B1:B6"/>
     <mergeCell ref="H2:H6"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="A1:A6"/>
-    <mergeCell ref="C1:C6"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="B1:B6"/>
-    <mergeCell ref="G2:G6"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:F177">
     <cfRule type="expression" dxfId="31" priority="2">
@@ -4433,23 +4439,23 @@
   <dataValidations count="9">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the load case number_x000a__x000a_Try to stick to a consistent naming convention and leave 100 possibilities for each load type. For example: _x000a_200-299 are live loads,_x000a_300-399 could be padeye loads,_x000a_400-499 could be HOP loads etc._x000a_ " sqref="A1:A6" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the load case_x000a__x000a_Please keep naming of similar loads as consistent as possible" sqref="B1:B6" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576 F2:F6 F7:G1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576 F2:F6 F7:G1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"1,0"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="1- for Auxiliary case, 0 - if not." sqref="H2:H6" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C22" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="1- for Auxiliary case, 0 - if not." sqref="H2:H6" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C22" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>$J$2:$J$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:E177" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:E177" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>IF(D8=1,$K$13:$K$15,$K$10:$K$13)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7" xr:uid="{00000000-0002-0000-0000-000007000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>IF(D7=1,$K$11:$K$15,$K$10:$K$13)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H177" xr:uid="{00000000-0002-0000-0000-000008000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H177" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose nature of the loadcase" sqref="C1:C6" xr:uid="{0261A2AE-29D1-4049-A6AF-7C1E09BD6AE2}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose nature of the loadcase" sqref="C1:C6" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -4466,7 +4472,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AE13" sqref="AE13"/>
-      <selection pane="bottomLeft" activeCell="G129" sqref="G129"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -4492,8 +4498,8 @@
     <col min="32" max="32" width="28.28515625" style="19" customWidth="1"/>
     <col min="33" max="33" width="8.7109375" style="19" customWidth="1"/>
     <col min="34" max="37" width="8.7109375" customWidth="1"/>
-    <col min="38" max="49" width="8.7109375" style="19" customWidth="1"/>
-    <col min="50" max="16384" width="8.7109375" style="19"/>
+    <col min="38" max="50" width="8.7109375" style="19" customWidth="1"/>
+    <col min="51" max="16384" width="8.7109375" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="23.1" customHeight="1">
@@ -4526,262 +4532,262 @@
       <c r="Y1" s="17"/>
       <c r="Z1" s="17"/>
       <c r="AA1" s="17"/>
-      <c r="AC1" s="185" t="s">
+      <c r="AC1" s="187" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" s="169"/>
-      <c r="AE1" s="169"/>
-      <c r="AF1" s="170"/>
+      <c r="AD1" s="171"/>
+      <c r="AE1" s="171"/>
+      <c r="AF1" s="172"/>
     </row>
     <row r="2" spans="1:32" ht="12.4" customHeight="1">
-      <c r="A2" s="163" t="s">
+      <c r="A2" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="167" t="s">
+      <c r="B2" s="169" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="164" t="s">
+      <c r="C2" s="168" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="180"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="164" t="s">
+      <c r="D2" s="182"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="182" t="s">
+      <c r="H2" s="184" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="179" t="s">
+      <c r="I2" s="181" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="168" t="s">
+      <c r="J2" s="170" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="169"/>
-      <c r="L2" s="169"/>
-      <c r="M2" s="169"/>
-      <c r="N2" s="169"/>
-      <c r="O2" s="169"/>
-      <c r="P2" s="169"/>
-      <c r="Q2" s="169"/>
-      <c r="R2" s="169"/>
-      <c r="S2" s="169"/>
-      <c r="T2" s="169"/>
-      <c r="U2" s="169"/>
-      <c r="V2" s="169"/>
-      <c r="W2" s="169"/>
-      <c r="X2" s="169"/>
-      <c r="Y2" s="169"/>
-      <c r="Z2" s="170"/>
-      <c r="AA2" s="160" t="s">
+      <c r="K2" s="171"/>
+      <c r="L2" s="171"/>
+      <c r="M2" s="171"/>
+      <c r="N2" s="171"/>
+      <c r="O2" s="171"/>
+      <c r="P2" s="171"/>
+      <c r="Q2" s="171"/>
+      <c r="R2" s="171"/>
+      <c r="S2" s="171"/>
+      <c r="T2" s="171"/>
+      <c r="U2" s="171"/>
+      <c r="V2" s="171"/>
+      <c r="W2" s="171"/>
+      <c r="X2" s="171"/>
+      <c r="Y2" s="171"/>
+      <c r="Z2" s="172"/>
+      <c r="AA2" s="162" t="s">
         <v>34</v>
       </c>
-      <c r="AC2" s="164" t="s">
+      <c r="AC2" s="168" t="s">
         <v>35</v>
       </c>
-      <c r="AD2" s="164" t="s">
+      <c r="AD2" s="168" t="s">
         <v>36</v>
       </c>
-      <c r="AE2" s="164" t="s">
+      <c r="AE2" s="168" t="s">
         <v>37</v>
       </c>
-      <c r="AF2" s="164" t="s">
+      <c r="AF2" s="168" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="12.6" customHeight="1">
-      <c r="A3" s="161"/>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="174"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="174"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="171" t="s">
+      <c r="A3" s="163"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="177"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="176"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="173" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="172"/>
-      <c r="L3" s="173"/>
-      <c r="M3" s="184" t="s">
+      <c r="K3" s="174"/>
+      <c r="L3" s="175"/>
+      <c r="M3" s="186" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="172"/>
-      <c r="O3" s="173"/>
-      <c r="P3" s="164" t="s">
+      <c r="N3" s="174"/>
+      <c r="O3" s="175"/>
+      <c r="P3" s="168" t="s">
         <v>41</v>
       </c>
-      <c r="Q3" s="172"/>
-      <c r="R3" s="173"/>
-      <c r="S3" s="160" t="s">
+      <c r="Q3" s="174"/>
+      <c r="R3" s="175"/>
+      <c r="S3" s="162" t="s">
         <v>42</v>
       </c>
-      <c r="T3" s="172"/>
-      <c r="U3" s="173"/>
-      <c r="V3" s="160" t="s">
+      <c r="T3" s="174"/>
+      <c r="U3" s="175"/>
+      <c r="V3" s="162" t="s">
         <v>43</v>
       </c>
-      <c r="W3" s="160" t="s">
+      <c r="W3" s="162" t="s">
         <v>44</v>
       </c>
-      <c r="X3" s="173"/>
-      <c r="Y3" s="160" t="s">
+      <c r="X3" s="175"/>
+      <c r="Y3" s="162" t="s">
         <v>45</v>
       </c>
-      <c r="Z3" s="160" t="s">
+      <c r="Z3" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="AA3" s="161"/>
-      <c r="AC3" s="161"/>
-      <c r="AD3" s="161"/>
-      <c r="AE3" s="161"/>
-      <c r="AF3" s="161"/>
+      <c r="AA3" s="163"/>
+      <c r="AC3" s="163"/>
+      <c r="AD3" s="163"/>
+      <c r="AE3" s="163"/>
+      <c r="AF3" s="163"/>
     </row>
     <row r="4" spans="1:32" ht="12.6" customHeight="1">
-      <c r="A4" s="161"/>
-      <c r="B4" s="161"/>
-      <c r="C4" s="161"/>
-      <c r="D4" s="174"/>
-      <c r="E4" s="175"/>
-      <c r="F4" s="176"/>
-      <c r="G4" s="161"/>
-      <c r="H4" s="174"/>
-      <c r="I4" s="161"/>
-      <c r="J4" s="174"/>
-      <c r="K4" s="175"/>
-      <c r="L4" s="176"/>
-      <c r="M4" s="174"/>
-      <c r="N4" s="175"/>
-      <c r="O4" s="176"/>
-      <c r="P4" s="174"/>
-      <c r="Q4" s="175"/>
-      <c r="R4" s="176"/>
-      <c r="S4" s="174"/>
-      <c r="T4" s="175"/>
-      <c r="U4" s="176"/>
-      <c r="V4" s="161"/>
-      <c r="W4" s="174"/>
-      <c r="X4" s="176"/>
-      <c r="Y4" s="161"/>
-      <c r="Z4" s="161"/>
-      <c r="AA4" s="161"/>
-      <c r="AC4" s="161"/>
-      <c r="AD4" s="161"/>
-      <c r="AE4" s="161"/>
-      <c r="AF4" s="161"/>
+      <c r="A4" s="163"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="176"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="178"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="176"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="176"/>
+      <c r="K4" s="177"/>
+      <c r="L4" s="178"/>
+      <c r="M4" s="176"/>
+      <c r="N4" s="177"/>
+      <c r="O4" s="178"/>
+      <c r="P4" s="176"/>
+      <c r="Q4" s="177"/>
+      <c r="R4" s="178"/>
+      <c r="S4" s="176"/>
+      <c r="T4" s="177"/>
+      <c r="U4" s="178"/>
+      <c r="V4" s="163"/>
+      <c r="W4" s="176"/>
+      <c r="X4" s="178"/>
+      <c r="Y4" s="163"/>
+      <c r="Z4" s="163"/>
+      <c r="AA4" s="163"/>
+      <c r="AC4" s="163"/>
+      <c r="AD4" s="163"/>
+      <c r="AE4" s="163"/>
+      <c r="AF4" s="163"/>
     </row>
     <row r="5" spans="1:32" ht="25.15" customHeight="1">
-      <c r="A5" s="161"/>
-      <c r="B5" s="161"/>
-      <c r="C5" s="161"/>
-      <c r="D5" s="174"/>
-      <c r="E5" s="175"/>
-      <c r="F5" s="176"/>
-      <c r="G5" s="161"/>
-      <c r="H5" s="174"/>
-      <c r="I5" s="161"/>
-      <c r="J5" s="174"/>
-      <c r="K5" s="175"/>
-      <c r="L5" s="176"/>
-      <c r="M5" s="174"/>
-      <c r="N5" s="175"/>
-      <c r="O5" s="176"/>
-      <c r="P5" s="174"/>
-      <c r="Q5" s="175"/>
-      <c r="R5" s="176"/>
-      <c r="S5" s="174"/>
-      <c r="T5" s="175"/>
-      <c r="U5" s="176"/>
-      <c r="V5" s="161"/>
-      <c r="W5" s="174"/>
-      <c r="X5" s="176"/>
-      <c r="Y5" s="161"/>
-      <c r="Z5" s="161"/>
-      <c r="AA5" s="161"/>
-      <c r="AC5" s="161"/>
-      <c r="AD5" s="161"/>
-      <c r="AE5" s="161"/>
-      <c r="AF5" s="161"/>
+      <c r="A5" s="163"/>
+      <c r="B5" s="163"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="176"/>
+      <c r="E5" s="177"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="163"/>
+      <c r="H5" s="176"/>
+      <c r="I5" s="163"/>
+      <c r="J5" s="176"/>
+      <c r="K5" s="177"/>
+      <c r="L5" s="178"/>
+      <c r="M5" s="176"/>
+      <c r="N5" s="177"/>
+      <c r="O5" s="178"/>
+      <c r="P5" s="176"/>
+      <c r="Q5" s="177"/>
+      <c r="R5" s="178"/>
+      <c r="S5" s="176"/>
+      <c r="T5" s="177"/>
+      <c r="U5" s="178"/>
+      <c r="V5" s="163"/>
+      <c r="W5" s="176"/>
+      <c r="X5" s="178"/>
+      <c r="Y5" s="163"/>
+      <c r="Z5" s="163"/>
+      <c r="AA5" s="163"/>
+      <c r="AC5" s="163"/>
+      <c r="AD5" s="163"/>
+      <c r="AE5" s="163"/>
+      <c r="AF5" s="163"/>
     </row>
     <row r="6" spans="1:32" ht="12.6" customHeight="1">
-      <c r="A6" s="161"/>
-      <c r="B6" s="161"/>
-      <c r="C6" s="161"/>
-      <c r="D6" s="174"/>
-      <c r="E6" s="175"/>
-      <c r="F6" s="176"/>
-      <c r="G6" s="161"/>
-      <c r="H6" s="174"/>
-      <c r="I6" s="161"/>
-      <c r="J6" s="177"/>
-      <c r="K6" s="166"/>
-      <c r="L6" s="178"/>
-      <c r="M6" s="177"/>
-      <c r="N6" s="166"/>
-      <c r="O6" s="178"/>
-      <c r="P6" s="174"/>
-      <c r="Q6" s="175"/>
-      <c r="R6" s="176"/>
-      <c r="S6" s="177"/>
-      <c r="T6" s="166"/>
-      <c r="U6" s="178"/>
-      <c r="V6" s="161"/>
-      <c r="W6" s="174"/>
-      <c r="X6" s="176"/>
-      <c r="Y6" s="161"/>
-      <c r="Z6" s="161"/>
-      <c r="AA6" s="161"/>
-      <c r="AC6" s="161"/>
-      <c r="AD6" s="161"/>
-      <c r="AE6" s="161"/>
-      <c r="AF6" s="161"/>
+      <c r="A6" s="163"/>
+      <c r="B6" s="163"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="176"/>
+      <c r="E6" s="177"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="176"/>
+      <c r="I6" s="163"/>
+      <c r="J6" s="179"/>
+      <c r="K6" s="167"/>
+      <c r="L6" s="180"/>
+      <c r="M6" s="179"/>
+      <c r="N6" s="167"/>
+      <c r="O6" s="180"/>
+      <c r="P6" s="176"/>
+      <c r="Q6" s="177"/>
+      <c r="R6" s="178"/>
+      <c r="S6" s="179"/>
+      <c r="T6" s="167"/>
+      <c r="U6" s="180"/>
+      <c r="V6" s="163"/>
+      <c r="W6" s="176"/>
+      <c r="X6" s="178"/>
+      <c r="Y6" s="163"/>
+      <c r="Z6" s="163"/>
+      <c r="AA6" s="163"/>
+      <c r="AC6" s="163"/>
+      <c r="AD6" s="163"/>
+      <c r="AE6" s="163"/>
+      <c r="AF6" s="163"/>
     </row>
     <row r="7" spans="1:32">
-      <c r="A7" s="162"/>
-      <c r="B7" s="162"/>
-      <c r="C7" s="162"/>
-      <c r="D7" s="174"/>
-      <c r="E7" s="175"/>
-      <c r="F7" s="176"/>
-      <c r="G7" s="162"/>
-      <c r="H7" s="174"/>
-      <c r="I7" s="162"/>
-      <c r="J7" s="168" t="s">
+      <c r="A7" s="164"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="164"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="177"/>
+      <c r="F7" s="178"/>
+      <c r="G7" s="164"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="164"/>
+      <c r="J7" s="170" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="169"/>
-      <c r="L7" s="170"/>
-      <c r="M7" s="168" t="s">
+      <c r="K7" s="171"/>
+      <c r="L7" s="172"/>
+      <c r="M7" s="170" t="s">
         <v>48</v>
       </c>
-      <c r="N7" s="169"/>
-      <c r="O7" s="170"/>
-      <c r="P7" s="177"/>
-      <c r="Q7" s="166"/>
-      <c r="R7" s="178"/>
-      <c r="S7" s="168" t="s">
+      <c r="N7" s="171"/>
+      <c r="O7" s="172"/>
+      <c r="P7" s="179"/>
+      <c r="Q7" s="167"/>
+      <c r="R7" s="180"/>
+      <c r="S7" s="170" t="s">
         <v>49</v>
       </c>
-      <c r="T7" s="169"/>
-      <c r="U7" s="170"/>
-      <c r="V7" s="162"/>
-      <c r="W7" s="177"/>
-      <c r="X7" s="178"/>
-      <c r="Y7" s="162"/>
-      <c r="Z7" s="162"/>
-      <c r="AA7" s="162"/>
-      <c r="AC7" s="162"/>
-      <c r="AD7" s="162"/>
-      <c r="AE7" s="162"/>
-      <c r="AF7" s="162"/>
+      <c r="T7" s="171"/>
+      <c r="U7" s="172"/>
+      <c r="V7" s="164"/>
+      <c r="W7" s="179"/>
+      <c r="X7" s="180"/>
+      <c r="Y7" s="164"/>
+      <c r="Z7" s="164"/>
+      <c r="AA7" s="164"/>
+      <c r="AC7" s="164"/>
+      <c r="AD7" s="164"/>
+      <c r="AE7" s="164"/>
+      <c r="AF7" s="164"/>
     </row>
     <row r="8" spans="1:32">
       <c r="A8" s="153">
         <v>1</v>
       </c>
-      <c r="B8" s="193" t="s">
+      <c r="B8" s="160" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="94" t="str">
@@ -4832,7 +4838,7 @@
       <c r="A9" s="154">
         <v>1</v>
       </c>
-      <c r="B9" s="194" t="s">
+      <c r="B9" s="161" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="94" t="str">
@@ -4849,10 +4855,10 @@
         <v>1:STA1</v>
       </c>
       <c r="H9" s="67" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I9" s="141" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J9" s="116">
         <v>0</v>
@@ -4892,7 +4898,7 @@
       </c>
       <c r="V9" s="119"/>
       <c r="W9" s="120" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X9" s="111"/>
       <c r="Y9" s="17">
@@ -4911,7 +4917,7 @@
       <c r="A10" s="154">
         <v>1</v>
       </c>
-      <c r="B10" s="194" t="s">
+      <c r="B10" s="161" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="94" t="str">
@@ -4926,10 +4932,10 @@
         <v>1:STA1</v>
       </c>
       <c r="H10" s="67" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I10" s="141" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J10" s="116">
         <v>0</v>
@@ -4969,7 +4975,7 @@
       </c>
       <c r="V10" s="119"/>
       <c r="W10" s="120" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X10" s="111"/>
       <c r="Y10" s="17">
@@ -5005,10 +5011,10 @@
         <v>1:STA1</v>
       </c>
       <c r="H11" s="67" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I11" s="141" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J11" s="116">
         <v>0</v>
@@ -5048,7 +5054,7 @@
       </c>
       <c r="V11" s="119"/>
       <c r="W11" s="120" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X11" s="111"/>
       <c r="Y11" s="17">
@@ -5083,9 +5089,11 @@
         <f t="shared" si="0"/>
         <v>1:STA1</v>
       </c>
-      <c r="H12" s="67"/>
+      <c r="H12" s="67" t="s">
+        <v>56</v>
+      </c>
       <c r="I12" s="142" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J12" s="116">
         <v>0</v>
@@ -5125,7 +5133,7 @@
       </c>
       <c r="V12" s="100"/>
       <c r="W12" s="120" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X12" s="111"/>
       <c r="Y12" s="17">
@@ -5307,7 +5315,7 @@
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="95" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="21" t="str">
@@ -5426,7 +5434,7 @@
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="95" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="21" t="str">
@@ -5545,7 +5553,7 @@
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="95" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="21" t="str">
@@ -5664,7 +5672,7 @@
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="95" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F26" s="17"/>
       <c r="G26" s="21" t="str">
@@ -5713,7 +5721,7 @@
       <c r="H27" s="67"/>
       <c r="I27" s="141"/>
       <c r="J27" s="116"/>
-      <c r="K27" s="192"/>
+      <c r="K27" s="117"/>
       <c r="L27" s="118"/>
       <c r="M27" s="97"/>
       <c r="N27" s="96"/>
@@ -5783,7 +5791,7 @@
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="95" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F29" s="17"/>
       <c r="G29" s="21" t="str">
@@ -5832,7 +5840,7 @@
       <c r="H30" s="67"/>
       <c r="I30" s="141"/>
       <c r="J30" s="116"/>
-      <c r="K30" s="192"/>
+      <c r="K30" s="117"/>
       <c r="L30" s="118"/>
       <c r="M30" s="97"/>
       <c r="N30" s="96"/>
@@ -5902,7 +5910,7 @@
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="95" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F32" s="17"/>
       <c r="G32" s="21" t="str">
@@ -5951,7 +5959,7 @@
       <c r="H33" s="67"/>
       <c r="I33" s="141"/>
       <c r="J33" s="116"/>
-      <c r="K33" s="192"/>
+      <c r="K33" s="117"/>
       <c r="L33" s="118"/>
       <c r="M33" s="97"/>
       <c r="N33" s="96"/>
@@ -6021,7 +6029,7 @@
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="95" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F35" s="17"/>
       <c r="G35" s="21" t="str">
@@ -6070,7 +6078,7 @@
       <c r="H36" s="67"/>
       <c r="I36" s="141"/>
       <c r="J36" s="116"/>
-      <c r="K36" s="192"/>
+      <c r="K36" s="117"/>
       <c r="L36" s="118"/>
       <c r="M36" s="97"/>
       <c r="N36" s="96"/>
@@ -6133,7 +6141,7 @@
     </row>
     <row r="38" spans="1:32">
       <c r="A38" s="154"/>
-      <c r="B38" s="194"/>
+      <c r="B38" s="161"/>
       <c r="C38" s="94" t="e">
         <f>VLOOKUP(A38,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -6172,7 +6180,7 @@
     </row>
     <row r="39" spans="1:32">
       <c r="A39" s="154"/>
-      <c r="B39" s="194"/>
+      <c r="B39" s="161"/>
       <c r="C39" s="94" t="e">
         <f>VLOOKUP(A39,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -6211,7 +6219,7 @@
     </row>
     <row r="40" spans="1:32">
       <c r="A40" s="154"/>
-      <c r="B40" s="194"/>
+      <c r="B40" s="161"/>
       <c r="C40" s="94" t="e">
         <f>VLOOKUP(A40,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -6250,7 +6258,7 @@
     </row>
     <row r="41" spans="1:32">
       <c r="A41" s="154"/>
-      <c r="B41" s="194"/>
+      <c r="B41" s="161"/>
       <c r="C41" s="94" t="e">
         <f>VLOOKUP(A41,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -6289,7 +6297,7 @@
     </row>
     <row r="42" spans="1:32">
       <c r="A42" s="154"/>
-      <c r="B42" s="194"/>
+      <c r="B42" s="161"/>
       <c r="C42" s="94" t="e">
         <f>VLOOKUP(A42,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -6328,7 +6336,7 @@
     </row>
     <row r="43" spans="1:32">
       <c r="A43" s="154"/>
-      <c r="B43" s="194"/>
+      <c r="B43" s="161"/>
       <c r="C43" s="94" t="e">
         <f>VLOOKUP(A43,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -6367,7 +6375,7 @@
     </row>
     <row r="44" spans="1:32">
       <c r="A44" s="154"/>
-      <c r="B44" s="194"/>
+      <c r="B44" s="161"/>
       <c r="C44" s="94" t="e">
         <f>VLOOKUP(A44,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -6406,7 +6414,7 @@
     </row>
     <row r="45" spans="1:32">
       <c r="A45" s="155"/>
-      <c r="B45" s="194"/>
+      <c r="B45" s="161"/>
       <c r="C45" s="94" t="e">
         <f>VLOOKUP(A45,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -6445,7 +6453,7 @@
     </row>
     <row r="46" spans="1:32">
       <c r="A46" s="155"/>
-      <c r="B46" s="194"/>
+      <c r="B46" s="161"/>
       <c r="C46" s="94" t="e">
         <f>VLOOKUP(A46,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -6484,7 +6492,7 @@
     </row>
     <row r="47" spans="1:32">
       <c r="A47" s="155"/>
-      <c r="B47" s="194"/>
+      <c r="B47" s="161"/>
       <c r="C47" s="94" t="e">
         <f>VLOOKUP(A47,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -6523,7 +6531,7 @@
     </row>
     <row r="48" spans="1:32">
       <c r="A48" s="155"/>
-      <c r="B48" s="194"/>
+      <c r="B48" s="161"/>
       <c r="C48" s="94" t="e">
         <f>VLOOKUP(A48,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -6562,7 +6570,7 @@
     </row>
     <row r="49" spans="1:32">
       <c r="A49" s="155"/>
-      <c r="B49" s="194"/>
+      <c r="B49" s="161"/>
       <c r="C49" s="94" t="e">
         <f>VLOOKUP(A49,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -6601,7 +6609,7 @@
     </row>
     <row r="50" spans="1:32">
       <c r="A50" s="155"/>
-      <c r="B50" s="194"/>
+      <c r="B50" s="161"/>
       <c r="C50" s="94" t="e">
         <f>VLOOKUP(A50,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -6640,7 +6648,7 @@
     </row>
     <row r="51" spans="1:32">
       <c r="A51" s="155"/>
-      <c r="B51" s="194"/>
+      <c r="B51" s="161"/>
       <c r="C51" s="94" t="e">
         <f>VLOOKUP(A51,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -6679,7 +6687,7 @@
     </row>
     <row r="52" spans="1:32">
       <c r="A52" s="155"/>
-      <c r="B52" s="194"/>
+      <c r="B52" s="161"/>
       <c r="C52" s="94" t="e">
         <f>VLOOKUP(A52,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -6718,7 +6726,7 @@
     </row>
     <row r="53" spans="1:32">
       <c r="A53" s="155"/>
-      <c r="B53" s="194"/>
+      <c r="B53" s="161"/>
       <c r="C53" s="94" t="e">
         <f>VLOOKUP(A53,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -6757,7 +6765,7 @@
     </row>
     <row r="54" spans="1:32" ht="13.15" customHeight="1">
       <c r="A54" s="155"/>
-      <c r="B54" s="194"/>
+      <c r="B54" s="161"/>
       <c r="C54" s="94" t="e">
         <f>VLOOKUP(A54,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -6796,7 +6804,7 @@
     </row>
     <row r="55" spans="1:32">
       <c r="A55" s="155"/>
-      <c r="B55" s="194"/>
+      <c r="B55" s="161"/>
       <c r="C55" s="94" t="e">
         <f>VLOOKUP(A55,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -6835,7 +6843,7 @@
     </row>
     <row r="56" spans="1:32">
       <c r="A56" s="155"/>
-      <c r="B56" s="194"/>
+      <c r="B56" s="161"/>
       <c r="C56" s="94" t="e">
         <f>VLOOKUP(A56,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -6874,7 +6882,7 @@
     </row>
     <row r="57" spans="1:32">
       <c r="A57" s="155"/>
-      <c r="B57" s="194"/>
+      <c r="B57" s="161"/>
       <c r="C57" s="94" t="e">
         <f>VLOOKUP(A57,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -6913,7 +6921,7 @@
     </row>
     <row r="58" spans="1:32">
       <c r="A58" s="155"/>
-      <c r="B58" s="194"/>
+      <c r="B58" s="161"/>
       <c r="C58" s="94" t="e">
         <f>VLOOKUP(A58,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -6952,7 +6960,7 @@
     </row>
     <row r="59" spans="1:32">
       <c r="A59" s="155"/>
-      <c r="B59" s="194"/>
+      <c r="B59" s="161"/>
       <c r="C59" s="94" t="e">
         <f>VLOOKUP(A59,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -6991,7 +6999,7 @@
     </row>
     <row r="60" spans="1:32">
       <c r="A60" s="155"/>
-      <c r="B60" s="194"/>
+      <c r="B60" s="161"/>
       <c r="C60" s="94" t="e">
         <f>VLOOKUP(A60,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -7030,7 +7038,7 @@
     </row>
     <row r="61" spans="1:32">
       <c r="A61" s="155"/>
-      <c r="B61" s="194"/>
+      <c r="B61" s="161"/>
       <c r="C61" s="94" t="e">
         <f>VLOOKUP(A61,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -7069,7 +7077,7 @@
     </row>
     <row r="62" spans="1:32">
       <c r="A62" s="155"/>
-      <c r="B62" s="194"/>
+      <c r="B62" s="161"/>
       <c r="C62" s="94" t="e">
         <f>VLOOKUP(A62,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -7108,7 +7116,7 @@
     </row>
     <row r="63" spans="1:32">
       <c r="A63" s="155"/>
-      <c r="B63" s="194"/>
+      <c r="B63" s="161"/>
       <c r="C63" s="94" t="e">
         <f>VLOOKUP(A63,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -7147,7 +7155,7 @@
     </row>
     <row r="64" spans="1:32">
       <c r="A64" s="155"/>
-      <c r="B64" s="194"/>
+      <c r="B64" s="161"/>
       <c r="C64" s="94" t="e">
         <f>VLOOKUP(A64,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -7186,7 +7194,7 @@
     </row>
     <row r="65" spans="1:32">
       <c r="A65" s="155"/>
-      <c r="B65" s="194"/>
+      <c r="B65" s="161"/>
       <c r="C65" s="94" t="e">
         <f>VLOOKUP(A65,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -7225,7 +7233,7 @@
     </row>
     <row r="66" spans="1:32">
       <c r="A66" s="155"/>
-      <c r="B66" s="194"/>
+      <c r="B66" s="161"/>
       <c r="C66" s="94" t="e">
         <f>VLOOKUP(A66,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -7264,7 +7272,7 @@
     </row>
     <row r="67" spans="1:32">
       <c r="A67" s="155"/>
-      <c r="B67" s="194"/>
+      <c r="B67" s="161"/>
       <c r="C67" s="94" t="e">
         <f>VLOOKUP(A67,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -7303,7 +7311,7 @@
     </row>
     <row r="68" spans="1:32">
       <c r="A68" s="155"/>
-      <c r="B68" s="194"/>
+      <c r="B68" s="161"/>
       <c r="C68" s="94" t="e">
         <f>VLOOKUP(A68,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -7342,7 +7350,7 @@
     </row>
     <row r="69" spans="1:32">
       <c r="A69" s="155"/>
-      <c r="B69" s="194"/>
+      <c r="B69" s="161"/>
       <c r="C69" s="94" t="e">
         <f>VLOOKUP(A69,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -7381,7 +7389,7 @@
     </row>
     <row r="70" spans="1:32">
       <c r="A70" s="155"/>
-      <c r="B70" s="194"/>
+      <c r="B70" s="161"/>
       <c r="C70" s="94" t="e">
         <f>VLOOKUP(A70,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -7420,7 +7428,7 @@
     </row>
     <row r="71" spans="1:32">
       <c r="A71" s="155"/>
-      <c r="B71" s="194"/>
+      <c r="B71" s="161"/>
       <c r="C71" s="94" t="e">
         <f>VLOOKUP(A71,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -7459,7 +7467,7 @@
     </row>
     <row r="72" spans="1:32">
       <c r="A72" s="155"/>
-      <c r="B72" s="194"/>
+      <c r="B72" s="161"/>
       <c r="C72" s="94" t="e">
         <f>VLOOKUP(A72,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -7498,7 +7506,7 @@
     </row>
     <row r="73" spans="1:32">
       <c r="A73" s="155"/>
-      <c r="B73" s="194"/>
+      <c r="B73" s="161"/>
       <c r="C73" s="94" t="e">
         <f>VLOOKUP(A73,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -7537,7 +7545,7 @@
     </row>
     <row r="74" spans="1:32">
       <c r="A74" s="155"/>
-      <c r="B74" s="194"/>
+      <c r="B74" s="161"/>
       <c r="C74" s="94" t="e">
         <f>VLOOKUP(A74,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -7576,7 +7584,7 @@
     </row>
     <row r="75" spans="1:32">
       <c r="A75" s="155"/>
-      <c r="B75" s="194"/>
+      <c r="B75" s="161"/>
       <c r="C75" s="94" t="e">
         <f>VLOOKUP(A75,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -7615,7 +7623,7 @@
     </row>
     <row r="76" spans="1:32">
       <c r="A76" s="155"/>
-      <c r="B76" s="194"/>
+      <c r="B76" s="161"/>
       <c r="C76" s="94" t="e">
         <f>VLOOKUP(A76,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -7654,7 +7662,7 @@
     </row>
     <row r="77" spans="1:32">
       <c r="A77" s="155"/>
-      <c r="B77" s="194"/>
+      <c r="B77" s="161"/>
       <c r="C77" s="94" t="e">
         <f>VLOOKUP(A77,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -7693,7 +7701,7 @@
     </row>
     <row r="78" spans="1:32">
       <c r="A78" s="155"/>
-      <c r="B78" s="194"/>
+      <c r="B78" s="161"/>
       <c r="C78" s="94" t="e">
         <f>VLOOKUP(A78,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -7732,7 +7740,7 @@
     </row>
     <row r="79" spans="1:32">
       <c r="A79" s="155"/>
-      <c r="B79" s="194"/>
+      <c r="B79" s="161"/>
       <c r="C79" s="94" t="e">
         <f>VLOOKUP(A79,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -7771,7 +7779,7 @@
     </row>
     <row r="80" spans="1:32">
       <c r="A80" s="155"/>
-      <c r="B80" s="194"/>
+      <c r="B80" s="161"/>
       <c r="C80" s="94" t="e">
         <f>VLOOKUP(A80,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -7810,7 +7818,7 @@
     </row>
     <row r="81" spans="1:32">
       <c r="A81" s="155"/>
-      <c r="B81" s="194"/>
+      <c r="B81" s="161"/>
       <c r="C81" s="94" t="e">
         <f>VLOOKUP(A81,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -7849,7 +7857,7 @@
     </row>
     <row r="82" spans="1:32">
       <c r="A82" s="155"/>
-      <c r="B82" s="194"/>
+      <c r="B82" s="161"/>
       <c r="C82" s="94" t="e">
         <f>VLOOKUP(A82,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -7888,7 +7896,7 @@
     </row>
     <row r="83" spans="1:32">
       <c r="A83" s="155"/>
-      <c r="B83" s="194"/>
+      <c r="B83" s="161"/>
       <c r="C83" s="94" t="e">
         <f>VLOOKUP(A83,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -7927,7 +7935,7 @@
     </row>
     <row r="84" spans="1:32">
       <c r="A84" s="155"/>
-      <c r="B84" s="194"/>
+      <c r="B84" s="161"/>
       <c r="C84" s="94" t="e">
         <f>VLOOKUP(A84,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -7966,7 +7974,7 @@
     </row>
     <row r="85" spans="1:32">
       <c r="A85" s="155"/>
-      <c r="B85" s="194"/>
+      <c r="B85" s="161"/>
       <c r="C85" s="94" t="e">
         <f>VLOOKUP(A85,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -8005,7 +8013,7 @@
     </row>
     <row r="86" spans="1:32">
       <c r="A86" s="155"/>
-      <c r="B86" s="194"/>
+      <c r="B86" s="161"/>
       <c r="C86" s="94" t="e">
         <f>VLOOKUP(A86,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -8044,7 +8052,7 @@
     </row>
     <row r="87" spans="1:32">
       <c r="A87" s="155"/>
-      <c r="B87" s="194"/>
+      <c r="B87" s="161"/>
       <c r="C87" s="94" t="e">
         <f>VLOOKUP(A87,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -8083,7 +8091,7 @@
     </row>
     <row r="88" spans="1:32">
       <c r="A88" s="155"/>
-      <c r="B88" s="194"/>
+      <c r="B88" s="161"/>
       <c r="C88" s="94" t="e">
         <f>VLOOKUP(A88,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -8122,7 +8130,7 @@
     </row>
     <row r="89" spans="1:32">
       <c r="A89" s="155"/>
-      <c r="B89" s="194"/>
+      <c r="B89" s="161"/>
       <c r="C89" s="94" t="e">
         <f>VLOOKUP(A89,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -8161,7 +8169,7 @@
     </row>
     <row r="90" spans="1:32">
       <c r="A90" s="155"/>
-      <c r="B90" s="194"/>
+      <c r="B90" s="161"/>
       <c r="C90" s="94" t="e">
         <f>VLOOKUP(A90,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -8200,7 +8208,7 @@
     </row>
     <row r="91" spans="1:32">
       <c r="A91" s="155"/>
-      <c r="B91" s="194"/>
+      <c r="B91" s="161"/>
       <c r="C91" s="94" t="e">
         <f>VLOOKUP(A91,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -8239,7 +8247,7 @@
     </row>
     <row r="92" spans="1:32">
       <c r="A92" s="155"/>
-      <c r="B92" s="194"/>
+      <c r="B92" s="161"/>
       <c r="C92" s="94" t="e">
         <f>VLOOKUP(A92,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -8278,7 +8286,7 @@
     </row>
     <row r="93" spans="1:32">
       <c r="A93" s="155"/>
-      <c r="B93" s="194"/>
+      <c r="B93" s="161"/>
       <c r="C93" s="94" t="e">
         <f>VLOOKUP(A93,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -8317,7 +8325,7 @@
     </row>
     <row r="94" spans="1:32">
       <c r="A94" s="155"/>
-      <c r="B94" s="194"/>
+      <c r="B94" s="161"/>
       <c r="C94" s="94" t="e">
         <f>VLOOKUP(A94,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -8356,7 +8364,7 @@
     </row>
     <row r="95" spans="1:32">
       <c r="A95" s="155"/>
-      <c r="B95" s="194"/>
+      <c r="B95" s="161"/>
       <c r="C95" s="94" t="e">
         <f>VLOOKUP(A95,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -8395,7 +8403,7 @@
     </row>
     <row r="96" spans="1:32">
       <c r="A96" s="155"/>
-      <c r="B96" s="194"/>
+      <c r="B96" s="161"/>
       <c r="C96" s="94" t="e">
         <f>VLOOKUP(A96,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -8434,7 +8442,7 @@
     </row>
     <row r="97" spans="1:32">
       <c r="A97" s="155"/>
-      <c r="B97" s="194"/>
+      <c r="B97" s="161"/>
       <c r="C97" s="94" t="e">
         <f>VLOOKUP(A97,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -8473,7 +8481,7 @@
     </row>
     <row r="98" spans="1:32">
       <c r="A98" s="155"/>
-      <c r="B98" s="194"/>
+      <c r="B98" s="161"/>
       <c r="C98" s="94" t="e">
         <f>VLOOKUP(A98,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -8512,7 +8520,7 @@
     </row>
     <row r="99" spans="1:32">
       <c r="A99" s="155"/>
-      <c r="B99" s="194"/>
+      <c r="B99" s="161"/>
       <c r="C99" s="94" t="e">
         <f>VLOOKUP(A99,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -8551,7 +8559,7 @@
     </row>
     <row r="100" spans="1:32">
       <c r="A100" s="155"/>
-      <c r="B100" s="194"/>
+      <c r="B100" s="161"/>
       <c r="C100" s="94" t="e">
         <f>VLOOKUP(A100,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -8590,7 +8598,7 @@
     </row>
     <row r="101" spans="1:32">
       <c r="A101" s="155"/>
-      <c r="B101" s="194"/>
+      <c r="B101" s="161"/>
       <c r="C101" s="94" t="e">
         <f>VLOOKUP(A101,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -8629,7 +8637,7 @@
     </row>
     <row r="102" spans="1:32">
       <c r="A102" s="155"/>
-      <c r="B102" s="194"/>
+      <c r="B102" s="161"/>
       <c r="C102" s="94" t="e">
         <f>VLOOKUP(A102,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -8668,7 +8676,7 @@
     </row>
     <row r="103" spans="1:32">
       <c r="A103" s="155"/>
-      <c r="B103" s="194"/>
+      <c r="B103" s="161"/>
       <c r="C103" s="94" t="e">
         <f>VLOOKUP(A103,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -8707,7 +8715,7 @@
     </row>
     <row r="104" spans="1:32">
       <c r="A104" s="155"/>
-      <c r="B104" s="194"/>
+      <c r="B104" s="161"/>
       <c r="C104" s="94" t="e">
         <f>VLOOKUP(A104,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -8746,7 +8754,7 @@
     </row>
     <row r="105" spans="1:32">
       <c r="A105" s="155"/>
-      <c r="B105" s="194"/>
+      <c r="B105" s="161"/>
       <c r="C105" s="94" t="e">
         <f>VLOOKUP(A105,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -8785,7 +8793,7 @@
     </row>
     <row r="106" spans="1:32">
       <c r="A106" s="155"/>
-      <c r="B106" s="194"/>
+      <c r="B106" s="161"/>
       <c r="C106" s="94" t="e">
         <f>VLOOKUP(A106,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -8824,7 +8832,7 @@
     </row>
     <row r="107" spans="1:32">
       <c r="A107" s="155"/>
-      <c r="B107" s="194"/>
+      <c r="B107" s="161"/>
       <c r="C107" s="94" t="e">
         <f>VLOOKUP(A107,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -8863,7 +8871,7 @@
     </row>
     <row r="108" spans="1:32">
       <c r="A108" s="155"/>
-      <c r="B108" s="194"/>
+      <c r="B108" s="161"/>
       <c r="C108" s="94" t="e">
         <f>VLOOKUP(A108,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -8902,7 +8910,7 @@
     </row>
     <row r="109" spans="1:32">
       <c r="A109" s="155"/>
-      <c r="B109" s="194"/>
+      <c r="B109" s="161"/>
       <c r="C109" s="94" t="e">
         <f>VLOOKUP(A109,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -8941,7 +8949,7 @@
     </row>
     <row r="110" spans="1:32">
       <c r="A110" s="155"/>
-      <c r="B110" s="194"/>
+      <c r="B110" s="161"/>
       <c r="C110" s="94" t="e">
         <f>VLOOKUP(A110,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -8980,7 +8988,7 @@
     </row>
     <row r="111" spans="1:32">
       <c r="A111" s="155"/>
-      <c r="B111" s="194"/>
+      <c r="B111" s="161"/>
       <c r="C111" s="94" t="e">
         <f>VLOOKUP(A111,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -9019,7 +9027,7 @@
     </row>
     <row r="112" spans="1:32">
       <c r="A112" s="155"/>
-      <c r="B112" s="194"/>
+      <c r="B112" s="161"/>
       <c r="C112" s="94" t="e">
         <f>VLOOKUP(A112,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -9058,7 +9066,7 @@
     </row>
     <row r="113" spans="1:32">
       <c r="A113" s="155"/>
-      <c r="B113" s="194"/>
+      <c r="B113" s="161"/>
       <c r="C113" s="94" t="e">
         <f>VLOOKUP(A113,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -9097,7 +9105,7 @@
     </row>
     <row r="114" spans="1:32">
       <c r="A114" s="155"/>
-      <c r="B114" s="194"/>
+      <c r="B114" s="161"/>
       <c r="C114" s="94" t="e">
         <f>VLOOKUP(A114,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -9136,7 +9144,7 @@
     </row>
     <row r="115" spans="1:32">
       <c r="A115" s="155"/>
-      <c r="B115" s="194"/>
+      <c r="B115" s="161"/>
       <c r="C115" s="94" t="e">
         <f>VLOOKUP(A115,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -9175,7 +9183,7 @@
     </row>
     <row r="116" spans="1:32">
       <c r="A116" s="155"/>
-      <c r="B116" s="194"/>
+      <c r="B116" s="161"/>
       <c r="C116" s="94" t="e">
         <f>VLOOKUP(A116,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -9214,7 +9222,7 @@
     </row>
     <row r="117" spans="1:32">
       <c r="A117" s="155"/>
-      <c r="B117" s="194"/>
+      <c r="B117" s="161"/>
       <c r="C117" s="94" t="e">
         <f>VLOOKUP(A117,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -9253,7 +9261,7 @@
     </row>
     <row r="118" spans="1:32">
       <c r="A118" s="155"/>
-      <c r="B118" s="194"/>
+      <c r="B118" s="161"/>
       <c r="C118" s="94" t="e">
         <f>VLOOKUP(A118,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -9292,7 +9300,7 @@
     </row>
     <row r="119" spans="1:32">
       <c r="A119" s="155"/>
-      <c r="B119" s="194"/>
+      <c r="B119" s="161"/>
       <c r="C119" s="94" t="e">
         <f>VLOOKUP(A119,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -9331,7 +9339,7 @@
     </row>
     <row r="120" spans="1:32">
       <c r="A120" s="155"/>
-      <c r="B120" s="194"/>
+      <c r="B120" s="161"/>
       <c r="C120" s="94" t="e">
         <f>VLOOKUP(A120,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -9370,7 +9378,7 @@
     </row>
     <row r="121" spans="1:32">
       <c r="A121" s="155"/>
-      <c r="B121" s="194"/>
+      <c r="B121" s="161"/>
       <c r="C121" s="94" t="e">
         <f>VLOOKUP(A121,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -9409,7 +9417,7 @@
     </row>
     <row r="122" spans="1:32">
       <c r="A122" s="155"/>
-      <c r="B122" s="194"/>
+      <c r="B122" s="161"/>
       <c r="C122" s="94" t="e">
         <f>VLOOKUP(A122,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -9448,7 +9456,7 @@
     </row>
     <row r="123" spans="1:32">
       <c r="A123" s="155"/>
-      <c r="B123" s="194"/>
+      <c r="B123" s="161"/>
       <c r="C123" s="94" t="e">
         <f>VLOOKUP(A123,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -9487,7 +9495,7 @@
     </row>
     <row r="124" spans="1:32">
       <c r="A124" s="155"/>
-      <c r="B124" s="194"/>
+      <c r="B124" s="161"/>
       <c r="C124" s="94" t="e">
         <f>VLOOKUP(A124,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -9526,7 +9534,7 @@
     </row>
     <row r="125" spans="1:32">
       <c r="A125" s="155"/>
-      <c r="B125" s="194"/>
+      <c r="B125" s="161"/>
       <c r="C125" s="94" t="e">
         <f>VLOOKUP(A125,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -9565,7 +9573,7 @@
     </row>
     <row r="126" spans="1:32">
       <c r="A126" s="155"/>
-      <c r="B126" s="194"/>
+      <c r="B126" s="161"/>
       <c r="C126" s="94" t="e">
         <f>VLOOKUP(A126,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -9604,7 +9612,7 @@
     </row>
     <row r="127" spans="1:32">
       <c r="A127" s="155"/>
-      <c r="B127" s="194"/>
+      <c r="B127" s="161"/>
       <c r="C127" s="94" t="e">
         <f>VLOOKUP(A127,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -9643,7 +9651,7 @@
     </row>
     <row r="128" spans="1:32">
       <c r="A128" s="155"/>
-      <c r="B128" s="194"/>
+      <c r="B128" s="161"/>
       <c r="C128" s="94" t="e">
         <f>VLOOKUP(A128,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -9682,7 +9690,7 @@
     </row>
     <row r="129" spans="1:32">
       <c r="A129" s="155"/>
-      <c r="B129" s="194"/>
+      <c r="B129" s="161"/>
       <c r="C129" s="94" t="e">
         <f>VLOOKUP(A129,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -9721,7 +9729,7 @@
     </row>
     <row r="130" spans="1:32">
       <c r="A130" s="155"/>
-      <c r="B130" s="194"/>
+      <c r="B130" s="161"/>
       <c r="C130" s="94" t="e">
         <f>VLOOKUP(A130,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -9760,7 +9768,7 @@
     </row>
     <row r="131" spans="1:32">
       <c r="A131" s="155"/>
-      <c r="B131" s="194"/>
+      <c r="B131" s="161"/>
       <c r="C131" s="94" t="e">
         <f>VLOOKUP(A131,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -9799,7 +9807,7 @@
     </row>
     <row r="132" spans="1:32">
       <c r="A132" s="155"/>
-      <c r="B132" s="194"/>
+      <c r="B132" s="161"/>
       <c r="C132" s="94" t="e">
         <f>VLOOKUP(A132,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -9838,7 +9846,7 @@
     </row>
     <row r="133" spans="1:32">
       <c r="A133" s="155"/>
-      <c r="B133" s="194"/>
+      <c r="B133" s="161"/>
       <c r="C133" s="94" t="e">
         <f>VLOOKUP(A133,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -9877,7 +9885,7 @@
     </row>
     <row r="134" spans="1:32">
       <c r="A134" s="155"/>
-      <c r="B134" s="194"/>
+      <c r="B134" s="161"/>
       <c r="C134" s="94" t="e">
         <f>VLOOKUP(A134,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -9916,7 +9924,7 @@
     </row>
     <row r="135" spans="1:32">
       <c r="A135" s="155"/>
-      <c r="B135" s="194"/>
+      <c r="B135" s="161"/>
       <c r="C135" s="94" t="e">
         <f>VLOOKUP(A135,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -9955,7 +9963,7 @@
     </row>
     <row r="136" spans="1:32">
       <c r="A136" s="155"/>
-      <c r="B136" s="194"/>
+      <c r="B136" s="161"/>
       <c r="C136" s="94" t="e">
         <f>VLOOKUP(A136,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -9994,7 +10002,7 @@
     </row>
     <row r="137" spans="1:32">
       <c r="A137" s="155"/>
-      <c r="B137" s="194"/>
+      <c r="B137" s="161"/>
       <c r="C137" s="94" t="e">
         <f>VLOOKUP(A137,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -10033,7 +10041,7 @@
     </row>
     <row r="138" spans="1:32">
       <c r="A138" s="155"/>
-      <c r="B138" s="194"/>
+      <c r="B138" s="161"/>
       <c r="C138" s="94" t="e">
         <f>VLOOKUP(A138,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -10072,7 +10080,7 @@
     </row>
     <row r="139" spans="1:32">
       <c r="A139" s="155"/>
-      <c r="B139" s="194"/>
+      <c r="B139" s="161"/>
       <c r="C139" s="94" t="e">
         <f>VLOOKUP(A139,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -10111,7 +10119,7 @@
     </row>
     <row r="140" spans="1:32">
       <c r="A140" s="155"/>
-      <c r="B140" s="194"/>
+      <c r="B140" s="161"/>
       <c r="C140" s="94" t="e">
         <f>VLOOKUP(A140,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -10150,7 +10158,7 @@
     </row>
     <row r="141" spans="1:32">
       <c r="A141" s="155"/>
-      <c r="B141" s="194"/>
+      <c r="B141" s="161"/>
       <c r="C141" s="94" t="e">
         <f>VLOOKUP(A141,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -10189,7 +10197,7 @@
     </row>
     <row r="142" spans="1:32">
       <c r="A142" s="155"/>
-      <c r="B142" s="194"/>
+      <c r="B142" s="161"/>
       <c r="C142" s="94" t="e">
         <f>VLOOKUP(A142,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -10228,7 +10236,7 @@
     </row>
     <row r="143" spans="1:32">
       <c r="A143" s="155"/>
-      <c r="B143" s="194"/>
+      <c r="B143" s="161"/>
       <c r="C143" s="94" t="e">
         <f>VLOOKUP(A143,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -10267,7 +10275,7 @@
     </row>
     <row r="144" spans="1:32">
       <c r="A144" s="155"/>
-      <c r="B144" s="194"/>
+      <c r="B144" s="161"/>
       <c r="C144" s="94" t="e">
         <f>VLOOKUP(A144,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -10306,7 +10314,7 @@
     </row>
     <row r="145" spans="1:32">
       <c r="A145" s="155"/>
-      <c r="B145" s="194"/>
+      <c r="B145" s="161"/>
       <c r="C145" s="94" t="e">
         <f>VLOOKUP(A145,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -10345,7 +10353,7 @@
     </row>
     <row r="146" spans="1:32">
       <c r="A146" s="155"/>
-      <c r="B146" s="194"/>
+      <c r="B146" s="161"/>
       <c r="C146" s="94" t="e">
         <f>VLOOKUP(A146,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -10384,7 +10392,7 @@
     </row>
     <row r="147" spans="1:32">
       <c r="A147" s="155"/>
-      <c r="B147" s="194"/>
+      <c r="B147" s="161"/>
       <c r="C147" s="94" t="e">
         <f>VLOOKUP(A147,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -10423,7 +10431,7 @@
     </row>
     <row r="148" spans="1:32">
       <c r="A148" s="155"/>
-      <c r="B148" s="194"/>
+      <c r="B148" s="161"/>
       <c r="C148" s="94" t="e">
         <f>VLOOKUP(A148,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -10462,7 +10470,7 @@
     </row>
     <row r="149" spans="1:32">
       <c r="A149" s="155"/>
-      <c r="B149" s="194"/>
+      <c r="B149" s="161"/>
       <c r="C149" s="94" t="e">
         <f>VLOOKUP(A149,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -10501,7 +10509,7 @@
     </row>
     <row r="150" spans="1:32">
       <c r="A150" s="155"/>
-      <c r="B150" s="194"/>
+      <c r="B150" s="161"/>
       <c r="C150" s="94" t="e">
         <f>VLOOKUP(A150,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -10540,7 +10548,7 @@
     </row>
     <row r="151" spans="1:32">
       <c r="A151" s="155"/>
-      <c r="B151" s="194"/>
+      <c r="B151" s="161"/>
       <c r="C151" s="94" t="e">
         <f>VLOOKUP(A151,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -10579,7 +10587,7 @@
     </row>
     <row r="152" spans="1:32">
       <c r="A152" s="155"/>
-      <c r="B152" s="194"/>
+      <c r="B152" s="161"/>
       <c r="C152" s="94" t="e">
         <f>VLOOKUP(A152,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -10618,7 +10626,7 @@
     </row>
     <row r="153" spans="1:32">
       <c r="A153" s="155"/>
-      <c r="B153" s="194"/>
+      <c r="B153" s="161"/>
       <c r="C153" s="94" t="e">
         <f>VLOOKUP(A153,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -10657,7 +10665,7 @@
     </row>
     <row r="154" spans="1:32">
       <c r="A154" s="155"/>
-      <c r="B154" s="194"/>
+      <c r="B154" s="161"/>
       <c r="C154" s="94" t="e">
         <f>VLOOKUP(A154,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -10696,7 +10704,7 @@
     </row>
     <row r="155" spans="1:32">
       <c r="A155" s="155"/>
-      <c r="B155" s="194"/>
+      <c r="B155" s="161"/>
       <c r="C155" s="94" t="e">
         <f>VLOOKUP(A155,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -10735,7 +10743,7 @@
     </row>
     <row r="156" spans="1:32">
       <c r="A156" s="155"/>
-      <c r="B156" s="194"/>
+      <c r="B156" s="161"/>
       <c r="C156" s="94" t="e">
         <f>VLOOKUP(A156,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -10774,7 +10782,7 @@
     </row>
     <row r="157" spans="1:32">
       <c r="A157" s="155"/>
-      <c r="B157" s="194"/>
+      <c r="B157" s="161"/>
       <c r="C157" s="94" t="e">
         <f>VLOOKUP(A157,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -10813,7 +10821,7 @@
     </row>
     <row r="158" spans="1:32">
       <c r="A158" s="155"/>
-      <c r="B158" s="194"/>
+      <c r="B158" s="161"/>
       <c r="C158" s="94" t="e">
         <f>VLOOKUP(A158,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -10852,7 +10860,7 @@
     </row>
     <row r="159" spans="1:32">
       <c r="A159" s="155"/>
-      <c r="B159" s="194"/>
+      <c r="B159" s="161"/>
       <c r="C159" s="94" t="e">
         <f>VLOOKUP(A159,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -10891,7 +10899,7 @@
     </row>
     <row r="160" spans="1:32">
       <c r="A160" s="155"/>
-      <c r="B160" s="194"/>
+      <c r="B160" s="161"/>
       <c r="C160" s="94" t="e">
         <f>VLOOKUP(A160,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -10930,7 +10938,7 @@
     </row>
     <row r="161" spans="1:32">
       <c r="A161" s="155"/>
-      <c r="B161" s="194"/>
+      <c r="B161" s="161"/>
       <c r="C161" s="94" t="e">
         <f>VLOOKUP(A161,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -10969,7 +10977,7 @@
     </row>
     <row r="162" spans="1:32">
       <c r="A162" s="155"/>
-      <c r="B162" s="194"/>
+      <c r="B162" s="161"/>
       <c r="C162" s="94" t="e">
         <f>VLOOKUP(A162,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -11008,7 +11016,7 @@
     </row>
     <row r="163" spans="1:32">
       <c r="A163" s="155"/>
-      <c r="B163" s="194"/>
+      <c r="B163" s="161"/>
       <c r="C163" s="94" t="e">
         <f>VLOOKUP(A163,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -11047,7 +11055,7 @@
     </row>
     <row r="164" spans="1:32">
       <c r="A164" s="155"/>
-      <c r="B164" s="194"/>
+      <c r="B164" s="161"/>
       <c r="C164" s="94" t="e">
         <f>VLOOKUP(A164,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -11086,7 +11094,7 @@
     </row>
     <row r="165" spans="1:32">
       <c r="A165" s="155"/>
-      <c r="B165" s="194"/>
+      <c r="B165" s="161"/>
       <c r="C165" s="94" t="e">
         <f>VLOOKUP(A165,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -11125,7 +11133,7 @@
     </row>
     <row r="166" spans="1:32">
       <c r="A166" s="155"/>
-      <c r="B166" s="194"/>
+      <c r="B166" s="161"/>
       <c r="C166" s="94" t="e">
         <f>VLOOKUP(A166,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -11164,7 +11172,7 @@
     </row>
     <row r="167" spans="1:32">
       <c r="A167" s="155"/>
-      <c r="B167" s="194"/>
+      <c r="B167" s="161"/>
       <c r="C167" s="94" t="e">
         <f>VLOOKUP(A167,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -11203,7 +11211,7 @@
     </row>
     <row r="168" spans="1:32">
       <c r="A168" s="155"/>
-      <c r="B168" s="194"/>
+      <c r="B168" s="161"/>
       <c r="C168" s="94" t="e">
         <f>VLOOKUP(A168,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -11242,7 +11250,7 @@
     </row>
     <row r="169" spans="1:32">
       <c r="A169" s="155"/>
-      <c r="B169" s="194"/>
+      <c r="B169" s="161"/>
       <c r="C169" s="94" t="e">
         <f>VLOOKUP(A169,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -11281,7 +11289,7 @@
     </row>
     <row r="170" spans="1:32">
       <c r="A170" s="155"/>
-      <c r="B170" s="194"/>
+      <c r="B170" s="161"/>
       <c r="C170" s="94" t="e">
         <f>VLOOKUP(A170,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -11320,7 +11328,7 @@
     </row>
     <row r="171" spans="1:32">
       <c r="A171" s="155"/>
-      <c r="B171" s="194"/>
+      <c r="B171" s="161"/>
       <c r="C171" s="94" t="e">
         <f>VLOOKUP(A171,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -11359,7 +11367,7 @@
     </row>
     <row r="172" spans="1:32">
       <c r="A172" s="155"/>
-      <c r="B172" s="194"/>
+      <c r="B172" s="161"/>
       <c r="C172" s="94" t="e">
         <f>VLOOKUP(A172,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -11398,7 +11406,7 @@
     </row>
     <row r="173" spans="1:32">
       <c r="A173" s="155"/>
-      <c r="B173" s="194"/>
+      <c r="B173" s="161"/>
       <c r="C173" s="94" t="e">
         <f>VLOOKUP(A173,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -11437,7 +11445,7 @@
     </row>
     <row r="174" spans="1:32">
       <c r="A174" s="155"/>
-      <c r="B174" s="194"/>
+      <c r="B174" s="161"/>
       <c r="C174" s="94" t="e">
         <f>VLOOKUP(A174,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -11476,7 +11484,7 @@
     </row>
     <row r="175" spans="1:32">
       <c r="A175" s="155"/>
-      <c r="B175" s="194"/>
+      <c r="B175" s="161"/>
       <c r="C175" s="94" t="e">
         <f>VLOOKUP(A175,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -11515,7 +11523,7 @@
     </row>
     <row r="176" spans="1:32">
       <c r="A176" s="155"/>
-      <c r="B176" s="194"/>
+      <c r="B176" s="161"/>
       <c r="C176" s="94" t="e">
         <f>VLOOKUP(A176,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -11554,7 +11562,7 @@
     </row>
     <row r="177" spans="1:32">
       <c r="A177" s="156"/>
-      <c r="B177" s="194"/>
+      <c r="B177" s="161"/>
       <c r="C177" s="94" t="e">
         <f>VLOOKUP(A177,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
         <v>#N/A</v>
@@ -11595,8 +11603,8 @@
   <mergeCells count="27">
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A2:A7"/>
+    <mergeCell ref="AD2:AD7"/>
     <mergeCell ref="C2:C7"/>
-    <mergeCell ref="AD2:AD7"/>
     <mergeCell ref="AF2:AF7"/>
     <mergeCell ref="E2:E7"/>
     <mergeCell ref="W3:X7"/>
@@ -11611,8 +11619,8 @@
     <mergeCell ref="D2:D7"/>
     <mergeCell ref="F2:F7"/>
     <mergeCell ref="H2:H7"/>
+    <mergeCell ref="S3:U6"/>
     <mergeCell ref="Y3:Y7"/>
-    <mergeCell ref="S3:U6"/>
     <mergeCell ref="P3:R7"/>
     <mergeCell ref="S7:U7"/>
     <mergeCell ref="M7:O7"/>
@@ -11751,9 +11759,9 @@
       <formula1>1</formula1>
       <formula2>150</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="1-Projected, 0- Not projected_x000a_" sqref="Y3:Y7" xr:uid="{00000000-0002-0000-0100-000017000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="1, 0 - For load on contour auto detect panels_x000a_" sqref="Z3:Z7" xr:uid="{00000000-0002-0000-0100-000018000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H177" xr:uid="{7F8ACE34-5166-49D6-A57A-72F756B526CD}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="1-Projected, 0- Not projected_x000a_" sqref="Y3:Y7" xr:uid="{00000000-0002-0000-0100-000016000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="1, 0 - For load on contour auto detect panels_x000a_" sqref="Z3:Z7" xr:uid="{00000000-0002-0000-0100-000017000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H177" xr:uid="{00000000-0002-0000-0100-000018000000}">
       <formula1>"(FE) uniform, nodal force, Body forces, member force, self-weight, trapezoidal load (2p), uniform load, (FE) linear load on edges, load on contour, load 3p on contour"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12164,17 +12172,17 @@
     </row>
     <row r="3" spans="1:4605" s="7" customFormat="1" ht="218.65" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="92" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="108" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F3" s="108" t="s">
         <v>7</v>
@@ -16787,12 +16795,12 @@
       <c r="A4" s="3"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="186" t="s">
+      <c r="D4" s="188" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="172"/>
-      <c r="F4" s="172"/>
-      <c r="G4" s="172"/>
+      <c r="E4" s="174"/>
+      <c r="F4" s="174"/>
+      <c r="G4" s="174"/>
       <c r="H4" s="123">
         <v>1</v>
       </c>
@@ -21398,10 +21406,10 @@
       <c r="A5" s="33"/>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
-      <c r="D5" s="177"/>
-      <c r="E5" s="166"/>
-      <c r="F5" s="166"/>
-      <c r="G5" s="166"/>
+      <c r="D5" s="179"/>
+      <c r="E5" s="167"/>
+      <c r="F5" s="167"/>
+      <c r="G5" s="167"/>
       <c r="H5" s="123"/>
       <c r="I5" s="123"/>
       <c r="J5" s="123"/>
@@ -21773,25 +21781,25 @@
     </row>
     <row r="6" spans="1:4605" s="16" customFormat="1" ht="14.45" customHeight="1">
       <c r="A6" s="13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D6" s="89" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E6" s="89" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F6" s="89" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G6" s="89" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:4605" s="16" customFormat="1">
@@ -32290,77 +32298,89 @@
   </sheetPr>
   <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
       </c>
       <c r="G1" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="H1" t="s">
+        <v>67</v>
       </c>
       <c r="M1" t="s">
         <v>65</v>
       </c>
+      <c r="N1" t="s">
+        <v>68</v>
+      </c>
       <c r="S1" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="T1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="145" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B2" s="145" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C2" s="145" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" t="s">
         <v>70</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
         <v>71</v>
       </c>
-      <c r="G2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" t="s">
-        <v>69</v>
-      </c>
       <c r="I2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" t="s">
         <v>70</v>
       </c>
-      <c r="J2" t="s">
+      <c r="N2" t="s">
         <v>71</v>
       </c>
-      <c r="M2" t="s">
-        <v>68</v>
-      </c>
-      <c r="N2" t="s">
-        <v>69</v>
-      </c>
       <c r="O2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P2" t="s">
+        <v>73</v>
+      </c>
+      <c r="S2" t="s">
         <v>70</v>
       </c>
-      <c r="P2" t="s">
+      <c r="T2" t="s">
         <v>71</v>
       </c>
-      <c r="S2" t="s">
-        <v>68</v>
-      </c>
-      <c r="T2" t="s">
-        <v>69</v>
-      </c>
       <c r="U2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="W2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -32413,7 +32433,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -32466,7 +32486,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -32519,7 +32539,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -32706,6 +32726,437 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA9356C-2006-43BE-87F9-E2FE5DB18E00}">
+  <dimension ref="A1:W16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q38" sqref="Q38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S1" t="s">
+        <v>65</v>
+      </c>
+      <c r="T1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="145" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="145" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="145" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P2" t="s">
+        <v>73</v>
+      </c>
+      <c r="S2" t="s">
+        <v>70</v>
+      </c>
+      <c r="T2" t="s">
+        <v>71</v>
+      </c>
+      <c r="U2" t="s">
+        <v>72</v>
+      </c>
+      <c r="V2" t="s">
+        <v>73</v>
+      </c>
+      <c r="W2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>-1.5</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <v>-1.5</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>2.5</v>
+      </c>
+      <c r="U3">
+        <v>0.5</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>-0.5</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>-1</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <v>3</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>-0.5</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>5.5</v>
+      </c>
+      <c r="O5">
+        <v>-0.5</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>3</v>
+      </c>
+      <c r="T5">
+        <v>3.5</v>
+      </c>
+      <c r="U5">
+        <v>0.5</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>-1.5</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>6</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>6.5</v>
+      </c>
+      <c r="O7">
+        <v>0.5</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="M8">
+        <v>6</v>
+      </c>
+      <c r="N8">
+        <v>7</v>
+      </c>
+      <c r="O8">
+        <v>0.5</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="M9">
+        <v>7</v>
+      </c>
+      <c r="N9">
+        <v>7</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="M10">
+        <v>8</v>
+      </c>
+      <c r="N10">
+        <v>7.5</v>
+      </c>
+      <c r="O10">
+        <v>-0.5</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="M11">
+        <v>9</v>
+      </c>
+      <c r="N11">
+        <v>7.5</v>
+      </c>
+      <c r="O11">
+        <v>-1</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="M12">
+        <v>10</v>
+      </c>
+      <c r="N12">
+        <v>7</v>
+      </c>
+      <c r="O12">
+        <v>-1</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="M13">
+        <v>11</v>
+      </c>
+      <c r="N13">
+        <v>7</v>
+      </c>
+      <c r="O13">
+        <v>-1.5</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="M14">
+        <v>12</v>
+      </c>
+      <c r="N14">
+        <v>6.5</v>
+      </c>
+      <c r="O14">
+        <v>-1.5</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="M15">
+        <v>13</v>
+      </c>
+      <c r="N15">
+        <v>6</v>
+      </c>
+      <c r="O15">
+        <v>-1</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="M16">
+        <v>14</v>
+      </c>
+      <c r="N16">
+        <v>6</v>
+      </c>
+      <c r="O16">
+        <v>-1.5</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="ScreenCapture">
     <tabColor theme="0"/>
@@ -32729,8 +33180,8 @@
     <col min="29" max="33" width="5.7109375" style="35" customWidth="1"/>
     <col min="34" max="49" width="8.7109375" style="35" customWidth="1"/>
     <col min="50" max="50" width="9.42578125" style="35" customWidth="1"/>
-    <col min="51" max="62" width="8.7109375" style="35" customWidth="1"/>
-    <col min="63" max="16384" width="8.7109375" style="35"/>
+    <col min="51" max="63" width="8.7109375" style="35" customWidth="1"/>
+    <col min="64" max="16384" width="8.7109375" style="35"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:55" ht="62.1" customHeight="1" thickBot="1">
@@ -32795,246 +33246,246 @@
       <c r="D3" s="46"/>
       <c r="E3" s="51"/>
       <c r="F3" s="72"/>
-      <c r="G3" s="191" t="s">
-        <v>75</v>
-      </c>
-      <c r="H3" s="169"/>
-      <c r="I3" s="169"/>
-      <c r="J3" s="169"/>
-      <c r="K3" s="169"/>
-      <c r="L3" s="169"/>
-      <c r="M3" s="169"/>
-      <c r="N3" s="169"/>
-      <c r="O3" s="170"/>
-      <c r="P3" s="189" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q3" s="169"/>
-      <c r="R3" s="169"/>
-      <c r="S3" s="169"/>
-      <c r="T3" s="169"/>
-      <c r="U3" s="169"/>
-      <c r="V3" s="169"/>
-      <c r="W3" s="170"/>
-      <c r="X3" s="189" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y3" s="169"/>
-      <c r="Z3" s="170"/>
-      <c r="AA3" s="188" t="s">
+      <c r="G3" s="193" t="s">
         <v>78</v>
       </c>
-      <c r="AB3" s="169"/>
-      <c r="AC3" s="190" t="s">
+      <c r="H3" s="171"/>
+      <c r="I3" s="171"/>
+      <c r="J3" s="171"/>
+      <c r="K3" s="171"/>
+      <c r="L3" s="171"/>
+      <c r="M3" s="171"/>
+      <c r="N3" s="171"/>
+      <c r="O3" s="172"/>
+      <c r="P3" s="191" t="s">
         <v>79</v>
       </c>
-      <c r="AD3" s="172"/>
-      <c r="AE3" s="173"/>
+      <c r="Q3" s="171"/>
+      <c r="R3" s="171"/>
+      <c r="S3" s="171"/>
+      <c r="T3" s="171"/>
+      <c r="U3" s="171"/>
+      <c r="V3" s="171"/>
+      <c r="W3" s="172"/>
+      <c r="X3" s="191" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y3" s="171"/>
+      <c r="Z3" s="172"/>
+      <c r="AA3" s="190" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB3" s="171"/>
+      <c r="AC3" s="192" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD3" s="174"/>
+      <c r="AE3" s="175"/>
       <c r="AF3" s="134" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG3" s="189" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH3" s="169"/>
-      <c r="AI3" s="169"/>
-      <c r="AJ3" s="169"/>
-      <c r="AK3" s="169"/>
-      <c r="AL3" s="169"/>
-      <c r="AM3" s="169"/>
-      <c r="AN3" s="170"/>
-      <c r="AO3" s="187" t="s">
-        <v>82</v>
-      </c>
-      <c r="AP3" s="169"/>
-      <c r="AQ3" s="169"/>
-      <c r="AR3" s="169"/>
-      <c r="AS3" s="169"/>
-      <c r="AT3" s="169"/>
-      <c r="AU3" s="169"/>
-      <c r="AV3" s="187" t="s">
         <v>83</v>
       </c>
-      <c r="AW3" s="169"/>
-      <c r="AX3" s="169"/>
-      <c r="AY3" s="169"/>
-      <c r="AZ3" s="169"/>
-      <c r="BA3" s="189" t="s">
+      <c r="AG3" s="191" t="s">
         <v>84</v>
       </c>
-      <c r="BB3" s="169"/>
-      <c r="BC3" s="170"/>
+      <c r="AH3" s="171"/>
+      <c r="AI3" s="171"/>
+      <c r="AJ3" s="171"/>
+      <c r="AK3" s="171"/>
+      <c r="AL3" s="171"/>
+      <c r="AM3" s="171"/>
+      <c r="AN3" s="172"/>
+      <c r="AO3" s="189" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP3" s="171"/>
+      <c r="AQ3" s="171"/>
+      <c r="AR3" s="171"/>
+      <c r="AS3" s="171"/>
+      <c r="AT3" s="171"/>
+      <c r="AU3" s="171"/>
+      <c r="AV3" s="189" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW3" s="171"/>
+      <c r="AX3" s="171"/>
+      <c r="AY3" s="171"/>
+      <c r="AZ3" s="171"/>
+      <c r="BA3" s="191" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB3" s="171"/>
+      <c r="BC3" s="172"/>
     </row>
     <row r="4" spans="1:55" ht="111" customHeight="1">
       <c r="A4" s="42" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F4" s="73" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G4" s="43" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H4" s="43" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I4" s="43" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J4" s="43" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K4" s="43" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="L4" s="43" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M4" s="43" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="N4" s="43" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O4" s="43" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P4" s="44" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q4" s="43" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="R4" s="43" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="S4" s="43" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="T4" s="43" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="U4" s="43" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="V4" s="43" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="W4" s="43" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="X4" s="44" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Y4" s="43" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Z4" s="43" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AA4" s="44" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AB4" s="43" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AC4" s="44" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AD4" s="43" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AE4" s="42" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AF4" s="41" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AG4" s="135" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AH4" s="136" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AI4" s="135" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AJ4" s="135" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AK4" s="135" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AL4" s="136" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AM4" s="135" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AN4" s="137" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AO4" s="41" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AP4" s="41" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AQ4" s="41" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AR4" s="41" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AS4" s="41" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AT4" s="41" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AU4" s="136" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AV4" s="41" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AW4" s="41" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AX4" s="41" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AY4" s="41" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AZ4" s="41" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="BA4" s="41" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="BB4" s="41" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="BC4" s="41" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:55">
       <c r="A5" s="40" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B5" s="40" t="e">
         <f>PlatformName &amp; " Robot layout"</f>
@@ -33196,7 +33647,7 @@
     </row>
     <row r="6" spans="1:55">
       <c r="A6" s="40" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B6" s="40" t="e">
         <f>PlatformName &amp; " Robot layout plan"</f>
@@ -33358,7 +33809,7 @@
     </row>
     <row r="7" spans="1:55">
       <c r="A7" s="40" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B7" s="40" t="e">
         <f>PlatformName &amp; " Robot layout plan cladding"</f>
@@ -33520,7 +33971,7 @@
     </row>
     <row r="8" spans="1:55">
       <c r="A8" s="40" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B8" s="40" t="e">
         <f>PlatformName &amp; " Robot boundary conditions and connections"</f>
@@ -33682,7 +34133,7 @@
     </row>
     <row r="9" spans="1:55">
       <c r="A9" s="40" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B9" s="40" t="e">
         <f>PlatformName &amp; " Utilised members"</f>
@@ -34758,7 +35209,7 @@
     <row r="26" spans="1:55" ht="15.75" customHeight="1" thickBot="1">
       <c r="A26" s="55"/>
       <c r="B26" s="56" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C26" s="57"/>
       <c r="D26" s="57"/>
@@ -34919,16 +35370,16 @@
         <v>1</v>
       </c>
       <c r="B27" s="49" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E27" s="47" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F27" s="76">
         <v>0</v>
@@ -37110,7 +37561,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="LaTeXCode">
     <tabColor theme="1" tint="0.499984740745262"/>
@@ -37137,13 +37588,13 @@
     <col min="12" max="18" width="8.7109375" style="19" customWidth="1"/>
     <col min="19" max="19" width="18.42578125" style="19" customWidth="1"/>
     <col min="20" max="20" width="15.28515625" style="19" customWidth="1"/>
-    <col min="21" max="32" width="8.7109375" style="19" customWidth="1"/>
-    <col min="33" max="16384" width="8.7109375" style="19"/>
+    <col min="21" max="33" width="8.7109375" style="19" customWidth="1"/>
+    <col min="34" max="16384" width="8.7109375" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
       <c r="A1" s="19" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F1" s="26">
         <v>0.5</v>
@@ -37152,45 +37603,45 @@
         <v>0.1</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="S1" s="19" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" customHeight="1">
       <c r="A2" s="19" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="N2" s="19" t="s">
         <v>52</v>
@@ -37199,30 +37650,30 @@
         <v>1</v>
       </c>
       <c r="P2" s="19" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="S2" s="19" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="T2" s="19" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="39" customHeight="1">
       <c r="A3" s="19" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>52</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F3" s="27" t="e">
         <f>PlatformName &amp;" member utilisations $&gt;" &amp;F1&amp;"$"</f>
@@ -37237,13 +37688,13 @@
         <v>#REF!</v>
       </c>
       <c r="J3" s="28" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K3" s="27" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="N3" s="19" t="s">
         <v>52</v>
@@ -37252,42 +37703,42 @@
         <v>1</v>
       </c>
       <c r="P3" s="19" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="S3" s="19" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="T3" s="28" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1">
       <c r="A4" s="19" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="N4" s="19" t="s">
         <v>52</v>
@@ -37296,36 +37747,36 @@
         <v>1</v>
       </c>
       <c r="P4" s="19" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="S4" s="19" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1">
       <c r="B5" s="19" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="N5" s="19" t="s">
         <v>52</v>
@@ -37334,10 +37785,10 @@
         <v>1</v>
       </c>
       <c r="P5" s="19" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="S5" s="19" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" customHeight="1">
@@ -37366,10 +37817,10 @@
         <v>#REF!</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M6" s="19" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="N6" s="19" t="s">
         <v>52</v>
@@ -37378,7 +37829,7 @@
         <v>1</v>
       </c>
       <c r="P6" s="19" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="S6" s="19" t="e">
         <f>"\includegraphics[width=\textwidth]{\"&amp;LaTeXFiguresFolder &amp;"\"&amp;PlatformName&amp; " "&amp;S3&amp;".png} "</f>
@@ -37411,14 +37862,14 @@
         <v>#REF!</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J7" s="19">
         <f>COLUMN(J1)</f>
         <v>10</v>
       </c>
       <c r="M7" s="19" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="N7" s="19" t="s">
         <v>52</v>
@@ -37427,36 +37878,36 @@
         <v>1</v>
       </c>
       <c r="P7" s="19" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="S7" s="19" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1">
       <c r="B8" s="19" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="N8" s="19" t="s">
         <v>52</v>
@@ -37465,7 +37916,7 @@
         <v>1</v>
       </c>
       <c r="P8" s="19" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="S8" s="19" t="e">
         <f>"    \caption{" &amp;PlatformName&amp; " " &amp; S3 &amp;".}"</f>
@@ -37474,28 +37925,28 @@
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1">
       <c r="B9" s="19" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="N9" s="19" t="s">
         <v>52</v>
@@ -37504,7 +37955,7 @@
         <v>1</v>
       </c>
       <c r="P9" s="19" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="S9" s="19" t="e">
         <f>"    \label{tabl:" &amp; PlatformName &amp;" "&amp;S3 &amp;"}"</f>
@@ -37513,28 +37964,28 @@
     </row>
     <row r="10" spans="1:20" ht="16.5" customHeight="1">
       <c r="B10" s="85" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="N10" s="19" t="s">
         <v>52</v>
@@ -37543,33 +37994,33 @@
         <v>1</v>
       </c>
       <c r="P10" s="19" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="16.5" customHeight="1">
       <c r="B11" s="85" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C11" s="85" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D11" s="85" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E11" s="85" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F11" s="85" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G11" s="85" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="N11" s="19" t="s">
         <v>52</v>
@@ -37578,15 +38029,15 @@
         <v>1</v>
       </c>
       <c r="P11" s="19" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1">
       <c r="H12" s="27" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M12" s="19" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="N12" s="19" t="s">
         <v>52</v>
@@ -37595,16 +38046,16 @@
         <v>1</v>
       </c>
       <c r="P12" s="19" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="16.5" customHeight="1">
       <c r="C13" s="85"/>
       <c r="H13" s="27" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M13" s="19" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="N13" s="19" t="s">
         <v>52</v>
@@ -37613,7 +38064,7 @@
         <v>1</v>
       </c>
       <c r="P13" s="19" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="16.5" customHeight="1">
@@ -37623,7 +38074,7 @@
         <v>#REF!</v>
       </c>
       <c r="M14" s="19" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="N14" s="19" t="s">
         <v>52</v>
@@ -37632,7 +38083,7 @@
         <v>1</v>
       </c>
       <c r="P14" s="19" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="S14" s="28"/>
     </row>
@@ -37643,7 +38094,7 @@
         <v>#REF!</v>
       </c>
       <c r="M15" s="19" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N15" s="19" t="s">
         <v>52</v>
@@ -37652,16 +38103,16 @@
         <v>1</v>
       </c>
       <c r="P15" s="19" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="16.5" customHeight="1">
       <c r="C16" s="85"/>
       <c r="H16" s="27" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M16" s="19" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="N16" s="19" t="s">
         <v>52</v>
@@ -37670,13 +38121,13 @@
         <v>1</v>
       </c>
       <c r="P16" s="19" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="3:16" ht="16.5" customHeight="1">
       <c r="C17" s="85"/>
       <c r="M17" s="19" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="N17" s="19" t="s">
         <v>52</v>
@@ -37685,7 +38136,7 @@
         <v>1</v>
       </c>
       <c r="P17" s="19" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="3:16" ht="16.5" customHeight="1">
@@ -37725,7 +38176,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="LaTeXLcombApp">
     <tabColor theme="1" tint="0.499984740745262"/>
@@ -37743,85 +38194,85 @@
     <col min="3" max="3" width="22.7109375" style="27" customWidth="1"/>
     <col min="4" max="24" width="11.5703125" style="27" customWidth="1"/>
     <col min="25" max="25" width="204.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="26" max="37" width="11.5703125" style="27" customWidth="1"/>
-    <col min="38" max="16384" width="11.5703125" style="27"/>
+    <col min="26" max="38" width="11.5703125" style="27" customWidth="1"/>
+    <col min="39" max="16384" width="11.5703125" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="30" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="J1" s="31" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="K1" s="31" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L1" s="31" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M1" s="31" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="N1" s="31" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="O1" s="31" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="P1" s="31" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q1" s="31" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="R1" s="31" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="S1" s="31" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="T1" s="31" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="U1" s="31" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="V1" s="31" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="W1" s="31" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="X1" s="60" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Y1" s="31" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -37829,10 +38280,10 @@
         <v>1000</v>
       </c>
       <c r="B2" s="125" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C2" s="126" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D2" s="124">
         <v>1</v>
@@ -37872,10 +38323,10 @@
         <v>1001</v>
       </c>
       <c r="B3" s="129" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C3" s="126" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D3" s="126">
         <v>2</v>
@@ -37915,10 +38366,10 @@
         <v>2000</v>
       </c>
       <c r="B4" s="129" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C4" s="126" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D4" s="126">
         <v>2</v>
@@ -37966,10 +38417,10 @@
         <v>2001</v>
       </c>
       <c r="B5" s="129" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" s="126" t="s">
         <v>235</v>
-      </c>
-      <c r="C5" s="126" t="s">
-        <v>232</v>
       </c>
       <c r="D5" s="126">
         <v>2</v>
@@ -38017,10 +38468,10 @@
         <v>2002</v>
       </c>
       <c r="B6" s="129" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C6" s="126" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D6" s="126">
         <v>2</v>
@@ -38068,10 +38519,10 @@
         <v>2100</v>
       </c>
       <c r="B7" s="129" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C7" s="126" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D7" s="126">
         <v>1</v>
@@ -38119,10 +38570,10 @@
         <v>2101</v>
       </c>
       <c r="B8" s="129" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C8" s="126" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D8" s="126">
         <v>1</v>
@@ -38170,10 +38621,10 @@
         <v>2102</v>
       </c>
       <c r="B9" s="129" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C9" s="126" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D9" s="126">
         <v>1</v>
@@ -38221,10 +38672,10 @@
         <v>2103</v>
       </c>
       <c r="B10" s="129" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C10" s="126" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D10" s="126">
         <v>1</v>
@@ -38272,10 +38723,10 @@
         <v>2104</v>
       </c>
       <c r="B11" s="129" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C11" s="126" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D11" s="126">
         <v>1</v>
@@ -38323,10 +38774,10 @@
         <v>2105</v>
       </c>
       <c r="B12" s="129" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C12" s="126" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D12" s="126">
         <v>1</v>
@@ -38374,10 +38825,10 @@
         <v>2106</v>
       </c>
       <c r="B13" s="129" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C13" s="126" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D13" s="126">
         <v>1</v>
@@ -38425,10 +38876,10 @@
         <v>2107</v>
       </c>
       <c r="B14" s="129" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C14" s="126" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D14" s="126">
         <v>1</v>
@@ -38476,10 +38927,10 @@
         <v>2108</v>
       </c>
       <c r="B15" s="129" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C15" s="126" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D15" s="126">
         <v>1</v>
@@ -38527,10 +38978,10 @@
         <v>2109</v>
       </c>
       <c r="B16" s="129" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C16" s="126" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D16" s="126">
         <v>1</v>
@@ -38578,10 +39029,10 @@
         <v>3001</v>
       </c>
       <c r="B17" s="129" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C17" s="126" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D17" s="126">
         <v>1</v>
@@ -38625,10 +39076,10 @@
         <v>3002</v>
       </c>
       <c r="B18" s="129" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C18" s="126" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D18" s="126">
         <v>2</v>
@@ -38672,10 +39123,10 @@
         <v>3004</v>
       </c>
       <c r="B19" s="129" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C19" s="126" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D19" s="126">
         <v>2</v>
@@ -38723,10 +39174,10 @@
         <v>3005</v>
       </c>
       <c r="B20" s="129" t="s">
+        <v>254</v>
+      </c>
+      <c r="C20" s="126" t="s">
         <v>251</v>
-      </c>
-      <c r="C20" s="126" t="s">
-        <v>248</v>
       </c>
       <c r="D20" s="126">
         <v>2</v>
@@ -38774,10 +39225,10 @@
         <v>3006</v>
       </c>
       <c r="B21" s="129" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C21" s="126" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D21" s="126">
         <v>2</v>

--- a/pyMaster_loads_tool.xlsx
+++ b/pyMaster_loads_tool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://atlec-my.sharepoint.com/personal/mwo_woodthilsted_com/Documents/Professional/5_PYTHON/pyMasterLoadsTool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_8A5DF8D2319AF32EF13E9B2AED69841309E87D61" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EE27BB1-F050-439F-AD5F-C4C45FFBC82E}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_8A5DF8D2319AF32EF13E9B2AED69841309E87D61" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55F88F0D-420B-4104-BA83-70867C8E4EB6}"/>
   <bookViews>
     <workbookView xWindow="6570" yWindow="1815" windowWidth="28800" windowHeight="15030" tabRatio="858" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,124 +46,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Kasper Bech Skiveren</author>
-    <author>Marcin Woliński</author>
-  </authors>
-  <commentList>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>Toggle for non-linear solver parameters. If 1-true, the column to the right is enabled.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>1 = Static linear
-2 = Static non-linear
-4 = Static buckling
-5 = Auxiliary linear case (tells Robot to skip this load case and only use it in a load combation)
-2 and 5 can have non-linear solver settings.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>Toggle 1-True/0-False, for K-matrix update for every iteration of the non-linear solver. This has to be applied if tension only members are use or if up-lift supports are used.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>Toggle for P-delta effects. This has to be true if the critical buckling coefficient is less than 10 and above 3.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Kasper Bech Skiveren</author>
-  </authors>
-  <commentList>
-    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>Toggle for non-linear solver parameters. If true, the column to the right is enabled.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>Kasper Bech Skiveren:
-0 = Static linear combination
--1 = Static non-linear combination
--3 = Static non-linear buckling combination
--4 = Static buckling combination
--1 and -3 can have non-linear solver settings.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>Toggle True/False, for K-matrix update for every iteration of the non-linear solver. This has to be applied if tension only members are use or if up-lift supports are used.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>Toggle for P-delta effects. This has to be true if the critical buckling coefficient is less than 10 and above 3.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1370,23 +1252,26 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1397,14 +1282,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1948,14 +1830,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFFE699"/>
   </sheetPr>
   <dimension ref="A1:M177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3905,10 +3787,10 @@
       <formula>E7=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="9">
+  <dataValidations count="13">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the load case number_x000a__x000a_Try to stick to a consistent naming convention and leave 100 possibilities for each load type. For example: _x000a_200-299 are live loads,_x000a_300-399 could be padeye loads,_x000a_400-499 could be HOP loads etc._x000a_ " sqref="A1:A6" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the load case_x000a__x000a_Please keep naming of similar loads as consistent as possible" sqref="B1:B6" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576 F2:F6 F7:G1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:G1048576 D7:D1048576 D1" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"1,0"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="1- for Auxiliary case, 0 - if not." sqref="H2:H6" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
@@ -3925,9 +3807,16 @@
       <formula1>#REF!</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose nature of the loadcase" sqref="C1:C6" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Toggle for non-linear solver parameters. If 1-true, the column to the right is enabled." sqref="D2:D6" xr:uid="{8755FE1B-70A9-485C-8478-656E87CD7EEF}">
+      <formula1>"1,0"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="1 = Static linear_x000a_2 = Static non-linear_x000a_4 = Static buckling_x000a_5 = Auxiliary linear case (tells Robot to skip this load case and only use it in a load combation)_x000a__x000a_2 and 5 can have non-linear solver settings." sqref="E2:E6" xr:uid="{7C9F9675-C820-4E65-BD38-1C6EB6D843F7}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Toggle 1-True/0-False, for K-matrix update for every iteration of the non-linear solver. This has to be applied if tension only members are use or if up-lift supports are used." sqref="F2:F6" xr:uid="{01D0A842-31B5-4C70-B2FA-B488C21E74B1}">
+      <formula1>"1,0"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Toggle for P-delta effects. This has to be true if the critical buckling coefficient is less than 10 and above 3." sqref="G2:G6" xr:uid="{11C2C739-DC0D-4BD8-8040-7F69C34C5BDA}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3941,7 +3830,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AE13" sqref="AE13"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -4001,7 +3890,7 @@
       <c r="Y1" s="17"/>
       <c r="Z1" s="17"/>
       <c r="AA1" s="17"/>
-      <c r="AC1" s="145" t="s">
+      <c r="AC1" s="128" t="s">
         <v>30</v>
       </c>
       <c r="AD1" s="129"/>
@@ -4018,19 +3907,19 @@
       <c r="C2" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="140"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="142"/>
       <c r="G2" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="142" t="s">
+      <c r="H2" s="143" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="139" t="s">
+      <c r="I2" s="145" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="128" t="s">
+      <c r="J2" s="140" t="s">
         <v>33</v>
       </c>
       <c r="K2" s="129"/>
@@ -4070,30 +3959,30 @@
       <c r="B3" s="121"/>
       <c r="C3" s="121"/>
       <c r="D3" s="134"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="136"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="135"/>
       <c r="G3" s="121"/>
       <c r="H3" s="134"/>
       <c r="I3" s="121"/>
-      <c r="J3" s="131" t="s">
+      <c r="J3" s="144" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="132"/>
+      <c r="K3" s="139"/>
       <c r="L3" s="133"/>
-      <c r="M3" s="144" t="s">
+      <c r="M3" s="138" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="132"/>
+      <c r="N3" s="139"/>
       <c r="O3" s="133"/>
       <c r="P3" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="Q3" s="132"/>
+      <c r="Q3" s="139"/>
       <c r="R3" s="133"/>
       <c r="S3" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="T3" s="132"/>
+      <c r="T3" s="139"/>
       <c r="U3" s="133"/>
       <c r="V3" s="120" t="s">
         <v>43</v>
@@ -4119,26 +4008,26 @@
       <c r="B4" s="121"/>
       <c r="C4" s="121"/>
       <c r="D4" s="134"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="136"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="135"/>
       <c r="G4" s="121"/>
       <c r="H4" s="134"/>
       <c r="I4" s="121"/>
       <c r="J4" s="134"/>
-      <c r="K4" s="135"/>
-      <c r="L4" s="136"/>
+      <c r="K4" s="132"/>
+      <c r="L4" s="135"/>
       <c r="M4" s="134"/>
-      <c r="N4" s="135"/>
-      <c r="O4" s="136"/>
+      <c r="N4" s="132"/>
+      <c r="O4" s="135"/>
       <c r="P4" s="134"/>
-      <c r="Q4" s="135"/>
-      <c r="R4" s="136"/>
+      <c r="Q4" s="132"/>
+      <c r="R4" s="135"/>
       <c r="S4" s="134"/>
-      <c r="T4" s="135"/>
-      <c r="U4" s="136"/>
+      <c r="T4" s="132"/>
+      <c r="U4" s="135"/>
       <c r="V4" s="121"/>
       <c r="W4" s="134"/>
-      <c r="X4" s="136"/>
+      <c r="X4" s="135"/>
       <c r="Y4" s="121"/>
       <c r="Z4" s="121"/>
       <c r="AA4" s="121"/>
@@ -4152,26 +4041,26 @@
       <c r="B5" s="121"/>
       <c r="C5" s="121"/>
       <c r="D5" s="134"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="136"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="135"/>
       <c r="G5" s="121"/>
       <c r="H5" s="134"/>
       <c r="I5" s="121"/>
       <c r="J5" s="134"/>
-      <c r="K5" s="135"/>
-      <c r="L5" s="136"/>
+      <c r="K5" s="132"/>
+      <c r="L5" s="135"/>
       <c r="M5" s="134"/>
-      <c r="N5" s="135"/>
-      <c r="O5" s="136"/>
+      <c r="N5" s="132"/>
+      <c r="O5" s="135"/>
       <c r="P5" s="134"/>
-      <c r="Q5" s="135"/>
-      <c r="R5" s="136"/>
+      <c r="Q5" s="132"/>
+      <c r="R5" s="135"/>
       <c r="S5" s="134"/>
-      <c r="T5" s="135"/>
-      <c r="U5" s="136"/>
+      <c r="T5" s="132"/>
+      <c r="U5" s="135"/>
       <c r="V5" s="121"/>
       <c r="W5" s="134"/>
-      <c r="X5" s="136"/>
+      <c r="X5" s="135"/>
       <c r="Y5" s="121"/>
       <c r="Z5" s="121"/>
       <c r="AA5" s="121"/>
@@ -4185,26 +4074,26 @@
       <c r="B6" s="121"/>
       <c r="C6" s="121"/>
       <c r="D6" s="134"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="136"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="135"/>
       <c r="G6" s="121"/>
       <c r="H6" s="134"/>
       <c r="I6" s="121"/>
-      <c r="J6" s="137"/>
+      <c r="J6" s="136"/>
       <c r="K6" s="125"/>
-      <c r="L6" s="138"/>
-      <c r="M6" s="137"/>
+      <c r="L6" s="137"/>
+      <c r="M6" s="136"/>
       <c r="N6" s="125"/>
-      <c r="O6" s="138"/>
+      <c r="O6" s="137"/>
       <c r="P6" s="134"/>
-      <c r="Q6" s="135"/>
-      <c r="R6" s="136"/>
-      <c r="S6" s="137"/>
+      <c r="Q6" s="132"/>
+      <c r="R6" s="135"/>
+      <c r="S6" s="136"/>
       <c r="T6" s="125"/>
-      <c r="U6" s="138"/>
+      <c r="U6" s="137"/>
       <c r="V6" s="121"/>
       <c r="W6" s="134"/>
-      <c r="X6" s="136"/>
+      <c r="X6" s="135"/>
       <c r="Y6" s="121"/>
       <c r="Z6" s="121"/>
       <c r="AA6" s="121"/>
@@ -4218,32 +4107,32 @@
       <c r="B7" s="122"/>
       <c r="C7" s="122"/>
       <c r="D7" s="134"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="136"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="135"/>
       <c r="G7" s="122"/>
-      <c r="H7" s="137"/>
+      <c r="H7" s="136"/>
       <c r="I7" s="122"/>
-      <c r="J7" s="128" t="s">
+      <c r="J7" s="140" t="s">
         <v>47</v>
       </c>
       <c r="K7" s="129"/>
       <c r="L7" s="130"/>
-      <c r="M7" s="128" t="s">
+      <c r="M7" s="140" t="s">
         <v>48</v>
       </c>
       <c r="N7" s="129"/>
       <c r="O7" s="130"/>
-      <c r="P7" s="137"/>
+      <c r="P7" s="136"/>
       <c r="Q7" s="125"/>
-      <c r="R7" s="138"/>
-      <c r="S7" s="128" t="s">
+      <c r="R7" s="137"/>
+      <c r="S7" s="140" t="s">
         <v>49</v>
       </c>
       <c r="T7" s="129"/>
       <c r="U7" s="130"/>
       <c r="V7" s="122"/>
-      <c r="W7" s="137"/>
-      <c r="X7" s="138"/>
+      <c r="W7" s="136"/>
+      <c r="X7" s="137"/>
       <c r="Y7" s="122"/>
       <c r="Z7" s="122"/>
       <c r="AA7" s="122"/>
@@ -11070,6 +10959,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="Y3:Y7"/>
+    <mergeCell ref="S3:U6"/>
+    <mergeCell ref="P3:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="J3:L6"/>
+    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="I2:I7"/>
+    <mergeCell ref="J7:L7"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="C2:C7"/>
@@ -11086,17 +10986,6 @@
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="AE2:AE7"/>
     <mergeCell ref="D2:D7"/>
-    <mergeCell ref="F2:F7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="Y3:Y7"/>
-    <mergeCell ref="S3:U6"/>
-    <mergeCell ref="P3:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="J3:L6"/>
-    <mergeCell ref="G2:G7"/>
-    <mergeCell ref="I2:I7"/>
-    <mergeCell ref="J7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:I1048576">
     <cfRule type="expression" dxfId="28" priority="41">
@@ -11240,7 +11129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Lcomb">
     <tabColor rgb="FFFFE699"/>
   </sheetPr>
@@ -11250,7 +11139,7 @@
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AE13" sqref="AE13"/>
       <selection pane="bottomLeft" activeCell="AE13" sqref="AE13"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="12.75"/>
@@ -16267,9 +16156,9 @@
       <c r="D4" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
       <c r="H4" s="87">
         <v>1</v>
       </c>
@@ -20875,7 +20764,7 @@
       <c r="A5" s="33"/>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
-      <c r="D5" s="137"/>
+      <c r="D5" s="136"/>
       <c r="E5" s="125"/>
       <c r="F5" s="125"/>
       <c r="G5" s="125"/>
@@ -31736,7 +31625,7 @@
       <formula>E7=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="5">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C1147 D477:NK1147" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"ULS, SLS, ALS"</formula1>
     </dataValidation>
@@ -31753,10 +31642,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7 F7:G476" xr:uid="{00000000-0002-0000-0200-000004000000}">
       <formula1>"1,0"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Toggle for non-linear solver parameters. If true, the column to the right is enabled." sqref="D3" xr:uid="{62ECE9F3-FDD0-486C-8243-FAF5762F3AA7}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0 = Static linear combination_x000a_-1 = Static non-linear combination_x000a_-3 = Static non-linear buckling combination_x000a_-4 = Static buckling combination_x000a__x000a_-1 and -3 can have non-linear solver settings." sqref="E3" xr:uid="{10E48DF6-04E9-461B-9D61-87CC371CCF4C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Toggle 1 or 0, for K-matrix update for every iteration of the non-linear solver. This has to be applied if tension only members are use or if up-lift supports are used." sqref="F3" xr:uid="{DE0E4A36-B670-4A19-A833-4F5814F92674}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Toggle 1 or 0 for P-delta effects. This has to be true if the critical buckling coefficient is less than 10 and above 3." sqref="G3" xr:uid="{A96DA0D4-42F4-4B2E-B342-7039ACA44C8C}"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="75" orientation="portrait" horizontalDpi="4294967293"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/pyMaster_loads_tool.xlsx
+++ b/pyMaster_loads_tool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://atlec-my.sharepoint.com/personal/mwo_woodthilsted_com/Documents/Professional/5_PYTHON/pyMasterLoadsTool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_8A5DF8D2319AF32EF13E9B2AED69841309E87D61" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55F88F0D-420B-4104-BA83-70867C8E4EB6}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_8A5DF8D2319AF32EF13E9B2AED69841309E87D61" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0ED5F1F-AC44-4162-90F5-7FE24293BCD5}"/>
   <bookViews>
-    <workbookView xWindow="6570" yWindow="1815" windowWidth="28800" windowHeight="15030" tabRatio="858" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16440" yWindow="4470" windowWidth="18945" windowHeight="14850" tabRatio="858" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Load case definition" sheetId="1" r:id="rId1"/>
@@ -172,10 +172,6 @@
 PX                 PY               PZ
 AX                 AY               AZ 
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">         CX              CY             CZ
-objects/masses          </t>
   </si>
   <si>
     <t>AL                 BE                GA</t>
@@ -601,6 +597,10 @@
   </si>
   <si>
     <t>SLS_QPR_DL_LL_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         CX              CY             CZ
+          </t>
   </si>
 </sst>
 </file>
@@ -1252,41 +1252,41 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1836,7 +1836,7 @@
   </sheetPr>
   <dimension ref="A1:M177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -3827,10 +3827,10 @@
   </sheetPr>
   <dimension ref="A1:AK177"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AE13" sqref="AE13"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2:I7"/>
+      <selection pane="bottomLeft" activeCell="M3" sqref="M3:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -3890,12 +3890,12 @@
       <c r="Y1" s="17"/>
       <c r="Z1" s="17"/>
       <c r="AA1" s="17"/>
-      <c r="AC1" s="128" t="s">
+      <c r="AC1" s="142" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" s="129"/>
-      <c r="AE1" s="129"/>
-      <c r="AF1" s="130"/>
+      <c r="AD1" s="138"/>
+      <c r="AE1" s="138"/>
+      <c r="AF1" s="139"/>
     </row>
     <row r="2" spans="1:32" ht="12.4" customHeight="1">
       <c r="A2" s="123" t="s">
@@ -3907,37 +3907,37 @@
       <c r="C2" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="141"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="142"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="128"/>
       <c r="G2" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="143" t="s">
+      <c r="H2" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="145" t="s">
+      <c r="I2" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="140" t="s">
+      <c r="J2" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="129"/>
-      <c r="O2" s="129"/>
-      <c r="P2" s="129"/>
-      <c r="Q2" s="129"/>
-      <c r="R2" s="129"/>
-      <c r="S2" s="129"/>
-      <c r="T2" s="129"/>
-      <c r="U2" s="129"/>
-      <c r="V2" s="129"/>
-      <c r="W2" s="129"/>
-      <c r="X2" s="129"/>
-      <c r="Y2" s="129"/>
-      <c r="Z2" s="130"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="138"/>
+      <c r="P2" s="138"/>
+      <c r="Q2" s="138"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="138"/>
+      <c r="T2" s="138"/>
+      <c r="U2" s="138"/>
+      <c r="V2" s="138"/>
+      <c r="W2" s="138"/>
+      <c r="X2" s="138"/>
+      <c r="Y2" s="138"/>
+      <c r="Z2" s="139"/>
       <c r="AA2" s="120" t="s">
         <v>34</v>
       </c>
@@ -3958,44 +3958,44 @@
       <c r="A3" s="121"/>
       <c r="B3" s="121"/>
       <c r="C3" s="121"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="135"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="129"/>
       <c r="G3" s="121"/>
-      <c r="H3" s="134"/>
+      <c r="H3" s="131"/>
       <c r="I3" s="121"/>
-      <c r="J3" s="144" t="s">
+      <c r="J3" s="140" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="139"/>
-      <c r="L3" s="133"/>
-      <c r="M3" s="138" t="s">
+      <c r="K3" s="133"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="144" t="s">
+        <v>180</v>
+      </c>
+      <c r="N3" s="133"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="139"/>
-      <c r="O3" s="133"/>
-      <c r="P3" s="126" t="s">
+      <c r="Q3" s="133"/>
+      <c r="R3" s="134"/>
+      <c r="S3" s="120" t="s">
         <v>41</v>
       </c>
-      <c r="Q3" s="139"/>
-      <c r="R3" s="133"/>
-      <c r="S3" s="120" t="s">
+      <c r="T3" s="133"/>
+      <c r="U3" s="134"/>
+      <c r="V3" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="T3" s="139"/>
-      <c r="U3" s="133"/>
-      <c r="V3" s="120" t="s">
+      <c r="W3" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="W3" s="120" t="s">
+      <c r="X3" s="134"/>
+      <c r="Y3" s="120" t="s">
         <v>44</v>
       </c>
-      <c r="X3" s="133"/>
-      <c r="Y3" s="120" t="s">
+      <c r="Z3" s="120" t="s">
         <v>45</v>
-      </c>
-      <c r="Z3" s="120" t="s">
-        <v>46</v>
       </c>
       <c r="AA3" s="121"/>
       <c r="AC3" s="121"/>
@@ -4007,27 +4007,27 @@
       <c r="A4" s="121"/>
       <c r="B4" s="121"/>
       <c r="C4" s="121"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="135"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="129"/>
       <c r="G4" s="121"/>
-      <c r="H4" s="134"/>
+      <c r="H4" s="131"/>
       <c r="I4" s="121"/>
-      <c r="J4" s="134"/>
-      <c r="K4" s="132"/>
-      <c r="L4" s="135"/>
-      <c r="M4" s="134"/>
-      <c r="N4" s="132"/>
-      <c r="O4" s="135"/>
-      <c r="P4" s="134"/>
-      <c r="Q4" s="132"/>
-      <c r="R4" s="135"/>
-      <c r="S4" s="134"/>
-      <c r="T4" s="132"/>
-      <c r="U4" s="135"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="135"/>
+      <c r="L4" s="129"/>
+      <c r="M4" s="131"/>
+      <c r="N4" s="135"/>
+      <c r="O4" s="129"/>
+      <c r="P4" s="131"/>
+      <c r="Q4" s="135"/>
+      <c r="R4" s="129"/>
+      <c r="S4" s="131"/>
+      <c r="T4" s="135"/>
+      <c r="U4" s="129"/>
       <c r="V4" s="121"/>
-      <c r="W4" s="134"/>
-      <c r="X4" s="135"/>
+      <c r="W4" s="131"/>
+      <c r="X4" s="129"/>
       <c r="Y4" s="121"/>
       <c r="Z4" s="121"/>
       <c r="AA4" s="121"/>
@@ -4040,27 +4040,27 @@
       <c r="A5" s="121"/>
       <c r="B5" s="121"/>
       <c r="C5" s="121"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="135"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="129"/>
       <c r="G5" s="121"/>
-      <c r="H5" s="134"/>
+      <c r="H5" s="131"/>
       <c r="I5" s="121"/>
-      <c r="J5" s="134"/>
-      <c r="K5" s="132"/>
-      <c r="L5" s="135"/>
-      <c r="M5" s="134"/>
-      <c r="N5" s="132"/>
-      <c r="O5" s="135"/>
-      <c r="P5" s="134"/>
-      <c r="Q5" s="132"/>
-      <c r="R5" s="135"/>
-      <c r="S5" s="134"/>
-      <c r="T5" s="132"/>
-      <c r="U5" s="135"/>
+      <c r="J5" s="131"/>
+      <c r="K5" s="135"/>
+      <c r="L5" s="129"/>
+      <c r="M5" s="131"/>
+      <c r="N5" s="135"/>
+      <c r="O5" s="129"/>
+      <c r="P5" s="131"/>
+      <c r="Q5" s="135"/>
+      <c r="R5" s="129"/>
+      <c r="S5" s="131"/>
+      <c r="T5" s="135"/>
+      <c r="U5" s="129"/>
       <c r="V5" s="121"/>
-      <c r="W5" s="134"/>
-      <c r="X5" s="135"/>
+      <c r="W5" s="131"/>
+      <c r="X5" s="129"/>
       <c r="Y5" s="121"/>
       <c r="Z5" s="121"/>
       <c r="AA5" s="121"/>
@@ -4073,27 +4073,27 @@
       <c r="A6" s="121"/>
       <c r="B6" s="121"/>
       <c r="C6" s="121"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="135"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="129"/>
       <c r="G6" s="121"/>
-      <c r="H6" s="134"/>
+      <c r="H6" s="131"/>
       <c r="I6" s="121"/>
-      <c r="J6" s="136"/>
+      <c r="J6" s="132"/>
       <c r="K6" s="125"/>
-      <c r="L6" s="137"/>
-      <c r="M6" s="136"/>
+      <c r="L6" s="136"/>
+      <c r="M6" s="132"/>
       <c r="N6" s="125"/>
-      <c r="O6" s="137"/>
-      <c r="P6" s="134"/>
-      <c r="Q6" s="132"/>
-      <c r="R6" s="135"/>
-      <c r="S6" s="136"/>
+      <c r="O6" s="136"/>
+      <c r="P6" s="131"/>
+      <c r="Q6" s="135"/>
+      <c r="R6" s="129"/>
+      <c r="S6" s="132"/>
       <c r="T6" s="125"/>
-      <c r="U6" s="137"/>
+      <c r="U6" s="136"/>
       <c r="V6" s="121"/>
-      <c r="W6" s="134"/>
-      <c r="X6" s="135"/>
+      <c r="W6" s="131"/>
+      <c r="X6" s="129"/>
       <c r="Y6" s="121"/>
       <c r="Z6" s="121"/>
       <c r="AA6" s="121"/>
@@ -4106,33 +4106,33 @@
       <c r="A7" s="122"/>
       <c r="B7" s="122"/>
       <c r="C7" s="122"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="135"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="129"/>
       <c r="G7" s="122"/>
-      <c r="H7" s="136"/>
+      <c r="H7" s="132"/>
       <c r="I7" s="122"/>
-      <c r="J7" s="140" t="s">
+      <c r="J7" s="137" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="138"/>
+      <c r="L7" s="139"/>
+      <c r="M7" s="137" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="129"/>
-      <c r="L7" s="130"/>
-      <c r="M7" s="140" t="s">
+      <c r="N7" s="138"/>
+      <c r="O7" s="139"/>
+      <c r="P7" s="132"/>
+      <c r="Q7" s="125"/>
+      <c r="R7" s="136"/>
+      <c r="S7" s="137" t="s">
         <v>48</v>
       </c>
-      <c r="N7" s="129"/>
-      <c r="O7" s="130"/>
-      <c r="P7" s="136"/>
-      <c r="Q7" s="125"/>
-      <c r="R7" s="137"/>
-      <c r="S7" s="140" t="s">
-        <v>49</v>
-      </c>
-      <c r="T7" s="129"/>
-      <c r="U7" s="130"/>
+      <c r="T7" s="138"/>
+      <c r="U7" s="139"/>
       <c r="V7" s="122"/>
-      <c r="W7" s="136"/>
-      <c r="X7" s="137"/>
+      <c r="W7" s="132"/>
+      <c r="X7" s="136"/>
       <c r="Y7" s="122"/>
       <c r="Z7" s="122"/>
       <c r="AA7" s="122"/>
@@ -4154,7 +4154,7 @@
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="17"/>
       <c r="G8" s="20" t="str">
@@ -4162,7 +4162,7 @@
         <v>1:STA1</v>
       </c>
       <c r="H8" s="42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I8" s="99">
         <v>1</v>
@@ -4189,7 +4189,7 @@
       <c r="AD8" s="63"/>
       <c r="AE8" s="63"/>
       <c r="AF8" s="63" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:32">
@@ -4205,7 +4205,7 @@
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="21" t="str">
@@ -4213,10 +4213,10 @@
         <v>1:STA1</v>
       </c>
       <c r="H9" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="99" t="s">
         <v>53</v>
-      </c>
-      <c r="I9" s="99" t="s">
-        <v>54</v>
       </c>
       <c r="J9" s="80">
         <v>0</v>
@@ -4256,7 +4256,7 @@
       </c>
       <c r="V9" s="83"/>
       <c r="W9" s="84" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X9" s="75"/>
       <c r="Y9" s="17">
@@ -4268,7 +4268,7 @@
       <c r="AD9" s="64"/>
       <c r="AE9" s="64"/>
       <c r="AF9" s="64" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:32">
@@ -4290,10 +4290,10 @@
         <v>1:STA1</v>
       </c>
       <c r="H10" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="99" t="s">
         <v>53</v>
-      </c>
-      <c r="I10" s="99" t="s">
-        <v>54</v>
       </c>
       <c r="J10" s="80">
         <v>0</v>
@@ -4333,7 +4333,7 @@
       </c>
       <c r="V10" s="83"/>
       <c r="W10" s="84" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X10" s="75"/>
       <c r="Y10" s="17">
@@ -4345,7 +4345,7 @@
       <c r="AD10" s="64"/>
       <c r="AE10" s="64"/>
       <c r="AF10" s="64" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:32">
@@ -4361,7 +4361,7 @@
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="21" t="str">
@@ -4369,10 +4369,10 @@
         <v>1:STA1</v>
       </c>
       <c r="H11" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="99" t="s">
         <v>53</v>
-      </c>
-      <c r="I11" s="99" t="s">
-        <v>54</v>
       </c>
       <c r="J11" s="80">
         <v>0</v>
@@ -4412,7 +4412,7 @@
       </c>
       <c r="V11" s="83"/>
       <c r="W11" s="84" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X11" s="75"/>
       <c r="Y11" s="17">
@@ -4424,7 +4424,7 @@
       <c r="AD11" s="64"/>
       <c r="AE11" s="64"/>
       <c r="AF11" s="64" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -4440,7 +4440,7 @@
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="21" t="str">
@@ -4448,10 +4448,10 @@
         <v>1:STA1</v>
       </c>
       <c r="H12" s="42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I12" s="100" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J12" s="80">
         <v>0</v>
@@ -4491,7 +4491,7 @@
       </c>
       <c r="V12" s="64"/>
       <c r="W12" s="84" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X12" s="75"/>
       <c r="Y12" s="17">
@@ -4513,7 +4513,7 @@
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="21" t="str">
@@ -4554,7 +4554,7 @@
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="21" t="str">
@@ -4673,7 +4673,7 @@
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="21" t="str">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="21" t="str">
@@ -4911,7 +4911,7 @@
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="21" t="str">
@@ -5030,7 +5030,7 @@
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F26" s="17"/>
       <c r="G26" s="21" t="str">
@@ -5149,7 +5149,7 @@
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F29" s="17"/>
       <c r="G29" s="21" t="str">
@@ -5268,7 +5268,7 @@
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F32" s="17"/>
       <c r="G32" s="21" t="str">
@@ -5387,7 +5387,7 @@
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F35" s="17"/>
       <c r="G35" s="21" t="str">
@@ -10959,17 +10959,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="F2:F7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="Y3:Y7"/>
-    <mergeCell ref="S3:U6"/>
-    <mergeCell ref="P3:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="J3:L6"/>
-    <mergeCell ref="G2:G7"/>
-    <mergeCell ref="I2:I7"/>
-    <mergeCell ref="J7:L7"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="C2:C7"/>
@@ -10986,6 +10975,17 @@
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="AE2:AE7"/>
     <mergeCell ref="D2:D7"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="Y3:Y7"/>
+    <mergeCell ref="S3:U6"/>
+    <mergeCell ref="P3:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="J3:L6"/>
+    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="I2:I7"/>
+    <mergeCell ref="J7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:I1048576">
     <cfRule type="expression" dxfId="28" priority="41">
@@ -11103,7 +11103,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the load case_x000a__x000a_Please keep naming of similar loads as consistent as possible" sqref="B2:B7" xr:uid="{00000000-0002-0000-0100-00000C000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the load case number_x000a__x000a_Try to stick to a consistent naming convention and leave 100 possibilities for each load type. For example: _x000a_200-299 are live loads,_x000a_300-399 could be padeye loads,_x000a_400-499 could be HOP loads etc._x000a_ " sqref="A2:A7" xr:uid="{00000000-0002-0000-0100-00000D000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="FX / PX / AX - Enter the force / pressure / acceleration in the X direction_x000a__x000a_FY / PY / AY - Enter the force / pressure / acceleration in the Y direction_x000a__x000a_FZ / PZ / AZ - Enter the force / pressure / acceleration in the Z direction_x000a__x000a_(kN / kPa / m/s2)_x000a_" sqref="J3:L6" xr:uid="{00000000-0002-0000-0100-00000E000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="CX - Enter the moment about the X axis (kN*m)_x000a_objects/masses - Enter either 'objects' or 'masses'. This applies only to a body force._x000a__x000a_CY - Enter the moment about the Y axis (kN*m)_x000a__x000a_CZ - Enter the moment about the Z axis (kN*m)" sqref="M3:O6" xr:uid="{00000000-0002-0000-0100-00000F000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="CX - Enter the moment about the X axis (kN*m)_x000a__x000a_CY - Enter the moment about the Y axis (kN*m)_x000a__x000a_CZ - Enter the moment about the Z axis (kN*m)" sqref="M3:O6" xr:uid="{00000000-0002-0000-0100-00000F000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the node(s), member(s) or object(s) number which each load case is applied to" sqref="I2:I7" xr:uid="{00000000-0002-0000-0100-000010000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the load type from the drop down menu_x000a__x000a_Currently, the options are:_x000a_(FE) uniform, nodal force, Body forces, member force,  self-weight, trapezoidal (2p), uniform load " sqref="H2:H7" xr:uid="{00000000-0002-0000-0100-000011000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Please enter the total value of the load that you are applying and a reference for the value._x000a__x000a_This column is just for checking purposes and is not used by any macros." sqref="AA2:AA7" xr:uid="{00000000-0002-0000-0100-000012000000}"/>
@@ -11530,17 +11530,17 @@
     </row>
     <row r="3" spans="1:4605" s="7" customFormat="1" ht="218.65" customHeight="1">
       <c r="A3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="56" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="72" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F3" s="72" t="s">
         <v>7</v>
@@ -16156,9 +16156,9 @@
       <c r="D4" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="133"/>
       <c r="H4" s="87">
         <v>1</v>
       </c>
@@ -20764,7 +20764,7 @@
       <c r="A5" s="33"/>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
-      <c r="D5" s="136"/>
+      <c r="D5" s="132"/>
       <c r="E5" s="125"/>
       <c r="F5" s="125"/>
       <c r="G5" s="125"/>
@@ -21139,25 +21139,25 @@
     </row>
     <row r="6" spans="1:4605" s="16" customFormat="1" ht="14.45" customHeight="1">
       <c r="A6" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="C6" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="D6" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="53" t="s">
-        <v>64</v>
-      </c>
       <c r="E6" s="53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F6" s="53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" s="53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:4605" s="16" customFormat="1">
@@ -31667,81 +31667,81 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" t="s">
         <v>66</v>
       </c>
-      <c r="G1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" t="s">
         <v>67</v>
       </c>
-      <c r="M1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="S1" t="s">
+        <v>64</v>
+      </c>
+      <c r="T1" t="s">
         <v>68</v>
-      </c>
-      <c r="S1" t="s">
-        <v>65</v>
-      </c>
-      <c r="T1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="103" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="103" t="s">
+      <c r="C2" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="103" t="s">
+      <c r="D2" t="s">
         <v>72</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S2" t="s">
+        <v>69</v>
+      </c>
+      <c r="T2" t="s">
+        <v>70</v>
+      </c>
+      <c r="U2" t="s">
+        <v>71</v>
+      </c>
+      <c r="V2" t="s">
+        <v>72</v>
+      </c>
+      <c r="W2" t="s">
         <v>73</v>
-      </c>
-      <c r="G2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M2" t="s">
-        <v>70</v>
-      </c>
-      <c r="N2" t="s">
-        <v>71</v>
-      </c>
-      <c r="O2" t="s">
-        <v>72</v>
-      </c>
-      <c r="P2" t="s">
-        <v>73</v>
-      </c>
-      <c r="S2" t="s">
-        <v>70</v>
-      </c>
-      <c r="T2" t="s">
-        <v>71</v>
-      </c>
-      <c r="U2" t="s">
-        <v>72</v>
-      </c>
-      <c r="V2" t="s">
-        <v>73</v>
-      </c>
-      <c r="W2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -31794,7 +31794,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -31847,7 +31847,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -31900,7 +31900,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -32098,81 +32098,81 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" t="s">
         <v>66</v>
       </c>
-      <c r="G1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" t="s">
         <v>67</v>
       </c>
-      <c r="M1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="S1" t="s">
+        <v>64</v>
+      </c>
+      <c r="T1" t="s">
         <v>68</v>
-      </c>
-      <c r="S1" t="s">
-        <v>65</v>
-      </c>
-      <c r="T1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="103" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="103" t="s">
+      <c r="C2" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="103" t="s">
+      <c r="D2" t="s">
         <v>72</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S2" t="s">
+        <v>69</v>
+      </c>
+      <c r="T2" t="s">
+        <v>70</v>
+      </c>
+      <c r="U2" t="s">
+        <v>71</v>
+      </c>
+      <c r="V2" t="s">
+        <v>72</v>
+      </c>
+      <c r="W2" t="s">
         <v>73</v>
-      </c>
-      <c r="G2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M2" t="s">
-        <v>70</v>
-      </c>
-      <c r="N2" t="s">
-        <v>71</v>
-      </c>
-      <c r="O2" t="s">
-        <v>72</v>
-      </c>
-      <c r="P2" t="s">
-        <v>73</v>
-      </c>
-      <c r="S2" t="s">
-        <v>70</v>
-      </c>
-      <c r="T2" t="s">
-        <v>71</v>
-      </c>
-      <c r="U2" t="s">
-        <v>72</v>
-      </c>
-      <c r="V2" t="s">
-        <v>73</v>
-      </c>
-      <c r="W2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -32225,7 +32225,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -32278,7 +32278,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -32331,7 +32331,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -32550,7 +32550,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
       <c r="A1" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F1" s="26">
         <v>0.5</v>
@@ -32559,77 +32559,77 @@
         <v>0.1</v>
       </c>
       <c r="M1" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="S1" s="19" t="s">
         <v>79</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" customHeight="1">
       <c r="A2" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="C2" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="D2" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="E2" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="F2" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="G2" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="H2" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="J2" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="K2" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="M2" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="M2" s="19" t="s">
-        <v>91</v>
-      </c>
       <c r="N2" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O2" s="19">
         <v>1</v>
       </c>
       <c r="P2" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="S2" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="S2" s="19" t="s">
+      <c r="T2" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="T2" s="19" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="39" customHeight="1">
       <c r="A3" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="C3" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="19" t="s">
+      <c r="E3" s="19" t="s">
         <v>97</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>98</v>
       </c>
       <c r="F3" s="27" t="e">
         <f>PlatformName &amp;" member utilisations $&gt;" &amp;F1&amp;"$"</f>
@@ -32644,107 +32644,107 @@
         <v>#REF!</v>
       </c>
       <c r="J3" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="M3" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="M3" s="19" t="s">
-        <v>101</v>
-      </c>
       <c r="N3" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O3" s="19">
         <v>1</v>
       </c>
       <c r="P3" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S3" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="T3" s="28" t="s">
         <v>102</v>
-      </c>
-      <c r="T3" s="28" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1">
       <c r="A4" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="C4" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="H4" s="27" t="s">
+      <c r="M4" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="M4" s="19" t="s">
-        <v>107</v>
-      </c>
       <c r="N4" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O4" s="19">
         <v>1</v>
       </c>
       <c r="P4" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S4" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1">
       <c r="B5" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="H5" s="27" t="s">
+      <c r="M5" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="M5" s="19" t="s">
-        <v>111</v>
-      </c>
       <c r="N5" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O5" s="19">
         <v>1</v>
       </c>
       <c r="P5" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S5" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" customHeight="1">
@@ -32773,19 +32773,19 @@
         <v>#REF!</v>
       </c>
       <c r="H6" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="M6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="M6" s="19" t="s">
-        <v>114</v>
-      </c>
       <c r="N6" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O6" s="19">
         <v>1</v>
       </c>
       <c r="P6" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S6" s="19" t="e">
         <f>"\includegraphics[width=\textwidth]{\"&amp;LaTeXFiguresFolder &amp;"\"&amp;PlatformName&amp; " "&amp;S3&amp;".png} "</f>
@@ -32818,61 +32818,61 @@
         <v>#REF!</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J7" s="19">
         <f>COLUMN(J1)</f>
         <v>10</v>
       </c>
       <c r="M7" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N7" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O7" s="19">
         <v>1</v>
       </c>
       <c r="P7" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S7" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1">
       <c r="B8" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="D8" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="E8" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="F8" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="G8" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="H8" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="M8" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="M8" s="19" t="s">
-        <v>126</v>
-      </c>
       <c r="N8" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O8" s="19">
         <v>1</v>
       </c>
       <c r="P8" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S8" s="19" t="e">
         <f>"    \caption{" &amp;PlatformName&amp; " " &amp; S3 &amp;".}"</f>
@@ -32881,37 +32881,37 @@
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1">
       <c r="B9" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="D9" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="E9" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="F9" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="G9" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="H9" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="H9" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="M9" s="19" t="s">
-        <v>133</v>
-      </c>
       <c r="N9" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O9" s="19">
         <v>1</v>
       </c>
       <c r="P9" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S9" s="19" t="e">
         <f>"    \label{tabl:" &amp; PlatformName &amp;" "&amp;S3 &amp;"}"</f>
@@ -32920,107 +32920,107 @@
     </row>
     <row r="10" spans="1:20" ht="16.5" customHeight="1">
       <c r="B10" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="D10" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="E10" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="F10" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="G10" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="H10" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="G10" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="H10" s="27" t="s">
+      <c r="M10" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="M10" s="19" t="s">
-        <v>140</v>
-      </c>
       <c r="N10" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O10" s="19">
         <v>1</v>
       </c>
       <c r="P10" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="16.5" customHeight="1">
       <c r="B11" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="G11" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="H11" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="C11" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="D11" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="E11" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="F11" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="G11" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="H11" s="27" t="s">
+      <c r="M11" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="M11" s="19" t="s">
-        <v>143</v>
-      </c>
       <c r="N11" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O11" s="19">
         <v>1</v>
       </c>
       <c r="P11" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1">
       <c r="H12" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="M12" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="M12" s="19" t="s">
-        <v>145</v>
-      </c>
       <c r="N12" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O12" s="19">
         <v>1</v>
       </c>
       <c r="P12" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="16.5" customHeight="1">
       <c r="C13" s="49"/>
       <c r="H13" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="M13" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="M13" s="19" t="s">
-        <v>147</v>
-      </c>
       <c r="N13" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O13" s="19">
         <v>1</v>
       </c>
       <c r="P13" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="16.5" customHeight="1">
@@ -33030,16 +33030,16 @@
         <v>#REF!</v>
       </c>
       <c r="M14" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N14" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O14" s="19">
         <v>1</v>
       </c>
       <c r="P14" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S14" s="28"/>
     </row>
@@ -33050,49 +33050,49 @@
         <v>#REF!</v>
       </c>
       <c r="M15" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N15" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O15" s="19">
         <v>1</v>
       </c>
       <c r="P15" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="16.5" customHeight="1">
       <c r="C16" s="49"/>
       <c r="H16" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="M16" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="M16" s="19" t="s">
-        <v>151</v>
-      </c>
       <c r="N16" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O16" s="19">
         <v>1</v>
       </c>
       <c r="P16" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="3:16" ht="16.5" customHeight="1">
       <c r="C17" s="49"/>
       <c r="M17" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N17" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="19">
         <v>1</v>
       </c>
       <c r="P17" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="3:16" ht="16.5" customHeight="1">
@@ -33156,79 +33156,79 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="C1" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="C1" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="32" t="s">
+      <c r="E1" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="F1" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="L1" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="M1" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="N1" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="O1" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="P1" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q1" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="R1" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="S1" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="T1" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="U1" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="V1" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="W1" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="X1" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="F1" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="H1" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="I1" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="J1" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="L1" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="O1" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="P1" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q1" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="R1" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="S1" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="T1" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="U1" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="V1" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="W1" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="X1" s="35" t="s">
+      <c r="Y1" s="31" t="s">
         <v>157</v>
-      </c>
-      <c r="Y1" s="31" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -33236,10 +33236,10 @@
         <v>1000</v>
       </c>
       <c r="B2" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="90" t="s">
         <v>159</v>
-      </c>
-      <c r="C2" s="90" t="s">
-        <v>160</v>
       </c>
       <c r="D2" s="88">
         <v>1</v>
@@ -33279,10 +33279,10 @@
         <v>1001</v>
       </c>
       <c r="B3" s="93" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C3" s="90" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D3" s="90">
         <v>2</v>
@@ -33322,10 +33322,10 @@
         <v>2000</v>
       </c>
       <c r="B4" s="93" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C4" s="90" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D4" s="90">
         <v>2</v>
@@ -33373,10 +33373,10 @@
         <v>2001</v>
       </c>
       <c r="B5" s="93" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C5" s="90" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D5" s="90">
         <v>2</v>
@@ -33424,10 +33424,10 @@
         <v>2002</v>
       </c>
       <c r="B6" s="93" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="90" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D6" s="90">
         <v>2</v>
@@ -33475,10 +33475,10 @@
         <v>2100</v>
       </c>
       <c r="B7" s="93" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C7" s="90" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D7" s="90">
         <v>1</v>
@@ -33526,10 +33526,10 @@
         <v>2101</v>
       </c>
       <c r="B8" s="93" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C8" s="90" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D8" s="90">
         <v>1</v>
@@ -33577,10 +33577,10 @@
         <v>2102</v>
       </c>
       <c r="B9" s="93" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C9" s="90" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D9" s="90">
         <v>1</v>
@@ -33628,10 +33628,10 @@
         <v>2103</v>
       </c>
       <c r="B10" s="93" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C10" s="90" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D10" s="90">
         <v>1</v>
@@ -33679,10 +33679,10 @@
         <v>2104</v>
       </c>
       <c r="B11" s="93" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C11" s="90" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D11" s="90">
         <v>1</v>
@@ -33730,10 +33730,10 @@
         <v>2105</v>
       </c>
       <c r="B12" s="93" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C12" s="90" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D12" s="90">
         <v>1</v>
@@ -33781,10 +33781,10 @@
         <v>2106</v>
       </c>
       <c r="B13" s="93" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C13" s="90" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D13" s="90">
         <v>1</v>
@@ -33832,10 +33832,10 @@
         <v>2107</v>
       </c>
       <c r="B14" s="93" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C14" s="90" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D14" s="90">
         <v>1</v>
@@ -33883,10 +33883,10 @@
         <v>2108</v>
       </c>
       <c r="B15" s="93" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C15" s="90" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D15" s="90">
         <v>1</v>
@@ -33934,10 +33934,10 @@
         <v>2109</v>
       </c>
       <c r="B16" s="93" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C16" s="90" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D16" s="90">
         <v>1</v>
@@ -33985,10 +33985,10 @@
         <v>3001</v>
       </c>
       <c r="B17" s="93" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" s="90" t="s">
         <v>175</v>
-      </c>
-      <c r="C17" s="90" t="s">
-        <v>176</v>
       </c>
       <c r="D17" s="90">
         <v>1</v>
@@ -34032,10 +34032,10 @@
         <v>3002</v>
       </c>
       <c r="B18" s="93" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C18" s="90" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D18" s="90">
         <v>2</v>
@@ -34079,10 +34079,10 @@
         <v>3004</v>
       </c>
       <c r="B19" s="93" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C19" s="90" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D19" s="90">
         <v>2</v>
@@ -34130,10 +34130,10 @@
         <v>3005</v>
       </c>
       <c r="B20" s="93" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C20" s="90" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D20" s="90">
         <v>2</v>
@@ -34181,10 +34181,10 @@
         <v>3006</v>
       </c>
       <c r="B21" s="93" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C21" s="90" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D21" s="90">
         <v>2</v>

--- a/pyMaster_loads_tool.xlsx
+++ b/pyMaster_loads_tool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://atlec-my.sharepoint.com/personal/mwo_woodthilsted_com/Documents/Professional/5_PYTHON/pyMasterLoadsTool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="11_8A5DF8D2319AF32EF13E9B2AED69841309E87D61" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45CF6D4B-FCBF-473E-A9E9-D8A8F18C7DE1}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="11_8A5DF8D2319AF32EF13E9B2AED69841309E87D61" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83D54F16-90C7-443E-ABBD-7DDC4607E1FD}"/>
   <bookViews>
-    <workbookView xWindow="8385" yWindow="4260" windowWidth="25860" windowHeight="14880" tabRatio="858" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="858" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Load case definition" sheetId="1" r:id="rId1"/>
@@ -189,9 +189,6 @@
   </si>
   <si>
     <t>Projected</t>
-  </si>
-  <si>
-    <t>Auto detect</t>
   </si>
   <si>
     <t xml:space="preserve"> PX2              PY2             PZ2</t>
@@ -592,6 +589,9 @@
   <si>
     <t xml:space="preserve">         CX              CY             CZ
           </t>
+  </si>
+  <si>
+    <t>Contour index</t>
   </si>
 </sst>
 </file>
@@ -1220,6 +1220,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1238,53 +1245,46 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1847,43 +1847,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="123" t="s">
+      <c r="C1" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="121" t="s">
+      <c r="D1" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
       <c r="K1" s="100" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A2" s="118"/>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="117" t="s">
+      <c r="A2" s="121"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="117" t="s">
+      <c r="E2" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="117" t="s">
+      <c r="F2" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="117" t="s">
+      <c r="G2" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="117" t="s">
+      <c r="H2" s="120" t="s">
         <v>9</v>
       </c>
       <c r="J2" s="100" t="s">
@@ -1897,14 +1897,14 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="118"/>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
+      <c r="A3" s="121"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
       <c r="J3" s="100" t="s">
         <v>12</v>
       </c>
@@ -1916,14 +1916,14 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="118"/>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="118"/>
+      <c r="A4" s="121"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="121"/>
       <c r="J4" s="100" t="s">
         <v>14</v>
       </c>
@@ -1935,14 +1935,14 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="118"/>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="118"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="118"/>
+      <c r="A5" s="121"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
       <c r="J5" s="100" t="s">
         <v>16</v>
       </c>
@@ -1954,14 +1954,14 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="119"/>
-      <c r="B6" s="119"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
+      <c r="A6" s="122"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
       <c r="J6" s="100" t="s">
         <v>18</v>
       </c>
@@ -3821,10 +3821,10 @@
   </sheetPr>
   <dimension ref="A1:AK177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AE13" sqref="AE13"/>
-      <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
+      <selection pane="bottomLeft" activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -3884,256 +3884,256 @@
       <c r="Y1" s="15"/>
       <c r="Z1" s="15"/>
       <c r="AA1" s="15"/>
-      <c r="AC1" s="125" t="s">
+      <c r="AC1" s="142" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" s="126"/>
-      <c r="AE1" s="126"/>
-      <c r="AF1" s="127"/>
+      <c r="AD1" s="138"/>
+      <c r="AE1" s="138"/>
+      <c r="AF1" s="139"/>
     </row>
     <row r="2" spans="1:32" ht="12.4" customHeight="1">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="124" t="s">
+      <c r="B2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="123" t="s">
+      <c r="C2" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="138"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="123" t="s">
+      <c r="D2" s="145"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="140" t="s">
+      <c r="H2" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="142" t="s">
+      <c r="I2" s="141" t="s">
         <v>32</v>
       </c>
       <c r="J2" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="126"/>
-      <c r="Q2" s="126"/>
-      <c r="R2" s="126"/>
-      <c r="S2" s="126"/>
-      <c r="T2" s="126"/>
-      <c r="U2" s="126"/>
-      <c r="V2" s="126"/>
-      <c r="W2" s="126"/>
-      <c r="X2" s="126"/>
-      <c r="Y2" s="126"/>
-      <c r="Z2" s="127"/>
-      <c r="AA2" s="117" t="s">
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="138"/>
+      <c r="P2" s="138"/>
+      <c r="Q2" s="138"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="138"/>
+      <c r="T2" s="138"/>
+      <c r="U2" s="138"/>
+      <c r="V2" s="138"/>
+      <c r="W2" s="138"/>
+      <c r="X2" s="138"/>
+      <c r="Y2" s="138"/>
+      <c r="Z2" s="139"/>
+      <c r="AA2" s="120" t="s">
         <v>34</v>
       </c>
-      <c r="AC2" s="123" t="s">
+      <c r="AC2" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="AD2" s="123" t="s">
+      <c r="AD2" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="AE2" s="123" t="s">
+      <c r="AE2" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="AF2" s="123" t="s">
+      <c r="AF2" s="126" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="12.6" customHeight="1">
-      <c r="A3" s="118"/>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
+      <c r="A3" s="121"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
       <c r="D3" s="131"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="118"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="121"/>
       <c r="H3" s="131"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="141" t="s">
+      <c r="I3" s="121"/>
+      <c r="J3" s="140" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="136"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="135" t="s">
+      <c r="K3" s="133"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="144" t="s">
+        <v>176</v>
+      </c>
+      <c r="N3" s="133"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="126" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="133"/>
+      <c r="R3" s="134"/>
+      <c r="S3" s="120" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3" s="133"/>
+      <c r="U3" s="134"/>
+      <c r="V3" s="120" t="s">
+        <v>42</v>
+      </c>
+      <c r="W3" s="120" t="s">
+        <v>43</v>
+      </c>
+      <c r="X3" s="134"/>
+      <c r="Y3" s="120" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z3" s="120" t="s">
         <v>177</v>
       </c>
-      <c r="N3" s="136"/>
-      <c r="O3" s="130"/>
-      <c r="P3" s="123" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="130"/>
-      <c r="S3" s="117" t="s">
-        <v>41</v>
-      </c>
-      <c r="T3" s="136"/>
-      <c r="U3" s="130"/>
-      <c r="V3" s="117" t="s">
-        <v>42</v>
-      </c>
-      <c r="W3" s="117" t="s">
-        <v>43</v>
-      </c>
-      <c r="X3" s="130"/>
-      <c r="Y3" s="117" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z3" s="117" t="s">
+      <c r="AA3" s="121"/>
+      <c r="AC3" s="121"/>
+      <c r="AD3" s="121"/>
+      <c r="AE3" s="121"/>
+      <c r="AF3" s="121"/>
+    </row>
+    <row r="4" spans="1:32" ht="12.6" customHeight="1">
+      <c r="A4" s="121"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="131"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="135"/>
+      <c r="L4" s="129"/>
+      <c r="M4" s="131"/>
+      <c r="N4" s="135"/>
+      <c r="O4" s="129"/>
+      <c r="P4" s="131"/>
+      <c r="Q4" s="135"/>
+      <c r="R4" s="129"/>
+      <c r="S4" s="131"/>
+      <c r="T4" s="135"/>
+      <c r="U4" s="129"/>
+      <c r="V4" s="121"/>
+      <c r="W4" s="131"/>
+      <c r="X4" s="129"/>
+      <c r="Y4" s="121"/>
+      <c r="Z4" s="121"/>
+      <c r="AA4" s="121"/>
+      <c r="AC4" s="121"/>
+      <c r="AD4" s="121"/>
+      <c r="AE4" s="121"/>
+      <c r="AF4" s="121"/>
+    </row>
+    <row r="5" spans="1:32" ht="25.15" customHeight="1">
+      <c r="A5" s="121"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="131"/>
+      <c r="K5" s="135"/>
+      <c r="L5" s="129"/>
+      <c r="M5" s="131"/>
+      <c r="N5" s="135"/>
+      <c r="O5" s="129"/>
+      <c r="P5" s="131"/>
+      <c r="Q5" s="135"/>
+      <c r="R5" s="129"/>
+      <c r="S5" s="131"/>
+      <c r="T5" s="135"/>
+      <c r="U5" s="129"/>
+      <c r="V5" s="121"/>
+      <c r="W5" s="131"/>
+      <c r="X5" s="129"/>
+      <c r="Y5" s="121"/>
+      <c r="Z5" s="121"/>
+      <c r="AA5" s="121"/>
+      <c r="AC5" s="121"/>
+      <c r="AD5" s="121"/>
+      <c r="AE5" s="121"/>
+      <c r="AF5" s="121"/>
+    </row>
+    <row r="6" spans="1:32" ht="12.6" customHeight="1">
+      <c r="A6" s="121"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="132"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="136"/>
+      <c r="M6" s="132"/>
+      <c r="N6" s="125"/>
+      <c r="O6" s="136"/>
+      <c r="P6" s="131"/>
+      <c r="Q6" s="135"/>
+      <c r="R6" s="129"/>
+      <c r="S6" s="132"/>
+      <c r="T6" s="125"/>
+      <c r="U6" s="136"/>
+      <c r="V6" s="121"/>
+      <c r="W6" s="131"/>
+      <c r="X6" s="129"/>
+      <c r="Y6" s="121"/>
+      <c r="Z6" s="121"/>
+      <c r="AA6" s="121"/>
+      <c r="AC6" s="121"/>
+      <c r="AD6" s="121"/>
+      <c r="AE6" s="121"/>
+      <c r="AF6" s="121"/>
+    </row>
+    <row r="7" spans="1:32">
+      <c r="A7" s="122"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="AA3" s="118"/>
-      <c r="AC3" s="118"/>
-      <c r="AD3" s="118"/>
-      <c r="AE3" s="118"/>
-      <c r="AF3" s="118"/>
-    </row>
-    <row r="4" spans="1:32" ht="12.6" customHeight="1">
-      <c r="A4" s="118"/>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="129"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="131"/>
-      <c r="K4" s="129"/>
-      <c r="L4" s="132"/>
-      <c r="M4" s="131"/>
-      <c r="N4" s="129"/>
-      <c r="O4" s="132"/>
-      <c r="P4" s="131"/>
-      <c r="Q4" s="129"/>
-      <c r="R4" s="132"/>
-      <c r="S4" s="131"/>
-      <c r="T4" s="129"/>
-      <c r="U4" s="132"/>
-      <c r="V4" s="118"/>
-      <c r="W4" s="131"/>
-      <c r="X4" s="132"/>
-      <c r="Y4" s="118"/>
-      <c r="Z4" s="118"/>
-      <c r="AA4" s="118"/>
-      <c r="AC4" s="118"/>
-      <c r="AD4" s="118"/>
-      <c r="AE4" s="118"/>
-      <c r="AF4" s="118"/>
-    </row>
-    <row r="5" spans="1:32" ht="25.15" customHeight="1">
-      <c r="A5" s="118"/>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="131"/>
-      <c r="K5" s="129"/>
-      <c r="L5" s="132"/>
-      <c r="M5" s="131"/>
-      <c r="N5" s="129"/>
-      <c r="O5" s="132"/>
-      <c r="P5" s="131"/>
-      <c r="Q5" s="129"/>
-      <c r="R5" s="132"/>
-      <c r="S5" s="131"/>
-      <c r="T5" s="129"/>
-      <c r="U5" s="132"/>
-      <c r="V5" s="118"/>
-      <c r="W5" s="131"/>
-      <c r="X5" s="132"/>
-      <c r="Y5" s="118"/>
-      <c r="Z5" s="118"/>
-      <c r="AA5" s="118"/>
-      <c r="AC5" s="118"/>
-      <c r="AD5" s="118"/>
-      <c r="AE5" s="118"/>
-      <c r="AF5" s="118"/>
-    </row>
-    <row r="6" spans="1:32" ht="12.6" customHeight="1">
-      <c r="A6" s="118"/>
-      <c r="B6" s="118"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="122"/>
-      <c r="L6" s="134"/>
-      <c r="M6" s="133"/>
-      <c r="N6" s="122"/>
-      <c r="O6" s="134"/>
-      <c r="P6" s="131"/>
-      <c r="Q6" s="129"/>
-      <c r="R6" s="132"/>
-      <c r="S6" s="133"/>
-      <c r="T6" s="122"/>
-      <c r="U6" s="134"/>
-      <c r="V6" s="118"/>
-      <c r="W6" s="131"/>
-      <c r="X6" s="132"/>
-      <c r="Y6" s="118"/>
-      <c r="Z6" s="118"/>
-      <c r="AA6" s="118"/>
-      <c r="AC6" s="118"/>
-      <c r="AD6" s="118"/>
-      <c r="AE6" s="118"/>
-      <c r="AF6" s="118"/>
-    </row>
-    <row r="7" spans="1:32">
-      <c r="A7" s="119"/>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="133"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="137" t="s">
+      <c r="K7" s="138"/>
+      <c r="L7" s="139"/>
+      <c r="M7" s="137" t="s">
         <v>46</v>
       </c>
-      <c r="K7" s="126"/>
-      <c r="L7" s="127"/>
-      <c r="M7" s="137" t="s">
+      <c r="N7" s="138"/>
+      <c r="O7" s="139"/>
+      <c r="P7" s="132"/>
+      <c r="Q7" s="125"/>
+      <c r="R7" s="136"/>
+      <c r="S7" s="137" t="s">
         <v>47</v>
       </c>
-      <c r="N7" s="126"/>
-      <c r="O7" s="127"/>
-      <c r="P7" s="133"/>
-      <c r="Q7" s="122"/>
-      <c r="R7" s="134"/>
-      <c r="S7" s="137" t="s">
-        <v>48</v>
-      </c>
-      <c r="T7" s="126"/>
-      <c r="U7" s="127"/>
-      <c r="V7" s="119"/>
-      <c r="W7" s="133"/>
-      <c r="X7" s="134"/>
-      <c r="Y7" s="119"/>
-      <c r="Z7" s="119"/>
-      <c r="AA7" s="119"/>
-      <c r="AC7" s="119"/>
-      <c r="AD7" s="119"/>
-      <c r="AE7" s="119"/>
-      <c r="AF7" s="119"/>
+      <c r="T7" s="138"/>
+      <c r="U7" s="139"/>
+      <c r="V7" s="122"/>
+      <c r="W7" s="132"/>
+      <c r="X7" s="136"/>
+      <c r="Y7" s="122"/>
+      <c r="Z7" s="122"/>
+      <c r="AA7" s="122"/>
+      <c r="AC7" s="122"/>
+      <c r="AD7" s="122"/>
+      <c r="AE7" s="122"/>
+      <c r="AF7" s="122"/>
     </row>
     <row r="8" spans="1:32">
       <c r="A8" s="108">
@@ -4148,7 +4148,7 @@
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="18" t="str">
@@ -4156,7 +4156,7 @@
         <v>1:STA1</v>
       </c>
       <c r="H8" s="40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I8" s="96">
         <v>1</v>
@@ -4183,7 +4183,7 @@
       <c r="AD8" s="60"/>
       <c r="AE8" s="60"/>
       <c r="AF8" s="60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:32">
@@ -4195,7 +4195,7 @@
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="19" t="str">
@@ -4204,7 +4204,7 @@
       </c>
       <c r="H9" s="40"/>
       <c r="I9" s="96" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J9" s="77">
         <v>0</v>
@@ -4244,7 +4244,7 @@
       </c>
       <c r="V9" s="80"/>
       <c r="W9" s="81" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X9" s="72"/>
       <c r="Y9" s="15">
@@ -4256,7 +4256,7 @@
       <c r="AD9" s="61"/>
       <c r="AE9" s="61"/>
       <c r="AF9" s="61" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:32">
@@ -4275,7 +4275,7 @@
       </c>
       <c r="H10" s="40"/>
       <c r="I10" s="96" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J10" s="77">
         <v>0</v>
@@ -4315,7 +4315,7 @@
       </c>
       <c r="V10" s="80"/>
       <c r="W10" s="81" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X10" s="72"/>
       <c r="Y10" s="15">
@@ -4327,7 +4327,7 @@
       <c r="AD10" s="61"/>
       <c r="AE10" s="61"/>
       <c r="AF10" s="61" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:32">
@@ -4339,7 +4339,7 @@
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="19" t="str">
@@ -4348,7 +4348,7 @@
       </c>
       <c r="H11" s="40"/>
       <c r="I11" s="96" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J11" s="77">
         <v>0</v>
@@ -4388,7 +4388,7 @@
       </c>
       <c r="V11" s="80"/>
       <c r="W11" s="81" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X11" s="72"/>
       <c r="Y11" s="15">
@@ -4400,7 +4400,7 @@
       <c r="AD11" s="61"/>
       <c r="AE11" s="61"/>
       <c r="AF11" s="61" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -4412,7 +4412,7 @@
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="19" t="str">
@@ -4421,7 +4421,7 @@
       </c>
       <c r="H12" s="40"/>
       <c r="I12" s="97" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J12" s="77">
         <v>0</v>
@@ -4461,7 +4461,7 @@
       </c>
       <c r="V12" s="61"/>
       <c r="W12" s="81" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X12" s="72"/>
       <c r="Y12" s="15">
@@ -4483,7 +4483,7 @@
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="19" t="str">
@@ -4524,7 +4524,7 @@
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="19" t="str">
@@ -4643,7 +4643,7 @@
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="19" t="str">
@@ -4762,7 +4762,7 @@
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="19" t="str">
@@ -4881,7 +4881,7 @@
       </c>
       <c r="D23" s="15"/>
       <c r="E23" s="56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F23" s="15"/>
       <c r="G23" s="19" t="str">
@@ -5000,7 +5000,7 @@
       </c>
       <c r="D26" s="15"/>
       <c r="E26" s="56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F26" s="15"/>
       <c r="G26" s="19" t="str">
@@ -5119,7 +5119,7 @@
       </c>
       <c r="D29" s="15"/>
       <c r="E29" s="56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="19" t="str">
@@ -5238,7 +5238,7 @@
       </c>
       <c r="D32" s="15"/>
       <c r="E32" s="56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F32" s="15"/>
       <c r="G32" s="19" t="str">
@@ -5357,7 +5357,7 @@
       </c>
       <c r="D35" s="15"/>
       <c r="E35" s="56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="19" t="str">
@@ -10929,17 +10929,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="F2:F7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="Y3:Y7"/>
-    <mergeCell ref="S3:U6"/>
-    <mergeCell ref="P3:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="J3:L6"/>
-    <mergeCell ref="G2:G7"/>
-    <mergeCell ref="I2:I7"/>
-    <mergeCell ref="J7:L7"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="C2:C7"/>
@@ -10956,6 +10945,17 @@
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="AE2:AE7"/>
     <mergeCell ref="D2:D7"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="Y3:Y7"/>
+    <mergeCell ref="S3:U6"/>
+    <mergeCell ref="P3:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="J3:L6"/>
+    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="I2:I7"/>
+    <mergeCell ref="J7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:I1048576">
     <cfRule type="expression" dxfId="28" priority="41">
@@ -11057,7 +11057,7 @@
       <formula>$H8 &lt;&gt; "(FE) uniform"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" xWindow="1747" yWindow="323" count="25">
+  <dataValidations xWindow="1747" yWindow="323" count="25">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="(FOR TRAPEZOIDAL LOADS ONLY)_x000a_PX1 - Enter your starting load in the X direction (kN/m)_x000a__x000a_PY1 - Enter your starting load in the Y direction (kN/m)_x000a__x000a_PZ1 - Enter your starting load in the Z direction (kN/m)" sqref="M7:O7" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="(FOR TRAPEZOIDAL LOADS ONLY)_x000a_x2 - Absolute or relative distance of end of load along a member (m or m/L)_x000a__x000a_x1 - Absolute or relative distance of start of load along a member (m or m/L)" sqref="S7:U7" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="(FOR TRAPEZOIDAL LOADS ONLY)_x000a_PX2 - Enter your finishing load in the X direction (kN/m)_x000a__x000a_PY2 - Enter your finishing load in the Y direction (kN/m)_x000a__x000a_PZ2 - Enter your finishing load in the Z direction (kN/m)" sqref="J7:L7" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
@@ -11088,7 +11088,7 @@
       <formula2>150</formula2>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="1-Projected, 0- Not projected_x000a_" sqref="Y3:Y7" xr:uid="{00000000-0002-0000-0100-000016000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="1, 0 - For load on contour auto detect panels_x000a_" sqref="Z3:Z7" xr:uid="{00000000-0002-0000-0100-000017000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Contour identification index_x000a_" sqref="Z3:Z7" xr:uid="{00000000-0002-0000-0100-000017000000}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H177" xr:uid="{69C6861F-E4DE-4C73-AD67-80357667F890}">
       <formula1>"(FE) uniform, nodal force, member force, self-weight, trapezoidal load (2p), uniform load, (FE) linear load on edges, load on contour, load 3p on contour"</formula1>
     </dataValidation>
@@ -11500,17 +11500,17 @@
     </row>
     <row r="3" spans="1:4605" s="7" customFormat="1" ht="218.65" customHeight="1">
       <c r="A3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="53" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="69" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F3" s="69" t="s">
         <v>7</v>
@@ -16123,12 +16123,12 @@
       <c r="A4" s="3"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="143" t="s">
+      <c r="D4" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="133"/>
       <c r="H4" s="84">
         <v>1</v>
       </c>
@@ -20735,9 +20735,9 @@
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
       <c r="D5" s="131"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
       <c r="H5" s="84"/>
       <c r="I5" s="84"/>
       <c r="J5" s="84"/>
@@ -21108,19 +21108,19 @@
       <c r="NK5" s="50"/>
     </row>
     <row r="6" spans="1:4605" s="4" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A6" s="147" t="s">
+      <c r="A6" s="119" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="119" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="147" t="s">
+      <c r="C6" s="119" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="147" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="145"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
       <c r="H6" s="84"/>
       <c r="I6" s="84"/>
       <c r="J6" s="84"/>
@@ -31997,81 +31997,81 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
         <v>61</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" t="s">
         <v>62</v>
       </c>
-      <c r="G1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" t="s">
         <v>63</v>
       </c>
-      <c r="M1" t="s">
-        <v>61</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="S1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T1" t="s">
         <v>64</v>
-      </c>
-      <c r="S1" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="100" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="100" t="s">
+      <c r="C2" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="100" t="s">
+      <c r="D2" t="s">
         <v>68</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P2" t="s">
+        <v>68</v>
+      </c>
+      <c r="S2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T2" t="s">
+        <v>66</v>
+      </c>
+      <c r="U2" t="s">
+        <v>67</v>
+      </c>
+      <c r="V2" t="s">
+        <v>68</v>
+      </c>
+      <c r="W2" t="s">
         <v>69</v>
-      </c>
-      <c r="G2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J2" t="s">
-        <v>69</v>
-      </c>
-      <c r="M2" t="s">
-        <v>66</v>
-      </c>
-      <c r="N2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P2" t="s">
-        <v>69</v>
-      </c>
-      <c r="S2" t="s">
-        <v>66</v>
-      </c>
-      <c r="T2" t="s">
-        <v>67</v>
-      </c>
-      <c r="U2" t="s">
-        <v>68</v>
-      </c>
-      <c r="V2" t="s">
-        <v>69</v>
-      </c>
-      <c r="W2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -32124,7 +32124,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -32177,7 +32177,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -32230,7 +32230,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -32428,81 +32428,81 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
         <v>61</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" t="s">
         <v>62</v>
       </c>
-      <c r="G1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" t="s">
         <v>63</v>
       </c>
-      <c r="M1" t="s">
-        <v>61</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="S1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T1" t="s">
         <v>64</v>
-      </c>
-      <c r="S1" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="100" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="100" t="s">
+      <c r="C2" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="100" t="s">
+      <c r="D2" t="s">
         <v>68</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P2" t="s">
+        <v>68</v>
+      </c>
+      <c r="S2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T2" t="s">
+        <v>66</v>
+      </c>
+      <c r="U2" t="s">
+        <v>67</v>
+      </c>
+      <c r="V2" t="s">
+        <v>68</v>
+      </c>
+      <c r="W2" t="s">
         <v>69</v>
-      </c>
-      <c r="G2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J2" t="s">
-        <v>69</v>
-      </c>
-      <c r="M2" t="s">
-        <v>66</v>
-      </c>
-      <c r="N2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P2" t="s">
-        <v>69</v>
-      </c>
-      <c r="S2" t="s">
-        <v>66</v>
-      </c>
-      <c r="T2" t="s">
-        <v>67</v>
-      </c>
-      <c r="U2" t="s">
-        <v>68</v>
-      </c>
-      <c r="V2" t="s">
-        <v>69</v>
-      </c>
-      <c r="W2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -32555,7 +32555,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -32608,7 +32608,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -32661,7 +32661,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -32880,7 +32880,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
       <c r="A1" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F1" s="24">
         <v>0.5</v>
@@ -32889,77 +32889,77 @@
         <v>0.1</v>
       </c>
       <c r="M1" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="S1" s="17" t="s">
         <v>75</v>
-      </c>
-      <c r="S1" s="17" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" customHeight="1">
       <c r="A2" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="C2" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="D2" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="E2" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="F2" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="G2" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="H2" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="J2" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="K2" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="M2" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="M2" s="17" t="s">
-        <v>87</v>
-      </c>
       <c r="N2" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O2" s="17">
         <v>1</v>
       </c>
       <c r="P2" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="S2" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="S2" s="17" t="s">
+      <c r="T2" s="17" t="s">
         <v>89</v>
-      </c>
-      <c r="T2" s="17" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="39" customHeight="1">
       <c r="A3" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="C3" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="17" t="s">
+      <c r="E3" s="17" t="s">
         <v>93</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>94</v>
       </c>
       <c r="F3" s="25" t="e">
         <f>PlatformName &amp;" member utilisations $&gt;" &amp;F1&amp;"$"</f>
@@ -32974,107 +32974,107 @@
         <v>#REF!</v>
       </c>
       <c r="J3" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="K3" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="M3" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="M3" s="17" t="s">
-        <v>97</v>
-      </c>
       <c r="N3" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O3" s="17">
         <v>1</v>
       </c>
       <c r="P3" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S3" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="T3" s="26" t="s">
         <v>98</v>
-      </c>
-      <c r="T3" s="26" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1">
       <c r="A4" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="C4" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="H4" s="25" t="s">
+      <c r="M4" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="M4" s="17" t="s">
-        <v>103</v>
-      </c>
       <c r="N4" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O4" s="17">
         <v>1</v>
       </c>
       <c r="P4" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S4" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1">
       <c r="B5" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="H5" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="H5" s="25" t="s">
+      <c r="M5" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="M5" s="17" t="s">
-        <v>107</v>
-      </c>
       <c r="N5" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O5" s="17">
         <v>1</v>
       </c>
       <c r="P5" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S5" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" customHeight="1">
@@ -33103,19 +33103,19 @@
         <v>#REF!</v>
       </c>
       <c r="H6" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="M6" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="M6" s="17" t="s">
-        <v>110</v>
-      </c>
       <c r="N6" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O6" s="17">
         <v>1</v>
       </c>
       <c r="P6" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S6" s="17" t="e">
         <f>"\includegraphics[width=\textwidth]{\"&amp;LaTeXFiguresFolder &amp;"\"&amp;PlatformName&amp; " "&amp;S3&amp;".png} "</f>
@@ -33148,61 +33148,61 @@
         <v>#REF!</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J7" s="17">
         <f>COLUMN(J1)</f>
         <v>10</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O7" s="17">
         <v>1</v>
       </c>
       <c r="P7" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S7" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1">
       <c r="B8" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="D8" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="E8" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="F8" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="G8" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="H8" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="M8" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="M8" s="17" t="s">
-        <v>122</v>
-      </c>
       <c r="N8" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O8" s="17">
         <v>1</v>
       </c>
       <c r="P8" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S8" s="17" t="e">
         <f>"    \caption{" &amp;PlatformName&amp; " " &amp; S3 &amp;".}"</f>
@@ -33211,37 +33211,37 @@
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1">
       <c r="B9" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="D9" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="E9" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="F9" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="G9" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="H9" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="M9" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="H9" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="M9" s="17" t="s">
-        <v>129</v>
-      </c>
       <c r="N9" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O9" s="17">
         <v>1</v>
       </c>
       <c r="P9" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S9" s="17" t="e">
         <f>"    \label{tabl:" &amp; PlatformName &amp;" "&amp;S3 &amp;"}"</f>
@@ -33250,107 +33250,107 @@
     </row>
     <row r="10" spans="1:20" ht="16.5" customHeight="1">
       <c r="B10" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="D10" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="E10" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="F10" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="G10" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="H10" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="G10" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="H10" s="25" t="s">
+      <c r="M10" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="M10" s="17" t="s">
-        <v>136</v>
-      </c>
       <c r="N10" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O10" s="17">
         <v>1</v>
       </c>
       <c r="P10" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="16.5" customHeight="1">
       <c r="B11" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="H11" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="C11" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="D11" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="E11" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="F11" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="G11" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="H11" s="25" t="s">
+      <c r="M11" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="M11" s="17" t="s">
-        <v>139</v>
-      </c>
       <c r="N11" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O11" s="17">
         <v>1</v>
       </c>
       <c r="P11" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1">
       <c r="H12" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="M12" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="M12" s="17" t="s">
-        <v>141</v>
-      </c>
       <c r="N12" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O12" s="17">
         <v>1</v>
       </c>
       <c r="P12" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="16.5" customHeight="1">
       <c r="C13" s="47"/>
       <c r="H13" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="M13" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="M13" s="17" t="s">
-        <v>143</v>
-      </c>
       <c r="N13" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O13" s="17">
         <v>1</v>
       </c>
       <c r="P13" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="16.5" customHeight="1">
@@ -33360,16 +33360,16 @@
         <v>#REF!</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N14" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O14" s="17">
         <v>1</v>
       </c>
       <c r="P14" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S14" s="26"/>
     </row>
@@ -33380,49 +33380,49 @@
         <v>#REF!</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N15" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O15" s="17">
         <v>1</v>
       </c>
       <c r="P15" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="16.5" customHeight="1">
       <c r="C16" s="47"/>
       <c r="H16" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="M16" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="M16" s="17" t="s">
-        <v>147</v>
-      </c>
       <c r="N16" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="17">
         <v>1</v>
       </c>
       <c r="P16" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="3:16" ht="16.5" customHeight="1">
       <c r="C17" s="47"/>
       <c r="M17" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="17">
         <v>1</v>
       </c>
       <c r="P17" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="3:16" ht="16.5" customHeight="1">
@@ -33486,79 +33486,79 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="C1" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="30" t="s">
+      <c r="E1" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="F1" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="N1" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="O1" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="P1" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q1" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="R1" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="S1" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="T1" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="U1" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="V1" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="W1" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="X1" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F1" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="I1" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="J1" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="K1" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="L1" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="M1" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="N1" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="O1" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="P1" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q1" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="R1" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="S1" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="T1" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="U1" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="V1" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="W1" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="X1" s="33" t="s">
+      <c r="Y1" s="29" t="s">
         <v>153</v>
-      </c>
-      <c r="Y1" s="29" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -33566,10 +33566,10 @@
         <v>1000</v>
       </c>
       <c r="B2" s="86" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="87" t="s">
         <v>155</v>
-      </c>
-      <c r="C2" s="87" t="s">
-        <v>156</v>
       </c>
       <c r="D2" s="85">
         <v>1</v>
@@ -33609,10 +33609,10 @@
         <v>1001</v>
       </c>
       <c r="B3" s="90" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C3" s="87" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D3" s="87">
         <v>2</v>
@@ -33652,10 +33652,10 @@
         <v>2000</v>
       </c>
       <c r="B4" s="90" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C4" s="87" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D4" s="87">
         <v>2</v>
@@ -33703,10 +33703,10 @@
         <v>2001</v>
       </c>
       <c r="B5" s="90" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C5" s="87" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D5" s="87">
         <v>2</v>
@@ -33754,10 +33754,10 @@
         <v>2002</v>
       </c>
       <c r="B6" s="90" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C6" s="87" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D6" s="87">
         <v>2</v>
@@ -33805,10 +33805,10 @@
         <v>2100</v>
       </c>
       <c r="B7" s="90" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C7" s="87" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D7" s="87">
         <v>1</v>
@@ -33856,10 +33856,10 @@
         <v>2101</v>
       </c>
       <c r="B8" s="90" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C8" s="87" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D8" s="87">
         <v>1</v>
@@ -33907,10 +33907,10 @@
         <v>2102</v>
       </c>
       <c r="B9" s="90" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C9" s="87" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D9" s="87">
         <v>1</v>
@@ -33958,10 +33958,10 @@
         <v>2103</v>
       </c>
       <c r="B10" s="90" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="87" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D10" s="87">
         <v>1</v>
@@ -34009,10 +34009,10 @@
         <v>2104</v>
       </c>
       <c r="B11" s="90" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C11" s="87" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D11" s="87">
         <v>1</v>
@@ -34060,10 +34060,10 @@
         <v>2105</v>
       </c>
       <c r="B12" s="90" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C12" s="87" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D12" s="87">
         <v>1</v>
@@ -34111,10 +34111,10 @@
         <v>2106</v>
       </c>
       <c r="B13" s="90" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C13" s="87" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D13" s="87">
         <v>1</v>
@@ -34162,10 +34162,10 @@
         <v>2107</v>
       </c>
       <c r="B14" s="90" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C14" s="87" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D14" s="87">
         <v>1</v>
@@ -34213,10 +34213,10 @@
         <v>2108</v>
       </c>
       <c r="B15" s="90" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C15" s="87" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D15" s="87">
         <v>1</v>
@@ -34264,10 +34264,10 @@
         <v>2109</v>
       </c>
       <c r="B16" s="90" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C16" s="87" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D16" s="87">
         <v>1</v>
@@ -34315,10 +34315,10 @@
         <v>3001</v>
       </c>
       <c r="B17" s="90" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="87" t="s">
         <v>171</v>
-      </c>
-      <c r="C17" s="87" t="s">
-        <v>172</v>
       </c>
       <c r="D17" s="87">
         <v>1</v>
@@ -34362,10 +34362,10 @@
         <v>3002</v>
       </c>
       <c r="B18" s="90" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C18" s="87" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D18" s="87">
         <v>2</v>
@@ -34409,10 +34409,10 @@
         <v>3004</v>
       </c>
       <c r="B19" s="90" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C19" s="87" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D19" s="87">
         <v>2</v>
@@ -34460,10 +34460,10 @@
         <v>3005</v>
       </c>
       <c r="B20" s="90" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C20" s="87" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D20" s="87">
         <v>2</v>
@@ -34511,10 +34511,10 @@
         <v>3006</v>
       </c>
       <c r="B21" s="90" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C21" s="87" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D21" s="87">
         <v>2</v>

--- a/pyMaster_loads_tool.xlsx
+++ b/pyMaster_loads_tool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://atlec-my.sharepoint.com/personal/mwo_woodthilsted_com/Documents/Professional/5_PYTHON/pyMasterLoadsTool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="11_8A5DF8D2319AF32EF13E9B2AED69841309E87D61" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83D54F16-90C7-443E-ABBD-7DDC4607E1FD}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="11_8A5DF8D2319AF32EF13E9B2AED69841309E87D61" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45CF6D4B-FCBF-473E-A9E9-D8A8F18C7DE1}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="858" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8385" yWindow="4260" windowWidth="25860" windowHeight="14880" tabRatio="858" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Load case definition" sheetId="1" r:id="rId1"/>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>Projected</t>
+  </si>
+  <si>
+    <t>Auto detect</t>
   </si>
   <si>
     <t xml:space="preserve"> PX2              PY2             PZ2</t>
@@ -589,9 +592,6 @@
   <si>
     <t xml:space="preserve">         CX              CY             CZ
           </t>
-  </si>
-  <si>
-    <t>Contour index</t>
   </si>
 </sst>
 </file>
@@ -1220,13 +1220,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1245,46 +1238,53 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1847,43 +1847,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="126" t="s">
+      <c r="C1" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="124" t="s">
+      <c r="D1" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
       <c r="K1" s="100" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A2" s="121"/>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="120" t="s">
+      <c r="A2" s="118"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="120" t="s">
+      <c r="E2" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="120" t="s">
+      <c r="F2" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="120" t="s">
+      <c r="G2" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="120" t="s">
+      <c r="H2" s="117" t="s">
         <v>9</v>
       </c>
       <c r="J2" s="100" t="s">
@@ -1897,14 +1897,14 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="121"/>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
+      <c r="A3" s="118"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
       <c r="J3" s="100" t="s">
         <v>12</v>
       </c>
@@ -1916,14 +1916,14 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="121"/>
-      <c r="B4" s="121"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="121"/>
+      <c r="A4" s="118"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
       <c r="J4" s="100" t="s">
         <v>14</v>
       </c>
@@ -1935,14 +1935,14 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="121"/>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
+      <c r="A5" s="118"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
       <c r="J5" s="100" t="s">
         <v>16</v>
       </c>
@@ -1954,14 +1954,14 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="122"/>
-      <c r="B6" s="122"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
+      <c r="A6" s="119"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
       <c r="J6" s="100" t="s">
         <v>18</v>
       </c>
@@ -3821,10 +3821,10 @@
   </sheetPr>
   <dimension ref="A1:AK177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AE13" sqref="AE13"/>
-      <selection pane="bottomLeft" activeCell="Z9" sqref="Z9"/>
+      <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -3884,256 +3884,256 @@
       <c r="Y1" s="15"/>
       <c r="Z1" s="15"/>
       <c r="AA1" s="15"/>
-      <c r="AC1" s="142" t="s">
+      <c r="AC1" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" s="138"/>
-      <c r="AE1" s="138"/>
-      <c r="AF1" s="139"/>
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="127"/>
     </row>
     <row r="2" spans="1:32" ht="12.4" customHeight="1">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="126" t="s">
+      <c r="C2" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="145"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="126" t="s">
+      <c r="D2" s="138"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="130" t="s">
+      <c r="H2" s="140" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="141" t="s">
+      <c r="I2" s="142" t="s">
         <v>32</v>
       </c>
       <c r="J2" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="138"/>
-      <c r="L2" s="138"/>
-      <c r="M2" s="138"/>
-      <c r="N2" s="138"/>
-      <c r="O2" s="138"/>
-      <c r="P2" s="138"/>
-      <c r="Q2" s="138"/>
-      <c r="R2" s="138"/>
-      <c r="S2" s="138"/>
-      <c r="T2" s="138"/>
-      <c r="U2" s="138"/>
-      <c r="V2" s="138"/>
-      <c r="W2" s="138"/>
-      <c r="X2" s="138"/>
-      <c r="Y2" s="138"/>
-      <c r="Z2" s="139"/>
-      <c r="AA2" s="120" t="s">
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="126"/>
+      <c r="U2" s="126"/>
+      <c r="V2" s="126"/>
+      <c r="W2" s="126"/>
+      <c r="X2" s="126"/>
+      <c r="Y2" s="126"/>
+      <c r="Z2" s="127"/>
+      <c r="AA2" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="AC2" s="126" t="s">
+      <c r="AC2" s="123" t="s">
         <v>35</v>
       </c>
-      <c r="AD2" s="126" t="s">
+      <c r="AD2" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="AE2" s="126" t="s">
+      <c r="AE2" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="AF2" s="126" t="s">
+      <c r="AF2" s="123" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="12.6" customHeight="1">
-      <c r="A3" s="121"/>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
+      <c r="A3" s="118"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
       <c r="D3" s="131"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="121"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="118"/>
       <c r="H3" s="131"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="140" t="s">
+      <c r="I3" s="118"/>
+      <c r="J3" s="141" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="133"/>
-      <c r="L3" s="134"/>
-      <c r="M3" s="144" t="s">
-        <v>176</v>
-      </c>
-      <c r="N3" s="133"/>
-      <c r="O3" s="134"/>
-      <c r="P3" s="126" t="s">
+      <c r="K3" s="136"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="135" t="s">
+        <v>177</v>
+      </c>
+      <c r="N3" s="136"/>
+      <c r="O3" s="130"/>
+      <c r="P3" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="133"/>
-      <c r="R3" s="134"/>
-      <c r="S3" s="120" t="s">
+      <c r="Q3" s="136"/>
+      <c r="R3" s="130"/>
+      <c r="S3" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="T3" s="133"/>
-      <c r="U3" s="134"/>
-      <c r="V3" s="120" t="s">
+      <c r="T3" s="136"/>
+      <c r="U3" s="130"/>
+      <c r="V3" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="W3" s="120" t="s">
+      <c r="W3" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="X3" s="134"/>
-      <c r="Y3" s="120" t="s">
+      <c r="X3" s="130"/>
+      <c r="Y3" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="Z3" s="120" t="s">
-        <v>177</v>
-      </c>
-      <c r="AA3" s="121"/>
-      <c r="AC3" s="121"/>
-      <c r="AD3" s="121"/>
-      <c r="AE3" s="121"/>
-      <c r="AF3" s="121"/>
+      <c r="Z3" s="117" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA3" s="118"/>
+      <c r="AC3" s="118"/>
+      <c r="AD3" s="118"/>
+      <c r="AE3" s="118"/>
+      <c r="AF3" s="118"/>
     </row>
     <row r="4" spans="1:32" ht="12.6" customHeight="1">
-      <c r="A4" s="121"/>
-      <c r="B4" s="121"/>
-      <c r="C4" s="121"/>
+      <c r="A4" s="118"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
       <c r="D4" s="131"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="121"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="118"/>
       <c r="H4" s="131"/>
-      <c r="I4" s="121"/>
+      <c r="I4" s="118"/>
       <c r="J4" s="131"/>
-      <c r="K4" s="135"/>
-      <c r="L4" s="129"/>
+      <c r="K4" s="129"/>
+      <c r="L4" s="132"/>
       <c r="M4" s="131"/>
-      <c r="N4" s="135"/>
-      <c r="O4" s="129"/>
+      <c r="N4" s="129"/>
+      <c r="O4" s="132"/>
       <c r="P4" s="131"/>
-      <c r="Q4" s="135"/>
-      <c r="R4" s="129"/>
+      <c r="Q4" s="129"/>
+      <c r="R4" s="132"/>
       <c r="S4" s="131"/>
-      <c r="T4" s="135"/>
-      <c r="U4" s="129"/>
-      <c r="V4" s="121"/>
+      <c r="T4" s="129"/>
+      <c r="U4" s="132"/>
+      <c r="V4" s="118"/>
       <c r="W4" s="131"/>
-      <c r="X4" s="129"/>
-      <c r="Y4" s="121"/>
-      <c r="Z4" s="121"/>
-      <c r="AA4" s="121"/>
-      <c r="AC4" s="121"/>
-      <c r="AD4" s="121"/>
-      <c r="AE4" s="121"/>
-      <c r="AF4" s="121"/>
+      <c r="X4" s="132"/>
+      <c r="Y4" s="118"/>
+      <c r="Z4" s="118"/>
+      <c r="AA4" s="118"/>
+      <c r="AC4" s="118"/>
+      <c r="AD4" s="118"/>
+      <c r="AE4" s="118"/>
+      <c r="AF4" s="118"/>
     </row>
     <row r="5" spans="1:32" ht="25.15" customHeight="1">
-      <c r="A5" s="121"/>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
+      <c r="A5" s="118"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
       <c r="D5" s="131"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="121"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="118"/>
       <c r="H5" s="131"/>
-      <c r="I5" s="121"/>
+      <c r="I5" s="118"/>
       <c r="J5" s="131"/>
-      <c r="K5" s="135"/>
-      <c r="L5" s="129"/>
+      <c r="K5" s="129"/>
+      <c r="L5" s="132"/>
       <c r="M5" s="131"/>
-      <c r="N5" s="135"/>
-      <c r="O5" s="129"/>
+      <c r="N5" s="129"/>
+      <c r="O5" s="132"/>
       <c r="P5" s="131"/>
-      <c r="Q5" s="135"/>
-      <c r="R5" s="129"/>
+      <c r="Q5" s="129"/>
+      <c r="R5" s="132"/>
       <c r="S5" s="131"/>
-      <c r="T5" s="135"/>
-      <c r="U5" s="129"/>
-      <c r="V5" s="121"/>
+      <c r="T5" s="129"/>
+      <c r="U5" s="132"/>
+      <c r="V5" s="118"/>
       <c r="W5" s="131"/>
-      <c r="X5" s="129"/>
-      <c r="Y5" s="121"/>
-      <c r="Z5" s="121"/>
-      <c r="AA5" s="121"/>
-      <c r="AC5" s="121"/>
-      <c r="AD5" s="121"/>
-      <c r="AE5" s="121"/>
-      <c r="AF5" s="121"/>
+      <c r="X5" s="132"/>
+      <c r="Y5" s="118"/>
+      <c r="Z5" s="118"/>
+      <c r="AA5" s="118"/>
+      <c r="AC5" s="118"/>
+      <c r="AD5" s="118"/>
+      <c r="AE5" s="118"/>
+      <c r="AF5" s="118"/>
     </row>
     <row r="6" spans="1:32" ht="12.6" customHeight="1">
-      <c r="A6" s="121"/>
-      <c r="B6" s="121"/>
-      <c r="C6" s="121"/>
+      <c r="A6" s="118"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="118"/>
       <c r="D6" s="131"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="121"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="118"/>
       <c r="H6" s="131"/>
-      <c r="I6" s="121"/>
-      <c r="J6" s="132"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="136"/>
-      <c r="M6" s="132"/>
-      <c r="N6" s="125"/>
-      <c r="O6" s="136"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="122"/>
+      <c r="L6" s="134"/>
+      <c r="M6" s="133"/>
+      <c r="N6" s="122"/>
+      <c r="O6" s="134"/>
       <c r="P6" s="131"/>
-      <c r="Q6" s="135"/>
-      <c r="R6" s="129"/>
-      <c r="S6" s="132"/>
-      <c r="T6" s="125"/>
-      <c r="U6" s="136"/>
-      <c r="V6" s="121"/>
+      <c r="Q6" s="129"/>
+      <c r="R6" s="132"/>
+      <c r="S6" s="133"/>
+      <c r="T6" s="122"/>
+      <c r="U6" s="134"/>
+      <c r="V6" s="118"/>
       <c r="W6" s="131"/>
-      <c r="X6" s="129"/>
-      <c r="Y6" s="121"/>
-      <c r="Z6" s="121"/>
-      <c r="AA6" s="121"/>
-      <c r="AC6" s="121"/>
-      <c r="AD6" s="121"/>
-      <c r="AE6" s="121"/>
-      <c r="AF6" s="121"/>
+      <c r="X6" s="132"/>
+      <c r="Y6" s="118"/>
+      <c r="Z6" s="118"/>
+      <c r="AA6" s="118"/>
+      <c r="AC6" s="118"/>
+      <c r="AD6" s="118"/>
+      <c r="AE6" s="118"/>
+      <c r="AF6" s="118"/>
     </row>
     <row r="7" spans="1:32">
-      <c r="A7" s="122"/>
-      <c r="B7" s="122"/>
-      <c r="C7" s="122"/>
+      <c r="A7" s="119"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
       <c r="D7" s="131"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="122"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="119"/>
       <c r="J7" s="137" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="138"/>
-      <c r="L7" s="139"/>
+        <v>46</v>
+      </c>
+      <c r="K7" s="126"/>
+      <c r="L7" s="127"/>
       <c r="M7" s="137" t="s">
-        <v>46</v>
-      </c>
-      <c r="N7" s="138"/>
-      <c r="O7" s="139"/>
-      <c r="P7" s="132"/>
-      <c r="Q7" s="125"/>
-      <c r="R7" s="136"/>
+        <v>47</v>
+      </c>
+      <c r="N7" s="126"/>
+      <c r="O7" s="127"/>
+      <c r="P7" s="133"/>
+      <c r="Q7" s="122"/>
+      <c r="R7" s="134"/>
       <c r="S7" s="137" t="s">
-        <v>47</v>
-      </c>
-      <c r="T7" s="138"/>
-      <c r="U7" s="139"/>
-      <c r="V7" s="122"/>
-      <c r="W7" s="132"/>
-      <c r="X7" s="136"/>
-      <c r="Y7" s="122"/>
-      <c r="Z7" s="122"/>
-      <c r="AA7" s="122"/>
-      <c r="AC7" s="122"/>
-      <c r="AD7" s="122"/>
-      <c r="AE7" s="122"/>
-      <c r="AF7" s="122"/>
+        <v>48</v>
+      </c>
+      <c r="T7" s="126"/>
+      <c r="U7" s="127"/>
+      <c r="V7" s="119"/>
+      <c r="W7" s="133"/>
+      <c r="X7" s="134"/>
+      <c r="Y7" s="119"/>
+      <c r="Z7" s="119"/>
+      <c r="AA7" s="119"/>
+      <c r="AC7" s="119"/>
+      <c r="AD7" s="119"/>
+      <c r="AE7" s="119"/>
+      <c r="AF7" s="119"/>
     </row>
     <row r="8" spans="1:32">
       <c r="A8" s="108">
@@ -4148,7 +4148,7 @@
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="18" t="str">
@@ -4156,7 +4156,7 @@
         <v>1:STA1</v>
       </c>
       <c r="H8" s="40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I8" s="96">
         <v>1</v>
@@ -4183,7 +4183,7 @@
       <c r="AD8" s="60"/>
       <c r="AE8" s="60"/>
       <c r="AF8" s="60" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:32">
@@ -4195,7 +4195,7 @@
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="19" t="str">
@@ -4204,7 +4204,7 @@
       </c>
       <c r="H9" s="40"/>
       <c r="I9" s="96" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J9" s="77">
         <v>0</v>
@@ -4244,7 +4244,7 @@
       </c>
       <c r="V9" s="80"/>
       <c r="W9" s="81" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="X9" s="72"/>
       <c r="Y9" s="15">
@@ -4256,7 +4256,7 @@
       <c r="AD9" s="61"/>
       <c r="AE9" s="61"/>
       <c r="AF9" s="61" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:32">
@@ -4275,7 +4275,7 @@
       </c>
       <c r="H10" s="40"/>
       <c r="I10" s="96" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J10" s="77">
         <v>0</v>
@@ -4315,7 +4315,7 @@
       </c>
       <c r="V10" s="80"/>
       <c r="W10" s="81" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="X10" s="72"/>
       <c r="Y10" s="15">
@@ -4327,7 +4327,7 @@
       <c r="AD10" s="61"/>
       <c r="AE10" s="61"/>
       <c r="AF10" s="61" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:32">
@@ -4339,7 +4339,7 @@
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="19" t="str">
@@ -4348,7 +4348,7 @@
       </c>
       <c r="H11" s="40"/>
       <c r="I11" s="96" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J11" s="77">
         <v>0</v>
@@ -4388,7 +4388,7 @@
       </c>
       <c r="V11" s="80"/>
       <c r="W11" s="81" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="X11" s="72"/>
       <c r="Y11" s="15">
@@ -4400,7 +4400,7 @@
       <c r="AD11" s="61"/>
       <c r="AE11" s="61"/>
       <c r="AF11" s="61" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -4412,7 +4412,7 @@
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="19" t="str">
@@ -4421,7 +4421,7 @@
       </c>
       <c r="H12" s="40"/>
       <c r="I12" s="97" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J12" s="77">
         <v>0</v>
@@ -4461,7 +4461,7 @@
       </c>
       <c r="V12" s="61"/>
       <c r="W12" s="81" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="X12" s="72"/>
       <c r="Y12" s="15">
@@ -4483,7 +4483,7 @@
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="19" t="str">
@@ -4524,7 +4524,7 @@
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="19" t="str">
@@ -4643,7 +4643,7 @@
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="19" t="str">
@@ -4762,7 +4762,7 @@
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="19" t="str">
@@ -4881,7 +4881,7 @@
       </c>
       <c r="D23" s="15"/>
       <c r="E23" s="56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F23" s="15"/>
       <c r="G23" s="19" t="str">
@@ -5000,7 +5000,7 @@
       </c>
       <c r="D26" s="15"/>
       <c r="E26" s="56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F26" s="15"/>
       <c r="G26" s="19" t="str">
@@ -5119,7 +5119,7 @@
       </c>
       <c r="D29" s="15"/>
       <c r="E29" s="56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="19" t="str">
@@ -5238,7 +5238,7 @@
       </c>
       <c r="D32" s="15"/>
       <c r="E32" s="56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F32" s="15"/>
       <c r="G32" s="19" t="str">
@@ -5357,7 +5357,7 @@
       </c>
       <c r="D35" s="15"/>
       <c r="E35" s="56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="19" t="str">
@@ -10929,6 +10929,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="Y3:Y7"/>
+    <mergeCell ref="S3:U6"/>
+    <mergeCell ref="P3:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="J3:L6"/>
+    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="I2:I7"/>
+    <mergeCell ref="J7:L7"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="C2:C7"/>
@@ -10945,17 +10956,6 @@
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="AE2:AE7"/>
     <mergeCell ref="D2:D7"/>
-    <mergeCell ref="F2:F7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="Y3:Y7"/>
-    <mergeCell ref="S3:U6"/>
-    <mergeCell ref="P3:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="J3:L6"/>
-    <mergeCell ref="G2:G7"/>
-    <mergeCell ref="I2:I7"/>
-    <mergeCell ref="J7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:I1048576">
     <cfRule type="expression" dxfId="28" priority="41">
@@ -11057,7 +11057,7 @@
       <formula>$H8 &lt;&gt; "(FE) uniform"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations xWindow="1747" yWindow="323" count="25">
+  <dataValidations disablePrompts="1" xWindow="1747" yWindow="323" count="25">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="(FOR TRAPEZOIDAL LOADS ONLY)_x000a_PX1 - Enter your starting load in the X direction (kN/m)_x000a__x000a_PY1 - Enter your starting load in the Y direction (kN/m)_x000a__x000a_PZ1 - Enter your starting load in the Z direction (kN/m)" sqref="M7:O7" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="(FOR TRAPEZOIDAL LOADS ONLY)_x000a_x2 - Absolute or relative distance of end of load along a member (m or m/L)_x000a__x000a_x1 - Absolute or relative distance of start of load along a member (m or m/L)" sqref="S7:U7" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="(FOR TRAPEZOIDAL LOADS ONLY)_x000a_PX2 - Enter your finishing load in the X direction (kN/m)_x000a__x000a_PY2 - Enter your finishing load in the Y direction (kN/m)_x000a__x000a_PZ2 - Enter your finishing load in the Z direction (kN/m)" sqref="J7:L7" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
@@ -11088,7 +11088,7 @@
       <formula2>150</formula2>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="1-Projected, 0- Not projected_x000a_" sqref="Y3:Y7" xr:uid="{00000000-0002-0000-0100-000016000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Contour identification index_x000a_" sqref="Z3:Z7" xr:uid="{00000000-0002-0000-0100-000017000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="1, 0 - For load on contour auto detect panels_x000a_" sqref="Z3:Z7" xr:uid="{00000000-0002-0000-0100-000017000000}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H177" xr:uid="{69C6861F-E4DE-4C73-AD67-80357667F890}">
       <formula1>"(FE) uniform, nodal force, member force, self-weight, trapezoidal load (2p), uniform load, (FE) linear load on edges, load on contour, load 3p on contour"</formula1>
     </dataValidation>
@@ -11500,17 +11500,17 @@
     </row>
     <row r="3" spans="1:4605" s="7" customFormat="1" ht="218.65" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="53" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="69" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F3" s="69" t="s">
         <v>7</v>
@@ -16123,12 +16123,12 @@
       <c r="A4" s="3"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="146" t="s">
+      <c r="D4" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="133"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
       <c r="H4" s="84">
         <v>1</v>
       </c>
@@ -20735,9 +20735,9 @@
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
       <c r="D5" s="131"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
       <c r="H5" s="84"/>
       <c r="I5" s="84"/>
       <c r="J5" s="84"/>
@@ -21108,19 +21108,19 @@
       <c r="NK5" s="50"/>
     </row>
     <row r="6" spans="1:4605" s="4" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A6" s="119" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="119" t="s">
+      <c r="A6" s="147" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="119" t="s">
+      <c r="B6" s="147" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="117"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="118"/>
+      <c r="C6" s="147" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="145"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
       <c r="H6" s="84"/>
       <c r="I6" s="84"/>
       <c r="J6" s="84"/>
@@ -31997,81 +31997,81 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
         <v>61</v>
       </c>
-      <c r="G1" t="s">
-        <v>60</v>
-      </c>
       <c r="H1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="100" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B2" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="100" t="s">
+      <c r="H2" t="s">
         <v>67</v>
       </c>
-      <c r="D2" t="s">
+      <c r="I2" t="s">
         <v>68</v>
       </c>
-      <c r="G2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" t="s">
         <v>66</v>
       </c>
-      <c r="I2" t="s">
+      <c r="N2" t="s">
         <v>67</v>
       </c>
-      <c r="J2" t="s">
+      <c r="O2" t="s">
         <v>68</v>
       </c>
-      <c r="M2" t="s">
-        <v>65</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
+        <v>69</v>
+      </c>
+      <c r="S2" t="s">
         <v>66</v>
       </c>
-      <c r="O2" t="s">
+      <c r="T2" t="s">
         <v>67</v>
       </c>
-      <c r="P2" t="s">
+      <c r="U2" t="s">
         <v>68</v>
       </c>
-      <c r="S2" t="s">
-        <v>65</v>
-      </c>
-      <c r="T2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U2" t="s">
-        <v>67</v>
-      </c>
       <c r="V2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="W2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -32124,7 +32124,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -32177,7 +32177,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -32230,7 +32230,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -32428,81 +32428,81 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
         <v>61</v>
       </c>
-      <c r="G1" t="s">
-        <v>60</v>
-      </c>
       <c r="H1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="100" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B2" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="100" t="s">
+      <c r="H2" t="s">
         <v>67</v>
       </c>
-      <c r="D2" t="s">
+      <c r="I2" t="s">
         <v>68</v>
       </c>
-      <c r="G2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" t="s">
         <v>66</v>
       </c>
-      <c r="I2" t="s">
+      <c r="N2" t="s">
         <v>67</v>
       </c>
-      <c r="J2" t="s">
+      <c r="O2" t="s">
         <v>68</v>
       </c>
-      <c r="M2" t="s">
-        <v>65</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
+        <v>69</v>
+      </c>
+      <c r="S2" t="s">
         <v>66</v>
       </c>
-      <c r="O2" t="s">
+      <c r="T2" t="s">
         <v>67</v>
       </c>
-      <c r="P2" t="s">
+      <c r="U2" t="s">
         <v>68</v>
       </c>
-      <c r="S2" t="s">
-        <v>65</v>
-      </c>
-      <c r="T2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U2" t="s">
-        <v>67</v>
-      </c>
       <c r="V2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="W2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -32555,7 +32555,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -32608,7 +32608,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -32661,7 +32661,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -32880,7 +32880,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
       <c r="A1" s="17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F1" s="24">
         <v>0.5</v>
@@ -32889,77 +32889,77 @@
         <v>0.1</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S1" s="17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" customHeight="1">
       <c r="A2" s="17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O2" s="17">
         <v>1</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S2" s="17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T2" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="39" customHeight="1">
       <c r="A3" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F3" s="25" t="e">
         <f>PlatformName &amp;" member utilisations $&gt;" &amp;F1&amp;"$"</f>
@@ -32974,107 +32974,107 @@
         <v>#REF!</v>
       </c>
       <c r="J3" s="26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K3" s="25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O3" s="17">
         <v>1</v>
       </c>
       <c r="P3" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S3" s="17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T3" s="26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1">
       <c r="A4" s="17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O4" s="17">
         <v>1</v>
       </c>
       <c r="P4" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S4" s="17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1">
       <c r="B5" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O5" s="17">
         <v>1</v>
       </c>
       <c r="P5" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S5" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" customHeight="1">
@@ -33103,19 +33103,19 @@
         <v>#REF!</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O6" s="17">
         <v>1</v>
       </c>
       <c r="P6" s="17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="S6" s="17" t="e">
         <f>"\includegraphics[width=\textwidth]{\"&amp;LaTeXFiguresFolder &amp;"\"&amp;PlatformName&amp; " "&amp;S3&amp;".png} "</f>
@@ -33148,61 +33148,61 @@
         <v>#REF!</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J7" s="17">
         <f>COLUMN(J1)</f>
         <v>10</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O7" s="17">
         <v>1</v>
       </c>
       <c r="P7" s="17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="S7" s="17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1">
       <c r="B8" s="17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O8" s="17">
         <v>1</v>
       </c>
       <c r="P8" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S8" s="17" t="e">
         <f>"    \caption{" &amp;PlatformName&amp; " " &amp; S3 &amp;".}"</f>
@@ -33211,37 +33211,37 @@
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1">
       <c r="B9" s="17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O9" s="17">
         <v>1</v>
       </c>
       <c r="P9" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S9" s="17" t="e">
         <f>"    \label{tabl:" &amp; PlatformName &amp;" "&amp;S3 &amp;"}"</f>
@@ -33250,107 +33250,107 @@
     </row>
     <row r="10" spans="1:20" ht="16.5" customHeight="1">
       <c r="B10" s="47" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N10" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O10" s="17">
         <v>1</v>
       </c>
       <c r="P10" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="16.5" customHeight="1">
       <c r="B11" s="47" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E11" s="47" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F11" s="47" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G11" s="47" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O11" s="17">
         <v>1</v>
       </c>
       <c r="P11" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1">
       <c r="H12" s="25" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O12" s="17">
         <v>1</v>
       </c>
       <c r="P12" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="16.5" customHeight="1">
       <c r="C13" s="47"/>
       <c r="H13" s="25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O13" s="17">
         <v>1</v>
       </c>
       <c r="P13" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="16.5" customHeight="1">
@@ -33360,16 +33360,16 @@
         <v>#REF!</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N14" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O14" s="17">
         <v>1</v>
       </c>
       <c r="P14" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S14" s="26"/>
     </row>
@@ -33380,49 +33380,49 @@
         <v>#REF!</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N15" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O15" s="17">
         <v>1</v>
       </c>
       <c r="P15" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="16.5" customHeight="1">
       <c r="C16" s="47"/>
       <c r="H16" s="25" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N16" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="17">
         <v>1</v>
       </c>
       <c r="P16" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="3:16" ht="16.5" customHeight="1">
       <c r="C17" s="47"/>
       <c r="M17" s="17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="17">
         <v>1</v>
       </c>
       <c r="P17" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="3:16" ht="16.5" customHeight="1">
@@ -33486,79 +33486,79 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="28" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E1" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="F1" s="29" t="s">
-        <v>150</v>
-      </c>
       <c r="G1" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="29" t="s">
-        <v>150</v>
-      </c>
       <c r="I1" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="J1" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="J1" s="29" t="s">
-        <v>150</v>
-      </c>
       <c r="K1" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="L1" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="L1" s="29" t="s">
-        <v>150</v>
-      </c>
       <c r="M1" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="N1" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="N1" s="29" t="s">
-        <v>150</v>
-      </c>
       <c r="O1" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="P1" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="P1" s="29" t="s">
-        <v>150</v>
-      </c>
       <c r="Q1" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="R1" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="R1" s="29" t="s">
-        <v>150</v>
-      </c>
       <c r="S1" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="T1" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="T1" s="29" t="s">
-        <v>150</v>
-      </c>
       <c r="U1" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="V1" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="V1" s="29" t="s">
-        <v>150</v>
-      </c>
       <c r="W1" s="29" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="X1" s="33" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Y1" s="29" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -33566,10 +33566,10 @@
         <v>1000</v>
       </c>
       <c r="B2" s="86" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C2" s="87" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D2" s="85">
         <v>1</v>
@@ -33609,10 +33609,10 @@
         <v>1001</v>
       </c>
       <c r="B3" s="90" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="87" t="s">
         <v>156</v>
-      </c>
-      <c r="C3" s="87" t="s">
-        <v>155</v>
       </c>
       <c r="D3" s="87">
         <v>2</v>
@@ -33652,10 +33652,10 @@
         <v>2000</v>
       </c>
       <c r="B4" s="90" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C4" s="87" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D4" s="87">
         <v>2</v>
@@ -33703,10 +33703,10 @@
         <v>2001</v>
       </c>
       <c r="B5" s="90" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C5" s="87" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D5" s="87">
         <v>2</v>
@@ -33754,10 +33754,10 @@
         <v>2002</v>
       </c>
       <c r="B6" s="90" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C6" s="87" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D6" s="87">
         <v>2</v>
@@ -33805,10 +33805,10 @@
         <v>2100</v>
       </c>
       <c r="B7" s="90" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C7" s="87" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D7" s="87">
         <v>1</v>
@@ -33856,10 +33856,10 @@
         <v>2101</v>
       </c>
       <c r="B8" s="90" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C8" s="87" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D8" s="87">
         <v>1</v>
@@ -33907,10 +33907,10 @@
         <v>2102</v>
       </c>
       <c r="B9" s="90" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C9" s="87" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D9" s="87">
         <v>1</v>
@@ -33958,10 +33958,10 @@
         <v>2103</v>
       </c>
       <c r="B10" s="90" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C10" s="87" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D10" s="87">
         <v>1</v>
@@ -34009,10 +34009,10 @@
         <v>2104</v>
       </c>
       <c r="B11" s="90" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C11" s="87" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D11" s="87">
         <v>1</v>
@@ -34060,10 +34060,10 @@
         <v>2105</v>
       </c>
       <c r="B12" s="90" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C12" s="87" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D12" s="87">
         <v>1</v>
@@ -34111,10 +34111,10 @@
         <v>2106</v>
       </c>
       <c r="B13" s="90" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C13" s="87" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D13" s="87">
         <v>1</v>
@@ -34162,10 +34162,10 @@
         <v>2107</v>
       </c>
       <c r="B14" s="90" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C14" s="87" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D14" s="87">
         <v>1</v>
@@ -34213,10 +34213,10 @@
         <v>2108</v>
       </c>
       <c r="B15" s="90" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C15" s="87" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D15" s="87">
         <v>1</v>
@@ -34264,10 +34264,10 @@
         <v>2109</v>
       </c>
       <c r="B16" s="90" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C16" s="87" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D16" s="87">
         <v>1</v>
@@ -34315,10 +34315,10 @@
         <v>3001</v>
       </c>
       <c r="B17" s="90" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C17" s="87" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D17" s="87">
         <v>1</v>
@@ -34362,10 +34362,10 @@
         <v>3002</v>
       </c>
       <c r="B18" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" s="87" t="s">
         <v>172</v>
-      </c>
-      <c r="C18" s="87" t="s">
-        <v>171</v>
       </c>
       <c r="D18" s="87">
         <v>2</v>
@@ -34409,10 +34409,10 @@
         <v>3004</v>
       </c>
       <c r="B19" s="90" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C19" s="87" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D19" s="87">
         <v>2</v>
@@ -34460,10 +34460,10 @@
         <v>3005</v>
       </c>
       <c r="B20" s="90" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C20" s="87" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D20" s="87">
         <v>2</v>
@@ -34511,10 +34511,10 @@
         <v>3006</v>
       </c>
       <c r="B21" s="90" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C21" s="87" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D21" s="87">
         <v>2</v>
